--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4EAF854-5C25-2548-BFFF-CC6D7D63F6F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AFB4926-02B3-0E43-8E33-EE3B2EFD8F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="500" windowWidth="27960" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2306" uniqueCount="1890">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2305" uniqueCount="1890">
   <si>
     <t>Aceito</t>
   </si>
@@ -5843,7 +5843,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5936,6 +5936,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -14181,20 +14184,20 @@
       </c>
     </row>
     <row r="464" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A464" s="3">
+      <c r="A464" s="9">
         <v>2023</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>1813</v>
+        <v>1769</v>
       </c>
       <c r="C464" s="25" t="s">
-        <v>1814</v>
+        <v>1770</v>
       </c>
       <c r="D464" s="3" t="s">
-        <v>1804</v>
-      </c>
-      <c r="E464" s="7" t="s">
-        <v>1211</v>
+        <v>1732</v>
+      </c>
+      <c r="E464" s="3" t="s">
+        <v>626</v>
       </c>
     </row>
     <row r="465" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -14202,15 +14205,15 @@
         <v>2023</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>1889</v>
+        <v>1813</v>
       </c>
       <c r="C465" s="25" t="s">
-        <v>1888</v>
+        <v>1814</v>
       </c>
       <c r="D465" s="3" t="s">
-        <v>1887</v>
-      </c>
-      <c r="E465" s="3" t="s">
+        <v>1804</v>
+      </c>
+      <c r="E465" s="7" t="s">
         <v>1211</v>
       </c>
     </row>
@@ -14219,131 +14222,131 @@
         <v>2023</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>1764</v>
+        <v>1889</v>
       </c>
       <c r="C466" s="25" t="s">
-        <v>1763</v>
+        <v>1888</v>
       </c>
       <c r="D466" s="3" t="s">
-        <v>1760</v>
+        <v>1887</v>
       </c>
       <c r="E466" s="3" t="s">
-        <v>1736</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="467" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A467" s="3">
         <v>2023</v>
       </c>
-      <c r="B467" s="4"/>
-      <c r="C467" s="5"/>
+      <c r="B467" s="3" t="s">
+        <v>1764</v>
+      </c>
+      <c r="C467" s="25" t="s">
+        <v>1763</v>
+      </c>
       <c r="D467" s="3" t="s">
-        <v>1750</v>
+        <v>1760</v>
       </c>
       <c r="E467" s="3" t="s">
-        <v>1718</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="468" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A468" s="3">
         <v>2023</v>
       </c>
-      <c r="B468" s="3" t="s">
+      <c r="B468" s="4"/>
+      <c r="C468" s="5"/>
+      <c r="D468" s="3" t="s">
+        <v>1750</v>
+      </c>
+      <c r="E468" s="3" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A469" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B469" s="3" t="s">
         <v>1884</v>
       </c>
-      <c r="C468" s="25" t="s">
+      <c r="C469" s="25" t="s">
         <v>1885</v>
       </c>
-      <c r="D468" s="3" t="s">
+      <c r="D469" s="3" t="s">
         <v>1886</v>
       </c>
-      <c r="E468" s="3" t="s">
+      <c r="E469" s="3" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="469" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A469" s="9">
+    <row r="470" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A470" s="9">
         <v>2023</v>
       </c>
-      <c r="B469" s="3" t="s">
+      <c r="B470" s="3" t="s">
         <v>1698</v>
       </c>
-      <c r="C469" s="25" t="s">
+      <c r="C470" s="25" t="s">
         <v>1699</v>
       </c>
-      <c r="D469" s="3" t="s">
+      <c r="D470" s="3" t="s">
         <v>1475</v>
       </c>
-      <c r="E469" s="3" t="s">
+      <c r="E470" s="3" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="470" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A470" s="3">
-        <v>2023</v>
-      </c>
-      <c r="B470" s="4" t="s">
-        <v>1480</v>
-      </c>
-      <c r="C470" s="5" t="s">
-        <v>1481</v>
-      </c>
-      <c r="D470" s="3" t="s">
-        <v>1482</v>
-      </c>
-      <c r="E470" s="3" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="471" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A471" s="3">
         <v>2023</v>
       </c>
-      <c r="B471" s="3" t="s">
-        <v>1713</v>
-      </c>
-      <c r="C471" s="25" t="s">
-        <v>1712</v>
+      <c r="B471" s="4" t="s">
+        <v>1480</v>
+      </c>
+      <c r="C471" s="5" t="s">
+        <v>1481</v>
       </c>
       <c r="D471" s="3" t="s">
-        <v>1704</v>
+        <v>1482</v>
       </c>
       <c r="E471" s="3" t="s">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="472" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A472" s="3">
         <v>2023</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>1846</v>
+        <v>1713</v>
       </c>
       <c r="C472" s="25" t="s">
-        <v>1847</v>
+        <v>1712</v>
       </c>
       <c r="D472" s="3" t="s">
-        <v>1848</v>
+        <v>1704</v>
       </c>
       <c r="E472" s="3" t="s">
-        <v>1806</v>
-      </c>
-    </row>
-    <row r="473" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A473" s="3">
         <v>2023</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>1757</v>
+        <v>1846</v>
       </c>
       <c r="C473" s="25" t="s">
-        <v>1758</v>
+        <v>1847</v>
       </c>
       <c r="D473" s="14" t="s">
-        <v>1756</v>
+        <v>1848</v>
       </c>
       <c r="E473" s="14" t="s">
-        <v>1339</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="474" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -14351,16 +14354,16 @@
         <v>2023</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>1799</v>
-      </c>
-      <c r="C474" s="27" t="s">
-        <v>1800</v>
-      </c>
-      <c r="D474" s="3" t="s">
-        <v>1801</v>
-      </c>
-      <c r="E474" s="3" t="s">
-        <v>1748</v>
+        <v>1757</v>
+      </c>
+      <c r="C474" s="25" t="s">
+        <v>1758</v>
+      </c>
+      <c r="D474" s="32" t="s">
+        <v>1756</v>
+      </c>
+      <c r="E474" s="32" t="s">
+        <v>1339</v>
       </c>
     </row>
     <row r="475" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -14368,33 +14371,33 @@
         <v>2023</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>1861</v>
-      </c>
-      <c r="C475" s="25" t="s">
-        <v>1862</v>
+        <v>1799</v>
+      </c>
+      <c r="C475" s="27" t="s">
+        <v>1800</v>
       </c>
       <c r="D475" s="3" t="s">
-        <v>1860</v>
+        <v>1801</v>
       </c>
       <c r="E475" s="3" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="476" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A476" s="3">
         <v>2023</v>
       </c>
       <c r="B476" s="3" t="s">
-        <v>1796</v>
+        <v>1861</v>
       </c>
       <c r="C476" s="25" t="s">
-        <v>1797</v>
-      </c>
-      <c r="D476" s="7" t="s">
-        <v>1798</v>
-      </c>
-      <c r="E476" s="7" t="s">
-        <v>1789</v>
+        <v>1862</v>
+      </c>
+      <c r="D476" s="3" t="s">
+        <v>1860</v>
+      </c>
+      <c r="E476" s="3" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="477" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -14402,33 +14405,33 @@
         <v>2023</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>1843</v>
-      </c>
-      <c r="C477" s="27" t="s">
-        <v>1844</v>
-      </c>
-      <c r="D477" s="3" t="s">
-        <v>1845</v>
-      </c>
-      <c r="E477" s="3" t="s">
-        <v>1697</v>
-      </c>
-    </row>
-    <row r="478" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+        <v>1796</v>
+      </c>
+      <c r="C477" s="25" t="s">
+        <v>1797</v>
+      </c>
+      <c r="D477" s="7" t="s">
+        <v>1798</v>
+      </c>
+      <c r="E477" s="7" t="s">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A478" s="3">
         <v>2023</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>1875</v>
-      </c>
-      <c r="C478" s="25" t="s">
-        <v>1876</v>
+        <v>1843</v>
+      </c>
+      <c r="C478" s="27" t="s">
+        <v>1844</v>
       </c>
       <c r="D478" s="3" t="s">
-        <v>1877</v>
+        <v>1845</v>
       </c>
       <c r="E478" s="3" t="s">
-        <v>9</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="479" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -14436,33 +14439,33 @@
         <v>2023</v>
       </c>
       <c r="B479" s="3" t="s">
+        <v>1875</v>
+      </c>
+      <c r="C479" s="25" t="s">
+        <v>1876</v>
+      </c>
+      <c r="D479" s="3" t="s">
+        <v>1877</v>
+      </c>
+      <c r="E479" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A480" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B480" s="3" t="s">
         <v>1774</v>
       </c>
-      <c r="C479" s="25" t="s">
+      <c r="C480" s="25" t="s">
         <v>1775</v>
       </c>
-      <c r="D479" s="3" t="s">
+      <c r="D480" s="3" t="s">
         <v>1776</v>
       </c>
-      <c r="E479" s="3" t="s">
+      <c r="E480" s="3" t="s">
         <v>1734</v>
-      </c>
-    </row>
-    <row r="480" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A480" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B480" s="3" t="s">
-        <v>1769</v>
-      </c>
-      <c r="C480" s="25" t="s">
-        <v>1770</v>
-      </c>
-      <c r="D480" s="3" t="s">
-        <v>1732</v>
-      </c>
-      <c r="E480" s="3" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="481" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -15088,31 +15091,31 @@
     <hyperlink ref="C429" r:id="rId420" xr:uid="{06740822-7504-4E46-9654-935A4A1EFA60}"/>
     <hyperlink ref="C425" r:id="rId421" xr:uid="{E58EEDD4-4AA8-BE45-8AD8-CB0DC0B2D5C2}"/>
     <hyperlink ref="C445" r:id="rId422" xr:uid="{24A59CBC-06DB-C74E-AE99-CBEA2CECBD8C}"/>
-    <hyperlink ref="C471" r:id="rId423" xr:uid="{D42A1C9A-72D3-4D42-B7F4-157D6D7A09E6}"/>
+    <hyperlink ref="C472" r:id="rId423" xr:uid="{D42A1C9A-72D3-4D42-B7F4-157D6D7A09E6}"/>
     <hyperlink ref="C454" r:id="rId424" xr:uid="{92E2E665-F68D-A049-9BD7-C3DA79B3A200}"/>
     <hyperlink ref="C442" r:id="rId425" xr:uid="{49888390-7E13-9E41-8984-769DA7920F23}"/>
     <hyperlink ref="C462" r:id="rId426" xr:uid="{92310A67-CFEB-1442-9F4B-A6EB03F8CA9D}"/>
     <hyperlink ref="C137" r:id="rId427" xr:uid="{68F1FA74-6029-7547-BBA3-C88201363FB1}"/>
     <hyperlink ref="C485" r:id="rId428" xr:uid="{5598AA94-042A-8444-8A68-F34B768D6391}"/>
-    <hyperlink ref="C470" r:id="rId429" xr:uid="{1DC54133-329D-934D-B952-38AD209751EB}"/>
-    <hyperlink ref="C469" r:id="rId430" xr:uid="{FE1B21A2-6165-954E-83A0-86B1477E134C}"/>
+    <hyperlink ref="C471" r:id="rId429" xr:uid="{1DC54133-329D-934D-B952-38AD209751EB}"/>
+    <hyperlink ref="C470" r:id="rId430" xr:uid="{FE1B21A2-6165-954E-83A0-86B1477E134C}"/>
     <hyperlink ref="C487" r:id="rId431" xr:uid="{60F04DB8-D97E-5846-B27B-739B0F451121}"/>
     <hyperlink ref="C490" r:id="rId432" xr:uid="{A261A6CC-C1B9-3C47-9098-02B78E36A259}"/>
-    <hyperlink ref="C473" r:id="rId433" xr:uid="{381FA6B8-8A89-7542-BABB-1E5B0D78936F}"/>
-    <hyperlink ref="C466" r:id="rId434" xr:uid="{8CF61C82-8B65-7844-A7B2-C48B30D5C02C}"/>
+    <hyperlink ref="C474" r:id="rId433" xr:uid="{381FA6B8-8A89-7542-BABB-1E5B0D78936F}"/>
+    <hyperlink ref="C467" r:id="rId434" xr:uid="{8CF61C82-8B65-7844-A7B2-C48B30D5C02C}"/>
     <hyperlink ref="C486" r:id="rId435" xr:uid="{FC196FDE-4A86-C646-83DC-75766707EA5F}"/>
-    <hyperlink ref="C480" r:id="rId436" xr:uid="{4D22C1A3-45C9-A74A-958C-30E3829DCBA2}"/>
-    <hyperlink ref="C479" r:id="rId437" xr:uid="{5DD11293-7B10-FF4E-94CF-F5D9FAAB5EE2}"/>
+    <hyperlink ref="C464" r:id="rId436" xr:uid="{4D22C1A3-45C9-A74A-958C-30E3829DCBA2}"/>
+    <hyperlink ref="C480" r:id="rId437" xr:uid="{5DD11293-7B10-FF4E-94CF-F5D9FAAB5EE2}"/>
     <hyperlink ref="C463" r:id="rId438" xr:uid="{89A97CBF-6DC8-7D47-BA63-74707C972886}"/>
     <hyperlink ref="C461" r:id="rId439" xr:uid="{D823028E-84C8-5E46-9D98-9E13D97FC578}"/>
     <hyperlink ref="C434" r:id="rId440" xr:uid="{F6B2244A-7FD4-DF41-9E72-1EF5DA77950E}"/>
     <hyperlink ref="C458" r:id="rId441" xr:uid="{BAF28E86-9DC1-714A-BF9B-FCCAAB27B831}"/>
     <hyperlink ref="C443" r:id="rId442" xr:uid="{8A217E0A-1B60-B140-830E-F808AD870E84}"/>
     <hyperlink ref="C440" r:id="rId443" xr:uid="{8DE773B0-912F-9B41-A266-32301524A16D}"/>
-    <hyperlink ref="C476" r:id="rId444" xr:uid="{D1EF4E13-3824-4A44-9875-8E44E3031FA4}"/>
-    <hyperlink ref="C474" r:id="rId445" xr:uid="{2ED30959-FE82-5F43-BFE7-4F9CEA247B85}"/>
+    <hyperlink ref="C477" r:id="rId444" xr:uid="{D1EF4E13-3824-4A44-9875-8E44E3031FA4}"/>
+    <hyperlink ref="C475" r:id="rId445" xr:uid="{2ED30959-FE82-5F43-BFE7-4F9CEA247B85}"/>
     <hyperlink ref="C484" r:id="rId446" xr:uid="{052595BE-FC0D-1446-9958-4CAD77FFF36A}"/>
-    <hyperlink ref="C464" r:id="rId447" xr:uid="{CB57610E-AF1B-F142-9E40-DE2C01B5D04E}"/>
+    <hyperlink ref="C465" r:id="rId447" xr:uid="{CB57610E-AF1B-F142-9E40-DE2C01B5D04E}"/>
     <hyperlink ref="C483" r:id="rId448" xr:uid="{F5FCB9E9-4FFE-C845-B66C-99FBCFC152F7}"/>
     <hyperlink ref="C16" r:id="rId449" xr:uid="{57DF7DFF-E08C-AC44-99A4-95A8C1D4DEC2}"/>
     <hyperlink ref="C41" r:id="rId450" xr:uid="{769258DE-593A-9B4B-8EDD-6ED0DBE68285}"/>
@@ -15120,17 +15123,17 @@
     <hyperlink ref="C40" r:id="rId452" xr:uid="{5BD29D25-8ADD-B440-83E7-890364BCA98E}"/>
     <hyperlink ref="C39" r:id="rId453" xr:uid="{A0F4DCFD-921B-0748-9518-065A1A7FB314}"/>
     <hyperlink ref="C26" r:id="rId454" xr:uid="{8DE7F092-8E6C-3A42-A1BB-86A02FFF3031}"/>
-    <hyperlink ref="C477" r:id="rId455" xr:uid="{861D8244-FF07-8B48-8842-120EA65B6E2A}"/>
-    <hyperlink ref="C472" r:id="rId456" xr:uid="{DB14A355-D283-5346-99A7-A9393EDAA694}"/>
+    <hyperlink ref="C478" r:id="rId455" xr:uid="{861D8244-FF07-8B48-8842-120EA65B6E2A}"/>
+    <hyperlink ref="C473" r:id="rId456" xr:uid="{DB14A355-D283-5346-99A7-A9393EDAA694}"/>
     <hyperlink ref="C38" r:id="rId457" xr:uid="{C624ACFD-43A3-8C44-97A5-825078F9C276}"/>
-    <hyperlink ref="C475" r:id="rId458" xr:uid="{2D52B4F4-A20E-B146-BA35-93EF057C52B1}"/>
+    <hyperlink ref="C476" r:id="rId458" xr:uid="{2D52B4F4-A20E-B146-BA35-93EF057C52B1}"/>
     <hyperlink ref="C489" r:id="rId459" xr:uid="{C5290CBF-1B4B-334B-BE80-F1AD9E846978}"/>
     <hyperlink ref="C482" r:id="rId460" xr:uid="{FA5046AA-498F-7645-AAA8-5B8683FCB609}"/>
     <hyperlink ref="C433" r:id="rId461" xr:uid="{BEB636BD-057C-1D44-9ABE-2CAC9D0DA993}"/>
-    <hyperlink ref="C478" r:id="rId462" xr:uid="{DA586EDB-1694-DD40-B47A-B846AFC776ED}"/>
+    <hyperlink ref="C479" r:id="rId462" xr:uid="{DA586EDB-1694-DD40-B47A-B846AFC776ED}"/>
     <hyperlink ref="C387" r:id="rId463" xr:uid="{68742F5D-6036-284F-9C91-D84F5BE0870B}"/>
-    <hyperlink ref="C468" r:id="rId464" xr:uid="{3EB2C32B-6748-1941-BE52-652CC2A4B965}"/>
-    <hyperlink ref="C465" r:id="rId465" xr:uid="{03D5A38C-F495-E84C-B162-D2BAF332C216}"/>
+    <hyperlink ref="C469" r:id="rId464" xr:uid="{3EB2C32B-6748-1941-BE52-652CC2A4B965}"/>
+    <hyperlink ref="C466" r:id="rId465" xr:uid="{03D5A38C-F495-E84C-B162-D2BAF332C216}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape"/>

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AFB4926-02B3-0E43-8E33-EE3B2EFD8F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9AA13D-E788-D94C-A970-DC88E670ABC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="500" windowWidth="27960" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2305" uniqueCount="1890">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2310" uniqueCount="1894">
   <si>
     <t>Aceito</t>
   </si>
@@ -5717,6 +5717,18 @@
   </si>
   <si>
     <t>10.3390/healthcare11101386</t>
+  </si>
+  <si>
+    <t>What are Brazilian orthopaedists' views on the diagnosis and treatment of patients with chronic nonspecific low back pain? A qualitative investigation</t>
+  </si>
+  <si>
+    <t>10.1002/msc.1778</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/msc.1778</t>
+  </si>
+  <si>
+    <t>1557-0681</t>
   </si>
 </sst>
 </file>
@@ -5938,7 +5950,7 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6364,13 +6376,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:K490"/>
+  <dimension ref="A1:K491"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B473" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B474" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A490" sqref="A490"/>
+      <selection pane="bottomRight" activeCell="A491" sqref="A491"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14359,10 +14371,10 @@
       <c r="C474" s="25" t="s">
         <v>1758</v>
       </c>
-      <c r="D474" s="32" t="s">
+      <c r="D474" s="3" t="s">
         <v>1756</v>
       </c>
-      <c r="E474" s="32" t="s">
+      <c r="E474" s="3" t="s">
         <v>1339</v>
       </c>
     </row>
@@ -14624,6 +14636,23 @@
       </c>
       <c r="E490" s="3" t="s">
         <v>525</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A491" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B491" s="3" t="s">
+        <v>1891</v>
+      </c>
+      <c r="C491" s="32" t="s">
+        <v>1892</v>
+      </c>
+      <c r="D491" s="3" t="s">
+        <v>1890</v>
+      </c>
+      <c r="E491" s="3" t="s">
+        <v>1893</v>
       </c>
     </row>
   </sheetData>
@@ -15134,6 +15163,7 @@
     <hyperlink ref="C387" r:id="rId463" xr:uid="{68742F5D-6036-284F-9C91-D84F5BE0870B}"/>
     <hyperlink ref="C469" r:id="rId464" xr:uid="{3EB2C32B-6748-1941-BE52-652CC2A4B965}"/>
     <hyperlink ref="C466" r:id="rId465" xr:uid="{03D5A38C-F495-E84C-B162-D2BAF332C216}"/>
+    <hyperlink ref="C491" r:id="rId466" xr:uid="{C2655E1D-DB43-584E-9E49-AEA6620AD532}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape"/>
@@ -15721,7 +15751,7 @@
       <selection activeCell="A490" sqref="A490"/>
       <selection pane="topRight" activeCell="A490" sqref="A490"/>
       <selection pane="bottomLeft" activeCell="A490" sqref="A490"/>
-      <selection pane="bottomRight" activeCell="A490" sqref="A490"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16489,7 +16519,7 @@
       <selection activeCell="A490" sqref="A490"/>
       <selection pane="topRight" activeCell="A490" sqref="A490"/>
       <selection pane="bottomLeft" activeCell="A490" sqref="A490"/>
-      <selection pane="bottomRight" activeCell="A490" sqref="A490"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -17577,11 +17607,11 @@
   <dimension ref="A1:F76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B55" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A490" sqref="A490"/>
       <selection pane="topRight" activeCell="A490" sqref="A490"/>
       <selection pane="bottomLeft" activeCell="A490" sqref="A490"/>
-      <selection pane="bottomRight" activeCell="A490" sqref="A490"/>
+      <selection pane="bottomRight" activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9AA13D-E788-D94C-A970-DC88E670ABC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7572E56-5CC7-B446-B30A-13D6199B2A28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="500" windowWidth="27960" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="880" yWindow="500" windowWidth="27920" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PI.completos" sheetId="4" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2310" uniqueCount="1894">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2313" uniqueCount="1897">
   <si>
     <t>Aceito</t>
   </si>
@@ -5729,6 +5729,15 @@
   </si>
   <si>
     <t>1557-0681</t>
+  </si>
+  <si>
+    <t>10.20944/preprints202305.1684.v1</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.20944/preprints202305.1684.v1</t>
+  </si>
+  <si>
+    <t>Reference Values for the Grocery Shelving Test among United Arab Emirates Population: A Cross Sectional Study</t>
   </si>
 </sst>
 </file>
@@ -16519,7 +16528,7 @@
       <selection activeCell="A490" sqref="A490"/>
       <selection pane="topRight" activeCell="A490" sqref="A490"/>
       <selection pane="bottomLeft" activeCell="A490" sqref="A490"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -16574,7 +16583,20 @@
         <v>1579</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>1895</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>1896</v>
+      </c>
+    </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -17596,6 +17618,7 @@
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{72C4B9BA-6234-2544-A5FF-A73D45CA4150}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="55" orientation="landscape"/>

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7572E56-5CC7-B446-B30A-13D6199B2A28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E718E0-29E4-1648-87F1-39A122B97AFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="500" windowWidth="27920" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2313" uniqueCount="1897">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2312" uniqueCount="1897">
   <si>
     <t>Aceito</t>
   </si>
@@ -5864,7 +5864,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5960,6 +5960,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -14303,88 +14306,88 @@
       </c>
     </row>
     <row r="470" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A470" s="9">
+      <c r="A470" s="3">
         <v>2023</v>
       </c>
-      <c r="B470" s="3" t="s">
+      <c r="B470" s="22" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C470" s="26" t="s">
+        <v>1808</v>
+      </c>
+      <c r="D470" s="3" t="s">
+        <v>1809</v>
+      </c>
+      <c r="E470" s="3" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A471" s="9">
+        <v>2023</v>
+      </c>
+      <c r="B471" s="3" t="s">
         <v>1698</v>
       </c>
-      <c r="C470" s="25" t="s">
+      <c r="C471" s="25" t="s">
         <v>1699</v>
       </c>
-      <c r="D470" s="3" t="s">
+      <c r="D471" s="3" t="s">
         <v>1475</v>
       </c>
-      <c r="E470" s="3" t="s">
+      <c r="E471" s="3" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="471" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A471" s="3">
-        <v>2023</v>
-      </c>
-      <c r="B471" s="4" t="s">
-        <v>1480</v>
-      </c>
-      <c r="C471" s="5" t="s">
-        <v>1481</v>
-      </c>
-      <c r="D471" s="3" t="s">
-        <v>1482</v>
-      </c>
-      <c r="E471" s="3" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="472" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A472" s="3">
         <v>2023</v>
       </c>
-      <c r="B472" s="3" t="s">
-        <v>1713</v>
-      </c>
-      <c r="C472" s="25" t="s">
-        <v>1712</v>
+      <c r="B472" s="4" t="s">
+        <v>1480</v>
+      </c>
+      <c r="C472" s="5" t="s">
+        <v>1481</v>
       </c>
       <c r="D472" s="3" t="s">
-        <v>1704</v>
+        <v>1482</v>
       </c>
       <c r="E472" s="3" t="s">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="473" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A473" s="3">
         <v>2023</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>1846</v>
+        <v>1713</v>
       </c>
       <c r="C473" s="25" t="s">
-        <v>1847</v>
+        <v>1712</v>
       </c>
       <c r="D473" s="14" t="s">
-        <v>1848</v>
+        <v>1704</v>
       </c>
       <c r="E473" s="14" t="s">
-        <v>1806</v>
-      </c>
-    </row>
-    <row r="474" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A474" s="3">
         <v>2023</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>1757</v>
+        <v>1846</v>
       </c>
       <c r="C474" s="25" t="s">
-        <v>1758</v>
-      </c>
-      <c r="D474" s="3" t="s">
-        <v>1756</v>
-      </c>
-      <c r="E474" s="3" t="s">
-        <v>1339</v>
+        <v>1847</v>
+      </c>
+      <c r="D474" s="33" t="s">
+        <v>1848</v>
+      </c>
+      <c r="E474" s="33" t="s">
+        <v>1806</v>
       </c>
     </row>
     <row r="475" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -14392,16 +14395,16 @@
         <v>2023</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>1799</v>
-      </c>
-      <c r="C475" s="27" t="s">
-        <v>1800</v>
+        <v>1757</v>
+      </c>
+      <c r="C475" s="25" t="s">
+        <v>1758</v>
       </c>
       <c r="D475" s="3" t="s">
-        <v>1801</v>
+        <v>1756</v>
       </c>
       <c r="E475" s="3" t="s">
-        <v>1748</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="476" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -14409,33 +14412,33 @@
         <v>2023</v>
       </c>
       <c r="B476" s="3" t="s">
-        <v>1861</v>
-      </c>
-      <c r="C476" s="25" t="s">
-        <v>1862</v>
+        <v>1799</v>
+      </c>
+      <c r="C476" s="27" t="s">
+        <v>1800</v>
       </c>
       <c r="D476" s="3" t="s">
-        <v>1860</v>
+        <v>1801</v>
       </c>
       <c r="E476" s="3" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="477" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A477" s="3">
         <v>2023</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>1796</v>
+        <v>1861</v>
       </c>
       <c r="C477" s="25" t="s">
-        <v>1797</v>
-      </c>
-      <c r="D477" s="7" t="s">
-        <v>1798</v>
-      </c>
-      <c r="E477" s="7" t="s">
-        <v>1789</v>
+        <v>1862</v>
+      </c>
+      <c r="D477" s="3" t="s">
+        <v>1860</v>
+      </c>
+      <c r="E477" s="3" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="478" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -14443,33 +14446,33 @@
         <v>2023</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>1843</v>
-      </c>
-      <c r="C478" s="27" t="s">
-        <v>1844</v>
-      </c>
-      <c r="D478" s="3" t="s">
-        <v>1845</v>
-      </c>
-      <c r="E478" s="3" t="s">
-        <v>1697</v>
-      </c>
-    </row>
-    <row r="479" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+        <v>1796</v>
+      </c>
+      <c r="C478" s="25" t="s">
+        <v>1797</v>
+      </c>
+      <c r="D478" s="7" t="s">
+        <v>1798</v>
+      </c>
+      <c r="E478" s="7" t="s">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A479" s="3">
         <v>2023</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>1875</v>
-      </c>
-      <c r="C479" s="25" t="s">
-        <v>1876</v>
+        <v>1843</v>
+      </c>
+      <c r="C479" s="27" t="s">
+        <v>1844</v>
       </c>
       <c r="D479" s="3" t="s">
-        <v>1877</v>
+        <v>1845</v>
       </c>
       <c r="E479" s="3" t="s">
-        <v>9</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="480" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -14477,44 +14480,44 @@
         <v>2023</v>
       </c>
       <c r="B480" s="3" t="s">
+        <v>1875</v>
+      </c>
+      <c r="C480" s="25" t="s">
+        <v>1876</v>
+      </c>
+      <c r="D480" s="3" t="s">
+        <v>1877</v>
+      </c>
+      <c r="E480" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A481" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B481" s="3" t="s">
         <v>1774</v>
       </c>
-      <c r="C480" s="25" t="s">
+      <c r="C481" s="25" t="s">
         <v>1775</v>
       </c>
-      <c r="D480" s="3" t="s">
+      <c r="D481" s="3" t="s">
         <v>1776</v>
       </c>
-      <c r="E480" s="3" t="s">
+      <c r="E481" s="3" t="s">
         <v>1734</v>
-      </c>
-    </row>
-    <row r="481" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A481" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D481" s="3" t="s">
-        <v>1777</v>
-      </c>
-      <c r="E481" s="3" t="s">
-        <v>1747</v>
       </c>
     </row>
     <row r="482" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A482" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B482" s="3" t="s">
-        <v>1803</v>
-      </c>
-      <c r="C482" s="25" t="s">
-        <v>1805</v>
-      </c>
       <c r="D482" s="3" t="s">
-        <v>1802</v>
+        <v>1777</v>
       </c>
       <c r="E482" s="3" t="s">
-        <v>852</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="483" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -14522,33 +14525,33 @@
         <v>0</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>1815</v>
-      </c>
-      <c r="C483" s="27" t="s">
-        <v>1816</v>
+        <v>1803</v>
+      </c>
+      <c r="C483" s="25" t="s">
+        <v>1805</v>
       </c>
       <c r="D483" s="3" t="s">
-        <v>1794</v>
+        <v>1802</v>
       </c>
       <c r="E483" s="3" t="s">
-        <v>1408</v>
+        <v>852</v>
       </c>
     </row>
     <row r="484" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A484" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B484" s="22" t="s">
-        <v>1807</v>
-      </c>
-      <c r="C484" s="26" t="s">
-        <v>1808</v>
+      <c r="B484" s="3" t="s">
+        <v>1815</v>
+      </c>
+      <c r="C484" s="27" t="s">
+        <v>1816</v>
       </c>
       <c r="D484" s="3" t="s">
-        <v>1809</v>
+        <v>1794</v>
       </c>
       <c r="E484" s="3" t="s">
-        <v>600</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="485" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -14665,9 +14668,9 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E490">
-    <sortCondition ref="A2:A490"/>
-    <sortCondition ref="D2:D490"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E491">
+    <sortCondition ref="A2:A491"/>
+    <sortCondition ref="D2:D491"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="containsText" dxfId="19" priority="9" operator="containsText" text="Submetido">
@@ -15129,46 +15132,46 @@
     <hyperlink ref="C429" r:id="rId420" xr:uid="{06740822-7504-4E46-9654-935A4A1EFA60}"/>
     <hyperlink ref="C425" r:id="rId421" xr:uid="{E58EEDD4-4AA8-BE45-8AD8-CB0DC0B2D5C2}"/>
     <hyperlink ref="C445" r:id="rId422" xr:uid="{24A59CBC-06DB-C74E-AE99-CBEA2CECBD8C}"/>
-    <hyperlink ref="C472" r:id="rId423" xr:uid="{D42A1C9A-72D3-4D42-B7F4-157D6D7A09E6}"/>
+    <hyperlink ref="C473" r:id="rId423" xr:uid="{D42A1C9A-72D3-4D42-B7F4-157D6D7A09E6}"/>
     <hyperlink ref="C454" r:id="rId424" xr:uid="{92E2E665-F68D-A049-9BD7-C3DA79B3A200}"/>
     <hyperlink ref="C442" r:id="rId425" xr:uid="{49888390-7E13-9E41-8984-769DA7920F23}"/>
     <hyperlink ref="C462" r:id="rId426" xr:uid="{92310A67-CFEB-1442-9F4B-A6EB03F8CA9D}"/>
     <hyperlink ref="C137" r:id="rId427" xr:uid="{68F1FA74-6029-7547-BBA3-C88201363FB1}"/>
     <hyperlink ref="C485" r:id="rId428" xr:uid="{5598AA94-042A-8444-8A68-F34B768D6391}"/>
-    <hyperlink ref="C471" r:id="rId429" xr:uid="{1DC54133-329D-934D-B952-38AD209751EB}"/>
-    <hyperlink ref="C470" r:id="rId430" xr:uid="{FE1B21A2-6165-954E-83A0-86B1477E134C}"/>
+    <hyperlink ref="C472" r:id="rId429" xr:uid="{1DC54133-329D-934D-B952-38AD209751EB}"/>
+    <hyperlink ref="C471" r:id="rId430" xr:uid="{FE1B21A2-6165-954E-83A0-86B1477E134C}"/>
     <hyperlink ref="C487" r:id="rId431" xr:uid="{60F04DB8-D97E-5846-B27B-739B0F451121}"/>
     <hyperlink ref="C490" r:id="rId432" xr:uid="{A261A6CC-C1B9-3C47-9098-02B78E36A259}"/>
-    <hyperlink ref="C474" r:id="rId433" xr:uid="{381FA6B8-8A89-7542-BABB-1E5B0D78936F}"/>
+    <hyperlink ref="C475" r:id="rId433" xr:uid="{381FA6B8-8A89-7542-BABB-1E5B0D78936F}"/>
     <hyperlink ref="C467" r:id="rId434" xr:uid="{8CF61C82-8B65-7844-A7B2-C48B30D5C02C}"/>
     <hyperlink ref="C486" r:id="rId435" xr:uid="{FC196FDE-4A86-C646-83DC-75766707EA5F}"/>
     <hyperlink ref="C464" r:id="rId436" xr:uid="{4D22C1A3-45C9-A74A-958C-30E3829DCBA2}"/>
-    <hyperlink ref="C480" r:id="rId437" xr:uid="{5DD11293-7B10-FF4E-94CF-F5D9FAAB5EE2}"/>
+    <hyperlink ref="C481" r:id="rId437" xr:uid="{5DD11293-7B10-FF4E-94CF-F5D9FAAB5EE2}"/>
     <hyperlink ref="C463" r:id="rId438" xr:uid="{89A97CBF-6DC8-7D47-BA63-74707C972886}"/>
     <hyperlink ref="C461" r:id="rId439" xr:uid="{D823028E-84C8-5E46-9D98-9E13D97FC578}"/>
     <hyperlink ref="C434" r:id="rId440" xr:uid="{F6B2244A-7FD4-DF41-9E72-1EF5DA77950E}"/>
     <hyperlink ref="C458" r:id="rId441" xr:uid="{BAF28E86-9DC1-714A-BF9B-FCCAAB27B831}"/>
     <hyperlink ref="C443" r:id="rId442" xr:uid="{8A217E0A-1B60-B140-830E-F808AD870E84}"/>
     <hyperlink ref="C440" r:id="rId443" xr:uid="{8DE773B0-912F-9B41-A266-32301524A16D}"/>
-    <hyperlink ref="C477" r:id="rId444" xr:uid="{D1EF4E13-3824-4A44-9875-8E44E3031FA4}"/>
-    <hyperlink ref="C475" r:id="rId445" xr:uid="{2ED30959-FE82-5F43-BFE7-4F9CEA247B85}"/>
-    <hyperlink ref="C484" r:id="rId446" xr:uid="{052595BE-FC0D-1446-9958-4CAD77FFF36A}"/>
+    <hyperlink ref="C478" r:id="rId444" xr:uid="{D1EF4E13-3824-4A44-9875-8E44E3031FA4}"/>
+    <hyperlink ref="C476" r:id="rId445" xr:uid="{2ED30959-FE82-5F43-BFE7-4F9CEA247B85}"/>
+    <hyperlink ref="C470" r:id="rId446" xr:uid="{052595BE-FC0D-1446-9958-4CAD77FFF36A}"/>
     <hyperlink ref="C465" r:id="rId447" xr:uid="{CB57610E-AF1B-F142-9E40-DE2C01B5D04E}"/>
-    <hyperlink ref="C483" r:id="rId448" xr:uid="{F5FCB9E9-4FFE-C845-B66C-99FBCFC152F7}"/>
+    <hyperlink ref="C484" r:id="rId448" xr:uid="{F5FCB9E9-4FFE-C845-B66C-99FBCFC152F7}"/>
     <hyperlink ref="C16" r:id="rId449" xr:uid="{57DF7DFF-E08C-AC44-99A4-95A8C1D4DEC2}"/>
     <hyperlink ref="C41" r:id="rId450" xr:uid="{769258DE-593A-9B4B-8EDD-6ED0DBE68285}"/>
     <hyperlink ref="C34" r:id="rId451" xr:uid="{BC099EA4-F080-0545-B626-6C2EFFAD4662}"/>
     <hyperlink ref="C40" r:id="rId452" xr:uid="{5BD29D25-8ADD-B440-83E7-890364BCA98E}"/>
     <hyperlink ref="C39" r:id="rId453" xr:uid="{A0F4DCFD-921B-0748-9518-065A1A7FB314}"/>
     <hyperlink ref="C26" r:id="rId454" xr:uid="{8DE7F092-8E6C-3A42-A1BB-86A02FFF3031}"/>
-    <hyperlink ref="C478" r:id="rId455" xr:uid="{861D8244-FF07-8B48-8842-120EA65B6E2A}"/>
-    <hyperlink ref="C473" r:id="rId456" xr:uid="{DB14A355-D283-5346-99A7-A9393EDAA694}"/>
+    <hyperlink ref="C479" r:id="rId455" xr:uid="{861D8244-FF07-8B48-8842-120EA65B6E2A}"/>
+    <hyperlink ref="C474" r:id="rId456" xr:uid="{DB14A355-D283-5346-99A7-A9393EDAA694}"/>
     <hyperlink ref="C38" r:id="rId457" xr:uid="{C624ACFD-43A3-8C44-97A5-825078F9C276}"/>
-    <hyperlink ref="C476" r:id="rId458" xr:uid="{2D52B4F4-A20E-B146-BA35-93EF057C52B1}"/>
+    <hyperlink ref="C477" r:id="rId458" xr:uid="{2D52B4F4-A20E-B146-BA35-93EF057C52B1}"/>
     <hyperlink ref="C489" r:id="rId459" xr:uid="{C5290CBF-1B4B-334B-BE80-F1AD9E846978}"/>
-    <hyperlink ref="C482" r:id="rId460" xr:uid="{FA5046AA-498F-7645-AAA8-5B8683FCB609}"/>
+    <hyperlink ref="C483" r:id="rId460" xr:uid="{FA5046AA-498F-7645-AAA8-5B8683FCB609}"/>
     <hyperlink ref="C433" r:id="rId461" xr:uid="{BEB636BD-057C-1D44-9ABE-2CAC9D0DA993}"/>
-    <hyperlink ref="C479" r:id="rId462" xr:uid="{DA586EDB-1694-DD40-B47A-B846AFC776ED}"/>
+    <hyperlink ref="C480" r:id="rId462" xr:uid="{DA586EDB-1694-DD40-B47A-B846AFC776ED}"/>
     <hyperlink ref="C387" r:id="rId463" xr:uid="{68742F5D-6036-284F-9C91-D84F5BE0870B}"/>
     <hyperlink ref="C469" r:id="rId464" xr:uid="{3EB2C32B-6748-1941-BE52-652CC2A4B965}"/>
     <hyperlink ref="C466" r:id="rId465" xr:uid="{03D5A38C-F495-E84C-B162-D2BAF332C216}"/>

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{779218A9-9C86-C147-A7B2-C2D614CEA112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1CEAA57-9843-1B44-BC3C-A4703E177178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="500" windowWidth="27920" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="1070">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="1071">
   <si>
     <t>Aceito</t>
   </si>
@@ -3257,6 +3257,9 @@
   </si>
   <si>
     <t>10.1016/j.msksp.2023.102788</t>
+  </si>
+  <si>
+    <t>Defining text neck: a scoping review</t>
   </si>
 </sst>
 </file>
@@ -3758,13 +3761,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I495"/>
+  <dimension ref="A1:I496"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B459" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B460" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A495" sqref="A495"/>
+      <selection pane="bottomRight" activeCell="A496" sqref="A496"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9195,6 +9198,14 @@
       </c>
       <c r="C495" s="4" t="s">
         <v>1068</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A496" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C496" s="4" t="s">
+        <v>1070</v>
       </c>
     </row>
   </sheetData>

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1CEAA57-9843-1B44-BC3C-A4703E177178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77E9FC9-FF8F-0C42-96B0-00568FA3B919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="500" windowWidth="27920" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="1071">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="1072">
   <si>
     <t>Aceito</t>
   </si>
@@ -3260,6 +3260,9 @@
   </si>
   <si>
     <t>Defining text neck: a scoping review</t>
+  </si>
+  <si>
+    <t>10.1186/s13104-023-06374-3</t>
   </si>
 </sst>
 </file>
@@ -3764,7 +3767,7 @@
   <dimension ref="A1:I496"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B460" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B459" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A496" sqref="A496"/>
@@ -9070,44 +9073,41 @@
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A483" s="4" t="s">
-        <v>0</v>
+      <c r="A483" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B483" s="4" t="s">
+        <v>1071</v>
       </c>
       <c r="C483" s="4" t="s">
-        <v>999</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A484" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B484" s="4" t="s">
-        <v>1014</v>
-      </c>
       <c r="C484" s="4" t="s">
-        <v>1013</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A485" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B485" s="4" t="s">
-        <v>1020</v>
-      </c>
       <c r="C485" s="4" t="s">
-        <v>1008</v>
+        <v>999</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A486" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B486" s="5" t="s">
-        <v>866</v>
+      <c r="B486" s="4" t="s">
+        <v>1014</v>
       </c>
       <c r="C486" s="4" t="s">
-        <v>867</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.2">
@@ -9115,7 +9115,7 @@
         <v>0</v>
       </c>
       <c r="C487" s="4" t="s">
-        <v>1065</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.2">
@@ -9123,10 +9123,10 @@
         <v>0</v>
       </c>
       <c r="B488" s="4" t="s">
-        <v>972</v>
+        <v>1020</v>
       </c>
       <c r="C488" s="4" t="s">
-        <v>967</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.2">
@@ -9134,40 +9134,40 @@
         <v>0</v>
       </c>
       <c r="B489" s="4" t="s">
-        <v>1063</v>
+        <v>1069</v>
       </c>
       <c r="C489" s="4" t="s">
-        <v>1064</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A490" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B490" s="4" t="s">
-        <v>1046</v>
+      <c r="B490" s="5" t="s">
+        <v>866</v>
       </c>
       <c r="C490" s="4" t="s">
-        <v>1045</v>
+        <v>867</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A491" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B491" s="5" t="s">
-        <v>861</v>
-      </c>
       <c r="C491" s="4" t="s">
-        <v>862</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A492" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="B492" s="4" t="s">
+        <v>972</v>
+      </c>
       <c r="C492" s="4" t="s">
-        <v>1066</v>
+        <v>967</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.2">
@@ -9175,43 +9175,49 @@
         <v>0</v>
       </c>
       <c r="B493" s="4" t="s">
-        <v>1060</v>
+        <v>1063</v>
       </c>
       <c r="C493" s="4" t="s">
-        <v>1059</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A494" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="B494" s="4" t="s">
+        <v>1046</v>
+      </c>
       <c r="C494" s="4" t="s">
-        <v>1067</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A495" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B495" s="4" t="s">
-        <v>1069</v>
+      <c r="B495" s="5" t="s">
+        <v>861</v>
       </c>
       <c r="C495" s="4" t="s">
-        <v>1068</v>
+        <v>862</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A496" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="B496" s="4" t="s">
+        <v>1060</v>
+      </c>
       <c r="C496" s="4" t="s">
-        <v>1070</v>
+        <v>1059</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C493">
-    <sortCondition ref="A2:A493"/>
-    <sortCondition ref="C2:C493"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C496">
+    <sortCondition ref="A2:A496"/>
+    <sortCondition ref="C2:C496"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="Submetido">

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77E9FC9-FF8F-0C42-96B0-00568FA3B919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15DB1926-871E-5C44-BB2A-1D36E5978220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="500" windowWidth="27920" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,11 +17,11 @@
     <sheet name="PI.resumos" sheetId="5" r:id="rId2"/>
     <sheet name="PI.capitulos" sheetId="6" r:id="rId3"/>
     <sheet name="PI.preprints" sheetId="7" r:id="rId4"/>
-    <sheet name="PI.eventos" sheetId="8" r:id="rId5"/>
+    <sheet name="PI.anais" sheetId="8" r:id="rId5"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">PI.anais!$A$1:$C$37</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PI.completos!$A$1:$C$485</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">PI.eventos!$A$1:$C$37</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">PI.preprints!$A$1:$C$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">PI.resumos!$A$1:$C$29</definedName>
   </definedNames>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="1072">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="1074">
   <si>
     <t>Aceito</t>
   </si>
@@ -3097,9 +3097,6 @@
     <t>Association of Multiple Cardiovascular Risk Factors with Musculoskeletal Function in Acute Coronary Syndrome Ward Inpatients</t>
   </si>
   <si>
-    <t>10.5935/0103-507X.20230203-en</t>
-  </si>
-  <si>
     <t>Factors associated with mortality in mechanically ventilated patients with severe acute respiratory syndrome due to COVID-19 evolution</t>
   </si>
   <si>
@@ -3263,13 +3260,22 @@
   </si>
   <si>
     <t>10.1186/s13104-023-06374-3</t>
+  </si>
+  <si>
+    <t>10.5935/2965-2774.20230203-en</t>
+  </si>
+  <si>
+    <t>10.1177/00315125231182725</t>
+  </si>
+  <si>
+    <t>Musculoskeletal Injury Prevalence, Pain Perception, and Physical Activity Level Among Brazilian Strength and Cross-Training Practitioners</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3302,8 +3308,13 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
-      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -3366,7 +3377,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3407,9 +3418,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3420,6 +3428,18 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -3764,18 +3784,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I496"/>
+  <dimension ref="A1:I497"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B459" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B460" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A496" sqref="A496"/>
+      <selection pane="bottomRight" activeCell="A497" sqref="A497"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12" style="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.42578125" style="4" customWidth="1"/>
     <col min="3" max="3" width="209.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="9" width="21.7109375" style="4" customWidth="1"/>
@@ -3783,7 +3803,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="18" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -3800,7 +3820,7 @@
       <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
+      <c r="A2" s="19">
         <v>2007</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -3811,7 +3831,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
+      <c r="A3" s="19">
         <v>2008</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -3822,7 +3842,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
+      <c r="A4" s="19">
         <v>2008</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -3833,7 +3853,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
+      <c r="A5" s="19">
         <v>2008</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -3844,7 +3864,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
+      <c r="A6" s="19">
         <v>2009</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -3855,7 +3875,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
+      <c r="A7" s="19">
         <v>2009</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -3866,7 +3886,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
+      <c r="A8" s="19">
         <v>2009</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -3877,7 +3897,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
+      <c r="A9" s="19">
         <v>2009</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -3888,7 +3908,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
+      <c r="A10" s="19">
         <v>2010</v>
       </c>
       <c r="B10" s="5"/>
@@ -3897,7 +3917,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
+      <c r="A11" s="19">
         <v>2010</v>
       </c>
       <c r="B11" s="5"/>
@@ -3906,7 +3926,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
+      <c r="A12" s="19">
         <v>2010</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -3917,7 +3937,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
+      <c r="A13" s="19">
         <v>2010</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -3928,7 +3948,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
+      <c r="A14" s="19">
         <v>2010</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -3939,7 +3959,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
+      <c r="A15" s="19">
         <v>2010</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -3950,18 +3970,18 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
+      <c r="A16" s="19">
         <v>2010</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>1021</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>1022</v>
-      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
+      <c r="A17" s="19">
         <v>2011</v>
       </c>
       <c r="B17" s="7" t="s">
@@ -3972,7 +3992,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
+      <c r="A18" s="19">
         <v>2011</v>
       </c>
       <c r="B18" s="5"/>
@@ -3981,7 +4001,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
+      <c r="A19" s="19">
         <v>2011</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -3992,7 +4012,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
+      <c r="A20" s="19">
         <v>2011</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -4003,7 +4023,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="4">
+      <c r="A21" s="19">
         <v>2011</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -4014,7 +4034,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="4">
+      <c r="A22" s="19">
         <v>2011</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -4025,7 +4045,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="4">
+      <c r="A23" s="19">
         <v>2011</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -4036,7 +4056,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="4">
+      <c r="A24" s="19">
         <v>2011</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -4047,7 +4067,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="4">
+      <c r="A25" s="19">
         <v>2011</v>
       </c>
       <c r="B25" s="5" t="s">
@@ -4058,18 +4078,18 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="4">
+      <c r="A26" s="19">
         <v>2011</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>1031</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>1032</v>
-      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="4">
+      <c r="A27" s="19">
         <v>2011</v>
       </c>
       <c r="B27" s="5" t="s">
@@ -4080,7 +4100,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="4">
+      <c r="A28" s="19">
         <v>2011</v>
       </c>
       <c r="B28" s="5" t="s">
@@ -4091,7 +4111,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="4">
+      <c r="A29" s="19">
         <v>2011</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -4102,7 +4122,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="4">
+      <c r="A30" s="19">
         <v>2012</v>
       </c>
       <c r="B30" s="5"/>
@@ -4111,7 +4131,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="4">
+      <c r="A31" s="19">
         <v>2012</v>
       </c>
       <c r="B31" s="5" t="s">
@@ -4122,7 +4142,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="4">
+      <c r="A32" s="19">
         <v>2012</v>
       </c>
       <c r="B32" s="5" t="s">
@@ -4133,7 +4153,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="4">
+      <c r="A33" s="19">
         <v>2012</v>
       </c>
       <c r="B33" s="5" t="s">
@@ -4144,18 +4164,18 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="4">
+      <c r="A34" s="19">
         <v>2012</v>
       </c>
       <c r="B34" s="4" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>1025</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>1026</v>
-      </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="4">
+      <c r="A35" s="19">
         <v>2012</v>
       </c>
       <c r="B35" s="5" t="s">
@@ -4166,7 +4186,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="4">
+      <c r="A36" s="19">
         <v>2012</v>
       </c>
       <c r="B36" s="5" t="s">
@@ -4177,7 +4197,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="4">
+      <c r="A37" s="19">
         <v>2012</v>
       </c>
       <c r="B37" s="5" t="s">
@@ -4188,51 +4208,51 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="4">
+      <c r="A38" s="19">
         <v>2012</v>
       </c>
       <c r="B38" s="8" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>1039</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>1040</v>
-      </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="4">
+      <c r="A39" s="19">
         <v>2012</v>
       </c>
       <c r="B39" s="4" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>1029</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>1030</v>
-      </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="4">
+      <c r="A40" s="19">
         <v>2012</v>
       </c>
       <c r="B40" s="4" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>1027</v>
       </c>
-      <c r="C40" s="4" t="s">
-        <v>1028</v>
-      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="4">
+      <c r="A41" s="19">
         <v>2012</v>
       </c>
       <c r="B41" s="4" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>1023</v>
       </c>
-      <c r="C41" s="4" t="s">
-        <v>1024</v>
-      </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="4">
+      <c r="A42" s="19">
         <v>2012</v>
       </c>
       <c r="B42" s="5" t="s">
@@ -4243,7 +4263,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="4">
+      <c r="A43" s="19">
         <v>2012</v>
       </c>
       <c r="B43" s="9" t="s">
@@ -4254,7 +4274,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="4">
+      <c r="A44" s="19">
         <v>2013</v>
       </c>
       <c r="B44" s="5"/>
@@ -4263,7 +4283,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="4">
+      <c r="A45" s="19">
         <v>2013</v>
       </c>
       <c r="B45" s="5" t="s">
@@ -4274,7 +4294,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="4">
+      <c r="A46" s="19">
         <v>2013</v>
       </c>
       <c r="B46" s="5" t="s">
@@ -4285,7 +4305,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="4">
+      <c r="A47" s="19">
         <v>2013</v>
       </c>
       <c r="B47" s="5"/>
@@ -4294,7 +4314,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="4">
+      <c r="A48" s="19">
         <v>2013</v>
       </c>
       <c r="B48" s="5" t="s">
@@ -4305,7 +4325,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="4">
+      <c r="A49" s="19">
         <v>2013</v>
       </c>
       <c r="B49" s="5"/>
@@ -4314,7 +4334,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="4">
+      <c r="A50" s="19">
         <v>2013</v>
       </c>
       <c r="B50" s="5" t="s">
@@ -4325,7 +4345,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="4">
+      <c r="A51" s="19">
         <v>2013</v>
       </c>
       <c r="B51" s="5" t="s">
@@ -4336,7 +4356,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="4">
+      <c r="A52" s="19">
         <v>2013</v>
       </c>
       <c r="B52" s="5" t="s">
@@ -4347,7 +4367,7 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="4">
+      <c r="A53" s="19">
         <v>2013</v>
       </c>
       <c r="B53" s="5" t="s">
@@ -4358,7 +4378,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="4">
+      <c r="A54" s="19">
         <v>2013</v>
       </c>
       <c r="B54" s="5" t="s">
@@ -4369,7 +4389,7 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="4">
+      <c r="A55" s="19">
         <v>2013</v>
       </c>
       <c r="B55" s="5" t="s">
@@ -4380,7 +4400,7 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="4">
+      <c r="A56" s="19">
         <v>2013</v>
       </c>
       <c r="B56" s="7" t="s">
@@ -4391,7 +4411,7 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="4">
+      <c r="A57" s="19">
         <v>2013</v>
       </c>
       <c r="B57" s="5" t="s">
@@ -4402,7 +4422,7 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="4">
+      <c r="A58" s="19">
         <v>2013</v>
       </c>
       <c r="B58" s="5" t="s">
@@ -4413,7 +4433,7 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="4">
+      <c r="A59" s="19">
         <v>2013</v>
       </c>
       <c r="B59" s="5" t="s">
@@ -4424,7 +4444,7 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" s="4">
+      <c r="A60" s="19">
         <v>2013</v>
       </c>
       <c r="B60" s="5" t="s">
@@ -4435,7 +4455,7 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="4">
+      <c r="A61" s="19">
         <v>2013</v>
       </c>
       <c r="B61" s="5" t="s">
@@ -4446,7 +4466,7 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="4">
+      <c r="A62" s="19">
         <v>2013</v>
       </c>
       <c r="B62" s="5" t="s">
@@ -4457,7 +4477,7 @@
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="4">
+      <c r="A63" s="19">
         <v>2013</v>
       </c>
       <c r="B63" s="5" t="s">
@@ -4468,7 +4488,7 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="4">
+      <c r="A64" s="19">
         <v>2013</v>
       </c>
       <c r="B64" s="5" t="s">
@@ -4479,7 +4499,7 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="4">
+      <c r="A65" s="19">
         <v>2013</v>
       </c>
       <c r="B65" s="5" t="s">
@@ -4490,7 +4510,7 @@
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="4">
+      <c r="A66" s="19">
         <v>2014</v>
       </c>
       <c r="B66" s="5" t="s">
@@ -4501,7 +4521,7 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="4">
+      <c r="A67" s="19">
         <v>2014</v>
       </c>
       <c r="B67" s="5" t="s">
@@ -4512,7 +4532,7 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" s="4">
+      <c r="A68" s="19">
         <v>2014</v>
       </c>
       <c r="B68" s="5" t="s">
@@ -4523,7 +4543,7 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" s="4">
+      <c r="A69" s="19">
         <v>2014</v>
       </c>
       <c r="B69" s="5" t="s">
@@ -4534,7 +4554,7 @@
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="4">
+      <c r="A70" s="19">
         <v>2014</v>
       </c>
       <c r="B70" s="5" t="s">
@@ -4545,7 +4565,7 @@
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" s="4">
+      <c r="A71" s="19">
         <v>2014</v>
       </c>
       <c r="B71" s="5" t="s">
@@ -4556,7 +4576,7 @@
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" s="4">
+      <c r="A72" s="19">
         <v>2014</v>
       </c>
       <c r="B72" s="5" t="s">
@@ -4567,7 +4587,7 @@
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" s="4">
+      <c r="A73" s="19">
         <v>2014</v>
       </c>
       <c r="B73" s="5" t="s">
@@ -4578,7 +4598,7 @@
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" s="4">
+      <c r="A74" s="19">
         <v>2014</v>
       </c>
       <c r="B74" s="5" t="s">
@@ -4589,7 +4609,7 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" s="4">
+      <c r="A75" s="19">
         <v>2014</v>
       </c>
       <c r="B75" s="5"/>
@@ -4598,7 +4618,7 @@
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" s="4">
+      <c r="A76" s="19">
         <v>2014</v>
       </c>
       <c r="B76" s="5" t="s">
@@ -4609,7 +4629,7 @@
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" s="4">
+      <c r="A77" s="19">
         <v>2014</v>
       </c>
       <c r="B77" s="9" t="s">
@@ -4620,7 +4640,7 @@
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" s="4">
+      <c r="A78" s="19">
         <v>2014</v>
       </c>
       <c r="B78" s="5" t="s">
@@ -4631,7 +4651,7 @@
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" s="4">
+      <c r="A79" s="19">
         <v>2014</v>
       </c>
       <c r="B79" s="5" t="s">
@@ -4642,7 +4662,7 @@
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" s="4">
+      <c r="A80" s="19">
         <v>2014</v>
       </c>
       <c r="B80" s="7" t="s">
@@ -4653,7 +4673,7 @@
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" s="4">
+      <c r="A81" s="19">
         <v>2014</v>
       </c>
       <c r="B81" s="5" t="s">
@@ -4664,7 +4684,7 @@
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" s="4">
+      <c r="A82" s="19">
         <v>2014</v>
       </c>
       <c r="B82" s="5" t="s">
@@ -4675,7 +4695,7 @@
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" s="4">
+      <c r="A83" s="19">
         <v>2014</v>
       </c>
       <c r="B83" s="5" t="s">
@@ -4686,7 +4706,7 @@
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" s="4">
+      <c r="A84" s="19">
         <v>2014</v>
       </c>
       <c r="B84" s="5" t="s">
@@ -4697,7 +4717,7 @@
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85" s="4">
+      <c r="A85" s="19">
         <v>2014</v>
       </c>
       <c r="B85" s="5" t="s">
@@ -4708,7 +4728,7 @@
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86" s="4">
+      <c r="A86" s="19">
         <v>2014</v>
       </c>
       <c r="B86" s="5" t="s">
@@ -4719,7 +4739,7 @@
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87" s="4">
+      <c r="A87" s="19">
         <v>2014</v>
       </c>
       <c r="B87" s="5"/>
@@ -4728,7 +4748,7 @@
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88" s="4">
+      <c r="A88" s="19">
         <v>2014</v>
       </c>
       <c r="B88" s="5" t="s">
@@ -4739,7 +4759,7 @@
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89" s="4">
+      <c r="A89" s="19">
         <v>2014</v>
       </c>
       <c r="B89" s="5" t="s">
@@ -4750,7 +4770,7 @@
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90" s="4">
+      <c r="A90" s="19">
         <v>2014</v>
       </c>
       <c r="B90" s="5" t="s">
@@ -4761,7 +4781,7 @@
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91" s="4">
+      <c r="A91" s="19">
         <v>2014</v>
       </c>
       <c r="B91" s="5" t="s">
@@ -4772,7 +4792,7 @@
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92" s="4">
+      <c r="A92" s="19">
         <v>2014</v>
       </c>
       <c r="B92" s="5" t="s">
@@ -4783,7 +4803,7 @@
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93" s="4">
+      <c r="A93" s="19">
         <v>2014</v>
       </c>
       <c r="B93" s="5" t="s">
@@ -4794,7 +4814,7 @@
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94" s="4">
+      <c r="A94" s="19">
         <v>2014</v>
       </c>
       <c r="B94" s="5" t="s">
@@ -4805,7 +4825,7 @@
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95" s="4">
+      <c r="A95" s="19">
         <v>2014</v>
       </c>
       <c r="B95" s="5" t="s">
@@ -4816,7 +4836,7 @@
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96" s="4">
+      <c r="A96" s="19">
         <v>2014</v>
       </c>
       <c r="B96" s="5" t="s">
@@ -4827,7 +4847,7 @@
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A97" s="4">
+      <c r="A97" s="19">
         <v>2014</v>
       </c>
       <c r="B97" s="5" t="s">
@@ -4838,7 +4858,7 @@
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A98" s="4">
+      <c r="A98" s="19">
         <v>2014</v>
       </c>
       <c r="B98" s="5" t="s">
@@ -4849,7 +4869,7 @@
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A99" s="4">
+      <c r="A99" s="19">
         <v>2014</v>
       </c>
       <c r="B99" s="5" t="s">
@@ -4860,7 +4880,7 @@
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A100" s="4">
+      <c r="A100" s="19">
         <v>2014</v>
       </c>
       <c r="B100" s="5" t="s">
@@ -4871,7 +4891,7 @@
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A101" s="4">
+      <c r="A101" s="19">
         <v>2014</v>
       </c>
       <c r="B101" s="5" t="s">
@@ -4882,7 +4902,7 @@
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A102" s="4">
+      <c r="A102" s="19">
         <v>2015</v>
       </c>
       <c r="B102" s="5" t="s">
@@ -4899,7 +4919,7 @@
       <c r="I102" s="3"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A103" s="4">
+      <c r="A103" s="19">
         <v>2015</v>
       </c>
       <c r="B103" s="5" t="s">
@@ -4916,7 +4936,7 @@
       <c r="I103" s="3"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A104" s="4">
+      <c r="A104" s="19">
         <v>2015</v>
       </c>
       <c r="B104" s="5" t="s">
@@ -4927,7 +4947,7 @@
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A105" s="4">
+      <c r="A105" s="19">
         <v>2015</v>
       </c>
       <c r="B105" s="5" t="s">
@@ -4938,7 +4958,7 @@
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A106" s="4">
+      <c r="A106" s="19">
         <v>2015</v>
       </c>
       <c r="B106" s="5" t="s">
@@ -4949,7 +4969,7 @@
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A107" s="4">
+      <c r="A107" s="19">
         <v>2015</v>
       </c>
       <c r="B107" s="5" t="s">
@@ -4966,7 +4986,7 @@
       <c r="I107" s="3"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A108" s="4">
+      <c r="A108" s="19">
         <v>2015</v>
       </c>
       <c r="B108" s="5" t="s">
@@ -4977,7 +4997,7 @@
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A109" s="4">
+      <c r="A109" s="19">
         <v>2015</v>
       </c>
       <c r="B109" s="5" t="s">
@@ -4988,7 +5008,7 @@
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A110" s="4">
+      <c r="A110" s="19">
         <v>2015</v>
       </c>
       <c r="B110" s="5" t="s">
@@ -4999,7 +5019,7 @@
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A111" s="4">
+      <c r="A111" s="19">
         <v>2015</v>
       </c>
       <c r="B111" s="5" t="s">
@@ -5010,7 +5030,7 @@
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A112" s="4">
+      <c r="A112" s="19">
         <v>2015</v>
       </c>
       <c r="B112" s="5" t="s">
@@ -5021,7 +5041,7 @@
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A113" s="4">
+      <c r="A113" s="19">
         <v>2015</v>
       </c>
       <c r="B113" s="5" t="s">
@@ -5032,7 +5052,7 @@
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A114" s="4">
+      <c r="A114" s="19">
         <v>2015</v>
       </c>
       <c r="B114" s="5" t="s">
@@ -5043,7 +5063,7 @@
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A115" s="4">
+      <c r="A115" s="19">
         <v>2015</v>
       </c>
       <c r="B115" s="5" t="s">
@@ -5054,7 +5074,7 @@
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A116" s="4">
+      <c r="A116" s="19">
         <v>2015</v>
       </c>
       <c r="B116" s="5" t="s">
@@ -5065,7 +5085,7 @@
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A117" s="4">
+      <c r="A117" s="19">
         <v>2015</v>
       </c>
       <c r="B117" s="5" t="s">
@@ -5076,7 +5096,7 @@
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A118" s="4">
+      <c r="A118" s="19">
         <v>2015</v>
       </c>
       <c r="B118" s="5" t="s">
@@ -5087,7 +5107,7 @@
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A119" s="4">
+      <c r="A119" s="19">
         <v>2015</v>
       </c>
       <c r="B119" s="5" t="s">
@@ -5098,7 +5118,7 @@
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A120" s="4">
+      <c r="A120" s="19">
         <v>2015</v>
       </c>
       <c r="B120" s="5" t="s">
@@ -5109,7 +5129,7 @@
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A121" s="4">
+      <c r="A121" s="19">
         <v>2015</v>
       </c>
       <c r="B121" s="5" t="s">
@@ -5120,7 +5140,7 @@
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A122" s="4">
+      <c r="A122" s="19">
         <v>2015</v>
       </c>
       <c r="B122" s="5" t="s">
@@ -5131,7 +5151,7 @@
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A123" s="4">
+      <c r="A123" s="19">
         <v>2015</v>
       </c>
       <c r="B123" s="5" t="s">
@@ -5142,7 +5162,7 @@
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A124" s="4">
+      <c r="A124" s="19">
         <v>2015</v>
       </c>
       <c r="B124" s="5" t="s">
@@ -5153,7 +5173,7 @@
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A125" s="4">
+      <c r="A125" s="19">
         <v>2015</v>
       </c>
       <c r="B125" s="5" t="s">
@@ -5164,7 +5184,7 @@
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A126" s="4">
+      <c r="A126" s="19">
         <v>2015</v>
       </c>
       <c r="B126" s="5" t="s">
@@ -5175,7 +5195,7 @@
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A127" s="4">
+      <c r="A127" s="19">
         <v>2015</v>
       </c>
       <c r="B127" s="5" t="s">
@@ -5192,7 +5212,7 @@
       <c r="I127" s="3"/>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A128" s="4">
+      <c r="A128" s="19">
         <v>2015</v>
       </c>
       <c r="B128" s="5" t="s">
@@ -5203,7 +5223,7 @@
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A129" s="4">
+      <c r="A129" s="19">
         <v>2015</v>
       </c>
       <c r="B129" s="5" t="s">
@@ -5214,7 +5234,7 @@
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A130" s="4">
+      <c r="A130" s="19">
         <v>2015</v>
       </c>
       <c r="B130" s="5" t="s">
@@ -5225,7 +5245,7 @@
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A131" s="4">
+      <c r="A131" s="19">
         <v>2015</v>
       </c>
       <c r="B131" s="5" t="s">
@@ -5242,7 +5262,7 @@
       <c r="I131" s="3"/>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A132" s="4">
+      <c r="A132" s="19">
         <v>2015</v>
       </c>
       <c r="B132" s="5" t="s">
@@ -5253,7 +5273,7 @@
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A133" s="4">
+      <c r="A133" s="19">
         <v>2016</v>
       </c>
       <c r="B133" s="5" t="s">
@@ -5264,7 +5284,7 @@
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A134" s="4">
+      <c r="A134" s="19">
         <v>2016</v>
       </c>
       <c r="B134" s="5" t="s">
@@ -5275,7 +5295,7 @@
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A135" s="4">
+      <c r="A135" s="19">
         <v>2016</v>
       </c>
       <c r="B135" s="5" t="s">
@@ -5286,7 +5306,7 @@
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A136" s="4">
+      <c r="A136" s="19">
         <v>2016</v>
       </c>
       <c r="B136" s="5" t="s">
@@ -5297,7 +5317,7 @@
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A137" s="4">
+      <c r="A137" s="19">
         <v>2016</v>
       </c>
       <c r="B137" s="10" t="s">
@@ -5308,7 +5328,7 @@
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A138" s="4">
+      <c r="A138" s="19">
         <v>2016</v>
       </c>
       <c r="B138" s="5" t="s">
@@ -5319,7 +5339,7 @@
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A139" s="4">
+      <c r="A139" s="19">
         <v>2016</v>
       </c>
       <c r="B139" s="5" t="s">
@@ -5330,7 +5350,7 @@
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A140" s="4">
+      <c r="A140" s="19">
         <v>2016</v>
       </c>
       <c r="B140" s="5" t="s">
@@ -5341,7 +5361,7 @@
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A141" s="4">
+      <c r="A141" s="19">
         <v>2016</v>
       </c>
       <c r="B141" s="5" t="s">
@@ -5352,7 +5372,7 @@
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A142" s="4">
+      <c r="A142" s="19">
         <v>2016</v>
       </c>
       <c r="B142" s="5" t="s">
@@ -5363,7 +5383,7 @@
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A143" s="4">
+      <c r="A143" s="19">
         <v>2016</v>
       </c>
       <c r="B143" s="5" t="s">
@@ -5374,7 +5394,7 @@
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A144" s="4">
+      <c r="A144" s="19">
         <v>2016</v>
       </c>
       <c r="B144" s="5" t="s">
@@ -5385,7 +5405,7 @@
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A145" s="4">
+      <c r="A145" s="19">
         <v>2016</v>
       </c>
       <c r="B145" s="5" t="s">
@@ -5396,7 +5416,7 @@
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A146" s="4">
+      <c r="A146" s="19">
         <v>2016</v>
       </c>
       <c r="B146" s="5" t="s">
@@ -5407,7 +5427,7 @@
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A147" s="4">
+      <c r="A147" s="19">
         <v>2016</v>
       </c>
       <c r="B147" s="5" t="s">
@@ -5418,7 +5438,7 @@
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A148" s="4">
+      <c r="A148" s="19">
         <v>2016</v>
       </c>
       <c r="B148" s="5" t="s">
@@ -5429,7 +5449,7 @@
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A149" s="4">
+      <c r="A149" s="19">
         <v>2016</v>
       </c>
       <c r="B149" s="5" t="s">
@@ -5440,7 +5460,7 @@
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A150" s="4">
+      <c r="A150" s="19">
         <v>2016</v>
       </c>
       <c r="B150" s="5" t="s">
@@ -5451,7 +5471,7 @@
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A151" s="4">
+      <c r="A151" s="19">
         <v>2016</v>
       </c>
       <c r="B151" s="5" t="s">
@@ -5462,7 +5482,7 @@
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A152" s="4">
+      <c r="A152" s="19">
         <v>2016</v>
       </c>
       <c r="B152" s="5" t="s">
@@ -5473,7 +5493,7 @@
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A153" s="4">
+      <c r="A153" s="19">
         <v>2016</v>
       </c>
       <c r="B153" s="5" t="s">
@@ -5484,7 +5504,7 @@
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A154" s="4">
+      <c r="A154" s="19">
         <v>2016</v>
       </c>
       <c r="B154" s="5" t="s">
@@ -5495,7 +5515,7 @@
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A155" s="4">
+      <c r="A155" s="19">
         <v>2016</v>
       </c>
       <c r="B155" s="5" t="s">
@@ -5506,7 +5526,7 @@
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A156" s="4">
+      <c r="A156" s="19">
         <v>2016</v>
       </c>
       <c r="B156" s="5" t="s">
@@ -5517,7 +5537,7 @@
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A157" s="4">
+      <c r="A157" s="19">
         <v>2016</v>
       </c>
       <c r="B157" s="5" t="s">
@@ -5528,7 +5548,7 @@
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A158" s="4">
+      <c r="A158" s="19">
         <v>2016</v>
       </c>
       <c r="B158" s="5" t="s">
@@ -5539,7 +5559,7 @@
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A159" s="4">
+      <c r="A159" s="19">
         <v>2016</v>
       </c>
       <c r="B159" s="5" t="s">
@@ -5550,7 +5570,7 @@
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A160" s="4">
+      <c r="A160" s="19">
         <v>2016</v>
       </c>
       <c r="B160" s="5" t="s">
@@ -5561,7 +5581,7 @@
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A161" s="4">
+      <c r="A161" s="19">
         <v>2016</v>
       </c>
       <c r="B161" s="5" t="s">
@@ -5572,7 +5592,7 @@
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A162" s="4">
+      <c r="A162" s="19">
         <v>2016</v>
       </c>
       <c r="B162" s="5" t="s">
@@ -5583,7 +5603,7 @@
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A163" s="4">
+      <c r="A163" s="19">
         <v>2016</v>
       </c>
       <c r="B163" s="5" t="s">
@@ -5594,7 +5614,7 @@
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A164" s="4">
+      <c r="A164" s="19">
         <v>2016</v>
       </c>
       <c r="B164" s="5" t="s">
@@ -5605,7 +5625,7 @@
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A165" s="4">
+      <c r="A165" s="19">
         <v>2016</v>
       </c>
       <c r="B165" s="5" t="s">
@@ -5616,7 +5636,7 @@
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A166" s="4">
+      <c r="A166" s="19">
         <v>2016</v>
       </c>
       <c r="B166" s="5" t="s">
@@ -5627,7 +5647,7 @@
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A167" s="4">
+      <c r="A167" s="19">
         <v>2016</v>
       </c>
       <c r="B167" s="5" t="s">
@@ -5638,7 +5658,7 @@
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A168" s="4">
+      <c r="A168" s="19">
         <v>2016</v>
       </c>
       <c r="B168" s="5" t="s">
@@ -5649,7 +5669,7 @@
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A169" s="4">
+      <c r="A169" s="19">
         <v>2016</v>
       </c>
       <c r="B169" s="5" t="s">
@@ -5660,7 +5680,7 @@
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A170" s="4">
+      <c r="A170" s="19">
         <v>2017</v>
       </c>
       <c r="B170" s="5" t="s">
@@ -5671,7 +5691,7 @@
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A171" s="4">
+      <c r="A171" s="19">
         <v>2017</v>
       </c>
       <c r="B171" s="4" t="s">
@@ -5682,7 +5702,7 @@
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A172" s="4">
+      <c r="A172" s="19">
         <v>2017</v>
       </c>
       <c r="B172" s="4" t="s">
@@ -5693,7 +5713,7 @@
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A173" s="4">
+      <c r="A173" s="19">
         <v>2017</v>
       </c>
       <c r="B173" s="4" t="s">
@@ -5704,7 +5724,7 @@
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A174" s="4">
+      <c r="A174" s="19">
         <v>2017</v>
       </c>
       <c r="B174" s="4" t="s">
@@ -5715,7 +5735,7 @@
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A175" s="4">
+      <c r="A175" s="19">
         <v>2017</v>
       </c>
       <c r="B175" s="4" t="s">
@@ -5726,7 +5746,7 @@
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A176" s="4">
+      <c r="A176" s="19">
         <v>2017</v>
       </c>
       <c r="B176" s="4" t="s">
@@ -5737,7 +5757,7 @@
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A177" s="4">
+      <c r="A177" s="19">
         <v>2017</v>
       </c>
       <c r="B177" s="4" t="s">
@@ -5748,7 +5768,7 @@
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A178" s="4">
+      <c r="A178" s="19">
         <v>2017</v>
       </c>
       <c r="B178" s="4" t="s">
@@ -5759,7 +5779,7 @@
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A179" s="4">
+      <c r="A179" s="19">
         <v>2017</v>
       </c>
       <c r="B179" s="5"/>
@@ -5768,7 +5788,7 @@
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A180" s="4">
+      <c r="A180" s="19">
         <v>2017</v>
       </c>
       <c r="B180" s="4" t="s">
@@ -5779,7 +5799,7 @@
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A181" s="4">
+      <c r="A181" s="19">
         <v>2017</v>
       </c>
       <c r="B181" s="4" t="s">
@@ -5790,7 +5810,7 @@
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A182" s="4">
+      <c r="A182" s="19">
         <v>2017</v>
       </c>
       <c r="B182" s="5" t="s">
@@ -5801,7 +5821,7 @@
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A183" s="4">
+      <c r="A183" s="19">
         <v>2017</v>
       </c>
       <c r="B183" s="4" t="s">
@@ -5812,7 +5832,7 @@
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A184" s="4">
+      <c r="A184" s="19">
         <v>2017</v>
       </c>
       <c r="B184" s="5"/>
@@ -5821,7 +5841,7 @@
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A185" s="4">
+      <c r="A185" s="19">
         <v>2017</v>
       </c>
       <c r="B185" s="7" t="s">
@@ -5832,7 +5852,7 @@
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A186" s="4">
+      <c r="A186" s="19">
         <v>2017</v>
       </c>
       <c r="B186" s="4" t="s">
@@ -5843,7 +5863,7 @@
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A187" s="4">
+      <c r="A187" s="19">
         <v>2017</v>
       </c>
       <c r="B187" s="4" t="s">
@@ -5854,7 +5874,7 @@
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A188" s="4">
+      <c r="A188" s="19">
         <v>2017</v>
       </c>
       <c r="B188" s="4" t="s">
@@ -5865,7 +5885,7 @@
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A189" s="4">
+      <c r="A189" s="19">
         <v>2017</v>
       </c>
       <c r="B189" s="4" t="s">
@@ -5876,7 +5896,7 @@
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A190" s="4">
+      <c r="A190" s="19">
         <v>2017</v>
       </c>
       <c r="B190" s="4" t="s">
@@ -5887,7 +5907,7 @@
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A191" s="4">
+      <c r="A191" s="19">
         <v>2017</v>
       </c>
       <c r="B191" s="4" t="s">
@@ -5898,7 +5918,7 @@
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A192" s="4">
+      <c r="A192" s="19">
         <v>2017</v>
       </c>
       <c r="B192" s="4" t="s">
@@ -5909,7 +5929,7 @@
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A193" s="4">
+      <c r="A193" s="19">
         <v>2017</v>
       </c>
       <c r="B193" s="4" t="s">
@@ -5920,7 +5940,7 @@
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A194" s="4">
+      <c r="A194" s="19">
         <v>2017</v>
       </c>
       <c r="B194" s="4" t="s">
@@ -5931,7 +5951,7 @@
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A195" s="4">
+      <c r="A195" s="19">
         <v>2017</v>
       </c>
       <c r="B195" s="4" t="s">
@@ -5942,7 +5962,7 @@
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A196" s="4">
+      <c r="A196" s="19">
         <v>2017</v>
       </c>
       <c r="B196" s="4" t="s">
@@ -5953,7 +5973,7 @@
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A197" s="4">
+      <c r="A197" s="19">
         <v>2017</v>
       </c>
       <c r="B197" s="4" t="s">
@@ -5964,7 +5984,7 @@
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A198" s="4">
+      <c r="A198" s="19">
         <v>2017</v>
       </c>
       <c r="B198" s="5" t="s">
@@ -5975,7 +5995,7 @@
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A199" s="4">
+      <c r="A199" s="19">
         <v>2017</v>
       </c>
       <c r="B199" s="4" t="s">
@@ -5986,7 +6006,7 @@
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A200" s="4">
+      <c r="A200" s="19">
         <v>2017</v>
       </c>
       <c r="B200" s="4" t="s">
@@ -5997,7 +6017,7 @@
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A201" s="4">
+      <c r="A201" s="19">
         <v>2017</v>
       </c>
       <c r="B201" s="5" t="s">
@@ -6008,7 +6028,7 @@
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A202" s="4">
+      <c r="A202" s="19">
         <v>2017</v>
       </c>
       <c r="B202" s="5" t="s">
@@ -6019,7 +6039,7 @@
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A203" s="4">
+      <c r="A203" s="19">
         <v>2017</v>
       </c>
       <c r="B203" s="6" t="s">
@@ -6030,7 +6050,7 @@
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A204" s="4">
+      <c r="A204" s="19">
         <v>2017</v>
       </c>
       <c r="B204" s="4" t="s">
@@ -6041,7 +6061,7 @@
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A205" s="4">
+      <c r="A205" s="19">
         <v>2017</v>
       </c>
       <c r="B205" s="4" t="s">
@@ -6052,7 +6072,7 @@
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A206" s="4">
+      <c r="A206" s="19">
         <v>2017</v>
       </c>
       <c r="B206" s="4" t="s">
@@ -6063,7 +6083,7 @@
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A207" s="4">
+      <c r="A207" s="19">
         <v>2017</v>
       </c>
       <c r="B207" s="4" t="s">
@@ -6074,7 +6094,7 @@
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A208" s="4">
+      <c r="A208" s="19">
         <v>2017</v>
       </c>
       <c r="B208" s="4" t="s">
@@ -6085,7 +6105,7 @@
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A209" s="4">
+      <c r="A209" s="19">
         <v>2017</v>
       </c>
       <c r="B209" s="4" t="s">
@@ -6096,7 +6116,7 @@
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A210" s="4">
+      <c r="A210" s="19">
         <v>2017</v>
       </c>
       <c r="B210" s="4" t="s">
@@ -6107,7 +6127,7 @@
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A211" s="4">
+      <c r="A211" s="19">
         <v>2017</v>
       </c>
       <c r="B211" s="4" t="s">
@@ -6118,7 +6138,7 @@
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A212" s="4">
+      <c r="A212" s="19">
         <v>2017</v>
       </c>
       <c r="B212" s="4" t="s">
@@ -6129,7 +6149,7 @@
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A213" s="4">
+      <c r="A213" s="19">
         <v>2017</v>
       </c>
       <c r="B213" s="4" t="s">
@@ -6140,7 +6160,7 @@
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A214" s="4">
+      <c r="A214" s="19">
         <v>2017</v>
       </c>
       <c r="B214" s="4" t="s">
@@ -6151,7 +6171,7 @@
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A215" s="4">
+      <c r="A215" s="19">
         <v>2017</v>
       </c>
       <c r="B215" s="4" t="s">
@@ -6162,7 +6182,7 @@
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A216" s="4">
+      <c r="A216" s="19">
         <v>2017</v>
       </c>
       <c r="B216" s="5"/>
@@ -6171,7 +6191,7 @@
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A217" s="4">
+      <c r="A217" s="19">
         <v>2017</v>
       </c>
       <c r="B217" s="4" t="s">
@@ -6182,7 +6202,7 @@
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A218" s="4">
+      <c r="A218" s="19">
         <v>2018</v>
       </c>
       <c r="B218" s="4" t="s">
@@ -6193,7 +6213,7 @@
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A219" s="4">
+      <c r="A219" s="19">
         <v>2018</v>
       </c>
       <c r="B219" s="5"/>
@@ -6202,7 +6222,7 @@
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A220" s="4">
+      <c r="A220" s="19">
         <v>2018</v>
       </c>
       <c r="B220" s="4" t="s">
@@ -6213,7 +6233,7 @@
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A221" s="4">
+      <c r="A221" s="19">
         <v>2018</v>
       </c>
       <c r="B221" s="4" t="s">
@@ -6224,7 +6244,7 @@
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A222" s="4">
+      <c r="A222" s="19">
         <v>2018</v>
       </c>
       <c r="B222" s="4" t="s">
@@ -6235,7 +6255,7 @@
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A223" s="4">
+      <c r="A223" s="19">
         <v>2018</v>
       </c>
       <c r="B223" s="5"/>
@@ -6244,7 +6264,7 @@
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A224" s="4">
+      <c r="A224" s="19">
         <v>2018</v>
       </c>
       <c r="B224" s="5" t="s">
@@ -6255,7 +6275,7 @@
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A225" s="4">
+      <c r="A225" s="19">
         <v>2018</v>
       </c>
       <c r="B225" s="5" t="s">
@@ -6266,7 +6286,7 @@
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A226" s="4">
+      <c r="A226" s="19">
         <v>2018</v>
       </c>
       <c r="B226" s="4" t="s">
@@ -6277,7 +6297,7 @@
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A227" s="4">
+      <c r="A227" s="19">
         <v>2018</v>
       </c>
       <c r="B227" s="4" t="s">
@@ -6288,7 +6308,7 @@
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A228" s="4">
+      <c r="A228" s="19">
         <v>2018</v>
       </c>
       <c r="B228" s="5"/>
@@ -6297,7 +6317,7 @@
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A229" s="4">
+      <c r="A229" s="19">
         <v>2018</v>
       </c>
       <c r="B229" s="4" t="s">
@@ -6308,7 +6328,7 @@
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A230" s="4">
+      <c r="A230" s="19">
         <v>2018</v>
       </c>
       <c r="B230" s="4" t="s">
@@ -6319,7 +6339,7 @@
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A231" s="4">
+      <c r="A231" s="19">
         <v>2018</v>
       </c>
       <c r="B231" s="4" t="s">
@@ -6330,7 +6350,7 @@
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A232" s="4">
+      <c r="A232" s="19">
         <v>2018</v>
       </c>
       <c r="B232" s="4" t="s">
@@ -6341,7 +6361,7 @@
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A233" s="4">
+      <c r="A233" s="19">
         <v>2018</v>
       </c>
       <c r="B233" s="5"/>
@@ -6350,7 +6370,7 @@
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A234" s="4">
+      <c r="A234" s="19">
         <v>2018</v>
       </c>
       <c r="B234" s="4" t="s">
@@ -6361,7 +6381,7 @@
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A235" s="4">
+      <c r="A235" s="19">
         <v>2018</v>
       </c>
       <c r="B235" s="4" t="s">
@@ -6372,7 +6392,7 @@
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A236" s="4">
+      <c r="A236" s="19">
         <v>2018</v>
       </c>
       <c r="B236" s="4" t="s">
@@ -6383,7 +6403,7 @@
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A237" s="4">
+      <c r="A237" s="19">
         <v>2018</v>
       </c>
       <c r="B237" s="4" t="s">
@@ -6394,7 +6414,7 @@
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A238" s="4">
+      <c r="A238" s="19">
         <v>2018</v>
       </c>
       <c r="B238" s="4" t="s">
@@ -6405,7 +6425,7 @@
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A239" s="4">
+      <c r="A239" s="19">
         <v>2018</v>
       </c>
       <c r="B239" s="5" t="s">
@@ -6416,7 +6436,7 @@
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A240" s="4">
+      <c r="A240" s="19">
         <v>2018</v>
       </c>
       <c r="B240" s="4" t="s">
@@ -6427,7 +6447,7 @@
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A241" s="4">
+      <c r="A241" s="19">
         <v>2018</v>
       </c>
       <c r="B241" s="5" t="s">
@@ -6438,7 +6458,7 @@
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A242" s="4">
+      <c r="A242" s="19">
         <v>2018</v>
       </c>
       <c r="B242" s="4" t="s">
@@ -6449,7 +6469,7 @@
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A243" s="4">
+      <c r="A243" s="19">
         <v>2018</v>
       </c>
       <c r="B243" s="4" t="s">
@@ -6460,7 +6480,7 @@
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A244" s="4">
+      <c r="A244" s="19">
         <v>2018</v>
       </c>
       <c r="B244" s="5" t="s">
@@ -6471,7 +6491,7 @@
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A245" s="4">
+      <c r="A245" s="19">
         <v>2018</v>
       </c>
       <c r="B245" s="4" t="s">
@@ -6482,7 +6502,7 @@
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A246" s="4">
+      <c r="A246" s="19">
         <v>2018</v>
       </c>
       <c r="B246" s="6" t="s">
@@ -6493,7 +6513,7 @@
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A247" s="4">
+      <c r="A247" s="19">
         <v>2018</v>
       </c>
       <c r="B247" s="4" t="s">
@@ -6504,7 +6524,7 @@
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A248" s="4">
+      <c r="A248" s="19">
         <v>2018</v>
       </c>
       <c r="B248" s="4" t="s">
@@ -6515,7 +6535,7 @@
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A249" s="4">
+      <c r="A249" s="19">
         <v>2018</v>
       </c>
       <c r="B249" s="4" t="s">
@@ -6526,7 +6546,7 @@
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A250" s="4">
+      <c r="A250" s="19">
         <v>2018</v>
       </c>
       <c r="B250" s="5" t="s">
@@ -6537,7 +6557,7 @@
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A251" s="4">
+      <c r="A251" s="19">
         <v>2018</v>
       </c>
       <c r="B251" s="4" t="s">
@@ -6548,7 +6568,7 @@
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A252" s="4">
+      <c r="A252" s="19">
         <v>2018</v>
       </c>
       <c r="B252" s="5" t="s">
@@ -6559,7 +6579,7 @@
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A253" s="4">
+      <c r="A253" s="19">
         <v>2018</v>
       </c>
       <c r="B253" s="4" t="s">
@@ -6570,7 +6590,7 @@
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A254" s="4">
+      <c r="A254" s="19">
         <v>2018</v>
       </c>
       <c r="B254" s="4" t="s">
@@ -6581,7 +6601,7 @@
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A255" s="4">
+      <c r="A255" s="19">
         <v>2018</v>
       </c>
       <c r="B255" s="4" t="s">
@@ -6592,7 +6612,7 @@
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A256" s="4">
+      <c r="A256" s="19">
         <v>2018</v>
       </c>
       <c r="B256" s="4" t="s">
@@ -6603,7 +6623,7 @@
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A257" s="4">
+      <c r="A257" s="19">
         <v>2018</v>
       </c>
       <c r="B257" s="4" t="s">
@@ -6614,7 +6634,7 @@
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A258" s="4">
+      <c r="A258" s="19">
         <v>2018</v>
       </c>
       <c r="B258" s="4" t="s">
@@ -6625,7 +6645,7 @@
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A259" s="4">
+      <c r="A259" s="19">
         <v>2018</v>
       </c>
       <c r="B259" s="5" t="s">
@@ -6636,7 +6656,7 @@
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A260" s="4">
+      <c r="A260" s="19">
         <v>2018</v>
       </c>
       <c r="B260" s="4" t="s">
@@ -6647,7 +6667,7 @@
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A261" s="4">
+      <c r="A261" s="19">
         <v>2018</v>
       </c>
       <c r="B261" s="4" t="s">
@@ -6658,7 +6678,7 @@
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A262" s="4">
+      <c r="A262" s="19">
         <v>2018</v>
       </c>
       <c r="B262" s="6" t="s">
@@ -6669,7 +6689,7 @@
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A263" s="4">
+      <c r="A263" s="19">
         <v>2018</v>
       </c>
       <c r="B263" s="4" t="s">
@@ -6680,7 +6700,7 @@
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A264" s="4">
+      <c r="A264" s="19">
         <v>2018</v>
       </c>
       <c r="B264" s="4" t="s">
@@ -6691,7 +6711,7 @@
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A265" s="4">
+      <c r="A265" s="19">
         <v>2018</v>
       </c>
       <c r="B265" s="4" t="s">
@@ -6702,7 +6722,7 @@
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A266" s="4">
+      <c r="A266" s="19">
         <v>2018</v>
       </c>
       <c r="B266" s="5" t="s">
@@ -6713,7 +6733,7 @@
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A267" s="4">
+      <c r="A267" s="19">
         <v>2018</v>
       </c>
       <c r="B267" s="4" t="s">
@@ -6724,7 +6744,7 @@
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A268" s="4">
+      <c r="A268" s="19">
         <v>2018</v>
       </c>
       <c r="B268" s="4" t="s">
@@ -6735,7 +6755,7 @@
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A269" s="4">
+      <c r="A269" s="19">
         <v>2018</v>
       </c>
       <c r="B269" s="4" t="s">
@@ -6746,7 +6766,7 @@
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A270" s="4">
+      <c r="A270" s="19">
         <v>2018</v>
       </c>
       <c r="B270" s="4" t="s">
@@ -6757,7 +6777,7 @@
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A271" s="4">
+      <c r="A271" s="19">
         <v>2019</v>
       </c>
       <c r="B271" s="4" t="s">
@@ -6768,7 +6788,7 @@
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A272" s="4">
+      <c r="A272" s="19">
         <v>2019</v>
       </c>
       <c r="B272" s="4" t="s">
@@ -6779,7 +6799,7 @@
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A273" s="4">
+      <c r="A273" s="19">
         <v>2019</v>
       </c>
       <c r="B273" s="4" t="s">
@@ -6790,7 +6810,7 @@
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A274" s="4">
+      <c r="A274" s="19">
         <v>2019</v>
       </c>
       <c r="B274" s="4" t="s">
@@ -6801,7 +6821,7 @@
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A275" s="4">
+      <c r="A275" s="19">
         <v>2019</v>
       </c>
       <c r="B275" s="4" t="s">
@@ -6812,7 +6832,7 @@
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A276" s="4">
+      <c r="A276" s="19">
         <v>2019</v>
       </c>
       <c r="B276" s="4" t="s">
@@ -6823,7 +6843,7 @@
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A277" s="4">
+      <c r="A277" s="19">
         <v>2019</v>
       </c>
       <c r="B277" s="4" t="s">
@@ -6834,7 +6854,7 @@
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A278" s="4">
+      <c r="A278" s="19">
         <v>2019</v>
       </c>
       <c r="B278" s="4" t="s">
@@ -6845,7 +6865,7 @@
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A279" s="4">
+      <c r="A279" s="19">
         <v>2019</v>
       </c>
       <c r="B279" s="4" t="s">
@@ -6856,7 +6876,7 @@
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A280" s="4">
+      <c r="A280" s="19">
         <v>2019</v>
       </c>
       <c r="B280" s="4" t="s">
@@ -6867,7 +6887,7 @@
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A281" s="4">
+      <c r="A281" s="19">
         <v>2019</v>
       </c>
       <c r="B281" s="4" t="s">
@@ -6878,7 +6898,7 @@
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A282" s="4">
+      <c r="A282" s="19">
         <v>2019</v>
       </c>
       <c r="B282" s="5"/>
@@ -6887,7 +6907,7 @@
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A283" s="4">
+      <c r="A283" s="19">
         <v>2019</v>
       </c>
       <c r="B283" s="4" t="s">
@@ -6898,7 +6918,7 @@
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A284" s="4">
+      <c r="A284" s="19">
         <v>2019</v>
       </c>
       <c r="B284" s="4" t="s">
@@ -6909,7 +6929,7 @@
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A285" s="4">
+      <c r="A285" s="19">
         <v>2019</v>
       </c>
       <c r="B285" s="5" t="s">
@@ -6920,7 +6940,7 @@
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A286" s="4">
+      <c r="A286" s="19">
         <v>2019</v>
       </c>
       <c r="B286" s="4" t="s">
@@ -6931,7 +6951,7 @@
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A287" s="4">
+      <c r="A287" s="19">
         <v>2019</v>
       </c>
       <c r="B287" s="5" t="s">
@@ -6942,7 +6962,7 @@
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A288" s="4">
+      <c r="A288" s="19">
         <v>2019</v>
       </c>
       <c r="B288" s="4" t="s">
@@ -6953,7 +6973,7 @@
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A289" s="4">
+      <c r="A289" s="19">
         <v>2019</v>
       </c>
       <c r="B289" s="4" t="s">
@@ -6964,7 +6984,7 @@
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A290" s="4">
+      <c r="A290" s="19">
         <v>2019</v>
       </c>
       <c r="B290" s="4" t="s">
@@ -6975,7 +6995,7 @@
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A291" s="4">
+      <c r="A291" s="19">
         <v>2019</v>
       </c>
       <c r="B291" s="4" t="s">
@@ -6986,7 +7006,7 @@
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A292" s="4">
+      <c r="A292" s="19">
         <v>2019</v>
       </c>
       <c r="B292" s="4" t="s">
@@ -6997,7 +7017,7 @@
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A293" s="4">
+      <c r="A293" s="19">
         <v>2019</v>
       </c>
       <c r="B293" s="5" t="s">
@@ -7008,7 +7028,7 @@
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A294" s="4">
+      <c r="A294" s="19">
         <v>2019</v>
       </c>
       <c r="B294" s="4" t="s">
@@ -7019,7 +7039,7 @@
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A295" s="4">
+      <c r="A295" s="19">
         <v>2019</v>
       </c>
       <c r="B295" s="4" t="s">
@@ -7030,7 +7050,7 @@
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A296" s="4">
+      <c r="A296" s="19">
         <v>2019</v>
       </c>
       <c r="B296" s="4" t="s">
@@ -7041,7 +7061,7 @@
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A297" s="4">
+      <c r="A297" s="19">
         <v>2019</v>
       </c>
       <c r="B297" s="4" t="s">
@@ -7052,7 +7072,7 @@
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A298" s="4">
+      <c r="A298" s="19">
         <v>2019</v>
       </c>
       <c r="B298" s="4" t="s">
@@ -7063,7 +7083,7 @@
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A299" s="4">
+      <c r="A299" s="19">
         <v>2019</v>
       </c>
       <c r="B299" s="4" t="s">
@@ -7074,7 +7094,7 @@
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A300" s="4">
+      <c r="A300" s="19">
         <v>2019</v>
       </c>
       <c r="B300" s="4" t="s">
@@ -7085,7 +7105,7 @@
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A301" s="4">
+      <c r="A301" s="19">
         <v>2019</v>
       </c>
       <c r="B301" s="4" t="s">
@@ -7096,7 +7116,7 @@
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A302" s="4">
+      <c r="A302" s="19">
         <v>2019</v>
       </c>
       <c r="B302" s="4" t="s">
@@ -7107,7 +7127,7 @@
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A303" s="4">
+      <c r="A303" s="19">
         <v>2019</v>
       </c>
       <c r="B303" s="4" t="s">
@@ -7118,7 +7138,7 @@
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A304" s="4">
+      <c r="A304" s="19">
         <v>2019</v>
       </c>
       <c r="B304" s="5"/>
@@ -7127,7 +7147,7 @@
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A305" s="4">
+      <c r="A305" s="19">
         <v>2019</v>
       </c>
       <c r="B305" s="4" t="s">
@@ -7138,7 +7158,7 @@
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A306" s="4">
+      <c r="A306" s="19">
         <v>2019</v>
       </c>
       <c r="B306" s="5" t="s">
@@ -7149,7 +7169,7 @@
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A307" s="4">
+      <c r="A307" s="19">
         <v>2019</v>
       </c>
       <c r="B307" s="4" t="s">
@@ -7160,7 +7180,7 @@
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A308" s="4">
+      <c r="A308" s="19">
         <v>2019</v>
       </c>
       <c r="B308" s="5" t="s">
@@ -7171,7 +7191,7 @@
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A309" s="4">
+      <c r="A309" s="19">
         <v>2019</v>
       </c>
       <c r="B309" s="4" t="s">
@@ -7182,7 +7202,7 @@
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A310" s="4">
+      <c r="A310" s="19">
         <v>2019</v>
       </c>
       <c r="B310" s="4" t="s">
@@ -7193,7 +7213,7 @@
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A311" s="4">
+      <c r="A311" s="19">
         <v>2019</v>
       </c>
       <c r="B311" s="5" t="s">
@@ -7204,7 +7224,7 @@
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A312" s="4">
+      <c r="A312" s="19">
         <v>2019</v>
       </c>
       <c r="B312" s="5" t="s">
@@ -7215,7 +7235,7 @@
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A313" s="4">
+      <c r="A313" s="19">
         <v>2019</v>
       </c>
       <c r="B313" s="4" t="s">
@@ -7226,7 +7246,7 @@
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A314" s="4">
+      <c r="A314" s="19">
         <v>2019</v>
       </c>
       <c r="B314" s="4" t="s">
@@ -7237,7 +7257,7 @@
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A315" s="4">
+      <c r="A315" s="19">
         <v>2019</v>
       </c>
       <c r="B315" s="4" t="s">
@@ -7248,7 +7268,7 @@
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A316" s="4">
+      <c r="A316" s="19">
         <v>2019</v>
       </c>
       <c r="B316" s="4" t="s">
@@ -7259,7 +7279,7 @@
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A317" s="4">
+      <c r="A317" s="19">
         <v>2019</v>
       </c>
       <c r="B317" s="4" t="s">
@@ -7270,7 +7290,7 @@
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A318" s="4">
+      <c r="A318" s="19">
         <v>2019</v>
       </c>
       <c r="B318" s="4" t="s">
@@ -7281,7 +7301,7 @@
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A319" s="4">
+      <c r="A319" s="19">
         <v>2019</v>
       </c>
       <c r="B319" s="4" t="s">
@@ -7292,7 +7312,7 @@
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A320" s="4">
+      <c r="A320" s="19">
         <v>2019</v>
       </c>
       <c r="B320" s="4" t="s">
@@ -7303,7 +7323,7 @@
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A321" s="4">
+      <c r="A321" s="19">
         <v>2019</v>
       </c>
       <c r="B321" s="4" t="s">
@@ -7314,7 +7334,7 @@
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A322" s="4">
+      <c r="A322" s="19">
         <v>2019</v>
       </c>
       <c r="B322" s="4" t="s">
@@ -7325,7 +7345,7 @@
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A323" s="4">
+      <c r="A323" s="19">
         <v>2020</v>
       </c>
       <c r="B323" s="5" t="s">
@@ -7336,7 +7356,7 @@
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A324" s="4">
+      <c r="A324" s="19">
         <v>2020</v>
       </c>
       <c r="B324" s="4" t="s">
@@ -7347,7 +7367,7 @@
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A325" s="4">
+      <c r="A325" s="19">
         <v>2020</v>
       </c>
       <c r="B325" s="4" t="s">
@@ -7358,7 +7378,7 @@
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A326" s="4">
+      <c r="A326" s="19">
         <v>2020</v>
       </c>
       <c r="B326" s="4" t="s">
@@ -7369,7 +7389,7 @@
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A327" s="4">
+      <c r="A327" s="19">
         <v>2020</v>
       </c>
       <c r="B327" s="4" t="s">
@@ -7380,7 +7400,7 @@
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A328" s="4">
+      <c r="A328" s="19">
         <v>2020</v>
       </c>
       <c r="B328" s="4" t="s">
@@ -7391,7 +7411,7 @@
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A329" s="4">
+      <c r="A329" s="19">
         <v>2020</v>
       </c>
       <c r="B329" s="4" t="s">
@@ -7402,7 +7422,7 @@
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A330" s="4">
+      <c r="A330" s="19">
         <v>2020</v>
       </c>
       <c r="B330" s="4" t="s">
@@ -7413,7 +7433,7 @@
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A331" s="4">
+      <c r="A331" s="19">
         <v>2020</v>
       </c>
       <c r="B331" s="4" t="s">
@@ -7424,7 +7444,7 @@
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A332" s="4">
+      <c r="A332" s="19">
         <v>2020</v>
       </c>
       <c r="B332" s="4" t="s">
@@ -7435,7 +7455,7 @@
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A333" s="4">
+      <c r="A333" s="19">
         <v>2020</v>
       </c>
       <c r="B333" s="4" t="s">
@@ -7446,7 +7466,7 @@
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A334" s="4">
+      <c r="A334" s="19">
         <v>2020</v>
       </c>
       <c r="B334" s="4" t="s">
@@ -7457,7 +7477,7 @@
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A335" s="4">
+      <c r="A335" s="19">
         <v>2020</v>
       </c>
       <c r="B335" s="5" t="s">
@@ -7468,7 +7488,7 @@
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A336" s="4">
+      <c r="A336" s="19">
         <v>2020</v>
       </c>
       <c r="B336" s="5" t="s">
@@ -7479,7 +7499,7 @@
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A337" s="4">
+      <c r="A337" s="19">
         <v>2020</v>
       </c>
       <c r="B337" s="4" t="s">
@@ -7490,7 +7510,7 @@
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A338" s="4">
+      <c r="A338" s="19">
         <v>2020</v>
       </c>
       <c r="B338" s="4" t="s">
@@ -7501,7 +7521,7 @@
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A339" s="4">
+      <c r="A339" s="19">
         <v>2020</v>
       </c>
       <c r="B339" s="5" t="s">
@@ -7512,7 +7532,7 @@
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A340" s="4">
+      <c r="A340" s="19">
         <v>2020</v>
       </c>
       <c r="B340" s="5" t="s">
@@ -7523,7 +7543,7 @@
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A341" s="4">
+      <c r="A341" s="19">
         <v>2020</v>
       </c>
       <c r="B341" s="4" t="s">
@@ -7534,7 +7554,7 @@
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A342" s="4">
+      <c r="A342" s="19">
         <v>2020</v>
       </c>
       <c r="B342" s="5" t="s">
@@ -7545,7 +7565,7 @@
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A343" s="4">
+      <c r="A343" s="19">
         <v>2020</v>
       </c>
       <c r="B343" s="5" t="s">
@@ -7556,7 +7576,7 @@
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A344" s="4">
+      <c r="A344" s="19">
         <v>2020</v>
       </c>
       <c r="B344" s="4" t="s">
@@ -7567,7 +7587,7 @@
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A345" s="4">
+      <c r="A345" s="19">
         <v>2020</v>
       </c>
       <c r="B345" s="5" t="s">
@@ -7578,7 +7598,7 @@
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A346" s="4">
+      <c r="A346" s="19">
         <v>2020</v>
       </c>
       <c r="B346" s="4" t="s">
@@ -7589,7 +7609,7 @@
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A347" s="4">
+      <c r="A347" s="19">
         <v>2020</v>
       </c>
       <c r="B347" s="4" t="s">
@@ -7600,7 +7620,7 @@
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A348" s="4">
+      <c r="A348" s="19">
         <v>2020</v>
       </c>
       <c r="B348" s="4" t="s">
@@ -7611,7 +7631,7 @@
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A349" s="4">
+      <c r="A349" s="19">
         <v>2020</v>
       </c>
       <c r="B349" s="4" t="s">
@@ -7622,7 +7642,7 @@
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A350" s="4">
+      <c r="A350" s="19">
         <v>2020</v>
       </c>
       <c r="B350" s="4" t="s">
@@ -7633,7 +7653,7 @@
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A351" s="4">
+      <c r="A351" s="19">
         <v>2020</v>
       </c>
       <c r="B351" s="4" t="s">
@@ -7644,7 +7664,7 @@
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A352" s="4">
+      <c r="A352" s="19">
         <v>2020</v>
       </c>
       <c r="B352" s="4" t="s">
@@ -7655,7 +7675,7 @@
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A353" s="4">
+      <c r="A353" s="19">
         <v>2020</v>
       </c>
       <c r="B353" s="4" t="s">
@@ -7666,7 +7686,7 @@
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A354" s="4">
+      <c r="A354" s="19">
         <v>2020</v>
       </c>
       <c r="B354" s="4" t="s">
@@ -7677,7 +7697,7 @@
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A355" s="4">
+      <c r="A355" s="19">
         <v>2020</v>
       </c>
       <c r="B355" s="4" t="s">
@@ -7688,7 +7708,7 @@
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A356" s="4">
+      <c r="A356" s="19">
         <v>2020</v>
       </c>
       <c r="B356" s="4" t="s">
@@ -7699,7 +7719,7 @@
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A357" s="4">
+      <c r="A357" s="19">
         <v>2020</v>
       </c>
       <c r="B357" s="4" t="s">
@@ -7710,7 +7730,7 @@
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A358" s="4">
+      <c r="A358" s="19">
         <v>2020</v>
       </c>
       <c r="B358" s="4" t="s">
@@ -7721,7 +7741,7 @@
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A359" s="4">
+      <c r="A359" s="19">
         <v>2020</v>
       </c>
       <c r="B359" s="4" t="s">
@@ -7732,7 +7752,7 @@
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A360" s="4">
+      <c r="A360" s="19">
         <v>2021</v>
       </c>
       <c r="B360" s="5" t="s">
@@ -7743,7 +7763,7 @@
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A361" s="4">
+      <c r="A361" s="19">
         <v>2021</v>
       </c>
       <c r="B361" s="5" t="s">
@@ -7754,7 +7774,7 @@
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A362" s="4">
+      <c r="A362" s="19">
         <v>2021</v>
       </c>
       <c r="B362" s="5" t="s">
@@ -7765,7 +7785,7 @@
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A363" s="4">
+      <c r="A363" s="19">
         <v>2021</v>
       </c>
       <c r="B363" s="5" t="s">
@@ -7776,7 +7796,7 @@
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A364" s="4">
+      <c r="A364" s="19">
         <v>2021</v>
       </c>
       <c r="B364" s="5" t="s">
@@ -7787,7 +7807,7 @@
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A365" s="4">
+      <c r="A365" s="19">
         <v>2021</v>
       </c>
       <c r="B365" s="5" t="s">
@@ -7798,7 +7818,7 @@
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A366" s="4">
+      <c r="A366" s="19">
         <v>2021</v>
       </c>
       <c r="B366" s="5" t="s">
@@ -7809,7 +7829,7 @@
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A367" s="4">
+      <c r="A367" s="19">
         <v>2021</v>
       </c>
       <c r="B367" s="5" t="s">
@@ -7820,7 +7840,7 @@
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A368" s="4">
+      <c r="A368" s="19">
         <v>2021</v>
       </c>
       <c r="B368" s="5" t="s">
@@ -7831,7 +7851,7 @@
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A369" s="4">
+      <c r="A369" s="19">
         <v>2021</v>
       </c>
       <c r="B369" s="5" t="s">
@@ -7842,7 +7862,7 @@
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A370" s="4">
+      <c r="A370" s="19">
         <v>2021</v>
       </c>
       <c r="B370" s="5" t="s">
@@ -7853,7 +7873,7 @@
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A371" s="4">
+      <c r="A371" s="19">
         <v>2021</v>
       </c>
       <c r="B371" s="5" t="s">
@@ -7864,7 +7884,7 @@
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A372" s="4">
+      <c r="A372" s="19">
         <v>2021</v>
       </c>
       <c r="B372" s="5" t="s">
@@ -7875,7 +7895,7 @@
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A373" s="4">
+      <c r="A373" s="19">
         <v>2021</v>
       </c>
       <c r="B373" s="5" t="s">
@@ -7886,7 +7906,7 @@
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A374" s="4">
+      <c r="A374" s="19">
         <v>2021</v>
       </c>
       <c r="B374" s="5" t="s">
@@ -7897,7 +7917,7 @@
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A375" s="4">
+      <c r="A375" s="19">
         <v>2021</v>
       </c>
       <c r="B375" s="5" t="s">
@@ -7908,7 +7928,7 @@
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A376" s="4">
+      <c r="A376" s="19">
         <v>2021</v>
       </c>
       <c r="B376" s="5" t="s">
@@ -7919,7 +7939,7 @@
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A377" s="4">
+      <c r="A377" s="19">
         <v>2021</v>
       </c>
       <c r="B377" s="5" t="s">
@@ -7930,7 +7950,7 @@
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A378" s="4">
+      <c r="A378" s="19">
         <v>2021</v>
       </c>
       <c r="B378" s="5" t="s">
@@ -7941,7 +7961,7 @@
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A379" s="4">
+      <c r="A379" s="19">
         <v>2021</v>
       </c>
       <c r="B379" s="5"/>
@@ -7950,7 +7970,7 @@
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A380" s="4">
+      <c r="A380" s="19">
         <v>2021</v>
       </c>
       <c r="B380" s="5" t="s">
@@ -7961,7 +7981,7 @@
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A381" s="4">
+      <c r="A381" s="19">
         <v>2021</v>
       </c>
       <c r="B381" s="5" t="s">
@@ -7972,7 +7992,7 @@
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A382" s="4">
+      <c r="A382" s="19">
         <v>2021</v>
       </c>
       <c r="B382" s="5" t="s">
@@ -7983,7 +8003,7 @@
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A383" s="4">
+      <c r="A383" s="19">
         <v>2021</v>
       </c>
       <c r="B383" s="5" t="s">
@@ -7994,7 +8014,7 @@
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A384" s="4">
+      <c r="A384" s="19">
         <v>2021</v>
       </c>
       <c r="B384" s="5" t="s">
@@ -8005,7 +8025,7 @@
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A385" s="4">
+      <c r="A385" s="19">
         <v>2021</v>
       </c>
       <c r="B385" s="5" t="s">
@@ -8016,7 +8036,7 @@
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A386" s="4">
+      <c r="A386" s="19">
         <v>2021</v>
       </c>
       <c r="B386" s="5" t="s">
@@ -8027,18 +8047,18 @@
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A387" s="4">
+      <c r="A387" s="19">
         <v>2021</v>
       </c>
       <c r="B387" s="4" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C387" s="4" t="s">
         <v>1051</v>
       </c>
-      <c r="C387" s="4" t="s">
-        <v>1052</v>
-      </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A388" s="4">
+      <c r="A388" s="19">
         <v>2021</v>
       </c>
       <c r="B388" s="5" t="s">
@@ -8049,7 +8069,7 @@
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A389" s="4">
+      <c r="A389" s="19">
         <v>2021</v>
       </c>
       <c r="B389" s="5" t="s">
@@ -8060,7 +8080,7 @@
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A390" s="4">
+      <c r="A390" s="19">
         <v>2021</v>
       </c>
       <c r="B390" s="5" t="s">
@@ -8071,7 +8091,7 @@
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A391" s="4">
+      <c r="A391" s="19">
         <v>2021</v>
       </c>
       <c r="B391" s="5" t="s">
@@ -8082,7 +8102,7 @@
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A392" s="4">
+      <c r="A392" s="19">
         <v>2021</v>
       </c>
       <c r="C392" s="4" t="s">
@@ -8090,7 +8110,7 @@
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A393" s="4">
+      <c r="A393" s="19">
         <v>2021</v>
       </c>
       <c r="B393" s="5" t="s">
@@ -8101,7 +8121,7 @@
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A394" s="4">
+      <c r="A394" s="19">
         <v>2021</v>
       </c>
       <c r="B394" s="5" t="s">
@@ -8112,7 +8132,7 @@
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A395" s="4">
+      <c r="A395" s="19">
         <v>2021</v>
       </c>
       <c r="B395" s="5" t="s">
@@ -8123,7 +8143,7 @@
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A396" s="4">
+      <c r="A396" s="19">
         <v>2021</v>
       </c>
       <c r="B396" s="5" t="s">
@@ -8134,7 +8154,7 @@
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A397" s="4">
+      <c r="A397" s="19">
         <v>2021</v>
       </c>
       <c r="C397" s="4" t="s">
@@ -8142,7 +8162,7 @@
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A398" s="4">
+      <c r="A398" s="19">
         <v>2021</v>
       </c>
       <c r="B398" s="5" t="s">
@@ -8153,7 +8173,7 @@
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A399" s="4">
+      <c r="A399" s="19">
         <v>2021</v>
       </c>
       <c r="B399" s="5" t="s">
@@ -8164,7 +8184,7 @@
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A400" s="4">
+      <c r="A400" s="19">
         <v>2021</v>
       </c>
       <c r="B400" s="5" t="s">
@@ -8175,7 +8195,7 @@
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A401" s="4">
+      <c r="A401" s="19">
         <v>2021</v>
       </c>
       <c r="B401" s="5" t="s">
@@ -8186,7 +8206,7 @@
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A402" s="4">
+      <c r="A402" s="19">
         <v>2021</v>
       </c>
       <c r="B402" s="5" t="s">
@@ -8197,7 +8217,7 @@
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A403" s="4">
+      <c r="A403" s="19">
         <v>2021</v>
       </c>
       <c r="B403" s="5" t="s">
@@ -8208,7 +8228,7 @@
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A404" s="4">
+      <c r="A404" s="19">
         <v>2021</v>
       </c>
       <c r="B404" s="5" t="s">
@@ -8219,7 +8239,7 @@
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A405" s="4">
+      <c r="A405" s="19">
         <v>2021</v>
       </c>
       <c r="B405" s="5" t="s">
@@ -8230,7 +8250,7 @@
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A406" s="4">
+      <c r="A406" s="19">
         <v>2021</v>
       </c>
       <c r="B406" s="5" t="s">
@@ -8241,7 +8261,7 @@
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A407" s="4">
+      <c r="A407" s="19">
         <v>2021</v>
       </c>
       <c r="B407" s="5" t="s">
@@ -8252,7 +8272,7 @@
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A408" s="4">
+      <c r="A408" s="19">
         <v>2021</v>
       </c>
       <c r="B408" s="5" t="s">
@@ -8263,7 +8283,7 @@
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A409" s="4">
+      <c r="A409" s="19">
         <v>2021</v>
       </c>
       <c r="B409" s="5" t="s">
@@ -8274,7 +8294,7 @@
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A410" s="4">
+      <c r="A410" s="19">
         <v>2021</v>
       </c>
       <c r="B410" s="5" t="s">
@@ -8285,7 +8305,7 @@
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A411" s="4">
+      <c r="A411" s="19">
         <v>2021</v>
       </c>
       <c r="B411" s="5" t="s">
@@ -8296,7 +8316,7 @@
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A412" s="4">
+      <c r="A412" s="19">
         <v>2021</v>
       </c>
       <c r="B412" s="5" t="s">
@@ -8307,7 +8327,7 @@
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A413" s="4">
+      <c r="A413" s="19">
         <v>2021</v>
       </c>
       <c r="B413" s="5" t="s">
@@ -8318,7 +8338,7 @@
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A414" s="4">
+      <c r="A414" s="19">
         <v>2021</v>
       </c>
       <c r="B414" s="5" t="s">
@@ -8329,7 +8349,7 @@
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A415" s="4">
+      <c r="A415" s="19">
         <v>2022</v>
       </c>
       <c r="B415" s="5" t="s">
@@ -8340,7 +8360,7 @@
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A416" s="4">
+      <c r="A416" s="19">
         <v>2022</v>
       </c>
       <c r="B416" s="5" t="s">
@@ -8351,7 +8371,7 @@
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A417" s="4">
+      <c r="A417" s="19">
         <v>2022</v>
       </c>
       <c r="B417" s="5" t="s">
@@ -8362,7 +8382,7 @@
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A418" s="4">
+      <c r="A418" s="19">
         <v>2022</v>
       </c>
       <c r="B418" s="5" t="s">
@@ -8373,7 +8393,7 @@
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A419" s="4">
+      <c r="A419" s="19">
         <v>2022</v>
       </c>
       <c r="B419" s="5" t="s">
@@ -8384,7 +8404,7 @@
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A420" s="4">
+      <c r="A420" s="19">
         <v>2022</v>
       </c>
       <c r="B420" s="5" t="s">
@@ -8395,7 +8415,7 @@
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A421" s="4">
+      <c r="A421" s="19">
         <v>2022</v>
       </c>
       <c r="B421" s="5" t="s">
@@ -8406,7 +8426,7 @@
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A422" s="4">
+      <c r="A422" s="19">
         <v>2022</v>
       </c>
       <c r="B422" s="5" t="s">
@@ -8417,7 +8437,7 @@
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A423" s="4">
+      <c r="A423" s="19">
         <v>2022</v>
       </c>
       <c r="B423" s="4" t="s">
@@ -8428,7 +8448,7 @@
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A424" s="4">
+      <c r="A424" s="19">
         <v>2022</v>
       </c>
       <c r="B424" s="5" t="s">
@@ -8439,7 +8459,7 @@
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A425" s="4">
+      <c r="A425" s="19">
         <v>2022</v>
       </c>
       <c r="B425" s="5" t="s">
@@ -8450,7 +8470,7 @@
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A426" s="4">
+      <c r="A426" s="19">
         <v>2022</v>
       </c>
       <c r="B426" s="5" t="s">
@@ -8461,7 +8481,7 @@
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A427" s="4">
+      <c r="A427" s="19">
         <v>2022</v>
       </c>
       <c r="B427" s="5" t="s">
@@ -8472,7 +8492,7 @@
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A428" s="4">
+      <c r="A428" s="19">
         <v>2022</v>
       </c>
       <c r="B428" s="9" t="s">
@@ -8483,7 +8503,7 @@
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A429" s="4">
+      <c r="A429" s="19">
         <v>2022</v>
       </c>
       <c r="B429" s="5" t="s">
@@ -8494,7 +8514,7 @@
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A430" s="4">
+      <c r="A430" s="19">
         <v>2022</v>
       </c>
       <c r="B430" s="5" t="s">
@@ -8505,7 +8525,7 @@
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A431" s="4">
+      <c r="A431" s="19">
         <v>2022</v>
       </c>
       <c r="B431" s="5" t="s">
@@ -8516,7 +8536,7 @@
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A432" s="4">
+      <c r="A432" s="19">
         <v>2022</v>
       </c>
       <c r="B432" s="5" t="s">
@@ -8527,18 +8547,18 @@
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A433" s="4">
+      <c r="A433" s="19">
         <v>2022</v>
       </c>
       <c r="B433" s="4" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C433" s="4" t="s">
         <v>1047</v>
       </c>
-      <c r="C433" s="4" t="s">
-        <v>1048</v>
-      </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A434" s="4">
+      <c r="A434" s="19">
         <v>2022</v>
       </c>
       <c r="B434" s="4" t="s">
@@ -8549,7 +8569,7 @@
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A435" s="4">
+      <c r="A435" s="19">
         <v>2022</v>
       </c>
       <c r="B435" s="5" t="s">
@@ -8560,7 +8580,7 @@
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A436" s="4">
+      <c r="A436" s="19">
         <v>2022</v>
       </c>
       <c r="B436" s="5" t="s">
@@ -8571,7 +8591,7 @@
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A437" s="4">
+      <c r="A437" s="19">
         <v>2022</v>
       </c>
       <c r="B437" s="5"/>
@@ -8580,7 +8600,7 @@
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A438" s="4">
+      <c r="A438" s="19">
         <v>2022</v>
       </c>
       <c r="B438" s="5" t="s">
@@ -8591,7 +8611,7 @@
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A439" s="4">
+      <c r="A439" s="19">
         <v>2022</v>
       </c>
       <c r="B439" s="5" t="s">
@@ -8602,18 +8622,18 @@
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A440" s="4">
+      <c r="A440" s="19">
         <v>2022</v>
       </c>
       <c r="B440" s="4" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C440" s="4" t="s">
         <v>1007</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A441" s="4">
+      <c r="A441" s="19">
         <v>2022</v>
       </c>
       <c r="B441" s="5" t="s">
@@ -8624,7 +8644,7 @@
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A442" s="4">
+      <c r="A442" s="19">
         <v>2022</v>
       </c>
       <c r="B442" s="5" t="s">
@@ -8635,7 +8655,7 @@
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A443" s="4">
+      <c r="A443" s="19">
         <v>2022</v>
       </c>
       <c r="B443" s="5" t="s">
@@ -8646,7 +8666,7 @@
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A444" s="6">
+      <c r="A444" s="20">
         <v>2022</v>
       </c>
       <c r="B444" s="5" t="s">
@@ -8657,7 +8677,7 @@
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A445" s="4">
+      <c r="A445" s="19">
         <v>2022</v>
       </c>
       <c r="B445" s="4" t="s">
@@ -8668,7 +8688,7 @@
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A446" s="4">
+      <c r="A446" s="19">
         <v>2022</v>
       </c>
       <c r="B446" s="5" t="s">
@@ -8679,7 +8699,7 @@
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A447" s="4">
+      <c r="A447" s="19">
         <v>2022</v>
       </c>
       <c r="B447" s="5" t="s">
@@ -8690,7 +8710,7 @@
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A448" s="4">
+      <c r="A448" s="19">
         <v>2022</v>
       </c>
       <c r="B448" s="5" t="s">
@@ -8701,7 +8721,7 @@
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A449" s="4">
+      <c r="A449" s="19">
         <v>2022</v>
       </c>
       <c r="B449" s="5" t="s">
@@ -8712,7 +8732,7 @@
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A450" s="4">
+      <c r="A450" s="19">
         <v>2022</v>
       </c>
       <c r="B450" s="4" t="s">
@@ -8723,7 +8743,7 @@
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A451" s="6">
+      <c r="A451" s="20">
         <v>2022</v>
       </c>
       <c r="B451" s="5" t="s">
@@ -8734,7 +8754,7 @@
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A452" s="6">
+      <c r="A452" s="20">
         <v>2022</v>
       </c>
       <c r="B452" s="5" t="s">
@@ -8745,7 +8765,7 @@
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A453" s="6">
+      <c r="A453" s="20">
         <v>2022</v>
       </c>
       <c r="B453" s="5" t="s">
@@ -8756,7 +8776,7 @@
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A454" s="14">
+      <c r="A454" s="21">
         <v>2022</v>
       </c>
       <c r="B454" s="4" t="s">
@@ -8767,7 +8787,7 @@
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A455" s="4">
+      <c r="A455" s="19">
         <v>2022</v>
       </c>
       <c r="B455" s="5" t="s">
@@ -8778,7 +8798,7 @@
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A456" s="6">
+      <c r="A456" s="20">
         <v>2022</v>
       </c>
       <c r="B456" s="5" t="s">
@@ -8789,7 +8809,7 @@
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A457" s="4">
+      <c r="A457" s="19">
         <v>2022</v>
       </c>
       <c r="B457" s="5" t="s">
@@ -8800,7 +8820,7 @@
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A458" s="4">
+      <c r="A458" s="19">
         <v>2022</v>
       </c>
       <c r="B458" s="4" t="s">
@@ -8811,7 +8831,7 @@
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A459" s="4">
+      <c r="A459" s="19">
         <v>2022</v>
       </c>
       <c r="B459" s="5" t="s">
@@ -8822,7 +8842,7 @@
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A460" s="4">
+      <c r="A460" s="19">
         <v>2022</v>
       </c>
       <c r="B460" s="5" t="s">
@@ -8833,7 +8853,7 @@
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A461" s="4">
+      <c r="A461" s="19">
         <v>2023</v>
       </c>
       <c r="B461" s="4" t="s">
@@ -8844,7 +8864,7 @@
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A462" s="4">
+      <c r="A462" s="19">
         <v>2023</v>
       </c>
       <c r="B462" s="5" t="s">
@@ -8855,7 +8875,7 @@
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A463" s="4">
+      <c r="A463" s="19">
         <v>2023</v>
       </c>
       <c r="B463" s="4" t="s">
@@ -8866,7 +8886,7 @@
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A464" s="14">
+      <c r="A464" s="21">
         <v>2023</v>
       </c>
       <c r="B464" s="4" t="s">
@@ -8877,29 +8897,29 @@
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A465" s="4">
+      <c r="A465" s="19">
         <v>2023</v>
       </c>
       <c r="B465" s="4" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="C465" s="4" t="s">
         <v>1015</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A466" s="4">
+      <c r="A466" s="19">
         <v>2023</v>
       </c>
       <c r="B466" s="4" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="C466" s="4" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A467" s="4">
+      <c r="A467" s="19">
         <v>2023</v>
       </c>
       <c r="B467" s="4" t="s">
@@ -8910,7 +8930,7 @@
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A468" s="4">
+      <c r="A468" s="19">
         <v>2023</v>
       </c>
       <c r="B468" s="5"/>
@@ -8919,29 +8939,29 @@
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A469" s="4">
+      <c r="A469" s="19">
         <v>2023</v>
       </c>
       <c r="B469" s="4" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C469" s="4" t="s">
         <v>1055</v>
       </c>
-      <c r="C469" s="4" t="s">
-        <v>1056</v>
-      </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A470" s="4">
+      <c r="A470" s="19">
         <v>2023</v>
       </c>
-      <c r="B470" s="8" t="s">
+      <c r="B470" s="4" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C470" s="4" t="s">
         <v>1016</v>
       </c>
-      <c r="C470" s="4" t="s">
-        <v>1017</v>
-      </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A471" s="14">
+      <c r="A471" s="21">
         <v>2023</v>
       </c>
       <c r="B471" s="4" t="s">
@@ -8952,7 +8972,7 @@
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A472" s="4">
+      <c r="A472" s="19">
         <v>2023</v>
       </c>
       <c r="B472" s="4" t="s">
@@ -8963,7 +8983,7 @@
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A473" s="4">
+      <c r="A473" s="19">
         <v>2023</v>
       </c>
       <c r="B473" s="5" t="s">
@@ -8974,7 +8994,7 @@
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A474" s="4">
+      <c r="A474" s="19">
         <v>2023</v>
       </c>
       <c r="B474" s="4" t="s">
@@ -8985,18 +9005,18 @@
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A475" s="4">
+      <c r="A475" s="19">
         <v>2023</v>
       </c>
       <c r="B475" s="4" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C475" s="4" t="s">
         <v>1037</v>
       </c>
-      <c r="C475" s="4" t="s">
-        <v>1038</v>
-      </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A476" s="4">
+      <c r="A476" s="19">
         <v>2023</v>
       </c>
       <c r="B476" s="4" t="s">
@@ -9007,7 +9027,7 @@
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A477" s="4">
+      <c r="A477" s="19">
         <v>2023</v>
       </c>
       <c r="B477" s="4" t="s">
@@ -9018,18 +9038,18 @@
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A478" s="4">
+      <c r="A478" s="19">
         <v>2023</v>
       </c>
       <c r="B478" s="4" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="C478" s="4" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A479" s="4">
+      <c r="A479" s="19">
         <v>2023</v>
       </c>
       <c r="B479" s="4" t="s">
@@ -9040,29 +9060,29 @@
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A480" s="4">
+      <c r="A480" s="19">
         <v>2023</v>
       </c>
       <c r="B480" s="4" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C480" s="4" t="s">
         <v>1035</v>
       </c>
-      <c r="C480" s="4" t="s">
-        <v>1036</v>
-      </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A481" s="4">
+      <c r="A481" s="19">
         <v>2023</v>
       </c>
       <c r="B481" s="4" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C481" s="4" t="s">
         <v>1049</v>
       </c>
-      <c r="C481" s="4" t="s">
-        <v>1050</v>
-      </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A482" s="4">
+      <c r="A482" s="19">
         <v>2023</v>
       </c>
       <c r="B482" s="4" t="s">
@@ -9073,26 +9093,26 @@
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A483" s="4">
+      <c r="A483" s="19">
         <v>2023</v>
       </c>
       <c r="B483" s="4" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C483" s="4" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A484" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C484" s="4" t="s">
         <v>1066</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A484" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C484" s="4" t="s">
-        <v>1067</v>
-      </c>
-    </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A485" s="4" t="s">
+      <c r="A485" s="19" t="s">
         <v>0</v>
       </c>
       <c r="C485" s="4" t="s">
@@ -9100,7 +9120,7 @@
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A486" s="4" t="s">
+      <c r="A486" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B486" s="4" t="s">
@@ -9111,37 +9131,37 @@
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A487" s="4" t="s">
+      <c r="A487" s="19" t="s">
         <v>0</v>
       </c>
       <c r="C487" s="4" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A488" s="4" t="s">
+      <c r="A488" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B488" s="4" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="C488" s="4" t="s">
         <v>1008</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A489" s="4" t="s">
+      <c r="A489" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B489" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C489" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A490" s="4" t="s">
+      <c r="A490" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B490" s="5" t="s">
@@ -9152,72 +9172,83 @@
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A491" s="4" t="s">
+      <c r="A491" s="19" t="s">
         <v>0</v>
       </c>
       <c r="C491" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A492" s="4" t="s">
+      <c r="A492" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B492" s="4" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C492" s="4" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A493" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B493" s="4" t="s">
         <v>972</v>
       </c>
-      <c r="C492" s="4" t="s">
+      <c r="C493" s="4" t="s">
         <v>967</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A493" s="4" t="s">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A494" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B493" s="4" t="s">
+      <c r="B494" s="4" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C494" s="4" t="s">
         <v>1063</v>
       </c>
-      <c r="C493" s="4" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A494" s="4" t="s">
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A495" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B494" s="4" t="s">
-        <v>1046</v>
-      </c>
-      <c r="C494" s="4" t="s">
+      <c r="B495" s="4" t="s">
         <v>1045</v>
       </c>
-    </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A495" s="4" t="s">
+      <c r="C495" s="4" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A496" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B495" s="5" t="s">
+      <c r="B496" s="5" t="s">
         <v>861</v>
       </c>
-      <c r="C495" s="4" t="s">
+      <c r="C496" s="4" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A496" s="4" t="s">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A497" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B496" s="4" t="s">
-        <v>1060</v>
-      </c>
-      <c r="C496" s="4" t="s">
+      <c r="B497" s="4" t="s">
         <v>1059</v>
       </c>
+      <c r="C497" s="4" t="s">
+        <v>1058</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C496">
-    <sortCondition ref="A2:A496"/>
-    <sortCondition ref="C2:C496"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C497">
+    <sortCondition ref="A2:A497"/>
+    <sortCondition ref="C2:C497"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="Submetido">
@@ -9266,13 +9297,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>3</v>
       </c>
     </row>
@@ -9357,7 +9388,7 @@
       <c r="A9" s="4">
         <v>2015</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="17" t="s">
         <v>884</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -9567,10 +9598,10 @@
         <v>2023</v>
       </c>
       <c r="B28" s="4" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>1053</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>1054</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -9635,13 +9666,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="3"/>
@@ -10374,13 +10405,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>3</v>
       </c>
     </row>
@@ -10411,10 +10442,10 @@
         <v>2023</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>1061</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>1062</v>
       </c>
     </row>
     <row r="17" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -11448,13 +11479,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>3</v>
       </c>
     </row>
@@ -11463,10 +11494,10 @@
         <v>2013</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>1033</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>1034</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -11539,7 +11570,7 @@
       <c r="A9" s="4">
         <v>2018</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="15" t="s">
         <v>939</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -11716,10 +11747,10 @@
         <v>2022</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>1041</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>1042</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15DB1926-871E-5C44-BB2A-1D36E5978220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BDC12F7-60DD-3C4E-825A-38394FDE4F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="500" windowWidth="27920" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="1074">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="1076">
   <si>
     <t>Aceito</t>
   </si>
@@ -3269,6 +3269,12 @@
   </si>
   <si>
     <t>Musculoskeletal Injury Prevalence, Pain Perception, and Physical Activity Level Among Brazilian Strength and Cross-Training Practitioners</t>
+  </si>
+  <si>
+    <t>10.1002/pri.2028</t>
+  </si>
+  <si>
+    <t>Assessment of Functional Capacity in Patients with Nondialysis-Dependent Chronic Kidney Disease with the AVD-Glittre Test</t>
   </si>
 </sst>
 </file>
@@ -3784,13 +3790,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I497"/>
+  <dimension ref="A1:I498"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B460" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B461" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A497" sqref="A497"/>
+      <selection pane="bottomRight" activeCell="A498" sqref="A498"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9107,6 +9113,9 @@
       <c r="A484" s="19" t="s">
         <v>0</v>
       </c>
+      <c r="B484" s="4" t="s">
+        <v>1074</v>
+      </c>
       <c r="C484" s="4" t="s">
         <v>1066</v>
       </c>
@@ -9116,37 +9125,34 @@
         <v>0</v>
       </c>
       <c r="C485" s="4" t="s">
-        <v>999</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A486" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B486" s="4" t="s">
-        <v>1014</v>
-      </c>
       <c r="C486" s="4" t="s">
-        <v>1013</v>
+        <v>999</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A487" s="19" t="s">
         <v>0</v>
       </c>
+      <c r="B487" s="4" t="s">
+        <v>1014</v>
+      </c>
       <c r="C487" s="4" t="s">
-        <v>1069</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A488" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B488" s="4" t="s">
-        <v>1019</v>
-      </c>
       <c r="C488" s="4" t="s">
-        <v>1008</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.2">
@@ -9154,40 +9160,40 @@
         <v>0</v>
       </c>
       <c r="B489" s="4" t="s">
-        <v>1068</v>
+        <v>1019</v>
       </c>
       <c r="C489" s="4" t="s">
-        <v>1067</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A490" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B490" s="5" t="s">
-        <v>866</v>
+      <c r="B490" s="4" t="s">
+        <v>1068</v>
       </c>
       <c r="C490" s="4" t="s">
-        <v>867</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A491" s="19" t="s">
         <v>0</v>
       </c>
+      <c r="B491" s="5" t="s">
+        <v>866</v>
+      </c>
       <c r="C491" s="4" t="s">
-        <v>1064</v>
+        <v>867</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A492" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B492" s="4" t="s">
-        <v>1072</v>
-      </c>
       <c r="C492" s="4" t="s">
-        <v>1073</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.2">
@@ -9195,10 +9201,10 @@
         <v>0</v>
       </c>
       <c r="B493" s="4" t="s">
-        <v>972</v>
+        <v>1072</v>
       </c>
       <c r="C493" s="4" t="s">
-        <v>967</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.2">
@@ -9206,10 +9212,10 @@
         <v>0</v>
       </c>
       <c r="B494" s="4" t="s">
-        <v>1062</v>
+        <v>972</v>
       </c>
       <c r="C494" s="4" t="s">
-        <v>1063</v>
+        <v>967</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.2">
@@ -9217,38 +9223,49 @@
         <v>0</v>
       </c>
       <c r="B495" s="4" t="s">
-        <v>1045</v>
+        <v>1062</v>
       </c>
       <c r="C495" s="4" t="s">
-        <v>1044</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A496" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B496" s="5" t="s">
-        <v>861</v>
+      <c r="B496" s="4" t="s">
+        <v>1045</v>
       </c>
       <c r="C496" s="4" t="s">
-        <v>862</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A497" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B497" s="4" t="s">
+      <c r="B497" s="5" t="s">
+        <v>861</v>
+      </c>
+      <c r="C497" s="4" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A498" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B498" s="4" t="s">
         <v>1059</v>
       </c>
-      <c r="C497" s="4" t="s">
+      <c r="C498" s="4" t="s">
         <v>1058</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C497">
-    <sortCondition ref="A2:A497"/>
-    <sortCondition ref="C2:C497"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C498">
+    <sortCondition ref="A2:A498"/>
+    <sortCondition ref="C2:C498"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="Submetido">

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BDC12F7-60DD-3C4E-825A-38394FDE4F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBCCF1D6-917E-8940-B0E6-7DEC8D234253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="500" windowWidth="27920" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">PI.anais!$A$1:$C$37</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PI.completos!$A$1:$C$485</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PI.completos!$A$1:$C$497</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">PI.preprints!$A$1:$C$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">PI.resumos!$A$1:$C$29</definedName>
   </definedNames>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="1076">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="1076">
   <si>
     <t>Aceito</t>
   </si>
@@ -3046,9 +3046,6 @@
     <t>Trajectory of knee health in runners with and without heightened osteoarthritis risk: the TRAIL prospective cohort study protocol</t>
   </si>
   <si>
-    <t>Avaliação do equilíbrio corporal e a sua correlação com sintomas de ansiedade, depressão e estresse em indivíduos com pós-COVID-19</t>
-  </si>
-  <si>
     <t>10.3389/fphys.2023.1098225</t>
   </si>
   <si>
@@ -3275,6 +3272,9 @@
   </si>
   <si>
     <t>Assessment of Functional Capacity in Patients with Nondialysis-Dependent Chronic Kidney Disease with the AVD-Glittre Test</t>
+  </si>
+  <si>
+    <t>10.3390/healthcare11121809</t>
   </si>
 </sst>
 </file>
@@ -3383,7 +3383,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3446,6 +3446,15 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -3790,13 +3799,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I498"/>
+  <dimension ref="A1:I497"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B461" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B460" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A498" sqref="A498"/>
+      <selection pane="bottomRight" activeCell="A497" sqref="A497"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3980,10 +3989,10 @@
         <v>2010</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>1020</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>1021</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -4088,10 +4097,10 @@
         <v>2011</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>1030</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>1031</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -4174,10 +4183,10 @@
         <v>2012</v>
       </c>
       <c r="B34" s="4" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>1024</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>1025</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -4218,10 +4227,10 @@
         <v>2012</v>
       </c>
       <c r="B38" s="8" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>1038</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>1039</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -4229,10 +4238,10 @@
         <v>2012</v>
       </c>
       <c r="B39" s="4" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>1028</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>1029</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -4240,10 +4249,10 @@
         <v>2012</v>
       </c>
       <c r="B40" s="4" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>1026</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>1027</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -4251,10 +4260,10 @@
         <v>2012</v>
       </c>
       <c r="B41" s="4" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>1022</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>1023</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -7991,10 +8000,10 @@
         <v>2021</v>
       </c>
       <c r="B381" s="5" t="s">
-        <v>697</v>
+        <v>866</v>
       </c>
       <c r="C381" s="4" t="s">
-        <v>698</v>
+        <v>867</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.2">
@@ -8002,10 +8011,10 @@
         <v>2021</v>
       </c>
       <c r="B382" s="5" t="s">
-        <v>726</v>
+        <v>697</v>
       </c>
       <c r="C382" s="4" t="s">
-        <v>727</v>
+        <v>698</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.2">
@@ -8013,10 +8022,10 @@
         <v>2021</v>
       </c>
       <c r="B383" s="5" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C383" s="4" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.2">
@@ -8024,10 +8033,10 @@
         <v>2021</v>
       </c>
       <c r="B384" s="5" t="s">
-        <v>720</v>
+        <v>728</v>
       </c>
       <c r="C384" s="4" t="s">
-        <v>721</v>
+        <v>729</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.2">
@@ -8035,10 +8044,10 @@
         <v>2021</v>
       </c>
       <c r="B385" s="5" t="s">
-        <v>730</v>
-      </c>
-      <c r="C385" s="13" t="s">
-        <v>731</v>
+        <v>720</v>
+      </c>
+      <c r="C385" s="4" t="s">
+        <v>721</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.2">
@@ -8046,32 +8055,32 @@
         <v>2021</v>
       </c>
       <c r="B386" s="5" t="s">
-        <v>702</v>
-      </c>
-      <c r="C386" s="4" t="s">
-        <v>703</v>
+        <v>730</v>
+      </c>
+      <c r="C386" s="13" t="s">
+        <v>731</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A387" s="19">
         <v>2021</v>
       </c>
-      <c r="B387" s="4" t="s">
-        <v>1050</v>
+      <c r="B387" s="5" t="s">
+        <v>702</v>
       </c>
       <c r="C387" s="4" t="s">
-        <v>1051</v>
+        <v>703</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A388" s="19">
         <v>2021</v>
       </c>
-      <c r="B388" s="5" t="s">
-        <v>704</v>
+      <c r="B388" s="4" t="s">
+        <v>1049</v>
       </c>
       <c r="C388" s="4" t="s">
-        <v>705</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.2">
@@ -8079,10 +8088,10 @@
         <v>2021</v>
       </c>
       <c r="B389" s="5" t="s">
-        <v>732</v>
+        <v>704</v>
       </c>
       <c r="C389" s="4" t="s">
-        <v>733</v>
+        <v>705</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.2">
@@ -8090,10 +8099,10 @@
         <v>2021</v>
       </c>
       <c r="B390" s="5" t="s">
-        <v>760</v>
+        <v>732</v>
       </c>
       <c r="C390" s="4" t="s">
-        <v>761</v>
+        <v>733</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.2">
@@ -8101,29 +8110,29 @@
         <v>2021</v>
       </c>
       <c r="B391" s="5" t="s">
-        <v>706</v>
+        <v>760</v>
       </c>
       <c r="C391" s="4" t="s">
-        <v>707</v>
+        <v>761</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A392" s="19">
         <v>2021</v>
       </c>
+      <c r="B392" s="5" t="s">
+        <v>706</v>
+      </c>
       <c r="C392" s="4" t="s">
-        <v>699</v>
+        <v>707</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A393" s="19">
         <v>2021</v>
       </c>
-      <c r="B393" s="5" t="s">
-        <v>778</v>
-      </c>
       <c r="C393" s="4" t="s">
-        <v>779</v>
+        <v>699</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.2">
@@ -8131,10 +8140,10 @@
         <v>2021</v>
       </c>
       <c r="B394" s="5" t="s">
-        <v>762</v>
+        <v>778</v>
       </c>
       <c r="C394" s="4" t="s">
-        <v>763</v>
+        <v>779</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.2">
@@ -8142,10 +8151,10 @@
         <v>2021</v>
       </c>
       <c r="B395" s="5" t="s">
-        <v>788</v>
-      </c>
-      <c r="C395" s="12" t="s">
-        <v>789</v>
+        <v>762</v>
+      </c>
+      <c r="C395" s="4" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.2">
@@ -8153,29 +8162,29 @@
         <v>2021</v>
       </c>
       <c r="B396" s="5" t="s">
-        <v>700</v>
-      </c>
-      <c r="C396" s="4" t="s">
-        <v>701</v>
+        <v>788</v>
+      </c>
+      <c r="C396" s="12" t="s">
+        <v>789</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A397" s="19">
         <v>2021</v>
       </c>
+      <c r="B397" s="5" t="s">
+        <v>700</v>
+      </c>
       <c r="C397" s="4" t="s">
-        <v>982</v>
+        <v>701</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A398" s="19">
         <v>2021</v>
       </c>
-      <c r="B398" s="5" t="s">
-        <v>748</v>
-      </c>
       <c r="C398" s="4" t="s">
-        <v>749</v>
+        <v>982</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.2">
@@ -8183,10 +8192,10 @@
         <v>2021</v>
       </c>
       <c r="B399" s="5" t="s">
-        <v>764</v>
+        <v>748</v>
       </c>
       <c r="C399" s="4" t="s">
-        <v>765</v>
+        <v>749</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.2">
@@ -8194,10 +8203,10 @@
         <v>2021</v>
       </c>
       <c r="B400" s="5" t="s">
-        <v>734</v>
+        <v>764</v>
       </c>
       <c r="C400" s="4" t="s">
-        <v>735</v>
+        <v>765</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.2">
@@ -8205,10 +8214,10 @@
         <v>2021</v>
       </c>
       <c r="B401" s="5" t="s">
-        <v>766</v>
+        <v>734</v>
       </c>
       <c r="C401" s="4" t="s">
-        <v>767</v>
+        <v>735</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.2">
@@ -8216,10 +8225,10 @@
         <v>2021</v>
       </c>
       <c r="B402" s="5" t="s">
-        <v>780</v>
+        <v>766</v>
       </c>
       <c r="C402" s="4" t="s">
-        <v>781</v>
+        <v>767</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.2">
@@ -8227,10 +8236,10 @@
         <v>2021</v>
       </c>
       <c r="B403" s="5" t="s">
-        <v>746</v>
+        <v>780</v>
       </c>
       <c r="C403" s="4" t="s">
-        <v>747</v>
+        <v>781</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.2">
@@ -8238,10 +8247,10 @@
         <v>2021</v>
       </c>
       <c r="B404" s="5" t="s">
-        <v>736</v>
+        <v>746</v>
       </c>
       <c r="C404" s="4" t="s">
-        <v>737</v>
+        <v>747</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.2">
@@ -8249,10 +8258,10 @@
         <v>2021</v>
       </c>
       <c r="B405" s="5" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C405" s="4" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.2">
@@ -8260,10 +8269,10 @@
         <v>2021</v>
       </c>
       <c r="B406" s="5" t="s">
-        <v>782</v>
+        <v>738</v>
       </c>
       <c r="C406" s="4" t="s">
-        <v>783</v>
+        <v>739</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.2">
@@ -8271,10 +8280,10 @@
         <v>2021</v>
       </c>
       <c r="B407" s="5" t="s">
-        <v>740</v>
+        <v>782</v>
       </c>
       <c r="C407" s="4" t="s">
-        <v>741</v>
+        <v>783</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.2">
@@ -8282,10 +8291,10 @@
         <v>2021</v>
       </c>
       <c r="B408" s="5" t="s">
-        <v>768</v>
+        <v>740</v>
       </c>
       <c r="C408" s="4" t="s">
-        <v>769</v>
+        <v>741</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.2">
@@ -8293,10 +8302,10 @@
         <v>2021</v>
       </c>
       <c r="B409" s="5" t="s">
-        <v>708</v>
+        <v>768</v>
       </c>
       <c r="C409" s="4" t="s">
-        <v>709</v>
+        <v>769</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.2">
@@ -8304,10 +8313,10 @@
         <v>2021</v>
       </c>
       <c r="B410" s="5" t="s">
-        <v>784</v>
+        <v>708</v>
       </c>
       <c r="C410" s="4" t="s">
-        <v>785</v>
+        <v>709</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.2">
@@ -8315,10 +8324,10 @@
         <v>2021</v>
       </c>
       <c r="B411" s="5" t="s">
-        <v>742</v>
+        <v>784</v>
       </c>
       <c r="C411" s="4" t="s">
-        <v>743</v>
+        <v>785</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.2">
@@ -8326,10 +8335,10 @@
         <v>2021</v>
       </c>
       <c r="B412" s="5" t="s">
-        <v>744</v>
-      </c>
-      <c r="C412" s="13" t="s">
-        <v>745</v>
+        <v>742</v>
+      </c>
+      <c r="C412" s="4" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.2">
@@ -8337,10 +8346,10 @@
         <v>2021</v>
       </c>
       <c r="B413" s="5" t="s">
-        <v>690</v>
-      </c>
-      <c r="C413" s="4" t="s">
-        <v>691</v>
+        <v>744</v>
+      </c>
+      <c r="C413" s="13" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.2">
@@ -8348,21 +8357,21 @@
         <v>2021</v>
       </c>
       <c r="B414" s="5" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C414" s="4" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A415" s="19">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B415" s="5" t="s">
-        <v>833</v>
+        <v>692</v>
       </c>
       <c r="C415" s="4" t="s">
-        <v>834</v>
+        <v>693</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.2">
@@ -8370,10 +8379,10 @@
         <v>2022</v>
       </c>
       <c r="B416" s="5" t="s">
-        <v>859</v>
+        <v>833</v>
       </c>
       <c r="C416" s="4" t="s">
-        <v>860</v>
+        <v>834</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.2">
@@ -8381,10 +8390,10 @@
         <v>2022</v>
       </c>
       <c r="B417" s="5" t="s">
-        <v>798</v>
+        <v>859</v>
       </c>
       <c r="C417" s="4" t="s">
-        <v>799</v>
+        <v>860</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.2">
@@ -8392,10 +8401,10 @@
         <v>2022</v>
       </c>
       <c r="B418" s="5" t="s">
-        <v>835</v>
+        <v>798</v>
       </c>
       <c r="C418" s="4" t="s">
-        <v>836</v>
+        <v>799</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.2">
@@ -8403,10 +8412,10 @@
         <v>2022</v>
       </c>
       <c r="B419" s="5" t="s">
-        <v>803</v>
+        <v>835</v>
       </c>
       <c r="C419" s="4" t="s">
-        <v>804</v>
+        <v>836</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.2">
@@ -8414,10 +8423,10 @@
         <v>2022</v>
       </c>
       <c r="B420" s="5" t="s">
-        <v>790</v>
+        <v>803</v>
       </c>
       <c r="C420" s="4" t="s">
-        <v>791</v>
+        <v>804</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.2">
@@ -8425,10 +8434,10 @@
         <v>2022</v>
       </c>
       <c r="B421" s="5" t="s">
-        <v>805</v>
+        <v>790</v>
       </c>
       <c r="C421" s="4" t="s">
-        <v>806</v>
+        <v>791</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.2">
@@ -8436,32 +8445,32 @@
         <v>2022</v>
       </c>
       <c r="B422" s="5" t="s">
-        <v>819</v>
+        <v>805</v>
       </c>
       <c r="C422" s="4" t="s">
-        <v>820</v>
+        <v>806</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A423" s="19">
         <v>2022</v>
       </c>
-      <c r="B423" s="4" t="s">
-        <v>792</v>
+      <c r="B423" s="5" t="s">
+        <v>819</v>
       </c>
       <c r="C423" s="4" t="s">
-        <v>793</v>
+        <v>820</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A424" s="19">
         <v>2022</v>
       </c>
-      <c r="B424" s="5" t="s">
-        <v>801</v>
+      <c r="B424" s="4" t="s">
+        <v>792</v>
       </c>
       <c r="C424" s="4" t="s">
-        <v>802</v>
+        <v>793</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.2">
@@ -8469,10 +8478,10 @@
         <v>2022</v>
       </c>
       <c r="B425" s="5" t="s">
-        <v>870</v>
+        <v>801</v>
       </c>
       <c r="C425" s="4" t="s">
-        <v>871</v>
+        <v>802</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.2">
@@ -8480,10 +8489,10 @@
         <v>2022</v>
       </c>
       <c r="B426" s="5" t="s">
-        <v>837</v>
+        <v>870</v>
       </c>
       <c r="C426" s="4" t="s">
-        <v>838</v>
+        <v>871</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.2">
@@ -8491,10 +8500,10 @@
         <v>2022</v>
       </c>
       <c r="B427" s="5" t="s">
-        <v>831</v>
+        <v>837</v>
       </c>
       <c r="C427" s="4" t="s">
-        <v>832</v>
+        <v>838</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.2">
@@ -8502,21 +8511,21 @@
         <v>2022</v>
       </c>
       <c r="B428" s="9" t="s">
-        <v>839</v>
+        <v>831</v>
       </c>
       <c r="C428" s="4" t="s">
-        <v>840</v>
+        <v>832</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A429" s="19">
         <v>2022</v>
       </c>
-      <c r="B429" s="5" t="s">
-        <v>863</v>
+      <c r="B429" s="24" t="s">
+        <v>839</v>
       </c>
       <c r="C429" s="4" t="s">
-        <v>864</v>
+        <v>840</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.2">
@@ -8524,10 +8533,10 @@
         <v>2022</v>
       </c>
       <c r="B430" s="5" t="s">
-        <v>807</v>
+        <v>863</v>
       </c>
       <c r="C430" s="4" t="s">
-        <v>808</v>
+        <v>864</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.2">
@@ -8535,10 +8544,10 @@
         <v>2022</v>
       </c>
       <c r="B431" s="5" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="C431" s="4" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.2">
@@ -8546,21 +8555,21 @@
         <v>2022</v>
       </c>
       <c r="B432" s="5" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="C432" s="4" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A433" s="19">
         <v>2022</v>
       </c>
-      <c r="B433" s="4" t="s">
-        <v>1046</v>
+      <c r="B433" s="5" t="s">
+        <v>811</v>
       </c>
       <c r="C433" s="4" t="s">
-        <v>1047</v>
+        <v>812</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.2">
@@ -8568,21 +8577,21 @@
         <v>2022</v>
       </c>
       <c r="B434" s="4" t="s">
-        <v>1002</v>
+        <v>1045</v>
       </c>
       <c r="C434" s="4" t="s">
-        <v>1003</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A435" s="19">
         <v>2022</v>
       </c>
-      <c r="B435" s="5" t="s">
-        <v>855</v>
+      <c r="B435" s="4" t="s">
+        <v>1001</v>
       </c>
       <c r="C435" s="4" t="s">
-        <v>856</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.2">
@@ -8590,30 +8599,30 @@
         <v>2022</v>
       </c>
       <c r="B436" s="5" t="s">
-        <v>813</v>
+        <v>855</v>
       </c>
       <c r="C436" s="4" t="s">
-        <v>814</v>
+        <v>856</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A437" s="19">
         <v>2022</v>
       </c>
-      <c r="B437" s="5"/>
+      <c r="B437" s="5" t="s">
+        <v>813</v>
+      </c>
       <c r="C437" s="4" t="s">
-        <v>968</v>
+        <v>814</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A438" s="19">
         <v>2022</v>
       </c>
-      <c r="B438" s="5" t="s">
-        <v>821</v>
-      </c>
+      <c r="B438" s="5"/>
       <c r="C438" s="4" t="s">
-        <v>822</v>
+        <v>968</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.2">
@@ -8621,32 +8630,32 @@
         <v>2022</v>
       </c>
       <c r="B439" s="5" t="s">
-        <v>841</v>
+        <v>821</v>
       </c>
       <c r="C439" s="4" t="s">
-        <v>842</v>
+        <v>822</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A440" s="19">
         <v>2022</v>
       </c>
-      <c r="B440" s="4" t="s">
-        <v>1017</v>
+      <c r="B440" s="5" t="s">
+        <v>841</v>
       </c>
       <c r="C440" s="4" t="s">
-        <v>1007</v>
+        <v>842</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A441" s="19">
         <v>2022</v>
       </c>
-      <c r="B441" s="5" t="s">
-        <v>843</v>
+      <c r="B441" s="4" t="s">
+        <v>1016</v>
       </c>
       <c r="C441" s="4" t="s">
-        <v>844</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.2">
@@ -8654,10 +8663,10 @@
         <v>2022</v>
       </c>
       <c r="B442" s="5" t="s">
-        <v>978</v>
+        <v>843</v>
       </c>
       <c r="C442" s="4" t="s">
-        <v>979</v>
+        <v>844</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.2">
@@ -8665,10 +8674,10 @@
         <v>2022</v>
       </c>
       <c r="B443" s="5" t="s">
-        <v>1006</v>
+        <v>978</v>
       </c>
       <c r="C443" s="4" t="s">
-        <v>800</v>
+        <v>979</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.2">
@@ -8676,32 +8685,32 @@
         <v>2022</v>
       </c>
       <c r="B444" s="5" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C444" s="4" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A445" s="23">
+        <v>2022</v>
+      </c>
+      <c r="B445" s="5" t="s">
         <v>845</v>
       </c>
-      <c r="C444" s="4" t="s">
+      <c r="C445" s="4" t="s">
         <v>846</v>
-      </c>
-    </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A445" s="19">
-        <v>2022</v>
-      </c>
-      <c r="B445" s="4" t="s">
-        <v>970</v>
-      </c>
-      <c r="C445" s="4" t="s">
-        <v>971</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A446" s="19">
         <v>2022</v>
       </c>
-      <c r="B446" s="5" t="s">
-        <v>815</v>
+      <c r="B446" s="4" t="s">
+        <v>970</v>
       </c>
       <c r="C446" s="4" t="s">
-        <v>816</v>
+        <v>971</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.2">
@@ -8709,10 +8718,10 @@
         <v>2022</v>
       </c>
       <c r="B447" s="5" t="s">
-        <v>857</v>
+        <v>815</v>
       </c>
       <c r="C447" s="4" t="s">
-        <v>858</v>
+        <v>816</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.2">
@@ -8720,10 +8729,10 @@
         <v>2022</v>
       </c>
       <c r="B448" s="5" t="s">
-        <v>847</v>
+        <v>857</v>
       </c>
       <c r="C448" s="4" t="s">
-        <v>848</v>
+        <v>858</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.2">
@@ -8731,32 +8740,32 @@
         <v>2022</v>
       </c>
       <c r="B449" s="5" t="s">
-        <v>823</v>
+        <v>847</v>
       </c>
       <c r="C449" s="4" t="s">
-        <v>824</v>
+        <v>848</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A450" s="19">
         <v>2022</v>
       </c>
-      <c r="B450" s="4" t="s">
-        <v>794</v>
+      <c r="B450" s="5" t="s">
+        <v>823</v>
       </c>
       <c r="C450" s="4" t="s">
-        <v>795</v>
+        <v>824</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A451" s="20">
         <v>2022</v>
       </c>
-      <c r="B451" s="5" t="s">
-        <v>825</v>
+      <c r="B451" s="4" t="s">
+        <v>794</v>
       </c>
       <c r="C451" s="4" t="s">
-        <v>826</v>
+        <v>795</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.2">
@@ -8764,10 +8773,10 @@
         <v>2022</v>
       </c>
       <c r="B452" s="5" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="C452" s="4" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.2">
@@ -8775,32 +8784,32 @@
         <v>2022</v>
       </c>
       <c r="B453" s="5" t="s">
+        <v>827</v>
+      </c>
+      <c r="C453" s="4" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A454" s="23">
+        <v>2022</v>
+      </c>
+      <c r="B454" s="5" t="s">
         <v>796</v>
       </c>
-      <c r="C453" s="4" t="s">
+      <c r="C454" s="4" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A454" s="21">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A455" s="21">
         <v>2022</v>
       </c>
-      <c r="B454" s="4" t="s">
+      <c r="B455" s="4" t="s">
         <v>975</v>
       </c>
-      <c r="C454" s="4" t="s">
+      <c r="C455" s="4" t="s">
         <v>974</v>
-      </c>
-    </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A455" s="19">
-        <v>2022</v>
-      </c>
-      <c r="B455" s="5" t="s">
-        <v>849</v>
-      </c>
-      <c r="C455" s="4" t="s">
-        <v>850</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.2">
@@ -8808,43 +8817,43 @@
         <v>2022</v>
       </c>
       <c r="B456" s="5" t="s">
+        <v>849</v>
+      </c>
+      <c r="C456" s="4" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A457" s="23">
+        <v>2022</v>
+      </c>
+      <c r="B457" s="5" t="s">
         <v>829</v>
       </c>
-      <c r="C456" s="4" t="s">
+      <c r="C457" s="4" t="s">
         <v>830</v>
-      </c>
-    </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A457" s="19">
-        <v>2022</v>
-      </c>
-      <c r="B457" s="5" t="s">
-        <v>851</v>
-      </c>
-      <c r="C457" s="4" t="s">
-        <v>852</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A458" s="19">
         <v>2022</v>
       </c>
-      <c r="B458" s="4" t="s">
-        <v>1004</v>
+      <c r="B458" s="5" t="s">
+        <v>851</v>
       </c>
       <c r="C458" s="4" t="s">
-        <v>1005</v>
+        <v>852</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A459" s="19">
         <v>2022</v>
       </c>
-      <c r="B459" s="5" t="s">
-        <v>853</v>
+      <c r="B459" s="4" t="s">
+        <v>1003</v>
       </c>
       <c r="C459" s="4" t="s">
-        <v>854</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.2">
@@ -8852,54 +8861,54 @@
         <v>2022</v>
       </c>
       <c r="B460" s="5" t="s">
-        <v>817</v>
+        <v>853</v>
       </c>
       <c r="C460" s="4" t="s">
-        <v>818</v>
+        <v>854</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A461" s="19">
-        <v>2023</v>
-      </c>
-      <c r="B461" s="4" t="s">
-        <v>1000</v>
+        <v>2022</v>
+      </c>
+      <c r="B461" s="5" t="s">
+        <v>817</v>
       </c>
       <c r="C461" s="4" t="s">
-        <v>1001</v>
+        <v>818</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A462" s="19">
         <v>2023</v>
       </c>
-      <c r="B462" s="5" t="s">
-        <v>985</v>
+      <c r="B462" s="4" t="s">
+        <v>999</v>
       </c>
       <c r="C462" s="4" t="s">
-        <v>983</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A463" s="19">
         <v>2023</v>
       </c>
-      <c r="B463" s="4" t="s">
+      <c r="B463" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="C463" s="4" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A464" s="19">
+        <v>2023</v>
+      </c>
+      <c r="B464" s="4" t="s">
         <v>995</v>
       </c>
-      <c r="C463" s="4" t="s">
+      <c r="C464" s="4" t="s">
         <v>996</v>
-      </c>
-    </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A464" s="21">
-        <v>2023</v>
-      </c>
-      <c r="B464" s="4" t="s">
-        <v>994</v>
-      </c>
-      <c r="C464" s="4" t="s">
-        <v>984</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.2">
@@ -8907,21 +8916,21 @@
         <v>2023</v>
       </c>
       <c r="B465" s="4" t="s">
-        <v>1018</v>
+        <v>1075</v>
       </c>
       <c r="C465" s="4" t="s">
-        <v>1015</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A466" s="19">
+      <c r="A466" s="21">
         <v>2023</v>
       </c>
       <c r="B466" s="4" t="s">
-        <v>1057</v>
+        <v>994</v>
       </c>
       <c r="C466" s="4" t="s">
-        <v>1056</v>
+        <v>984</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.2">
@@ -8929,19 +8938,21 @@
         <v>2023</v>
       </c>
       <c r="B467" s="4" t="s">
-        <v>992</v>
+        <v>1017</v>
       </c>
       <c r="C467" s="4" t="s">
-        <v>991</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A468" s="19">
         <v>2023</v>
       </c>
-      <c r="B468" s="5"/>
+      <c r="B468" s="4" t="s">
+        <v>1056</v>
+      </c>
       <c r="C468" s="4" t="s">
-        <v>987</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.2">
@@ -8949,32 +8960,30 @@
         <v>2023</v>
       </c>
       <c r="B469" s="4" t="s">
-        <v>1054</v>
+        <v>992</v>
       </c>
       <c r="C469" s="4" t="s">
-        <v>1055</v>
+        <v>991</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A470" s="19">
         <v>2023</v>
       </c>
-      <c r="B470" s="4" t="s">
-        <v>1071</v>
-      </c>
+      <c r="B470" s="5"/>
       <c r="C470" s="4" t="s">
-        <v>1016</v>
+        <v>987</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A471" s="21">
+      <c r="A471" s="19">
         <v>2023</v>
       </c>
       <c r="B471" s="4" t="s">
-        <v>966</v>
+        <v>1053</v>
       </c>
       <c r="C471" s="4" t="s">
-        <v>865</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.2">
@@ -8982,32 +8991,32 @@
         <v>2023</v>
       </c>
       <c r="B472" s="4" t="s">
-        <v>993</v>
+        <v>1067</v>
       </c>
       <c r="C472" s="4" t="s">
-        <v>990</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A473" s="19">
         <v>2023</v>
       </c>
-      <c r="B473" s="5" t="s">
-        <v>868</v>
+      <c r="B473" s="4" t="s">
+        <v>1070</v>
       </c>
       <c r="C473" s="6" t="s">
-        <v>869</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A474" s="19">
+      <c r="A474" s="21">
         <v>2023</v>
       </c>
       <c r="B474" s="4" t="s">
-        <v>973</v>
-      </c>
-      <c r="C474" s="4" t="s">
-        <v>969</v>
+        <v>966</v>
+      </c>
+      <c r="C474" s="22" t="s">
+        <v>865</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.2">
@@ -9015,21 +9024,21 @@
         <v>2023</v>
       </c>
       <c r="B475" s="4" t="s">
-        <v>1036</v>
-      </c>
-      <c r="C475" s="4" t="s">
-        <v>1037</v>
+        <v>993</v>
+      </c>
+      <c r="C475" s="22" t="s">
+        <v>990</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A476" s="19">
         <v>2023</v>
       </c>
-      <c r="B476" s="4" t="s">
-        <v>989</v>
-      </c>
-      <c r="C476" s="4" t="s">
-        <v>988</v>
+      <c r="B476" s="5" t="s">
+        <v>868</v>
+      </c>
+      <c r="C476" s="22" t="s">
+        <v>869</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.2">
@@ -9037,10 +9046,10 @@
         <v>2023</v>
       </c>
       <c r="B477" s="4" t="s">
-        <v>1011</v>
+        <v>973</v>
       </c>
       <c r="C477" s="4" t="s">
-        <v>1012</v>
+        <v>969</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.2">
@@ -9048,10 +9057,10 @@
         <v>2023</v>
       </c>
       <c r="B478" s="4" t="s">
-        <v>1043</v>
+        <v>1035</v>
       </c>
       <c r="C478" s="4" t="s">
-        <v>1042</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.2">
@@ -9059,10 +9068,10 @@
         <v>2023</v>
       </c>
       <c r="B479" s="4" t="s">
-        <v>1009</v>
-      </c>
-      <c r="C479" s="13" t="s">
-        <v>1010</v>
+        <v>989</v>
+      </c>
+      <c r="C479" s="4" t="s">
+        <v>988</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.2">
@@ -9070,10 +9079,10 @@
         <v>2023</v>
       </c>
       <c r="B480" s="4" t="s">
-        <v>1034</v>
+        <v>1010</v>
       </c>
       <c r="C480" s="4" t="s">
-        <v>1035</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.2">
@@ -9081,10 +9090,10 @@
         <v>2023</v>
       </c>
       <c r="B481" s="4" t="s">
-        <v>1048</v>
+        <v>1042</v>
       </c>
       <c r="C481" s="4" t="s">
-        <v>1049</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.2">
@@ -9092,10 +9101,10 @@
         <v>2023</v>
       </c>
       <c r="B482" s="4" t="s">
-        <v>997</v>
-      </c>
-      <c r="C482" s="4" t="s">
-        <v>998</v>
+        <v>1008</v>
+      </c>
+      <c r="C482" s="13" t="s">
+        <v>1009</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.2">
@@ -9103,56 +9112,65 @@
         <v>2023</v>
       </c>
       <c r="B483" s="4" t="s">
-        <v>1070</v>
+        <v>1033</v>
       </c>
       <c r="C483" s="4" t="s">
-        <v>1065</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A484" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B484" s="4" t="s">
-        <v>1074</v>
+      <c r="A484" s="19">
+        <v>2023</v>
+      </c>
+      <c r="B484" s="5" t="s">
+        <v>861</v>
       </c>
       <c r="C484" s="4" t="s">
-        <v>1066</v>
+        <v>862</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A485" s="19" t="s">
-        <v>0</v>
+      <c r="A485" s="19">
+        <v>2023</v>
+      </c>
+      <c r="B485" s="4" t="s">
+        <v>1047</v>
       </c>
       <c r="C485" s="4" t="s">
-        <v>1075</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A486" s="19" t="s">
-        <v>0</v>
+      <c r="A486" s="19">
+        <v>2023</v>
+      </c>
+      <c r="B486" s="4" t="s">
+        <v>997</v>
       </c>
       <c r="C486" s="4" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A487" s="19" t="s">
-        <v>0</v>
+      <c r="A487" s="19">
+        <v>2023</v>
       </c>
       <c r="B487" s="4" t="s">
-        <v>1014</v>
+        <v>1069</v>
       </c>
       <c r="C487" s="4" t="s">
-        <v>1013</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A488" s="19" t="s">
         <v>0</v>
       </c>
+      <c r="B488" s="4" t="s">
+        <v>1073</v>
+      </c>
       <c r="C488" s="4" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.2">
@@ -9160,32 +9178,29 @@
         <v>0</v>
       </c>
       <c r="B489" s="4" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="C489" s="4" t="s">
-        <v>1008</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A490" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B490" s="4" t="s">
+      <c r="C490" s="4" t="s">
         <v>1068</v>
-      </c>
-      <c r="C490" s="4" t="s">
-        <v>1067</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A491" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B491" s="5" t="s">
-        <v>866</v>
+      <c r="B491" s="4" t="s">
+        <v>1018</v>
       </c>
       <c r="C491" s="4" t="s">
-        <v>867</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.2">
@@ -9193,7 +9208,7 @@
         <v>0</v>
       </c>
       <c r="C492" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.2">
@@ -9201,10 +9216,10 @@
         <v>0</v>
       </c>
       <c r="B493" s="4" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C493" s="4" t="s">
         <v>1072</v>
-      </c>
-      <c r="C493" s="4" t="s">
-        <v>1073</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.2">
@@ -9223,10 +9238,10 @@
         <v>0</v>
       </c>
       <c r="B495" s="4" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C495" s="4" t="s">
         <v>1062</v>
-      </c>
-      <c r="C495" s="4" t="s">
-        <v>1063</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.2">
@@ -9234,38 +9249,27 @@
         <v>0</v>
       </c>
       <c r="B496" s="4" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="C496" s="4" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A497" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B497" s="5" t="s">
-        <v>861</v>
+      <c r="B497" s="4" t="s">
+        <v>1058</v>
       </c>
       <c r="C497" s="4" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A498" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B498" s="4" t="s">
-        <v>1059</v>
-      </c>
-      <c r="C498" s="4" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C498">
-    <sortCondition ref="A2:A498"/>
-    <sortCondition ref="C2:C498"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C497">
+    <sortCondition ref="A2:A497"/>
+    <sortCondition ref="C2:C497"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="Submetido">
@@ -9287,7 +9291,7 @@
     <cfRule type="duplicateValues" dxfId="9" priority="7"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B449" r:id="rId1" xr:uid="{9BCE4324-8A77-884E-80ED-4C3988C2A1D3}"/>
+    <hyperlink ref="B450" r:id="rId1" xr:uid="{9BCE4324-8A77-884E-80ED-4C3988C2A1D3}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape"/>
@@ -9615,10 +9619,10 @@
         <v>2023</v>
       </c>
       <c r="B28" s="4" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>1052</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>1053</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -10409,7 +10413,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10459,10 +10463,10 @@
         <v>2023</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>1060</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>1061</v>
       </c>
     </row>
     <row r="17" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -11483,7 +11487,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11511,10 +11515,10 @@
         <v>2013</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>1032</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>1033</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -11764,10 +11768,10 @@
         <v>2022</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>1040</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>1041</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBCCF1D6-917E-8940-B0E6-7DEC8D234253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8217747-B11F-384E-85E8-9D2E4840C48E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="500" windowWidth="27920" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="1076">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="1077">
   <si>
     <t>Aceito</t>
   </si>
@@ -3275,6 +3275,9 @@
   </si>
   <si>
     <t>10.3390/healthcare11121809</t>
+  </si>
+  <si>
+    <t>Cognitive functional therapy compared with core exercises and manual therapy in patients with chronic low back pain after spinal surgery: randomized controlled trial</t>
   </si>
 </sst>
 </file>
@@ -3383,7 +3386,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3446,15 +3449,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -3799,13 +3793,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I497"/>
+  <dimension ref="A1:I498"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B460" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B462" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A497" sqref="A497"/>
+      <selection pane="bottomRight" activeCell="A498" sqref="A498"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8521,7 +8515,7 @@
       <c r="A429" s="19">
         <v>2022</v>
       </c>
-      <c r="B429" s="24" t="s">
+      <c r="B429" s="5" t="s">
         <v>839</v>
       </c>
       <c r="C429" s="4" t="s">
@@ -8692,7 +8686,7 @@
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A445" s="23">
+      <c r="A445" s="19">
         <v>2022</v>
       </c>
       <c r="B445" s="5" t="s">
@@ -8791,7 +8785,7 @@
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A454" s="23">
+      <c r="A454" s="19">
         <v>2022</v>
       </c>
       <c r="B454" s="5" t="s">
@@ -8824,7 +8818,7 @@
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A457" s="23">
+      <c r="A457" s="19">
         <v>2022</v>
       </c>
       <c r="B457" s="5" t="s">
@@ -9015,7 +9009,7 @@
       <c r="B474" s="4" t="s">
         <v>966</v>
       </c>
-      <c r="C474" s="22" t="s">
+      <c r="C474" s="4" t="s">
         <v>865</v>
       </c>
     </row>
@@ -9026,7 +9020,7 @@
       <c r="B475" s="4" t="s">
         <v>993</v>
       </c>
-      <c r="C475" s="22" t="s">
+      <c r="C475" s="4" t="s">
         <v>990</v>
       </c>
     </row>
@@ -9037,7 +9031,7 @@
       <c r="B476" s="5" t="s">
         <v>868</v>
       </c>
-      <c r="C476" s="22" t="s">
+      <c r="C476" s="4" t="s">
         <v>869</v>
       </c>
     </row>
@@ -9264,6 +9258,14 @@
       </c>
       <c r="C497" s="4" t="s">
         <v>1057</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A498" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C498" s="4" t="s">
+        <v>1076</v>
       </c>
     </row>
   </sheetData>

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8217747-B11F-384E-85E8-9D2E4840C48E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC27689A-509D-8D43-994C-79EC63FFE554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="500" windowWidth="27920" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="1077">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="1080">
   <si>
     <t>Aceito</t>
   </si>
@@ -3278,6 +3278,15 @@
   </si>
   <si>
     <t>Cognitive functional therapy compared with core exercises and manual therapy in patients with chronic low back pain after spinal surgery: randomized controlled trial</t>
+  </si>
+  <si>
+    <t>Feasibility of the Glittre-ADL test in the preoperative period of thoracic surgery</t>
+  </si>
+  <si>
+    <t>10.1097/JOM.0000000000002918</t>
+  </si>
+  <si>
+    <t>Better work ability is associated with lower levels of both occupational stress and occupational physical activity in professional drivers: A cross- sectional study</t>
   </si>
 </sst>
 </file>
@@ -3793,13 +3802,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I498"/>
+  <dimension ref="A1:I500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B462" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B463" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A498" sqref="A498"/>
+      <selection pane="bottomRight" activeCell="A500" sqref="A500"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9172,10 +9181,10 @@
         <v>0</v>
       </c>
       <c r="B489" s="4" t="s">
-        <v>1013</v>
+        <v>1078</v>
       </c>
       <c r="C489" s="4" t="s">
-        <v>1012</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.2">
@@ -9183,7 +9192,7 @@
         <v>0</v>
       </c>
       <c r="C490" s="4" t="s">
-        <v>1068</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.2">
@@ -9191,10 +9200,10 @@
         <v>0</v>
       </c>
       <c r="B491" s="4" t="s">
-        <v>1018</v>
+        <v>1013</v>
       </c>
       <c r="C491" s="4" t="s">
-        <v>1007</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.2">
@@ -9202,7 +9211,7 @@
         <v>0</v>
       </c>
       <c r="C492" s="4" t="s">
-        <v>1063</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.2">
@@ -9210,32 +9219,26 @@
         <v>0</v>
       </c>
       <c r="B493" s="4" t="s">
-        <v>1071</v>
+        <v>1018</v>
       </c>
       <c r="C493" s="4" t="s">
-        <v>1072</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A494" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B494" s="4" t="s">
-        <v>972</v>
-      </c>
       <c r="C494" s="4" t="s">
-        <v>967</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A495" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B495" s="4" t="s">
-        <v>1061</v>
-      </c>
       <c r="C495" s="4" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.2">
@@ -9243,10 +9246,10 @@
         <v>0</v>
       </c>
       <c r="B496" s="4" t="s">
-        <v>1044</v>
+        <v>1071</v>
       </c>
       <c r="C496" s="4" t="s">
-        <v>1043</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.2">
@@ -9254,24 +9257,49 @@
         <v>0</v>
       </c>
       <c r="B497" s="4" t="s">
-        <v>1058</v>
+        <v>972</v>
       </c>
       <c r="C497" s="4" t="s">
-        <v>1057</v>
+        <v>967</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A498" s="19" t="s">
         <v>0</v>
       </c>
+      <c r="B498" s="4" t="s">
+        <v>1061</v>
+      </c>
       <c r="C498" s="4" t="s">
-        <v>1076</v>
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A499" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B499" s="4" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C499" s="4" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A500" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B500" s="4" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C500" s="4" t="s">
+        <v>1057</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C497">
-    <sortCondition ref="A2:A497"/>
-    <sortCondition ref="C2:C497"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C500">
+    <sortCondition ref="A2:A500"/>
+    <sortCondition ref="C2:C500"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="Submetido">

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC27689A-509D-8D43-994C-79EC63FFE554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B796374-BF2B-4844-82C7-AC794BB1E1EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="500" windowWidth="27920" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="PI.anais" sheetId="8" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">PI.anais!$A$1:$C$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">PI.anais!$A$1:$C$38</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PI.completos!$A$1:$C$497</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">PI.preprints!$A$1:$C$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">PI.resumos!$A$1:$C$29</definedName>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="1080">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="1082">
   <si>
     <t>Aceito</t>
   </si>
@@ -3287,6 +3287,12 @@
   </si>
   <si>
     <t>Better work ability is associated with lower levels of both occupational stress and occupational physical activity in professional drivers: A cross- sectional study</t>
+  </si>
+  <si>
+    <t>Age of independent sitting posture acquisition for children with myelomeningocele</t>
+  </si>
+  <si>
+    <t>10.1007/s00586-023-07821-2</t>
   </si>
 </sst>
 </file>
@@ -3395,7 +3401,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3458,6 +3464,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -8994,10 +9003,10 @@
         <v>2023</v>
       </c>
       <c r="B472" s="4" t="s">
-        <v>1067</v>
+        <v>1018</v>
       </c>
       <c r="C472" s="4" t="s">
-        <v>1066</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.2">
@@ -9005,54 +9014,54 @@
         <v>2023</v>
       </c>
       <c r="B473" s="4" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C473" s="6" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A474" s="19">
+        <v>2023</v>
+      </c>
+      <c r="B474" s="4" t="s">
         <v>1070</v>
       </c>
-      <c r="C473" s="6" t="s">
+      <c r="C474" s="22" t="s">
         <v>1015</v>
       </c>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A474" s="21">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A475" s="21">
         <v>2023</v>
       </c>
-      <c r="B474" s="4" t="s">
+      <c r="B475" s="4" t="s">
         <v>966</v>
       </c>
-      <c r="C474" s="4" t="s">
+      <c r="C475" s="4" t="s">
         <v>865</v>
-      </c>
-    </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A475" s="19">
-        <v>2023</v>
-      </c>
-      <c r="B475" s="4" t="s">
-        <v>993</v>
-      </c>
-      <c r="C475" s="4" t="s">
-        <v>990</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A476" s="19">
         <v>2023</v>
       </c>
-      <c r="B476" s="5" t="s">
-        <v>868</v>
+      <c r="B476" s="4" t="s">
+        <v>993</v>
       </c>
       <c r="C476" s="4" t="s">
-        <v>869</v>
+        <v>990</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A477" s="19">
         <v>2023</v>
       </c>
-      <c r="B477" s="4" t="s">
-        <v>973</v>
+      <c r="B477" s="5" t="s">
+        <v>868</v>
       </c>
       <c r="C477" s="4" t="s">
-        <v>969</v>
+        <v>869</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.2">
@@ -9060,10 +9069,10 @@
         <v>2023</v>
       </c>
       <c r="B478" s="4" t="s">
-        <v>1035</v>
+        <v>973</v>
       </c>
       <c r="C478" s="4" t="s">
-        <v>1036</v>
+        <v>969</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.2">
@@ -9071,10 +9080,10 @@
         <v>2023</v>
       </c>
       <c r="B479" s="4" t="s">
-        <v>989</v>
+        <v>1035</v>
       </c>
       <c r="C479" s="4" t="s">
-        <v>988</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.2">
@@ -9082,10 +9091,10 @@
         <v>2023</v>
       </c>
       <c r="B480" s="4" t="s">
-        <v>1010</v>
+        <v>989</v>
       </c>
       <c r="C480" s="4" t="s">
-        <v>1011</v>
+        <v>988</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.2">
@@ -9093,10 +9102,10 @@
         <v>2023</v>
       </c>
       <c r="B481" s="4" t="s">
-        <v>1042</v>
+        <v>1010</v>
       </c>
       <c r="C481" s="4" t="s">
-        <v>1041</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.2">
@@ -9104,10 +9113,10 @@
         <v>2023</v>
       </c>
       <c r="B482" s="4" t="s">
-        <v>1008</v>
-      </c>
-      <c r="C482" s="13" t="s">
-        <v>1009</v>
+        <v>1042</v>
+      </c>
+      <c r="C482" s="4" t="s">
+        <v>1041</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.2">
@@ -9115,32 +9124,32 @@
         <v>2023</v>
       </c>
       <c r="B483" s="4" t="s">
-        <v>1033</v>
-      </c>
-      <c r="C483" s="4" t="s">
-        <v>1034</v>
+        <v>1008</v>
+      </c>
+      <c r="C483" s="13" t="s">
+        <v>1009</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A484" s="19">
         <v>2023</v>
       </c>
-      <c r="B484" s="5" t="s">
-        <v>861</v>
+      <c r="B484" s="4" t="s">
+        <v>1033</v>
       </c>
       <c r="C484" s="4" t="s">
-        <v>862</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A485" s="19">
         <v>2023</v>
       </c>
-      <c r="B485" s="4" t="s">
-        <v>1047</v>
+      <c r="B485" s="5" t="s">
+        <v>861</v>
       </c>
       <c r="C485" s="4" t="s">
-        <v>1048</v>
+        <v>862</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.2">
@@ -9148,10 +9157,10 @@
         <v>2023</v>
       </c>
       <c r="B486" s="4" t="s">
-        <v>997</v>
+        <v>1047</v>
       </c>
       <c r="C486" s="4" t="s">
-        <v>998</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.2">
@@ -9159,21 +9168,21 @@
         <v>2023</v>
       </c>
       <c r="B487" s="4" t="s">
+        <v>997</v>
+      </c>
+      <c r="C487" s="4" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A488" s="19">
+        <v>2023</v>
+      </c>
+      <c r="B488" s="4" t="s">
         <v>1069</v>
       </c>
-      <c r="C487" s="4" t="s">
+      <c r="C488" s="4" t="s">
         <v>1064</v>
-      </c>
-    </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A488" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B488" s="4" t="s">
-        <v>1073</v>
-      </c>
-      <c r="C488" s="4" t="s">
-        <v>1065</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.2">
@@ -9181,37 +9190,40 @@
         <v>0</v>
       </c>
       <c r="B489" s="4" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="C489" s="4" t="s">
-        <v>1079</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A490" s="19" t="s">
         <v>0</v>
       </c>
+      <c r="B490" s="4" t="s">
+        <v>1078</v>
+      </c>
       <c r="C490" s="4" t="s">
-        <v>1076</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A491" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B491" s="4" t="s">
-        <v>1013</v>
-      </c>
       <c r="C491" s="4" t="s">
-        <v>1012</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A492" s="19" t="s">
         <v>0</v>
       </c>
+      <c r="B492" s="4" t="s">
+        <v>1013</v>
+      </c>
       <c r="C492" s="4" t="s">
-        <v>1068</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.2">
@@ -9219,10 +9231,10 @@
         <v>0</v>
       </c>
       <c r="B493" s="4" t="s">
-        <v>1018</v>
+        <v>1081</v>
       </c>
       <c r="C493" s="4" t="s">
-        <v>1007</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.2">
@@ -11511,13 +11523,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A25" sqref="A25"/>
+      <selection pane="bottomRight" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11564,13 +11576,13 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>931</v>
+        <v>170</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>932</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -11578,10 +11590,10 @@
         <v>2017</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -11589,21 +11601,21 @@
         <v>2017</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
-        <v>2018</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>902</v>
+        <v>2017</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>933</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>903</v>
+        <v>934</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -11611,43 +11623,43 @@
         <v>2018</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>937</v>
+        <v>902</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>938</v>
+        <v>903</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>2018</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>939</v>
+      <c r="B9" s="10" t="s">
+        <v>937</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
-        <v>2019</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>941</v>
+        <v>2018</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>939</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
-        <v>2020</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>945</v>
+        <v>2019</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>941</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -11655,10 +11667,10 @@
         <v>2020</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -11666,21 +11678,21 @@
         <v>2020</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
-        <v>2021</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>955</v>
+        <v>2020</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>949</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>956</v>
+        <v>950</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -11691,7 +11703,7 @@
         <v>955</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>962</v>
+        <v>956</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -11702,7 +11714,7 @@
         <v>955</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>957</v>
+        <v>962</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -11713,7 +11725,7 @@
         <v>955</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -11724,7 +11736,7 @@
         <v>955</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -11735,7 +11747,7 @@
         <v>955</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -11746,7 +11758,7 @@
         <v>955</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -11757,7 +11769,7 @@
         <v>955</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -11765,32 +11777,32 @@
         <v>2021</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>943</v>
+        <v>955</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>944</v>
+        <v>963</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>2021</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>951</v>
+      <c r="B23" s="5" t="s">
+        <v>943</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>952</v>
+        <v>944</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>964</v>
+        <v>951</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>965</v>
+        <v>952</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -11798,14 +11810,22 @@
         <v>2022</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>964</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>1039</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C26" s="4" t="s">
         <v>1040</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B26" s="5"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B27" s="5"/>
@@ -11828,8 +11848,8 @@
     <row r="33" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B33" s="5"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B35" s="5"/>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B34" s="5"/>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B36" s="5"/>
@@ -11837,10 +11857,13 @@
     <row r="37" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B37" s="5"/>
     </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B38" s="5"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C25">
-    <sortCondition ref="A2:A25"/>
-    <sortCondition ref="C2:C25"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C26">
+    <sortCondition ref="A2:A26"/>
+    <sortCondition ref="C2:C26"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="Aceito">

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B796374-BF2B-4844-82C7-AC794BB1E1EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C5AC16E-0CA1-E343-97AB-9CBB3CBE7F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="500" windowWidth="27920" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="1082">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="1083">
   <si>
     <t>Aceito</t>
   </si>
@@ -3293,6 +3293,9 @@
   </si>
   <si>
     <t>10.1007/s00586-023-07821-2</t>
+  </si>
+  <si>
+    <t>10.1080/09593985.2023.2234027</t>
   </si>
 </sst>
 </file>
@@ -3401,7 +3404,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3464,9 +3467,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -3817,7 +3817,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B463" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A500" sqref="A500"/>
+      <selection pane="bottomRight" activeCell="A494" sqref="A494"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9027,7 +9027,7 @@
       <c r="B474" s="4" t="s">
         <v>1070</v>
       </c>
-      <c r="C474" s="22" t="s">
+      <c r="C474" s="4" t="s">
         <v>1015</v>
       </c>
     </row>
@@ -9240,6 +9240,9 @@
     <row r="494" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A494" s="19" t="s">
         <v>0</v>
+      </c>
+      <c r="B494" s="4" t="s">
+        <v>1082</v>
       </c>
       <c r="C494" s="4" t="s">
         <v>1077</v>

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C5AC16E-0CA1-E343-97AB-9CBB3CBE7F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAEA986A-DAEE-7E4D-A8A1-036125106DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="500" windowWidth="27920" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="1083">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="1085">
   <si>
     <t>Aceito</t>
   </si>
@@ -3296,6 +3296,12 @@
   </si>
   <si>
     <t>10.1080/09593985.2023.2234027</t>
+  </si>
+  <si>
+    <t>10.1152/ajpregu.00111.2023</t>
+  </si>
+  <si>
+    <t>Neurovascular and Hemodynamic Responses to Mental Stress and Exercise in Severe COVID-19 Survivors</t>
   </si>
 </sst>
 </file>
@@ -3811,13 +3817,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I500"/>
+  <dimension ref="A1:I501"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B463" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B465" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A494" sqref="A494"/>
+      <selection pane="bottomRight" activeCell="A501" sqref="A501"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9309,6 +9315,17 @@
       </c>
       <c r="C500" s="4" t="s">
         <v>1057</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A501" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B501" s="4" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C501" s="4" t="s">
+        <v>1084</v>
       </c>
     </row>
   </sheetData>

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAEA986A-DAEE-7E4D-A8A1-036125106DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E48E9B-1DAB-A942-8C39-7BDB8E7A35E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="500" windowWidth="27920" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="1085">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="1085">
   <si>
     <t>Aceito</t>
   </si>
@@ -3163,9 +3163,6 @@
     <t>10.19177/cntc.v1e1201271-84</t>
   </si>
   <si>
-    <t>Neurobiologia da analgesia induzidapor acupuntura manual e eletroacupuntura: revisão de literatura</t>
-  </si>
-  <si>
     <t>10.1016/j.jsams.2022.09.048</t>
   </si>
   <si>
@@ -3302,6 +3299,9 @@
   </si>
   <si>
     <t>Neurovascular and Hemodynamic Responses to Mental Stress and Exercise in Severe COVID-19 Survivors</t>
+  </si>
+  <si>
+    <t>Neurobiologia da analgesia induzida por acupuntura manual e eletroacupuntura: revisão de literatura</t>
   </si>
 </sst>
 </file>
@@ -3820,7 +3820,7 @@
   <dimension ref="A1:I501"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B465" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B470" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A501" sqref="A501"/>
@@ -4248,7 +4248,7 @@
         <v>1037</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>1038</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -8095,10 +8095,10 @@
         <v>2021</v>
       </c>
       <c r="B388" s="4" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C388" s="4" t="s">
         <v>1049</v>
-      </c>
-      <c r="C388" s="4" t="s">
-        <v>1050</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.2">
@@ -8595,10 +8595,10 @@
         <v>2022</v>
       </c>
       <c r="B434" s="4" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C434" s="4" t="s">
         <v>1045</v>
-      </c>
-      <c r="C434" s="4" t="s">
-        <v>1046</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.2">
@@ -8934,10 +8934,10 @@
         <v>2023</v>
       </c>
       <c r="B465" s="4" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C465" s="4" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.2">
@@ -8967,10 +8967,10 @@
         <v>2023</v>
       </c>
       <c r="B468" s="4" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="C468" s="4" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.2">
@@ -8998,10 +8998,10 @@
         <v>2023</v>
       </c>
       <c r="B471" s="4" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C471" s="4" t="s">
         <v>1053</v>
-      </c>
-      <c r="C471" s="4" t="s">
-        <v>1054</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.2">
@@ -9020,10 +9020,10 @@
         <v>2023</v>
       </c>
       <c r="B473" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C473" s="6" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.2">
@@ -9031,7 +9031,7 @@
         <v>2023</v>
       </c>
       <c r="B474" s="4" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C474" s="4" t="s">
         <v>1015</v>
@@ -9119,10 +9119,10 @@
         <v>2023</v>
       </c>
       <c r="B482" s="4" t="s">
-        <v>1042</v>
+        <v>972</v>
       </c>
       <c r="C482" s="4" t="s">
-        <v>1041</v>
+        <v>967</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.2">
@@ -9130,10 +9130,10 @@
         <v>2023</v>
       </c>
       <c r="B483" s="4" t="s">
-        <v>1008</v>
-      </c>
-      <c r="C483" s="13" t="s">
-        <v>1009</v>
+        <v>1041</v>
+      </c>
+      <c r="C483" s="4" t="s">
+        <v>1040</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.2">
@@ -9141,32 +9141,32 @@
         <v>2023</v>
       </c>
       <c r="B484" s="4" t="s">
-        <v>1033</v>
-      </c>
-      <c r="C484" s="4" t="s">
-        <v>1034</v>
+        <v>1008</v>
+      </c>
+      <c r="C484" s="13" t="s">
+        <v>1009</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A485" s="19">
         <v>2023</v>
       </c>
-      <c r="B485" s="5" t="s">
-        <v>861</v>
+      <c r="B485" s="4" t="s">
+        <v>1033</v>
       </c>
       <c r="C485" s="4" t="s">
-        <v>862</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A486" s="19">
         <v>2023</v>
       </c>
-      <c r="B486" s="4" t="s">
-        <v>1047</v>
+      <c r="B486" s="5" t="s">
+        <v>861</v>
       </c>
       <c r="C486" s="4" t="s">
-        <v>1048</v>
+        <v>862</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.2">
@@ -9174,10 +9174,10 @@
         <v>2023</v>
       </c>
       <c r="B487" s="4" t="s">
-        <v>997</v>
+        <v>1046</v>
       </c>
       <c r="C487" s="4" t="s">
-        <v>998</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.2">
@@ -9185,21 +9185,21 @@
         <v>2023</v>
       </c>
       <c r="B488" s="4" t="s">
-        <v>1069</v>
+        <v>997</v>
       </c>
       <c r="C488" s="4" t="s">
-        <v>1064</v>
+        <v>998</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A489" s="19" t="s">
-        <v>0</v>
+      <c r="A489" s="19">
+        <v>2023</v>
       </c>
       <c r="B489" s="4" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
       <c r="C489" s="4" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.2">
@@ -9207,29 +9207,29 @@
         <v>0</v>
       </c>
       <c r="B490" s="4" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
       <c r="C490" s="4" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A491" s="19" t="s">
         <v>0</v>
       </c>
+      <c r="B491" s="4" t="s">
+        <v>1077</v>
+      </c>
       <c r="C491" s="4" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A492" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B492" s="4" t="s">
-        <v>1013</v>
-      </c>
       <c r="C492" s="4" t="s">
-        <v>1012</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.2">
@@ -9237,10 +9237,10 @@
         <v>0</v>
       </c>
       <c r="B493" s="4" t="s">
-        <v>1081</v>
+        <v>1013</v>
       </c>
       <c r="C493" s="4" t="s">
-        <v>1068</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.2">
@@ -9248,29 +9248,29 @@
         <v>0</v>
       </c>
       <c r="B494" s="4" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="C494" s="4" t="s">
-        <v>1077</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A495" s="19" t="s">
         <v>0</v>
       </c>
+      <c r="B495" s="4" t="s">
+        <v>1081</v>
+      </c>
       <c r="C495" s="4" t="s">
-        <v>1063</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A496" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B496" s="4" t="s">
-        <v>1071</v>
-      </c>
       <c r="C496" s="4" t="s">
-        <v>1072</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.2">
@@ -9278,10 +9278,10 @@
         <v>0</v>
       </c>
       <c r="B497" s="4" t="s">
-        <v>972</v>
+        <v>1070</v>
       </c>
       <c r="C497" s="4" t="s">
-        <v>967</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.2">
@@ -9289,10 +9289,10 @@
         <v>0</v>
       </c>
       <c r="B498" s="4" t="s">
-        <v>1061</v>
+        <v>1082</v>
       </c>
       <c r="C498" s="4" t="s">
-        <v>1062</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.2">
@@ -9300,10 +9300,10 @@
         <v>0</v>
       </c>
       <c r="B499" s="4" t="s">
-        <v>1044</v>
+        <v>1060</v>
       </c>
       <c r="C499" s="4" t="s">
-        <v>1043</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.2">
@@ -9311,10 +9311,10 @@
         <v>0</v>
       </c>
       <c r="B500" s="4" t="s">
-        <v>1058</v>
+        <v>1043</v>
       </c>
       <c r="C500" s="4" t="s">
-        <v>1057</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.2">
@@ -9322,16 +9322,16 @@
         <v>0</v>
       </c>
       <c r="B501" s="4" t="s">
-        <v>1083</v>
+        <v>1057</v>
       </c>
       <c r="C501" s="4" t="s">
-        <v>1084</v>
+        <v>1056</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C500">
-    <sortCondition ref="A2:A500"/>
-    <sortCondition ref="C2:C500"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C501">
+    <sortCondition ref="A2:A501"/>
+    <sortCondition ref="C2:C501"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="Submetido">
@@ -9368,7 +9368,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A29" sqref="A29"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9681,10 +9681,10 @@
         <v>2023</v>
       </c>
       <c r="B28" s="4" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>1051</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>1052</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -10525,10 +10525,10 @@
         <v>2023</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>1059</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>1060</v>
       </c>
     </row>
     <row r="17" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -11602,7 +11602,7 @@
         <v>170</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -11841,10 +11841,10 @@
         <v>2022</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>1039</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>1040</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E48E9B-1DAB-A942-8C39-7BDB8E7A35E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{803AE31B-9B69-9046-888C-D75C1BCB9066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="500" windowWidth="27920" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="1085">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="1086">
   <si>
     <t>Aceito</t>
   </si>
@@ -3274,9 +3274,6 @@
     <t>10.3390/healthcare11121809</t>
   </si>
   <si>
-    <t>Cognitive functional therapy compared with core exercises and manual therapy in patients with chronic low back pain after spinal surgery: randomized controlled trial</t>
-  </si>
-  <si>
     <t>Feasibility of the Glittre-ADL test in the preoperative period of thoracic surgery</t>
   </si>
   <si>
@@ -3302,6 +3299,12 @@
   </si>
   <si>
     <t>Neurobiologia da analgesia induzida por acupuntura manual e eletroacupuntura: revisão de literatura</t>
+  </si>
+  <si>
+    <t>Effectiveness of Cognitive Functional Therapy Versus Core Exercises and Manual Therapy in Patients with Chronic Low Back Pain after Spinal Surgery: Randomized Controlled Trial</t>
+  </si>
+  <si>
+    <t>10.1093/ptj/pzad105</t>
   </si>
 </sst>
 </file>
@@ -4248,7 +4251,7 @@
         <v>1037</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -9218,18 +9221,21 @@
         <v>0</v>
       </c>
       <c r="B491" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C491" s="4" t="s">
         <v>1077</v>
-      </c>
-      <c r="C491" s="4" t="s">
-        <v>1078</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A492" s="19" t="s">
         <v>0</v>
       </c>
+      <c r="B492" s="4" t="s">
+        <v>1085</v>
+      </c>
       <c r="C492" s="4" t="s">
-        <v>1075</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.2">
@@ -9248,7 +9254,7 @@
         <v>0</v>
       </c>
       <c r="B494" s="4" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C494" s="4" t="s">
         <v>1067</v>
@@ -9259,10 +9265,10 @@
         <v>0</v>
       </c>
       <c r="B495" s="4" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C495" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.2">
@@ -9289,10 +9295,10 @@
         <v>0</v>
       </c>
       <c r="B498" s="4" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C498" s="4" t="s">
         <v>1082</v>
-      </c>
-      <c r="C498" s="4" t="s">
-        <v>1083</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.2">
@@ -11602,7 +11608,7 @@
         <v>170</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{803AE31B-9B69-9046-888C-D75C1BCB9066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED5FDF44-7D6E-6E4B-94A9-B721FC486CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="500" windowWidth="27920" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="1086">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="1088">
   <si>
     <t>Aceito</t>
   </si>
@@ -3305,6 +3305,12 @@
   </si>
   <si>
     <t>10.1093/ptj/pzad105</t>
+  </si>
+  <si>
+    <t>Performance during the Glittre-ADL testbetween patients with and without post-tuberculosis bronchiectasis: A cross-sectional study</t>
+  </si>
+  <si>
+    <t>PainDETECT questionnaire truly identified preserved conditioned pain modulation in most patients with musculoskeletal pain</t>
   </si>
 </sst>
 </file>
@@ -3820,13 +3826,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I501"/>
+  <dimension ref="A1:I503"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B470" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A501" sqref="A501"/>
+      <selection pane="bottomRight" activeCell="A503" sqref="A503"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9332,6 +9338,22 @@
       </c>
       <c r="C501" s="4" t="s">
         <v>1056</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A502" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C502" s="4" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A503" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C503" s="4" t="s">
+        <v>1087</v>
       </c>
     </row>
   </sheetData>

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED5FDF44-7D6E-6E4B-94A9-B721FC486CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D0F343-AB50-344D-A37E-6941A93C1D48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="500" windowWidth="27920" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="900" yWindow="500" windowWidth="27900" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PI.completos" sheetId="4" r:id="rId1"/>
@@ -3419,7 +3419,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3482,6 +3482,15 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -3829,7 +3838,7 @@
   <dimension ref="A1:I503"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B470" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B468" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A503" sqref="A503"/>
@@ -8027,10 +8036,10 @@
         <v>2021</v>
       </c>
       <c r="B381" s="5" t="s">
-        <v>866</v>
+        <v>697</v>
       </c>
       <c r="C381" s="4" t="s">
-        <v>867</v>
+        <v>698</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.2">
@@ -8038,10 +8047,10 @@
         <v>2021</v>
       </c>
       <c r="B382" s="5" t="s">
-        <v>697</v>
+        <v>726</v>
       </c>
       <c r="C382" s="4" t="s">
-        <v>698</v>
+        <v>727</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.2">
@@ -8049,10 +8058,10 @@
         <v>2021</v>
       </c>
       <c r="B383" s="5" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="C383" s="4" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.2">
@@ -8060,10 +8069,10 @@
         <v>2021</v>
       </c>
       <c r="B384" s="5" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
       <c r="C384" s="4" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.2">
@@ -8071,10 +8080,10 @@
         <v>2021</v>
       </c>
       <c r="B385" s="5" t="s">
-        <v>720</v>
-      </c>
-      <c r="C385" s="4" t="s">
-        <v>721</v>
+        <v>730</v>
+      </c>
+      <c r="C385" s="13" t="s">
+        <v>731</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.2">
@@ -8082,32 +8091,32 @@
         <v>2021</v>
       </c>
       <c r="B386" s="5" t="s">
-        <v>730</v>
-      </c>
-      <c r="C386" s="13" t="s">
-        <v>731</v>
+        <v>702</v>
+      </c>
+      <c r="C386" s="4" t="s">
+        <v>703</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A387" s="19">
         <v>2021</v>
       </c>
-      <c r="B387" s="5" t="s">
-        <v>702</v>
+      <c r="B387" s="4" t="s">
+        <v>1048</v>
       </c>
       <c r="C387" s="4" t="s">
-        <v>703</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A388" s="19">
         <v>2021</v>
       </c>
-      <c r="B388" s="4" t="s">
-        <v>1048</v>
+      <c r="B388" s="5" t="s">
+        <v>704</v>
       </c>
       <c r="C388" s="4" t="s">
-        <v>1049</v>
+        <v>705</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.2">
@@ -8115,10 +8124,10 @@
         <v>2021</v>
       </c>
       <c r="B389" s="5" t="s">
-        <v>704</v>
+        <v>732</v>
       </c>
       <c r="C389" s="4" t="s">
-        <v>705</v>
+        <v>733</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.2">
@@ -8126,10 +8135,10 @@
         <v>2021</v>
       </c>
       <c r="B390" s="5" t="s">
-        <v>732</v>
+        <v>760</v>
       </c>
       <c r="C390" s="4" t="s">
-        <v>733</v>
+        <v>761</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.2">
@@ -8137,29 +8146,29 @@
         <v>2021</v>
       </c>
       <c r="B391" s="5" t="s">
-        <v>760</v>
+        <v>706</v>
       </c>
       <c r="C391" s="4" t="s">
-        <v>761</v>
+        <v>707</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A392" s="19">
         <v>2021</v>
       </c>
-      <c r="B392" s="5" t="s">
-        <v>706</v>
-      </c>
       <c r="C392" s="4" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A393" s="19">
         <v>2021</v>
       </c>
+      <c r="B393" s="5" t="s">
+        <v>778</v>
+      </c>
       <c r="C393" s="4" t="s">
-        <v>699</v>
+        <v>779</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.2">
@@ -8167,10 +8176,10 @@
         <v>2021</v>
       </c>
       <c r="B394" s="5" t="s">
-        <v>778</v>
+        <v>762</v>
       </c>
       <c r="C394" s="4" t="s">
-        <v>779</v>
+        <v>763</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.2">
@@ -8178,10 +8187,10 @@
         <v>2021</v>
       </c>
       <c r="B395" s="5" t="s">
-        <v>762</v>
-      </c>
-      <c r="C395" s="4" t="s">
-        <v>763</v>
+        <v>788</v>
+      </c>
+      <c r="C395" s="12" t="s">
+        <v>789</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.2">
@@ -8189,29 +8198,29 @@
         <v>2021</v>
       </c>
       <c r="B396" s="5" t="s">
-        <v>788</v>
-      </c>
-      <c r="C396" s="12" t="s">
-        <v>789</v>
+        <v>700</v>
+      </c>
+      <c r="C396" s="4" t="s">
+        <v>701</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A397" s="19">
         <v>2021</v>
       </c>
-      <c r="B397" s="5" t="s">
-        <v>700</v>
-      </c>
       <c r="C397" s="4" t="s">
-        <v>701</v>
+        <v>982</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A398" s="19">
         <v>2021</v>
       </c>
+      <c r="B398" s="5" t="s">
+        <v>748</v>
+      </c>
       <c r="C398" s="4" t="s">
-        <v>982</v>
+        <v>749</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.2">
@@ -8219,10 +8228,10 @@
         <v>2021</v>
       </c>
       <c r="B399" s="5" t="s">
-        <v>748</v>
+        <v>764</v>
       </c>
       <c r="C399" s="4" t="s">
-        <v>749</v>
+        <v>765</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.2">
@@ -8230,10 +8239,10 @@
         <v>2021</v>
       </c>
       <c r="B400" s="5" t="s">
-        <v>764</v>
+        <v>734</v>
       </c>
       <c r="C400" s="4" t="s">
-        <v>765</v>
+        <v>735</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.2">
@@ -8241,10 +8250,10 @@
         <v>2021</v>
       </c>
       <c r="B401" s="5" t="s">
-        <v>734</v>
+        <v>766</v>
       </c>
       <c r="C401" s="4" t="s">
-        <v>735</v>
+        <v>767</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.2">
@@ -8252,10 +8261,10 @@
         <v>2021</v>
       </c>
       <c r="B402" s="5" t="s">
-        <v>766</v>
+        <v>780</v>
       </c>
       <c r="C402" s="4" t="s">
-        <v>767</v>
+        <v>781</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.2">
@@ -8263,10 +8272,10 @@
         <v>2021</v>
       </c>
       <c r="B403" s="5" t="s">
-        <v>780</v>
+        <v>746</v>
       </c>
       <c r="C403" s="4" t="s">
-        <v>781</v>
+        <v>747</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.2">
@@ -8274,10 +8283,10 @@
         <v>2021</v>
       </c>
       <c r="B404" s="5" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="C404" s="4" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.2">
@@ -8285,10 +8294,10 @@
         <v>2021</v>
       </c>
       <c r="B405" s="5" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="C405" s="4" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.2">
@@ -8296,10 +8305,10 @@
         <v>2021</v>
       </c>
       <c r="B406" s="5" t="s">
-        <v>738</v>
+        <v>782</v>
       </c>
       <c r="C406" s="4" t="s">
-        <v>739</v>
+        <v>783</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.2">
@@ -8307,10 +8316,10 @@
         <v>2021</v>
       </c>
       <c r="B407" s="5" t="s">
-        <v>782</v>
+        <v>740</v>
       </c>
       <c r="C407" s="4" t="s">
-        <v>783</v>
+        <v>741</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.2">
@@ -8318,10 +8327,10 @@
         <v>2021</v>
       </c>
       <c r="B408" s="5" t="s">
-        <v>740</v>
+        <v>768</v>
       </c>
       <c r="C408" s="4" t="s">
-        <v>741</v>
+        <v>769</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.2">
@@ -8329,10 +8338,10 @@
         <v>2021</v>
       </c>
       <c r="B409" s="5" t="s">
-        <v>768</v>
+        <v>708</v>
       </c>
       <c r="C409" s="4" t="s">
-        <v>769</v>
+        <v>709</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.2">
@@ -8340,10 +8349,10 @@
         <v>2021</v>
       </c>
       <c r="B410" s="5" t="s">
-        <v>708</v>
+        <v>784</v>
       </c>
       <c r="C410" s="4" t="s">
-        <v>709</v>
+        <v>785</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.2">
@@ -8351,10 +8360,10 @@
         <v>2021</v>
       </c>
       <c r="B411" s="5" t="s">
-        <v>784</v>
+        <v>742</v>
       </c>
       <c r="C411" s="4" t="s">
-        <v>785</v>
+        <v>743</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.2">
@@ -8362,10 +8371,10 @@
         <v>2021</v>
       </c>
       <c r="B412" s="5" t="s">
-        <v>742</v>
-      </c>
-      <c r="C412" s="4" t="s">
-        <v>743</v>
+        <v>744</v>
+      </c>
+      <c r="C412" s="13" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.2">
@@ -8373,10 +8382,10 @@
         <v>2021</v>
       </c>
       <c r="B413" s="5" t="s">
-        <v>744</v>
-      </c>
-      <c r="C413" s="13" t="s">
-        <v>745</v>
+        <v>690</v>
+      </c>
+      <c r="C413" s="4" t="s">
+        <v>691</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.2">
@@ -8384,21 +8393,21 @@
         <v>2021</v>
       </c>
       <c r="B414" s="5" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="C414" s="4" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A415" s="19">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B415" s="5" t="s">
-        <v>692</v>
+        <v>833</v>
       </c>
       <c r="C415" s="4" t="s">
-        <v>693</v>
+        <v>834</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.2">
@@ -8406,10 +8415,10 @@
         <v>2022</v>
       </c>
       <c r="B416" s="5" t="s">
-        <v>833</v>
+        <v>859</v>
       </c>
       <c r="C416" s="4" t="s">
-        <v>834</v>
+        <v>860</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.2">
@@ -8417,10 +8426,10 @@
         <v>2022</v>
       </c>
       <c r="B417" s="5" t="s">
-        <v>859</v>
+        <v>798</v>
       </c>
       <c r="C417" s="4" t="s">
-        <v>860</v>
+        <v>799</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.2">
@@ -8428,10 +8437,10 @@
         <v>2022</v>
       </c>
       <c r="B418" s="5" t="s">
-        <v>798</v>
+        <v>835</v>
       </c>
       <c r="C418" s="4" t="s">
-        <v>799</v>
+        <v>836</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.2">
@@ -8439,10 +8448,10 @@
         <v>2022</v>
       </c>
       <c r="B419" s="5" t="s">
-        <v>835</v>
+        <v>803</v>
       </c>
       <c r="C419" s="4" t="s">
-        <v>836</v>
+        <v>804</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.2">
@@ -8450,10 +8459,10 @@
         <v>2022</v>
       </c>
       <c r="B420" s="5" t="s">
-        <v>803</v>
+        <v>790</v>
       </c>
       <c r="C420" s="4" t="s">
-        <v>804</v>
+        <v>791</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.2">
@@ -8461,10 +8470,10 @@
         <v>2022</v>
       </c>
       <c r="B421" s="5" t="s">
-        <v>790</v>
+        <v>805</v>
       </c>
       <c r="C421" s="4" t="s">
-        <v>791</v>
+        <v>806</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.2">
@@ -8472,32 +8481,32 @@
         <v>2022</v>
       </c>
       <c r="B422" s="5" t="s">
-        <v>805</v>
+        <v>819</v>
       </c>
       <c r="C422" s="4" t="s">
-        <v>806</v>
+        <v>820</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A423" s="19">
         <v>2022</v>
       </c>
-      <c r="B423" s="5" t="s">
-        <v>819</v>
+      <c r="B423" s="4" t="s">
+        <v>792</v>
       </c>
       <c r="C423" s="4" t="s">
-        <v>820</v>
+        <v>793</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A424" s="19">
         <v>2022</v>
       </c>
-      <c r="B424" s="4" t="s">
-        <v>792</v>
+      <c r="B424" s="5" t="s">
+        <v>801</v>
       </c>
       <c r="C424" s="4" t="s">
-        <v>793</v>
+        <v>802</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.2">
@@ -8505,10 +8514,10 @@
         <v>2022</v>
       </c>
       <c r="B425" s="5" t="s">
-        <v>801</v>
+        <v>870</v>
       </c>
       <c r="C425" s="4" t="s">
-        <v>802</v>
+        <v>871</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.2">
@@ -8516,21 +8525,21 @@
         <v>2022</v>
       </c>
       <c r="B426" s="5" t="s">
-        <v>870</v>
+        <v>837</v>
       </c>
       <c r="C426" s="4" t="s">
-        <v>871</v>
+        <v>838</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A427" s="19">
         <v>2022</v>
       </c>
-      <c r="B427" s="5" t="s">
-        <v>837</v>
+      <c r="B427" s="23" t="s">
+        <v>831</v>
       </c>
       <c r="C427" s="4" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.2">
@@ -8538,10 +8547,10 @@
         <v>2022</v>
       </c>
       <c r="B428" s="9" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="C428" s="4" t="s">
-        <v>832</v>
+        <v>840</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.2">
@@ -8549,10 +8558,10 @@
         <v>2022</v>
       </c>
       <c r="B429" s="5" t="s">
-        <v>839</v>
+        <v>863</v>
       </c>
       <c r="C429" s="4" t="s">
-        <v>840</v>
+        <v>864</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.2">
@@ -8560,10 +8569,10 @@
         <v>2022</v>
       </c>
       <c r="B430" s="5" t="s">
-        <v>863</v>
+        <v>807</v>
       </c>
       <c r="C430" s="4" t="s">
-        <v>864</v>
+        <v>808</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.2">
@@ -8571,10 +8580,10 @@
         <v>2022</v>
       </c>
       <c r="B431" s="5" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="C431" s="4" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.2">
@@ -8582,21 +8591,21 @@
         <v>2022</v>
       </c>
       <c r="B432" s="5" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="C432" s="4" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A433" s="19">
         <v>2022</v>
       </c>
-      <c r="B433" s="5" t="s">
-        <v>811</v>
+      <c r="B433" s="4" t="s">
+        <v>1044</v>
       </c>
       <c r="C433" s="4" t="s">
-        <v>812</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.2">
@@ -8604,21 +8613,21 @@
         <v>2022</v>
       </c>
       <c r="B434" s="4" t="s">
-        <v>1044</v>
+        <v>1001</v>
       </c>
       <c r="C434" s="4" t="s">
-        <v>1045</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A435" s="19">
         <v>2022</v>
       </c>
-      <c r="B435" s="4" t="s">
-        <v>1001</v>
+      <c r="B435" s="5" t="s">
+        <v>855</v>
       </c>
       <c r="C435" s="4" t="s">
-        <v>1002</v>
+        <v>856</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.2">
@@ -8626,30 +8635,30 @@
         <v>2022</v>
       </c>
       <c r="B436" s="5" t="s">
-        <v>855</v>
+        <v>813</v>
       </c>
       <c r="C436" s="4" t="s">
-        <v>856</v>
+        <v>814</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A437" s="19">
         <v>2022</v>
       </c>
-      <c r="B437" s="5" t="s">
-        <v>813</v>
-      </c>
+      <c r="B437" s="5"/>
       <c r="C437" s="4" t="s">
-        <v>814</v>
+        <v>968</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A438" s="19">
         <v>2022</v>
       </c>
-      <c r="B438" s="5"/>
+      <c r="B438" s="5" t="s">
+        <v>821</v>
+      </c>
       <c r="C438" s="4" t="s">
-        <v>968</v>
+        <v>822</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.2">
@@ -8657,32 +8666,32 @@
         <v>2022</v>
       </c>
       <c r="B439" s="5" t="s">
-        <v>821</v>
+        <v>841</v>
       </c>
       <c r="C439" s="4" t="s">
-        <v>822</v>
+        <v>842</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A440" s="19">
         <v>2022</v>
       </c>
-      <c r="B440" s="5" t="s">
-        <v>841</v>
+      <c r="B440" s="4" t="s">
+        <v>1016</v>
       </c>
       <c r="C440" s="4" t="s">
-        <v>842</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A441" s="19">
         <v>2022</v>
       </c>
-      <c r="B441" s="4" t="s">
-        <v>1016</v>
+      <c r="B441" s="5" t="s">
+        <v>843</v>
       </c>
       <c r="C441" s="4" t="s">
-        <v>1006</v>
+        <v>844</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.2">
@@ -8690,21 +8699,21 @@
         <v>2022</v>
       </c>
       <c r="B442" s="5" t="s">
-        <v>843</v>
+        <v>978</v>
       </c>
       <c r="C442" s="4" t="s">
-        <v>844</v>
+        <v>979</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A443" s="19">
+      <c r="A443" s="22">
         <v>2022</v>
       </c>
       <c r="B443" s="5" t="s">
-        <v>978</v>
+        <v>1005</v>
       </c>
       <c r="C443" s="4" t="s">
-        <v>979</v>
+        <v>800</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.2">
@@ -8712,32 +8721,32 @@
         <v>2022</v>
       </c>
       <c r="B444" s="5" t="s">
-        <v>1005</v>
+        <v>845</v>
       </c>
       <c r="C444" s="4" t="s">
-        <v>800</v>
+        <v>846</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A445" s="19">
         <v>2022</v>
       </c>
-      <c r="B445" s="5" t="s">
-        <v>845</v>
+      <c r="B445" s="4" t="s">
+        <v>970</v>
       </c>
       <c r="C445" s="4" t="s">
-        <v>846</v>
+        <v>971</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A446" s="19">
         <v>2022</v>
       </c>
-      <c r="B446" s="4" t="s">
-        <v>970</v>
+      <c r="B446" s="5" t="s">
+        <v>815</v>
       </c>
       <c r="C446" s="4" t="s">
-        <v>971</v>
+        <v>816</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.2">
@@ -8745,10 +8754,10 @@
         <v>2022</v>
       </c>
       <c r="B447" s="5" t="s">
-        <v>815</v>
+        <v>857</v>
       </c>
       <c r="C447" s="4" t="s">
-        <v>816</v>
+        <v>858</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.2">
@@ -8756,10 +8765,10 @@
         <v>2022</v>
       </c>
       <c r="B448" s="5" t="s">
-        <v>857</v>
+        <v>847</v>
       </c>
       <c r="C448" s="4" t="s">
-        <v>858</v>
+        <v>848</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.2">
@@ -8767,32 +8776,32 @@
         <v>2022</v>
       </c>
       <c r="B449" s="5" t="s">
-        <v>847</v>
+        <v>823</v>
       </c>
       <c r="C449" s="4" t="s">
-        <v>848</v>
+        <v>824</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A450" s="19">
+      <c r="A450" s="22">
         <v>2022</v>
       </c>
-      <c r="B450" s="5" t="s">
-        <v>823</v>
+      <c r="B450" s="4" t="s">
+        <v>794</v>
       </c>
       <c r="C450" s="4" t="s">
-        <v>824</v>
+        <v>795</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A451" s="20">
         <v>2022</v>
       </c>
-      <c r="B451" s="4" t="s">
-        <v>794</v>
+      <c r="B451" s="5" t="s">
+        <v>825</v>
       </c>
       <c r="C451" s="4" t="s">
-        <v>795</v>
+        <v>826</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.2">
@@ -8800,10 +8809,10 @@
         <v>2022</v>
       </c>
       <c r="B452" s="5" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="C452" s="4" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.2">
@@ -8811,32 +8820,32 @@
         <v>2022</v>
       </c>
       <c r="B453" s="5" t="s">
-        <v>827</v>
+        <v>796</v>
       </c>
       <c r="C453" s="4" t="s">
-        <v>828</v>
+        <v>797</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A454" s="19">
+      <c r="A454" s="21">
         <v>2022</v>
       </c>
-      <c r="B454" s="5" t="s">
-        <v>796</v>
+      <c r="B454" s="4" t="s">
+        <v>975</v>
       </c>
       <c r="C454" s="4" t="s">
-        <v>797</v>
+        <v>974</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A455" s="21">
+      <c r="A455" s="22">
         <v>2022</v>
       </c>
-      <c r="B455" s="4" t="s">
-        <v>975</v>
+      <c r="B455" s="5" t="s">
+        <v>849</v>
       </c>
       <c r="C455" s="4" t="s">
-        <v>974</v>
+        <v>850</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.2">
@@ -8844,10 +8853,10 @@
         <v>2022</v>
       </c>
       <c r="B456" s="5" t="s">
-        <v>849</v>
+        <v>829</v>
       </c>
       <c r="C456" s="4" t="s">
-        <v>850</v>
+        <v>830</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.2">
@@ -8855,32 +8864,32 @@
         <v>2022</v>
       </c>
       <c r="B457" s="5" t="s">
-        <v>829</v>
+        <v>851</v>
       </c>
       <c r="C457" s="4" t="s">
-        <v>830</v>
+        <v>852</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A458" s="19">
         <v>2022</v>
       </c>
-      <c r="B458" s="5" t="s">
-        <v>851</v>
+      <c r="B458" s="4" t="s">
+        <v>1003</v>
       </c>
       <c r="C458" s="4" t="s">
-        <v>852</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A459" s="19">
         <v>2022</v>
       </c>
-      <c r="B459" s="4" t="s">
-        <v>1003</v>
+      <c r="B459" s="5" t="s">
+        <v>853</v>
       </c>
       <c r="C459" s="4" t="s">
-        <v>1004</v>
+        <v>854</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.2">
@@ -8888,43 +8897,43 @@
         <v>2022</v>
       </c>
       <c r="B460" s="5" t="s">
-        <v>853</v>
+        <v>817</v>
       </c>
       <c r="C460" s="4" t="s">
-        <v>854</v>
+        <v>818</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A461" s="19">
-        <v>2022</v>
-      </c>
-      <c r="B461" s="5" t="s">
-        <v>817</v>
+        <v>2023</v>
+      </c>
+      <c r="B461" s="4" t="s">
+        <v>999</v>
       </c>
       <c r="C461" s="4" t="s">
-        <v>818</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A462" s="19">
         <v>2023</v>
       </c>
-      <c r="B462" s="4" t="s">
-        <v>999</v>
+      <c r="B462" s="5" t="s">
+        <v>985</v>
       </c>
       <c r="C462" s="4" t="s">
-        <v>1000</v>
+        <v>983</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A463" s="19">
         <v>2023</v>
       </c>
-      <c r="B463" s="5" t="s">
-        <v>985</v>
+      <c r="B463" s="4" t="s">
+        <v>995</v>
       </c>
       <c r="C463" s="4" t="s">
-        <v>983</v>
+        <v>996</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.2">
@@ -8932,32 +8941,32 @@
         <v>2023</v>
       </c>
       <c r="B464" s="4" t="s">
-        <v>995</v>
+        <v>1074</v>
       </c>
       <c r="C464" s="4" t="s">
-        <v>996</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A465" s="19">
+      <c r="A465" s="21">
         <v>2023</v>
       </c>
       <c r="B465" s="4" t="s">
-        <v>1074</v>
+        <v>994</v>
       </c>
       <c r="C465" s="4" t="s">
-        <v>1073</v>
+        <v>984</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A466" s="21">
+      <c r="A466" s="19">
         <v>2023</v>
       </c>
       <c r="B466" s="4" t="s">
-        <v>994</v>
+        <v>1017</v>
       </c>
       <c r="C466" s="4" t="s">
-        <v>984</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.2">
@@ -8965,10 +8974,10 @@
         <v>2023</v>
       </c>
       <c r="B467" s="4" t="s">
-        <v>1017</v>
+        <v>1055</v>
       </c>
       <c r="C467" s="4" t="s">
-        <v>1014</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.2">
@@ -8976,30 +8985,30 @@
         <v>2023</v>
       </c>
       <c r="B468" s="4" t="s">
-        <v>1055</v>
+        <v>992</v>
       </c>
       <c r="C468" s="4" t="s">
-        <v>1054</v>
+        <v>991</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A469" s="19">
         <v>2023</v>
       </c>
-      <c r="B469" s="4" t="s">
-        <v>992</v>
-      </c>
+      <c r="B469" s="5"/>
       <c r="C469" s="4" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A470" s="19">
         <v>2023</v>
       </c>
-      <c r="B470" s="5"/>
+      <c r="B470" s="4" t="s">
+        <v>1052</v>
+      </c>
       <c r="C470" s="4" t="s">
-        <v>987</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.2">
@@ -9007,10 +9016,10 @@
         <v>2023</v>
       </c>
       <c r="B471" s="4" t="s">
-        <v>1052</v>
+        <v>1018</v>
       </c>
       <c r="C471" s="4" t="s">
-        <v>1053</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.2">
@@ -9018,10 +9027,10 @@
         <v>2023</v>
       </c>
       <c r="B472" s="4" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C472" s="4" t="s">
-        <v>1007</v>
+        <v>1066</v>
+      </c>
+      <c r="C472" s="24" t="s">
+        <v>1065</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.2">
@@ -9029,21 +9038,21 @@
         <v>2023</v>
       </c>
       <c r="B473" s="4" t="s">
-        <v>1066</v>
+        <v>1069</v>
       </c>
       <c r="C473" s="6" t="s">
-        <v>1065</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A474" s="19">
         <v>2023</v>
       </c>
-      <c r="B474" s="4" t="s">
-        <v>1069</v>
+      <c r="B474" s="5" t="s">
+        <v>866</v>
       </c>
       <c r="C474" s="4" t="s">
-        <v>1015</v>
+        <v>867</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.2">
@@ -9238,10 +9247,10 @@
         <v>0</v>
       </c>
       <c r="B492" s="4" t="s">
-        <v>1085</v>
+        <v>1013</v>
       </c>
       <c r="C492" s="4" t="s">
-        <v>1084</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.2">
@@ -9249,10 +9258,10 @@
         <v>0</v>
       </c>
       <c r="B493" s="4" t="s">
-        <v>1013</v>
+        <v>1079</v>
       </c>
       <c r="C493" s="4" t="s">
-        <v>1012</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.2">
@@ -9260,10 +9269,10 @@
         <v>0</v>
       </c>
       <c r="B494" s="4" t="s">
-        <v>1079</v>
+        <v>1085</v>
       </c>
       <c r="C494" s="4" t="s">
-        <v>1067</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.2">
@@ -9311,22 +9320,16 @@
       <c r="A499" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B499" s="4" t="s">
-        <v>1060</v>
-      </c>
       <c r="C499" s="4" t="s">
-        <v>1061</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A500" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B500" s="4" t="s">
-        <v>1043</v>
-      </c>
       <c r="C500" s="4" t="s">
-        <v>1042</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.2">
@@ -9334,32 +9337,38 @@
         <v>0</v>
       </c>
       <c r="B501" s="4" t="s">
-        <v>1057</v>
+        <v>1060</v>
       </c>
       <c r="C501" s="4" t="s">
-        <v>1056</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A502" s="19" t="s">
         <v>0</v>
       </c>
+      <c r="B502" s="4" t="s">
+        <v>1043</v>
+      </c>
       <c r="C502" s="4" t="s">
-        <v>1086</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A503" s="19" t="s">
         <v>0</v>
       </c>
+      <c r="B503" s="4" t="s">
+        <v>1057</v>
+      </c>
       <c r="C503" s="4" t="s">
-        <v>1087</v>
+        <v>1056</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C501">
-    <sortCondition ref="A2:A501"/>
-    <sortCondition ref="C2:C501"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C503">
+    <sortCondition ref="A2:A503"/>
+    <sortCondition ref="C2:C503"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="Submetido">
@@ -9381,7 +9390,7 @@
     <cfRule type="duplicateValues" dxfId="9" priority="7"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B450" r:id="rId1" xr:uid="{9BCE4324-8A77-884E-80ED-4C3988C2A1D3}"/>
+    <hyperlink ref="B449" r:id="rId1" xr:uid="{9BCE4324-8A77-884E-80ED-4C3988C2A1D3}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape"/>

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D0F343-AB50-344D-A37E-6941A93C1D48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF45E191-628C-6F4C-9CA5-085F04570D29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="500" windowWidth="27900" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="1088">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="1092">
   <si>
     <t>Aceito</t>
   </si>
@@ -3311,6 +3311,18 @@
   </si>
   <si>
     <t>PainDETECT questionnaire truly identified preserved conditioned pain modulation in most patients with musculoskeletal pain</t>
+  </si>
+  <si>
+    <t>10.47206/ijsc.v3i1.125</t>
+  </si>
+  <si>
+    <t>Neuromuscular and Functional Responses Among Males Trained with Free Weights vs. Machines: Implications for Injury Prevention</t>
+  </si>
+  <si>
+    <t>10.1080/15412555.2023.2253907</t>
+  </si>
+  <si>
+    <t>Home exercise program with minimal resources improves activities of daily living, quality of life, perception of health status and shortness of breath in patients with chronic obstructive pulmonary disease</t>
   </si>
 </sst>
 </file>
@@ -3419,7 +3431,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3482,15 +3494,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -3835,13 +3838,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I503"/>
+  <dimension ref="A1:I505"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B468" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A503" sqref="A503"/>
+      <selection pane="bottomRight" activeCell="A505" sqref="A505"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8535,7 +8538,7 @@
       <c r="A427" s="19">
         <v>2022</v>
       </c>
-      <c r="B427" s="23" t="s">
+      <c r="B427" s="5" t="s">
         <v>831</v>
       </c>
       <c r="C427" s="4" t="s">
@@ -8706,7 +8709,7 @@
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A443" s="22">
+      <c r="A443" s="19">
         <v>2022</v>
       </c>
       <c r="B443" s="5" t="s">
@@ -8783,7 +8786,7 @@
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A450" s="22">
+      <c r="A450" s="19">
         <v>2022</v>
       </c>
       <c r="B450" s="4" t="s">
@@ -8838,7 +8841,7 @@
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A455" s="22">
+      <c r="A455" s="19">
         <v>2022</v>
       </c>
       <c r="B455" s="5" t="s">
@@ -9029,7 +9032,7 @@
       <c r="B472" s="4" t="s">
         <v>1066</v>
       </c>
-      <c r="C472" s="24" t="s">
+      <c r="C472" s="4" t="s">
         <v>1065</v>
       </c>
     </row>
@@ -9104,10 +9107,10 @@
         <v>2023</v>
       </c>
       <c r="B479" s="4" t="s">
-        <v>1035</v>
+        <v>1088</v>
       </c>
       <c r="C479" s="4" t="s">
-        <v>1036</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.2">
@@ -9115,10 +9118,10 @@
         <v>2023</v>
       </c>
       <c r="B480" s="4" t="s">
-        <v>989</v>
+        <v>1035</v>
       </c>
       <c r="C480" s="4" t="s">
-        <v>988</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.2">
@@ -9126,10 +9129,10 @@
         <v>2023</v>
       </c>
       <c r="B481" s="4" t="s">
-        <v>1010</v>
+        <v>989</v>
       </c>
       <c r="C481" s="4" t="s">
-        <v>1011</v>
+        <v>988</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.2">
@@ -9137,10 +9140,10 @@
         <v>2023</v>
       </c>
       <c r="B482" s="4" t="s">
-        <v>972</v>
+        <v>1010</v>
       </c>
       <c r="C482" s="4" t="s">
-        <v>967</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.2">
@@ -9148,10 +9151,10 @@
         <v>2023</v>
       </c>
       <c r="B483" s="4" t="s">
-        <v>1041</v>
+        <v>972</v>
       </c>
       <c r="C483" s="4" t="s">
-        <v>1040</v>
+        <v>967</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.2">
@@ -9159,10 +9162,10 @@
         <v>2023</v>
       </c>
       <c r="B484" s="4" t="s">
-        <v>1008</v>
-      </c>
-      <c r="C484" s="13" t="s">
-        <v>1009</v>
+        <v>1041</v>
+      </c>
+      <c r="C484" s="4" t="s">
+        <v>1040</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.2">
@@ -9170,32 +9173,32 @@
         <v>2023</v>
       </c>
       <c r="B485" s="4" t="s">
-        <v>1033</v>
-      </c>
-      <c r="C485" s="4" t="s">
-        <v>1034</v>
+        <v>1008</v>
+      </c>
+      <c r="C485" s="13" t="s">
+        <v>1009</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A486" s="19">
         <v>2023</v>
       </c>
-      <c r="B486" s="5" t="s">
-        <v>861</v>
+      <c r="B486" s="4" t="s">
+        <v>1033</v>
       </c>
       <c r="C486" s="4" t="s">
-        <v>862</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A487" s="19">
         <v>2023</v>
       </c>
-      <c r="B487" s="4" t="s">
-        <v>1046</v>
+      <c r="B487" s="5" t="s">
+        <v>861</v>
       </c>
       <c r="C487" s="4" t="s">
-        <v>1047</v>
+        <v>862</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.2">
@@ -9203,10 +9206,10 @@
         <v>2023</v>
       </c>
       <c r="B488" s="4" t="s">
-        <v>997</v>
+        <v>1046</v>
       </c>
       <c r="C488" s="4" t="s">
-        <v>998</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.2">
@@ -9214,21 +9217,21 @@
         <v>2023</v>
       </c>
       <c r="B489" s="4" t="s">
+        <v>997</v>
+      </c>
+      <c r="C489" s="4" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A490" s="19">
+        <v>2023</v>
+      </c>
+      <c r="B490" s="4" t="s">
         <v>1068</v>
       </c>
-      <c r="C489" s="4" t="s">
+      <c r="C490" s="4" t="s">
         <v>1063</v>
-      </c>
-    </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A490" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B490" s="4" t="s">
-        <v>1072</v>
-      </c>
-      <c r="C490" s="4" t="s">
-        <v>1064</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.2">
@@ -9236,10 +9239,10 @@
         <v>0</v>
       </c>
       <c r="B491" s="4" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="C491" s="4" t="s">
-        <v>1077</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.2">
@@ -9247,10 +9250,10 @@
         <v>0</v>
       </c>
       <c r="B492" s="4" t="s">
-        <v>1013</v>
+        <v>1076</v>
       </c>
       <c r="C492" s="4" t="s">
-        <v>1012</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.2">
@@ -9258,10 +9261,10 @@
         <v>0</v>
       </c>
       <c r="B493" s="4" t="s">
-        <v>1079</v>
+        <v>1013</v>
       </c>
       <c r="C493" s="4" t="s">
-        <v>1067</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.2">
@@ -9269,10 +9272,10 @@
         <v>0</v>
       </c>
       <c r="B494" s="4" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="C494" s="4" t="s">
-        <v>1084</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.2">
@@ -9280,18 +9283,21 @@
         <v>0</v>
       </c>
       <c r="B495" s="4" t="s">
-        <v>1080</v>
+        <v>1085</v>
       </c>
       <c r="C495" s="4" t="s">
-        <v>1075</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A496" s="19" t="s">
         <v>0</v>
       </c>
+      <c r="B496" s="4" t="s">
+        <v>1080</v>
+      </c>
       <c r="C496" s="4" t="s">
-        <v>1062</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.2">
@@ -9299,59 +9305,56 @@
         <v>0</v>
       </c>
       <c r="B497" s="4" t="s">
-        <v>1070</v>
+        <v>1090</v>
       </c>
       <c r="C497" s="4" t="s">
-        <v>1071</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A498" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B498" s="4" t="s">
-        <v>1081</v>
-      </c>
       <c r="C498" s="4" t="s">
-        <v>1082</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A499" s="19" t="s">
         <v>0</v>
       </c>
+      <c r="B499" s="4" t="s">
+        <v>1070</v>
+      </c>
       <c r="C499" s="4" t="s">
-        <v>1087</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A500" s="19" t="s">
         <v>0</v>
       </c>
+      <c r="B500" s="4" t="s">
+        <v>1081</v>
+      </c>
       <c r="C500" s="4" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A501" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B501" s="4" t="s">
-        <v>1060</v>
-      </c>
       <c r="C501" s="4" t="s">
-        <v>1061</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A502" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B502" s="4" t="s">
-        <v>1043</v>
-      </c>
       <c r="C502" s="4" t="s">
-        <v>1042</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.2">
@@ -9359,16 +9362,38 @@
         <v>0</v>
       </c>
       <c r="B503" s="4" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C503" s="4" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A504" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B504" s="4" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C504" s="4" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A505" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B505" s="4" t="s">
         <v>1057</v>
       </c>
-      <c r="C503" s="4" t="s">
+      <c r="C505" s="4" t="s">
         <v>1056</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C503">
-    <sortCondition ref="A2:A503"/>
-    <sortCondition ref="C2:C503"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C505">
+    <sortCondition ref="A2:A505"/>
+    <sortCondition ref="C2:C505"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="Submetido">

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF45E191-628C-6F4C-9CA5-085F04570D29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A81383-E1FA-7E4B-B1AA-77333E41AE6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="500" windowWidth="27900" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="1092">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="1093">
   <si>
     <t>Aceito</t>
   </si>
@@ -3307,9 +3307,6 @@
     <t>10.1093/ptj/pzad105</t>
   </si>
   <si>
-    <t>Performance during the Glittre-ADL testbetween patients with and without post-tuberculosis bronchiectasis: A cross-sectional study</t>
-  </si>
-  <si>
     <t>PainDETECT questionnaire truly identified preserved conditioned pain modulation in most patients with musculoskeletal pain</t>
   </si>
   <si>
@@ -3323,6 +3320,12 @@
   </si>
   <si>
     <t>Home exercise program with minimal resources improves activities of daily living, quality of life, perception of health status and shortness of breath in patients with chronic obstructive pulmonary disease</t>
+  </si>
+  <si>
+    <t>Performance during the Glittre-ADL test between patients with and without post- tuberculosis bronchiectasis: A cross-sectional study</t>
+  </si>
+  <si>
+    <t>10.1371/journal.pone.0290850</t>
   </si>
 </sst>
 </file>
@@ -9107,10 +9110,10 @@
         <v>2023</v>
       </c>
       <c r="B479" s="4" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C479" s="4" t="s">
         <v>1088</v>
-      </c>
-      <c r="C479" s="4" t="s">
-        <v>1089</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.2">
@@ -9140,10 +9143,10 @@
         <v>2023</v>
       </c>
       <c r="B482" s="4" t="s">
-        <v>1010</v>
+        <v>1092</v>
       </c>
       <c r="C482" s="4" t="s">
-        <v>1011</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.2">
@@ -9151,10 +9154,10 @@
         <v>2023</v>
       </c>
       <c r="B483" s="4" t="s">
-        <v>972</v>
+        <v>1010</v>
       </c>
       <c r="C483" s="4" t="s">
-        <v>967</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.2">
@@ -9162,10 +9165,10 @@
         <v>2023</v>
       </c>
       <c r="B484" s="4" t="s">
-        <v>1041</v>
+        <v>972</v>
       </c>
       <c r="C484" s="4" t="s">
-        <v>1040</v>
+        <v>967</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.2">
@@ -9173,10 +9176,10 @@
         <v>2023</v>
       </c>
       <c r="B485" s="4" t="s">
-        <v>1008</v>
-      </c>
-      <c r="C485" s="13" t="s">
-        <v>1009</v>
+        <v>1041</v>
+      </c>
+      <c r="C485" s="4" t="s">
+        <v>1040</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.2">
@@ -9184,32 +9187,32 @@
         <v>2023</v>
       </c>
       <c r="B486" s="4" t="s">
-        <v>1033</v>
-      </c>
-      <c r="C486" s="4" t="s">
-        <v>1034</v>
+        <v>1008</v>
+      </c>
+      <c r="C486" s="13" t="s">
+        <v>1009</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A487" s="19">
         <v>2023</v>
       </c>
-      <c r="B487" s="5" t="s">
-        <v>861</v>
+      <c r="B487" s="4" t="s">
+        <v>1033</v>
       </c>
       <c r="C487" s="4" t="s">
-        <v>862</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A488" s="19">
         <v>2023</v>
       </c>
-      <c r="B488" s="4" t="s">
-        <v>1046</v>
+      <c r="B488" s="5" t="s">
+        <v>861</v>
       </c>
       <c r="C488" s="4" t="s">
-        <v>1047</v>
+        <v>862</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.2">
@@ -9217,10 +9220,10 @@
         <v>2023</v>
       </c>
       <c r="B489" s="4" t="s">
-        <v>997</v>
+        <v>1046</v>
       </c>
       <c r="C489" s="4" t="s">
-        <v>998</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.2">
@@ -9228,21 +9231,21 @@
         <v>2023</v>
       </c>
       <c r="B490" s="4" t="s">
+        <v>997</v>
+      </c>
+      <c r="C490" s="4" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A491" s="19">
+        <v>2023</v>
+      </c>
+      <c r="B491" s="4" t="s">
         <v>1068</v>
       </c>
-      <c r="C490" s="4" t="s">
+      <c r="C491" s="4" t="s">
         <v>1063</v>
-      </c>
-    </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A491" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B491" s="4" t="s">
-        <v>1072</v>
-      </c>
-      <c r="C491" s="4" t="s">
-        <v>1064</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.2">
@@ -9250,10 +9253,10 @@
         <v>0</v>
       </c>
       <c r="B492" s="4" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="C492" s="4" t="s">
-        <v>1077</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.2">
@@ -9261,10 +9264,10 @@
         <v>0</v>
       </c>
       <c r="B493" s="4" t="s">
-        <v>1013</v>
+        <v>1076</v>
       </c>
       <c r="C493" s="4" t="s">
-        <v>1012</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.2">
@@ -9272,10 +9275,10 @@
         <v>0</v>
       </c>
       <c r="B494" s="4" t="s">
-        <v>1079</v>
+        <v>1013</v>
       </c>
       <c r="C494" s="4" t="s">
-        <v>1067</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.2">
@@ -9283,10 +9286,10 @@
         <v>0</v>
       </c>
       <c r="B495" s="4" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="C495" s="4" t="s">
-        <v>1084</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.2">
@@ -9294,10 +9297,10 @@
         <v>0</v>
       </c>
       <c r="B496" s="4" t="s">
-        <v>1080</v>
+        <v>1085</v>
       </c>
       <c r="C496" s="4" t="s">
-        <v>1075</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.2">
@@ -9305,29 +9308,29 @@
         <v>0</v>
       </c>
       <c r="B497" s="4" t="s">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="C497" s="4" t="s">
-        <v>1091</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A498" s="19" t="s">
         <v>0</v>
       </c>
+      <c r="B498" s="4" t="s">
+        <v>1089</v>
+      </c>
       <c r="C498" s="4" t="s">
-        <v>1062</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A499" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B499" s="4" t="s">
-        <v>1070</v>
-      </c>
       <c r="C499" s="4" t="s">
-        <v>1071</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.2">
@@ -9335,18 +9338,21 @@
         <v>0</v>
       </c>
       <c r="B500" s="4" t="s">
-        <v>1081</v>
+        <v>1070</v>
       </c>
       <c r="C500" s="4" t="s">
-        <v>1082</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A501" s="19" t="s">
         <v>0</v>
       </c>
+      <c r="B501" s="4" t="s">
+        <v>1081</v>
+      </c>
       <c r="C501" s="4" t="s">
-        <v>1087</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.2">

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A81383-E1FA-7E4B-B1AA-77333E41AE6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8028CA8-FCB4-2742-8610-D22CAD5185A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="500" windowWidth="27900" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="1093">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="1094">
   <si>
     <t>Aceito</t>
   </si>
@@ -3326,6 +3326,9 @@
   </si>
   <si>
     <t>10.1371/journal.pone.0290850</t>
+  </si>
+  <si>
+    <t>Reference value for the 6-min walking distance in women with systemic sclerosis considering the impact of muscle strength</t>
   </si>
 </sst>
 </file>
@@ -3841,13 +3844,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I505"/>
+  <dimension ref="A1:I506"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B468" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B470" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A505" sqref="A505"/>
+      <selection pane="bottomRight" activeCell="A506" sqref="A506"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9394,6 +9397,14 @@
       </c>
       <c r="C505" s="4" t="s">
         <v>1056</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A506" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C506" s="4" t="s">
+        <v>1093</v>
       </c>
     </row>
   </sheetData>

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8028CA8-FCB4-2742-8610-D22CAD5185A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D9CE2DE-879D-B24F-9855-9D0A246472BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="500" windowWidth="27900" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="1094">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="1095">
   <si>
     <t>Aceito</t>
   </si>
@@ -3329,6 +3329,9 @@
   </si>
   <si>
     <t>Reference value for the 6-min walking distance in women with systemic sclerosis considering the impact of muscle strength</t>
+  </si>
+  <si>
+    <t>10.1016/j.clinbiomech.2023.106094</t>
   </si>
 </sst>
 </file>
@@ -9402,6 +9405,9 @@
     <row r="506" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A506" s="19" t="s">
         <v>0</v>
+      </c>
+      <c r="B506" s="4" t="s">
+        <v>1094</v>
       </c>
       <c r="C506" s="4" t="s">
         <v>1093</v>

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D9CE2DE-879D-B24F-9855-9D0A246472BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{349CBDB9-531F-714E-9C27-508611894002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="500" windowWidth="27900" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="1095">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="1105">
   <si>
     <t>Aceito</t>
   </si>
@@ -3307,9 +3307,6 @@
     <t>10.1093/ptj/pzad105</t>
   </si>
   <si>
-    <t>PainDETECT questionnaire truly identified preserved conditioned pain modulation in most patients with musculoskeletal pain</t>
-  </si>
-  <si>
     <t>10.47206/ijsc.v3i1.125</t>
   </si>
   <si>
@@ -3332,6 +3329,39 @@
   </si>
   <si>
     <t>10.1016/j.clinbiomech.2023.106094</t>
+  </si>
+  <si>
+    <t>Cross-cultural adaptation of the Parental Perception of Children’s Exposure to Tobacco Smoke instrument to the Brazilian context</t>
+  </si>
+  <si>
+    <t>10.31668/movimenta.v16i2.14271</t>
+  </si>
+  <si>
+    <t>ENSAIO CLÍNICO PRAGMÁTICO AVALIANDO A EFICÁCIA DA ESTIMULAÇÃO TRANS-ESPINHAL EM INDIVÍDUOS COM SCA</t>
+  </si>
+  <si>
+    <t>EFEITOS DE UM PROGRAMA DE EXERCÍCIOS PARA O EQUILÍBRIO COM OU SEM PROGRESSÃO DE DIFICULDADE SOBRE O DESEMPENHO FUNCIONAL DE IDOSOS</t>
+  </si>
+  <si>
+    <t>EFEITO DE DIFERENTES MANOBRAS DE IRRADIAÇÃO MOTORA DA FACILITAÇÃO NEUROMUSCULAR PROPRIOCEPTIVA NA ATIVAÇÃO DO BÍCEPS BRAQUIAL: UM ESTUDO TRANSVERSAL</t>
+  </si>
+  <si>
+    <t>EFEITOS DE UMA ÚNICA SESSÃO DE ESTIMULAÇÃO TRANS-ESPINHAL SOBRE O CONTROLE POSTURAL DE IDOSOS</t>
+  </si>
+  <si>
+    <t>10.1186/s40945-023-00171-8</t>
+  </si>
+  <si>
+    <t>Does the painDETECT questionnaire identify impaired conditioned pain modulation in people with musculoskeletal pain? – a diagnostic accuracy study</t>
+  </si>
+  <si>
+    <t>10.1016/j.resp.2023.104165</t>
+  </si>
+  <si>
+    <t>Examining the haemodynamic repercussions of ventilator hyperinflation in elderly patients: An explanatory study</t>
+  </si>
+  <si>
+    <t>10.1186/s13104-023-06513-w</t>
   </si>
 </sst>
 </file>
@@ -3509,7 +3539,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3847,13 +3887,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I506"/>
+  <dimension ref="A1:I508"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B470" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B471" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A506" sqref="A506"/>
+      <selection pane="bottomRight" activeCell="A508" sqref="A508"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8997,30 +9037,30 @@
         <v>2023</v>
       </c>
       <c r="B468" s="4" t="s">
-        <v>992</v>
+        <v>1100</v>
       </c>
       <c r="C468" s="4" t="s">
-        <v>991</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A469" s="19">
         <v>2023</v>
       </c>
-      <c r="B469" s="5"/>
+      <c r="B469" s="4" t="s">
+        <v>992</v>
+      </c>
       <c r="C469" s="4" t="s">
-        <v>987</v>
+        <v>991</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A470" s="19">
         <v>2023</v>
       </c>
-      <c r="B470" s="4" t="s">
-        <v>1052</v>
-      </c>
+      <c r="B470" s="5"/>
       <c r="C470" s="4" t="s">
-        <v>1053</v>
+        <v>987</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.2">
@@ -9028,10 +9068,10 @@
         <v>2023</v>
       </c>
       <c r="B471" s="4" t="s">
-        <v>1018</v>
+        <v>1052</v>
       </c>
       <c r="C471" s="4" t="s">
-        <v>1007</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.2">
@@ -9039,10 +9079,10 @@
         <v>2023</v>
       </c>
       <c r="B472" s="4" t="s">
-        <v>1066</v>
+        <v>1018</v>
       </c>
       <c r="C472" s="4" t="s">
-        <v>1065</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.2">
@@ -9050,54 +9090,54 @@
         <v>2023</v>
       </c>
       <c r="B473" s="4" t="s">
-        <v>1069</v>
+        <v>1102</v>
       </c>
       <c r="C473" s="6" t="s">
-        <v>1015</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A474" s="19">
         <v>2023</v>
       </c>
-      <c r="B474" s="5" t="s">
-        <v>866</v>
+      <c r="B474" s="4" t="s">
+        <v>1066</v>
       </c>
       <c r="C474" s="4" t="s">
-        <v>867</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A475" s="21">
+      <c r="A475" s="19">
         <v>2023</v>
       </c>
       <c r="B475" s="4" t="s">
-        <v>966</v>
+        <v>1069</v>
       </c>
       <c r="C475" s="4" t="s">
-        <v>865</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A476" s="19">
         <v>2023</v>
       </c>
-      <c r="B476" s="4" t="s">
-        <v>993</v>
+      <c r="B476" s="5" t="s">
+        <v>866</v>
       </c>
       <c r="C476" s="4" t="s">
-        <v>990</v>
+        <v>867</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A477" s="19">
+      <c r="A477" s="21">
         <v>2023</v>
       </c>
-      <c r="B477" s="5" t="s">
-        <v>868</v>
+      <c r="B477" s="4" t="s">
+        <v>966</v>
       </c>
       <c r="C477" s="4" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.2">
@@ -9105,21 +9145,21 @@
         <v>2023</v>
       </c>
       <c r="B478" s="4" t="s">
-        <v>973</v>
+        <v>993</v>
       </c>
       <c r="C478" s="4" t="s">
-        <v>969</v>
+        <v>990</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A479" s="19">
         <v>2023</v>
       </c>
-      <c r="B479" s="4" t="s">
-        <v>1087</v>
+      <c r="B479" s="5" t="s">
+        <v>868</v>
       </c>
       <c r="C479" s="4" t="s">
-        <v>1088</v>
+        <v>869</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.2">
@@ -9127,10 +9167,10 @@
         <v>2023</v>
       </c>
       <c r="B480" s="4" t="s">
-        <v>1035</v>
+        <v>973</v>
       </c>
       <c r="C480" s="4" t="s">
-        <v>1036</v>
+        <v>969</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.2">
@@ -9138,10 +9178,10 @@
         <v>2023</v>
       </c>
       <c r="B481" s="4" t="s">
-        <v>989</v>
+        <v>1086</v>
       </c>
       <c r="C481" s="4" t="s">
-        <v>988</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.2">
@@ -9149,10 +9189,10 @@
         <v>2023</v>
       </c>
       <c r="B482" s="4" t="s">
-        <v>1092</v>
+        <v>1035</v>
       </c>
       <c r="C482" s="4" t="s">
-        <v>1091</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.2">
@@ -9160,10 +9200,10 @@
         <v>2023</v>
       </c>
       <c r="B483" s="4" t="s">
-        <v>1010</v>
+        <v>1081</v>
       </c>
       <c r="C483" s="4" t="s">
-        <v>1011</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.2">
@@ -9171,10 +9211,10 @@
         <v>2023</v>
       </c>
       <c r="B484" s="4" t="s">
-        <v>972</v>
+        <v>989</v>
       </c>
       <c r="C484" s="4" t="s">
-        <v>967</v>
+        <v>988</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.2">
@@ -9182,10 +9222,10 @@
         <v>2023</v>
       </c>
       <c r="B485" s="4" t="s">
-        <v>1041</v>
+        <v>1091</v>
       </c>
       <c r="C485" s="4" t="s">
-        <v>1040</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.2">
@@ -9193,10 +9233,10 @@
         <v>2023</v>
       </c>
       <c r="B486" s="4" t="s">
-        <v>1008</v>
-      </c>
-      <c r="C486" s="13" t="s">
-        <v>1009</v>
+        <v>1010</v>
+      </c>
+      <c r="C486" s="4" t="s">
+        <v>1011</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.2">
@@ -9204,21 +9244,21 @@
         <v>2023</v>
       </c>
       <c r="B487" s="4" t="s">
-        <v>1033</v>
+        <v>972</v>
       </c>
       <c r="C487" s="4" t="s">
-        <v>1034</v>
+        <v>967</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A488" s="19">
         <v>2023</v>
       </c>
-      <c r="B488" s="5" t="s">
-        <v>861</v>
+      <c r="B488" s="4" t="s">
+        <v>1041</v>
       </c>
       <c r="C488" s="4" t="s">
-        <v>862</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.2">
@@ -9226,10 +9266,10 @@
         <v>2023</v>
       </c>
       <c r="B489" s="4" t="s">
-        <v>1046</v>
-      </c>
-      <c r="C489" s="4" t="s">
-        <v>1047</v>
+        <v>1008</v>
+      </c>
+      <c r="C489" s="13" t="s">
+        <v>1009</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.2">
@@ -9237,10 +9277,10 @@
         <v>2023</v>
       </c>
       <c r="B490" s="4" t="s">
-        <v>997</v>
+        <v>1093</v>
       </c>
       <c r="C490" s="4" t="s">
-        <v>998</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.2">
@@ -9248,54 +9288,54 @@
         <v>2023</v>
       </c>
       <c r="B491" s="4" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C491" s="4" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A492" s="19">
+        <v>2023</v>
+      </c>
+      <c r="B492" s="5" t="s">
+        <v>861</v>
+      </c>
+      <c r="C492" s="4" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A493" s="19">
+        <v>2023</v>
+      </c>
+      <c r="B493" s="4" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C493" s="4" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A494" s="19">
+        <v>2023</v>
+      </c>
+      <c r="B494" s="4" t="s">
+        <v>997</v>
+      </c>
+      <c r="C494" s="4" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A495" s="19">
+        <v>2023</v>
+      </c>
+      <c r="B495" s="4" t="s">
         <v>1068</v>
       </c>
-      <c r="C491" s="4" t="s">
+      <c r="C495" s="4" t="s">
         <v>1063</v>
-      </c>
-    </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A492" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B492" s="4" t="s">
-        <v>1072</v>
-      </c>
-      <c r="C492" s="4" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A493" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B493" s="4" t="s">
-        <v>1076</v>
-      </c>
-      <c r="C493" s="4" t="s">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A494" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B494" s="4" t="s">
-        <v>1013</v>
-      </c>
-      <c r="C494" s="4" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A495" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B495" s="4" t="s">
-        <v>1079</v>
-      </c>
-      <c r="C495" s="4" t="s">
-        <v>1067</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.2">
@@ -9303,10 +9343,10 @@
         <v>0</v>
       </c>
       <c r="B496" s="4" t="s">
-        <v>1085</v>
+        <v>1072</v>
       </c>
       <c r="C496" s="4" t="s">
-        <v>1084</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.2">
@@ -9314,10 +9354,10 @@
         <v>0</v>
       </c>
       <c r="B497" s="4" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="C497" s="4" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.2">
@@ -9325,18 +9365,21 @@
         <v>0</v>
       </c>
       <c r="B498" s="4" t="s">
-        <v>1089</v>
+        <v>1013</v>
       </c>
       <c r="C498" s="4" t="s">
-        <v>1090</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A499" s="19" t="s">
         <v>0</v>
       </c>
+      <c r="B499" s="4" t="s">
+        <v>1104</v>
+      </c>
       <c r="C499" s="4" t="s">
-        <v>1062</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.2">
@@ -9344,10 +9387,10 @@
         <v>0</v>
       </c>
       <c r="B500" s="4" t="s">
-        <v>1070</v>
+        <v>1079</v>
       </c>
       <c r="C500" s="4" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.2">
@@ -9355,18 +9398,21 @@
         <v>0</v>
       </c>
       <c r="B501" s="4" t="s">
-        <v>1081</v>
+        <v>1085</v>
       </c>
       <c r="C501" s="4" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A502" s="19" t="s">
         <v>0</v>
       </c>
+      <c r="B502" s="4" t="s">
+        <v>1080</v>
+      </c>
       <c r="C502" s="4" t="s">
-        <v>1086</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.2">
@@ -9374,21 +9420,18 @@
         <v>0</v>
       </c>
       <c r="B503" s="4" t="s">
-        <v>1060</v>
+        <v>1088</v>
       </c>
       <c r="C503" s="4" t="s">
-        <v>1061</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A504" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B504" s="4" t="s">
-        <v>1043</v>
-      </c>
       <c r="C504" s="4" t="s">
-        <v>1042</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.2">
@@ -9396,10 +9439,10 @@
         <v>0</v>
       </c>
       <c r="B505" s="4" t="s">
-        <v>1057</v>
+        <v>1070</v>
       </c>
       <c r="C505" s="4" t="s">
-        <v>1056</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.2">
@@ -9407,22 +9450,44 @@
         <v>0</v>
       </c>
       <c r="B506" s="4" t="s">
-        <v>1094</v>
+        <v>1060</v>
       </c>
       <c r="C506" s="4" t="s">
-        <v>1093</v>
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A507" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B507" s="4" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C507" s="4" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A508" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B508" s="4" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C508" s="4" t="s">
+        <v>1056</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C505">
-    <sortCondition ref="A2:A505"/>
-    <sortCondition ref="C2:C505"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C508">
+    <sortCondition ref="A2:A508"/>
+    <sortCondition ref="C2:C508"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="Submetido">
+    <cfRule type="containsText" dxfId="12" priority="9" operator="containsText" text="Submetido">
       <formula>NOT(ISERROR(SEARCH(("Submetido"),(A1))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="Aceito">
+    <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="Aceito">
       <formula>NOT(ISERROR(SEARCH(("Aceito"),(A1))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="101">
@@ -9435,7 +9500,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="9" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="7"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="B449" r:id="rId1" xr:uid="{9BCE4324-8A77-884E-80ED-4C3988C2A1D3}"/>
@@ -9789,7 +9854,7 @@
     <sortCondition ref="C2:C29"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="Aceito">
+    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="Aceito">
       <formula>NOT(ISERROR(SEARCH(("Aceito"),(A1))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="11">
@@ -9802,10 +9867,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
-    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="55" orientation="landscape"/>
@@ -10532,7 +10597,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="Aceito">
+    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="Aceito">
       <formula>NOT(ISERROR(SEARCH(("Aceito"),(A1))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="7">
@@ -10545,7 +10610,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape"/>
@@ -11606,7 +11671,7 @@
     <sortCondition ref="C2:C1000"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="Aceito">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Aceito">
       <formula>NOT(ISERROR(SEARCH(("Aceito"),(A1))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="3">
@@ -11619,7 +11684,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="55" orientation="landscape"/>
@@ -11634,7 +11699,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A26" sqref="A26"/>
+      <selection pane="bottomRight" activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11933,16 +11998,48 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B27" s="5"/>
+      <c r="A27" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>1096</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B28" s="5"/>
+      <c r="A28" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>1097</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B29" s="5"/>
+      <c r="A29" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>1098</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B30" s="5"/>
+      <c r="A30" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>1099</v>
+      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B31" s="5"/>
@@ -11971,7 +12068,7 @@
     <sortCondition ref="C2:C26"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="Aceito">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="Aceito">
       <formula>NOT(ISERROR(SEARCH(("Aceito"),(A1))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -11984,7 +12081,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="55" orientation="landscape"/>

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{349CBDB9-531F-714E-9C27-508611894002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB731C17-A0CD-EC44-8A02-058F369759CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="500" windowWidth="27900" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="1105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="1105">
   <si>
     <t>Aceito</t>
   </si>
@@ -3470,7 +3470,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3535,21 +3535,14 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -9037,10 +9030,10 @@
         <v>2023</v>
       </c>
       <c r="B468" s="4" t="s">
-        <v>1100</v>
+        <v>1104</v>
       </c>
       <c r="C468" s="4" t="s">
-        <v>1101</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.2">
@@ -9048,30 +9041,30 @@
         <v>2023</v>
       </c>
       <c r="B469" s="4" t="s">
-        <v>992</v>
+        <v>1100</v>
       </c>
       <c r="C469" s="4" t="s">
-        <v>991</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A470" s="19">
         <v>2023</v>
       </c>
-      <c r="B470" s="5"/>
+      <c r="B470" s="4" t="s">
+        <v>992</v>
+      </c>
       <c r="C470" s="4" t="s">
-        <v>987</v>
+        <v>991</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A471" s="19">
         <v>2023</v>
       </c>
-      <c r="B471" s="4" t="s">
-        <v>1052</v>
-      </c>
+      <c r="B471" s="5"/>
       <c r="C471" s="4" t="s">
-        <v>1053</v>
+        <v>987</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.2">
@@ -9079,10 +9072,10 @@
         <v>2023</v>
       </c>
       <c r="B472" s="4" t="s">
-        <v>1018</v>
+        <v>1052</v>
       </c>
       <c r="C472" s="4" t="s">
-        <v>1007</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.2">
@@ -9090,10 +9083,10 @@
         <v>2023</v>
       </c>
       <c r="B473" s="4" t="s">
-        <v>1102</v>
+        <v>1018</v>
       </c>
       <c r="C473" s="6" t="s">
-        <v>1103</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.2">
@@ -9101,10 +9094,10 @@
         <v>2023</v>
       </c>
       <c r="B474" s="4" t="s">
-        <v>1066</v>
-      </c>
-      <c r="C474" s="4" t="s">
-        <v>1065</v>
+        <v>1102</v>
+      </c>
+      <c r="C474" s="22" t="s">
+        <v>1103</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.2">
@@ -9112,65 +9105,65 @@
         <v>2023</v>
       </c>
       <c r="B475" s="4" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="C475" s="4" t="s">
-        <v>1015</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A476" s="19">
         <v>2023</v>
       </c>
-      <c r="B476" s="5" t="s">
+      <c r="B476" s="4" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C476" s="4" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A477" s="19">
+        <v>2023</v>
+      </c>
+      <c r="B477" s="5" t="s">
         <v>866</v>
       </c>
-      <c r="C476" s="4" t="s">
+      <c r="C477" s="4" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A477" s="21">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A478" s="21">
         <v>2023</v>
       </c>
-      <c r="B477" s="4" t="s">
+      <c r="B478" s="4" t="s">
         <v>966</v>
       </c>
-      <c r="C477" s="4" t="s">
+      <c r="C478" s="4" t="s">
         <v>865</v>
-      </c>
-    </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A478" s="19">
-        <v>2023</v>
-      </c>
-      <c r="B478" s="4" t="s">
-        <v>993</v>
-      </c>
-      <c r="C478" s="4" t="s">
-        <v>990</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A479" s="19">
         <v>2023</v>
       </c>
-      <c r="B479" s="5" t="s">
-        <v>868</v>
+      <c r="B479" s="4" t="s">
+        <v>993</v>
       </c>
       <c r="C479" s="4" t="s">
-        <v>869</v>
+        <v>990</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A480" s="19">
         <v>2023</v>
       </c>
-      <c r="B480" s="4" t="s">
-        <v>973</v>
+      <c r="B480" s="5" t="s">
+        <v>868</v>
       </c>
       <c r="C480" s="4" t="s">
-        <v>969</v>
+        <v>869</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.2">
@@ -9178,10 +9171,10 @@
         <v>2023</v>
       </c>
       <c r="B481" s="4" t="s">
-        <v>1086</v>
+        <v>973</v>
       </c>
       <c r="C481" s="4" t="s">
-        <v>1087</v>
+        <v>969</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.2">
@@ -9189,10 +9182,10 @@
         <v>2023</v>
       </c>
       <c r="B482" s="4" t="s">
-        <v>1035</v>
+        <v>1086</v>
       </c>
       <c r="C482" s="4" t="s">
-        <v>1036</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.2">
@@ -9200,10 +9193,10 @@
         <v>2023</v>
       </c>
       <c r="B483" s="4" t="s">
-        <v>1081</v>
+        <v>1035</v>
       </c>
       <c r="C483" s="4" t="s">
-        <v>1082</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.2">
@@ -9211,10 +9204,10 @@
         <v>2023</v>
       </c>
       <c r="B484" s="4" t="s">
-        <v>989</v>
+        <v>1081</v>
       </c>
       <c r="C484" s="4" t="s">
-        <v>988</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.2">
@@ -9222,10 +9215,10 @@
         <v>2023</v>
       </c>
       <c r="B485" s="4" t="s">
-        <v>1091</v>
+        <v>989</v>
       </c>
       <c r="C485" s="4" t="s">
-        <v>1090</v>
+        <v>988</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.2">
@@ -9233,10 +9226,10 @@
         <v>2023</v>
       </c>
       <c r="B486" s="4" t="s">
-        <v>1010</v>
+        <v>1091</v>
       </c>
       <c r="C486" s="4" t="s">
-        <v>1011</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.2">
@@ -9244,10 +9237,10 @@
         <v>2023</v>
       </c>
       <c r="B487" s="4" t="s">
-        <v>972</v>
+        <v>1010</v>
       </c>
       <c r="C487" s="4" t="s">
-        <v>967</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.2">
@@ -9255,10 +9248,10 @@
         <v>2023</v>
       </c>
       <c r="B488" s="4" t="s">
-        <v>1041</v>
+        <v>972</v>
       </c>
       <c r="C488" s="4" t="s">
-        <v>1040</v>
+        <v>967</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.2">
@@ -9266,10 +9259,10 @@
         <v>2023</v>
       </c>
       <c r="B489" s="4" t="s">
-        <v>1008</v>
-      </c>
-      <c r="C489" s="13" t="s">
-        <v>1009</v>
+        <v>1041</v>
+      </c>
+      <c r="C489" s="4" t="s">
+        <v>1040</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.2">
@@ -9277,10 +9270,10 @@
         <v>2023</v>
       </c>
       <c r="B490" s="4" t="s">
-        <v>1093</v>
-      </c>
-      <c r="C490" s="4" t="s">
-        <v>1092</v>
+        <v>1008</v>
+      </c>
+      <c r="C490" s="13" t="s">
+        <v>1009</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.2">
@@ -9288,32 +9281,32 @@
         <v>2023</v>
       </c>
       <c r="B491" s="4" t="s">
-        <v>1033</v>
+        <v>1093</v>
       </c>
       <c r="C491" s="4" t="s">
-        <v>1034</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A492" s="19">
         <v>2023</v>
       </c>
-      <c r="B492" s="5" t="s">
-        <v>861</v>
+      <c r="B492" s="4" t="s">
+        <v>1033</v>
       </c>
       <c r="C492" s="4" t="s">
-        <v>862</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A493" s="19">
         <v>2023</v>
       </c>
-      <c r="B493" s="4" t="s">
-        <v>1046</v>
+      <c r="B493" s="5" t="s">
+        <v>861</v>
       </c>
       <c r="C493" s="4" t="s">
-        <v>1047</v>
+        <v>862</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.2">
@@ -9321,10 +9314,10 @@
         <v>2023</v>
       </c>
       <c r="B494" s="4" t="s">
-        <v>997</v>
+        <v>1046</v>
       </c>
       <c r="C494" s="4" t="s">
-        <v>998</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.2">
@@ -9332,21 +9325,21 @@
         <v>2023</v>
       </c>
       <c r="B495" s="4" t="s">
+        <v>997</v>
+      </c>
+      <c r="C495" s="4" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A496" s="19">
+        <v>2023</v>
+      </c>
+      <c r="B496" s="4" t="s">
         <v>1068</v>
       </c>
-      <c r="C495" s="4" t="s">
+      <c r="C496" s="4" t="s">
         <v>1063</v>
-      </c>
-    </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A496" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B496" s="4" t="s">
-        <v>1072</v>
-      </c>
-      <c r="C496" s="4" t="s">
-        <v>1064</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.2">
@@ -9354,10 +9347,10 @@
         <v>0</v>
       </c>
       <c r="B497" s="4" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="C497" s="4" t="s">
-        <v>1077</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.2">
@@ -9365,10 +9358,10 @@
         <v>0</v>
       </c>
       <c r="B498" s="4" t="s">
-        <v>1013</v>
+        <v>1076</v>
       </c>
       <c r="C498" s="4" t="s">
-        <v>1012</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.2">
@@ -9376,10 +9369,10 @@
         <v>0</v>
       </c>
       <c r="B499" s="4" t="s">
-        <v>1104</v>
+        <v>1013</v>
       </c>
       <c r="C499" s="4" t="s">
-        <v>1094</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.2">
@@ -9484,10 +9477,10 @@
     <sortCondition ref="C2:C508"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="containsText" dxfId="12" priority="9" operator="containsText" text="Submetido">
+    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="Submetido">
       <formula>NOT(ISERROR(SEARCH(("Submetido"),(A1))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="Aceito">
+    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="Aceito">
       <formula>NOT(ISERROR(SEARCH(("Aceito"),(A1))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="101">
@@ -9500,7 +9493,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="10" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="7"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="B449" r:id="rId1" xr:uid="{9BCE4324-8A77-884E-80ED-4C3988C2A1D3}"/>
@@ -9854,7 +9847,7 @@
     <sortCondition ref="C2:C29"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="Aceito">
+    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="Aceito">
       <formula>NOT(ISERROR(SEARCH(("Aceito"),(A1))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="11">
@@ -9867,10 +9860,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="8" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
-    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="55" orientation="landscape"/>
@@ -10597,7 +10590,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="Aceito">
+    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="Aceito">
       <formula>NOT(ISERROR(SEARCH(("Aceito"),(A1))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="7">
@@ -10610,7 +10603,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape"/>
@@ -11671,7 +11664,7 @@
     <sortCondition ref="C2:C1000"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Aceito">
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="Aceito">
       <formula>NOT(ISERROR(SEARCH(("Aceito"),(A1))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="3">
@@ -11684,7 +11677,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="55" orientation="landscape"/>
@@ -12068,7 +12061,7 @@
     <sortCondition ref="C2:C26"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="Aceito">
+    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="Aceito">
       <formula>NOT(ISERROR(SEARCH(("Aceito"),(A1))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -12081,7 +12074,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="55" orientation="landscape"/>

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB731C17-A0CD-EC44-8A02-058F369759CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285A1391-7ACA-4842-90E0-B6894A4CC43B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="500" windowWidth="27900" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="1105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="1107">
   <si>
     <t>Aceito</t>
   </si>
@@ -3362,6 +3362,12 @@
   </si>
   <si>
     <t>10.1186/s13104-023-06513-w</t>
+  </si>
+  <si>
+    <t>Evaluation of cardiac autonomic control during the 6-min walk test in women with systemic sclerosis</t>
+  </si>
+  <si>
+    <t>10.1186/s13104-023-06522-9</t>
   </si>
 </sst>
 </file>
@@ -3470,7 +3476,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3533,9 +3539,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -3880,13 +3883,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I508"/>
+  <dimension ref="A1:I509"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B471" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B473" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A508" sqref="A508"/>
+      <selection pane="bottomRight" activeCell="A509" sqref="A509"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9094,10 +9097,10 @@
         <v>2023</v>
       </c>
       <c r="B474" s="4" t="s">
-        <v>1102</v>
-      </c>
-      <c r="C474" s="22" t="s">
-        <v>1103</v>
+        <v>1106</v>
+      </c>
+      <c r="C474" s="4" t="s">
+        <v>1105</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.2">
@@ -9105,10 +9108,10 @@
         <v>2023</v>
       </c>
       <c r="B475" s="4" t="s">
-        <v>1066</v>
+        <v>1102</v>
       </c>
       <c r="C475" s="4" t="s">
-        <v>1065</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.2">
@@ -9116,65 +9119,65 @@
         <v>2023</v>
       </c>
       <c r="B476" s="4" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="C476" s="4" t="s">
-        <v>1015</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A477" s="19">
         <v>2023</v>
       </c>
-      <c r="B477" s="5" t="s">
+      <c r="B477" s="4" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C477" s="4" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A478" s="19">
+        <v>2023</v>
+      </c>
+      <c r="B478" s="5" t="s">
         <v>866</v>
       </c>
-      <c r="C477" s="4" t="s">
+      <c r="C478" s="4" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A478" s="21">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A479" s="21">
         <v>2023</v>
       </c>
-      <c r="B478" s="4" t="s">
+      <c r="B479" s="4" t="s">
         <v>966</v>
       </c>
-      <c r="C478" s="4" t="s">
+      <c r="C479" s="4" t="s">
         <v>865</v>
-      </c>
-    </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A479" s="19">
-        <v>2023</v>
-      </c>
-      <c r="B479" s="4" t="s">
-        <v>993</v>
-      </c>
-      <c r="C479" s="4" t="s">
-        <v>990</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A480" s="19">
         <v>2023</v>
       </c>
-      <c r="B480" s="5" t="s">
-        <v>868</v>
+      <c r="B480" s="4" t="s">
+        <v>993</v>
       </c>
       <c r="C480" s="4" t="s">
-        <v>869</v>
+        <v>990</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A481" s="19">
         <v>2023</v>
       </c>
-      <c r="B481" s="4" t="s">
-        <v>973</v>
+      <c r="B481" s="5" t="s">
+        <v>868</v>
       </c>
       <c r="C481" s="4" t="s">
-        <v>969</v>
+        <v>869</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.2">
@@ -9182,10 +9185,10 @@
         <v>2023</v>
       </c>
       <c r="B482" s="4" t="s">
-        <v>1086</v>
+        <v>973</v>
       </c>
       <c r="C482" s="4" t="s">
-        <v>1087</v>
+        <v>969</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.2">
@@ -9193,10 +9196,10 @@
         <v>2023</v>
       </c>
       <c r="B483" s="4" t="s">
-        <v>1035</v>
+        <v>1086</v>
       </c>
       <c r="C483" s="4" t="s">
-        <v>1036</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.2">
@@ -9204,10 +9207,10 @@
         <v>2023</v>
       </c>
       <c r="B484" s="4" t="s">
-        <v>1081</v>
+        <v>1035</v>
       </c>
       <c r="C484" s="4" t="s">
-        <v>1082</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.2">
@@ -9215,10 +9218,10 @@
         <v>2023</v>
       </c>
       <c r="B485" s="4" t="s">
-        <v>989</v>
+        <v>1081</v>
       </c>
       <c r="C485" s="4" t="s">
-        <v>988</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.2">
@@ -9226,10 +9229,10 @@
         <v>2023</v>
       </c>
       <c r="B486" s="4" t="s">
-        <v>1091</v>
+        <v>989</v>
       </c>
       <c r="C486" s="4" t="s">
-        <v>1090</v>
+        <v>988</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.2">
@@ -9237,10 +9240,10 @@
         <v>2023</v>
       </c>
       <c r="B487" s="4" t="s">
-        <v>1010</v>
+        <v>1091</v>
       </c>
       <c r="C487" s="4" t="s">
-        <v>1011</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.2">
@@ -9248,10 +9251,10 @@
         <v>2023</v>
       </c>
       <c r="B488" s="4" t="s">
-        <v>972</v>
+        <v>1010</v>
       </c>
       <c r="C488" s="4" t="s">
-        <v>967</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.2">
@@ -9259,10 +9262,10 @@
         <v>2023</v>
       </c>
       <c r="B489" s="4" t="s">
-        <v>1041</v>
+        <v>972</v>
       </c>
       <c r="C489" s="4" t="s">
-        <v>1040</v>
+        <v>967</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.2">
@@ -9270,10 +9273,10 @@
         <v>2023</v>
       </c>
       <c r="B490" s="4" t="s">
-        <v>1008</v>
-      </c>
-      <c r="C490" s="13" t="s">
-        <v>1009</v>
+        <v>1041</v>
+      </c>
+      <c r="C490" s="4" t="s">
+        <v>1040</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.2">
@@ -9281,10 +9284,10 @@
         <v>2023</v>
       </c>
       <c r="B491" s="4" t="s">
-        <v>1093</v>
-      </c>
-      <c r="C491" s="4" t="s">
-        <v>1092</v>
+        <v>1008</v>
+      </c>
+      <c r="C491" s="13" t="s">
+        <v>1009</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.2">
@@ -9292,32 +9295,32 @@
         <v>2023</v>
       </c>
       <c r="B492" s="4" t="s">
-        <v>1033</v>
+        <v>1093</v>
       </c>
       <c r="C492" s="4" t="s">
-        <v>1034</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A493" s="19">
         <v>2023</v>
       </c>
-      <c r="B493" s="5" t="s">
-        <v>861</v>
+      <c r="B493" s="4" t="s">
+        <v>1033</v>
       </c>
       <c r="C493" s="4" t="s">
-        <v>862</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A494" s="19">
         <v>2023</v>
       </c>
-      <c r="B494" s="4" t="s">
-        <v>1046</v>
+      <c r="B494" s="5" t="s">
+        <v>861</v>
       </c>
       <c r="C494" s="4" t="s">
-        <v>1047</v>
+        <v>862</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.2">
@@ -9325,10 +9328,10 @@
         <v>2023</v>
       </c>
       <c r="B495" s="4" t="s">
-        <v>997</v>
+        <v>1046</v>
       </c>
       <c r="C495" s="4" t="s">
-        <v>998</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.2">
@@ -9336,21 +9339,21 @@
         <v>2023</v>
       </c>
       <c r="B496" s="4" t="s">
+        <v>997</v>
+      </c>
+      <c r="C496" s="4" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A497" s="19">
+        <v>2023</v>
+      </c>
+      <c r="B497" s="4" t="s">
         <v>1068</v>
       </c>
-      <c r="C496" s="4" t="s">
+      <c r="C497" s="4" t="s">
         <v>1063</v>
-      </c>
-    </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A497" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B497" s="4" t="s">
-        <v>1072</v>
-      </c>
-      <c r="C497" s="4" t="s">
-        <v>1064</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.2">
@@ -9358,10 +9361,10 @@
         <v>0</v>
       </c>
       <c r="B498" s="4" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="C498" s="4" t="s">
-        <v>1077</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.2">
@@ -9369,10 +9372,10 @@
         <v>0</v>
       </c>
       <c r="B499" s="4" t="s">
-        <v>1013</v>
+        <v>1076</v>
       </c>
       <c r="C499" s="4" t="s">
-        <v>1012</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.2">
@@ -9380,10 +9383,10 @@
         <v>0</v>
       </c>
       <c r="B500" s="4" t="s">
-        <v>1079</v>
+        <v>1013</v>
       </c>
       <c r="C500" s="4" t="s">
-        <v>1067</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.2">
@@ -9391,10 +9394,10 @@
         <v>0</v>
       </c>
       <c r="B501" s="4" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="C501" s="4" t="s">
-        <v>1084</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.2">
@@ -9402,10 +9405,10 @@
         <v>0</v>
       </c>
       <c r="B502" s="4" t="s">
-        <v>1080</v>
+        <v>1085</v>
       </c>
       <c r="C502" s="4" t="s">
-        <v>1075</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.2">
@@ -9413,29 +9416,29 @@
         <v>0</v>
       </c>
       <c r="B503" s="4" t="s">
-        <v>1088</v>
+        <v>1080</v>
       </c>
       <c r="C503" s="4" t="s">
-        <v>1089</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A504" s="19" t="s">
         <v>0</v>
       </c>
+      <c r="B504" s="4" t="s">
+        <v>1088</v>
+      </c>
       <c r="C504" s="4" t="s">
-        <v>1062</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A505" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B505" s="4" t="s">
-        <v>1070</v>
-      </c>
       <c r="C505" s="4" t="s">
-        <v>1071</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.2">
@@ -9443,10 +9446,10 @@
         <v>0</v>
       </c>
       <c r="B506" s="4" t="s">
-        <v>1060</v>
+        <v>1070</v>
       </c>
       <c r="C506" s="4" t="s">
-        <v>1061</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.2">
@@ -9454,10 +9457,10 @@
         <v>0</v>
       </c>
       <c r="B507" s="4" t="s">
-        <v>1043</v>
+        <v>1060</v>
       </c>
       <c r="C507" s="4" t="s">
-        <v>1042</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.2">
@@ -9465,16 +9468,27 @@
         <v>0</v>
       </c>
       <c r="B508" s="4" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C508" s="4" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A509" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B509" s="4" t="s">
         <v>1057</v>
       </c>
-      <c r="C508" s="4" t="s">
+      <c r="C509" s="4" t="s">
         <v>1056</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C508">
-    <sortCondition ref="A2:A508"/>
-    <sortCondition ref="C2:C508"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C509">
+    <sortCondition ref="A2:A509"/>
+    <sortCondition ref="C2:C509"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="Submetido">

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285A1391-7ACA-4842-90E0-B6894A4CC43B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E017BA-E17C-EB46-9BAA-92B522DFE25A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="500" windowWidth="27900" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="1107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="1107">
   <si>
     <t>Aceito</t>
   </si>
@@ -3476,7 +3476,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3539,6 +3539,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -3886,7 +3889,7 @@
   <dimension ref="A1:I509"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B473" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B472" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A509" sqref="A509"/>
@@ -9022,10 +9025,10 @@
         <v>2023</v>
       </c>
       <c r="B467" s="4" t="s">
-        <v>1055</v>
+        <v>1076</v>
       </c>
       <c r="C467" s="4" t="s">
-        <v>1054</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.2">
@@ -9033,10 +9036,10 @@
         <v>2023</v>
       </c>
       <c r="B468" s="4" t="s">
-        <v>1104</v>
+        <v>1055</v>
       </c>
       <c r="C468" s="4" t="s">
-        <v>1094</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.2">
@@ -9044,10 +9047,10 @@
         <v>2023</v>
       </c>
       <c r="B469" s="4" t="s">
-        <v>1100</v>
+        <v>1104</v>
       </c>
       <c r="C469" s="4" t="s">
-        <v>1101</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.2">
@@ -9055,30 +9058,30 @@
         <v>2023</v>
       </c>
       <c r="B470" s="4" t="s">
-        <v>992</v>
+        <v>1100</v>
       </c>
       <c r="C470" s="4" t="s">
-        <v>991</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A471" s="19">
         <v>2023</v>
       </c>
-      <c r="B471" s="5"/>
+      <c r="B471" s="4" t="s">
+        <v>992</v>
+      </c>
       <c r="C471" s="4" t="s">
-        <v>987</v>
+        <v>991</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A472" s="19">
         <v>2023</v>
       </c>
-      <c r="B472" s="4" t="s">
-        <v>1052</v>
-      </c>
+      <c r="B472" s="5"/>
       <c r="C472" s="4" t="s">
-        <v>1053</v>
+        <v>987</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.2">
@@ -9086,10 +9089,10 @@
         <v>2023</v>
       </c>
       <c r="B473" s="4" t="s">
-        <v>1018</v>
+        <v>1052</v>
       </c>
       <c r="C473" s="6" t="s">
-        <v>1007</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.2">
@@ -9097,10 +9100,10 @@
         <v>2023</v>
       </c>
       <c r="B474" s="4" t="s">
-        <v>1106</v>
-      </c>
-      <c r="C474" s="4" t="s">
-        <v>1105</v>
+        <v>1018</v>
+      </c>
+      <c r="C474" s="22" t="s">
+        <v>1007</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.2">
@@ -9108,10 +9111,10 @@
         <v>2023</v>
       </c>
       <c r="B475" s="4" t="s">
-        <v>1102</v>
+        <v>1106</v>
       </c>
       <c r="C475" s="4" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.2">
@@ -9119,10 +9122,10 @@
         <v>2023</v>
       </c>
       <c r="B476" s="4" t="s">
-        <v>1066</v>
+        <v>1102</v>
       </c>
       <c r="C476" s="4" t="s">
-        <v>1065</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.2">
@@ -9130,65 +9133,65 @@
         <v>2023</v>
       </c>
       <c r="B477" s="4" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="C477" s="4" t="s">
-        <v>1015</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A478" s="19">
         <v>2023</v>
       </c>
-      <c r="B478" s="5" t="s">
+      <c r="B478" s="4" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C478" s="4" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A479" s="19">
+        <v>2023</v>
+      </c>
+      <c r="B479" s="5" t="s">
         <v>866</v>
       </c>
-      <c r="C478" s="4" t="s">
+      <c r="C479" s="4" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A479" s="21">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A480" s="21">
         <v>2023</v>
       </c>
-      <c r="B479" s="4" t="s">
+      <c r="B480" s="4" t="s">
         <v>966</v>
       </c>
-      <c r="C479" s="4" t="s">
+      <c r="C480" s="4" t="s">
         <v>865</v>
-      </c>
-    </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A480" s="19">
-        <v>2023</v>
-      </c>
-      <c r="B480" s="4" t="s">
-        <v>993</v>
-      </c>
-      <c r="C480" s="4" t="s">
-        <v>990</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A481" s="19">
         <v>2023</v>
       </c>
-      <c r="B481" s="5" t="s">
-        <v>868</v>
+      <c r="B481" s="4" t="s">
+        <v>993</v>
       </c>
       <c r="C481" s="4" t="s">
-        <v>869</v>
+        <v>990</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A482" s="19">
         <v>2023</v>
       </c>
-      <c r="B482" s="4" t="s">
-        <v>973</v>
+      <c r="B482" s="5" t="s">
+        <v>868</v>
       </c>
       <c r="C482" s="4" t="s">
-        <v>969</v>
+        <v>869</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.2">
@@ -9196,10 +9199,10 @@
         <v>2023</v>
       </c>
       <c r="B483" s="4" t="s">
-        <v>1086</v>
+        <v>973</v>
       </c>
       <c r="C483" s="4" t="s">
-        <v>1087</v>
+        <v>969</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.2">
@@ -9207,10 +9210,10 @@
         <v>2023</v>
       </c>
       <c r="B484" s="4" t="s">
-        <v>1035</v>
+        <v>1086</v>
       </c>
       <c r="C484" s="4" t="s">
-        <v>1036</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.2">
@@ -9218,10 +9221,10 @@
         <v>2023</v>
       </c>
       <c r="B485" s="4" t="s">
-        <v>1081</v>
+        <v>1035</v>
       </c>
       <c r="C485" s="4" t="s">
-        <v>1082</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.2">
@@ -9229,10 +9232,10 @@
         <v>2023</v>
       </c>
       <c r="B486" s="4" t="s">
-        <v>989</v>
+        <v>1081</v>
       </c>
       <c r="C486" s="4" t="s">
-        <v>988</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.2">
@@ -9240,10 +9243,10 @@
         <v>2023</v>
       </c>
       <c r="B487" s="4" t="s">
-        <v>1091</v>
+        <v>989</v>
       </c>
       <c r="C487" s="4" t="s">
-        <v>1090</v>
+        <v>988</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.2">
@@ -9251,10 +9254,10 @@
         <v>2023</v>
       </c>
       <c r="B488" s="4" t="s">
-        <v>1010</v>
+        <v>1091</v>
       </c>
       <c r="C488" s="4" t="s">
-        <v>1011</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.2">
@@ -9262,10 +9265,10 @@
         <v>2023</v>
       </c>
       <c r="B489" s="4" t="s">
-        <v>972</v>
+        <v>1010</v>
       </c>
       <c r="C489" s="4" t="s">
-        <v>967</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.2">
@@ -9273,10 +9276,10 @@
         <v>2023</v>
       </c>
       <c r="B490" s="4" t="s">
-        <v>1041</v>
+        <v>972</v>
       </c>
       <c r="C490" s="4" t="s">
-        <v>1040</v>
+        <v>967</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.2">
@@ -9284,10 +9287,10 @@
         <v>2023</v>
       </c>
       <c r="B491" s="4" t="s">
-        <v>1008</v>
-      </c>
-      <c r="C491" s="13" t="s">
-        <v>1009</v>
+        <v>1041</v>
+      </c>
+      <c r="C491" s="4" t="s">
+        <v>1040</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.2">
@@ -9295,10 +9298,10 @@
         <v>2023</v>
       </c>
       <c r="B492" s="4" t="s">
-        <v>1093</v>
-      </c>
-      <c r="C492" s="4" t="s">
-        <v>1092</v>
+        <v>1008</v>
+      </c>
+      <c r="C492" s="13" t="s">
+        <v>1009</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.2">
@@ -9306,32 +9309,32 @@
         <v>2023</v>
       </c>
       <c r="B493" s="4" t="s">
-        <v>1033</v>
+        <v>1093</v>
       </c>
       <c r="C493" s="4" t="s">
-        <v>1034</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A494" s="19">
         <v>2023</v>
       </c>
-      <c r="B494" s="5" t="s">
-        <v>861</v>
+      <c r="B494" s="4" t="s">
+        <v>1033</v>
       </c>
       <c r="C494" s="4" t="s">
-        <v>862</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A495" s="19">
         <v>2023</v>
       </c>
-      <c r="B495" s="4" t="s">
-        <v>1046</v>
+      <c r="B495" s="5" t="s">
+        <v>861</v>
       </c>
       <c r="C495" s="4" t="s">
-        <v>1047</v>
+        <v>862</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.2">
@@ -9339,10 +9342,10 @@
         <v>2023</v>
       </c>
       <c r="B496" s="4" t="s">
-        <v>997</v>
+        <v>1046</v>
       </c>
       <c r="C496" s="4" t="s">
-        <v>998</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.2">
@@ -9350,21 +9353,21 @@
         <v>2023</v>
       </c>
       <c r="B497" s="4" t="s">
+        <v>997</v>
+      </c>
+      <c r="C497" s="4" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A498" s="19">
+        <v>2023</v>
+      </c>
+      <c r="B498" s="4" t="s">
         <v>1068</v>
       </c>
-      <c r="C497" s="4" t="s">
+      <c r="C498" s="4" t="s">
         <v>1063</v>
-      </c>
-    </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A498" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B498" s="4" t="s">
-        <v>1072</v>
-      </c>
-      <c r="C498" s="4" t="s">
-        <v>1064</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.2">
@@ -9372,10 +9375,10 @@
         <v>0</v>
       </c>
       <c r="B499" s="4" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="C499" s="4" t="s">
-        <v>1077</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.2">

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E017BA-E17C-EB46-9BAA-92B522DFE25A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6F62FA-ADD0-1849-966E-3E53A1EE991A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="500" windowWidth="27900" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="1107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="1109">
   <si>
     <t>Aceito</t>
   </si>
@@ -3368,6 +3368,12 @@
   </si>
   <si>
     <t>10.1186/s13104-023-06522-9</t>
+  </si>
+  <si>
+    <t>10.3389/fresc.2023.1186499</t>
+  </si>
+  <si>
+    <t>Hospital admsson is associated with disability and late musculoskeletal pain in individuals with long COVID</t>
   </si>
 </sst>
 </file>
@@ -3886,13 +3892,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I509"/>
+  <dimension ref="A1:I510"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B472" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B473" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A509" sqref="A509"/>
+      <selection pane="bottomRight" activeCell="A510" sqref="A510"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8992,32 +8998,32 @@
         <v>2023</v>
       </c>
       <c r="B464" s="4" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C464" s="4" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A465" s="19">
+        <v>2023</v>
+      </c>
+      <c r="B465" s="4" t="s">
         <v>1074</v>
       </c>
-      <c r="C464" s="4" t="s">
+      <c r="C465" s="4" t="s">
         <v>1073</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A465" s="21">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A466" s="21">
         <v>2023</v>
       </c>
-      <c r="B465" s="4" t="s">
+      <c r="B466" s="4" t="s">
         <v>994</v>
       </c>
-      <c r="C465" s="4" t="s">
+      <c r="C466" s="4" t="s">
         <v>984</v>
-      </c>
-    </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A466" s="19">
-        <v>2023</v>
-      </c>
-      <c r="B466" s="4" t="s">
-        <v>1017</v>
-      </c>
-      <c r="C466" s="4" t="s">
-        <v>1014</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.2">
@@ -9025,10 +9031,10 @@
         <v>2023</v>
       </c>
       <c r="B467" s="4" t="s">
-        <v>1076</v>
+        <v>1017</v>
       </c>
       <c r="C467" s="4" t="s">
-        <v>1077</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.2">
@@ -9036,10 +9042,10 @@
         <v>2023</v>
       </c>
       <c r="B468" s="4" t="s">
-        <v>1055</v>
+        <v>1076</v>
       </c>
       <c r="C468" s="4" t="s">
-        <v>1054</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.2">
@@ -9047,10 +9053,10 @@
         <v>2023</v>
       </c>
       <c r="B469" s="4" t="s">
-        <v>1104</v>
+        <v>1055</v>
       </c>
       <c r="C469" s="4" t="s">
-        <v>1094</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.2">
@@ -9058,10 +9064,10 @@
         <v>2023</v>
       </c>
       <c r="B470" s="4" t="s">
-        <v>1100</v>
+        <v>1104</v>
       </c>
       <c r="C470" s="4" t="s">
-        <v>1101</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.2">
@@ -9069,30 +9075,30 @@
         <v>2023</v>
       </c>
       <c r="B471" s="4" t="s">
-        <v>992</v>
+        <v>1100</v>
       </c>
       <c r="C471" s="4" t="s">
-        <v>991</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A472" s="19">
         <v>2023</v>
       </c>
-      <c r="B472" s="5"/>
+      <c r="B472" s="4" t="s">
+        <v>992</v>
+      </c>
       <c r="C472" s="4" t="s">
-        <v>987</v>
+        <v>991</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A473" s="19">
         <v>2023</v>
       </c>
-      <c r="B473" s="4" t="s">
-        <v>1052</v>
-      </c>
+      <c r="B473" s="5"/>
       <c r="C473" s="6" t="s">
-        <v>1053</v>
+        <v>987</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.2">
@@ -9100,10 +9106,10 @@
         <v>2023</v>
       </c>
       <c r="B474" s="4" t="s">
-        <v>1018</v>
+        <v>1052</v>
       </c>
       <c r="C474" s="22" t="s">
-        <v>1007</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.2">
@@ -9111,10 +9117,10 @@
         <v>2023</v>
       </c>
       <c r="B475" s="4" t="s">
-        <v>1106</v>
+        <v>1018</v>
       </c>
       <c r="C475" s="4" t="s">
-        <v>1105</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.2">
@@ -9122,10 +9128,10 @@
         <v>2023</v>
       </c>
       <c r="B476" s="4" t="s">
-        <v>1102</v>
+        <v>1106</v>
       </c>
       <c r="C476" s="4" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.2">
@@ -9133,10 +9139,10 @@
         <v>2023</v>
       </c>
       <c r="B477" s="4" t="s">
-        <v>1066</v>
+        <v>1102</v>
       </c>
       <c r="C477" s="4" t="s">
-        <v>1065</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.2">
@@ -9144,65 +9150,65 @@
         <v>2023</v>
       </c>
       <c r="B478" s="4" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="C478" s="4" t="s">
-        <v>1015</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A479" s="19">
         <v>2023</v>
       </c>
-      <c r="B479" s="5" t="s">
+      <c r="B479" s="4" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C479" s="4" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A480" s="19">
+        <v>2023</v>
+      </c>
+      <c r="B480" s="5" t="s">
         <v>866</v>
       </c>
-      <c r="C479" s="4" t="s">
+      <c r="C480" s="4" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A480" s="21">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A481" s="21">
         <v>2023</v>
       </c>
-      <c r="B480" s="4" t="s">
+      <c r="B481" s="4" t="s">
         <v>966</v>
       </c>
-      <c r="C480" s="4" t="s">
+      <c r="C481" s="4" t="s">
         <v>865</v>
-      </c>
-    </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A481" s="19">
-        <v>2023</v>
-      </c>
-      <c r="B481" s="4" t="s">
-        <v>993</v>
-      </c>
-      <c r="C481" s="4" t="s">
-        <v>990</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A482" s="19">
         <v>2023</v>
       </c>
-      <c r="B482" s="5" t="s">
-        <v>868</v>
+      <c r="B482" s="4" t="s">
+        <v>993</v>
       </c>
       <c r="C482" s="4" t="s">
-        <v>869</v>
+        <v>990</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A483" s="19">
         <v>2023</v>
       </c>
-      <c r="B483" s="4" t="s">
-        <v>973</v>
+      <c r="B483" s="5" t="s">
+        <v>868</v>
       </c>
       <c r="C483" s="4" t="s">
-        <v>969</v>
+        <v>869</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.2">
@@ -9210,10 +9216,10 @@
         <v>2023</v>
       </c>
       <c r="B484" s="4" t="s">
-        <v>1086</v>
+        <v>973</v>
       </c>
       <c r="C484" s="4" t="s">
-        <v>1087</v>
+        <v>969</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.2">
@@ -9221,10 +9227,10 @@
         <v>2023</v>
       </c>
       <c r="B485" s="4" t="s">
-        <v>1035</v>
+        <v>1086</v>
       </c>
       <c r="C485" s="4" t="s">
-        <v>1036</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.2">
@@ -9232,10 +9238,10 @@
         <v>2023</v>
       </c>
       <c r="B486" s="4" t="s">
-        <v>1081</v>
+        <v>1035</v>
       </c>
       <c r="C486" s="4" t="s">
-        <v>1082</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.2">
@@ -9243,10 +9249,10 @@
         <v>2023</v>
       </c>
       <c r="B487" s="4" t="s">
-        <v>989</v>
+        <v>1081</v>
       </c>
       <c r="C487" s="4" t="s">
-        <v>988</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.2">
@@ -9254,10 +9260,10 @@
         <v>2023</v>
       </c>
       <c r="B488" s="4" t="s">
-        <v>1091</v>
+        <v>989</v>
       </c>
       <c r="C488" s="4" t="s">
-        <v>1090</v>
+        <v>988</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.2">
@@ -9265,10 +9271,10 @@
         <v>2023</v>
       </c>
       <c r="B489" s="4" t="s">
-        <v>1010</v>
+        <v>1091</v>
       </c>
       <c r="C489" s="4" t="s">
-        <v>1011</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.2">
@@ -9276,10 +9282,10 @@
         <v>2023</v>
       </c>
       <c r="B490" s="4" t="s">
-        <v>972</v>
+        <v>1010</v>
       </c>
       <c r="C490" s="4" t="s">
-        <v>967</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.2">
@@ -9287,10 +9293,10 @@
         <v>2023</v>
       </c>
       <c r="B491" s="4" t="s">
-        <v>1041</v>
+        <v>972</v>
       </c>
       <c r="C491" s="4" t="s">
-        <v>1040</v>
+        <v>967</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.2">
@@ -9298,10 +9304,10 @@
         <v>2023</v>
       </c>
       <c r="B492" s="4" t="s">
-        <v>1008</v>
-      </c>
-      <c r="C492" s="13" t="s">
-        <v>1009</v>
+        <v>1041</v>
+      </c>
+      <c r="C492" s="4" t="s">
+        <v>1040</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.2">
@@ -9309,10 +9315,10 @@
         <v>2023</v>
       </c>
       <c r="B493" s="4" t="s">
-        <v>1093</v>
-      </c>
-      <c r="C493" s="4" t="s">
-        <v>1092</v>
+        <v>1008</v>
+      </c>
+      <c r="C493" s="13" t="s">
+        <v>1009</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.2">
@@ -9320,32 +9326,32 @@
         <v>2023</v>
       </c>
       <c r="B494" s="4" t="s">
-        <v>1033</v>
+        <v>1093</v>
       </c>
       <c r="C494" s="4" t="s">
-        <v>1034</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A495" s="19">
         <v>2023</v>
       </c>
-      <c r="B495" s="5" t="s">
-        <v>861</v>
+      <c r="B495" s="4" t="s">
+        <v>1033</v>
       </c>
       <c r="C495" s="4" t="s">
-        <v>862</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A496" s="19">
         <v>2023</v>
       </c>
-      <c r="B496" s="4" t="s">
-        <v>1046</v>
+      <c r="B496" s="5" t="s">
+        <v>861</v>
       </c>
       <c r="C496" s="4" t="s">
-        <v>1047</v>
+        <v>862</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.2">
@@ -9353,10 +9359,10 @@
         <v>2023</v>
       </c>
       <c r="B497" s="4" t="s">
-        <v>997</v>
+        <v>1046</v>
       </c>
       <c r="C497" s="4" t="s">
-        <v>998</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.2">
@@ -9364,21 +9370,21 @@
         <v>2023</v>
       </c>
       <c r="B498" s="4" t="s">
+        <v>997</v>
+      </c>
+      <c r="C498" s="4" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A499" s="19">
+        <v>2023</v>
+      </c>
+      <c r="B499" s="4" t="s">
         <v>1068</v>
       </c>
-      <c r="C498" s="4" t="s">
+      <c r="C499" s="4" t="s">
         <v>1063</v>
-      </c>
-    </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A499" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B499" s="4" t="s">
-        <v>1072</v>
-      </c>
-      <c r="C499" s="4" t="s">
-        <v>1064</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.2">
@@ -9440,19 +9446,19 @@
       <c r="A505" s="19" t="s">
         <v>0</v>
       </c>
+      <c r="B505" s="4" t="s">
+        <v>1107</v>
+      </c>
       <c r="C505" s="4" t="s">
-        <v>1062</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A506" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B506" s="4" t="s">
-        <v>1070</v>
-      </c>
       <c r="C506" s="4" t="s">
-        <v>1071</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.2">
@@ -9460,10 +9466,10 @@
         <v>0</v>
       </c>
       <c r="B507" s="4" t="s">
-        <v>1060</v>
+        <v>1070</v>
       </c>
       <c r="C507" s="4" t="s">
-        <v>1061</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.2">
@@ -9471,10 +9477,10 @@
         <v>0</v>
       </c>
       <c r="B508" s="4" t="s">
-        <v>1043</v>
+        <v>1060</v>
       </c>
       <c r="C508" s="4" t="s">
-        <v>1042</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.2">
@@ -9482,16 +9488,27 @@
         <v>0</v>
       </c>
       <c r="B509" s="4" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C509" s="4" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A510" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B510" s="4" t="s">
         <v>1057</v>
       </c>
-      <c r="C509" s="4" t="s">
+      <c r="C510" s="4" t="s">
         <v>1056</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C509">
-    <sortCondition ref="A2:A509"/>
-    <sortCondition ref="C2:C509"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C510">
+    <sortCondition ref="A2:A510"/>
+    <sortCondition ref="C2:C510"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="Submetido">

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6F62FA-ADD0-1849-966E-3E53A1EE991A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCDAB32-A2EF-C448-A04C-52398DA2EB7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="500" windowWidth="27900" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="1109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="1111">
   <si>
     <t>Aceito</t>
   </si>
@@ -3374,6 +3374,12 @@
   </si>
   <si>
     <t>Hospital admsson is associated with disability and late musculoskeletal pain in individuals with long COVID</t>
+  </si>
+  <si>
+    <t>10.1016/j.bjpt.2023.100553</t>
+  </si>
+  <si>
+    <t>The care pathway of individuals with spinal disorders in a Health Care Network in the Federal District, Brazil: a retrospective study</t>
   </si>
 </sst>
 </file>
@@ -3482,7 +3488,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3545,9 +3551,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -3892,13 +3895,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I510"/>
+  <dimension ref="A1:I511"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B473" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B475" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A510" sqref="A510"/>
+      <selection pane="bottomRight" activeCell="A511" sqref="A511"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9108,7 +9111,7 @@
       <c r="B474" s="4" t="s">
         <v>1052</v>
       </c>
-      <c r="C474" s="22" t="s">
+      <c r="C474" s="4" t="s">
         <v>1053</v>
       </c>
     </row>
@@ -9503,6 +9506,17 @@
       </c>
       <c r="C510" s="4" t="s">
         <v>1056</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A511" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B511" s="4" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C511" s="4" t="s">
+        <v>1110</v>
       </c>
     </row>
   </sheetData>

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCDAB32-A2EF-C448-A04C-52398DA2EB7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB0C4FD9-AF7F-134F-B409-A5FF52BAF6D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="500" windowWidth="27900" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="1111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="1111">
   <si>
     <t>Aceito</t>
   </si>
@@ -3316,9 +3316,6 @@
     <t>10.1080/15412555.2023.2253907</t>
   </si>
   <si>
-    <t>Home exercise program with minimal resources improves activities of daily living, quality of life, perception of health status and shortness of breath in patients with chronic obstructive pulmonary disease</t>
-  </si>
-  <si>
     <t>Performance during the Glittre-ADL test between patients with and without post- tuberculosis bronchiectasis: A cross-sectional study</t>
   </si>
   <si>
@@ -3380,6 +3377,9 @@
   </si>
   <si>
     <t>The care pathway of individuals with spinal disorders in a Health Care Network in the Federal District, Brazil: a retrospective study</t>
+  </si>
+  <si>
+    <t>Minimal-Resource Home Exercise Program Improves Activities of Daily Living, Perceived Health Status, and Shortness of Breath in Individuals with COPD Stages GOLD II to IV</t>
   </si>
 </sst>
 </file>
@@ -3898,7 +3898,7 @@
   <dimension ref="A1:I511"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B475" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B474" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A511" sqref="A511"/>
@@ -9067,10 +9067,10 @@
         <v>2023</v>
       </c>
       <c r="B470" s="4" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="C470" s="4" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.2">
@@ -9078,10 +9078,10 @@
         <v>2023</v>
       </c>
       <c r="B471" s="4" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C471" s="4" t="s">
         <v>1100</v>
-      </c>
-      <c r="C471" s="4" t="s">
-        <v>1101</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.2">
@@ -9131,10 +9131,10 @@
         <v>2023</v>
       </c>
       <c r="B476" s="4" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="C476" s="4" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.2">
@@ -9142,10 +9142,10 @@
         <v>2023</v>
       </c>
       <c r="B477" s="4" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C477" s="4" t="s">
         <v>1102</v>
-      </c>
-      <c r="C477" s="4" t="s">
-        <v>1103</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.2">
@@ -9219,10 +9219,10 @@
         <v>2023</v>
       </c>
       <c r="B484" s="4" t="s">
-        <v>973</v>
+        <v>1088</v>
       </c>
       <c r="C484" s="4" t="s">
-        <v>969</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.2">
@@ -9230,10 +9230,10 @@
         <v>2023</v>
       </c>
       <c r="B485" s="4" t="s">
-        <v>1086</v>
+        <v>973</v>
       </c>
       <c r="C485" s="4" t="s">
-        <v>1087</v>
+        <v>969</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.2">
@@ -9241,10 +9241,10 @@
         <v>2023</v>
       </c>
       <c r="B486" s="4" t="s">
-        <v>1035</v>
+        <v>1086</v>
       </c>
       <c r="C486" s="4" t="s">
-        <v>1036</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.2">
@@ -9252,10 +9252,10 @@
         <v>2023</v>
       </c>
       <c r="B487" s="4" t="s">
-        <v>1081</v>
+        <v>1035</v>
       </c>
       <c r="C487" s="4" t="s">
-        <v>1082</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.2">
@@ -9263,10 +9263,10 @@
         <v>2023</v>
       </c>
       <c r="B488" s="4" t="s">
-        <v>989</v>
+        <v>1081</v>
       </c>
       <c r="C488" s="4" t="s">
-        <v>988</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.2">
@@ -9274,10 +9274,10 @@
         <v>2023</v>
       </c>
       <c r="B489" s="4" t="s">
-        <v>1091</v>
+        <v>989</v>
       </c>
       <c r="C489" s="4" t="s">
-        <v>1090</v>
+        <v>988</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.2">
@@ -9285,10 +9285,10 @@
         <v>2023</v>
       </c>
       <c r="B490" s="4" t="s">
-        <v>1010</v>
+        <v>1090</v>
       </c>
       <c r="C490" s="4" t="s">
-        <v>1011</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.2">
@@ -9296,10 +9296,10 @@
         <v>2023</v>
       </c>
       <c r="B491" s="4" t="s">
-        <v>972</v>
+        <v>1010</v>
       </c>
       <c r="C491" s="4" t="s">
-        <v>967</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.2">
@@ -9307,10 +9307,10 @@
         <v>2023</v>
       </c>
       <c r="B492" s="4" t="s">
-        <v>1041</v>
+        <v>972</v>
       </c>
       <c r="C492" s="4" t="s">
-        <v>1040</v>
+        <v>967</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.2">
@@ -9318,10 +9318,10 @@
         <v>2023</v>
       </c>
       <c r="B493" s="4" t="s">
-        <v>1008</v>
-      </c>
-      <c r="C493" s="13" t="s">
-        <v>1009</v>
+        <v>1041</v>
+      </c>
+      <c r="C493" s="4" t="s">
+        <v>1040</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.2">
@@ -9329,10 +9329,10 @@
         <v>2023</v>
       </c>
       <c r="B494" s="4" t="s">
-        <v>1093</v>
-      </c>
-      <c r="C494" s="4" t="s">
-        <v>1092</v>
+        <v>1008</v>
+      </c>
+      <c r="C494" s="13" t="s">
+        <v>1009</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.2">
@@ -9340,32 +9340,32 @@
         <v>2023</v>
       </c>
       <c r="B495" s="4" t="s">
-        <v>1033</v>
+        <v>1092</v>
       </c>
       <c r="C495" s="4" t="s">
-        <v>1034</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A496" s="19">
         <v>2023</v>
       </c>
-      <c r="B496" s="5" t="s">
-        <v>861</v>
+      <c r="B496" s="4" t="s">
+        <v>1033</v>
       </c>
       <c r="C496" s="4" t="s">
-        <v>862</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A497" s="19">
         <v>2023</v>
       </c>
-      <c r="B497" s="4" t="s">
-        <v>1046</v>
+      <c r="B497" s="5" t="s">
+        <v>861</v>
       </c>
       <c r="C497" s="4" t="s">
-        <v>1047</v>
+        <v>862</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.2">
@@ -9373,10 +9373,10 @@
         <v>2023</v>
       </c>
       <c r="B498" s="4" t="s">
-        <v>997</v>
+        <v>1046</v>
       </c>
       <c r="C498" s="4" t="s">
-        <v>998</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.2">
@@ -9384,32 +9384,32 @@
         <v>2023</v>
       </c>
       <c r="B499" s="4" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C499" s="4" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A500" s="19">
+        <v>2023</v>
+      </c>
+      <c r="B500" s="4" t="s">
+        <v>997</v>
+      </c>
+      <c r="C500" s="4" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A501" s="19">
+        <v>2023</v>
+      </c>
+      <c r="B501" s="4" t="s">
         <v>1068</v>
       </c>
-      <c r="C499" s="4" t="s">
+      <c r="C501" s="4" t="s">
         <v>1063</v>
-      </c>
-    </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A500" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B500" s="4" t="s">
-        <v>1013</v>
-      </c>
-      <c r="C500" s="4" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A501" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B501" s="4" t="s">
-        <v>1079</v>
-      </c>
-      <c r="C501" s="4" t="s">
-        <v>1067</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.2">
@@ -9417,10 +9417,10 @@
         <v>0</v>
       </c>
       <c r="B502" s="4" t="s">
-        <v>1085</v>
+        <v>1013</v>
       </c>
       <c r="C502" s="4" t="s">
-        <v>1084</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.2">
@@ -9428,10 +9428,10 @@
         <v>0</v>
       </c>
       <c r="B503" s="4" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C503" s="4" t="s">
-        <v>1075</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.2">
@@ -9439,10 +9439,10 @@
         <v>0</v>
       </c>
       <c r="B504" s="4" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="C504" s="4" t="s">
-        <v>1089</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.2">
@@ -9450,29 +9450,29 @@
         <v>0</v>
       </c>
       <c r="B505" s="4" t="s">
-        <v>1107</v>
+        <v>1080</v>
       </c>
       <c r="C505" s="4" t="s">
-        <v>1108</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A506" s="19" t="s">
         <v>0</v>
       </c>
+      <c r="B506" s="4" t="s">
+        <v>1106</v>
+      </c>
       <c r="C506" s="4" t="s">
-        <v>1062</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A507" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B507" s="4" t="s">
-        <v>1070</v>
-      </c>
       <c r="C507" s="4" t="s">
-        <v>1071</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.2">
@@ -9480,10 +9480,10 @@
         <v>0</v>
       </c>
       <c r="B508" s="4" t="s">
-        <v>1060</v>
+        <v>1070</v>
       </c>
       <c r="C508" s="4" t="s">
-        <v>1061</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.2">
@@ -9491,10 +9491,10 @@
         <v>0</v>
       </c>
       <c r="B509" s="4" t="s">
-        <v>1043</v>
+        <v>1060</v>
       </c>
       <c r="C509" s="4" t="s">
-        <v>1042</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.2">
@@ -9502,10 +9502,10 @@
         <v>0</v>
       </c>
       <c r="B510" s="4" t="s">
-        <v>1057</v>
+        <v>1043</v>
       </c>
       <c r="C510" s="4" t="s">
-        <v>1056</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.2">
@@ -9513,16 +9513,16 @@
         <v>0</v>
       </c>
       <c r="B511" s="4" t="s">
-        <v>1109</v>
+        <v>1057</v>
       </c>
       <c r="C511" s="4" t="s">
-        <v>1110</v>
+        <v>1056</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C510">
-    <sortCondition ref="A2:A510"/>
-    <sortCondition ref="C2:C510"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C511">
+    <sortCondition ref="A2:A511"/>
+    <sortCondition ref="C2:C511"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="Submetido">
@@ -12043,10 +12043,10 @@
         <v>2023</v>
       </c>
       <c r="B27" s="5" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>1095</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>1096</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -12054,10 +12054,10 @@
         <v>2023</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -12065,10 +12065,10 @@
         <v>2023</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -12076,10 +12076,10 @@
         <v>2023</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB0C4FD9-AF7F-134F-B409-A5FF52BAF6D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A1D907C-E8AA-344D-8124-D1E94631082E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="500" windowWidth="27900" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="1111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="1111">
   <si>
     <t>Aceito</t>
   </si>
@@ -9197,32 +9197,32 @@
         <v>2023</v>
       </c>
       <c r="B482" s="4" t="s">
-        <v>993</v>
+        <v>1106</v>
       </c>
       <c r="C482" s="4" t="s">
-        <v>990</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A483" s="19">
         <v>2023</v>
       </c>
-      <c r="B483" s="5" t="s">
-        <v>868</v>
+      <c r="B483" s="4" t="s">
+        <v>993</v>
       </c>
       <c r="C483" s="4" t="s">
-        <v>869</v>
+        <v>990</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A484" s="19">
         <v>2023</v>
       </c>
-      <c r="B484" s="4" t="s">
-        <v>1088</v>
+      <c r="B484" s="5" t="s">
+        <v>868</v>
       </c>
       <c r="C484" s="4" t="s">
-        <v>1110</v>
+        <v>869</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.2">
@@ -9230,10 +9230,10 @@
         <v>2023</v>
       </c>
       <c r="B485" s="4" t="s">
-        <v>973</v>
+        <v>1088</v>
       </c>
       <c r="C485" s="4" t="s">
-        <v>969</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.2">
@@ -9241,10 +9241,10 @@
         <v>2023</v>
       </c>
       <c r="B486" s="4" t="s">
-        <v>1086</v>
+        <v>973</v>
       </c>
       <c r="C486" s="4" t="s">
-        <v>1087</v>
+        <v>969</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.2">
@@ -9252,10 +9252,10 @@
         <v>2023</v>
       </c>
       <c r="B487" s="4" t="s">
-        <v>1035</v>
+        <v>1086</v>
       </c>
       <c r="C487" s="4" t="s">
-        <v>1036</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.2">
@@ -9263,10 +9263,10 @@
         <v>2023</v>
       </c>
       <c r="B488" s="4" t="s">
-        <v>1081</v>
+        <v>1035</v>
       </c>
       <c r="C488" s="4" t="s">
-        <v>1082</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.2">
@@ -9274,10 +9274,10 @@
         <v>2023</v>
       </c>
       <c r="B489" s="4" t="s">
-        <v>989</v>
+        <v>1081</v>
       </c>
       <c r="C489" s="4" t="s">
-        <v>988</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.2">
@@ -9285,10 +9285,10 @@
         <v>2023</v>
       </c>
       <c r="B490" s="4" t="s">
-        <v>1090</v>
+        <v>989</v>
       </c>
       <c r="C490" s="4" t="s">
-        <v>1089</v>
+        <v>988</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.2">
@@ -9296,10 +9296,10 @@
         <v>2023</v>
       </c>
       <c r="B491" s="4" t="s">
-        <v>1010</v>
+        <v>1090</v>
       </c>
       <c r="C491" s="4" t="s">
-        <v>1011</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.2">
@@ -9307,10 +9307,10 @@
         <v>2023</v>
       </c>
       <c r="B492" s="4" t="s">
-        <v>972</v>
+        <v>1010</v>
       </c>
       <c r="C492" s="4" t="s">
-        <v>967</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.2">
@@ -9318,10 +9318,10 @@
         <v>2023</v>
       </c>
       <c r="B493" s="4" t="s">
-        <v>1041</v>
+        <v>972</v>
       </c>
       <c r="C493" s="4" t="s">
-        <v>1040</v>
+        <v>967</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.2">
@@ -9329,10 +9329,10 @@
         <v>2023</v>
       </c>
       <c r="B494" s="4" t="s">
-        <v>1008</v>
-      </c>
-      <c r="C494" s="13" t="s">
-        <v>1009</v>
+        <v>1041</v>
+      </c>
+      <c r="C494" s="4" t="s">
+        <v>1040</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.2">
@@ -9340,10 +9340,10 @@
         <v>2023</v>
       </c>
       <c r="B495" s="4" t="s">
-        <v>1092</v>
-      </c>
-      <c r="C495" s="4" t="s">
-        <v>1091</v>
+        <v>1008</v>
+      </c>
+      <c r="C495" s="13" t="s">
+        <v>1009</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.2">
@@ -9351,32 +9351,32 @@
         <v>2023</v>
       </c>
       <c r="B496" s="4" t="s">
-        <v>1033</v>
+        <v>1092</v>
       </c>
       <c r="C496" s="4" t="s">
-        <v>1034</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A497" s="19">
         <v>2023</v>
       </c>
-      <c r="B497" s="5" t="s">
-        <v>861</v>
+      <c r="B497" s="4" t="s">
+        <v>1033</v>
       </c>
       <c r="C497" s="4" t="s">
-        <v>862</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A498" s="19">
         <v>2023</v>
       </c>
-      <c r="B498" s="4" t="s">
-        <v>1046</v>
+      <c r="B498" s="5" t="s">
+        <v>861</v>
       </c>
       <c r="C498" s="4" t="s">
-        <v>1047</v>
+        <v>862</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.2">
@@ -9384,10 +9384,10 @@
         <v>2023</v>
       </c>
       <c r="B499" s="4" t="s">
-        <v>1108</v>
+        <v>1046</v>
       </c>
       <c r="C499" s="4" t="s">
-        <v>1109</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.2">
@@ -9395,10 +9395,10 @@
         <v>2023</v>
       </c>
       <c r="B500" s="4" t="s">
-        <v>997</v>
+        <v>1108</v>
       </c>
       <c r="C500" s="4" t="s">
-        <v>998</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.2">
@@ -9406,21 +9406,21 @@
         <v>2023</v>
       </c>
       <c r="B501" s="4" t="s">
+        <v>997</v>
+      </c>
+      <c r="C501" s="4" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A502" s="19">
+        <v>2023</v>
+      </c>
+      <c r="B502" s="4" t="s">
         <v>1068</v>
       </c>
-      <c r="C501" s="4" t="s">
+      <c r="C502" s="4" t="s">
         <v>1063</v>
-      </c>
-    </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A502" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B502" s="4" t="s">
-        <v>1013</v>
-      </c>
-      <c r="C502" s="4" t="s">
-        <v>1012</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.2">
@@ -9428,10 +9428,10 @@
         <v>0</v>
       </c>
       <c r="B503" s="4" t="s">
-        <v>1079</v>
+        <v>1013</v>
       </c>
       <c r="C503" s="4" t="s">
-        <v>1067</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.2">
@@ -9439,10 +9439,10 @@
         <v>0</v>
       </c>
       <c r="B504" s="4" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="C504" s="4" t="s">
-        <v>1084</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.2">
@@ -9450,10 +9450,10 @@
         <v>0</v>
       </c>
       <c r="B505" s="4" t="s">
-        <v>1080</v>
+        <v>1085</v>
       </c>
       <c r="C505" s="4" t="s">
-        <v>1075</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.2">
@@ -9461,10 +9461,10 @@
         <v>0</v>
       </c>
       <c r="B506" s="4" t="s">
-        <v>1106</v>
+        <v>1080</v>
       </c>
       <c r="C506" s="4" t="s">
-        <v>1107</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.2">

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A1D907C-E8AA-344D-8124-D1E94631082E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA1253AA-38BE-BE41-8D8A-5DDC75C5573D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="500" windowWidth="27900" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="1111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="1119">
   <si>
     <t>Aceito</t>
   </si>
@@ -3235,9 +3235,6 @@
     <t>Prevalence of non-steroidal anti-inflammatory drugs prescribed osteoarthritis: systematic review and meta-analysis of observational studies</t>
   </si>
   <si>
-    <t>Interferência da dor, sintomas do tipo neuropático, intensidade da dor e sintomas de sensibilização central afetam negativamente a capacidade funcional dos indivíduos após a febre Chikungunya</t>
-  </si>
-  <si>
     <t>Ventilation dynamics using a portable device coupled to the six-minute walk test in people with long-COVID syndrome: A preliminary study</t>
   </si>
   <si>
@@ -3380,6 +3377,33 @@
   </si>
   <si>
     <t>Minimal-Resource Home Exercise Program Improves Activities of Daily Living, Perceived Health Status, and Shortness of Breath in Individuals with COPD Stages GOLD II to IV</t>
+  </si>
+  <si>
+    <t>10.5935/2595-0118.20230032-en</t>
+  </si>
+  <si>
+    <t>Pain interference, neuropathic-like symptoms, pain intensity, and symptoms of central sensitization negatively impact individual’s disability after Chikungunya fever: cross-sectional study</t>
+  </si>
+  <si>
+    <t>10.1016/j.clinbiomech.2023.106134</t>
+  </si>
+  <si>
+    <t>Reply to letter to the editor: “Why 43.5% of Brazilian women with systemic sclerosis have an abnormal 6-min walk distance? The implication of parity”</t>
+  </si>
+  <si>
+    <t>10.1183/13993003.congress-2023.PA2682</t>
+  </si>
+  <si>
+    <t>Dynamic hyperinflation and ventilatory reserve in long COVID: a cross-sectional study</t>
+  </si>
+  <si>
+    <t>Prediction models for physical function in COVID-19 survivors</t>
+  </si>
+  <si>
+    <t>10.1016/j.bbi.2023.10.020</t>
+  </si>
+  <si>
+    <t>Cognitive, behavioral, neuroimaging and inflammatory biomarkers after hos‐ pitalization for COVID-19 in Brazil</t>
   </si>
 </sst>
 </file>
@@ -3557,7 +3581,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3895,13 +3929,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I511"/>
+  <dimension ref="A1:I513"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B474" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B477" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A511" sqref="A511"/>
+      <selection pane="bottomRight" activeCell="A513" sqref="A513"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4326,7 +4360,7 @@
         <v>1037</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -9001,10 +9035,10 @@
         <v>2023</v>
       </c>
       <c r="B464" s="4" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C464" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.2">
@@ -9012,10 +9046,10 @@
         <v>2023</v>
       </c>
       <c r="B465" s="4" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C465" s="4" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.2">
@@ -9045,10 +9079,10 @@
         <v>2023</v>
       </c>
       <c r="B468" s="4" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C468" s="4" t="s">
         <v>1076</v>
-      </c>
-      <c r="C468" s="4" t="s">
-        <v>1077</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.2">
@@ -9067,10 +9101,10 @@
         <v>2023</v>
       </c>
       <c r="B470" s="4" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="C470" s="4" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.2">
@@ -9078,10 +9112,10 @@
         <v>2023</v>
       </c>
       <c r="B471" s="4" t="s">
-        <v>1099</v>
+        <v>1078</v>
       </c>
       <c r="C471" s="4" t="s">
-        <v>1100</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.2">
@@ -9089,30 +9123,30 @@
         <v>2023</v>
       </c>
       <c r="B472" s="4" t="s">
-        <v>992</v>
+        <v>1098</v>
       </c>
       <c r="C472" s="4" t="s">
-        <v>991</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A473" s="19">
         <v>2023</v>
       </c>
-      <c r="B473" s="5"/>
+      <c r="B473" s="4" t="s">
+        <v>992</v>
+      </c>
       <c r="C473" s="6" t="s">
-        <v>987</v>
+        <v>991</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A474" s="19">
         <v>2023</v>
       </c>
-      <c r="B474" s="4" t="s">
-        <v>1052</v>
-      </c>
+      <c r="B474" s="5"/>
       <c r="C474" s="4" t="s">
-        <v>1053</v>
+        <v>987</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.2">
@@ -9120,10 +9154,10 @@
         <v>2023</v>
       </c>
       <c r="B475" s="4" t="s">
-        <v>1018</v>
+        <v>1052</v>
       </c>
       <c r="C475" s="4" t="s">
-        <v>1007</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.2">
@@ -9131,10 +9165,10 @@
         <v>2023</v>
       </c>
       <c r="B476" s="4" t="s">
-        <v>1105</v>
+        <v>1018</v>
       </c>
       <c r="C476" s="4" t="s">
-        <v>1104</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.2">
@@ -9142,10 +9176,10 @@
         <v>2023</v>
       </c>
       <c r="B477" s="4" t="s">
-        <v>1101</v>
+        <v>1104</v>
       </c>
       <c r="C477" s="4" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.2">
@@ -9153,10 +9187,10 @@
         <v>2023</v>
       </c>
       <c r="B478" s="4" t="s">
-        <v>1066</v>
+        <v>1100</v>
       </c>
       <c r="C478" s="4" t="s">
-        <v>1065</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.2">
@@ -9164,43 +9198,43 @@
         <v>2023</v>
       </c>
       <c r="B479" s="4" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="C479" s="4" t="s">
-        <v>1015</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A480" s="19">
         <v>2023</v>
       </c>
-      <c r="B480" s="5" t="s">
+      <c r="B480" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C480" s="4" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A481" s="19">
+        <v>2023</v>
+      </c>
+      <c r="B481" s="5" t="s">
         <v>866</v>
       </c>
-      <c r="C480" s="4" t="s">
+      <c r="C481" s="4" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A481" s="21">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A482" s="21">
         <v>2023</v>
       </c>
-      <c r="B481" s="4" t="s">
+      <c r="B482" s="4" t="s">
         <v>966</v>
       </c>
-      <c r="C481" s="4" t="s">
+      <c r="C482" s="4" t="s">
         <v>865</v>
-      </c>
-    </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A482" s="19">
-        <v>2023</v>
-      </c>
-      <c r="B482" s="4" t="s">
-        <v>1106</v>
-      </c>
-      <c r="C482" s="4" t="s">
-        <v>1107</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.2">
@@ -9208,32 +9242,32 @@
         <v>2023</v>
       </c>
       <c r="B483" s="4" t="s">
-        <v>993</v>
+        <v>1105</v>
       </c>
       <c r="C483" s="4" t="s">
-        <v>990</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A484" s="19">
         <v>2023</v>
       </c>
-      <c r="B484" s="5" t="s">
-        <v>868</v>
+      <c r="B484" s="4" t="s">
+        <v>993</v>
       </c>
       <c r="C484" s="4" t="s">
-        <v>869</v>
+        <v>990</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A485" s="19">
         <v>2023</v>
       </c>
-      <c r="B485" s="4" t="s">
-        <v>1088</v>
+      <c r="B485" s="5" t="s">
+        <v>868</v>
       </c>
       <c r="C485" s="4" t="s">
-        <v>1110</v>
+        <v>869</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.2">
@@ -9241,10 +9275,10 @@
         <v>2023</v>
       </c>
       <c r="B486" s="4" t="s">
-        <v>973</v>
+        <v>1087</v>
       </c>
       <c r="C486" s="4" t="s">
-        <v>969</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.2">
@@ -9252,10 +9286,10 @@
         <v>2023</v>
       </c>
       <c r="B487" s="4" t="s">
-        <v>1086</v>
+        <v>973</v>
       </c>
       <c r="C487" s="4" t="s">
-        <v>1087</v>
+        <v>969</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.2">
@@ -9263,10 +9297,10 @@
         <v>2023</v>
       </c>
       <c r="B488" s="4" t="s">
-        <v>1035</v>
+        <v>1069</v>
       </c>
       <c r="C488" s="4" t="s">
-        <v>1036</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.2">
@@ -9274,10 +9308,10 @@
         <v>2023</v>
       </c>
       <c r="B489" s="4" t="s">
-        <v>1081</v>
+        <v>1085</v>
       </c>
       <c r="C489" s="4" t="s">
-        <v>1082</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.2">
@@ -9285,10 +9319,10 @@
         <v>2023</v>
       </c>
       <c r="B490" s="4" t="s">
-        <v>989</v>
+        <v>1035</v>
       </c>
       <c r="C490" s="4" t="s">
-        <v>988</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.2">
@@ -9296,10 +9330,10 @@
         <v>2023</v>
       </c>
       <c r="B491" s="4" t="s">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="C491" s="4" t="s">
-        <v>1089</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.2">
@@ -9307,10 +9341,10 @@
         <v>2023</v>
       </c>
       <c r="B492" s="4" t="s">
-        <v>1010</v>
+        <v>1110</v>
       </c>
       <c r="C492" s="4" t="s">
-        <v>1011</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.2">
@@ -9318,10 +9352,10 @@
         <v>2023</v>
       </c>
       <c r="B493" s="4" t="s">
-        <v>972</v>
+        <v>989</v>
       </c>
       <c r="C493" s="4" t="s">
-        <v>967</v>
+        <v>988</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.2">
@@ -9329,10 +9363,10 @@
         <v>2023</v>
       </c>
       <c r="B494" s="4" t="s">
-        <v>1041</v>
+        <v>1089</v>
       </c>
       <c r="C494" s="4" t="s">
-        <v>1040</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.2">
@@ -9340,10 +9374,10 @@
         <v>2023</v>
       </c>
       <c r="B495" s="4" t="s">
-        <v>1008</v>
-      </c>
-      <c r="C495" s="13" t="s">
-        <v>1009</v>
+        <v>1010</v>
+      </c>
+      <c r="C495" s="4" t="s">
+        <v>1011</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.2">
@@ -9351,10 +9385,10 @@
         <v>2023</v>
       </c>
       <c r="B496" s="4" t="s">
-        <v>1092</v>
+        <v>972</v>
       </c>
       <c r="C496" s="4" t="s">
-        <v>1091</v>
+        <v>967</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.2">
@@ -9362,21 +9396,21 @@
         <v>2023</v>
       </c>
       <c r="B497" s="4" t="s">
-        <v>1033</v>
+        <v>1041</v>
       </c>
       <c r="C497" s="4" t="s">
-        <v>1034</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A498" s="19">
         <v>2023</v>
       </c>
-      <c r="B498" s="5" t="s">
-        <v>861</v>
-      </c>
-      <c r="C498" s="4" t="s">
-        <v>862</v>
+      <c r="B498" s="4" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C498" s="13" t="s">
+        <v>1009</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.2">
@@ -9384,10 +9418,10 @@
         <v>2023</v>
       </c>
       <c r="B499" s="4" t="s">
-        <v>1046</v>
+        <v>1060</v>
       </c>
       <c r="C499" s="4" t="s">
-        <v>1047</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.2">
@@ -9395,10 +9429,10 @@
         <v>2023</v>
       </c>
       <c r="B500" s="4" t="s">
-        <v>1108</v>
+        <v>1091</v>
       </c>
       <c r="C500" s="4" t="s">
-        <v>1109</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.2">
@@ -9406,73 +9440,76 @@
         <v>2023</v>
       </c>
       <c r="B501" s="4" t="s">
-        <v>997</v>
+        <v>1033</v>
       </c>
       <c r="C501" s="4" t="s">
-        <v>998</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A502" s="19">
         <v>2023</v>
       </c>
-      <c r="B502" s="4" t="s">
-        <v>1068</v>
+      <c r="B502" s="5" t="s">
+        <v>861</v>
       </c>
       <c r="C502" s="4" t="s">
-        <v>1063</v>
+        <v>862</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A503" s="19" t="s">
-        <v>0</v>
+      <c r="A503" s="19">
+        <v>2023</v>
       </c>
       <c r="B503" s="4" t="s">
-        <v>1013</v>
+        <v>1046</v>
       </c>
       <c r="C503" s="4" t="s">
-        <v>1012</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A504" s="19" t="s">
-        <v>0</v>
+      <c r="A504" s="19">
+        <v>2023</v>
       </c>
       <c r="B504" s="4" t="s">
-        <v>1079</v>
+        <v>1107</v>
       </c>
       <c r="C504" s="4" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A505" s="19">
+        <v>2023</v>
+      </c>
+      <c r="B505" s="4" t="s">
+        <v>997</v>
+      </c>
+      <c r="C505" s="4" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A506" s="19">
+        <v>2023</v>
+      </c>
+      <c r="B506" s="4" t="s">
         <v>1067</v>
       </c>
-    </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A505" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B505" s="4" t="s">
-        <v>1085</v>
-      </c>
-      <c r="C505" s="4" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A506" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B506" s="4" t="s">
-        <v>1080</v>
-      </c>
       <c r="C506" s="4" t="s">
-        <v>1075</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A507" s="19" t="s">
         <v>0</v>
       </c>
+      <c r="B507" s="4" t="s">
+        <v>1013</v>
+      </c>
       <c r="C507" s="4" t="s">
-        <v>1062</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.2">
@@ -9480,10 +9517,10 @@
         <v>0</v>
       </c>
       <c r="B508" s="4" t="s">
-        <v>1070</v>
+        <v>1084</v>
       </c>
       <c r="C508" s="4" t="s">
-        <v>1071</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.2">
@@ -9491,10 +9528,10 @@
         <v>0</v>
       </c>
       <c r="B509" s="4" t="s">
-        <v>1060</v>
+        <v>1079</v>
       </c>
       <c r="C509" s="4" t="s">
-        <v>1061</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.2">
@@ -9517,6 +9554,25 @@
       </c>
       <c r="C511" s="4" t="s">
         <v>1056</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A512" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C512" s="4" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A513" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B513" s="4" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C513" s="4" t="s">
+        <v>1118</v>
       </c>
     </row>
   </sheetData>
@@ -9525,10 +9581,10 @@
     <sortCondition ref="C2:C511"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="Submetido">
+    <cfRule type="containsText" dxfId="12" priority="9" operator="containsText" text="Submetido">
       <formula>NOT(ISERROR(SEARCH(("Submetido"),(A1))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="Aceito">
+    <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="Aceito">
       <formula>NOT(ISERROR(SEARCH(("Aceito"),(A1))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="101">
@@ -9541,7 +9597,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="9" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="7"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="B449" r:id="rId1" xr:uid="{9BCE4324-8A77-884E-80ED-4C3988C2A1D3}"/>
@@ -9553,13 +9609,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9889,13 +9945,24 @@
         <v>977</v>
       </c>
     </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>1113</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C29">
     <sortCondition ref="A2:A29"/>
     <sortCondition ref="C2:C29"/>
   </sortState>
-  <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="Aceito">
+  <conditionalFormatting sqref="A1:A30 A32:A1048576">
+    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="Aceito">
       <formula>NOT(ISERROR(SEARCH(("Aceito"),(A1))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="11">
@@ -9907,11 +9974,11 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
+  <conditionalFormatting sqref="B1:B30 B32:B1048576">
+    <cfRule type="duplicateValues" dxfId="8" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
-    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="55" orientation="landscape"/>
@@ -10638,7 +10705,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="Aceito">
+    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="Aceito">
       <formula>NOT(ISERROR(SEARCH(("Aceito"),(A1))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="7">
@@ -10651,7 +10718,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape"/>
@@ -11712,7 +11779,7 @@
     <sortCondition ref="C2:C1000"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="Aceito">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Aceito">
       <formula>NOT(ISERROR(SEARCH(("Aceito"),(A1))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="3">
@@ -11725,7 +11792,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="55" orientation="landscape"/>
@@ -11740,7 +11807,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A30" sqref="A30"/>
+      <selection pane="bottomRight" activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11793,7 +11860,7 @@
         <v>170</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -12043,10 +12110,10 @@
         <v>2023</v>
       </c>
       <c r="B27" s="5" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>1094</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>1095</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -12054,10 +12121,10 @@
         <v>2023</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -12065,10 +12132,10 @@
         <v>2023</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -12076,14 +12143,22 @@
         <v>2023</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B31" s="5"/>
+      <c r="A31" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>1115</v>
+      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B32" s="5"/>
@@ -12108,11 +12183,8 @@
     <sortCondition ref="A2:A26"/>
     <sortCondition ref="C2:C26"/>
   </sortState>
-  <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="Aceito">
-      <formula>NOT(ISERROR(SEARCH(("Aceito"),(A1))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="6">
+  <conditionalFormatting sqref="A1:A30 A32:A1048576">
+    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -12121,8 +12193,26 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Aceito">
+      <formula>NOT(ISERROR(SEARCH(("Aceito"),(A1))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A31">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF366092"/>
+        <color rgb="FFB8CCE4"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B30 B32:B1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B31">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="55" orientation="landscape"/>

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA1253AA-38BE-BE41-8D8A-5DDC75C5573D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53BAFA0C-548D-A84F-836B-0D2793103A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="500" windowWidth="27900" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="1119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="1121">
   <si>
     <t>Aceito</t>
   </si>
@@ -3404,6 +3404,12 @@
   </si>
   <si>
     <t>Cognitive, behavioral, neuroimaging and inflammatory biomarkers after hos‐ pitalization for COVID-19 in Brazil</t>
+  </si>
+  <si>
+    <t>10.1016/j.jbmt.2023.11.002</t>
+  </si>
+  <si>
+    <t>Falta de conhecimento sobre os fatores de risco não ocupacionais da dor lombar entre profissionais de saúde ocupacional brasileiros: um estudo observacional transversal</t>
   </si>
 </sst>
 </file>
@@ -3929,13 +3935,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I513"/>
+  <dimension ref="A1:I514"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B477" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B478" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A513" sqref="A513"/>
+      <selection pane="bottomRight" activeCell="A514" sqref="A514"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9560,6 +9566,9 @@
       <c r="A512" s="19" t="s">
         <v>0</v>
       </c>
+      <c r="B512" s="4" t="s">
+        <v>1119</v>
+      </c>
       <c r="C512" s="4" t="s">
         <v>1116</v>
       </c>
@@ -9573,6 +9582,14 @@
       </c>
       <c r="C513" s="4" t="s">
         <v>1118</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A514" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C514" s="4" t="s">
+        <v>1120</v>
       </c>
     </row>
   </sheetData>

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53BAFA0C-548D-A84F-836B-0D2793103A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB89BA4-C28B-DF4F-B157-FF4B9A5FDC1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="500" windowWidth="27900" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="1121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="1121">
   <si>
     <t>Aceito</t>
   </si>
@@ -3938,7 +3938,7 @@
   <dimension ref="A1:I514"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B478" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B477" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A514" sqref="A514"/>
@@ -9508,14 +9508,14 @@
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A507" s="19" t="s">
-        <v>0</v>
+      <c r="A507" s="19">
+        <v>2024</v>
       </c>
       <c r="B507" s="4" t="s">
-        <v>1013</v>
+        <v>1119</v>
       </c>
       <c r="C507" s="4" t="s">
-        <v>1012</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.2">
@@ -9523,10 +9523,10 @@
         <v>0</v>
       </c>
       <c r="B508" s="4" t="s">
-        <v>1084</v>
+        <v>1117</v>
       </c>
       <c r="C508" s="4" t="s">
-        <v>1083</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.2">
@@ -9534,10 +9534,10 @@
         <v>0</v>
       </c>
       <c r="B509" s="4" t="s">
-        <v>1079</v>
+        <v>1013</v>
       </c>
       <c r="C509" s="4" t="s">
-        <v>1074</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.2">
@@ -9545,21 +9545,18 @@
         <v>0</v>
       </c>
       <c r="B510" s="4" t="s">
-        <v>1043</v>
+        <v>1084</v>
       </c>
       <c r="C510" s="4" t="s">
-        <v>1042</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A511" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B511" s="4" t="s">
-        <v>1057</v>
-      </c>
       <c r="C511" s="4" t="s">
-        <v>1056</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.2">
@@ -9567,10 +9564,10 @@
         <v>0</v>
       </c>
       <c r="B512" s="4" t="s">
-        <v>1119</v>
+        <v>1079</v>
       </c>
       <c r="C512" s="4" t="s">
-        <v>1116</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.2">
@@ -9578,24 +9575,27 @@
         <v>0</v>
       </c>
       <c r="B513" s="4" t="s">
-        <v>1117</v>
+        <v>1043</v>
       </c>
       <c r="C513" s="4" t="s">
-        <v>1118</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A514" s="19" t="s">
         <v>0</v>
       </c>
+      <c r="B514" s="4" t="s">
+        <v>1057</v>
+      </c>
       <c r="C514" s="4" t="s">
-        <v>1120</v>
+        <v>1056</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C511">
-    <sortCondition ref="A2:A511"/>
-    <sortCondition ref="C2:C511"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C514">
+    <sortCondition ref="A2:A514"/>
+    <sortCondition ref="C2:C514"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="containsText" dxfId="12" priority="9" operator="containsText" text="Submetido">

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB89BA4-C28B-DF4F-B157-FF4B9A5FDC1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{313FEA0A-4113-9145-9196-3E00F3EBE4A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="500" windowWidth="27900" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="1121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="1122">
   <si>
     <t>Aceito</t>
   </si>
@@ -3410,6 +3410,9 @@
   </si>
   <si>
     <t>Falta de conhecimento sobre os fatores de risco não ocupacionais da dor lombar entre profissionais de saúde ocupacional brasileiros: um estudo observacional transversal</t>
+  </si>
+  <si>
+    <t>Effects of transcutaneous electrical diaphragmatic stimulation in critically ill elderly patients: A randomized controlled trial</t>
   </si>
 </sst>
 </file>
@@ -3935,13 +3938,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I514"/>
+  <dimension ref="A1:I515"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B477" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B479" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A514" sqref="A514"/>
+      <selection pane="bottomRight" activeCell="A515" sqref="A515"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9590,6 +9593,14 @@
       </c>
       <c r="C514" s="4" t="s">
         <v>1056</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A515" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C515" s="4" t="s">
+        <v>1121</v>
       </c>
     </row>
   </sheetData>

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{313FEA0A-4113-9145-9196-3E00F3EBE4A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DADF8A4-A188-CE4C-90C2-619CC1D74C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="500" windowWidth="27900" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="1122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="1124">
   <si>
     <t>Aceito</t>
   </si>
@@ -3413,6 +3413,12 @@
   </si>
   <si>
     <t>Effects of transcutaneous electrical diaphragmatic stimulation in critically ill elderly patients: A randomized controlled trial</t>
+  </si>
+  <si>
+    <t>10.46979/rbn.v59i3.61721</t>
+  </si>
+  <si>
+    <t>Tratamento manipulativo osteopático em paciente com síndrome da pessoa rígida e miastenia gravis: relato de caso</t>
   </si>
 </sst>
 </file>
@@ -3938,13 +3944,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I515"/>
+  <dimension ref="A1:I516"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B479" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A515" sqref="A515"/>
+      <selection pane="bottomRight" activeCell="A516" sqref="A516"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9504,26 +9510,26 @@
         <v>2023</v>
       </c>
       <c r="B506" s="4" t="s">
-        <v>1067</v>
+        <v>1122</v>
       </c>
       <c r="C506" s="4" t="s">
-        <v>1062</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A507" s="19">
+        <v>2023</v>
+      </c>
+      <c r="B507" s="4" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C507" s="4" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A508" s="19">
         <v>2024</v>
-      </c>
-      <c r="B507" s="4" t="s">
-        <v>1119</v>
-      </c>
-      <c r="C507" s="4" t="s">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A508" s="19" t="s">
-        <v>0</v>
       </c>
       <c r="B508" s="4" t="s">
         <v>1117</v>
@@ -9533,14 +9539,14 @@
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A509" s="19" t="s">
-        <v>0</v>
+      <c r="A509" s="19">
+        <v>2024</v>
       </c>
       <c r="B509" s="4" t="s">
-        <v>1013</v>
+        <v>1119</v>
       </c>
       <c r="C509" s="4" t="s">
-        <v>1012</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.2">
@@ -9548,40 +9554,37 @@
         <v>0</v>
       </c>
       <c r="B510" s="4" t="s">
-        <v>1084</v>
+        <v>1013</v>
       </c>
       <c r="C510" s="4" t="s">
-        <v>1083</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A511" s="19" t="s">
         <v>0</v>
       </c>
+      <c r="B511" s="4" t="s">
+        <v>1084</v>
+      </c>
       <c r="C511" s="4" t="s">
-        <v>1120</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A512" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B512" s="4" t="s">
-        <v>1079</v>
-      </c>
       <c r="C512" s="4" t="s">
-        <v>1074</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A513" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B513" s="4" t="s">
-        <v>1043</v>
-      </c>
       <c r="C513" s="4" t="s">
-        <v>1042</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.2">
@@ -9589,24 +9592,38 @@
         <v>0</v>
       </c>
       <c r="B514" s="4" t="s">
-        <v>1057</v>
+        <v>1079</v>
       </c>
       <c r="C514" s="4" t="s">
-        <v>1056</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A515" s="19" t="s">
         <v>0</v>
       </c>
+      <c r="B515" s="4" t="s">
+        <v>1043</v>
+      </c>
       <c r="C515" s="4" t="s">
-        <v>1121</v>
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A516" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B516" s="4" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C516" s="4" t="s">
+        <v>1056</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C514">
-    <sortCondition ref="A2:A514"/>
-    <sortCondition ref="C2:C514"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C516">
+    <sortCondition ref="A2:A516"/>
+    <sortCondition ref="C2:C516"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="containsText" dxfId="12" priority="9" operator="containsText" text="Submetido">

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DADF8A4-A188-CE4C-90C2-619CC1D74C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286BC8BE-6EDD-1C4A-B09B-85F5BAF17326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="500" windowWidth="27900" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="1124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="1127">
   <si>
     <t>Aceito</t>
   </si>
@@ -3419,6 +3419,15 @@
   </si>
   <si>
     <t>Tratamento manipulativo osteopático em paciente com síndrome da pessoa rígida e miastenia gravis: relato de caso</t>
+  </si>
+  <si>
+    <t>10.1080/09593985.2023.2289053</t>
+  </si>
+  <si>
+    <t>Análise de aptidão física em praticantes de treinamento de força e fitness funcional</t>
+  </si>
+  <si>
+    <t>Long-term assssment of functional capacity, muscle function, lung function, and quality of life in survivors of ventilator-assocated pneumonia</t>
   </si>
 </sst>
 </file>
@@ -3944,13 +3953,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I516"/>
+  <dimension ref="A1:I518"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B479" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C482" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A516" sqref="A516"/>
+      <selection pane="bottomRight" activeCell="C518" sqref="C518"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9575,6 +9584,9 @@
       <c r="A512" s="19" t="s">
         <v>0</v>
       </c>
+      <c r="B512" s="4" t="s">
+        <v>1124</v>
+      </c>
       <c r="C512" s="4" t="s">
         <v>1121</v>
       </c>
@@ -9618,6 +9630,22 @@
       </c>
       <c r="C516" s="4" t="s">
         <v>1056</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A517" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C517" s="4" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A518" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C518" s="4" t="s">
+        <v>1126</v>
       </c>
     </row>
   </sheetData>

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286BC8BE-6EDD-1C4A-B09B-85F5BAF17326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{816FEED1-EB1B-E04C-A88D-D40CECADCC48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="500" windowWidth="27900" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="1127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="1128">
   <si>
     <t>Aceito</t>
   </si>
@@ -3428,6 +3428,9 @@
   </si>
   <si>
     <t>Long-term assssment of functional capacity, muscle function, lung function, and quality of life in survivors of ventilator-assocated pneumonia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nociceptive, Neuropathic, or Nociplastic Low Back Pain? The Low Back Pain Phenotyping (BACPAP) Consortium's International &amp; Multidisciplinary Consensus Recommendations </t>
   </si>
 </sst>
 </file>
@@ -3953,13 +3956,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I518"/>
+  <dimension ref="A1:I519"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C482" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B483" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C518" sqref="C518"/>
+      <selection pane="bottomRight" activeCell="A519" sqref="A519"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9646,6 +9649,14 @@
       </c>
       <c r="C518" s="4" t="s">
         <v>1126</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A519" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C519" s="4" t="s">
+        <v>1127</v>
       </c>
     </row>
   </sheetData>

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{816FEED1-EB1B-E04C-A88D-D40CECADCC48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D588D9-43C0-FC4E-AC45-3C9FA85C832E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="500" windowWidth="27900" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="1128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="1132">
   <si>
     <t>Aceito</t>
   </si>
@@ -3431,6 +3431,18 @@
   </si>
   <si>
     <t xml:space="preserve">Nociceptive, Neuropathic, or Nociplastic Low Back Pain? The Low Back Pain Phenotyping (BACPAP) Consortium's International &amp; Multidisciplinary Consensus Recommendations </t>
+  </si>
+  <si>
+    <t>Musculoskeletal pain, mood and sports injury in wheelchair power soccer players</t>
+  </si>
+  <si>
+    <t>10.1016/j.heliyon.2023.e23431</t>
+  </si>
+  <si>
+    <t>10.1016/j.jbmt.2023.11.056</t>
+  </si>
+  <si>
+    <t>Hybrid maneuver for benign paroxysmal positional vertigo in individuals with limited neck mobility: Case series</t>
   </si>
 </sst>
 </file>
@@ -3956,13 +3968,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I519"/>
+  <dimension ref="A1:I521"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B483" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B484" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A519" sqref="A519"/>
+      <selection pane="bottomRight" activeCell="A521" sqref="A521"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9334,11 +9346,8 @@
       <c r="A489" s="19">
         <v>2023</v>
       </c>
-      <c r="B489" s="4" t="s">
-        <v>1085</v>
-      </c>
       <c r="C489" s="4" t="s">
-        <v>1086</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.2">
@@ -9346,10 +9355,10 @@
         <v>2023</v>
       </c>
       <c r="B490" s="4" t="s">
-        <v>1035</v>
+        <v>1085</v>
       </c>
       <c r="C490" s="4" t="s">
-        <v>1036</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.2">
@@ -9357,10 +9366,10 @@
         <v>2023</v>
       </c>
       <c r="B491" s="4" t="s">
-        <v>1080</v>
+        <v>1035</v>
       </c>
       <c r="C491" s="4" t="s">
-        <v>1081</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.2">
@@ -9368,10 +9377,10 @@
         <v>2023</v>
       </c>
       <c r="B492" s="4" t="s">
-        <v>1110</v>
+        <v>1080</v>
       </c>
       <c r="C492" s="4" t="s">
-        <v>1111</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.2">
@@ -9379,10 +9388,10 @@
         <v>2023</v>
       </c>
       <c r="B493" s="4" t="s">
-        <v>989</v>
+        <v>1110</v>
       </c>
       <c r="C493" s="4" t="s">
-        <v>988</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.2">
@@ -9390,10 +9399,10 @@
         <v>2023</v>
       </c>
       <c r="B494" s="4" t="s">
-        <v>1089</v>
+        <v>989</v>
       </c>
       <c r="C494" s="4" t="s">
-        <v>1088</v>
+        <v>988</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.2">
@@ -9401,10 +9410,10 @@
         <v>2023</v>
       </c>
       <c r="B495" s="4" t="s">
-        <v>1010</v>
+        <v>1089</v>
       </c>
       <c r="C495" s="4" t="s">
-        <v>1011</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.2">
@@ -9412,10 +9421,10 @@
         <v>2023</v>
       </c>
       <c r="B496" s="4" t="s">
-        <v>972</v>
+        <v>1010</v>
       </c>
       <c r="C496" s="4" t="s">
-        <v>967</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.2">
@@ -9423,10 +9432,10 @@
         <v>2023</v>
       </c>
       <c r="B497" s="4" t="s">
-        <v>1041</v>
+        <v>972</v>
       </c>
       <c r="C497" s="4" t="s">
-        <v>1040</v>
+        <v>967</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.2">
@@ -9434,10 +9443,10 @@
         <v>2023</v>
       </c>
       <c r="B498" s="4" t="s">
-        <v>1008</v>
-      </c>
-      <c r="C498" s="13" t="s">
-        <v>1009</v>
+        <v>1041</v>
+      </c>
+      <c r="C498" s="4" t="s">
+        <v>1040</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.2">
@@ -9445,10 +9454,10 @@
         <v>2023</v>
       </c>
       <c r="B499" s="4" t="s">
-        <v>1060</v>
-      </c>
-      <c r="C499" s="4" t="s">
-        <v>1061</v>
+        <v>1008</v>
+      </c>
+      <c r="C499" s="13" t="s">
+        <v>1009</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.2">
@@ -9456,10 +9465,10 @@
         <v>2023</v>
       </c>
       <c r="B500" s="4" t="s">
-        <v>1091</v>
+        <v>1060</v>
       </c>
       <c r="C500" s="4" t="s">
-        <v>1090</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.2">
@@ -9467,32 +9476,32 @@
         <v>2023</v>
       </c>
       <c r="B501" s="4" t="s">
-        <v>1033</v>
+        <v>1091</v>
       </c>
       <c r="C501" s="4" t="s">
-        <v>1034</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A502" s="19">
         <v>2023</v>
       </c>
-      <c r="B502" s="5" t="s">
-        <v>861</v>
+      <c r="B502" s="4" t="s">
+        <v>1033</v>
       </c>
       <c r="C502" s="4" t="s">
-        <v>862</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A503" s="19">
         <v>2023</v>
       </c>
-      <c r="B503" s="4" t="s">
-        <v>1046</v>
+      <c r="B503" s="5" t="s">
+        <v>861</v>
       </c>
       <c r="C503" s="4" t="s">
-        <v>1047</v>
+        <v>862</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.2">
@@ -9500,10 +9509,10 @@
         <v>2023</v>
       </c>
       <c r="B504" s="4" t="s">
-        <v>1107</v>
+        <v>1046</v>
       </c>
       <c r="C504" s="4" t="s">
-        <v>1108</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.2">
@@ -9511,10 +9520,10 @@
         <v>2023</v>
       </c>
       <c r="B505" s="4" t="s">
-        <v>997</v>
+        <v>1107</v>
       </c>
       <c r="C505" s="4" t="s">
-        <v>998</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.2">
@@ -9522,10 +9531,10 @@
         <v>2023</v>
       </c>
       <c r="B506" s="4" t="s">
-        <v>1122</v>
+        <v>997</v>
       </c>
       <c r="C506" s="4" t="s">
-        <v>1123</v>
+        <v>998</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.2">
@@ -9533,21 +9542,21 @@
         <v>2023</v>
       </c>
       <c r="B507" s="4" t="s">
-        <v>1067</v>
+        <v>1122</v>
       </c>
       <c r="C507" s="4" t="s">
-        <v>1062</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A508" s="19">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B508" s="4" t="s">
-        <v>1117</v>
+        <v>1067</v>
       </c>
       <c r="C508" s="4" t="s">
-        <v>1118</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.2">
@@ -9555,32 +9564,29 @@
         <v>2024</v>
       </c>
       <c r="B509" s="4" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C509" s="4" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A510" s="19">
+        <v>2024</v>
+      </c>
+      <c r="B510" s="4" t="s">
         <v>1119</v>
       </c>
-      <c r="C509" s="4" t="s">
+      <c r="C510" s="4" t="s">
         <v>1116</v>
-      </c>
-    </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A510" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B510" s="4" t="s">
-        <v>1013</v>
-      </c>
-      <c r="C510" s="4" t="s">
-        <v>1012</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A511" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B511" s="4" t="s">
-        <v>1084</v>
-      </c>
       <c r="C511" s="4" t="s">
-        <v>1083</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.2">
@@ -9588,18 +9594,21 @@
         <v>0</v>
       </c>
       <c r="B512" s="4" t="s">
-        <v>1124</v>
+        <v>1013</v>
       </c>
       <c r="C512" s="4" t="s">
-        <v>1121</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A513" s="19" t="s">
         <v>0</v>
       </c>
+      <c r="B513" s="4" t="s">
+        <v>1084</v>
+      </c>
       <c r="C513" s="4" t="s">
-        <v>1120</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.2">
@@ -9607,21 +9616,18 @@
         <v>0</v>
       </c>
       <c r="B514" s="4" t="s">
-        <v>1079</v>
+        <v>1124</v>
       </c>
       <c r="C514" s="4" t="s">
-        <v>1074</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A515" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B515" s="4" t="s">
-        <v>1043</v>
-      </c>
       <c r="C515" s="4" t="s">
-        <v>1042</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.2">
@@ -9629,24 +9635,30 @@
         <v>0</v>
       </c>
       <c r="B516" s="4" t="s">
-        <v>1057</v>
+        <v>1079</v>
       </c>
       <c r="C516" s="4" t="s">
-        <v>1056</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A517" s="19" t="s">
         <v>0</v>
       </c>
+      <c r="B517" s="4" t="s">
+        <v>1130</v>
+      </c>
       <c r="C517" s="4" t="s">
-        <v>1125</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A518" s="19" t="s">
         <v>0</v>
       </c>
+      <c r="B518" s="4" t="s">
+        <v>1129</v>
+      </c>
       <c r="C518" s="4" t="s">
         <v>1126</v>
       </c>
@@ -9659,10 +9671,32 @@
         <v>1127</v>
       </c>
     </row>
+    <row r="520" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A520" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B520" s="4" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C520" s="4" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A521" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B521" s="4" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C521" s="4" t="s">
+        <v>1056</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C516">
-    <sortCondition ref="A2:A516"/>
-    <sortCondition ref="C2:C516"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C521">
+    <sortCondition ref="A2:A521"/>
+    <sortCondition ref="C2:C521"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="containsText" dxfId="12" priority="9" operator="containsText" text="Submetido">

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D588D9-43C0-FC4E-AC45-3C9FA85C832E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDFD007C-B1F4-514E-96AC-9808E2337BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="500" windowWidth="27900" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="1132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="1134">
   <si>
     <t>Aceito</t>
   </si>
@@ -3443,6 +3443,12 @@
   </si>
   <si>
     <t>Hybrid maneuver for benign paroxysmal positional vertigo in individuals with limited neck mobility: Case series</t>
+  </si>
+  <si>
+    <t>Interrater agreement and reliability of a palpation method for locating C1 transverse process in the cervical spine</t>
+  </si>
+  <si>
+    <t>10.1016/j.ijosm.2023.100699</t>
   </si>
 </sst>
 </file>
@@ -3968,13 +3974,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I521"/>
+  <dimension ref="A1:I522"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B484" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B485" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A521" sqref="A521"/>
+      <selection pane="bottomRight" activeCell="A522" sqref="A522"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9657,29 +9663,29 @@
         <v>0</v>
       </c>
       <c r="B518" s="4" t="s">
-        <v>1129</v>
+        <v>1133</v>
       </c>
       <c r="C518" s="4" t="s">
-        <v>1126</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A519" s="19" t="s">
         <v>0</v>
       </c>
+      <c r="B519" s="4" t="s">
+        <v>1129</v>
+      </c>
       <c r="C519" s="4" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A520" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B520" s="4" t="s">
-        <v>1043</v>
-      </c>
       <c r="C520" s="4" t="s">
-        <v>1042</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.2">
@@ -9687,16 +9693,27 @@
         <v>0</v>
       </c>
       <c r="B521" s="4" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C521" s="4" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A522" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B522" s="4" t="s">
         <v>1057</v>
       </c>
-      <c r="C521" s="4" t="s">
+      <c r="C522" s="4" t="s">
         <v>1056</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C521">
-    <sortCondition ref="A2:A521"/>
-    <sortCondition ref="C2:C521"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C522">
+    <sortCondition ref="A2:A522"/>
+    <sortCondition ref="C2:C522"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="containsText" dxfId="12" priority="9" operator="containsText" text="Submetido">

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDFD007C-B1F4-514E-96AC-9808E2337BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1201D97B-8C54-4C40-962A-6D572A1958A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="500" windowWidth="27900" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="1134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="1135">
   <si>
     <t>Aceito</t>
   </si>
@@ -3449,6 +3449,9 @@
   </si>
   <si>
     <t>10.1016/j.ijosm.2023.100699</t>
+  </si>
+  <si>
+    <t>Effects of pulmonary rehabilitation on ventilation dynamics measured during exertion in patients with post-acute COVID-19 syndrome: a cross-sectional observational study</t>
   </si>
 </sst>
 </file>
@@ -3557,7 +3560,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3621,6 +3624,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3974,13 +3980,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I522"/>
+  <dimension ref="A1:I523"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B485" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B487" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A522" sqref="A522"/>
+      <selection pane="bottomRight" activeCell="A523" sqref="A523"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9708,6 +9714,14 @@
       </c>
       <c r="C522" s="4" t="s">
         <v>1056</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A523" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C523" s="22" t="s">
+        <v>1134</v>
       </c>
     </row>
   </sheetData>

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1201D97B-8C54-4C40-962A-6D572A1958A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BFC257A-FCAA-A744-86F5-3E36C07CA495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="500" windowWidth="27900" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="1135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="1137">
   <si>
     <t>Aceito</t>
   </si>
@@ -3452,6 +3452,12 @@
   </si>
   <si>
     <t>Effects of pulmonary rehabilitation on ventilation dynamics measured during exertion in patients with post-acute COVID-19 syndrome: a cross-sectional observational study</t>
+  </si>
+  <si>
+    <t>10.1515/sjpain-2023-0086</t>
+  </si>
+  <si>
+    <t>Are we missing the opioid consumption in low- and middle-income countries?</t>
   </si>
 </sst>
 </file>
@@ -3980,13 +3986,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I523"/>
+  <dimension ref="A1:I524"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B487" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A523" sqref="A523"/>
+      <selection pane="bottomRight" activeCell="A524" sqref="A524"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9097,32 +9103,32 @@
         <v>2023</v>
       </c>
       <c r="B465" s="4" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C465" s="4" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A466" s="19">
+        <v>2023</v>
+      </c>
+      <c r="B466" s="4" t="s">
         <v>1073</v>
       </c>
-      <c r="C465" s="4" t="s">
+      <c r="C466" s="4" t="s">
         <v>1072</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A466" s="21">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A467" s="21">
         <v>2023</v>
       </c>
-      <c r="B466" s="4" t="s">
+      <c r="B467" s="4" t="s">
         <v>994</v>
       </c>
-      <c r="C466" s="4" t="s">
+      <c r="C467" s="4" t="s">
         <v>984</v>
-      </c>
-    </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A467" s="19">
-        <v>2023</v>
-      </c>
-      <c r="B467" s="4" t="s">
-        <v>1017</v>
-      </c>
-      <c r="C467" s="4" t="s">
-        <v>1014</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.2">
@@ -9130,10 +9136,10 @@
         <v>2023</v>
       </c>
       <c r="B468" s="4" t="s">
-        <v>1075</v>
+        <v>1017</v>
       </c>
       <c r="C468" s="4" t="s">
-        <v>1076</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.2">
@@ -9141,10 +9147,10 @@
         <v>2023</v>
       </c>
       <c r="B469" s="4" t="s">
-        <v>1055</v>
+        <v>1075</v>
       </c>
       <c r="C469" s="4" t="s">
-        <v>1054</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.2">
@@ -9152,10 +9158,10 @@
         <v>2023</v>
       </c>
       <c r="B470" s="4" t="s">
-        <v>1102</v>
+        <v>1055</v>
       </c>
       <c r="C470" s="4" t="s">
-        <v>1092</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.2">
@@ -9163,10 +9169,10 @@
         <v>2023</v>
       </c>
       <c r="B471" s="4" t="s">
-        <v>1078</v>
+        <v>1102</v>
       </c>
       <c r="C471" s="4" t="s">
-        <v>1066</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.2">
@@ -9174,10 +9180,10 @@
         <v>2023</v>
       </c>
       <c r="B472" s="4" t="s">
-        <v>1098</v>
+        <v>1078</v>
       </c>
       <c r="C472" s="4" t="s">
-        <v>1099</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.2">
@@ -9185,30 +9191,30 @@
         <v>2023</v>
       </c>
       <c r="B473" s="4" t="s">
-        <v>992</v>
+        <v>1098</v>
       </c>
       <c r="C473" s="6" t="s">
-        <v>991</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A474" s="19">
         <v>2023</v>
       </c>
-      <c r="B474" s="5"/>
+      <c r="B474" s="4" t="s">
+        <v>992</v>
+      </c>
       <c r="C474" s="4" t="s">
-        <v>987</v>
+        <v>991</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A475" s="19">
         <v>2023</v>
       </c>
-      <c r="B475" s="4" t="s">
-        <v>1052</v>
-      </c>
+      <c r="B475" s="5"/>
       <c r="C475" s="4" t="s">
-        <v>1053</v>
+        <v>987</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.2">
@@ -9216,10 +9222,10 @@
         <v>2023</v>
       </c>
       <c r="B476" s="4" t="s">
-        <v>1018</v>
+        <v>1052</v>
       </c>
       <c r="C476" s="4" t="s">
-        <v>1007</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.2">
@@ -9227,10 +9233,10 @@
         <v>2023</v>
       </c>
       <c r="B477" s="4" t="s">
-        <v>1104</v>
+        <v>1018</v>
       </c>
       <c r="C477" s="4" t="s">
-        <v>1103</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.2">
@@ -9238,10 +9244,10 @@
         <v>2023</v>
       </c>
       <c r="B478" s="4" t="s">
-        <v>1100</v>
+        <v>1104</v>
       </c>
       <c r="C478" s="4" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.2">
@@ -9249,10 +9255,10 @@
         <v>2023</v>
       </c>
       <c r="B479" s="4" t="s">
-        <v>1065</v>
+        <v>1100</v>
       </c>
       <c r="C479" s="4" t="s">
-        <v>1064</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.2">
@@ -9260,43 +9266,43 @@
         <v>2023</v>
       </c>
       <c r="B480" s="4" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="C480" s="4" t="s">
-        <v>1015</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A481" s="19">
         <v>2023</v>
       </c>
-      <c r="B481" s="5" t="s">
+      <c r="B481" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C481" s="4" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A482" s="19">
+        <v>2023</v>
+      </c>
+      <c r="B482" s="5" t="s">
         <v>866</v>
       </c>
-      <c r="C481" s="4" t="s">
+      <c r="C482" s="4" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A482" s="21">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A483" s="21">
         <v>2023</v>
       </c>
-      <c r="B482" s="4" t="s">
+      <c r="B483" s="4" t="s">
         <v>966</v>
       </c>
-      <c r="C482" s="4" t="s">
+      <c r="C483" s="4" t="s">
         <v>865</v>
-      </c>
-    </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A483" s="19">
-        <v>2023</v>
-      </c>
-      <c r="B483" s="4" t="s">
-        <v>1105</v>
-      </c>
-      <c r="C483" s="4" t="s">
-        <v>1106</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.2">
@@ -9304,32 +9310,32 @@
         <v>2023</v>
       </c>
       <c r="B484" s="4" t="s">
-        <v>993</v>
+        <v>1105</v>
       </c>
       <c r="C484" s="4" t="s">
-        <v>990</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A485" s="19">
         <v>2023</v>
       </c>
-      <c r="B485" s="5" t="s">
-        <v>868</v>
+      <c r="B485" s="4" t="s">
+        <v>993</v>
       </c>
       <c r="C485" s="4" t="s">
-        <v>869</v>
+        <v>990</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A486" s="19">
         <v>2023</v>
       </c>
-      <c r="B486" s="4" t="s">
-        <v>1087</v>
+      <c r="B486" s="5" t="s">
+        <v>868</v>
       </c>
       <c r="C486" s="4" t="s">
-        <v>1109</v>
+        <v>869</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.2">
@@ -9337,10 +9343,10 @@
         <v>2023</v>
       </c>
       <c r="B487" s="4" t="s">
-        <v>973</v>
+        <v>1087</v>
       </c>
       <c r="C487" s="4" t="s">
-        <v>969</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.2">
@@ -9348,29 +9354,29 @@
         <v>2023</v>
       </c>
       <c r="B488" s="4" t="s">
-        <v>1069</v>
+        <v>973</v>
       </c>
       <c r="C488" s="4" t="s">
-        <v>1070</v>
+        <v>969</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A489" s="19">
         <v>2023</v>
       </c>
+      <c r="B489" s="4" t="s">
+        <v>1069</v>
+      </c>
       <c r="C489" s="4" t="s">
-        <v>1128</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A490" s="19">
         <v>2023</v>
       </c>
-      <c r="B490" s="4" t="s">
-        <v>1085</v>
-      </c>
       <c r="C490" s="4" t="s">
-        <v>1086</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.2">
@@ -9378,10 +9384,10 @@
         <v>2023</v>
       </c>
       <c r="B491" s="4" t="s">
-        <v>1035</v>
+        <v>1085</v>
       </c>
       <c r="C491" s="4" t="s">
-        <v>1036</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.2">
@@ -9389,10 +9395,10 @@
         <v>2023</v>
       </c>
       <c r="B492" s="4" t="s">
-        <v>1080</v>
+        <v>1035</v>
       </c>
       <c r="C492" s="4" t="s">
-        <v>1081</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.2">
@@ -9400,10 +9406,10 @@
         <v>2023</v>
       </c>
       <c r="B493" s="4" t="s">
-        <v>1110</v>
+        <v>1080</v>
       </c>
       <c r="C493" s="4" t="s">
-        <v>1111</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.2">
@@ -9411,10 +9417,10 @@
         <v>2023</v>
       </c>
       <c r="B494" s="4" t="s">
-        <v>989</v>
+        <v>1110</v>
       </c>
       <c r="C494" s="4" t="s">
-        <v>988</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.2">
@@ -9422,10 +9428,10 @@
         <v>2023</v>
       </c>
       <c r="B495" s="4" t="s">
-        <v>1089</v>
+        <v>989</v>
       </c>
       <c r="C495" s="4" t="s">
-        <v>1088</v>
+        <v>988</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.2">
@@ -9433,10 +9439,10 @@
         <v>2023</v>
       </c>
       <c r="B496" s="4" t="s">
-        <v>1010</v>
+        <v>1089</v>
       </c>
       <c r="C496" s="4" t="s">
-        <v>1011</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.2">
@@ -9444,10 +9450,10 @@
         <v>2023</v>
       </c>
       <c r="B497" s="4" t="s">
-        <v>972</v>
+        <v>1010</v>
       </c>
       <c r="C497" s="4" t="s">
-        <v>967</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.2">
@@ -9455,10 +9461,10 @@
         <v>2023</v>
       </c>
       <c r="B498" s="4" t="s">
-        <v>1041</v>
+        <v>972</v>
       </c>
       <c r="C498" s="4" t="s">
-        <v>1040</v>
+        <v>967</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.2">
@@ -9466,10 +9472,10 @@
         <v>2023</v>
       </c>
       <c r="B499" s="4" t="s">
-        <v>1008</v>
-      </c>
-      <c r="C499" s="13" t="s">
-        <v>1009</v>
+        <v>1041</v>
+      </c>
+      <c r="C499" s="4" t="s">
+        <v>1040</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.2">
@@ -9477,10 +9483,10 @@
         <v>2023</v>
       </c>
       <c r="B500" s="4" t="s">
-        <v>1060</v>
-      </c>
-      <c r="C500" s="4" t="s">
-        <v>1061</v>
+        <v>1008</v>
+      </c>
+      <c r="C500" s="13" t="s">
+        <v>1009</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.2">
@@ -9488,10 +9494,10 @@
         <v>2023</v>
       </c>
       <c r="B501" s="4" t="s">
-        <v>1091</v>
+        <v>1060</v>
       </c>
       <c r="C501" s="4" t="s">
-        <v>1090</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.2">
@@ -9499,32 +9505,32 @@
         <v>2023</v>
       </c>
       <c r="B502" s="4" t="s">
-        <v>1033</v>
+        <v>1091</v>
       </c>
       <c r="C502" s="4" t="s">
-        <v>1034</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A503" s="19">
         <v>2023</v>
       </c>
-      <c r="B503" s="5" t="s">
-        <v>861</v>
+      <c r="B503" s="4" t="s">
+        <v>1033</v>
       </c>
       <c r="C503" s="4" t="s">
-        <v>862</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A504" s="19">
         <v>2023</v>
       </c>
-      <c r="B504" s="4" t="s">
-        <v>1046</v>
+      <c r="B504" s="5" t="s">
+        <v>861</v>
       </c>
       <c r="C504" s="4" t="s">
-        <v>1047</v>
+        <v>862</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.2">
@@ -9532,10 +9538,10 @@
         <v>2023</v>
       </c>
       <c r="B505" s="4" t="s">
-        <v>1107</v>
+        <v>1046</v>
       </c>
       <c r="C505" s="4" t="s">
-        <v>1108</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.2">
@@ -9543,10 +9549,10 @@
         <v>2023</v>
       </c>
       <c r="B506" s="4" t="s">
-        <v>997</v>
+        <v>1107</v>
       </c>
       <c r="C506" s="4" t="s">
-        <v>998</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.2">
@@ -9554,10 +9560,10 @@
         <v>2023</v>
       </c>
       <c r="B507" s="4" t="s">
-        <v>1122</v>
+        <v>997</v>
       </c>
       <c r="C507" s="4" t="s">
-        <v>1123</v>
+        <v>998</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.2">
@@ -9565,21 +9571,21 @@
         <v>2023</v>
       </c>
       <c r="B508" s="4" t="s">
-        <v>1067</v>
+        <v>1122</v>
       </c>
       <c r="C508" s="4" t="s">
-        <v>1062</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A509" s="19">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B509" s="4" t="s">
-        <v>1117</v>
+        <v>1067</v>
       </c>
       <c r="C509" s="4" t="s">
-        <v>1118</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.2">
@@ -9587,40 +9593,40 @@
         <v>2024</v>
       </c>
       <c r="B510" s="4" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C510" s="4" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A511" s="19">
+        <v>2024</v>
+      </c>
+      <c r="B511" s="4" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C511" s="4" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A512" s="19">
+        <v>2024</v>
+      </c>
+      <c r="B512" s="4" t="s">
         <v>1119</v>
       </c>
-      <c r="C510" s="4" t="s">
+      <c r="C512" s="4" t="s">
         <v>1116</v>
-      </c>
-    </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A511" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C511" s="4" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A512" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B512" s="4" t="s">
-        <v>1013</v>
-      </c>
-      <c r="C512" s="4" t="s">
-        <v>1012</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A513" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B513" s="4" t="s">
-        <v>1084</v>
-      </c>
       <c r="C513" s="4" t="s">
-        <v>1083</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.2">
@@ -9628,29 +9634,29 @@
         <v>0</v>
       </c>
       <c r="B514" s="4" t="s">
-        <v>1124</v>
+        <v>1013</v>
       </c>
       <c r="C514" s="4" t="s">
-        <v>1121</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A515" s="19" t="s">
         <v>0</v>
       </c>
+      <c r="B515" s="4" t="s">
+        <v>1084</v>
+      </c>
       <c r="C515" s="4" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A516" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B516" s="4" t="s">
-        <v>1079</v>
-      </c>
-      <c r="C516" s="4" t="s">
-        <v>1074</v>
+      <c r="C516" s="22" t="s">
+        <v>1134</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.2">
@@ -9658,21 +9664,18 @@
         <v>0</v>
       </c>
       <c r="B517" s="4" t="s">
-        <v>1130</v>
+        <v>1124</v>
       </c>
       <c r="C517" s="4" t="s">
-        <v>1131</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A518" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B518" s="4" t="s">
-        <v>1133</v>
-      </c>
       <c r="C518" s="4" t="s">
-        <v>1132</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.2">
@@ -9680,18 +9683,21 @@
         <v>0</v>
       </c>
       <c r="B519" s="4" t="s">
-        <v>1129</v>
+        <v>1079</v>
       </c>
       <c r="C519" s="4" t="s">
-        <v>1126</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A520" s="19" t="s">
         <v>0</v>
       </c>
+      <c r="B520" s="4" t="s">
+        <v>1130</v>
+      </c>
       <c r="C520" s="4" t="s">
-        <v>1127</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.2">
@@ -9699,35 +9705,46 @@
         <v>0</v>
       </c>
       <c r="B521" s="4" t="s">
-        <v>1043</v>
+        <v>1133</v>
       </c>
       <c r="C521" s="4" t="s">
-        <v>1042</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A522" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B522" s="4" t="s">
-        <v>1057</v>
-      </c>
       <c r="C522" s="4" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="523" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A523" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C523" s="22" t="s">
-        <v>1134</v>
+      <c r="B523" s="4" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C523" s="4" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A524" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B524" s="4" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C524" s="4" t="s">
+        <v>1056</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C522">
-    <sortCondition ref="A2:A522"/>
-    <sortCondition ref="C2:C522"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C524">
+    <sortCondition ref="A2:A524"/>
+    <sortCondition ref="C2:C524"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="containsText" dxfId="12" priority="9" operator="containsText" text="Submetido">

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BFC257A-FCAA-A744-86F5-3E36C07CA495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C8A215-C48B-1647-AEEC-E87C02B3AFAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="500" windowWidth="27900" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="1137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="1138">
   <si>
     <t>Aceito</t>
   </si>
@@ -3458,6 +3458,9 @@
   </si>
   <si>
     <t>Are we missing the opioid consumption in low- and middle-income countries?</t>
+  </si>
+  <si>
+    <t>Pain and disability were related to Y-Balance test but not with proprioception and Single-Leg Hop Test in patients with patellofemoral pan: A cross-sectional study</t>
   </si>
 </sst>
 </file>
@@ -3986,13 +3989,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I524"/>
+  <dimension ref="A1:I525"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B487" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B489" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A524" sqref="A524"/>
+      <selection pane="bottomRight" activeCell="A525" sqref="A525"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9604,10 +9607,10 @@
         <v>2024</v>
       </c>
       <c r="B511" s="4" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="C511" s="4" t="s">
-        <v>1126</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.2">
@@ -9615,29 +9618,29 @@
         <v>2024</v>
       </c>
       <c r="B512" s="4" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C512" s="4" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A513" s="19">
+        <v>2024</v>
+      </c>
+      <c r="B513" s="4" t="s">
         <v>1119</v>
       </c>
-      <c r="C512" s="4" t="s">
+      <c r="C513" s="4" t="s">
         <v>1116</v>
-      </c>
-    </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A513" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C513" s="4" t="s">
-        <v>1125</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A514" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B514" s="4" t="s">
-        <v>1013</v>
-      </c>
       <c r="C514" s="4" t="s">
-        <v>1012</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.2">
@@ -9645,48 +9648,48 @@
         <v>0</v>
       </c>
       <c r="B515" s="4" t="s">
-        <v>1084</v>
+        <v>1013</v>
       </c>
       <c r="C515" s="4" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="516" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A516" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C516" s="22" t="s">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B516" s="4" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C516" s="4" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A517" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B517" s="4" t="s">
-        <v>1124</v>
-      </c>
-      <c r="C517" s="4" t="s">
-        <v>1121</v>
+      <c r="C517" s="22" t="s">
+        <v>1134</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A518" s="19" t="s">
         <v>0</v>
       </c>
+      <c r="B518" s="4" t="s">
+        <v>1124</v>
+      </c>
       <c r="C518" s="4" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A519" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B519" s="4" t="s">
-        <v>1079</v>
-      </c>
       <c r="C519" s="4" t="s">
-        <v>1074</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.2">
@@ -9694,10 +9697,10 @@
         <v>0</v>
       </c>
       <c r="B520" s="4" t="s">
-        <v>1130</v>
+        <v>1079</v>
       </c>
       <c r="C520" s="4" t="s">
-        <v>1131</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.2">
@@ -9739,6 +9742,14 @@
       </c>
       <c r="C524" s="4" t="s">
         <v>1056</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A525" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C525" s="4" t="s">
+        <v>1137</v>
       </c>
     </row>
   </sheetData>

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C8A215-C48B-1647-AEEC-E87C02B3AFAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B3BDBF-78E6-AE49-983C-1445A3626099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="500" windowWidth="27900" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="1138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="1140">
   <si>
     <t>Aceito</t>
   </si>
@@ -3461,6 +3461,12 @@
   </si>
   <si>
     <t>Pain and disability were related to Y-Balance test but not with proprioception and Single-Leg Hop Test in patients with patellofemoral pan: A cross-sectional study</t>
+  </si>
+  <si>
+    <t>10.1016/j.jbmt.2023.12.009</t>
+  </si>
+  <si>
+    <t>10.1123/jsr.2022-0251</t>
   </si>
 </sst>
 </file>
@@ -3989,13 +3995,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I525"/>
+  <dimension ref="A1:I526"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B489" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B493" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A525" sqref="A525"/>
+      <selection pane="bottomRight" activeCell="A526" sqref="A526"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9593,13 +9599,13 @@
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A510" s="19">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B510" s="4" t="s">
-        <v>1117</v>
+        <v>1057</v>
       </c>
       <c r="C510" s="4" t="s">
-        <v>1118</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.2">
@@ -9607,10 +9613,10 @@
         <v>2024</v>
       </c>
       <c r="B511" s="4" t="s">
-        <v>1130</v>
+        <v>1117</v>
       </c>
       <c r="C511" s="4" t="s">
-        <v>1131</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.2">
@@ -9618,10 +9624,10 @@
         <v>2024</v>
       </c>
       <c r="B512" s="4" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="C512" s="4" t="s">
-        <v>1126</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.2">
@@ -9629,48 +9635,51 @@
         <v>2024</v>
       </c>
       <c r="B513" s="4" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C513" s="4" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A514" s="19">
+        <v>2024</v>
+      </c>
+      <c r="B514" s="4" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C514" s="4" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A515" s="19">
+        <v>2024</v>
+      </c>
+      <c r="B515" s="4" t="s">
         <v>1119</v>
       </c>
-      <c r="C513" s="4" t="s">
+      <c r="C515" s="4" t="s">
         <v>1116</v>
-      </c>
-    </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A514" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C514" s="4" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A515" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B515" s="4" t="s">
-        <v>1013</v>
-      </c>
-      <c r="C515" s="4" t="s">
-        <v>1012</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A516" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B516" s="4" t="s">
-        <v>1084</v>
-      </c>
       <c r="C516" s="4" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="517" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A517" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C517" s="22" t="s">
-        <v>1134</v>
+      <c r="B517" s="4" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C517" s="4" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.2">
@@ -9678,18 +9687,18 @@
         <v>0</v>
       </c>
       <c r="B518" s="4" t="s">
-        <v>1124</v>
+        <v>1084</v>
       </c>
       <c r="C518" s="4" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A519" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C519" s="4" t="s">
-        <v>1120</v>
+      <c r="C519" s="22" t="s">
+        <v>1134</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.2">
@@ -9697,29 +9706,29 @@
         <v>0</v>
       </c>
       <c r="B520" s="4" t="s">
-        <v>1079</v>
+        <v>1124</v>
       </c>
       <c r="C520" s="4" t="s">
-        <v>1074</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A521" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B521" s="4" t="s">
-        <v>1133</v>
-      </c>
       <c r="C521" s="4" t="s">
-        <v>1132</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A522" s="19" t="s">
         <v>0</v>
       </c>
+      <c r="B522" s="4" t="s">
+        <v>1079</v>
+      </c>
       <c r="C522" s="4" t="s">
-        <v>1127</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.2">
@@ -9727,35 +9736,46 @@
         <v>0</v>
       </c>
       <c r="B523" s="4" t="s">
-        <v>1043</v>
+        <v>1139</v>
       </c>
       <c r="C523" s="4" t="s">
-        <v>1042</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A524" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B524" s="4" t="s">
-        <v>1057</v>
-      </c>
       <c r="C524" s="4" t="s">
-        <v>1056</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A525" s="19" t="s">
         <v>0</v>
       </c>
+      <c r="B525" s="4" t="s">
+        <v>1138</v>
+      </c>
       <c r="C525" s="4" t="s">
         <v>1137</v>
       </c>
     </row>
+    <row r="526" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A526" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B526" s="4" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C526" s="4" t="s">
+        <v>1042</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C524">
-    <sortCondition ref="A2:A524"/>
-    <sortCondition ref="C2:C524"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C526">
+    <sortCondition ref="A2:A526"/>
+    <sortCondition ref="C2:C526"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="containsText" dxfId="12" priority="9" operator="containsText" text="Submetido">

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B3BDBF-78E6-AE49-983C-1445A3626099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C457FB-DCFF-AA42-9B6B-0C6DC5402E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="500" windowWidth="27900" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="1140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="1141">
   <si>
     <t>Aceito</t>
   </si>
@@ -3467,6 +3467,9 @@
   </si>
   <si>
     <t>10.1123/jsr.2022-0251</t>
+  </si>
+  <si>
+    <t>Pain characterization in patients with Parkinson's disease: A systematic review</t>
   </si>
 </sst>
 </file>
@@ -3995,13 +3998,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I526"/>
+  <dimension ref="A1:I527"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B493" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A526" sqref="A526"/>
+      <selection pane="bottomRight" activeCell="A527" sqref="A527"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9770,6 +9773,14 @@
       </c>
       <c r="C526" s="4" t="s">
         <v>1042</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A527" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C527" s="4" t="s">
+        <v>1140</v>
       </c>
     </row>
   </sheetData>

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C457FB-DCFF-AA42-9B6B-0C6DC5402E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A69D77C2-6642-BB4C-9554-F571A0206244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="500" windowWidth="27900" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="1141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="1142">
   <si>
     <t>Aceito</t>
   </si>
@@ -3470,6 +3470,9 @@
   </si>
   <si>
     <t>Pain characterization in patients with Parkinson's disease: A systematic review</t>
+  </si>
+  <si>
+    <t>Different exposure times of flexion distraction technique in the L5-S1 distance and local pain of patients with chronic low back pain: a feasibility study</t>
   </si>
 </sst>
 </file>
@@ -3998,13 +4001,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I527"/>
+  <dimension ref="A1:I528"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B493" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B492" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A527" sqref="A527"/>
+      <selection pane="bottomRight" activeCell="A528" sqref="A528"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9627,10 +9630,10 @@
         <v>2024</v>
       </c>
       <c r="B512" s="4" t="s">
-        <v>1130</v>
+        <v>1084</v>
       </c>
       <c r="C512" s="4" t="s">
-        <v>1131</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.2">
@@ -9638,10 +9641,10 @@
         <v>2024</v>
       </c>
       <c r="B513" s="4" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="C513" s="4" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.2">
@@ -9649,10 +9652,10 @@
         <v>2024</v>
       </c>
       <c r="B514" s="4" t="s">
-        <v>1129</v>
+        <v>1133</v>
       </c>
       <c r="C514" s="4" t="s">
-        <v>1126</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.2">
@@ -9660,29 +9663,29 @@
         <v>2024</v>
       </c>
       <c r="B515" s="4" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C515" s="4" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A516" s="19">
+        <v>2024</v>
+      </c>
+      <c r="B516" s="4" t="s">
         <v>1119</v>
       </c>
-      <c r="C515" s="4" t="s">
+      <c r="C516" s="4" t="s">
         <v>1116</v>
-      </c>
-    </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A516" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C516" s="4" t="s">
-        <v>1125</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A517" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B517" s="4" t="s">
-        <v>1013</v>
-      </c>
       <c r="C517" s="4" t="s">
-        <v>1012</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.2">
@@ -9690,10 +9693,10 @@
         <v>0</v>
       </c>
       <c r="B518" s="4" t="s">
-        <v>1084</v>
+        <v>1013</v>
       </c>
       <c r="C518" s="4" t="s">
-        <v>1083</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="519" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -9768,25 +9771,33 @@
       <c r="A526" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B526" s="4" t="s">
-        <v>1043</v>
-      </c>
       <c r="C526" s="4" t="s">
-        <v>1042</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A527" s="19" t="s">
         <v>0</v>
       </c>
+      <c r="B527" s="4" t="s">
+        <v>1043</v>
+      </c>
       <c r="C527" s="4" t="s">
-        <v>1140</v>
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A528" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C528" s="4" t="s">
+        <v>1141</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C526">
-    <sortCondition ref="A2:A526"/>
-    <sortCondition ref="C2:C526"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C527">
+    <sortCondition ref="A2:A527"/>
+    <sortCondition ref="C2:C527"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="containsText" dxfId="12" priority="9" operator="containsText" text="Submetido">

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A69D77C2-6642-BB4C-9554-F571A0206244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28ED9E2E-4F7A-2545-B6DB-09961FA0765C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="500" windowWidth="27900" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="1142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="1146">
   <si>
     <t>Aceito</t>
   </si>
@@ -3473,6 +3473,18 @@
   </si>
   <si>
     <t>Different exposure times of flexion distraction technique in the L5-S1 distance and local pain of patients with chronic low back pain: a feasibility study</t>
+  </si>
+  <si>
+    <t>10.1097/TGR.0000000000000426</t>
+  </si>
+  <si>
+    <t>The Importance of Physical Therapy in the Evaluation of Fall Prevention Programs in Older Adults</t>
+  </si>
+  <si>
+    <t>10.1007/s11332-023-01160-x</t>
+  </si>
+  <si>
+    <t>The influence of the angiotensin-converting enzyme gene polymorphism and physical activity level on blood pressure and heart rate variability behavior</t>
   </si>
 </sst>
 </file>
@@ -4001,13 +4013,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I528"/>
+  <dimension ref="A1:I530"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B492" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B493" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A528" sqref="A528"/>
+      <selection pane="bottomRight" activeCell="A530" sqref="A530"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9681,49 +9693,49 @@
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A517" s="19" t="s">
-        <v>0</v>
+      <c r="A517" s="19">
+        <v>2024</v>
+      </c>
+      <c r="B517" s="4" t="s">
+        <v>1142</v>
       </c>
       <c r="C517" s="4" t="s">
-        <v>1125</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A518" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B518" s="4" t="s">
-        <v>1013</v>
-      </c>
       <c r="C518" s="4" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="519" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A519" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C519" s="22" t="s">
-        <v>1134</v>
+      <c r="B519" s="4" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C519" s="4" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A520" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B520" s="4" t="s">
-        <v>1124</v>
-      </c>
       <c r="C520" s="4" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A521" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C521" s="4" t="s">
-        <v>1120</v>
+      <c r="C521" s="22" t="s">
+        <v>1134</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.2">
@@ -9731,29 +9743,29 @@
         <v>0</v>
       </c>
       <c r="B522" s="4" t="s">
-        <v>1079</v>
+        <v>1124</v>
       </c>
       <c r="C522" s="4" t="s">
-        <v>1074</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A523" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B523" s="4" t="s">
-        <v>1139</v>
-      </c>
       <c r="C523" s="4" t="s">
-        <v>1128</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A524" s="19" t="s">
         <v>0</v>
       </c>
+      <c r="B524" s="4" t="s">
+        <v>1079</v>
+      </c>
       <c r="C524" s="4" t="s">
-        <v>1127</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.2">
@@ -9761,10 +9773,10 @@
         <v>0</v>
       </c>
       <c r="B525" s="4" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="C525" s="4" t="s">
-        <v>1137</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.2">
@@ -9772,7 +9784,7 @@
         <v>0</v>
       </c>
       <c r="C526" s="4" t="s">
-        <v>1140</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.2">
@@ -9780,10 +9792,10 @@
         <v>0</v>
       </c>
       <c r="B527" s="4" t="s">
-        <v>1043</v>
+        <v>1138</v>
       </c>
       <c r="C527" s="4" t="s">
-        <v>1042</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.2">
@@ -9791,13 +9803,35 @@
         <v>0</v>
       </c>
       <c r="C528" s="4" t="s">
-        <v>1141</v>
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A529" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B529" s="4" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C529" s="4" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A530" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B530" s="4" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C530" s="4" t="s">
+        <v>1145</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C527">
-    <sortCondition ref="A2:A527"/>
-    <sortCondition ref="C2:C527"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C530">
+    <sortCondition ref="A2:A530"/>
+    <sortCondition ref="C2:C530"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="containsText" dxfId="12" priority="9" operator="containsText" text="Submetido">

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28ED9E2E-4F7A-2545-B6DB-09961FA0765C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BBE64AE-90BD-A446-BA08-8AAD3E19C5D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="500" windowWidth="27900" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="1146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="1147">
   <si>
     <t>Aceito</t>
   </si>
@@ -3485,6 +3485,9 @@
   </si>
   <si>
     <t>The influence of the angiotensin-converting enzyme gene polymorphism and physical activity level on blood pressure and heart rate variability behavior</t>
+  </si>
+  <si>
+    <t>10.1016/j.ijosm.2024.100714</t>
   </si>
 </sst>
 </file>
@@ -9725,6 +9728,9 @@
     <row r="520" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A520" s="19" t="s">
         <v>0</v>
+      </c>
+      <c r="B520" s="4" t="s">
+        <v>1146</v>
       </c>
       <c r="C520" s="4" t="s">
         <v>1141</v>

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BBE64AE-90BD-A446-BA08-8AAD3E19C5D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF85A350-DB8B-2C4D-A131-5ACC77366B16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="500" windowWidth="27900" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="1147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="1151">
   <si>
     <t>Aceito</t>
   </si>
@@ -3488,6 +3488,18 @@
   </si>
   <si>
     <t>10.1016/j.ijosm.2024.100714</t>
+  </si>
+  <si>
+    <t>10.1111/papr.13352</t>
+  </si>
+  <si>
+    <t>Nociceptive, neuropathic, or nociplastic low back pain? The low back pain phenotyping (BACPAP) consortium’s international and multidisciplinary consensus recommendations</t>
+  </si>
+  <si>
+    <t>10.1016/S2665-9913(23)00324-7</t>
+  </si>
+  <si>
+    <t>10.1371/journal.pone.0296707</t>
   </si>
 </sst>
 </file>
@@ -4016,13 +4028,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I530"/>
+  <dimension ref="A1:I531"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B493" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B494" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A530" sqref="A530"/>
+      <selection pane="bottomRight" activeCell="A531" sqref="A531"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9651,15 +9663,15 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A513" s="19">
         <v>2024</v>
       </c>
       <c r="B513" s="4" t="s">
-        <v>1130</v>
-      </c>
-      <c r="C513" s="4" t="s">
-        <v>1131</v>
+        <v>1150</v>
+      </c>
+      <c r="C513" s="22" t="s">
+        <v>1134</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.2">
@@ -9667,10 +9679,10 @@
         <v>2024</v>
       </c>
       <c r="B514" s="4" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="C514" s="4" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.2">
@@ -9678,10 +9690,10 @@
         <v>2024</v>
       </c>
       <c r="B515" s="4" t="s">
-        <v>1129</v>
+        <v>1133</v>
       </c>
       <c r="C515" s="4" t="s">
-        <v>1126</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.2">
@@ -9689,10 +9701,10 @@
         <v>2024</v>
       </c>
       <c r="B516" s="4" t="s">
-        <v>1119</v>
+        <v>1129</v>
       </c>
       <c r="C516" s="4" t="s">
-        <v>1116</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.2">
@@ -9700,48 +9712,51 @@
         <v>2024</v>
       </c>
       <c r="B517" s="4" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C517" s="4" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A518" s="19">
+        <v>2024</v>
+      </c>
+      <c r="B518" s="4" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C518" s="4" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A519" s="19">
+        <v>2024</v>
+      </c>
+      <c r="B519" s="4" t="s">
         <v>1142</v>
       </c>
-      <c r="C517" s="4" t="s">
+      <c r="C519" s="4" t="s">
         <v>1143</v>
-      </c>
-    </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A518" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C518" s="4" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A519" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B519" s="4" t="s">
-        <v>1013</v>
-      </c>
-      <c r="C519" s="4" t="s">
-        <v>1012</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A520" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B520" s="4" t="s">
-        <v>1146</v>
-      </c>
       <c r="C520" s="4" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="521" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A521" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C521" s="22" t="s">
-        <v>1134</v>
+      <c r="B521" s="4" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C521" s="4" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.2">
@@ -9749,29 +9764,29 @@
         <v>0</v>
       </c>
       <c r="B522" s="4" t="s">
-        <v>1124</v>
+        <v>1146</v>
       </c>
       <c r="C522" s="4" t="s">
-        <v>1121</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A523" s="19" t="s">
         <v>0</v>
       </c>
+      <c r="B523" s="4" t="s">
+        <v>1124</v>
+      </c>
       <c r="C523" s="4" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A524" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B524" s="4" t="s">
-        <v>1079</v>
-      </c>
       <c r="C524" s="4" t="s">
-        <v>1074</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.2">
@@ -9779,37 +9794,40 @@
         <v>0</v>
       </c>
       <c r="B525" s="4" t="s">
-        <v>1139</v>
+        <v>1079</v>
       </c>
       <c r="C525" s="4" t="s">
-        <v>1128</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A526" s="19" t="s">
         <v>0</v>
       </c>
+      <c r="B526" s="4" t="s">
+        <v>1139</v>
+      </c>
       <c r="C526" s="4" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A527" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B527" s="4" t="s">
-        <v>1138</v>
-      </c>
       <c r="C527" s="4" t="s">
-        <v>1137</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A528" s="19" t="s">
         <v>0</v>
       </c>
+      <c r="B528" s="4" t="s">
+        <v>1138</v>
+      </c>
       <c r="C528" s="4" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.2">
@@ -9817,10 +9835,10 @@
         <v>0</v>
       </c>
       <c r="B529" s="4" t="s">
-        <v>1043</v>
+        <v>1147</v>
       </c>
       <c r="C529" s="4" t="s">
-        <v>1042</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.2">
@@ -9828,16 +9846,27 @@
         <v>0</v>
       </c>
       <c r="B530" s="4" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C530" s="4" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A531" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B531" s="4" t="s">
         <v>1144</v>
       </c>
-      <c r="C530" s="4" t="s">
+      <c r="C531" s="4" t="s">
         <v>1145</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C530">
-    <sortCondition ref="A2:A530"/>
-    <sortCondition ref="C2:C530"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C531">
+    <sortCondition ref="A2:A531"/>
+    <sortCondition ref="C2:C531"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="containsText" dxfId="12" priority="9" operator="containsText" text="Submetido">

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F9669CE-43FF-584B-BA5F-3DDA5B12240B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06946BDC-43D2-0540-ABB9-DAD0130A1409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="500" windowWidth="27900" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="1153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="1155">
   <si>
     <t>Aceito</t>
   </si>
@@ -3506,6 +3506,12 @@
   </si>
   <si>
     <t>10.47197/retos.v52.101062</t>
+  </si>
+  <si>
+    <t>Uncovering emotional and network dynamics in the speech of patients with chronic low back pain</t>
+  </si>
+  <si>
+    <t>10.1016/j.msksp.2024.102925</t>
   </si>
 </sst>
 </file>
@@ -4017,13 +4023,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I530"/>
+  <dimension ref="A1:I531"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B496" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A530" sqref="A530"/>
+      <selection pane="bottomRight" activeCell="A531" sqref="A531"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9848,6 +9854,17 @@
       </c>
       <c r="C530" s="3" t="s">
         <v>1144</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A531" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B531" s="3" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C531" s="3" t="s">
+        <v>1153</v>
       </c>
     </row>
   </sheetData>

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06946BDC-43D2-0540-ABB9-DAD0130A1409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE64DBE-A75A-0347-A459-993B59756D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="500" windowWidth="27900" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="1155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="1156">
   <si>
     <t>Aceito</t>
   </si>
@@ -3512,6 +3512,9 @@
   </si>
   <si>
     <t>10.1016/j.msksp.2024.102925</t>
+  </si>
+  <si>
+    <t>Short-term effecs of Pilates-based exercise on upper limb strength and function in people with Parkinson's disease</t>
   </si>
 </sst>
 </file>
@@ -4023,13 +4026,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I531"/>
+  <dimension ref="A1:I532"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B496" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A531" sqref="A531"/>
+      <selection pane="bottomRight" activeCell="A532" sqref="A532"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9865,6 +9868,14 @@
       </c>
       <c r="C531" s="3" t="s">
         <v>1153</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A532" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C532" s="3" t="s">
+        <v>1155</v>
       </c>
     </row>
   </sheetData>

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE64DBE-A75A-0347-A459-993B59756D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DBFAB49-D38A-C645-A1F7-2C1C8BF93E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="500" windowWidth="27900" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="1156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="1159">
   <si>
     <t>Aceito</t>
   </si>
@@ -3515,6 +3515,15 @@
   </si>
   <si>
     <t>Short-term effecs of Pilates-based exercise on upper limb strength and function in people with Parkinson's disease</t>
+  </si>
+  <si>
+    <t>10.1016/j.jbmt.2024.02.032</t>
+  </si>
+  <si>
+    <t>Evidence map on burnout syndrome in higher education teachers and its relationship with ergonomic and biopsychosocial factors: A scoping review</t>
+  </si>
+  <si>
+    <t>10.1080/10803548.2024.2325819</t>
   </si>
 </sst>
 </file>
@@ -4026,13 +4035,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I532"/>
+  <dimension ref="A1:I533"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B496" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B497" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A532" sqref="A532"/>
+      <selection pane="bottomRight" activeCell="A533" sqref="A533"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9874,8 +9883,22 @@
       <c r="A532" s="15" t="s">
         <v>0</v>
       </c>
+      <c r="B532" s="3" t="s">
+        <v>1156</v>
+      </c>
       <c r="C532" s="3" t="s">
         <v>1155</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A533" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B533" s="3" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C533" s="3" t="s">
+        <v>1157</v>
       </c>
     </row>
   </sheetData>

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DBFAB49-D38A-C645-A1F7-2C1C8BF93E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD1A6040-F9E5-EB40-8B3B-77734B245180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="500" windowWidth="27900" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="1159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="1161">
   <si>
     <t>Aceito</t>
   </si>
@@ -3524,6 +3524,12 @@
   </si>
   <si>
     <t>10.1080/10803548.2024.2325819</t>
+  </si>
+  <si>
+    <t>10.5935/2595-0118.20240008-en</t>
+  </si>
+  <si>
+    <t>Type of pain locus of control related to the level of dependence and depression in the elderly</t>
   </si>
 </sst>
 </file>
@@ -4035,13 +4041,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I533"/>
+  <dimension ref="A1:I534"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B497" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B498" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A533" sqref="A533"/>
+      <selection pane="bottomRight" activeCell="A534" sqref="A534"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9899,6 +9905,17 @@
       </c>
       <c r="C533" s="3" t="s">
         <v>1157</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A534" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B534" s="3" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C534" s="3" t="s">
+        <v>1160</v>
       </c>
     </row>
   </sheetData>

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD1A6040-F9E5-EB40-8B3B-77734B245180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73ACB2ED-815E-594C-B3D3-3944DC7AAB0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="500" windowWidth="27900" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="1161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="1163">
   <si>
     <t>Aceito</t>
   </si>
@@ -3530,6 +3530,12 @@
   </si>
   <si>
     <t>Type of pain locus of control related to the level of dependence and depression in the elderly</t>
+  </si>
+  <si>
+    <t>10.1016/j.jbmt.2023.11.038</t>
+  </si>
+  <si>
+    <t>Enhance range-of-motion and hypotensive effect in elderly submitted to three manual therapy techniques: Cross-over study</t>
   </si>
 </sst>
 </file>
@@ -4041,13 +4047,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I534"/>
+  <dimension ref="A1:I535"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B498" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A534" sqref="A534"/>
+      <selection pane="bottomRight" activeCell="A535" sqref="A535"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9728,10 +9734,10 @@
         <v>2024</v>
       </c>
       <c r="B517" s="3" t="s">
-        <v>1129</v>
+        <v>1161</v>
       </c>
       <c r="C517" s="3" t="s">
-        <v>1130</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.2">
@@ -9739,10 +9745,10 @@
         <v>2024</v>
       </c>
       <c r="B518" s="3" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="C518" s="3" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.2">
@@ -9750,10 +9756,10 @@
         <v>2024</v>
       </c>
       <c r="B519" s="3" t="s">
-        <v>1128</v>
+        <v>1132</v>
       </c>
       <c r="C519" s="3" t="s">
-        <v>1126</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.2">
@@ -9761,10 +9767,10 @@
         <v>2024</v>
       </c>
       <c r="B520" s="3" t="s">
-        <v>1148</v>
+        <v>1128</v>
       </c>
       <c r="C520" s="3" t="s">
-        <v>1147</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.2">
@@ -9772,10 +9778,10 @@
         <v>2024</v>
       </c>
       <c r="B521" s="3" t="s">
-        <v>1119</v>
+        <v>1138</v>
       </c>
       <c r="C521" s="3" t="s">
-        <v>1116</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.2">
@@ -9783,10 +9789,10 @@
         <v>2024</v>
       </c>
       <c r="B522" s="3" t="s">
-        <v>1141</v>
+        <v>1148</v>
       </c>
       <c r="C522" s="3" t="s">
-        <v>1142</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.2">
@@ -9794,29 +9800,32 @@
         <v>2024</v>
       </c>
       <c r="B523" s="3" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C523" s="3" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A524" s="15">
+        <v>2024</v>
+      </c>
+      <c r="B524" s="3" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C524" s="3" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A525" s="15">
+        <v>2024</v>
+      </c>
+      <c r="B525" s="3" t="s">
         <v>1151</v>
       </c>
-      <c r="C523" s="3" t="s">
+      <c r="C525" s="3" t="s">
         <v>1150</v>
-      </c>
-    </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A524" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B524" s="3" t="s">
-        <v>1124</v>
-      </c>
-      <c r="C524" s="3" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A525" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C525" s="3" t="s">
-        <v>1120</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.2">
@@ -9824,10 +9833,10 @@
         <v>0</v>
       </c>
       <c r="B526" s="3" t="s">
-        <v>1079</v>
+        <v>1124</v>
       </c>
       <c r="C526" s="3" t="s">
-        <v>1074</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.2">
@@ -9835,21 +9844,18 @@
         <v>0</v>
       </c>
       <c r="B527" s="3" t="s">
-        <v>1138</v>
+        <v>1158</v>
       </c>
       <c r="C527" s="3" t="s">
-        <v>1127</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A528" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B528" s="3" t="s">
-        <v>1137</v>
-      </c>
       <c r="C528" s="3" t="s">
-        <v>1136</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.2">
@@ -9857,10 +9863,10 @@
         <v>0</v>
       </c>
       <c r="B529" s="3" t="s">
-        <v>1146</v>
+        <v>1079</v>
       </c>
       <c r="C529" s="3" t="s">
-        <v>1139</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.2">
@@ -9868,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="B530" s="3" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="C530" s="3" t="s">
-        <v>1144</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.2">
@@ -9879,10 +9885,10 @@
         <v>0</v>
       </c>
       <c r="B531" s="3" t="s">
-        <v>1154</v>
+        <v>1146</v>
       </c>
       <c r="C531" s="3" t="s">
-        <v>1153</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.2">
@@ -9901,10 +9907,10 @@
         <v>0</v>
       </c>
       <c r="B533" s="3" t="s">
-        <v>1158</v>
+        <v>1143</v>
       </c>
       <c r="C533" s="3" t="s">
-        <v>1157</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.2">
@@ -9918,10 +9924,21 @@
         <v>1160</v>
       </c>
     </row>
+    <row r="535" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A535" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B535" s="3" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C535" s="3" t="s">
+        <v>1153</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C530">
-    <sortCondition ref="A2:A530"/>
-    <sortCondition ref="C2:C530"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C535">
+    <sortCondition ref="A2:A535"/>
+    <sortCondition ref="C2:C535"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="containsText" dxfId="13" priority="10" operator="containsText" text="Submetido">

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73ACB2ED-815E-594C-B3D3-3944DC7AAB0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A621443F-DD6F-274A-83BA-FFA159933636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="500" windowWidth="27900" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="1163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="1167">
   <si>
     <t>Aceito</t>
   </si>
@@ -3536,6 +3536,18 @@
   </si>
   <si>
     <t>Enhance range-of-motion and hypotensive effect in elderly submitted to three manual therapy techniques: Cross-over study</t>
+  </si>
+  <si>
+    <t>10.61223/coopex.v15i01.714</t>
+  </si>
+  <si>
+    <t>Avaliação do condicionamento cardiorrespiratório após infecção por COVID-19</t>
+  </si>
+  <si>
+    <t>10.5935/2595-0118.20240010-em</t>
+  </si>
+  <si>
+    <t>Prevalence of musculoskeletal pain in body segments in Judo and Jiu-jitsu athletes</t>
   </si>
 </sst>
 </file>
@@ -4047,13 +4059,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I535"/>
+  <dimension ref="A1:I537"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B498" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B504" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A535" sqref="A535"/>
+      <selection pane="bottomRight" activeCell="A537" sqref="A537"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9690,10 +9702,10 @@
         <v>2024</v>
       </c>
       <c r="B513" s="3" t="s">
-        <v>1117</v>
+        <v>1163</v>
       </c>
       <c r="C513" s="3" t="s">
-        <v>1118</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.2">
@@ -9701,10 +9713,10 @@
         <v>2024</v>
       </c>
       <c r="B514" s="3" t="s">
-        <v>1145</v>
+        <v>1117</v>
       </c>
       <c r="C514" s="3" t="s">
-        <v>1140</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.2">
@@ -9712,10 +9724,10 @@
         <v>2024</v>
       </c>
       <c r="B515" s="3" t="s">
-        <v>1084</v>
+        <v>1145</v>
       </c>
       <c r="C515" s="3" t="s">
-        <v>1083</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.2">
@@ -9723,10 +9735,10 @@
         <v>2024</v>
       </c>
       <c r="B516" s="3" t="s">
-        <v>1149</v>
+        <v>1084</v>
       </c>
       <c r="C516" s="3" t="s">
-        <v>1133</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.2">
@@ -9734,10 +9746,10 @@
         <v>2024</v>
       </c>
       <c r="B517" s="3" t="s">
-        <v>1161</v>
+        <v>1149</v>
       </c>
       <c r="C517" s="3" t="s">
-        <v>1162</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.2">
@@ -9745,10 +9757,10 @@
         <v>2024</v>
       </c>
       <c r="B518" s="3" t="s">
-        <v>1129</v>
+        <v>1161</v>
       </c>
       <c r="C518" s="3" t="s">
-        <v>1130</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.2">
@@ -9756,10 +9768,10 @@
         <v>2024</v>
       </c>
       <c r="B519" s="3" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="C519" s="3" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.2">
@@ -9767,10 +9779,10 @@
         <v>2024</v>
       </c>
       <c r="B520" s="3" t="s">
-        <v>1128</v>
+        <v>1132</v>
       </c>
       <c r="C520" s="3" t="s">
-        <v>1126</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.2">
@@ -9778,10 +9790,10 @@
         <v>2024</v>
       </c>
       <c r="B521" s="3" t="s">
-        <v>1138</v>
+        <v>1128</v>
       </c>
       <c r="C521" s="3" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.2">
@@ -9789,10 +9801,10 @@
         <v>2024</v>
       </c>
       <c r="B522" s="3" t="s">
-        <v>1148</v>
+        <v>1138</v>
       </c>
       <c r="C522" s="3" t="s">
-        <v>1147</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.2">
@@ -9800,10 +9812,10 @@
         <v>2024</v>
       </c>
       <c r="B523" s="3" t="s">
-        <v>1119</v>
+        <v>1148</v>
       </c>
       <c r="C523" s="3" t="s">
-        <v>1116</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.2">
@@ -9811,10 +9823,10 @@
         <v>2024</v>
       </c>
       <c r="B524" s="3" t="s">
-        <v>1141</v>
+        <v>1119</v>
       </c>
       <c r="C524" s="3" t="s">
-        <v>1142</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.2">
@@ -9822,21 +9834,21 @@
         <v>2024</v>
       </c>
       <c r="B525" s="3" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C525" s="3" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A526" s="15">
+        <v>2024</v>
+      </c>
+      <c r="B526" s="3" t="s">
         <v>1151</v>
       </c>
-      <c r="C525" s="3" t="s">
+      <c r="C526" s="3" t="s">
         <v>1150</v>
-      </c>
-    </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A526" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B526" s="3" t="s">
-        <v>1124</v>
-      </c>
-      <c r="C526" s="3" t="s">
-        <v>1121</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.2">
@@ -9844,29 +9856,29 @@
         <v>0</v>
       </c>
       <c r="B527" s="3" t="s">
-        <v>1158</v>
+        <v>1124</v>
       </c>
       <c r="C527" s="3" t="s">
-        <v>1157</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A528" s="15" t="s">
         <v>0</v>
       </c>
+      <c r="B528" s="3" t="s">
+        <v>1158</v>
+      </c>
       <c r="C528" s="3" t="s">
-        <v>1120</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A529" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B529" s="3" t="s">
-        <v>1079</v>
-      </c>
       <c r="C529" s="3" t="s">
-        <v>1074</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.2">
@@ -9874,10 +9886,10 @@
         <v>0</v>
       </c>
       <c r="B530" s="3" t="s">
-        <v>1137</v>
+        <v>1079</v>
       </c>
       <c r="C530" s="3" t="s">
-        <v>1136</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.2">
@@ -9885,10 +9897,10 @@
         <v>0</v>
       </c>
       <c r="B531" s="3" t="s">
-        <v>1146</v>
+        <v>1137</v>
       </c>
       <c r="C531" s="3" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.2">
@@ -9896,10 +9908,10 @@
         <v>0</v>
       </c>
       <c r="B532" s="3" t="s">
-        <v>1156</v>
+        <v>1146</v>
       </c>
       <c r="C532" s="3" t="s">
-        <v>1155</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.2">
@@ -9907,10 +9919,10 @@
         <v>0</v>
       </c>
       <c r="B533" s="3" t="s">
-        <v>1143</v>
+        <v>1156</v>
       </c>
       <c r="C533" s="3" t="s">
-        <v>1144</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.2">
@@ -9918,10 +9930,10 @@
         <v>0</v>
       </c>
       <c r="B534" s="3" t="s">
-        <v>1159</v>
+        <v>1143</v>
       </c>
       <c r="C534" s="3" t="s">
-        <v>1160</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.2">
@@ -9929,16 +9941,38 @@
         <v>0</v>
       </c>
       <c r="B535" s="3" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C535" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A536" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B536" s="3" t="s">
         <v>1154</v>
       </c>
-      <c r="C535" s="3" t="s">
+      <c r="C536" s="3" t="s">
         <v>1153</v>
       </c>
     </row>
+    <row r="537" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A537" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B537" s="3" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C537" s="3" t="s">
+        <v>1166</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C535">
-    <sortCondition ref="A2:A535"/>
-    <sortCondition ref="C2:C535"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C536">
+    <sortCondition ref="A2:A536"/>
+    <sortCondition ref="C2:C536"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="containsText" dxfId="13" priority="10" operator="containsText" text="Submetido">

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A621443F-DD6F-274A-83BA-FFA159933636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6665C4D4-77CC-6249-ADD5-ACD1D2FA152E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="500" windowWidth="27900" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="1167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="1167">
   <si>
     <t>Aceito</t>
   </si>
@@ -4062,7 +4062,7 @@
   <dimension ref="A1:I537"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B504" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B500" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A537" sqref="A537"/>
@@ -9823,10 +9823,10 @@
         <v>2024</v>
       </c>
       <c r="B524" s="3" t="s">
-        <v>1119</v>
+        <v>1137</v>
       </c>
       <c r="C524" s="3" t="s">
-        <v>1116</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.2">
@@ -9834,10 +9834,10 @@
         <v>2024</v>
       </c>
       <c r="B525" s="3" t="s">
-        <v>1141</v>
+        <v>1119</v>
       </c>
       <c r="C525" s="3" t="s">
-        <v>1142</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.2">
@@ -9845,40 +9845,43 @@
         <v>2024</v>
       </c>
       <c r="B526" s="3" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C526" s="3" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A527" s="15">
+        <v>2024</v>
+      </c>
+      <c r="B527" s="3" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C527" s="3" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A528" s="15">
+        <v>2024</v>
+      </c>
+      <c r="B528" s="3" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C528" s="3" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A529" s="15">
+        <v>2024</v>
+      </c>
+      <c r="B529" s="3" t="s">
         <v>1151</v>
       </c>
-      <c r="C526" s="3" t="s">
+      <c r="C529" s="3" t="s">
         <v>1150</v>
-      </c>
-    </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A527" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B527" s="3" t="s">
-        <v>1124</v>
-      </c>
-      <c r="C527" s="3" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A528" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B528" s="3" t="s">
-        <v>1158</v>
-      </c>
-      <c r="C528" s="3" t="s">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A529" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C529" s="3" t="s">
-        <v>1120</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.2">
@@ -9886,10 +9889,10 @@
         <v>0</v>
       </c>
       <c r="B530" s="3" t="s">
-        <v>1079</v>
+        <v>1124</v>
       </c>
       <c r="C530" s="3" t="s">
-        <v>1074</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.2">
@@ -9897,21 +9900,18 @@
         <v>0</v>
       </c>
       <c r="B531" s="3" t="s">
-        <v>1137</v>
+        <v>1158</v>
       </c>
       <c r="C531" s="3" t="s">
-        <v>1136</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A532" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B532" s="3" t="s">
-        <v>1146</v>
-      </c>
       <c r="C532" s="3" t="s">
-        <v>1139</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.2">
@@ -9919,10 +9919,10 @@
         <v>0</v>
       </c>
       <c r="B533" s="3" t="s">
-        <v>1156</v>
+        <v>1079</v>
       </c>
       <c r="C533" s="3" t="s">
-        <v>1155</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.2">
@@ -9930,10 +9930,10 @@
         <v>0</v>
       </c>
       <c r="B534" s="3" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="C534" s="3" t="s">
-        <v>1144</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.2">
@@ -9941,10 +9941,10 @@
         <v>0</v>
       </c>
       <c r="B535" s="3" t="s">
-        <v>1159</v>
+        <v>1165</v>
       </c>
       <c r="C535" s="3" t="s">
-        <v>1160</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.2">
@@ -9952,10 +9952,10 @@
         <v>0</v>
       </c>
       <c r="B536" s="3" t="s">
-        <v>1154</v>
+        <v>1143</v>
       </c>
       <c r="C536" s="3" t="s">
-        <v>1153</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.2">
@@ -9963,16 +9963,16 @@
         <v>0</v>
       </c>
       <c r="B537" s="3" t="s">
-        <v>1165</v>
+        <v>1159</v>
       </c>
       <c r="C537" s="3" t="s">
-        <v>1166</v>
+        <v>1160</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C536">
-    <sortCondition ref="A2:A536"/>
-    <sortCondition ref="C2:C536"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C537">
+    <sortCondition ref="A2:A537"/>
+    <sortCondition ref="C2:C537"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="containsText" dxfId="13" priority="10" operator="containsText" text="Submetido">

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6665C4D4-77CC-6249-ADD5-ACD1D2FA152E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B2375C1-9F70-5E4E-9070-91E4D090B557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="500" windowWidth="27900" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="1167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="1168">
   <si>
     <t>Aceito</t>
   </si>
@@ -3548,6 +3548,9 @@
   </si>
   <si>
     <t>Prevalence of musculoskeletal pain in body segments in Judo and Jiu-jitsu athletes</t>
+  </si>
+  <si>
+    <t>Evaluating the contribution of the Glittre-ADL test i adults with cystic fibrosis</t>
   </si>
 </sst>
 </file>
@@ -4059,13 +4062,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I537"/>
+  <dimension ref="A1:I538"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B500" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B502" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A537" sqref="A537"/>
+      <selection pane="bottomRight" activeCell="A538" sqref="A538"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9967,6 +9970,14 @@
       </c>
       <c r="C537" s="3" t="s">
         <v>1160</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A538" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C538" s="3" t="s">
+        <v>1167</v>
       </c>
     </row>
   </sheetData>

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Mac/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B2375C1-9F70-5E4E-9070-91E4D090B557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD424B42-D933-5D44-9810-3A1BECE8C80F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="500" windowWidth="27900" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="680" yWindow="460" windowWidth="24920" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PI.completos" sheetId="4" r:id="rId1"/>
@@ -27,16 +27,6 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId17" roundtripDataSignature="AMtx7mhtvOu6pfzrsiNcp99QyIcOLpxeQQ=="/>
     </ext>
@@ -45,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="1168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="1232">
   <si>
     <t>Aceito</t>
   </si>
@@ -2754,9 +2744,6 @@
   </si>
   <si>
     <t>10.18310/2358-8306.v5n10suple</t>
-  </si>
-  <si>
-    <t>Avaliaçào do nível de conhecimento sobre neurofisiologia da dor em estudantes de Fisioterapia - Um estudo observacional</t>
   </si>
   <si>
     <t>10.1016/j.jbmt.2019.03.013</t>
@@ -3551,6 +3538,201 @@
   </si>
   <si>
     <t>Evaluating the contribution of the Glittre-ADL test i adults with cystic fibrosis</t>
+  </si>
+  <si>
+    <t>10.17267/2238-2704rpf.2024.e5427</t>
+  </si>
+  <si>
+    <t>10.1016/j.bjpt.2024.100603</t>
+  </si>
+  <si>
+    <t>THE INTRODUCTION OF NEW TECHNOLOGIES APPLIED TO THE CITIZEN SCIENCE METHOD IN SCIENTIFIC PROJECTS IN HEALTH: AN INTEGRATIVE REVIEW</t>
+  </si>
+  <si>
+    <t>Avaliação do nível de conhecimento sobre neurofisiologia da dor em estudantes de Fisioterapia - Um estudo observacional</t>
+  </si>
+  <si>
+    <t>10.1016/j.bjpt.2024.100614</t>
+  </si>
+  <si>
+    <t>CLINICAL AND FUNCTIONAL EFFECTS OF SUPERVISED AND UNSUPERVISED CARDIOPULMONARY REHABILITATION IN POST-COVID-19 SYNDROME: STUDY PROTOCOL FOR A RANDOMIZED CONTROLLED CLINICAL TRIAL</t>
+  </si>
+  <si>
+    <t>10.1016/j.bjpt.2024.100639</t>
+  </si>
+  <si>
+    <t>STUDY PROTOCOL: EVALUATING THE EFFECTIVENESS OF CEREBELLO-SPINAL STIMULATION IN INDIVIDUALS WITH ACS</t>
+  </si>
+  <si>
+    <t>ELECTROMYOGRAPHIC PROFILE OF THE WRIST AND ELBOW FLEXORS DURING PNF MOTOR IRRADIATION</t>
+  </si>
+  <si>
+    <t>10.1016/j.bjpt.2024.100677</t>
+  </si>
+  <si>
+    <t>WORK ABILITY PREDICTS OCCUPATIONAL HEALTH-RELATED ABSENTEEISM IN PROFESSIONAL DRIVERS: A 1-YEAR LONGITUDINAL STUDY</t>
+  </si>
+  <si>
+    <t>10.1016/j.bjpt.2024.100690</t>
+  </si>
+  <si>
+    <t>CARACTERIZATION OF MANUAL PREFERENCE IN CORPUS CALLOSUM DYSGENESIS</t>
+  </si>
+  <si>
+    <t>10.1016/j.bjpt.2024.100691</t>
+  </si>
+  <si>
+    <t>A RANDOMIZED CONTROLLED TEST PROTOCOL EVALUATING THE EFFECTS OF A CEREBELLO-SPINAL STIMULATION SESSION ON POSTURAL CONTROL IN ELDERLY</t>
+  </si>
+  <si>
+    <t>10.1016/j.bjpt.2024.100708</t>
+  </si>
+  <si>
+    <t>COMPARISON BETWEEN PHYSICAL PERFORMANCE TESTS IN CROSSFIT PRACTITIONERS WITH AND WITHOUT SUBACROMIAL PAIN SYNDROME: A CROSS-SECTIONAL STUDY</t>
+  </si>
+  <si>
+    <t>10.1016/j.bjpt.2024.100755</t>
+  </si>
+  <si>
+    <t>ASSOCIATION BETWEEN “TEXT NECK” AND NECK PAIN IN ADULTS: A LONGITUDINAL STUDY</t>
+  </si>
+  <si>
+    <t>10.1016/j.bjpt.2024.100764</t>
+  </si>
+  <si>
+    <t>ASSOCIATION BETWEEN POSTURAL BALANCE AND FUNCTIONAL STATUS IN POST COVID-19 CONDITION IN NONHOSPITALIZED PATIENTS</t>
+  </si>
+  <si>
+    <t>10.1016/j.bjpt.2024.100781</t>
+  </si>
+  <si>
+    <t>10.1016/j.bjpt.2024.100783</t>
+  </si>
+  <si>
+    <t>EFFECTIVENESS OF INTERVENTIONS FOR HIGHER EDUCATION TEACHERS WITH BURNOUT SYNDROME: A SYSTEMATIC REVIEW</t>
+  </si>
+  <si>
+    <t>MAPPING EVIDENCE ON BURNOUT SYNDROME IN UNIVERSITY PROFESSORS AND ITS RELATIONSHIP WITH ERGONOMIC AND BIOPSYCHOSOCIAL FACTORS: A SCOPE REVIEW</t>
+  </si>
+  <si>
+    <t>10.1016/j.bjpt.2024.100784</t>
+  </si>
+  <si>
+    <t>ASSESSMENT OF THE LONG-TERM PHYSICAL CAPACITY OF COVID-19 SURVIVORS</t>
+  </si>
+  <si>
+    <t>10.1016/j.bjpt.2024.100789</t>
+  </si>
+  <si>
+    <t>EVALUATION OF VENTILATION DURING EXERCISE TESTS IN PEOPLE WITH POSTCOVID-19 SYNDROME</t>
+  </si>
+  <si>
+    <t>10.1016/j.bjpt.2024.100790</t>
+  </si>
+  <si>
+    <t>THE EFFECT OF DIFFERENT TYPES OF BIOFEEDBACK ON THE LEVEL OF MUSCLE ACTIVITY DURING STANDING BALANCE</t>
+  </si>
+  <si>
+    <t>10.1016/j.bjpt.2024.100797</t>
+  </si>
+  <si>
+    <t>THE PAINDETECT QUESTIONNAIRE TRULY IDENTIFIED PRESERVED CONDITIONED PAIN MODULATION IN MOST PATIENTS WITH MUSCULOSKELETAL PAIN</t>
+  </si>
+  <si>
+    <t>10.1016/j.bjpt.2024.100816</t>
+  </si>
+  <si>
+    <t>NEUROPATHIC-LIKE SYMPTOMS AND CENTRAL SENSITIZATION RELATED SIGNS AND SYMPTOMS NEGATIVELY AFFECT THE FUNCTIONAL PERFORMANCE OF PATIENTS WITH KNEE OSTEOARTHRITIS</t>
+  </si>
+  <si>
+    <t>10.1016/j.bjpt.2024.100817</t>
+  </si>
+  <si>
+    <t>EIGHT WEEKS OF FUNCTIONAL TRAINING IMPROVES FUNCTIONAL CAPACITY IN INDIVIDUALS WITH SPINAL CORD INJURY</t>
+  </si>
+  <si>
+    <t>10.1016/j.bjpt.2024.100831</t>
+  </si>
+  <si>
+    <t>ASSOCIATION BETWEEN PAIN AND SOCIAL PERCEPTION IN BRAZILIAN MIDDLE-AGED AND OLDER ADULTS: ELSI-BRAZIL</t>
+  </si>
+  <si>
+    <t>10.1016/j.bjpt.2024.100857</t>
+  </si>
+  <si>
+    <t>PSYCHOBEHAVIORAL FACTORS AND LIFESTYLE OF BRAZILIAN MIDDLE-AGED AND ELDERLY ADULTS ARE ASSOCIATED WITH PAIN</t>
+  </si>
+  <si>
+    <t>10.1016/j.bjpt.2024.100881</t>
+  </si>
+  <si>
+    <t>THE EFFECTIVENESS OF AN EXERCISE PROGRAM TO IMPROVE POSTURAL BALANCE IN INDEPENDENT ELDERLY PEOPLE: A RANDOMISED TRIAL</t>
+  </si>
+  <si>
+    <t>10.1016/j.bjpt.2024.100893</t>
+  </si>
+  <si>
+    <t>THE EFFECT OF ILIOPSOAS MYOFASCIAL RELEASE ON POSTURAL BALANCE IN FUTSAL ATHLETES</t>
+  </si>
+  <si>
+    <t>10.1016/j.bjpt.2024.100899</t>
+  </si>
+  <si>
+    <t>RHEUMATOID ARTHRITIS: ASSESSMENT OF CARDIOPULMONARY FITNESS USING NEW SAMPLING TECHNOLOGY</t>
+  </si>
+  <si>
+    <t>10.1016/j.bjpt.2024.100930</t>
+  </si>
+  <si>
+    <t>6-MINUTE WALK TEST EVALUATION WITH CARDIAC AUTONOMIC CONTROL IN WOMEN WITH SYSTEMIC SCLEROSIS</t>
+  </si>
+  <si>
+    <t>10.1016/j.bjpt.2024.100944</t>
+  </si>
+  <si>
+    <t>VARIABILITY OF 6-MINUTE WALK DISTANCE IN PATIENTS WITH INTERSTITIAL LUNG DISEASE ASSOCIATED WITH DIFFUSE CUTANEOUS SYSTEMIC SCLEROSIS</t>
+  </si>
+  <si>
+    <t>10.1016/j.bjpt.2024.100945</t>
+  </si>
+  <si>
+    <t>IMMEDIATE EFFECTS OF SELF-MYOFASCIAL RELEASE ON NEUROMUSCULAR AND FUNCTIONAL PERFORMANCE OF PHYSICALLY ACTIVE HEALTHY ADULTS: A CROSSOVER STUDY</t>
+  </si>
+  <si>
+    <t>10.1016/j.bjpt.2024.100975</t>
+  </si>
+  <si>
+    <t>THE EFFECT OF BIOFEEDBACK ON ANXIETY AND BALANCE CONFIDENCE DURING STANDING</t>
+  </si>
+  <si>
+    <t>10.1016/j.bjpt.2024.100978</t>
+  </si>
+  <si>
+    <t>DO THERAPIST-ORIENTED HOME REHABILITATION IMPROVE HAND FUNCTION AND HANDGRIP IN WOMEN WITH SYSTEMIC SCLEROSIS?</t>
+  </si>
+  <si>
+    <t>10.1016/j.bjpt.2024.100981</t>
+  </si>
+  <si>
+    <t>PRESCRIPTION OF ACUPUNCTURE POINTS BY PHYSICAL THERAPISTS FOR NECK PAIN: INTER-RATER AGREEMENT</t>
+  </si>
+  <si>
+    <t>10.1016/j.bjpt.2024.100986</t>
+  </si>
+  <si>
+    <t>DEFINING TEXT NECK: A SCOPING REVIEW</t>
+  </si>
+  <si>
+    <t>10.1016/j.bjpt.2024.100998</t>
+  </si>
+  <si>
+    <t>10.3390/healthcare12070712</t>
+  </si>
+  <si>
+    <t>Evaluating performance on the Glittre=ADL test in men with long COVID 3 years after SARS-CoV-2 infection</t>
+  </si>
+  <si>
+    <t>Cardiopulmonary Response in Post – COVID-19 Individuals: A Cross-Sectional Study Comparing the Londrina ADL Protocol, 6MWT, and Glittre ADL Test</t>
   </si>
 </sst>
 </file>
@@ -3647,7 +3829,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3699,6 +3881,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4062,13 +4247,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I538"/>
+  <dimension ref="A1:I540"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B502" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B509" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A538" sqref="A538"/>
+      <selection pane="bottomRight" activeCell="A540" sqref="A540"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4252,10 +4437,10 @@
         <v>2010</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>1019</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>1020</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -4360,10 +4545,10 @@
         <v>2011</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>1029</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>1030</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -4446,10 +4631,10 @@
         <v>2012</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>1023</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>1024</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -4490,10 +4675,10 @@
         <v>2012</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -4501,10 +4686,10 @@
         <v>2012</v>
       </c>
       <c r="B39" s="3" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>1027</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>1028</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -4512,10 +4697,10 @@
         <v>2012</v>
       </c>
       <c r="B40" s="3" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>1025</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>1026</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -4523,10 +4708,10 @@
         <v>2012</v>
       </c>
       <c r="B41" s="3" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>1021</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>1022</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -5599,7 +5784,7 @@
         <v>2016</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="C137" s="9" t="s">
         <v>267</v>
@@ -8329,10 +8514,10 @@
         <v>2021</v>
       </c>
       <c r="B387" s="3" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C387" s="3" t="s">
         <v>1048</v>
-      </c>
-      <c r="C387" s="3" t="s">
-        <v>1049</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.2">
@@ -8436,7 +8621,7 @@
         <v>2021</v>
       </c>
       <c r="C397" s="3" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.2">
@@ -8829,10 +9014,10 @@
         <v>2022</v>
       </c>
       <c r="B433" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C433" s="3" t="s">
         <v>1044</v>
-      </c>
-      <c r="C433" s="3" t="s">
-        <v>1045</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.2">
@@ -8840,10 +9025,10 @@
         <v>2022</v>
       </c>
       <c r="B434" s="3" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C434" s="3" t="s">
         <v>1001</v>
-      </c>
-      <c r="C434" s="3" t="s">
-        <v>1002</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.2">
@@ -8874,7 +9059,7 @@
       </c>
       <c r="B437" s="4"/>
       <c r="C437" s="4" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.2">
@@ -8904,10 +9089,10 @@
         <v>2022</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C440" s="3" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.2">
@@ -8926,10 +9111,10 @@
         <v>2022</v>
       </c>
       <c r="B442" s="4" t="s">
+        <v>977</v>
+      </c>
+      <c r="C442" s="4" t="s">
         <v>978</v>
-      </c>
-      <c r="C442" s="4" t="s">
-        <v>979</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.2">
@@ -8937,7 +9122,7 @@
         <v>2022</v>
       </c>
       <c r="B443" s="4" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C443" s="4" t="s">
         <v>800</v>
@@ -8959,10 +9144,10 @@
         <v>2022</v>
       </c>
       <c r="B445" s="3" t="s">
+        <v>969</v>
+      </c>
+      <c r="C445" s="3" t="s">
         <v>970</v>
-      </c>
-      <c r="C445" s="3" t="s">
-        <v>971</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.2">
@@ -9058,10 +9243,10 @@
         <v>2022</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="C454" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.2">
@@ -9102,10 +9287,10 @@
         <v>2022</v>
       </c>
       <c r="B458" s="3" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C458" s="3" t="s">
         <v>1003</v>
-      </c>
-      <c r="C458" s="3" t="s">
-        <v>1004</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.2">
@@ -9135,10 +9320,10 @@
         <v>2023</v>
       </c>
       <c r="B461" s="3" t="s">
+        <v>998</v>
+      </c>
+      <c r="C461" s="3" t="s">
         <v>999</v>
-      </c>
-      <c r="C461" s="3" t="s">
-        <v>1000</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.2">
@@ -9146,10 +9331,10 @@
         <v>2023</v>
       </c>
       <c r="B462" s="4" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="C462" s="4" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.2">
@@ -9157,10 +9342,10 @@
         <v>2023</v>
       </c>
       <c r="B463" s="3" t="s">
+        <v>994</v>
+      </c>
+      <c r="C463" s="3" t="s">
         <v>995</v>
-      </c>
-      <c r="C463" s="3" t="s">
-        <v>996</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.2">
@@ -9168,10 +9353,10 @@
         <v>2023</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C464" s="3" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.2">
@@ -9179,10 +9364,10 @@
         <v>2023</v>
       </c>
       <c r="B465" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C465" s="3" t="s">
         <v>1134</v>
-      </c>
-      <c r="C465" s="3" t="s">
-        <v>1135</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.2">
@@ -9190,10 +9375,10 @@
         <v>2023</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C466" s="3" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.2">
@@ -9201,10 +9386,10 @@
         <v>2023</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C467" s="3" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.2">
@@ -9212,10 +9397,10 @@
         <v>2023</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C468" s="3" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.2">
@@ -9223,10 +9408,10 @@
         <v>2023</v>
       </c>
       <c r="B469" s="3" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C469" s="3" t="s">
         <v>1075</v>
-      </c>
-      <c r="C469" s="3" t="s">
-        <v>1076</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.2">
@@ -9234,10 +9419,10 @@
         <v>2023</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="C470" s="3" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.2">
@@ -9245,10 +9430,10 @@
         <v>2023</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="C471" s="3" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.2">
@@ -9256,10 +9441,10 @@
         <v>2023</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="C472" s="3" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.2">
@@ -9267,10 +9452,10 @@
         <v>2023</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C473" s="3" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.2">
@@ -9278,10 +9463,10 @@
         <v>2023</v>
       </c>
       <c r="B474" s="3" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C474" s="3" t="s">
         <v>1098</v>
-      </c>
-      <c r="C474" s="3" t="s">
-        <v>1099</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.2">
@@ -9289,10 +9474,10 @@
         <v>2023</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="C475" s="3" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.2">
@@ -9301,7 +9486,7 @@
       </c>
       <c r="B476" s="4"/>
       <c r="C476" s="4" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.2">
@@ -9309,10 +9494,10 @@
         <v>2023</v>
       </c>
       <c r="B477" s="3" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C477" s="3" t="s">
         <v>1052</v>
-      </c>
-      <c r="C477" s="3" t="s">
-        <v>1053</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.2">
@@ -9320,10 +9505,10 @@
         <v>2023</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C478" s="3" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.2">
@@ -9331,10 +9516,10 @@
         <v>2023</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="C479" s="3" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.2">
@@ -9342,10 +9527,10 @@
         <v>2023</v>
       </c>
       <c r="B480" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C480" s="3" t="s">
         <v>1100</v>
-      </c>
-      <c r="C480" s="3" t="s">
-        <v>1101</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.2">
@@ -9353,10 +9538,10 @@
         <v>2023</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="C481" s="3" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.2">
@@ -9364,10 +9549,10 @@
         <v>2023</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C482" s="3" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.2">
@@ -9386,7 +9571,7 @@
         <v>2023</v>
       </c>
       <c r="B484" s="3" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="C484" s="3" t="s">
         <v>865</v>
@@ -9397,10 +9582,10 @@
         <v>2023</v>
       </c>
       <c r="B485" s="3" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C485" s="3" t="s">
         <v>1105</v>
-      </c>
-      <c r="C485" s="3" t="s">
-        <v>1106</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.2">
@@ -9408,10 +9593,10 @@
         <v>2023</v>
       </c>
       <c r="B486" s="3" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="C486" s="3" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.2">
@@ -9430,10 +9615,10 @@
         <v>2023</v>
       </c>
       <c r="B488" s="3" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="C488" s="3" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.2">
@@ -9441,10 +9626,10 @@
         <v>2023</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C489" s="3" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.2">
@@ -9452,10 +9637,10 @@
         <v>2023</v>
       </c>
       <c r="B490" s="3" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C490" s="3" t="s">
         <v>1069</v>
-      </c>
-      <c r="C490" s="3" t="s">
-        <v>1070</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.2">
@@ -9463,10 +9648,10 @@
         <v>2023</v>
       </c>
       <c r="B491" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C491" s="3" t="s">
         <v>1085</v>
-      </c>
-      <c r="C491" s="3" t="s">
-        <v>1086</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.2">
@@ -9474,10 +9659,10 @@
         <v>2023</v>
       </c>
       <c r="B492" s="3" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C492" s="3" t="s">
         <v>1035</v>
-      </c>
-      <c r="C492" s="3" t="s">
-        <v>1036</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.2">
@@ -9485,10 +9670,10 @@
         <v>2023</v>
       </c>
       <c r="B493" s="3" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C493" s="3" t="s">
         <v>1080</v>
-      </c>
-      <c r="C493" s="3" t="s">
-        <v>1081</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.2">
@@ -9496,10 +9681,10 @@
         <v>2023</v>
       </c>
       <c r="B494" s="3" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C494" s="3" t="s">
         <v>1110</v>
-      </c>
-      <c r="C494" s="3" t="s">
-        <v>1111</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.2">
@@ -9507,10 +9692,10 @@
         <v>2023</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="C495" s="3" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.2">
@@ -9518,10 +9703,10 @@
         <v>2023</v>
       </c>
       <c r="B496" s="3" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="C496" s="3" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.2">
@@ -9529,10 +9714,10 @@
         <v>2023</v>
       </c>
       <c r="B497" s="3" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C497" s="3" t="s">
         <v>1010</v>
-      </c>
-      <c r="C497" s="3" t="s">
-        <v>1011</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.2">
@@ -9540,10 +9725,10 @@
         <v>2023</v>
       </c>
       <c r="B498" s="3" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="C498" s="3" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.2">
@@ -9551,10 +9736,10 @@
         <v>2023</v>
       </c>
       <c r="B499" s="3" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="C499" s="3" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.2">
@@ -9562,10 +9747,10 @@
         <v>2023</v>
       </c>
       <c r="B500" s="3" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C500" s="3" t="s">
         <v>1008</v>
-      </c>
-      <c r="C500" s="3" t="s">
-        <v>1009</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.2">
@@ -9573,10 +9758,10 @@
         <v>2023</v>
       </c>
       <c r="B501" s="3" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C501" s="3" t="s">
         <v>1060</v>
-      </c>
-      <c r="C501" s="3" t="s">
-        <v>1061</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.2">
@@ -9584,10 +9769,10 @@
         <v>2023</v>
       </c>
       <c r="B502" s="3" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="C502" s="3" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.2">
@@ -9595,10 +9780,10 @@
         <v>2023</v>
       </c>
       <c r="B503" s="3" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C503" s="3" t="s">
         <v>1033</v>
-      </c>
-      <c r="C503" s="3" t="s">
-        <v>1034</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.2">
@@ -9606,10 +9791,10 @@
         <v>2023</v>
       </c>
       <c r="B504" s="3" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C504" s="3" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.2">
@@ -9628,10 +9813,10 @@
         <v>2023</v>
       </c>
       <c r="B506" s="3" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C506" s="3" t="s">
         <v>1046</v>
-      </c>
-      <c r="C506" s="3" t="s">
-        <v>1047</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.2">
@@ -9639,10 +9824,10 @@
         <v>2023</v>
       </c>
       <c r="B507" s="3" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C507" s="3" t="s">
         <v>1107</v>
-      </c>
-      <c r="C507" s="3" t="s">
-        <v>1108</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.2">
@@ -9650,10 +9835,10 @@
         <v>2023</v>
       </c>
       <c r="B508" s="3" t="s">
+        <v>996</v>
+      </c>
+      <c r="C508" s="3" t="s">
         <v>997</v>
-      </c>
-      <c r="C508" s="3" t="s">
-        <v>998</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.2">
@@ -9661,10 +9846,10 @@
         <v>2023</v>
       </c>
       <c r="B509" s="3" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C509" s="3" t="s">
         <v>1122</v>
-      </c>
-      <c r="C509" s="3" t="s">
-        <v>1123</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.2">
@@ -9672,10 +9857,10 @@
         <v>2023</v>
       </c>
       <c r="B510" s="3" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C510" s="3" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.2">
@@ -9683,10 +9868,10 @@
         <v>2023</v>
       </c>
       <c r="B511" s="3" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="C511" s="3" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.2">
@@ -9694,10 +9879,10 @@
         <v>2024</v>
       </c>
       <c r="B512" s="3" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="C512" s="3" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.2">
@@ -9705,10 +9890,10 @@
         <v>2024</v>
       </c>
       <c r="B513" s="3" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C513" s="3" t="s">
         <v>1163</v>
-      </c>
-      <c r="C513" s="3" t="s">
-        <v>1164</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.2">
@@ -9716,10 +9901,10 @@
         <v>2024</v>
       </c>
       <c r="B514" s="3" t="s">
-        <v>1117</v>
+        <v>1229</v>
       </c>
       <c r="C514" s="3" t="s">
-        <v>1118</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.2">
@@ -9727,10 +9912,10 @@
         <v>2024</v>
       </c>
       <c r="B515" s="3" t="s">
-        <v>1145</v>
+        <v>1116</v>
       </c>
       <c r="C515" s="3" t="s">
-        <v>1140</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.2">
@@ -9738,10 +9923,10 @@
         <v>2024</v>
       </c>
       <c r="B516" s="3" t="s">
-        <v>1084</v>
+        <v>1144</v>
       </c>
       <c r="C516" s="3" t="s">
-        <v>1083</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.2">
@@ -9749,10 +9934,10 @@
         <v>2024</v>
       </c>
       <c r="B517" s="3" t="s">
-        <v>1149</v>
+        <v>1083</v>
       </c>
       <c r="C517" s="3" t="s">
-        <v>1133</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.2">
@@ -9760,10 +9945,10 @@
         <v>2024</v>
       </c>
       <c r="B518" s="3" t="s">
-        <v>1161</v>
+        <v>1148</v>
       </c>
       <c r="C518" s="3" t="s">
-        <v>1162</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.2">
@@ -9771,10 +9956,10 @@
         <v>2024</v>
       </c>
       <c r="B519" s="3" t="s">
-        <v>1129</v>
+        <v>1160</v>
       </c>
       <c r="C519" s="3" t="s">
-        <v>1130</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.2">
@@ -9782,10 +9967,10 @@
         <v>2024</v>
       </c>
       <c r="B520" s="3" t="s">
-        <v>1132</v>
+        <v>1157</v>
       </c>
       <c r="C520" s="3" t="s">
-        <v>1131</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.2">
@@ -9793,10 +9978,10 @@
         <v>2024</v>
       </c>
       <c r="B521" s="3" t="s">
-        <v>1128</v>
+        <v>1167</v>
       </c>
       <c r="C521" s="3" t="s">
-        <v>1126</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.2">
@@ -9804,10 +9989,10 @@
         <v>2024</v>
       </c>
       <c r="B522" s="3" t="s">
-        <v>1138</v>
+        <v>1128</v>
       </c>
       <c r="C522" s="3" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.2">
@@ -9815,10 +10000,10 @@
         <v>2024</v>
       </c>
       <c r="B523" s="3" t="s">
-        <v>1148</v>
+        <v>1131</v>
       </c>
       <c r="C523" s="3" t="s">
-        <v>1147</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.2">
@@ -9826,10 +10011,10 @@
         <v>2024</v>
       </c>
       <c r="B524" s="3" t="s">
-        <v>1137</v>
+        <v>1127</v>
       </c>
       <c r="C524" s="3" t="s">
-        <v>1136</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.2">
@@ -9837,10 +10022,10 @@
         <v>2024</v>
       </c>
       <c r="B525" s="3" t="s">
-        <v>1119</v>
+        <v>1137</v>
       </c>
       <c r="C525" s="3" t="s">
-        <v>1116</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.2">
@@ -9848,10 +10033,10 @@
         <v>2024</v>
       </c>
       <c r="B526" s="3" t="s">
-        <v>1156</v>
+        <v>1147</v>
       </c>
       <c r="C526" s="3" t="s">
-        <v>1155</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.2">
@@ -9859,10 +10044,10 @@
         <v>2024</v>
       </c>
       <c r="B527" s="3" t="s">
-        <v>1141</v>
+        <v>1136</v>
       </c>
       <c r="C527" s="3" t="s">
-        <v>1142</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.2">
@@ -9870,10 +10055,10 @@
         <v>2024</v>
       </c>
       <c r="B528" s="3" t="s">
-        <v>1154</v>
+        <v>1118</v>
       </c>
       <c r="C528" s="3" t="s">
-        <v>1153</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.2">
@@ -9881,40 +10066,43 @@
         <v>2024</v>
       </c>
       <c r="B529" s="3" t="s">
-        <v>1151</v>
+        <v>1155</v>
       </c>
       <c r="C529" s="3" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A530" s="15">
+        <v>2024</v>
+      </c>
+      <c r="B530" s="3" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C530" s="3" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A531" s="15">
+        <v>2024</v>
+      </c>
+      <c r="B531" s="3" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C531" s="3" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A532" s="15">
+        <v>2024</v>
+      </c>
+      <c r="B532" s="3" t="s">
         <v>1150</v>
       </c>
-    </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A530" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B530" s="3" t="s">
-        <v>1124</v>
-      </c>
-      <c r="C530" s="3" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A531" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B531" s="3" t="s">
-        <v>1158</v>
-      </c>
-      <c r="C531" s="3" t="s">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A532" s="15" t="s">
-        <v>0</v>
-      </c>
       <c r="C532" s="3" t="s">
-        <v>1120</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.2">
@@ -9922,21 +10110,18 @@
         <v>0</v>
       </c>
       <c r="B533" s="3" t="s">
-        <v>1079</v>
+        <v>1123</v>
       </c>
       <c r="C533" s="3" t="s">
-        <v>1074</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A534" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B534" s="3" t="s">
-        <v>1146</v>
-      </c>
       <c r="C534" s="3" t="s">
-        <v>1139</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.2">
@@ -9944,10 +10129,10 @@
         <v>0</v>
       </c>
       <c r="B535" s="3" t="s">
-        <v>1165</v>
+        <v>1078</v>
       </c>
       <c r="C535" s="3" t="s">
-        <v>1166</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.2">
@@ -9955,10 +10140,10 @@
         <v>0</v>
       </c>
       <c r="B536" s="3" t="s">
-        <v>1143</v>
+        <v>1145</v>
       </c>
       <c r="C536" s="3" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.2">
@@ -9966,24 +10151,46 @@
         <v>0</v>
       </c>
       <c r="B537" s="3" t="s">
-        <v>1159</v>
+        <v>1164</v>
       </c>
       <c r="C537" s="3" t="s">
-        <v>1160</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A538" s="15" t="s">
         <v>0</v>
       </c>
+      <c r="B538" s="3" t="s">
+        <v>1142</v>
+      </c>
       <c r="C538" s="3" t="s">
-        <v>1167</v>
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A539" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B539" s="3" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C539" s="3" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A540" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C540" s="3" t="s">
+        <v>1230</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C537">
-    <sortCondition ref="A2:A537"/>
-    <sortCondition ref="C2:C537"/>
+  <sortState ref="A2:C539">
+    <sortCondition ref="A2:A539"/>
+    <sortCondition ref="C2:C539"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="containsText" dxfId="13" priority="10" operator="containsText" text="Submetido">
@@ -10020,7 +10227,7 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="A30" sqref="A30"/>
@@ -10226,10 +10433,10 @@
         <v>2019</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>908</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>909</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -10237,10 +10444,10 @@
         <v>2019</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>903</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>904</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>905</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -10248,10 +10455,10 @@
         <v>2019</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>905</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>906</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>907</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -10259,10 +10466,10 @@
         <v>2020</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>911</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>912</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>913</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -10270,10 +10477,10 @@
         <v>2020</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>909</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>910</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>911</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -10281,10 +10488,10 @@
         <v>2021</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>913</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>914</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>915</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -10292,10 +10499,10 @@
         <v>2021</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>915</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>916</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>917</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -10303,10 +10510,10 @@
         <v>2022</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -10314,10 +10521,10 @@
         <v>2022</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>917</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>918</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>919</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -10325,10 +10532,10 @@
         <v>2022</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>920</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>921</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -10336,10 +10543,10 @@
         <v>2023</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>1050</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>1051</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -10347,10 +10554,10 @@
         <v>2023</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -10358,18 +10565,18 @@
         <v>2023</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>1112</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>1113</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C29">
+  <sortState ref="A2:C29">
     <sortCondition ref="A2:A29"/>
     <sortCondition ref="C2:C29"/>
   </sortState>
-  <conditionalFormatting sqref="A1:A30 A32:A1048576">
+  <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="Aceito">
       <formula>NOT(ISERROR(SEARCH(("Aceito"),(A1))))</formula>
     </cfRule>
@@ -10382,7 +10589,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B30 B32:B1048576">
+  <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="duplicateValues" dxfId="8" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
@@ -10438,10 +10645,10 @@
         <v>2012</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>921</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>922</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>923</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -10449,10 +10656,10 @@
         <v>2016</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>923</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>924</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>925</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -10460,10 +10667,10 @@
         <v>2022</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>952</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>953</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>954</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -11135,7 +11342,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C1000"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -11169,7 +11376,7 @@
         <v>2021</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>842</v>
@@ -11180,10 +11387,10 @@
         <v>2022</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>926</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>927</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>928</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -11191,998 +11398,14 @@
         <v>2023</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>1058</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>1059</v>
-      </c>
-    </row>
-    <row r="17" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="18" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="19" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="20" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="21" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="22" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="23" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="24" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="25" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="26" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="27" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="28" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="29" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="30" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="31" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="32" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="33" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="34" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="35" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="36" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="37" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="38" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="39" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="40" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="41" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="42" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="43" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="44" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="45" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="46" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="47" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="48" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="49" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="50" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="51" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="52" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="53" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="54" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="55" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="56" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="57" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="58" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="59" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="60" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="61" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="62" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="63" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="64" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="65" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="66" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="67" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="68" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="69" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="70" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="71" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="72" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="73" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="74" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="75" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="76" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="77" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="78" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="79" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="80" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="81" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="82" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="83" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="84" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="85" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="86" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="87" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="88" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="89" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="90" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="91" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="92" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="93" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="94" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="95" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="96" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="97" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="98" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="99" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="100" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="101" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="102" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="103" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="104" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="105" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="106" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="107" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="108" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="109" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="110" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="111" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="112" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="113" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="114" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="115" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="116" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="117" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="118" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="119" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="120" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="121" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="122" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="123" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="124" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="125" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="126" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="127" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="128" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="129" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="130" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="131" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="132" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="133" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="134" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="135" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="136" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="137" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="138" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="139" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="140" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="141" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="142" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="143" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="144" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="145" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="146" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="147" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="148" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="149" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="150" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="151" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="152" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="153" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="154" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="155" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="156" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="157" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="158" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="159" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="160" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="161" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="162" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="163" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="164" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="165" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="166" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="167" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="168" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="169" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="170" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="171" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="172" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="173" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="174" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="175" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="176" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="177" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="178" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="179" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="180" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="181" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="182" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="183" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="184" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="185" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="186" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="187" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="188" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="189" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="190" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="191" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="192" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="193" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="194" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="195" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="196" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="197" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="198" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="199" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="200" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="201" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="202" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="203" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="204" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="205" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="206" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="207" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="208" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="209" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="210" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="211" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="212" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="213" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="214" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="215" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="216" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="217" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="218" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="219" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="220" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="221" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="222" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="223" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="224" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="225" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="226" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="227" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="228" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="229" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="230" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="231" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="232" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="233" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="234" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="235" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="236" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="237" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="238" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="239" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="240" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="241" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="242" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="243" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="244" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="245" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="246" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="247" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="248" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="249" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="250" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="251" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="252" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="253" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="254" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="255" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="256" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="257" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="258" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="259" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="260" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="261" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="262" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="263" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="264" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="265" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="266" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="267" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="268" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="269" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="270" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="271" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="272" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="273" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="274" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="275" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="276" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="277" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="278" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="279" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="280" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="281" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="282" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="283" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="284" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="285" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="286" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="287" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="288" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="289" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="290" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="291" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="292" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="293" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="294" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="295" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="296" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="297" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="298" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="299" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="300" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="301" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="302" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="303" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="304" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="305" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="306" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="307" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="308" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="309" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="310" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="311" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="312" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="313" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="314" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="315" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="316" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="317" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="318" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="319" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="320" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="321" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="322" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="323" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="324" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="325" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="326" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="327" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="328" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="329" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="330" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="331" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="332" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="333" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="334" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="335" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="336" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="337" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="338" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="339" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="340" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="341" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="342" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="343" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="344" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="345" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="346" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="347" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="348" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="349" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="350" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="351" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="352" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="353" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="354" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="355" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="356" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="357" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="358" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="359" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="360" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="361" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="362" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="363" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="364" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="365" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="366" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="367" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="368" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="369" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="370" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="371" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="372" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="373" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="374" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="375" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="376" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="377" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="378" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="379" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="380" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="381" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="382" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="383" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="384" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="385" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="386" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="387" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="388" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="389" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="390" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="391" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="392" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="393" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="394" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="395" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="396" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="397" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="398" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="399" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="400" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="401" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="402" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="403" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="404" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="405" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="406" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="407" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="408" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="409" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="410" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="411" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="412" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="413" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="414" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="415" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="416" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="417" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="418" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="419" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="420" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="421" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="422" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="423" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="424" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="425" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="426" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="427" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="428" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="429" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="430" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="431" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="432" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="433" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="434" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="435" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="436" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="437" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="438" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="439" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="440" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="441" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="442" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="443" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="444" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="445" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="446" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="447" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="448" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="449" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="450" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="451" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="452" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="453" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="454" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="455" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="456" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="457" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="458" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="459" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="460" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="461" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="462" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="463" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="464" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="465" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="466" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="467" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="468" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="469" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="470" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="471" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="472" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="473" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="474" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="475" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="476" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="477" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="478" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="479" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="480" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="481" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="482" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="483" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="484" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="485" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="486" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="487" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="488" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="489" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="490" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="491" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="492" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="493" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="494" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="495" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="496" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="497" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="498" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="499" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="500" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="501" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="502" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="503" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="504" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="505" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="506" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="507" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="508" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="509" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="510" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="511" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="512" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="513" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="514" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="515" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="516" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="517" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="518" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="519" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="520" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="521" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="522" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="523" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="524" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="525" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="526" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="527" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="528" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="529" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="530" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="531" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="532" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="533" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="534" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="535" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="536" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="537" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="538" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="539" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="540" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="541" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="542" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="543" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="544" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="545" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="546" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="547" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="548" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="549" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="550" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="551" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="552" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="553" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="554" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="555" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="556" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="557" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="558" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="559" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="560" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="561" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="562" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="563" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="564" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="565" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="566" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="567" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="568" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="569" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="570" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="571" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="572" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="573" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="574" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="575" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="576" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="577" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="578" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="579" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="580" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="581" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="582" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="583" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="584" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="585" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="586" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="587" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="588" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="589" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="590" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="591" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="592" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="593" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="594" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="595" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="596" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="597" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="598" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="599" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="600" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="601" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="602" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="603" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="604" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="605" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="606" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="607" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="608" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="609" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="610" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="611" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="612" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="613" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="614" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="615" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="616" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="617" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="618" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="619" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="620" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="621" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="622" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="623" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="624" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="625" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="626" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="627" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="628" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="629" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="630" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="631" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="632" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="633" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="634" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="635" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="636" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="637" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="638" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="639" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="640" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="641" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="642" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="643" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="644" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="645" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="646" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="647" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="648" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="649" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="650" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="651" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="652" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="653" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="654" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="655" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="656" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="657" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="658" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="659" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="660" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="661" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="662" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="663" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="664" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="665" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="666" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="667" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="668" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="669" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="670" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="671" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="672" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="673" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="674" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="675" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="676" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="677" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="678" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="679" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="680" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="681" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="682" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="683" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="684" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="685" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="686" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="687" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="688" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="689" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="690" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="691" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="692" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="693" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="694" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="695" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="696" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="697" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="698" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="699" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="700" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="701" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="702" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="703" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="704" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="705" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="706" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="707" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="708" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="709" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="710" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="711" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="712" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="713" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="714" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="715" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="716" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="717" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="718" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="719" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="720" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="721" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="722" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="723" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="724" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="725" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="726" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="727" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="728" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="729" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="730" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="731" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="732" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="733" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="734" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="735" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="736" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="737" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="738" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="739" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="740" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="741" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="742" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="743" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="744" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="745" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="746" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="747" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="748" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="749" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="750" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="751" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="752" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="753" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="754" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="755" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="756" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="757" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="758" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="759" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="760" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="761" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="762" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="763" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="764" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="765" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="766" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="767" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="768" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="769" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="770" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="771" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="772" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="773" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="774" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="775" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="776" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="777" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="778" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="779" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="780" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="781" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="782" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="783" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="784" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="785" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="786" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="787" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="788" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="789" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="790" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="791" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="792" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="793" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="794" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="795" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="796" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="797" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="798" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="799" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="800" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="801" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="802" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="803" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="804" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="805" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="806" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="807" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="808" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="809" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="810" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="811" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="812" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="813" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="814" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="815" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="816" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="817" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="818" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="819" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="820" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="821" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="822" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="823" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="824" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="825" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="826" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="827" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="828" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="829" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="830" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="831" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="832" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="833" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="834" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="835" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="836" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="837" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="838" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="839" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="840" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="841" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="842" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="843" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="844" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="845" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="846" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="847" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="848" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="849" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="850" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="851" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="852" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="853" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="854" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="855" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="856" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="857" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="858" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="859" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="860" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="861" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="862" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="863" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="864" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="865" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="866" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="867" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="868" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="869" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="870" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="871" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="872" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="873" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="874" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="875" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="876" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="877" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="878" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="879" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="880" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="881" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="882" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="883" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="884" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="885" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="886" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="887" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="888" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="889" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="890" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="891" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="892" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="893" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="894" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="895" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="896" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="897" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="898" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="899" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="900" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="901" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="902" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="903" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="904" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="905" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="906" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="907" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="908" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="909" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="910" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="911" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="912" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="913" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="914" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="915" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="916" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="917" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="918" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="919" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="920" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="921" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="922" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="923" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="924" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="925" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="926" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="927" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="928" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="929" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="930" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="931" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="932" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="933" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="934" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="935" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="936" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="937" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="938" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="939" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="940" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="941" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="942" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="943" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="944" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="945" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="946" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="947" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="948" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="949" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="950" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="951" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="952" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="953" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="954" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="955" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="956" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="957" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="958" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="959" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="960" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="961" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="962" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="963" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="964" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="965" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="966" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="967" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="968" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="969" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="970" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="971" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="972" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="973" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="974" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="975" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="976" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="977" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="978" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="979" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="980" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="981" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="982" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="983" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="984" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="985" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="986" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="987" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="988" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="989" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="990" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="991" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="992" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="993" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="994" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="995" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="996" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="997" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="998" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="999" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W1000">
+  <sortState ref="A2:W1000">
     <sortCondition ref="A2:A1000"/>
     <sortCondition ref="C2:C1000"/>
   </sortState>
@@ -12209,13 +11432,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A31" sqref="A31"/>
+      <selection pane="bottomRight" activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12243,10 +11466,10 @@
         <v>2013</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>1031</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>1032</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -12254,10 +11477,10 @@
         <v>2015</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>929</v>
+        <v>170</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>930</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -12265,10 +11488,10 @@
         <v>2015</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>170</v>
+        <v>928</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>1077</v>
+        <v>929</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -12276,10 +11499,10 @@
         <v>2017</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>931</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>932</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -12287,10 +11510,10 @@
         <v>2017</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>934</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>935</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>936</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -12298,10 +11521,10 @@
         <v>2017</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>932</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>933</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>934</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -12312,7 +11535,7 @@
         <v>902</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>903</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -12320,10 +11543,10 @@
         <v>2018</v>
       </c>
       <c r="B9" s="9" t="s">
+        <v>936</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>937</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>938</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -12331,10 +11554,10 @@
         <v>2018</v>
       </c>
       <c r="B10" s="11" t="s">
+        <v>938</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>939</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>940</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -12342,10 +11565,10 @@
         <v>2019</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>940</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>941</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>942</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -12353,10 +11576,10 @@
         <v>2020</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>944</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>945</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>946</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -12364,10 +11587,10 @@
         <v>2020</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>946</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>947</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>948</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -12375,10 +11598,10 @@
         <v>2020</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>948</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>949</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>950</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -12386,10 +11609,10 @@
         <v>2021</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>954</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>955</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>956</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -12397,10 +11620,10 @@
         <v>2021</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -12408,10 +11631,10 @@
         <v>2021</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -12419,10 +11642,10 @@
         <v>2021</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -12430,10 +11653,10 @@
         <v>2021</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -12441,10 +11664,10 @@
         <v>2021</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -12452,10 +11675,10 @@
         <v>2021</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -12463,10 +11686,10 @@
         <v>2021</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -12474,10 +11697,10 @@
         <v>2021</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>942</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>943</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>944</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -12485,10 +11708,10 @@
         <v>2021</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>950</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>951</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>952</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -12496,10 +11719,10 @@
         <v>2022</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>963</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>964</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>965</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -12507,21 +11730,21 @@
         <v>2022</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>1038</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>1039</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>2023</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>1093</v>
+      <c r="B27" s="3" t="s">
+        <v>1113</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>1094</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -12529,7 +11752,7 @@
         <v>2023</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>1095</v>
@@ -12540,10 +11763,10 @@
         <v>2023</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -12551,63 +11774,363 @@
         <v>2023</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>2023</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>1114</v>
+      <c r="B31" s="4" t="s">
+        <v>1092</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>1115</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B32" s="4"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B33" s="4"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B34" s="4"/>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B36" s="4"/>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B37" s="4"/>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B38" s="4"/>
+      <c r="A32" s="3">
+        <v>2024</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
+        <v>2024</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
+        <v>2024</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
+        <v>2024</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
+        <v>2024</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
+        <v>2024</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
+        <v>2024</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="3">
+        <v>2024</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="3">
+        <v>2024</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="3">
+        <v>2024</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="3">
+        <v>2024</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="3">
+        <v>2024</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="3">
+        <v>2024</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="3">
+        <v>2024</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="3">
+        <v>2024</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="3">
+        <v>2024</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="3">
+        <v>2024</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="3">
+        <v>2024</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="3">
+        <v>2024</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A51" s="3">
+        <v>2024</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C51" s="18" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="3">
+        <v>2024</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="3">
+        <v>2024</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="3">
+        <v>2024</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="3">
+        <v>2024</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="3">
+        <v>2024</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="3">
+        <v>2024</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="3">
+        <v>2024</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="3">
+        <v>2024</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="3">
+        <v>2024</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="3">
+        <v>2024</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>1177</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C26">
-    <sortCondition ref="A2:A26"/>
-    <sortCondition ref="C2:C26"/>
+  <sortState ref="A2:C61">
+    <sortCondition ref="A2:A61"/>
+    <sortCondition ref="C2:C61"/>
   </sortState>
-  <conditionalFormatting sqref="A1:A30 A32:A1048576">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF366092"/>
-        <color rgb="FFB8CCE4"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Aceito">
       <formula>NOT(ISERROR(SEARCH(("Aceito"),(A1))))</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A31">
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Mac/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (ciencias)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD424B42-D933-5D44-9810-3A1BECE8C80F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27EDCCC9-876C-A245-8690-AD3FCB4B6E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="460" windowWidth="24920" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1060" yWindow="500" windowWidth="24920" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PI.completos" sheetId="4" r:id="rId1"/>
@@ -27,6 +27,17 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId17" roundtripDataSignature="AMtx7mhtvOu6pfzrsiNcp99QyIcOLpxeQQ=="/>
     </ext>
@@ -35,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="1232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="1241">
   <si>
     <t>Aceito</t>
   </si>
@@ -3729,10 +3740,37 @@
     <t>10.3390/healthcare12070712</t>
   </si>
   <si>
-    <t>Evaluating performance on the Glittre=ADL test in men with long COVID 3 years after SARS-CoV-2 infection</t>
-  </si>
-  <si>
     <t>Cardiopulmonary Response in Post – COVID-19 Individuals: A Cross-Sectional Study Comparing the Londrina ADL Protocol, 6MWT, and Glittre ADL Test</t>
+  </si>
+  <si>
+    <t>10.1016/j.jesf.2024.03.010</t>
+  </si>
+  <si>
+    <t>Evaluating performance on the Glittre-ADL test in men with long COVID 3 years after SARS-CoV-2 infection</t>
+  </si>
+  <si>
+    <t>10.1002/pri.2087</t>
+  </si>
+  <si>
+    <t>10.20873/abef.2595-0096v6n16581</t>
+  </si>
+  <si>
+    <t>Métodos para avaliação da modulação condicionada da dor em pacientes com distúrbios musculoesqueléticos: uma revisão de escopo da literatura</t>
+  </si>
+  <si>
+    <t>10.1590/S0104-12902024230197pt</t>
+  </si>
+  <si>
+    <t>Quem pode atuar com acupuntura no Brasil?</t>
+  </si>
+  <si>
+    <t>Fatores associados à dor musculoesquelética em profissionais de enfermagem: um eatudo transversal retrospectivo</t>
+  </si>
+  <si>
+    <t>10.32098/mltj.01.2024.17</t>
+  </si>
+  <si>
+    <t>Reliability and Sensitivity of Smartphone Accelerometer to Assess Postural Balance in Healthy Individuals</t>
   </si>
 </sst>
 </file>
@@ -4247,13 +4285,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I540"/>
+  <dimension ref="A1:I544"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B509" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B517" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A540" sqref="A540"/>
+      <selection pane="bottomRight" activeCell="A544" sqref="A544"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9615,10 +9653,10 @@
         <v>2023</v>
       </c>
       <c r="B488" s="3" t="s">
-        <v>1086</v>
+        <v>1234</v>
       </c>
       <c r="C488" s="3" t="s">
-        <v>1108</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.2">
@@ -9626,10 +9664,10 @@
         <v>2023</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>972</v>
+        <v>1086</v>
       </c>
       <c r="C489" s="3" t="s">
-        <v>968</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.2">
@@ -9637,10 +9675,10 @@
         <v>2023</v>
       </c>
       <c r="B490" s="3" t="s">
-        <v>1068</v>
+        <v>972</v>
       </c>
       <c r="C490" s="3" t="s">
-        <v>1069</v>
+        <v>968</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.2">
@@ -9648,10 +9686,10 @@
         <v>2023</v>
       </c>
       <c r="B491" s="3" t="s">
-        <v>1084</v>
+        <v>1068</v>
       </c>
       <c r="C491" s="3" t="s">
-        <v>1085</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.2">
@@ -9659,10 +9697,10 @@
         <v>2023</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>1034</v>
+        <v>1084</v>
       </c>
       <c r="C492" s="3" t="s">
-        <v>1035</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.2">
@@ -9670,10 +9708,10 @@
         <v>2023</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>1079</v>
+        <v>1034</v>
       </c>
       <c r="C493" s="3" t="s">
-        <v>1080</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.2">
@@ -9681,10 +9719,10 @@
         <v>2023</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>1109</v>
+        <v>1079</v>
       </c>
       <c r="C494" s="3" t="s">
-        <v>1110</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.2">
@@ -9692,10 +9730,10 @@
         <v>2023</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>988</v>
+        <v>1109</v>
       </c>
       <c r="C495" s="3" t="s">
-        <v>987</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.2">
@@ -9703,10 +9741,10 @@
         <v>2023</v>
       </c>
       <c r="B496" s="3" t="s">
-        <v>1088</v>
+        <v>988</v>
       </c>
       <c r="C496" s="3" t="s">
-        <v>1087</v>
+        <v>987</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.2">
@@ -9714,10 +9752,10 @@
         <v>2023</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>1009</v>
+        <v>1088</v>
       </c>
       <c r="C497" s="3" t="s">
-        <v>1010</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.2">
@@ -9725,10 +9763,10 @@
         <v>2023</v>
       </c>
       <c r="B498" s="3" t="s">
-        <v>971</v>
+        <v>1009</v>
       </c>
       <c r="C498" s="3" t="s">
-        <v>966</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.2">
@@ -9736,10 +9774,10 @@
         <v>2023</v>
       </c>
       <c r="B499" s="3" t="s">
-        <v>1040</v>
+        <v>971</v>
       </c>
       <c r="C499" s="3" t="s">
-        <v>1039</v>
+        <v>966</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.2">
@@ -9747,10 +9785,10 @@
         <v>2023</v>
       </c>
       <c r="B500" s="3" t="s">
-        <v>1007</v>
+        <v>1040</v>
       </c>
       <c r="C500" s="3" t="s">
-        <v>1008</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.2">
@@ -9758,10 +9796,10 @@
         <v>2023</v>
       </c>
       <c r="B501" s="3" t="s">
-        <v>1059</v>
+        <v>1007</v>
       </c>
       <c r="C501" s="3" t="s">
-        <v>1060</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.2">
@@ -9769,10 +9807,10 @@
         <v>2023</v>
       </c>
       <c r="B502" s="3" t="s">
-        <v>1090</v>
+        <v>1059</v>
       </c>
       <c r="C502" s="3" t="s">
-        <v>1089</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.2">
@@ -9780,10 +9818,10 @@
         <v>2023</v>
       </c>
       <c r="B503" s="3" t="s">
-        <v>1032</v>
+        <v>1090</v>
       </c>
       <c r="C503" s="3" t="s">
-        <v>1033</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.2">
@@ -9791,32 +9829,32 @@
         <v>2023</v>
       </c>
       <c r="B504" s="3" t="s">
-        <v>1042</v>
+        <v>1032</v>
       </c>
       <c r="C504" s="3" t="s">
-        <v>1041</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A505" s="15">
         <v>2023</v>
       </c>
-      <c r="B505" s="4" t="s">
-        <v>861</v>
-      </c>
-      <c r="C505" s="4" t="s">
-        <v>862</v>
+      <c r="B505" s="3" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C505" s="3" t="s">
+        <v>1041</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A506" s="15">
         <v>2023</v>
       </c>
-      <c r="B506" s="3" t="s">
-        <v>1045</v>
-      </c>
-      <c r="C506" s="3" t="s">
-        <v>1046</v>
+      <c r="B506" s="4" t="s">
+        <v>861</v>
+      </c>
+      <c r="C506" s="4" t="s">
+        <v>862</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.2">
@@ -9824,10 +9862,10 @@
         <v>2023</v>
       </c>
       <c r="B507" s="3" t="s">
-        <v>1106</v>
+        <v>1045</v>
       </c>
       <c r="C507" s="3" t="s">
-        <v>1107</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.2">
@@ -9835,10 +9873,10 @@
         <v>2023</v>
       </c>
       <c r="B508" s="3" t="s">
-        <v>996</v>
+        <v>1106</v>
       </c>
       <c r="C508" s="3" t="s">
-        <v>997</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.2">
@@ -9846,10 +9884,10 @@
         <v>2023</v>
       </c>
       <c r="B509" s="3" t="s">
-        <v>1121</v>
+        <v>996</v>
       </c>
       <c r="C509" s="3" t="s">
-        <v>1122</v>
+        <v>997</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.2">
@@ -9857,10 +9895,10 @@
         <v>2023</v>
       </c>
       <c r="B510" s="3" t="s">
-        <v>1066</v>
+        <v>1121</v>
       </c>
       <c r="C510" s="3" t="s">
-        <v>1061</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.2">
@@ -9868,21 +9906,21 @@
         <v>2023</v>
       </c>
       <c r="B511" s="3" t="s">
-        <v>1056</v>
+        <v>1066</v>
       </c>
       <c r="C511" s="3" t="s">
-        <v>1055</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A512" s="15">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B512" s="3" t="s">
-        <v>1151</v>
+        <v>1056</v>
       </c>
       <c r="C512" s="3" t="s">
-        <v>1124</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.2">
@@ -9890,10 +9928,10 @@
         <v>2024</v>
       </c>
       <c r="B513" s="3" t="s">
-        <v>1162</v>
+        <v>1151</v>
       </c>
       <c r="C513" s="3" t="s">
-        <v>1163</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.2">
@@ -9901,10 +9939,10 @@
         <v>2024</v>
       </c>
       <c r="B514" s="3" t="s">
-        <v>1229</v>
+        <v>1162</v>
       </c>
       <c r="C514" s="3" t="s">
-        <v>1231</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.2">
@@ -9912,10 +9950,10 @@
         <v>2024</v>
       </c>
       <c r="B515" s="3" t="s">
-        <v>1116</v>
+        <v>1229</v>
       </c>
       <c r="C515" s="3" t="s">
-        <v>1117</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.2">
@@ -9923,10 +9961,10 @@
         <v>2024</v>
       </c>
       <c r="B516" s="3" t="s">
-        <v>1144</v>
+        <v>1116</v>
       </c>
       <c r="C516" s="3" t="s">
-        <v>1139</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.2">
@@ -9934,10 +9972,10 @@
         <v>2024</v>
       </c>
       <c r="B517" s="3" t="s">
-        <v>1083</v>
+        <v>1144</v>
       </c>
       <c r="C517" s="3" t="s">
-        <v>1082</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.2">
@@ -9945,10 +9983,10 @@
         <v>2024</v>
       </c>
       <c r="B518" s="3" t="s">
-        <v>1148</v>
+        <v>1083</v>
       </c>
       <c r="C518" s="3" t="s">
-        <v>1132</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.2">
@@ -9956,10 +9994,10 @@
         <v>2024</v>
       </c>
       <c r="B519" s="3" t="s">
-        <v>1160</v>
+        <v>1148</v>
       </c>
       <c r="C519" s="3" t="s">
-        <v>1161</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.2">
@@ -9967,10 +10005,10 @@
         <v>2024</v>
       </c>
       <c r="B520" s="3" t="s">
-        <v>1157</v>
+        <v>1160</v>
       </c>
       <c r="C520" s="3" t="s">
-        <v>1156</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.2">
@@ -9978,10 +10016,10 @@
         <v>2024</v>
       </c>
       <c r="B521" s="3" t="s">
-        <v>1167</v>
+        <v>1231</v>
       </c>
       <c r="C521" s="3" t="s">
-        <v>1119</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.2">
@@ -9989,10 +10027,10 @@
         <v>2024</v>
       </c>
       <c r="B522" s="3" t="s">
-        <v>1128</v>
+        <v>1233</v>
       </c>
       <c r="C522" s="3" t="s">
-        <v>1129</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.2">
@@ -10000,10 +10038,10 @@
         <v>2024</v>
       </c>
       <c r="B523" s="3" t="s">
-        <v>1131</v>
+        <v>1157</v>
       </c>
       <c r="C523" s="3" t="s">
-        <v>1130</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.2">
@@ -10011,10 +10049,10 @@
         <v>2024</v>
       </c>
       <c r="B524" s="3" t="s">
-        <v>1127</v>
+        <v>1167</v>
       </c>
       <c r="C524" s="3" t="s">
-        <v>1125</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.2">
@@ -10022,10 +10060,10 @@
         <v>2024</v>
       </c>
       <c r="B525" s="3" t="s">
-        <v>1137</v>
+        <v>1128</v>
       </c>
       <c r="C525" s="3" t="s">
-        <v>1126</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.2">
@@ -10033,10 +10071,10 @@
         <v>2024</v>
       </c>
       <c r="B526" s="3" t="s">
-        <v>1147</v>
+        <v>1131</v>
       </c>
       <c r="C526" s="3" t="s">
-        <v>1146</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.2">
@@ -10044,10 +10082,10 @@
         <v>2024</v>
       </c>
       <c r="B527" s="3" t="s">
-        <v>1136</v>
+        <v>1127</v>
       </c>
       <c r="C527" s="3" t="s">
-        <v>1135</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.2">
@@ -10055,10 +10093,10 @@
         <v>2024</v>
       </c>
       <c r="B528" s="3" t="s">
-        <v>1118</v>
+        <v>1137</v>
       </c>
       <c r="C528" s="3" t="s">
-        <v>1115</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.2">
@@ -10066,10 +10104,10 @@
         <v>2024</v>
       </c>
       <c r="B529" s="3" t="s">
-        <v>1155</v>
+        <v>1147</v>
       </c>
       <c r="C529" s="3" t="s">
-        <v>1154</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.2">
@@ -10077,10 +10115,10 @@
         <v>2024</v>
       </c>
       <c r="B530" s="3" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
       <c r="C530" s="3" t="s">
-        <v>1141</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.2">
@@ -10088,10 +10126,10 @@
         <v>2024</v>
       </c>
       <c r="B531" s="3" t="s">
-        <v>1153</v>
+        <v>1118</v>
       </c>
       <c r="C531" s="3" t="s">
-        <v>1152</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.2">
@@ -10099,51 +10137,54 @@
         <v>2024</v>
       </c>
       <c r="B532" s="3" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C532" s="3" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A533" s="15">
+        <v>2024</v>
+      </c>
+      <c r="B533" s="3" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C533" s="3" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A534" s="15">
+        <v>2024</v>
+      </c>
+      <c r="B534" s="3" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C534" s="3" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A535" s="15">
+        <v>2024</v>
+      </c>
+      <c r="B535" s="3" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C535" s="3" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A536" s="15">
+        <v>2024</v>
+      </c>
+      <c r="B536" s="3" t="s">
         <v>1150</v>
       </c>
-      <c r="C532" s="3" t="s">
+      <c r="C536" s="3" t="s">
         <v>1149</v>
-      </c>
-    </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A533" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B533" s="3" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C533" s="3" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A534" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C534" s="3" t="s">
-        <v>1166</v>
-      </c>
-    </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A535" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B535" s="3" t="s">
-        <v>1078</v>
-      </c>
-      <c r="C535" s="3" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A536" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B536" s="3" t="s">
-        <v>1145</v>
-      </c>
-      <c r="C536" s="3" t="s">
-        <v>1138</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.2">
@@ -10151,21 +10192,18 @@
         <v>0</v>
       </c>
       <c r="B537" s="3" t="s">
-        <v>1164</v>
+        <v>1123</v>
       </c>
       <c r="C537" s="3" t="s">
-        <v>1165</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A538" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B538" s="3" t="s">
-        <v>1142</v>
-      </c>
       <c r="C538" s="3" t="s">
-        <v>1143</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.2">
@@ -10173,24 +10211,71 @@
         <v>0</v>
       </c>
       <c r="B539" s="3" t="s">
-        <v>1158</v>
+        <v>1078</v>
       </c>
       <c r="C539" s="3" t="s">
-        <v>1159</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A540" s="15" t="s">
         <v>0</v>
       </c>
+      <c r="B540" s="3" t="s">
+        <v>1145</v>
+      </c>
       <c r="C540" s="3" t="s">
-        <v>1230</v>
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A541" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B541" s="3" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C541" s="3" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A542" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B542" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C542" s="3" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A543" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B543" s="3" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C543" s="3" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A544" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B544" s="3" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C544" s="3" t="s">
+        <v>1159</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C539">
-    <sortCondition ref="A2:A539"/>
-    <sortCondition ref="C2:C539"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C544">
+    <sortCondition ref="A2:A544"/>
+    <sortCondition ref="C2:C544"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="containsText" dxfId="13" priority="10" operator="containsText" text="Submetido">
@@ -10572,7 +10657,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C29">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C29">
     <sortCondition ref="A2:A29"/>
     <sortCondition ref="C2:C29"/>
   </sortState>
@@ -11405,7 +11490,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:W1000">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W1000">
     <sortCondition ref="A2:A1000"/>
     <sortCondition ref="C2:C1000"/>
   </sortState>
@@ -11435,10 +11520,10 @@
   <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A61" sqref="A61"/>
+      <selection pane="bottomRight" activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12122,7 +12207,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C61">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C61">
     <sortCondition ref="A2:A61"/>
     <sortCondition ref="C2:C61"/>
   </sortState>

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (ciencias)/ObservatorioCR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (arthur_sf)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27EDCCC9-876C-A245-8690-AD3FCB4B6E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3824124-978D-314D-9D00-4B05A2E22BC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="500" windowWidth="24920" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="1241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="1245">
   <si>
     <t>Aceito</t>
   </si>
@@ -3771,6 +3771,18 @@
   </si>
   <si>
     <t>Reliability and Sensitivity of Smartphone Accelerometer to Assess Postural Balance in Healthy Individuals</t>
+  </si>
+  <si>
+    <t>10.1016/j.jbmt.2024.04.049</t>
+  </si>
+  <si>
+    <t>EFFECT OF INSPIRATORY MUSCLE TRAINING ON PULMONARY FUNCTION, RESPIRATORY MUSCLE STRENGTH, AEROBIC PERFORMANCE, SPORTS SKILLS, AND QUALITY OF LIFE IN WHEELCHAIR RUGBY ATHLETES</t>
+  </si>
+  <si>
+    <t>10.1016/j.joca.2024.02.857</t>
+  </si>
+  <si>
+    <t>PREVALENCE OF NONSTEROIDAL ANTI-INFLAMMATORY DRUGS PRESCRIBED FOR OSTEOARTHRITIS: A SYSTEMATIC REVIEW AND META-ANALYSIS OF OBSERVATIONAL STUDIES</t>
   </si>
 </sst>
 </file>
@@ -4285,13 +4297,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I544"/>
+  <dimension ref="A1:I545"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B517" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A544" sqref="A544"/>
+      <selection pane="bottomRight" activeCell="A545" sqref="A545"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10270,6 +10282,17 @@
       </c>
       <c r="C544" s="3" t="s">
         <v>1159</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A545" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B545" s="3" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C545" s="3" t="s">
+        <v>1242</v>
       </c>
     </row>
   </sheetData>
@@ -11517,7 +11540,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B40" activePane="bottomRight" state="frozen"/>
@@ -12204,6 +12227,17 @@
       </c>
       <c r="C61" s="3" t="s">
         <v>1177</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="3">
+        <v>2024</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>1244</v>
       </c>
     </row>
   </sheetData>

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (arthur_sf)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3824124-978D-314D-9D00-4B05A2E22BC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A621E21-BD86-6F4C-A48F-1E78ACED0DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="500" windowWidth="24920" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1060" yWindow="500" windowWidth="24920" windowHeight="15540" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PI.completos" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="1245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="1254">
   <si>
     <t>Aceito</t>
   </si>
@@ -3783,6 +3783,33 @@
   </si>
   <si>
     <t>PREVALENCE OF NONSTEROIDAL ANTI-INFLAMMATORY DRUGS PRESCRIBED FOR OSTEOARTHRITIS: A SYSTEMATIC REVIEW AND META-ANALYSIS OF OBSERVATIONAL STUDIES</t>
+  </si>
+  <si>
+    <t>Clinical-functional frailty and risk of developing sarcopenia in community-dwelling older adults</t>
+  </si>
+  <si>
+    <t>Dynamic hyperinflation n exercise and its relationship with lung mechanics at rest in adults with central obesity</t>
+  </si>
+  <si>
+    <t>10.1016/j.resp.2024.104270</t>
+  </si>
+  <si>
+    <t>10.1519/JSC.0000000000004723</t>
+  </si>
+  <si>
+    <t>Comparison Between Traditional and Alternated Resistance Exercises on Blood Pressure, Acute Neuromuscular Responses, and Rating of Perceived Exertion in Recreationally Resistance-Trained Men</t>
+  </si>
+  <si>
+    <t>Paresis of the Right Hemidiaphragm and Anhidrosis of the Right Hemithorax: A Case Report</t>
+  </si>
+  <si>
+    <t>10.1164/ajrccm-conference.2024.209.1_MeetingAbstracts.A2453</t>
+  </si>
+  <si>
+    <t>Initial Experience of Using Diaphragmatic Ultrasound in Individuals With Spinal Cord Injury Who Practice Adapted Sports</t>
+  </si>
+  <si>
+    <t>10.1164/ajrccm-conference.2024.209.1_MeetingAbstracts.A4438</t>
   </si>
 </sst>
 </file>
@@ -4297,13 +4324,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I545"/>
+  <dimension ref="A1:I548"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B517" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B521" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A545" sqref="A545"/>
+      <selection pane="bottomRight" activeCell="A548" sqref="A548"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9984,10 +10011,10 @@
         <v>2024</v>
       </c>
       <c r="B517" s="3" t="s">
-        <v>1144</v>
+        <v>1248</v>
       </c>
       <c r="C517" s="3" t="s">
-        <v>1139</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.2">
@@ -9995,10 +10022,10 @@
         <v>2024</v>
       </c>
       <c r="B518" s="3" t="s">
-        <v>1083</v>
+        <v>1144</v>
       </c>
       <c r="C518" s="3" t="s">
-        <v>1082</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.2">
@@ -10006,10 +10033,10 @@
         <v>2024</v>
       </c>
       <c r="B519" s="3" t="s">
-        <v>1148</v>
+        <v>1247</v>
       </c>
       <c r="C519" s="3" t="s">
-        <v>1132</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.2">
@@ -10017,10 +10044,10 @@
         <v>2024</v>
       </c>
       <c r="B520" s="3" t="s">
-        <v>1160</v>
+        <v>1083</v>
       </c>
       <c r="C520" s="3" t="s">
-        <v>1161</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.2">
@@ -10028,10 +10055,10 @@
         <v>2024</v>
       </c>
       <c r="B521" s="3" t="s">
-        <v>1231</v>
+        <v>1148</v>
       </c>
       <c r="C521" s="3" t="s">
-        <v>1232</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.2">
@@ -10039,10 +10066,10 @@
         <v>2024</v>
       </c>
       <c r="B522" s="3" t="s">
-        <v>1233</v>
+        <v>1160</v>
       </c>
       <c r="C522" s="3" t="s">
-        <v>1166</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.2">
@@ -10050,10 +10077,10 @@
         <v>2024</v>
       </c>
       <c r="B523" s="3" t="s">
-        <v>1157</v>
+        <v>1231</v>
       </c>
       <c r="C523" s="3" t="s">
-        <v>1156</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.2">
@@ -10061,10 +10088,10 @@
         <v>2024</v>
       </c>
       <c r="B524" s="3" t="s">
-        <v>1167</v>
+        <v>1233</v>
       </c>
       <c r="C524" s="3" t="s">
-        <v>1119</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.2">
@@ -10072,10 +10099,10 @@
         <v>2024</v>
       </c>
       <c r="B525" s="3" t="s">
-        <v>1128</v>
+        <v>1157</v>
       </c>
       <c r="C525" s="3" t="s">
-        <v>1129</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.2">
@@ -10083,10 +10110,10 @@
         <v>2024</v>
       </c>
       <c r="B526" s="3" t="s">
-        <v>1131</v>
+        <v>1167</v>
       </c>
       <c r="C526" s="3" t="s">
-        <v>1130</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.2">
@@ -10094,10 +10121,10 @@
         <v>2024</v>
       </c>
       <c r="B527" s="3" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="C527" s="3" t="s">
-        <v>1125</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.2">
@@ -10105,10 +10132,10 @@
         <v>2024</v>
       </c>
       <c r="B528" s="3" t="s">
-        <v>1137</v>
+        <v>1131</v>
       </c>
       <c r="C528" s="3" t="s">
-        <v>1126</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.2">
@@ -10116,10 +10143,10 @@
         <v>2024</v>
       </c>
       <c r="B529" s="3" t="s">
-        <v>1147</v>
+        <v>1127</v>
       </c>
       <c r="C529" s="3" t="s">
-        <v>1146</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.2">
@@ -10127,10 +10154,10 @@
         <v>2024</v>
       </c>
       <c r="B530" s="3" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="C530" s="3" t="s">
-        <v>1135</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.2">
@@ -10138,10 +10165,10 @@
         <v>2024</v>
       </c>
       <c r="B531" s="3" t="s">
-        <v>1118</v>
+        <v>1147</v>
       </c>
       <c r="C531" s="3" t="s">
-        <v>1115</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.2">
@@ -10149,10 +10176,10 @@
         <v>2024</v>
       </c>
       <c r="B532" s="3" t="s">
-        <v>1239</v>
+        <v>1136</v>
       </c>
       <c r="C532" s="3" t="s">
-        <v>1240</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.2">
@@ -10160,10 +10187,10 @@
         <v>2024</v>
       </c>
       <c r="B533" s="3" t="s">
-        <v>1155</v>
+        <v>1118</v>
       </c>
       <c r="C533" s="3" t="s">
-        <v>1154</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.2">
@@ -10171,10 +10198,10 @@
         <v>2024</v>
       </c>
       <c r="B534" s="3" t="s">
-        <v>1140</v>
+        <v>1236</v>
       </c>
       <c r="C534" s="3" t="s">
-        <v>1141</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.2">
@@ -10182,10 +10209,10 @@
         <v>2024</v>
       </c>
       <c r="B535" s="3" t="s">
-        <v>1153</v>
+        <v>1239</v>
       </c>
       <c r="C535" s="3" t="s">
-        <v>1152</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.2">
@@ -10193,51 +10220,51 @@
         <v>2024</v>
       </c>
       <c r="B536" s="3" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C536" s="3" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A537" s="15">
+        <v>2024</v>
+      </c>
+      <c r="B537" s="3" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C537" s="3" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A538" s="15">
+        <v>2024</v>
+      </c>
+      <c r="B538" s="3" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C538" s="3" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A539" s="15">
+        <v>2024</v>
+      </c>
+      <c r="B539" s="3" t="s">
         <v>1150</v>
       </c>
-      <c r="C536" s="3" t="s">
+      <c r="C539" s="3" t="s">
         <v>1149</v>
-      </c>
-    </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A537" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B537" s="3" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C537" s="3" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A538" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C538" s="3" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A539" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B539" s="3" t="s">
-        <v>1078</v>
-      </c>
-      <c r="C539" s="3" t="s">
-        <v>1073</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A540" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B540" s="3" t="s">
-        <v>1145</v>
-      </c>
       <c r="C540" s="3" t="s">
-        <v>1138</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.2">
@@ -10245,10 +10272,10 @@
         <v>0</v>
       </c>
       <c r="B541" s="3" t="s">
-        <v>1164</v>
+        <v>1241</v>
       </c>
       <c r="C541" s="3" t="s">
-        <v>1165</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.2">
@@ -10256,21 +10283,18 @@
         <v>0</v>
       </c>
       <c r="B542" s="3" t="s">
-        <v>1236</v>
+        <v>1123</v>
       </c>
       <c r="C542" s="3" t="s">
-        <v>1237</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A543" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B543" s="3" t="s">
-        <v>1142</v>
-      </c>
       <c r="C543" s="3" t="s">
-        <v>1143</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.2">
@@ -10278,10 +10302,10 @@
         <v>0</v>
       </c>
       <c r="B544" s="3" t="s">
-        <v>1158</v>
+        <v>1078</v>
       </c>
       <c r="C544" s="3" t="s">
-        <v>1159</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.2">
@@ -10289,16 +10313,49 @@
         <v>0</v>
       </c>
       <c r="B545" s="3" t="s">
-        <v>1241</v>
+        <v>1145</v>
       </c>
       <c r="C545" s="3" t="s">
-        <v>1242</v>
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A546" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B546" s="3" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C546" s="3" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A547" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B547" s="3" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C547" s="3" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A548" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B548" s="3" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C548" s="3" t="s">
+        <v>1159</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C544">
-    <sortCondition ref="A2:A544"/>
-    <sortCondition ref="C2:C544"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C548">
+    <sortCondition ref="A2:A548"/>
+    <sortCondition ref="C2:C548"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="containsText" dxfId="13" priority="10" operator="containsText" text="Submetido">
@@ -11540,13 +11597,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A62" sqref="A62"/>
+      <selection pane="bottomRight" activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12238,6 +12295,28 @@
       </c>
       <c r="C62" s="3" t="s">
         <v>1244</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="3">
+        <v>2024</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="3">
+        <v>2024</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>1252</v>
       </c>
     </row>
   </sheetData>

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (arthur_sf)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A621E21-BD86-6F4C-A48F-1E78ACED0DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6049D998-1F6B-BE40-8EA8-C13205C7DA92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="500" windowWidth="24920" windowHeight="15540" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1060" yWindow="500" windowWidth="24920" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PI.completos" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="1254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="1255">
   <si>
     <t>Aceito</t>
   </si>
@@ -3810,6 +3810,9 @@
   </si>
   <si>
     <t>10.1164/ajrccm-conference.2024.209.1_MeetingAbstracts.A4438</t>
+  </si>
+  <si>
+    <t>One spinal manipulation session reduces local pain sensitivity but does not affect postural stability in individuals with chronic low back pain: a randomised, placebo-controlled trial</t>
   </si>
 </sst>
 </file>
@@ -4324,13 +4327,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I548"/>
+  <dimension ref="A1:I549"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B521" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A548" sqref="A548"/>
+      <selection pane="bottomRight" activeCell="A549" sqref="A549"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10350,6 +10353,14 @@
       </c>
       <c r="C548" s="3" t="s">
         <v>1159</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A549" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C549" s="3" t="s">
+        <v>1254</v>
       </c>
     </row>
   </sheetData>
@@ -11599,7 +11610,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (arthur_sf)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6049D998-1F6B-BE40-8EA8-C13205C7DA92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB591A6-9E73-5B4E-90D5-D9DC30C7EF4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="500" windowWidth="24920" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="1255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="1256">
   <si>
     <t>Aceito</t>
   </si>
@@ -3813,6 +3813,9 @@
   </si>
   <si>
     <t>One spinal manipulation session reduces local pain sensitivity but does not affect postural stability in individuals with chronic low back pain: a randomised, placebo-controlled trial</t>
+  </si>
+  <si>
+    <t>he importance of language and further discussion on pain nomenclature</t>
   </si>
 </sst>
 </file>
@@ -4330,7 +4333,7 @@
   <dimension ref="A1:I549"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B521" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B522" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A549" sqref="A549"/>
@@ -10400,13 +10403,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A30" sqref="A30"/>
+      <selection pane="bottomRight" activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10745,6 +10748,14 @@
       </c>
       <c r="C30" s="3" t="s">
         <v>1112</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>2024</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>1255</v>
       </c>
     </row>
   </sheetData>

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -1,29 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (arthur_sf)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB591A6-9E73-5B4E-90D5-D9DC30C7EF4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE2830CC-EBC6-3248-B7A8-08652D9C6B55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="500" windowWidth="24920" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="PI.completos" sheetId="4" r:id="rId1"/>
-    <sheet name="PI.resumos" sheetId="5" r:id="rId2"/>
-    <sheet name="PI.capitulos" sheetId="6" r:id="rId3"/>
-    <sheet name="PI.preprints" sheetId="7" r:id="rId4"/>
-    <sheet name="PI.anais" sheetId="8" r:id="rId5"/>
+    <sheet name="artigos-completos" sheetId="4" r:id="rId1"/>
+    <sheet name="editorias" sheetId="5" r:id="rId2"/>
+    <sheet name="livros" sheetId="6" r:id="rId3"/>
+    <sheet name="trabalhos-anais" sheetId="8" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">PI.anais!$A$1:$C$38</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PI.completos!$A$1:$C$496</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">PI.preprints!$A$1:$C$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">PI.resumos!$A$1:$C$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'artigos-completos'!$A$1:$C$496</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">editorias!$A$1:$C$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'trabalhos-anais'!$A$1:$C$38</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="1256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="1253">
   <si>
     <t>Aceito</t>
   </si>
@@ -2824,15 +2822,6 @@
     <t>Methods for Assessment of Interrater Reliability for Diagnosis and Intervention in Traditional Chinese Medicine Studies</t>
   </si>
   <si>
-    <t>10.21203/rs.3.rs-992517/v1</t>
-  </si>
-  <si>
-    <t>10.21203/rs.3.rs-1438806/v1</t>
-  </si>
-  <si>
-    <t>Cognitive Functional Therapy (CFT) compared with a combined Core Training Exercise and Manual Therapy in patients with non-specific chronic low back pain: a study protocol for a randomized controlled trial</t>
-  </si>
-  <si>
     <t>10.1016/j.jns.2015.08.935</t>
   </si>
   <si>
@@ -3221,12 +3210,6 @@
     <t>10.1002/msc.1778</t>
   </si>
   <si>
-    <t>10.20944/preprints202305.1684.v1</t>
-  </si>
-  <si>
-    <t>Reference Values for the Grocery Shelving Test among United Arab Emirates Population: A Cross Sectional Study</t>
-  </si>
-  <si>
     <t>10.1002/acr.25157</t>
   </si>
   <si>
@@ -3816,6 +3799,12 @@
   </si>
   <si>
     <t>he importance of language and further discussion on pain nomenclature</t>
+  </si>
+  <si>
+    <t>10.1016/j.jclinepi.2024.111398</t>
+  </si>
+  <si>
+    <t>Questionnaires assessing knowledge and beliefs about musculoskeletal conditions are potentially suitable for use, but further research is needed: a systematic review</t>
   </si>
 </sst>
 </file>
@@ -3972,7 +3961,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="12">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3980,27 +3969,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6EFCE"/>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4330,13 +4298,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I549"/>
+  <dimension ref="A1:I550"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B522" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A549" sqref="A549"/>
+      <selection pane="bottomRight" activeCell="A550" sqref="A550"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4520,10 +4488,10 @@
         <v>2010</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -4628,10 +4596,10 @@
         <v>2011</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -4714,10 +4682,10 @@
         <v>2012</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -4758,10 +4726,10 @@
         <v>2012</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>1081</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -4769,10 +4737,10 @@
         <v>2012</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -4780,10 +4748,10 @@
         <v>2012</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -4791,10 +4759,10 @@
         <v>2012</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -5867,7 +5835,7 @@
         <v>2016</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="C137" s="9" t="s">
         <v>267</v>
@@ -8597,10 +8565,10 @@
         <v>2021</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="C387" s="3" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.2">
@@ -8704,7 +8672,7 @@
         <v>2021</v>
       </c>
       <c r="C397" s="3" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.2">
@@ -9097,10 +9065,10 @@
         <v>2022</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="C433" s="3" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.2">
@@ -9108,10 +9076,10 @@
         <v>2022</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="C434" s="3" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.2">
@@ -9142,7 +9110,7 @@
       </c>
       <c r="B437" s="4"/>
       <c r="C437" s="4" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.2">
@@ -9172,10 +9140,10 @@
         <v>2022</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="C440" s="3" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.2">
@@ -9194,10 +9162,10 @@
         <v>2022</v>
       </c>
       <c r="B442" s="4" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="C442" s="4" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.2">
@@ -9205,7 +9173,7 @@
         <v>2022</v>
       </c>
       <c r="B443" s="4" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="C443" s="4" t="s">
         <v>800</v>
@@ -9227,10 +9195,10 @@
         <v>2022</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="C445" s="3" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.2">
@@ -9326,10 +9294,10 @@
         <v>2022</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="C454" s="3" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.2">
@@ -9370,10 +9338,10 @@
         <v>2022</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C458" s="3" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.2">
@@ -9403,10 +9371,10 @@
         <v>2023</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="C461" s="3" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.2">
@@ -9414,10 +9382,10 @@
         <v>2023</v>
       </c>
       <c r="B462" s="4" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="C462" s="4" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.2">
@@ -9425,10 +9393,10 @@
         <v>2023</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="C463" s="3" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.2">
@@ -9436,10 +9404,10 @@
         <v>2023</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>1070</v>
+        <v>1065</v>
       </c>
       <c r="C464" s="3" t="s">
-        <v>1062</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.2">
@@ -9447,10 +9415,10 @@
         <v>2023</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
       <c r="C465" s="3" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.2">
@@ -9458,10 +9426,10 @@
         <v>2023</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>1072</v>
+        <v>1067</v>
       </c>
       <c r="C466" s="3" t="s">
-        <v>1071</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.2">
@@ -9469,10 +9437,10 @@
         <v>2023</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="C467" s="3" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.2">
@@ -9480,10 +9448,10 @@
         <v>2023</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="C468" s="3" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.2">
@@ -9491,10 +9459,10 @@
         <v>2023</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
       <c r="C469" s="3" t="s">
-        <v>1075</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.2">
@@ -9502,10 +9470,10 @@
         <v>2023</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="C470" s="3" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.2">
@@ -9513,10 +9481,10 @@
         <v>2023</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="C471" s="3" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.2">
@@ -9524,10 +9492,10 @@
         <v>2023</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>1101</v>
+        <v>1096</v>
       </c>
       <c r="C472" s="3" t="s">
-        <v>1091</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.2">
@@ -9535,10 +9503,10 @@
         <v>2023</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>1077</v>
+        <v>1072</v>
       </c>
       <c r="C473" s="3" t="s">
-        <v>1065</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.2">
@@ -9546,10 +9514,10 @@
         <v>2023</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>1097</v>
+        <v>1092</v>
       </c>
       <c r="C474" s="3" t="s">
-        <v>1098</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.2">
@@ -9557,10 +9525,10 @@
         <v>2023</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="C475" s="3" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.2">
@@ -9569,7 +9537,7 @@
       </c>
       <c r="B476" s="4"/>
       <c r="C476" s="4" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.2">
@@ -9577,10 +9545,10 @@
         <v>2023</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="C477" s="3" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.2">
@@ -9588,10 +9556,10 @@
         <v>2023</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="C478" s="3" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.2">
@@ -9599,10 +9567,10 @@
         <v>2023</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>1103</v>
+        <v>1098</v>
       </c>
       <c r="C479" s="3" t="s">
-        <v>1102</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.2">
@@ -9610,10 +9578,10 @@
         <v>2023</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>1099</v>
+        <v>1094</v>
       </c>
       <c r="C480" s="3" t="s">
-        <v>1100</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.2">
@@ -9621,10 +9589,10 @@
         <v>2023</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>1064</v>
+        <v>1059</v>
       </c>
       <c r="C481" s="3" t="s">
-        <v>1063</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.2">
@@ -9632,10 +9600,10 @@
         <v>2023</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>1067</v>
+        <v>1062</v>
       </c>
       <c r="C482" s="3" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.2">
@@ -9654,7 +9622,7 @@
         <v>2023</v>
       </c>
       <c r="B484" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="C484" s="3" t="s">
         <v>865</v>
@@ -9665,10 +9633,10 @@
         <v>2023</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>1104</v>
+        <v>1099</v>
       </c>
       <c r="C485" s="3" t="s">
-        <v>1105</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.2">
@@ -9676,10 +9644,10 @@
         <v>2023</v>
       </c>
       <c r="B486" s="3" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="C486" s="3" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.2">
@@ -9698,10 +9666,10 @@
         <v>2023</v>
       </c>
       <c r="B488" s="3" t="s">
-        <v>1234</v>
+        <v>1229</v>
       </c>
       <c r="C488" s="3" t="s">
-        <v>1235</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.2">
@@ -9709,10 +9677,10 @@
         <v>2023</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>1086</v>
+        <v>1081</v>
       </c>
       <c r="C489" s="3" t="s">
-        <v>1108</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.2">
@@ -9720,10 +9688,10 @@
         <v>2023</v>
       </c>
       <c r="B490" s="3" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="C490" s="3" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.2">
@@ -9731,10 +9699,10 @@
         <v>2023</v>
       </c>
       <c r="B491" s="3" t="s">
-        <v>1068</v>
+        <v>1063</v>
       </c>
       <c r="C491" s="3" t="s">
-        <v>1069</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.2">
@@ -9742,10 +9710,10 @@
         <v>2023</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>1084</v>
+        <v>1079</v>
       </c>
       <c r="C492" s="3" t="s">
-        <v>1085</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.2">
@@ -9753,10 +9721,10 @@
         <v>2023</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="C493" s="3" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.2">
@@ -9764,10 +9732,10 @@
         <v>2023</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>1079</v>
+        <v>1074</v>
       </c>
       <c r="C494" s="3" t="s">
-        <v>1080</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.2">
@@ -9775,10 +9743,10 @@
         <v>2023</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>1109</v>
+        <v>1104</v>
       </c>
       <c r="C495" s="3" t="s">
-        <v>1110</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.2">
@@ -9786,10 +9754,10 @@
         <v>2023</v>
       </c>
       <c r="B496" s="3" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="C496" s="3" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.2">
@@ -9797,10 +9765,10 @@
         <v>2023</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
       <c r="C497" s="3" t="s">
-        <v>1087</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.2">
@@ -9808,10 +9776,10 @@
         <v>2023</v>
       </c>
       <c r="B498" s="3" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="C498" s="3" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.2">
@@ -9819,10 +9787,10 @@
         <v>2023</v>
       </c>
       <c r="B499" s="3" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="C499" s="3" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.2">
@@ -9830,10 +9798,10 @@
         <v>2023</v>
       </c>
       <c r="B500" s="3" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="C500" s="3" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.2">
@@ -9841,10 +9809,10 @@
         <v>2023</v>
       </c>
       <c r="B501" s="3" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="C501" s="3" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.2">
@@ -9852,10 +9820,10 @@
         <v>2023</v>
       </c>
       <c r="B502" s="3" t="s">
-        <v>1059</v>
+        <v>1054</v>
       </c>
       <c r="C502" s="3" t="s">
-        <v>1060</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.2">
@@ -9863,10 +9831,10 @@
         <v>2023</v>
       </c>
       <c r="B503" s="3" t="s">
-        <v>1090</v>
+        <v>1085</v>
       </c>
       <c r="C503" s="3" t="s">
-        <v>1089</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.2">
@@ -9874,10 +9842,10 @@
         <v>2023</v>
       </c>
       <c r="B504" s="3" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="C504" s="3" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.2">
@@ -9885,10 +9853,10 @@
         <v>2023</v>
       </c>
       <c r="B505" s="3" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="C505" s="3" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.2">
@@ -9907,10 +9875,10 @@
         <v>2023</v>
       </c>
       <c r="B507" s="3" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="C507" s="3" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.2">
@@ -9918,10 +9886,10 @@
         <v>2023</v>
       </c>
       <c r="B508" s="3" t="s">
-        <v>1106</v>
+        <v>1101</v>
       </c>
       <c r="C508" s="3" t="s">
-        <v>1107</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.2">
@@ -9929,10 +9897,10 @@
         <v>2023</v>
       </c>
       <c r="B509" s="3" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="C509" s="3" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.2">
@@ -9940,10 +9908,10 @@
         <v>2023</v>
       </c>
       <c r="B510" s="3" t="s">
-        <v>1121</v>
+        <v>1116</v>
       </c>
       <c r="C510" s="3" t="s">
-        <v>1122</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.2">
@@ -9951,10 +9919,10 @@
         <v>2023</v>
       </c>
       <c r="B511" s="3" t="s">
-        <v>1066</v>
+        <v>1061</v>
       </c>
       <c r="C511" s="3" t="s">
-        <v>1061</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.2">
@@ -9962,10 +9930,10 @@
         <v>2023</v>
       </c>
       <c r="B512" s="3" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="C512" s="3" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.2">
@@ -9973,10 +9941,10 @@
         <v>2024</v>
       </c>
       <c r="B513" s="3" t="s">
-        <v>1151</v>
+        <v>1146</v>
       </c>
       <c r="C513" s="3" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.2">
@@ -9984,10 +9952,10 @@
         <v>2024</v>
       </c>
       <c r="B514" s="3" t="s">
-        <v>1162</v>
+        <v>1157</v>
       </c>
       <c r="C514" s="3" t="s">
-        <v>1163</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.2">
@@ -9995,10 +9963,10 @@
         <v>2024</v>
       </c>
       <c r="B515" s="3" t="s">
-        <v>1229</v>
+        <v>1224</v>
       </c>
       <c r="C515" s="3" t="s">
-        <v>1230</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.2">
@@ -10006,10 +9974,10 @@
         <v>2024</v>
       </c>
       <c r="B516" s="3" t="s">
-        <v>1116</v>
+        <v>1111</v>
       </c>
       <c r="C516" s="3" t="s">
-        <v>1117</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.2">
@@ -10017,10 +9985,10 @@
         <v>2024</v>
       </c>
       <c r="B517" s="3" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="C517" s="3" t="s">
-        <v>1249</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.2">
@@ -10028,10 +9996,10 @@
         <v>2024</v>
       </c>
       <c r="B518" s="3" t="s">
-        <v>1144</v>
+        <v>1139</v>
       </c>
       <c r="C518" s="3" t="s">
-        <v>1139</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.2">
@@ -10039,10 +10007,10 @@
         <v>2024</v>
       </c>
       <c r="B519" s="3" t="s">
-        <v>1247</v>
+        <v>1242</v>
       </c>
       <c r="C519" s="3" t="s">
-        <v>1246</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.2">
@@ -10050,10 +10018,10 @@
         <v>2024</v>
       </c>
       <c r="B520" s="3" t="s">
-        <v>1083</v>
+        <v>1078</v>
       </c>
       <c r="C520" s="3" t="s">
-        <v>1082</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.2">
@@ -10061,10 +10029,10 @@
         <v>2024</v>
       </c>
       <c r="B521" s="3" t="s">
-        <v>1148</v>
+        <v>1143</v>
       </c>
       <c r="C521" s="3" t="s">
-        <v>1132</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.2">
@@ -10072,10 +10040,10 @@
         <v>2024</v>
       </c>
       <c r="B522" s="3" t="s">
-        <v>1160</v>
+        <v>1155</v>
       </c>
       <c r="C522" s="3" t="s">
-        <v>1161</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.2">
@@ -10083,10 +10051,10 @@
         <v>2024</v>
       </c>
       <c r="B523" s="3" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
       <c r="C523" s="3" t="s">
-        <v>1232</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.2">
@@ -10094,10 +10062,10 @@
         <v>2024</v>
       </c>
       <c r="B524" s="3" t="s">
-        <v>1233</v>
+        <v>1228</v>
       </c>
       <c r="C524" s="3" t="s">
-        <v>1166</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.2">
@@ -10105,10 +10073,10 @@
         <v>2024</v>
       </c>
       <c r="B525" s="3" t="s">
-        <v>1157</v>
+        <v>1152</v>
       </c>
       <c r="C525" s="3" t="s">
-        <v>1156</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.2">
@@ -10116,10 +10084,10 @@
         <v>2024</v>
       </c>
       <c r="B526" s="3" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
       <c r="C526" s="3" t="s">
-        <v>1119</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.2">
@@ -10127,10 +10095,10 @@
         <v>2024</v>
       </c>
       <c r="B527" s="3" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="C527" s="3" t="s">
-        <v>1129</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.2">
@@ -10138,10 +10106,10 @@
         <v>2024</v>
       </c>
       <c r="B528" s="3" t="s">
-        <v>1131</v>
+        <v>1126</v>
       </c>
       <c r="C528" s="3" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.2">
@@ -10149,10 +10117,10 @@
         <v>2024</v>
       </c>
       <c r="B529" s="3" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
       <c r="C529" s="3" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.2">
@@ -10160,10 +10128,10 @@
         <v>2024</v>
       </c>
       <c r="B530" s="3" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="C530" s="3" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.2">
@@ -10171,10 +10139,10 @@
         <v>2024</v>
       </c>
       <c r="B531" s="3" t="s">
-        <v>1147</v>
+        <v>1142</v>
       </c>
       <c r="C531" s="3" t="s">
-        <v>1146</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.2">
@@ -10182,10 +10150,10 @@
         <v>2024</v>
       </c>
       <c r="B532" s="3" t="s">
-        <v>1136</v>
+        <v>1131</v>
       </c>
       <c r="C532" s="3" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.2">
@@ -10193,10 +10161,10 @@
         <v>2024</v>
       </c>
       <c r="B533" s="3" t="s">
-        <v>1118</v>
+        <v>1113</v>
       </c>
       <c r="C533" s="3" t="s">
-        <v>1115</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.2">
@@ -10204,10 +10172,10 @@
         <v>2024</v>
       </c>
       <c r="B534" s="3" t="s">
-        <v>1236</v>
+        <v>1231</v>
       </c>
       <c r="C534" s="3" t="s">
-        <v>1237</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.2">
@@ -10215,10 +10183,10 @@
         <v>2024</v>
       </c>
       <c r="B535" s="3" t="s">
-        <v>1239</v>
+        <v>1234</v>
       </c>
       <c r="C535" s="3" t="s">
-        <v>1240</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.2">
@@ -10226,10 +10194,10 @@
         <v>2024</v>
       </c>
       <c r="B536" s="3" t="s">
-        <v>1155</v>
+        <v>1150</v>
       </c>
       <c r="C536" s="3" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.2">
@@ -10237,10 +10205,10 @@
         <v>2024</v>
       </c>
       <c r="B537" s="3" t="s">
-        <v>1140</v>
+        <v>1135</v>
       </c>
       <c r="C537" s="3" t="s">
-        <v>1141</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.2">
@@ -10248,10 +10216,10 @@
         <v>2024</v>
       </c>
       <c r="B538" s="3" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="C538" s="3" t="s">
-        <v>1152</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.2">
@@ -10259,10 +10227,10 @@
         <v>2024</v>
       </c>
       <c r="B539" s="3" t="s">
-        <v>1150</v>
+        <v>1145</v>
       </c>
       <c r="C539" s="3" t="s">
-        <v>1149</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.2">
@@ -10270,7 +10238,7 @@
         <v>0</v>
       </c>
       <c r="C540" s="3" t="s">
-        <v>1245</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.2">
@@ -10278,10 +10246,10 @@
         <v>0</v>
       </c>
       <c r="B541" s="3" t="s">
-        <v>1241</v>
+        <v>1236</v>
       </c>
       <c r="C541" s="3" t="s">
-        <v>1242</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.2">
@@ -10289,10 +10257,10 @@
         <v>0</v>
       </c>
       <c r="B542" s="3" t="s">
-        <v>1123</v>
+        <v>1118</v>
       </c>
       <c r="C542" s="3" t="s">
-        <v>1120</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.2">
@@ -10300,7 +10268,7 @@
         <v>0</v>
       </c>
       <c r="C543" s="3" t="s">
-        <v>1238</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.2">
@@ -10308,10 +10276,10 @@
         <v>0</v>
       </c>
       <c r="B544" s="3" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="C544" s="3" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.2">
@@ -10319,10 +10287,10 @@
         <v>0</v>
       </c>
       <c r="B545" s="3" t="s">
-        <v>1145</v>
+        <v>1140</v>
       </c>
       <c r="C545" s="3" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.2">
@@ -10330,10 +10298,10 @@
         <v>0</v>
       </c>
       <c r="B546" s="3" t="s">
-        <v>1164</v>
+        <v>1159</v>
       </c>
       <c r="C546" s="3" t="s">
-        <v>1165</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.2">
@@ -10341,10 +10309,10 @@
         <v>0</v>
       </c>
       <c r="B547" s="3" t="s">
-        <v>1142</v>
+        <v>1137</v>
       </c>
       <c r="C547" s="3" t="s">
-        <v>1143</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.2">
@@ -10352,10 +10320,10 @@
         <v>0</v>
       </c>
       <c r="B548" s="3" t="s">
-        <v>1158</v>
+        <v>1153</v>
       </c>
       <c r="C548" s="3" t="s">
-        <v>1159</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.2">
@@ -10363,7 +10331,18 @@
         <v>0</v>
       </c>
       <c r="C549" s="3" t="s">
-        <v>1254</v>
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A550" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B550" s="3" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C550" s="3" t="s">
+        <v>1252</v>
       </c>
     </row>
   </sheetData>
@@ -10372,10 +10351,10 @@
     <sortCondition ref="C2:C548"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="containsText" dxfId="13" priority="10" operator="containsText" text="Submetido">
+    <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="Submetido">
       <formula>NOT(ISERROR(SEARCH(("Submetido"),(A1))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="11" operator="containsText" text="Aceito">
+    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="Aceito">
       <formula>NOT(ISERROR(SEARCH(("Aceito"),(A1))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="102">
@@ -10388,10 +10367,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="11" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="B449" r:id="rId1" xr:uid="{9BCE4324-8A77-884E-80ED-4C3988C2A1D3}"/>
@@ -10689,10 +10668,10 @@
         <v>2022</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -10722,10 +10701,10 @@
         <v>2023</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -10733,10 +10712,10 @@
         <v>2023</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -10744,10 +10723,10 @@
         <v>2023</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>1111</v>
+        <v>1106</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>1112</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -10755,7 +10734,7 @@
         <v>2024</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
     </row>
   </sheetData>
@@ -10764,7 +10743,7 @@
     <sortCondition ref="C2:C29"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="Aceito">
+    <cfRule type="containsText" dxfId="7" priority="10" operator="containsText" text="Aceito">
       <formula>NOT(ISERROR(SEARCH(("Aceito"),(A1))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="11">
@@ -10777,10 +10756,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="8" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
-    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="55" orientation="landscape"/>
@@ -10795,7 +10774,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10854,10 +10833,10 @@
         <v>2022</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -11507,7 +11486,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="Aceito">
+    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="Aceito">
       <formula>NOT(ISERROR(SEARCH(("Aceito"),(A1))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="7">
@@ -11520,7 +11499,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape"/>
@@ -11528,101 +11507,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="166.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="23" width="11.28515625" style="3" customWidth="1"/>
-    <col min="24" max="16384" width="10.140625" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>925</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
-        <v>2022</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>926</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>2023</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>1057</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>1058</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W1000">
-    <sortCondition ref="A2:A1000"/>
-    <sortCondition ref="C2:C1000"/>
-  </sortState>
-  <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Aceito">
-      <formula>NOT(ISERROR(SEARCH(("Aceito"),(A1))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF366092"/>
-        <color rgb="FFB8CCE4"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
-  </conditionalFormatting>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="55" orientation="landscape"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B40" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="A64" sqref="A64"/>
@@ -11653,10 +11542,10 @@
         <v>2013</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -11667,7 +11556,7 @@
         <v>170</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>1076</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -11675,10 +11564,10 @@
         <v>2015</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -11686,10 +11575,10 @@
         <v>2017</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -11697,10 +11586,10 @@
         <v>2017</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -11708,10 +11597,10 @@
         <v>2017</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -11722,7 +11611,7 @@
         <v>902</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>1170</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -11730,10 +11619,10 @@
         <v>2018</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -11741,10 +11630,10 @@
         <v>2018</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -11752,10 +11641,10 @@
         <v>2019</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -11763,10 +11652,10 @@
         <v>2020</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -11774,10 +11663,10 @@
         <v>2020</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -11785,10 +11674,10 @@
         <v>2020</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -11796,10 +11685,10 @@
         <v>2021</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -11807,10 +11696,10 @@
         <v>2021</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -11818,10 +11707,10 @@
         <v>2021</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -11829,10 +11718,10 @@
         <v>2021</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>951</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>954</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>957</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -11840,10 +11729,10 @@
         <v>2021</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -11851,10 +11740,10 @@
         <v>2021</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -11862,10 +11751,10 @@
         <v>2021</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -11873,10 +11762,10 @@
         <v>2021</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -11884,10 +11773,10 @@
         <v>2021</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -11895,10 +11784,10 @@
         <v>2021</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -11906,10 +11795,10 @@
         <v>2022</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -11917,10 +11806,10 @@
         <v>2022</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -11928,10 +11817,10 @@
         <v>2023</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>1113</v>
+        <v>1108</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>1114</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -11939,10 +11828,10 @@
         <v>2023</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>1092</v>
+        <v>1087</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>1095</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -11950,10 +11839,10 @@
         <v>2023</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>1092</v>
+        <v>1087</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -11961,10 +11850,10 @@
         <v>2023</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>1092</v>
+        <v>1087</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>1096</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -11972,10 +11861,10 @@
         <v>2023</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>1092</v>
+        <v>1087</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -11983,10 +11872,10 @@
         <v>2024</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>1216</v>
+        <v>1211</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>1215</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -11994,10 +11883,10 @@
         <v>2024</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>1182</v>
+        <v>1177</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>1181</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -12005,10 +11894,10 @@
         <v>2024</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>1194</v>
+        <v>1189</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>1193</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -12016,10 +11905,10 @@
         <v>2024</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>1186</v>
+        <v>1181</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>1185</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -12027,10 +11916,10 @@
         <v>2024</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>1206</v>
+        <v>1201</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>1205</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -12038,10 +11927,10 @@
         <v>2024</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>1188</v>
+        <v>1183</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>1187</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -12049,10 +11938,10 @@
         <v>2024</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>1179</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -12060,10 +11949,10 @@
         <v>2024</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>1171</v>
+        <v>1166</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>1172</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -12071,10 +11960,10 @@
         <v>2024</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>1184</v>
+        <v>1179</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>1183</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -12082,10 +11971,10 @@
         <v>2024</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>1228</v>
+        <v>1223</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>1227</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -12093,10 +11982,10 @@
         <v>2024</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>1224</v>
+        <v>1219</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>1223</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -12104,10 +11993,10 @@
         <v>2024</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>1189</v>
+        <v>1184</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>1190</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -12115,10 +12004,10 @@
         <v>2024</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>1204</v>
+        <v>1199</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>1203</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -12126,10 +12015,10 @@
         <v>2024</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>1176</v>
+        <v>1171</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>1175</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -12137,10 +12026,10 @@
         <v>2024</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>1196</v>
+        <v>1191</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>1195</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -12148,10 +12037,10 @@
         <v>2024</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>1220</v>
+        <v>1215</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>1219</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -12159,10 +12048,10 @@
         <v>2024</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>1192</v>
+        <v>1187</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>1191</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -12170,10 +12059,10 @@
         <v>2024</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>1202</v>
+        <v>1197</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>1201</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -12181,10 +12070,10 @@
         <v>2024</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>1226</v>
+        <v>1221</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>1225</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -12192,10 +12081,10 @@
         <v>2024</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>1208</v>
+        <v>1203</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>1207</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -12203,10 +12092,10 @@
         <v>2024</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>1214</v>
+        <v>1209</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>1213</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -12214,10 +12103,10 @@
         <v>2024</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>1173</v>
+        <v>1168</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>1174</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -12225,10 +12114,10 @@
         <v>2024</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>1222</v>
+        <v>1217</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>1221</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -12236,10 +12125,10 @@
         <v>2024</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>1198</v>
+        <v>1193</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>1197</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -12247,10 +12136,10 @@
         <v>2024</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>1212</v>
+        <v>1207</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>1211</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -12258,10 +12147,10 @@
         <v>2024</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>1210</v>
+        <v>1205</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>1209</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -12269,10 +12158,10 @@
         <v>2024</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>1168</v>
+        <v>1163</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>1169</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -12280,10 +12169,10 @@
         <v>2024</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>1200</v>
+        <v>1195</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>1199</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -12291,10 +12180,10 @@
         <v>2024</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>1218</v>
+        <v>1213</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>1217</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -12302,10 +12191,10 @@
         <v>2024</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>1178</v>
+        <v>1173</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>1177</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -12313,10 +12202,10 @@
         <v>2024</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>1243</v>
+        <v>1238</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>1244</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -12324,10 +12213,10 @@
         <v>2024</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -12335,10 +12224,10 @@
         <v>2024</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
   </sheetData>

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE2830CC-EBC6-3248-B7A8-08652D9C6B55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB69A828-3BC1-CF4E-9090-69ED6E346AD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="500" windowWidth="24920" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="1253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="1254">
   <si>
     <t>Aceito</t>
   </si>
@@ -3747,9 +3747,6 @@
     <t>Quem pode atuar com acupuntura no Brasil?</t>
   </si>
   <si>
-    <t>Fatores associados à dor musculoesquelética em profissionais de enfermagem: um eatudo transversal retrospectivo</t>
-  </si>
-  <si>
     <t>10.32098/mltj.01.2024.17</t>
   </si>
   <si>
@@ -3759,9 +3756,6 @@
     <t>10.1016/j.jbmt.2024.04.049</t>
   </si>
   <si>
-    <t>EFFECT OF INSPIRATORY MUSCLE TRAINING ON PULMONARY FUNCTION, RESPIRATORY MUSCLE STRENGTH, AEROBIC PERFORMANCE, SPORTS SKILLS, AND QUALITY OF LIFE IN WHEELCHAIR RUGBY ATHLETES</t>
-  </si>
-  <si>
     <t>10.1016/j.joca.2024.02.857</t>
   </si>
   <si>
@@ -3805,6 +3799,15 @@
   </si>
   <si>
     <t>Questionnaires assessing knowledge and beliefs about musculoskeletal conditions are potentially suitable for use, but further research is needed: a systematic review</t>
+  </si>
+  <si>
+    <t>Effect of inspiratory muscle training on pulmonary function, respiratory muscle strength, aerobic performance, sports skills, and quality of life in wheelchair rugby athletes</t>
+  </si>
+  <si>
+    <t>Fatores associados à dor musculoesquelética em profissionais de enfermagem: um estudo transversal retrospectivo</t>
+  </si>
+  <si>
+    <t>10.1186/s12998-024-00541-4</t>
   </si>
 </sst>
 </file>
@@ -4301,7 +4304,7 @@
   <dimension ref="A1:I550"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B522" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B519" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A550" sqref="A550"/>
@@ -9985,10 +9988,10 @@
         <v>2024</v>
       </c>
       <c r="B517" s="3" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="C517" s="3" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.2">
@@ -10007,10 +10010,10 @@
         <v>2024</v>
       </c>
       <c r="B519" s="3" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="C519" s="3" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.2">
@@ -10018,10 +10021,10 @@
         <v>2024</v>
       </c>
       <c r="B520" s="3" t="s">
-        <v>1078</v>
+        <v>1235</v>
       </c>
       <c r="C520" s="3" t="s">
-        <v>1077</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.2">
@@ -10029,10 +10032,10 @@
         <v>2024</v>
       </c>
       <c r="B521" s="3" t="s">
-        <v>1143</v>
+        <v>1078</v>
       </c>
       <c r="C521" s="3" t="s">
-        <v>1127</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.2">
@@ -10040,10 +10043,10 @@
         <v>2024</v>
       </c>
       <c r="B522" s="3" t="s">
-        <v>1155</v>
+        <v>1143</v>
       </c>
       <c r="C522" s="3" t="s">
-        <v>1156</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.2">
@@ -10051,10 +10054,10 @@
         <v>2024</v>
       </c>
       <c r="B523" s="3" t="s">
-        <v>1226</v>
+        <v>1155</v>
       </c>
       <c r="C523" s="3" t="s">
-        <v>1227</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.2">
@@ -10062,10 +10065,10 @@
         <v>2024</v>
       </c>
       <c r="B524" s="3" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="C524" s="3" t="s">
-        <v>1161</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.2">
@@ -10073,10 +10076,10 @@
         <v>2024</v>
       </c>
       <c r="B525" s="3" t="s">
-        <v>1152</v>
+        <v>1228</v>
       </c>
       <c r="C525" s="3" t="s">
-        <v>1151</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.2">
@@ -10084,10 +10087,10 @@
         <v>2024</v>
       </c>
       <c r="B526" s="3" t="s">
-        <v>1162</v>
+        <v>1152</v>
       </c>
       <c r="C526" s="3" t="s">
-        <v>1114</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.2">
@@ -10095,10 +10098,10 @@
         <v>2024</v>
       </c>
       <c r="B527" s="3" t="s">
-        <v>1123</v>
+        <v>1162</v>
       </c>
       <c r="C527" s="3" t="s">
-        <v>1124</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.2">
@@ -10106,10 +10109,10 @@
         <v>2024</v>
       </c>
       <c r="B528" s="3" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="C528" s="3" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.2">
@@ -10117,10 +10120,10 @@
         <v>2024</v>
       </c>
       <c r="B529" s="3" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
       <c r="C529" s="3" t="s">
-        <v>1120</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.2">
@@ -10128,10 +10131,10 @@
         <v>2024</v>
       </c>
       <c r="B530" s="3" t="s">
-        <v>1132</v>
+        <v>1122</v>
       </c>
       <c r="C530" s="3" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.2">
@@ -10139,10 +10142,10 @@
         <v>2024</v>
       </c>
       <c r="B531" s="3" t="s">
-        <v>1142</v>
+        <v>1132</v>
       </c>
       <c r="C531" s="3" t="s">
-        <v>1141</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.2">
@@ -10150,10 +10153,10 @@
         <v>2024</v>
       </c>
       <c r="B532" s="3" t="s">
-        <v>1131</v>
+        <v>1142</v>
       </c>
       <c r="C532" s="3" t="s">
-        <v>1130</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.2">
@@ -10161,10 +10164,10 @@
         <v>2024</v>
       </c>
       <c r="B533" s="3" t="s">
-        <v>1113</v>
+        <v>1253</v>
       </c>
       <c r="C533" s="3" t="s">
-        <v>1110</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.2">
@@ -10172,10 +10175,10 @@
         <v>2024</v>
       </c>
       <c r="B534" s="3" t="s">
-        <v>1231</v>
+        <v>1131</v>
       </c>
       <c r="C534" s="3" t="s">
-        <v>1232</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.2">
@@ -10183,10 +10186,10 @@
         <v>2024</v>
       </c>
       <c r="B535" s="3" t="s">
-        <v>1234</v>
+        <v>1113</v>
       </c>
       <c r="C535" s="3" t="s">
-        <v>1235</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.2">
@@ -10194,10 +10197,10 @@
         <v>2024</v>
       </c>
       <c r="B536" s="3" t="s">
-        <v>1150</v>
+        <v>1231</v>
       </c>
       <c r="C536" s="3" t="s">
-        <v>1149</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.2">
@@ -10205,10 +10208,10 @@
         <v>2024</v>
       </c>
       <c r="B537" s="3" t="s">
-        <v>1135</v>
+        <v>1233</v>
       </c>
       <c r="C537" s="3" t="s">
-        <v>1136</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.2">
@@ -10216,10 +10219,10 @@
         <v>2024</v>
       </c>
       <c r="B538" s="3" t="s">
-        <v>1148</v>
+        <v>1150</v>
       </c>
       <c r="C538" s="3" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.2">
@@ -10227,59 +10230,59 @@
         <v>2024</v>
       </c>
       <c r="B539" s="3" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C539" s="3" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A540" s="15">
+        <v>2024</v>
+      </c>
+      <c r="B540" s="3" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C540" s="3" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A541" s="15">
+        <v>2024</v>
+      </c>
+      <c r="B541" s="3" t="s">
         <v>1145</v>
       </c>
-      <c r="C539" s="3" t="s">
+      <c r="C541" s="3" t="s">
         <v>1144</v>
-      </c>
-    </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A540" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C540" s="3" t="s">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A541" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B541" s="3" t="s">
-        <v>1236</v>
-      </c>
-      <c r="C541" s="3" t="s">
-        <v>1237</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A542" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B542" s="3" t="s">
-        <v>1118</v>
-      </c>
       <c r="C542" s="3" t="s">
-        <v>1115</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A543" s="15" t="s">
         <v>0</v>
       </c>
+      <c r="B543" s="3" t="s">
+        <v>1118</v>
+      </c>
       <c r="C543" s="3" t="s">
-        <v>1233</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A544" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B544" s="3" t="s">
-        <v>1073</v>
-      </c>
       <c r="C544" s="3" t="s">
-        <v>1068</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.2">
@@ -10287,10 +10290,10 @@
         <v>0</v>
       </c>
       <c r="B545" s="3" t="s">
-        <v>1140</v>
+        <v>1073</v>
       </c>
       <c r="C545" s="3" t="s">
-        <v>1133</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.2">
@@ -10298,10 +10301,10 @@
         <v>0</v>
       </c>
       <c r="B546" s="3" t="s">
-        <v>1159</v>
+        <v>1140</v>
       </c>
       <c r="C546" s="3" t="s">
-        <v>1160</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.2">
@@ -10309,10 +10312,10 @@
         <v>0</v>
       </c>
       <c r="B547" s="3" t="s">
-        <v>1137</v>
+        <v>1159</v>
       </c>
       <c r="C547" s="3" t="s">
-        <v>1138</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.2">
@@ -10320,18 +10323,21 @@
         <v>0</v>
       </c>
       <c r="B548" s="3" t="s">
-        <v>1153</v>
+        <v>1249</v>
       </c>
       <c r="C548" s="3" t="s">
-        <v>1154</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A549" s="15" t="s">
         <v>0</v>
       </c>
+      <c r="B549" s="3" t="s">
+        <v>1137</v>
+      </c>
       <c r="C549" s="3" t="s">
-        <v>1249</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.2">
@@ -10339,16 +10345,16 @@
         <v>0</v>
       </c>
       <c r="B550" s="3" t="s">
-        <v>1251</v>
+        <v>1153</v>
       </c>
       <c r="C550" s="3" t="s">
-        <v>1252</v>
+        <v>1154</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C548">
-    <sortCondition ref="A2:A548"/>
-    <sortCondition ref="C2:C548"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C550">
+    <sortCondition ref="A2:A550"/>
+    <sortCondition ref="C2:C550"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="Submetido">
@@ -10734,7 +10740,7 @@
         <v>2024</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
     </row>
   </sheetData>
@@ -12202,10 +12208,10 @@
         <v>2024</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -12213,10 +12219,10 @@
         <v>2024</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -12224,10 +12230,10 @@
         <v>2024</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
     </row>
   </sheetData>

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB69A828-3BC1-CF4E-9090-69ED6E346AD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65ACB10-FCEB-564F-A372-289C67ED7C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="500" windowWidth="24920" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="1254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="1256">
   <si>
     <t>Aceito</t>
   </si>
@@ -3808,6 +3808,12 @@
   </si>
   <si>
     <t>10.1186/s12998-024-00541-4</t>
+  </si>
+  <si>
+    <t>Prevalência de insatisfação corporal entre universitários brasileiros. Revisão sistemática e metanálise</t>
+  </si>
+  <si>
+    <t>10.46642/efd.v29i313.7437</t>
   </si>
 </sst>
 </file>
@@ -4301,13 +4307,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I550"/>
+  <dimension ref="A1:I551"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B519" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B520" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A550" sqref="A550"/>
+      <selection pane="bottomRight" activeCell="A551" sqref="A551"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10186,10 +10192,10 @@
         <v>2024</v>
       </c>
       <c r="B535" s="3" t="s">
-        <v>1113</v>
+        <v>1140</v>
       </c>
       <c r="C535" s="3" t="s">
-        <v>1110</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.2">
@@ -10197,10 +10203,10 @@
         <v>2024</v>
       </c>
       <c r="B536" s="3" t="s">
-        <v>1231</v>
+        <v>1113</v>
       </c>
       <c r="C536" s="3" t="s">
-        <v>1232</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.2">
@@ -10208,10 +10214,10 @@
         <v>2024</v>
       </c>
       <c r="B537" s="3" t="s">
-        <v>1233</v>
+        <v>1255</v>
       </c>
       <c r="C537" s="3" t="s">
-        <v>1234</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.2">
@@ -10219,10 +10225,10 @@
         <v>2024</v>
       </c>
       <c r="B538" s="3" t="s">
-        <v>1150</v>
+        <v>1231</v>
       </c>
       <c r="C538" s="3" t="s">
-        <v>1149</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.2">
@@ -10230,10 +10236,10 @@
         <v>2024</v>
       </c>
       <c r="B539" s="3" t="s">
-        <v>1135</v>
+        <v>1249</v>
       </c>
       <c r="C539" s="3" t="s">
-        <v>1136</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.2">
@@ -10241,10 +10247,10 @@
         <v>2024</v>
       </c>
       <c r="B540" s="3" t="s">
-        <v>1148</v>
+        <v>1233</v>
       </c>
       <c r="C540" s="3" t="s">
-        <v>1147</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.2">
@@ -10252,48 +10258,51 @@
         <v>2024</v>
       </c>
       <c r="B541" s="3" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C541" s="3" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A542" s="15">
+        <v>2024</v>
+      </c>
+      <c r="B542" s="3" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C542" s="3" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A543" s="15">
+        <v>2024</v>
+      </c>
+      <c r="B543" s="3" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C543" s="3" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A544" s="15">
+        <v>2024</v>
+      </c>
+      <c r="B544" s="3" t="s">
         <v>1145</v>
       </c>
-      <c r="C541" s="3" t="s">
+      <c r="C544" s="3" t="s">
         <v>1144</v>
-      </c>
-    </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A542" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C542" s="3" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A543" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B543" s="3" t="s">
-        <v>1118</v>
-      </c>
-      <c r="C543" s="3" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A544" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C544" s="3" t="s">
-        <v>1252</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A545" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B545" s="3" t="s">
-        <v>1073</v>
-      </c>
       <c r="C545" s="3" t="s">
-        <v>1068</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.2">
@@ -10301,21 +10310,18 @@
         <v>0</v>
       </c>
       <c r="B546" s="3" t="s">
-        <v>1140</v>
+        <v>1118</v>
       </c>
       <c r="C546" s="3" t="s">
-        <v>1133</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A547" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B547" s="3" t="s">
-        <v>1159</v>
-      </c>
       <c r="C547" s="3" t="s">
-        <v>1160</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.2">
@@ -10323,10 +10329,10 @@
         <v>0</v>
       </c>
       <c r="B548" s="3" t="s">
-        <v>1249</v>
+        <v>1073</v>
       </c>
       <c r="C548" s="3" t="s">
-        <v>1250</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.2">
@@ -10334,10 +10340,10 @@
         <v>0</v>
       </c>
       <c r="B549" s="3" t="s">
-        <v>1137</v>
+        <v>1159</v>
       </c>
       <c r="C549" s="3" t="s">
-        <v>1138</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.2">
@@ -10345,16 +10351,27 @@
         <v>0</v>
       </c>
       <c r="B550" s="3" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C550" s="3" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A551" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B551" s="3" t="s">
         <v>1153</v>
       </c>
-      <c r="C550" s="3" t="s">
+      <c r="C551" s="3" t="s">
         <v>1154</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C550">
-    <sortCondition ref="A2:A550"/>
-    <sortCondition ref="C2:C550"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C551">
+    <sortCondition ref="A2:A551"/>
+    <sortCondition ref="C2:C551"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="Submetido">

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (arthur_sf)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65ACB10-FCEB-564F-A372-289C67ED7C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2009C9FF-0F13-924D-8F3F-38CAC9059DCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="500" windowWidth="24920" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="1256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="1263">
   <si>
     <t>Aceito</t>
   </si>
@@ -3792,9 +3792,6 @@
     <t>One spinal manipulation session reduces local pain sensitivity but does not affect postural stability in individuals with chronic low back pain: a randomised, placebo-controlled trial</t>
   </si>
   <si>
-    <t>he importance of language and further discussion on pain nomenclature</t>
-  </si>
-  <si>
     <t>10.1016/j.jclinepi.2024.111398</t>
   </si>
   <si>
@@ -3814,6 +3811,30 @@
   </si>
   <si>
     <t>10.46642/efd.v29i313.7437</t>
+  </si>
+  <si>
+    <t>Efeito da meditação mindfulness no esporte de alto rendimento: uma revisão de escopo</t>
+  </si>
+  <si>
+    <t>10.47197/retos.v57.99004</t>
+  </si>
+  <si>
+    <t>The importance of language and further discussion on pain nomenclature</t>
+  </si>
+  <si>
+    <t>Contesting the BACPAP consortium's consensus – Authors' reply</t>
+  </si>
+  <si>
+    <t>10.1016/S2665-9913(24)00130-9</t>
+  </si>
+  <si>
+    <t>A national survey of physiotherapists' assessment and management practices for patients with COVID­19 in acute and rehabilitation care in the United Arab Emirates</t>
+  </si>
+  <si>
+    <t>10.56984/8ZG5608SR5</t>
+  </si>
+  <si>
+    <t>Comparison betweeren the risk of developing sleep disorders with lung mechanics and thoracic ultrasound signals in adults with obesity</t>
   </si>
 </sst>
 </file>
@@ -4307,13 +4328,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I551"/>
+  <dimension ref="A1:I554"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B520" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B532" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A551" sqref="A551"/>
+      <selection pane="bottomRight" activeCell="A554" sqref="A554"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9950,10 +9971,10 @@
         <v>2024</v>
       </c>
       <c r="B513" s="3" t="s">
-        <v>1146</v>
+        <v>1261</v>
       </c>
       <c r="C513" s="3" t="s">
-        <v>1119</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.2">
@@ -9961,10 +9982,10 @@
         <v>2024</v>
       </c>
       <c r="B514" s="3" t="s">
-        <v>1157</v>
+        <v>1146</v>
       </c>
       <c r="C514" s="3" t="s">
-        <v>1158</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.2">
@@ -9972,10 +9993,10 @@
         <v>2024</v>
       </c>
       <c r="B515" s="3" t="s">
-        <v>1224</v>
+        <v>1157</v>
       </c>
       <c r="C515" s="3" t="s">
-        <v>1225</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.2">
@@ -9983,10 +10004,10 @@
         <v>2024</v>
       </c>
       <c r="B516" s="3" t="s">
-        <v>1111</v>
+        <v>1224</v>
       </c>
       <c r="C516" s="3" t="s">
-        <v>1112</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.2">
@@ -9994,10 +10015,10 @@
         <v>2024</v>
       </c>
       <c r="B517" s="3" t="s">
-        <v>1241</v>
+        <v>1111</v>
       </c>
       <c r="C517" s="3" t="s">
-        <v>1242</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.2">
@@ -10005,10 +10026,10 @@
         <v>2024</v>
       </c>
       <c r="B518" s="3" t="s">
-        <v>1139</v>
+        <v>1241</v>
       </c>
       <c r="C518" s="3" t="s">
-        <v>1134</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.2">
@@ -10016,10 +10037,10 @@
         <v>2024</v>
       </c>
       <c r="B519" s="3" t="s">
-        <v>1240</v>
+        <v>1139</v>
       </c>
       <c r="C519" s="3" t="s">
-        <v>1239</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.2">
@@ -10027,10 +10048,10 @@
         <v>2024</v>
       </c>
       <c r="B520" s="3" t="s">
-        <v>1235</v>
+        <v>1240</v>
       </c>
       <c r="C520" s="3" t="s">
-        <v>1251</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.2">
@@ -10038,10 +10059,10 @@
         <v>2024</v>
       </c>
       <c r="B521" s="3" t="s">
-        <v>1078</v>
+        <v>1256</v>
       </c>
       <c r="C521" s="3" t="s">
-        <v>1077</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.2">
@@ -10049,10 +10070,10 @@
         <v>2024</v>
       </c>
       <c r="B522" s="3" t="s">
-        <v>1143</v>
+        <v>1235</v>
       </c>
       <c r="C522" s="3" t="s">
-        <v>1127</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.2">
@@ -10060,10 +10081,10 @@
         <v>2024</v>
       </c>
       <c r="B523" s="3" t="s">
-        <v>1155</v>
+        <v>1078</v>
       </c>
       <c r="C523" s="3" t="s">
-        <v>1156</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.2">
@@ -10071,10 +10092,10 @@
         <v>2024</v>
       </c>
       <c r="B524" s="3" t="s">
-        <v>1226</v>
+        <v>1143</v>
       </c>
       <c r="C524" s="3" t="s">
-        <v>1227</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.2">
@@ -10082,10 +10103,10 @@
         <v>2024</v>
       </c>
       <c r="B525" s="3" t="s">
-        <v>1228</v>
+        <v>1155</v>
       </c>
       <c r="C525" s="3" t="s">
-        <v>1161</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.2">
@@ -10093,10 +10114,10 @@
         <v>2024</v>
       </c>
       <c r="B526" s="3" t="s">
-        <v>1152</v>
+        <v>1226</v>
       </c>
       <c r="C526" s="3" t="s">
-        <v>1151</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.2">
@@ -10104,10 +10125,10 @@
         <v>2024</v>
       </c>
       <c r="B527" s="3" t="s">
-        <v>1162</v>
+        <v>1228</v>
       </c>
       <c r="C527" s="3" t="s">
-        <v>1114</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.2">
@@ -10115,10 +10136,10 @@
         <v>2024</v>
       </c>
       <c r="B528" s="3" t="s">
-        <v>1123</v>
+        <v>1152</v>
       </c>
       <c r="C528" s="3" t="s">
-        <v>1124</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.2">
@@ -10126,10 +10147,10 @@
         <v>2024</v>
       </c>
       <c r="B529" s="3" t="s">
-        <v>1126</v>
+        <v>1162</v>
       </c>
       <c r="C529" s="3" t="s">
-        <v>1125</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.2">
@@ -10137,10 +10158,10 @@
         <v>2024</v>
       </c>
       <c r="B530" s="3" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="C530" s="3" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.2">
@@ -10148,10 +10169,10 @@
         <v>2024</v>
       </c>
       <c r="B531" s="3" t="s">
-        <v>1132</v>
+        <v>1126</v>
       </c>
       <c r="C531" s="3" t="s">
-        <v>1121</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.2">
@@ -10159,10 +10180,10 @@
         <v>2024</v>
       </c>
       <c r="B532" s="3" t="s">
-        <v>1142</v>
+        <v>1122</v>
       </c>
       <c r="C532" s="3" t="s">
-        <v>1141</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.2">
@@ -10170,10 +10191,10 @@
         <v>2024</v>
       </c>
       <c r="B533" s="3" t="s">
-        <v>1253</v>
+        <v>1132</v>
       </c>
       <c r="C533" s="3" t="s">
-        <v>1247</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.2">
@@ -10181,10 +10202,10 @@
         <v>2024</v>
       </c>
       <c r="B534" s="3" t="s">
-        <v>1131</v>
+        <v>1142</v>
       </c>
       <c r="C534" s="3" t="s">
-        <v>1130</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.2">
@@ -10192,10 +10213,10 @@
         <v>2024</v>
       </c>
       <c r="B535" s="3" t="s">
-        <v>1140</v>
+        <v>1252</v>
       </c>
       <c r="C535" s="3" t="s">
-        <v>1133</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.2">
@@ -10203,10 +10224,10 @@
         <v>2024</v>
       </c>
       <c r="B536" s="3" t="s">
-        <v>1113</v>
+        <v>1131</v>
       </c>
       <c r="C536" s="3" t="s">
-        <v>1110</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.2">
@@ -10214,10 +10235,10 @@
         <v>2024</v>
       </c>
       <c r="B537" s="3" t="s">
-        <v>1255</v>
+        <v>1140</v>
       </c>
       <c r="C537" s="3" t="s">
-        <v>1254</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.2">
@@ -10225,10 +10246,10 @@
         <v>2024</v>
       </c>
       <c r="B538" s="3" t="s">
-        <v>1231</v>
+        <v>1113</v>
       </c>
       <c r="C538" s="3" t="s">
-        <v>1232</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.2">
@@ -10236,10 +10257,10 @@
         <v>2024</v>
       </c>
       <c r="B539" s="3" t="s">
-        <v>1249</v>
+        <v>1254</v>
       </c>
       <c r="C539" s="3" t="s">
-        <v>1250</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.2">
@@ -10247,10 +10268,10 @@
         <v>2024</v>
       </c>
       <c r="B540" s="3" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="C540" s="3" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.2">
@@ -10258,10 +10279,10 @@
         <v>2024</v>
       </c>
       <c r="B541" s="3" t="s">
-        <v>1150</v>
+        <v>1248</v>
       </c>
       <c r="C541" s="3" t="s">
-        <v>1149</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.2">
@@ -10269,10 +10290,10 @@
         <v>2024</v>
       </c>
       <c r="B542" s="3" t="s">
-        <v>1135</v>
+        <v>1233</v>
       </c>
       <c r="C542" s="3" t="s">
-        <v>1136</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.2">
@@ -10280,10 +10301,10 @@
         <v>2024</v>
       </c>
       <c r="B543" s="3" t="s">
-        <v>1148</v>
+        <v>1150</v>
       </c>
       <c r="C543" s="3" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.2">
@@ -10291,29 +10312,32 @@
         <v>2024</v>
       </c>
       <c r="B544" s="3" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C544" s="3" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A545" s="15">
+        <v>2024</v>
+      </c>
+      <c r="B545" s="3" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C545" s="3" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A546" s="15">
+        <v>2024</v>
+      </c>
+      <c r="B546" s="3" t="s">
         <v>1145</v>
       </c>
-      <c r="C544" s="3" t="s">
+      <c r="C546" s="3" t="s">
         <v>1144</v>
-      </c>
-    </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A545" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C545" s="3" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A546" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B546" s="3" t="s">
-        <v>1118</v>
-      </c>
-      <c r="C546" s="3" t="s">
-        <v>1115</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.2">
@@ -10321,7 +10345,7 @@
         <v>0</v>
       </c>
       <c r="C547" s="3" t="s">
-        <v>1252</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.2">
@@ -10329,21 +10353,18 @@
         <v>0</v>
       </c>
       <c r="B548" s="3" t="s">
-        <v>1073</v>
+        <v>1118</v>
       </c>
       <c r="C548" s="3" t="s">
-        <v>1068</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A549" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B549" s="3" t="s">
-        <v>1159</v>
-      </c>
       <c r="C549" s="3" t="s">
-        <v>1160</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.2">
@@ -10351,10 +10372,10 @@
         <v>0</v>
       </c>
       <c r="B550" s="3" t="s">
-        <v>1137</v>
+        <v>1073</v>
       </c>
       <c r="C550" s="3" t="s">
-        <v>1138</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.2">
@@ -10362,16 +10383,46 @@
         <v>0</v>
       </c>
       <c r="B551" s="3" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C551" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A552" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B552" s="3" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C552" s="3" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A553" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B553" s="3" t="s">
         <v>1153</v>
       </c>
-      <c r="C551" s="3" t="s">
+      <c r="C553" s="3" t="s">
         <v>1154</v>
       </c>
     </row>
+    <row r="554" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A554" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C554" s="3" t="s">
+        <v>1262</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C551">
-    <sortCondition ref="A2:A551"/>
-    <sortCondition ref="C2:C551"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C553">
+    <sortCondition ref="A2:A553"/>
+    <sortCondition ref="C2:C553"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="Submetido">
@@ -10405,13 +10456,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A31" sqref="A31"/>
+      <selection pane="bottomRight" activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10756,14 +10807,25 @@
       <c r="A31" s="3">
         <v>2024</v>
       </c>
+      <c r="B31" s="3" t="s">
+        <v>1259</v>
+      </c>
       <c r="C31" s="3" t="s">
-        <v>1248</v>
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>2024</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>1257</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C29">
-    <sortCondition ref="A2:A29"/>
-    <sortCondition ref="C2:C29"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C32">
+    <sortCondition ref="A2:A32"/>
+    <sortCondition ref="C2:C32"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="containsText" dxfId="7" priority="10" operator="containsText" text="Aceito">

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (arthur_sf)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2009C9FF-0F13-924D-8F3F-38CAC9059DCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B12ED698-23BB-1245-A806-D2698EA76FE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="500" windowWidth="24920" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="1263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="1265">
   <si>
     <t>Aceito</t>
   </si>
@@ -3525,9 +3525,6 @@
     <t>Avaliação do condicionamento cardiorrespiratório após infecção por COVID-19</t>
   </si>
   <si>
-    <t>10.5935/2595-0118.20240010-em</t>
-  </si>
-  <si>
     <t>Prevalence of musculoskeletal pain in body segments in Judo and Jiu-jitsu athletes</t>
   </si>
   <si>
@@ -3835,6 +3832,15 @@
   </si>
   <si>
     <t>Comparison betweeren the risk of developing sleep disorders with lung mechanics and thoracic ultrasound signals in adults with obesity</t>
+  </si>
+  <si>
+    <t>Associação de variáveis antropométricas e cardiorrespiratórias com consumo de oxigênio de pico segundo características da lesão medular: um estudo seccional preliminar</t>
+  </si>
+  <si>
+    <t>10.37310/ref.v93i1.2980</t>
+  </si>
+  <si>
+    <t>10.5935/2595-0118.20240010-en</t>
   </si>
 </sst>
 </file>
@@ -4328,13 +4334,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I554"/>
+  <dimension ref="A1:I555"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B532" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B526" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A554" sqref="A554"/>
+      <selection pane="bottomRight" activeCell="A555" sqref="A555"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9696,10 +9702,10 @@
         <v>2023</v>
       </c>
       <c r="B488" s="3" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C488" s="3" t="s">
         <v>1229</v>
-      </c>
-      <c r="C488" s="3" t="s">
-        <v>1230</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.2">
@@ -9971,10 +9977,10 @@
         <v>2024</v>
       </c>
       <c r="B513" s="3" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="C513" s="3" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.2">
@@ -9993,10 +9999,10 @@
         <v>2024</v>
       </c>
       <c r="B515" s="3" t="s">
-        <v>1157</v>
+        <v>1263</v>
       </c>
       <c r="C515" s="3" t="s">
-        <v>1158</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.2">
@@ -10004,10 +10010,10 @@
         <v>2024</v>
       </c>
       <c r="B516" s="3" t="s">
-        <v>1224</v>
+        <v>1157</v>
       </c>
       <c r="C516" s="3" t="s">
-        <v>1225</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.2">
@@ -10015,10 +10021,10 @@
         <v>2024</v>
       </c>
       <c r="B517" s="3" t="s">
-        <v>1111</v>
+        <v>1223</v>
       </c>
       <c r="C517" s="3" t="s">
-        <v>1112</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.2">
@@ -10026,10 +10032,10 @@
         <v>2024</v>
       </c>
       <c r="B518" s="3" t="s">
-        <v>1241</v>
+        <v>1111</v>
       </c>
       <c r="C518" s="3" t="s">
-        <v>1242</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.2">
@@ -10037,10 +10043,10 @@
         <v>2024</v>
       </c>
       <c r="B519" s="3" t="s">
-        <v>1139</v>
+        <v>1240</v>
       </c>
       <c r="C519" s="3" t="s">
-        <v>1134</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.2">
@@ -10048,10 +10054,10 @@
         <v>2024</v>
       </c>
       <c r="B520" s="3" t="s">
-        <v>1240</v>
+        <v>1139</v>
       </c>
       <c r="C520" s="3" t="s">
-        <v>1239</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.2">
@@ -10059,10 +10065,10 @@
         <v>2024</v>
       </c>
       <c r="B521" s="3" t="s">
-        <v>1256</v>
+        <v>1239</v>
       </c>
       <c r="C521" s="3" t="s">
-        <v>1255</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.2">
@@ -10070,10 +10076,10 @@
         <v>2024</v>
       </c>
       <c r="B522" s="3" t="s">
-        <v>1235</v>
+        <v>1255</v>
       </c>
       <c r="C522" s="3" t="s">
-        <v>1250</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.2">
@@ -10081,10 +10087,10 @@
         <v>2024</v>
       </c>
       <c r="B523" s="3" t="s">
-        <v>1078</v>
+        <v>1234</v>
       </c>
       <c r="C523" s="3" t="s">
-        <v>1077</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.2">
@@ -10092,10 +10098,10 @@
         <v>2024</v>
       </c>
       <c r="B524" s="3" t="s">
-        <v>1143</v>
+        <v>1078</v>
       </c>
       <c r="C524" s="3" t="s">
-        <v>1127</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.2">
@@ -10103,10 +10109,10 @@
         <v>2024</v>
       </c>
       <c r="B525" s="3" t="s">
-        <v>1155</v>
+        <v>1143</v>
       </c>
       <c r="C525" s="3" t="s">
-        <v>1156</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.2">
@@ -10114,10 +10120,10 @@
         <v>2024</v>
       </c>
       <c r="B526" s="3" t="s">
-        <v>1226</v>
+        <v>1155</v>
       </c>
       <c r="C526" s="3" t="s">
-        <v>1227</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.2">
@@ -10125,10 +10131,10 @@
         <v>2024</v>
       </c>
       <c r="B527" s="3" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="C527" s="3" t="s">
-        <v>1161</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.2">
@@ -10136,10 +10142,10 @@
         <v>2024</v>
       </c>
       <c r="B528" s="3" t="s">
-        <v>1152</v>
+        <v>1227</v>
       </c>
       <c r="C528" s="3" t="s">
-        <v>1151</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.2">
@@ -10147,10 +10153,10 @@
         <v>2024</v>
       </c>
       <c r="B529" s="3" t="s">
-        <v>1162</v>
+        <v>1152</v>
       </c>
       <c r="C529" s="3" t="s">
-        <v>1114</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.2">
@@ -10158,10 +10164,10 @@
         <v>2024</v>
       </c>
       <c r="B530" s="3" t="s">
-        <v>1123</v>
+        <v>1161</v>
       </c>
       <c r="C530" s="3" t="s">
-        <v>1124</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.2">
@@ -10169,10 +10175,10 @@
         <v>2024</v>
       </c>
       <c r="B531" s="3" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="C531" s="3" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.2">
@@ -10180,10 +10186,10 @@
         <v>2024</v>
       </c>
       <c r="B532" s="3" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
       <c r="C532" s="3" t="s">
-        <v>1120</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.2">
@@ -10191,10 +10197,10 @@
         <v>2024</v>
       </c>
       <c r="B533" s="3" t="s">
-        <v>1132</v>
+        <v>1122</v>
       </c>
       <c r="C533" s="3" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.2">
@@ -10202,10 +10208,10 @@
         <v>2024</v>
       </c>
       <c r="B534" s="3" t="s">
-        <v>1142</v>
+        <v>1132</v>
       </c>
       <c r="C534" s="3" t="s">
-        <v>1141</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.2">
@@ -10213,10 +10219,10 @@
         <v>2024</v>
       </c>
       <c r="B535" s="3" t="s">
-        <v>1252</v>
+        <v>1142</v>
       </c>
       <c r="C535" s="3" t="s">
-        <v>1247</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.2">
@@ -10224,10 +10230,10 @@
         <v>2024</v>
       </c>
       <c r="B536" s="3" t="s">
-        <v>1131</v>
+        <v>1251</v>
       </c>
       <c r="C536" s="3" t="s">
-        <v>1130</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.2">
@@ -10235,10 +10241,10 @@
         <v>2024</v>
       </c>
       <c r="B537" s="3" t="s">
-        <v>1140</v>
+        <v>1131</v>
       </c>
       <c r="C537" s="3" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.2">
@@ -10246,10 +10252,10 @@
         <v>2024</v>
       </c>
       <c r="B538" s="3" t="s">
-        <v>1113</v>
+        <v>1140</v>
       </c>
       <c r="C538" s="3" t="s">
-        <v>1110</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.2">
@@ -10257,10 +10263,10 @@
         <v>2024</v>
       </c>
       <c r="B539" s="3" t="s">
-        <v>1254</v>
+        <v>1113</v>
       </c>
       <c r="C539" s="3" t="s">
-        <v>1253</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.2">
@@ -10268,10 +10274,10 @@
         <v>2024</v>
       </c>
       <c r="B540" s="3" t="s">
-        <v>1231</v>
+        <v>1253</v>
       </c>
       <c r="C540" s="3" t="s">
-        <v>1232</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.2">
@@ -10279,10 +10285,10 @@
         <v>2024</v>
       </c>
       <c r="B541" s="3" t="s">
-        <v>1248</v>
+        <v>1230</v>
       </c>
       <c r="C541" s="3" t="s">
-        <v>1249</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.2">
@@ -10290,10 +10296,10 @@
         <v>2024</v>
       </c>
       <c r="B542" s="3" t="s">
-        <v>1233</v>
+        <v>1247</v>
       </c>
       <c r="C542" s="3" t="s">
-        <v>1234</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.2">
@@ -10301,10 +10307,10 @@
         <v>2024</v>
       </c>
       <c r="B543" s="3" t="s">
-        <v>1150</v>
+        <v>1232</v>
       </c>
       <c r="C543" s="3" t="s">
-        <v>1149</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.2">
@@ -10312,10 +10318,10 @@
         <v>2024</v>
       </c>
       <c r="B544" s="3" t="s">
-        <v>1135</v>
+        <v>1150</v>
       </c>
       <c r="C544" s="3" t="s">
-        <v>1136</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.2">
@@ -10323,10 +10329,10 @@
         <v>2024</v>
       </c>
       <c r="B545" s="3" t="s">
-        <v>1148</v>
+        <v>1135</v>
       </c>
       <c r="C545" s="3" t="s">
-        <v>1147</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.2">
@@ -10334,29 +10340,29 @@
         <v>2024</v>
       </c>
       <c r="B546" s="3" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C546" s="3" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A547" s="15">
+        <v>2024</v>
+      </c>
+      <c r="B547" s="3" t="s">
         <v>1145</v>
       </c>
-      <c r="C546" s="3" t="s">
+      <c r="C547" s="3" t="s">
         <v>1144</v>
-      </c>
-    </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A547" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C547" s="3" t="s">
-        <v>1238</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A548" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B548" s="3" t="s">
-        <v>1118</v>
-      </c>
       <c r="C548" s="3" t="s">
-        <v>1115</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.2">
@@ -10364,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="C549" s="3" t="s">
-        <v>1251</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.2">
@@ -10372,21 +10378,18 @@
         <v>0</v>
       </c>
       <c r="B550" s="3" t="s">
-        <v>1073</v>
+        <v>1118</v>
       </c>
       <c r="C550" s="3" t="s">
-        <v>1068</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A551" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B551" s="3" t="s">
-        <v>1159</v>
-      </c>
       <c r="C551" s="3" t="s">
-        <v>1160</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.2">
@@ -10394,10 +10397,10 @@
         <v>0</v>
       </c>
       <c r="B552" s="3" t="s">
-        <v>1137</v>
+        <v>1073</v>
       </c>
       <c r="C552" s="3" t="s">
-        <v>1138</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.2">
@@ -10405,24 +10408,38 @@
         <v>0</v>
       </c>
       <c r="B553" s="3" t="s">
-        <v>1153</v>
+        <v>1264</v>
       </c>
       <c r="C553" s="3" t="s">
-        <v>1154</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A554" s="15" t="s">
         <v>0</v>
       </c>
+      <c r="B554" s="3" t="s">
+        <v>1137</v>
+      </c>
       <c r="C554" s="3" t="s">
-        <v>1262</v>
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A555" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B555" s="3" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C555" s="3" t="s">
+        <v>1154</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C553">
-    <sortCondition ref="A2:A553"/>
-    <sortCondition ref="C2:C553"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C555">
+    <sortCondition ref="A2:A555"/>
+    <sortCondition ref="C2:C555"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="Submetido">
@@ -10808,10 +10825,10 @@
         <v>2024</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -10819,7 +10836,7 @@
         <v>2024</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
   </sheetData>
@@ -11696,7 +11713,7 @@
         <v>902</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -11957,10 +11974,10 @@
         <v>2024</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -11968,10 +11985,10 @@
         <v>2024</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -11979,10 +11996,10 @@
         <v>2024</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -11990,10 +12007,10 @@
         <v>2024</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -12001,10 +12018,10 @@
         <v>2024</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -12012,10 +12029,10 @@
         <v>2024</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -12023,10 +12040,10 @@
         <v>2024</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -12034,10 +12051,10 @@
         <v>2024</v>
       </c>
       <c r="B39" s="4" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>1166</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>1167</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -12045,10 +12062,10 @@
         <v>2024</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -12056,10 +12073,10 @@
         <v>2024</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -12067,10 +12084,10 @@
         <v>2024</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -12078,10 +12095,10 @@
         <v>2024</v>
       </c>
       <c r="B43" s="3" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>1184</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>1185</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -12089,10 +12106,10 @@
         <v>2024</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -12100,10 +12117,10 @@
         <v>2024</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -12111,10 +12128,10 @@
         <v>2024</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -12122,10 +12139,10 @@
         <v>2024</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -12133,10 +12150,10 @@
         <v>2024</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -12144,10 +12161,10 @@
         <v>2024</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -12155,10 +12172,10 @@
         <v>2024</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -12166,10 +12183,10 @@
         <v>2024</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -12177,10 +12194,10 @@
         <v>2024</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -12188,10 +12205,10 @@
         <v>2024</v>
       </c>
       <c r="B53" s="4" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>1168</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>1169</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -12199,10 +12216,10 @@
         <v>2024</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -12210,10 +12227,10 @@
         <v>2024</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -12221,10 +12238,10 @@
         <v>2024</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -12232,10 +12249,10 @@
         <v>2024</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -12243,10 +12260,10 @@
         <v>2024</v>
       </c>
       <c r="B58" s="4" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>1163</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>1164</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -12254,10 +12271,10 @@
         <v>2024</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -12265,10 +12282,10 @@
         <v>2024</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -12276,10 +12293,10 @@
         <v>2024</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -12287,10 +12304,10 @@
         <v>2024</v>
       </c>
       <c r="B62" s="3" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C62" s="3" t="s">
         <v>1236</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>1237</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -12298,10 +12315,10 @@
         <v>2024</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -12309,10 +12326,10 @@
         <v>2024</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
   </sheetData>

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B12ED698-23BB-1245-A806-D2698EA76FE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1AB160D-302D-A24F-AF83-CB1079523067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="500" windowWidth="24920" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="1265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="1267">
   <si>
     <t>Aceito</t>
   </si>
@@ -3841,6 +3841,12 @@
   </si>
   <si>
     <t>10.5935/2595-0118.20240010-en</t>
+  </si>
+  <si>
+    <t>Paraneoplastic-related leg pain</t>
+  </si>
+  <si>
+    <t>10.1055/s-0044-1789188</t>
   </si>
 </sst>
 </file>
@@ -4337,7 +4343,7 @@
   <dimension ref="A1:I555"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B526" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B524" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A555" sqref="A555"/>
@@ -10054,10 +10060,10 @@
         <v>2024</v>
       </c>
       <c r="B520" s="3" t="s">
-        <v>1139</v>
+        <v>1266</v>
       </c>
       <c r="C520" s="3" t="s">
-        <v>1134</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.2">
@@ -10065,10 +10071,10 @@
         <v>2024</v>
       </c>
       <c r="B521" s="3" t="s">
-        <v>1239</v>
+        <v>1139</v>
       </c>
       <c r="C521" s="3" t="s">
-        <v>1238</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.2">
@@ -10076,10 +10082,10 @@
         <v>2024</v>
       </c>
       <c r="B522" s="3" t="s">
-        <v>1255</v>
+        <v>1239</v>
       </c>
       <c r="C522" s="3" t="s">
-        <v>1254</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.2">
@@ -10087,10 +10093,10 @@
         <v>2024</v>
       </c>
       <c r="B523" s="3" t="s">
-        <v>1234</v>
+        <v>1255</v>
       </c>
       <c r="C523" s="3" t="s">
-        <v>1249</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.2">
@@ -10098,10 +10104,10 @@
         <v>2024</v>
       </c>
       <c r="B524" s="3" t="s">
-        <v>1078</v>
+        <v>1234</v>
       </c>
       <c r="C524" s="3" t="s">
-        <v>1077</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.2">
@@ -10109,10 +10115,10 @@
         <v>2024</v>
       </c>
       <c r="B525" s="3" t="s">
-        <v>1143</v>
+        <v>1078</v>
       </c>
       <c r="C525" s="3" t="s">
-        <v>1127</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.2">
@@ -10120,10 +10126,10 @@
         <v>2024</v>
       </c>
       <c r="B526" s="3" t="s">
-        <v>1155</v>
+        <v>1143</v>
       </c>
       <c r="C526" s="3" t="s">
-        <v>1156</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.2">
@@ -10131,10 +10137,10 @@
         <v>2024</v>
       </c>
       <c r="B527" s="3" t="s">
-        <v>1225</v>
+        <v>1155</v>
       </c>
       <c r="C527" s="3" t="s">
-        <v>1226</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.2">
@@ -10142,10 +10148,10 @@
         <v>2024</v>
       </c>
       <c r="B528" s="3" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="C528" s="3" t="s">
-        <v>1160</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.2">
@@ -10153,10 +10159,10 @@
         <v>2024</v>
       </c>
       <c r="B529" s="3" t="s">
-        <v>1152</v>
+        <v>1227</v>
       </c>
       <c r="C529" s="3" t="s">
-        <v>1151</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.2">
@@ -10164,10 +10170,10 @@
         <v>2024</v>
       </c>
       <c r="B530" s="3" t="s">
-        <v>1161</v>
+        <v>1152</v>
       </c>
       <c r="C530" s="3" t="s">
-        <v>1114</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.2">
@@ -10175,10 +10181,10 @@
         <v>2024</v>
       </c>
       <c r="B531" s="3" t="s">
-        <v>1123</v>
+        <v>1161</v>
       </c>
       <c r="C531" s="3" t="s">
-        <v>1124</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.2">
@@ -10186,10 +10192,10 @@
         <v>2024</v>
       </c>
       <c r="B532" s="3" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="C532" s="3" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.2">
@@ -10197,10 +10203,10 @@
         <v>2024</v>
       </c>
       <c r="B533" s="3" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
       <c r="C533" s="3" t="s">
-        <v>1120</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.2">
@@ -10208,10 +10214,10 @@
         <v>2024</v>
       </c>
       <c r="B534" s="3" t="s">
-        <v>1132</v>
+        <v>1122</v>
       </c>
       <c r="C534" s="3" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.2">
@@ -10219,10 +10225,10 @@
         <v>2024</v>
       </c>
       <c r="B535" s="3" t="s">
-        <v>1142</v>
+        <v>1132</v>
       </c>
       <c r="C535" s="3" t="s">
-        <v>1141</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.2">
@@ -10230,10 +10236,10 @@
         <v>2024</v>
       </c>
       <c r="B536" s="3" t="s">
-        <v>1251</v>
+        <v>1142</v>
       </c>
       <c r="C536" s="3" t="s">
-        <v>1246</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.2">
@@ -10241,10 +10247,10 @@
         <v>2024</v>
       </c>
       <c r="B537" s="3" t="s">
-        <v>1131</v>
+        <v>1251</v>
       </c>
       <c r="C537" s="3" t="s">
-        <v>1130</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.2">
@@ -10252,10 +10258,10 @@
         <v>2024</v>
       </c>
       <c r="B538" s="3" t="s">
-        <v>1140</v>
+        <v>1131</v>
       </c>
       <c r="C538" s="3" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.2">
@@ -10263,10 +10269,10 @@
         <v>2024</v>
       </c>
       <c r="B539" s="3" t="s">
-        <v>1113</v>
+        <v>1140</v>
       </c>
       <c r="C539" s="3" t="s">
-        <v>1110</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.2">
@@ -10274,10 +10280,10 @@
         <v>2024</v>
       </c>
       <c r="B540" s="3" t="s">
-        <v>1253</v>
+        <v>1113</v>
       </c>
       <c r="C540" s="3" t="s">
-        <v>1252</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.2">
@@ -10285,10 +10291,10 @@
         <v>2024</v>
       </c>
       <c r="B541" s="3" t="s">
-        <v>1230</v>
+        <v>1253</v>
       </c>
       <c r="C541" s="3" t="s">
-        <v>1231</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.2">
@@ -10296,10 +10302,10 @@
         <v>2024</v>
       </c>
       <c r="B542" s="3" t="s">
-        <v>1247</v>
+        <v>1230</v>
       </c>
       <c r="C542" s="3" t="s">
-        <v>1248</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.2">
@@ -10307,10 +10313,10 @@
         <v>2024</v>
       </c>
       <c r="B543" s="3" t="s">
-        <v>1232</v>
+        <v>1247</v>
       </c>
       <c r="C543" s="3" t="s">
-        <v>1233</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.2">
@@ -10318,10 +10324,10 @@
         <v>2024</v>
       </c>
       <c r="B544" s="3" t="s">
-        <v>1150</v>
+        <v>1232</v>
       </c>
       <c r="C544" s="3" t="s">
-        <v>1149</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.2">
@@ -10329,10 +10335,10 @@
         <v>2024</v>
       </c>
       <c r="B545" s="3" t="s">
-        <v>1135</v>
+        <v>1150</v>
       </c>
       <c r="C545" s="3" t="s">
-        <v>1136</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.2">
@@ -10340,10 +10346,10 @@
         <v>2024</v>
       </c>
       <c r="B546" s="3" t="s">
-        <v>1148</v>
+        <v>1135</v>
       </c>
       <c r="C546" s="3" t="s">
-        <v>1147</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.2">
@@ -10351,18 +10357,21 @@
         <v>2024</v>
       </c>
       <c r="B547" s="3" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C547" s="3" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A548" s="15">
+        <v>2024</v>
+      </c>
+      <c r="B548" s="3" t="s">
         <v>1145</v>
       </c>
-      <c r="C547" s="3" t="s">
+      <c r="C548" s="3" t="s">
         <v>1144</v>
-      </c>
-    </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A548" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C548" s="3" t="s">
-        <v>1237</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.2">
@@ -10370,7 +10379,7 @@
         <v>0</v>
       </c>
       <c r="C549" s="3" t="s">
-        <v>1261</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.2">
@@ -10473,13 +10482,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A32" sqref="A32"/>
+      <selection pane="bottomRight" activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10837,6 +10846,14 @@
       </c>
       <c r="C32" s="3" t="s">
         <v>1256</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>1265</v>
       </c>
     </row>
   </sheetData>

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1AB160D-302D-A24F-AF83-CB1079523067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F2CF88-4BF1-C94E-9CA8-036DFF165240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="500" windowWidth="24920" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="1267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="1269">
   <si>
     <t>Aceito</t>
   </si>
@@ -3847,6 +3847,12 @@
   </si>
   <si>
     <t>10.1055/s-0044-1789188</t>
+  </si>
+  <si>
+    <t>10.1016/j.msksp.2024.103162</t>
+  </si>
+  <si>
+    <t>Pain Intensity Scales: A Cross-sectional study on the Preferences and Knowledge of Physiotherapists and Participants with Musculoskeletal Pain</t>
   </si>
 </sst>
 </file>
@@ -4340,13 +4346,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I555"/>
+  <dimension ref="A1:I556"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B524" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B528" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A555" sqref="A555"/>
+      <selection pane="bottomRight" activeCell="A556" sqref="A556"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10443,6 +10449,17 @@
       </c>
       <c r="C555" s="3" t="s">
         <v>1154</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A556" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B556" s="3" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C556" s="3" t="s">
+        <v>1268</v>
       </c>
     </row>
   </sheetData>

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F2CF88-4BF1-C94E-9CA8-036DFF165240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FAD0F2D-B73E-7840-BDF1-D0E98D8258D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="500" windowWidth="24920" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="trabalhos-anais" sheetId="8" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'artigos-completos'!$A$1:$C$496</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'artigos-completos'!$A$1:$C$557</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">editorias!$A$1:$C$29</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'trabalhos-anais'!$A$1:$C$38</definedName>
   </definedNames>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="1269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="1271">
   <si>
     <t>Aceito</t>
   </si>
@@ -3853,6 +3853,12 @@
   </si>
   <si>
     <t>Pain Intensity Scales: A Cross-sectional study on the Preferences and Knowledge of Physiotherapists and Participants with Musculoskeletal Pain</t>
+  </si>
+  <si>
+    <t>10.1007/s10484-024-09657-y</t>
+  </si>
+  <si>
+    <t>Assessing the Feasibility of EMG Biofeedback to Reduce the Upper Trapezius Muscle Excitation during a Seated Row Exercise, a Non- randomized Comparative Study</t>
   </si>
 </sst>
 </file>
@@ -4346,13 +4352,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I556"/>
+  <dimension ref="A1:I557"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B528" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B526" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A556" sqref="A556"/>
+      <selection pane="bottomRight" activeCell="A557" sqref="A557"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10011,10 +10017,10 @@
         <v>2024</v>
       </c>
       <c r="B515" s="3" t="s">
-        <v>1263</v>
+        <v>1269</v>
       </c>
       <c r="C515" s="3" t="s">
-        <v>1262</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.2">
@@ -10022,10 +10028,10 @@
         <v>2024</v>
       </c>
       <c r="B516" s="3" t="s">
-        <v>1157</v>
+        <v>1263</v>
       </c>
       <c r="C516" s="3" t="s">
-        <v>1158</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.2">
@@ -10033,10 +10039,10 @@
         <v>2024</v>
       </c>
       <c r="B517" s="3" t="s">
-        <v>1223</v>
+        <v>1157</v>
       </c>
       <c r="C517" s="3" t="s">
-        <v>1224</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.2">
@@ -10044,10 +10050,10 @@
         <v>2024</v>
       </c>
       <c r="B518" s="3" t="s">
-        <v>1111</v>
+        <v>1223</v>
       </c>
       <c r="C518" s="3" t="s">
-        <v>1112</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.2">
@@ -10055,10 +10061,10 @@
         <v>2024</v>
       </c>
       <c r="B519" s="3" t="s">
-        <v>1240</v>
+        <v>1111</v>
       </c>
       <c r="C519" s="3" t="s">
-        <v>1241</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.2">
@@ -10066,10 +10072,10 @@
         <v>2024</v>
       </c>
       <c r="B520" s="3" t="s">
-        <v>1266</v>
+        <v>1240</v>
       </c>
       <c r="C520" s="3" t="s">
-        <v>1261</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.2">
@@ -10077,10 +10083,10 @@
         <v>2024</v>
       </c>
       <c r="B521" s="3" t="s">
-        <v>1139</v>
+        <v>1266</v>
       </c>
       <c r="C521" s="3" t="s">
-        <v>1134</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.2">
@@ -10088,10 +10094,10 @@
         <v>2024</v>
       </c>
       <c r="B522" s="3" t="s">
-        <v>1239</v>
+        <v>1139</v>
       </c>
       <c r="C522" s="3" t="s">
-        <v>1238</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.2">
@@ -10099,10 +10105,10 @@
         <v>2024</v>
       </c>
       <c r="B523" s="3" t="s">
-        <v>1255</v>
+        <v>1239</v>
       </c>
       <c r="C523" s="3" t="s">
-        <v>1254</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.2">
@@ -10110,10 +10116,10 @@
         <v>2024</v>
       </c>
       <c r="B524" s="3" t="s">
-        <v>1234</v>
+        <v>1255</v>
       </c>
       <c r="C524" s="3" t="s">
-        <v>1249</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.2">
@@ -10121,10 +10127,10 @@
         <v>2024</v>
       </c>
       <c r="B525" s="3" t="s">
-        <v>1078</v>
+        <v>1234</v>
       </c>
       <c r="C525" s="3" t="s">
-        <v>1077</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.2">
@@ -10132,10 +10138,10 @@
         <v>2024</v>
       </c>
       <c r="B526" s="3" t="s">
-        <v>1143</v>
+        <v>1078</v>
       </c>
       <c r="C526" s="3" t="s">
-        <v>1127</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.2">
@@ -10143,10 +10149,10 @@
         <v>2024</v>
       </c>
       <c r="B527" s="3" t="s">
-        <v>1155</v>
+        <v>1143</v>
       </c>
       <c r="C527" s="3" t="s">
-        <v>1156</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.2">
@@ -10154,10 +10160,10 @@
         <v>2024</v>
       </c>
       <c r="B528" s="3" t="s">
-        <v>1225</v>
+        <v>1155</v>
       </c>
       <c r="C528" s="3" t="s">
-        <v>1226</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.2">
@@ -10165,10 +10171,10 @@
         <v>2024</v>
       </c>
       <c r="B529" s="3" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="C529" s="3" t="s">
-        <v>1160</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.2">
@@ -10176,10 +10182,10 @@
         <v>2024</v>
       </c>
       <c r="B530" s="3" t="s">
-        <v>1152</v>
+        <v>1227</v>
       </c>
       <c r="C530" s="3" t="s">
-        <v>1151</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.2">
@@ -10187,10 +10193,10 @@
         <v>2024</v>
       </c>
       <c r="B531" s="3" t="s">
-        <v>1161</v>
+        <v>1152</v>
       </c>
       <c r="C531" s="3" t="s">
-        <v>1114</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.2">
@@ -10198,10 +10204,10 @@
         <v>2024</v>
       </c>
       <c r="B532" s="3" t="s">
-        <v>1123</v>
+        <v>1161</v>
       </c>
       <c r="C532" s="3" t="s">
-        <v>1124</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.2">
@@ -10209,10 +10215,10 @@
         <v>2024</v>
       </c>
       <c r="B533" s="3" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="C533" s="3" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.2">
@@ -10220,10 +10226,10 @@
         <v>2024</v>
       </c>
       <c r="B534" s="3" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
       <c r="C534" s="3" t="s">
-        <v>1120</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.2">
@@ -10231,10 +10237,10 @@
         <v>2024</v>
       </c>
       <c r="B535" s="3" t="s">
-        <v>1132</v>
+        <v>1122</v>
       </c>
       <c r="C535" s="3" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.2">
@@ -10242,10 +10248,10 @@
         <v>2024</v>
       </c>
       <c r="B536" s="3" t="s">
-        <v>1142</v>
+        <v>1132</v>
       </c>
       <c r="C536" s="3" t="s">
-        <v>1141</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.2">
@@ -10253,10 +10259,10 @@
         <v>2024</v>
       </c>
       <c r="B537" s="3" t="s">
-        <v>1251</v>
+        <v>1142</v>
       </c>
       <c r="C537" s="3" t="s">
-        <v>1246</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.2">
@@ -10264,10 +10270,10 @@
         <v>2024</v>
       </c>
       <c r="B538" s="3" t="s">
-        <v>1131</v>
+        <v>1251</v>
       </c>
       <c r="C538" s="3" t="s">
-        <v>1130</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.2">
@@ -10275,10 +10281,10 @@
         <v>2024</v>
       </c>
       <c r="B539" s="3" t="s">
-        <v>1140</v>
+        <v>1131</v>
       </c>
       <c r="C539" s="3" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.2">
@@ -10286,10 +10292,10 @@
         <v>2024</v>
       </c>
       <c r="B540" s="3" t="s">
-        <v>1113</v>
+        <v>1140</v>
       </c>
       <c r="C540" s="3" t="s">
-        <v>1110</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.2">
@@ -10297,10 +10303,10 @@
         <v>2024</v>
       </c>
       <c r="B541" s="3" t="s">
-        <v>1253</v>
+        <v>1113</v>
       </c>
       <c r="C541" s="3" t="s">
-        <v>1252</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.2">
@@ -10308,10 +10314,10 @@
         <v>2024</v>
       </c>
       <c r="B542" s="3" t="s">
-        <v>1230</v>
+        <v>1253</v>
       </c>
       <c r="C542" s="3" t="s">
-        <v>1231</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.2">
@@ -10319,10 +10325,10 @@
         <v>2024</v>
       </c>
       <c r="B543" s="3" t="s">
-        <v>1247</v>
+        <v>1230</v>
       </c>
       <c r="C543" s="3" t="s">
-        <v>1248</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.2">
@@ -10330,10 +10336,10 @@
         <v>2024</v>
       </c>
       <c r="B544" s="3" t="s">
-        <v>1232</v>
+        <v>1247</v>
       </c>
       <c r="C544" s="3" t="s">
-        <v>1233</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.2">
@@ -10341,10 +10347,10 @@
         <v>2024</v>
       </c>
       <c r="B545" s="3" t="s">
-        <v>1150</v>
+        <v>1232</v>
       </c>
       <c r="C545" s="3" t="s">
-        <v>1149</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.2">
@@ -10352,10 +10358,10 @@
         <v>2024</v>
       </c>
       <c r="B546" s="3" t="s">
-        <v>1135</v>
+        <v>1150</v>
       </c>
       <c r="C546" s="3" t="s">
-        <v>1136</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.2">
@@ -10363,10 +10369,10 @@
         <v>2024</v>
       </c>
       <c r="B547" s="3" t="s">
-        <v>1148</v>
+        <v>1135</v>
       </c>
       <c r="C547" s="3" t="s">
-        <v>1147</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.2">
@@ -10374,48 +10380,48 @@
         <v>2024</v>
       </c>
       <c r="B548" s="3" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C548" s="3" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A549" s="15">
+        <v>2024</v>
+      </c>
+      <c r="B549" s="3" t="s">
         <v>1145</v>
       </c>
-      <c r="C548" s="3" t="s">
+      <c r="C549" s="3" t="s">
         <v>1144</v>
-      </c>
-    </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A549" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C549" s="3" t="s">
-        <v>1237</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A550" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B550" s="3" t="s">
-        <v>1118</v>
-      </c>
       <c r="C550" s="3" t="s">
-        <v>1115</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A551" s="15" t="s">
         <v>0</v>
       </c>
+      <c r="B551" s="3" t="s">
+        <v>1118</v>
+      </c>
       <c r="C551" s="3" t="s">
-        <v>1250</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A552" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B552" s="3" t="s">
-        <v>1073</v>
-      </c>
       <c r="C552" s="3" t="s">
-        <v>1068</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.2">
@@ -10423,10 +10429,10 @@
         <v>0</v>
       </c>
       <c r="B553" s="3" t="s">
-        <v>1264</v>
+        <v>1073</v>
       </c>
       <c r="C553" s="3" t="s">
-        <v>1159</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.2">
@@ -10434,10 +10440,10 @@
         <v>0</v>
       </c>
       <c r="B554" s="3" t="s">
-        <v>1137</v>
+        <v>1267</v>
       </c>
       <c r="C554" s="3" t="s">
-        <v>1138</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.2">
@@ -10445,10 +10451,10 @@
         <v>0</v>
       </c>
       <c r="B555" s="3" t="s">
-        <v>1153</v>
+        <v>1264</v>
       </c>
       <c r="C555" s="3" t="s">
-        <v>1154</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.2">
@@ -10456,16 +10462,27 @@
         <v>0</v>
       </c>
       <c r="B556" s="3" t="s">
-        <v>1267</v>
+        <v>1137</v>
       </c>
       <c r="C556" s="3" t="s">
-        <v>1268</v>
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A557" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B557" s="3" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C557" s="3" t="s">
+        <v>1154</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C555">
-    <sortCondition ref="A2:A555"/>
-    <sortCondition ref="C2:C555"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C557">
+    <sortCondition ref="A2:A557"/>
+    <sortCondition ref="C2:C557"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="Submetido">

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FAD0F2D-B73E-7840-BDF1-D0E98D8258D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF346472-B576-E947-9DA5-132490C3A2BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="500" windowWidth="24920" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="1271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="1273">
   <si>
     <t>Aceito</t>
   </si>
@@ -3859,6 +3859,12 @@
   </si>
   <si>
     <t>Assessing the Feasibility of EMG Biofeedback to Reduce the Upper Trapezius Muscle Excitation during a Seated Row Exercise, a Non- randomized Comparative Study</t>
+  </si>
+  <si>
+    <t>Update on chronic musculoskeletal pain: narrative review</t>
+  </si>
+  <si>
+    <t>10.5935/2595-0118.20240047-en</t>
   </si>
 </sst>
 </file>
@@ -4352,13 +4358,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I557"/>
+  <dimension ref="A1:I558"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B526" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B535" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A557" sqref="A557"/>
+      <selection pane="bottomRight" activeCell="A558" sqref="A558"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10477,6 +10483,17 @@
       </c>
       <c r="C557" s="3" t="s">
         <v>1154</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A558" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B558" s="3" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C558" s="3" t="s">
+        <v>1271</v>
       </c>
     </row>
   </sheetData>

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (arthur_sf)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF346472-B576-E947-9DA5-132490C3A2BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F7F9EA-897B-F543-811C-D901E25C37A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="500" windowWidth="24920" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="1273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="1274">
   <si>
     <t>Aceito</t>
   </si>
@@ -3865,6 +3865,9 @@
   </si>
   <si>
     <t>10.5935/2595-0118.20240047-en</t>
+  </si>
+  <si>
+    <t>Analysis of the physical fitnes and determinants of performance of Beach handball athletes</t>
   </si>
 </sst>
 </file>
@@ -4358,13 +4361,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I558"/>
+  <dimension ref="A1:I559"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B535" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A558" sqref="A558"/>
+      <selection pane="bottomRight" activeCell="A559" sqref="A559"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10494,6 +10497,14 @@
       </c>
       <c r="C558" s="3" t="s">
         <v>1271</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A559" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C559" s="3" t="s">
+        <v>1273</v>
       </c>
     </row>
   </sheetData>

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (arthur_sf)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F7F9EA-897B-F543-811C-D901E25C37A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972BF24F-525C-5542-B327-255E5FB81E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="500" windowWidth="24920" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="1274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="1276">
   <si>
     <t>Aceito</t>
   </si>
@@ -3868,6 +3868,12 @@
   </si>
   <si>
     <t>Analysis of the physical fitnes and determinants of performance of Beach handball athletes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Influence of Kinesiophobia on muscle endurance in patients with chronic low back pain- A case-control study</t>
+  </si>
+  <si>
+    <t>10.12688/f1000research.152751.1</t>
   </si>
 </sst>
 </file>
@@ -4361,13 +4367,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I559"/>
+  <dimension ref="A1:I560"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B535" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B529" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A559" sqref="A559"/>
+      <selection pane="bottomRight" activeCell="A560" sqref="A560"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10004,10 +10010,10 @@
         <v>2024</v>
       </c>
       <c r="B513" s="3" t="s">
-        <v>1260</v>
+        <v>1275</v>
       </c>
       <c r="C513" s="3" t="s">
-        <v>1259</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.2">
@@ -10015,10 +10021,10 @@
         <v>2024</v>
       </c>
       <c r="B514" s="3" t="s">
-        <v>1146</v>
+        <v>1260</v>
       </c>
       <c r="C514" s="3" t="s">
-        <v>1119</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.2">
@@ -10026,10 +10032,10 @@
         <v>2024</v>
       </c>
       <c r="B515" s="3" t="s">
-        <v>1269</v>
+        <v>1146</v>
       </c>
       <c r="C515" s="3" t="s">
-        <v>1270</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.2">
@@ -10037,10 +10043,10 @@
         <v>2024</v>
       </c>
       <c r="B516" s="3" t="s">
-        <v>1263</v>
+        <v>1269</v>
       </c>
       <c r="C516" s="3" t="s">
-        <v>1262</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.2">
@@ -10048,10 +10054,10 @@
         <v>2024</v>
       </c>
       <c r="B517" s="3" t="s">
-        <v>1157</v>
+        <v>1263</v>
       </c>
       <c r="C517" s="3" t="s">
-        <v>1158</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.2">
@@ -10059,10 +10065,10 @@
         <v>2024</v>
       </c>
       <c r="B518" s="3" t="s">
-        <v>1223</v>
+        <v>1157</v>
       </c>
       <c r="C518" s="3" t="s">
-        <v>1224</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.2">
@@ -10070,10 +10076,10 @@
         <v>2024</v>
       </c>
       <c r="B519" s="3" t="s">
-        <v>1111</v>
+        <v>1223</v>
       </c>
       <c r="C519" s="3" t="s">
-        <v>1112</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.2">
@@ -10081,10 +10087,10 @@
         <v>2024</v>
       </c>
       <c r="B520" s="3" t="s">
-        <v>1240</v>
+        <v>1111</v>
       </c>
       <c r="C520" s="3" t="s">
-        <v>1241</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.2">
@@ -10092,10 +10098,10 @@
         <v>2024</v>
       </c>
       <c r="B521" s="3" t="s">
-        <v>1266</v>
+        <v>1240</v>
       </c>
       <c r="C521" s="3" t="s">
-        <v>1261</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.2">
@@ -10103,10 +10109,10 @@
         <v>2024</v>
       </c>
       <c r="B522" s="3" t="s">
-        <v>1139</v>
+        <v>1266</v>
       </c>
       <c r="C522" s="3" t="s">
-        <v>1134</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.2">
@@ -10114,10 +10120,10 @@
         <v>2024</v>
       </c>
       <c r="B523" s="3" t="s">
-        <v>1239</v>
+        <v>1139</v>
       </c>
       <c r="C523" s="3" t="s">
-        <v>1238</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.2">
@@ -10125,10 +10131,10 @@
         <v>2024</v>
       </c>
       <c r="B524" s="3" t="s">
-        <v>1255</v>
+        <v>1239</v>
       </c>
       <c r="C524" s="3" t="s">
-        <v>1254</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.2">
@@ -10136,10 +10142,10 @@
         <v>2024</v>
       </c>
       <c r="B525" s="3" t="s">
-        <v>1234</v>
+        <v>1255</v>
       </c>
       <c r="C525" s="3" t="s">
-        <v>1249</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.2">
@@ -10147,10 +10153,10 @@
         <v>2024</v>
       </c>
       <c r="B526" s="3" t="s">
-        <v>1078</v>
+        <v>1234</v>
       </c>
       <c r="C526" s="3" t="s">
-        <v>1077</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.2">
@@ -10158,10 +10164,10 @@
         <v>2024</v>
       </c>
       <c r="B527" s="3" t="s">
-        <v>1143</v>
+        <v>1078</v>
       </c>
       <c r="C527" s="3" t="s">
-        <v>1127</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.2">
@@ -10169,10 +10175,10 @@
         <v>2024</v>
       </c>
       <c r="B528" s="3" t="s">
-        <v>1155</v>
+        <v>1143</v>
       </c>
       <c r="C528" s="3" t="s">
-        <v>1156</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.2">
@@ -10180,10 +10186,10 @@
         <v>2024</v>
       </c>
       <c r="B529" s="3" t="s">
-        <v>1225</v>
+        <v>1155</v>
       </c>
       <c r="C529" s="3" t="s">
-        <v>1226</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.2">
@@ -10191,10 +10197,10 @@
         <v>2024</v>
       </c>
       <c r="B530" s="3" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="C530" s="3" t="s">
-        <v>1160</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.2">
@@ -10202,10 +10208,10 @@
         <v>2024</v>
       </c>
       <c r="B531" s="3" t="s">
-        <v>1152</v>
+        <v>1227</v>
       </c>
       <c r="C531" s="3" t="s">
-        <v>1151</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.2">
@@ -10213,10 +10219,10 @@
         <v>2024</v>
       </c>
       <c r="B532" s="3" t="s">
-        <v>1161</v>
+        <v>1152</v>
       </c>
       <c r="C532" s="3" t="s">
-        <v>1114</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.2">
@@ -10224,10 +10230,10 @@
         <v>2024</v>
       </c>
       <c r="B533" s="3" t="s">
-        <v>1123</v>
+        <v>1161</v>
       </c>
       <c r="C533" s="3" t="s">
-        <v>1124</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.2">
@@ -10235,10 +10241,10 @@
         <v>2024</v>
       </c>
       <c r="B534" s="3" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="C534" s="3" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.2">
@@ -10246,10 +10252,10 @@
         <v>2024</v>
       </c>
       <c r="B535" s="3" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
       <c r="C535" s="3" t="s">
-        <v>1120</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.2">
@@ -10257,10 +10263,10 @@
         <v>2024</v>
       </c>
       <c r="B536" s="3" t="s">
-        <v>1132</v>
+        <v>1122</v>
       </c>
       <c r="C536" s="3" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.2">
@@ -10268,10 +10274,10 @@
         <v>2024</v>
       </c>
       <c r="B537" s="3" t="s">
-        <v>1142</v>
+        <v>1132</v>
       </c>
       <c r="C537" s="3" t="s">
-        <v>1141</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.2">
@@ -10279,10 +10285,10 @@
         <v>2024</v>
       </c>
       <c r="B538" s="3" t="s">
-        <v>1251</v>
+        <v>1142</v>
       </c>
       <c r="C538" s="3" t="s">
-        <v>1246</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.2">
@@ -10290,10 +10296,10 @@
         <v>2024</v>
       </c>
       <c r="B539" s="3" t="s">
-        <v>1131</v>
+        <v>1251</v>
       </c>
       <c r="C539" s="3" t="s">
-        <v>1130</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.2">
@@ -10301,10 +10307,10 @@
         <v>2024</v>
       </c>
       <c r="B540" s="3" t="s">
-        <v>1140</v>
+        <v>1131</v>
       </c>
       <c r="C540" s="3" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.2">
@@ -10312,10 +10318,10 @@
         <v>2024</v>
       </c>
       <c r="B541" s="3" t="s">
-        <v>1113</v>
+        <v>1140</v>
       </c>
       <c r="C541" s="3" t="s">
-        <v>1110</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.2">
@@ -10323,10 +10329,10 @@
         <v>2024</v>
       </c>
       <c r="B542" s="3" t="s">
-        <v>1253</v>
+        <v>1113</v>
       </c>
       <c r="C542" s="3" t="s">
-        <v>1252</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.2">
@@ -10334,10 +10340,10 @@
         <v>2024</v>
       </c>
       <c r="B543" s="3" t="s">
-        <v>1230</v>
+        <v>1253</v>
       </c>
       <c r="C543" s="3" t="s">
-        <v>1231</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.2">
@@ -10345,10 +10351,10 @@
         <v>2024</v>
       </c>
       <c r="B544" s="3" t="s">
-        <v>1247</v>
+        <v>1230</v>
       </c>
       <c r="C544" s="3" t="s">
-        <v>1248</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.2">
@@ -10356,10 +10362,10 @@
         <v>2024</v>
       </c>
       <c r="B545" s="3" t="s">
-        <v>1232</v>
+        <v>1247</v>
       </c>
       <c r="C545" s="3" t="s">
-        <v>1233</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.2">
@@ -10367,10 +10373,10 @@
         <v>2024</v>
       </c>
       <c r="B546" s="3" t="s">
-        <v>1150</v>
+        <v>1232</v>
       </c>
       <c r="C546" s="3" t="s">
-        <v>1149</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.2">
@@ -10378,10 +10384,10 @@
         <v>2024</v>
       </c>
       <c r="B547" s="3" t="s">
-        <v>1135</v>
+        <v>1150</v>
       </c>
       <c r="C547" s="3" t="s">
-        <v>1136</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.2">
@@ -10389,10 +10395,10 @@
         <v>2024</v>
       </c>
       <c r="B548" s="3" t="s">
-        <v>1148</v>
+        <v>1135</v>
       </c>
       <c r="C548" s="3" t="s">
-        <v>1147</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.2">
@@ -10400,29 +10406,29 @@
         <v>2024</v>
       </c>
       <c r="B549" s="3" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C549" s="3" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A550" s="15">
+        <v>2024</v>
+      </c>
+      <c r="B550" s="3" t="s">
         <v>1145</v>
       </c>
-      <c r="C549" s="3" t="s">
+      <c r="C550" s="3" t="s">
         <v>1144</v>
-      </c>
-    </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A550" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C550" s="3" t="s">
-        <v>1237</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A551" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B551" s="3" t="s">
-        <v>1118</v>
-      </c>
       <c r="C551" s="3" t="s">
-        <v>1115</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.2">
@@ -10430,7 +10436,7 @@
         <v>0</v>
       </c>
       <c r="C552" s="3" t="s">
-        <v>1250</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.2">
@@ -10438,21 +10444,18 @@
         <v>0</v>
       </c>
       <c r="B553" s="3" t="s">
-        <v>1073</v>
+        <v>1118</v>
       </c>
       <c r="C553" s="3" t="s">
-        <v>1068</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A554" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B554" s="3" t="s">
-        <v>1267</v>
-      </c>
       <c r="C554" s="3" t="s">
-        <v>1268</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.2">
@@ -10460,10 +10463,10 @@
         <v>0</v>
       </c>
       <c r="B555" s="3" t="s">
-        <v>1264</v>
+        <v>1073</v>
       </c>
       <c r="C555" s="3" t="s">
-        <v>1159</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.2">
@@ -10471,10 +10474,10 @@
         <v>0</v>
       </c>
       <c r="B556" s="3" t="s">
-        <v>1137</v>
+        <v>1267</v>
       </c>
       <c r="C556" s="3" t="s">
-        <v>1138</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.2">
@@ -10482,10 +10485,10 @@
         <v>0</v>
       </c>
       <c r="B557" s="3" t="s">
-        <v>1153</v>
+        <v>1264</v>
       </c>
       <c r="C557" s="3" t="s">
-        <v>1154</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.2">
@@ -10493,24 +10496,38 @@
         <v>0</v>
       </c>
       <c r="B558" s="3" t="s">
-        <v>1272</v>
+        <v>1137</v>
       </c>
       <c r="C558" s="3" t="s">
-        <v>1271</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A559" s="15" t="s">
         <v>0</v>
       </c>
+      <c r="B559" s="3" t="s">
+        <v>1153</v>
+      </c>
       <c r="C559" s="3" t="s">
-        <v>1273</v>
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A560" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B560" s="3" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C560" s="3" t="s">
+        <v>1271</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C557">
-    <sortCondition ref="A2:A557"/>
-    <sortCondition ref="C2:C557"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C560">
+    <sortCondition ref="A2:A560"/>
+    <sortCondition ref="C2:C560"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="Submetido">

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972BF24F-525C-5542-B327-255E5FB81E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F0D4E6-3EA1-0B4E-87F3-C1420B4D5FA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="500" windowWidth="24920" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="1276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="1281">
   <si>
     <t>Aceito</t>
   </si>
@@ -3874,6 +3874,21 @@
   </si>
   <si>
     <t>10.12688/f1000research.152751.1</t>
+  </si>
+  <si>
+    <t>10.2519/josptcases.2024.0020</t>
+  </si>
+  <si>
+    <t>Contents and delivery methods of pain neuroscience education in pediatrics: A scoping review</t>
+  </si>
+  <si>
+    <t>10.1016/j.msksp.2024.103182</t>
+  </si>
+  <si>
+    <t>Machine learning methods in physical therapy: A scoping review of applications in clinical context</t>
+  </si>
+  <si>
+    <t>10.1016/j.msksp.2024.103184</t>
   </si>
 </sst>
 </file>
@@ -4367,13 +4382,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I560"/>
+  <dimension ref="A1:I562"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B529" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B533" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A560" sqref="A560"/>
+      <selection pane="bottomRight" activeCell="A562" sqref="A562"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10329,10 +10344,10 @@
         <v>2024</v>
       </c>
       <c r="B542" s="3" t="s">
-        <v>1113</v>
+        <v>1267</v>
       </c>
       <c r="C542" s="3" t="s">
-        <v>1110</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.2">
@@ -10340,10 +10355,10 @@
         <v>2024</v>
       </c>
       <c r="B543" s="3" t="s">
-        <v>1253</v>
+        <v>1113</v>
       </c>
       <c r="C543" s="3" t="s">
-        <v>1252</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.2">
@@ -10351,10 +10366,10 @@
         <v>2024</v>
       </c>
       <c r="B544" s="3" t="s">
-        <v>1230</v>
+        <v>1253</v>
       </c>
       <c r="C544" s="3" t="s">
-        <v>1231</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.2">
@@ -10362,10 +10377,10 @@
         <v>2024</v>
       </c>
       <c r="B545" s="3" t="s">
-        <v>1247</v>
+        <v>1230</v>
       </c>
       <c r="C545" s="3" t="s">
-        <v>1248</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.2">
@@ -10373,10 +10388,10 @@
         <v>2024</v>
       </c>
       <c r="B546" s="3" t="s">
-        <v>1232</v>
+        <v>1247</v>
       </c>
       <c r="C546" s="3" t="s">
-        <v>1233</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.2">
@@ -10384,10 +10399,10 @@
         <v>2024</v>
       </c>
       <c r="B547" s="3" t="s">
-        <v>1150</v>
+        <v>1232</v>
       </c>
       <c r="C547" s="3" t="s">
-        <v>1149</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.2">
@@ -10395,10 +10410,10 @@
         <v>2024</v>
       </c>
       <c r="B548" s="3" t="s">
-        <v>1135</v>
+        <v>1150</v>
       </c>
       <c r="C548" s="3" t="s">
-        <v>1136</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.2">
@@ -10406,10 +10421,10 @@
         <v>2024</v>
       </c>
       <c r="B549" s="3" t="s">
-        <v>1148</v>
+        <v>1135</v>
       </c>
       <c r="C549" s="3" t="s">
-        <v>1147</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.2">
@@ -10417,18 +10432,21 @@
         <v>2024</v>
       </c>
       <c r="B550" s="3" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C550" s="3" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A551" s="15">
+        <v>2024</v>
+      </c>
+      <c r="B551" s="3" t="s">
         <v>1145</v>
       </c>
-      <c r="C550" s="3" t="s">
+      <c r="C551" s="3" t="s">
         <v>1144</v>
-      </c>
-    </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A551" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C551" s="3" t="s">
-        <v>1273</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.2">
@@ -10436,37 +10454,34 @@
         <v>0</v>
       </c>
       <c r="C552" s="3" t="s">
-        <v>1237</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A553" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B553" s="3" t="s">
-        <v>1118</v>
-      </c>
       <c r="C553" s="3" t="s">
-        <v>1115</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A554" s="15" t="s">
         <v>0</v>
       </c>
+      <c r="B554" s="3" t="s">
+        <v>1118</v>
+      </c>
       <c r="C554" s="3" t="s">
-        <v>1250</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A555" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B555" s="3" t="s">
-        <v>1073</v>
-      </c>
       <c r="C555" s="3" t="s">
-        <v>1068</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.2">
@@ -10474,10 +10489,10 @@
         <v>0</v>
       </c>
       <c r="B556" s="3" t="s">
-        <v>1267</v>
+        <v>1073</v>
       </c>
       <c r="C556" s="3" t="s">
-        <v>1268</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.2">
@@ -10522,6 +10537,28 @@
       </c>
       <c r="C560" s="3" t="s">
         <v>1271</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A561" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B561" s="3" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C561" s="3" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A562" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B562" s="3" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C562" s="3" t="s">
+        <v>1279</v>
       </c>
     </row>
   </sheetData>
@@ -10928,8 +10965,11 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
-        <v>0</v>
+      <c r="A33" s="3">
+        <v>2024</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>1276</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>1265</v>

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F0D4E6-3EA1-0B4E-87F3-C1420B4D5FA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57A0A20-6CF2-1545-94A8-5F16B328F5FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="500" windowWidth="24920" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="1281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="1282">
   <si>
     <t>Aceito</t>
   </si>
@@ -3889,6 +3889,9 @@
   </si>
   <si>
     <t>10.1016/j.msksp.2024.103184</t>
+  </si>
+  <si>
+    <t>Associated factors with musculoskeletal pain in nursing professionals: a cross-sectional study</t>
   </si>
 </sst>
 </file>
@@ -4382,13 +4385,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I562"/>
+  <dimension ref="A1:I563"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B533" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A562" sqref="A562"/>
+      <selection pane="bottomRight" activeCell="A563" sqref="A563"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10559,6 +10562,14 @@
       </c>
       <c r="C562" s="3" t="s">
         <v>1279</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A563" s="15">
+        <v>2024</v>
+      </c>
+      <c r="C563" s="3" t="s">
+        <v>1281</v>
       </c>
     </row>
   </sheetData>

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (arthur_sf)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57A0A20-6CF2-1545-94A8-5F16B328F5FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50309F89-17A6-5044-A948-1681071A523D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="500" windowWidth="24920" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1040" yWindow="500" windowWidth="24920" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="artigos-completos" sheetId="4" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="trabalhos-anais" sheetId="8" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'artigos-completos'!$A$1:$C$557</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'artigos-completos'!$A$1:$C$556</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">editorias!$A$1:$C$29</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'trabalhos-anais'!$A$1:$C$38</definedName>
   </definedNames>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="1282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="1284">
   <si>
     <t>Aceito</t>
   </si>
@@ -3798,9 +3798,6 @@
     <t>Effect of inspiratory muscle training on pulmonary function, respiratory muscle strength, aerobic performance, sports skills, and quality of life in wheelchair rugby athletes</t>
   </si>
   <si>
-    <t>Fatores associados à dor musculoesquelética em profissionais de enfermagem: um estudo transversal retrospectivo</t>
-  </si>
-  <si>
     <t>10.1186/s12998-024-00541-4</t>
   </si>
   <si>
@@ -3892,6 +3889,15 @@
   </si>
   <si>
     <t>Associated factors with musculoskeletal pain in nursing professionals: a cross-sectional study</t>
+  </si>
+  <si>
+    <t>Quadriceps Force Fluctuation During Maximal Isometric Contraction is Altered in ACL Injury and is Associated with Lower Limb Functional Performance: A Cross-Sectional Study with Athletes</t>
+  </si>
+  <si>
+    <t>10.32098/mltj.03.2024.13</t>
+  </si>
+  <si>
+    <t>Evaluation of the measurement properties of the Parental Perceptions of Children's Exposure to Tobacco Smoke Instrument and translated to the Brazilian context</t>
   </si>
 </sst>
 </file>
@@ -4385,13 +4391,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I563"/>
+  <dimension ref="A1:I564"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B533" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B540" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A563" sqref="A563"/>
+      <selection pane="bottomRight" activeCell="A564" sqref="A564"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10028,10 +10034,10 @@
         <v>2024</v>
       </c>
       <c r="B513" s="3" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="C513" s="3" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.2">
@@ -10039,10 +10045,10 @@
         <v>2024</v>
       </c>
       <c r="B514" s="3" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="C514" s="3" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.2">
@@ -10061,10 +10067,10 @@
         <v>2024</v>
       </c>
       <c r="B516" s="3" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C516" s="3" t="s">
         <v>1269</v>
-      </c>
-      <c r="C516" s="3" t="s">
-        <v>1270</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.2">
@@ -10072,21 +10078,18 @@
         <v>2024</v>
       </c>
       <c r="B517" s="3" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C517" s="3" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A518" s="15">
         <v>2024</v>
       </c>
-      <c r="B518" s="3" t="s">
-        <v>1157</v>
-      </c>
       <c r="C518" s="3" t="s">
-        <v>1158</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.2">
@@ -10094,10 +10097,10 @@
         <v>2024</v>
       </c>
       <c r="B519" s="3" t="s">
-        <v>1223</v>
+        <v>1157</v>
       </c>
       <c r="C519" s="3" t="s">
-        <v>1224</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.2">
@@ -10105,10 +10108,10 @@
         <v>2024</v>
       </c>
       <c r="B520" s="3" t="s">
-        <v>1111</v>
+        <v>1223</v>
       </c>
       <c r="C520" s="3" t="s">
-        <v>1112</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.2">
@@ -10116,10 +10119,10 @@
         <v>2024</v>
       </c>
       <c r="B521" s="3" t="s">
-        <v>1240</v>
+        <v>1111</v>
       </c>
       <c r="C521" s="3" t="s">
-        <v>1241</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.2">
@@ -10127,10 +10130,10 @@
         <v>2024</v>
       </c>
       <c r="B522" s="3" t="s">
-        <v>1266</v>
+        <v>1240</v>
       </c>
       <c r="C522" s="3" t="s">
-        <v>1261</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.2">
@@ -10138,10 +10141,10 @@
         <v>2024</v>
       </c>
       <c r="B523" s="3" t="s">
-        <v>1139</v>
+        <v>1265</v>
       </c>
       <c r="C523" s="3" t="s">
-        <v>1134</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.2">
@@ -10149,10 +10152,10 @@
         <v>2024</v>
       </c>
       <c r="B524" s="3" t="s">
-        <v>1239</v>
+        <v>1277</v>
       </c>
       <c r="C524" s="3" t="s">
-        <v>1238</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.2">
@@ -10160,10 +10163,10 @@
         <v>2024</v>
       </c>
       <c r="B525" s="3" t="s">
-        <v>1255</v>
+        <v>1139</v>
       </c>
       <c r="C525" s="3" t="s">
-        <v>1254</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.2">
@@ -10171,10 +10174,10 @@
         <v>2024</v>
       </c>
       <c r="B526" s="3" t="s">
-        <v>1234</v>
+        <v>1239</v>
       </c>
       <c r="C526" s="3" t="s">
-        <v>1249</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.2">
@@ -10182,10 +10185,10 @@
         <v>2024</v>
       </c>
       <c r="B527" s="3" t="s">
-        <v>1078</v>
+        <v>1254</v>
       </c>
       <c r="C527" s="3" t="s">
-        <v>1077</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.2">
@@ -10193,10 +10196,10 @@
         <v>2024</v>
       </c>
       <c r="B528" s="3" t="s">
-        <v>1143</v>
+        <v>1234</v>
       </c>
       <c r="C528" s="3" t="s">
-        <v>1127</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.2">
@@ -10204,10 +10207,10 @@
         <v>2024</v>
       </c>
       <c r="B529" s="3" t="s">
-        <v>1155</v>
+        <v>1078</v>
       </c>
       <c r="C529" s="3" t="s">
-        <v>1156</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.2">
@@ -10215,10 +10218,10 @@
         <v>2024</v>
       </c>
       <c r="B530" s="3" t="s">
-        <v>1225</v>
+        <v>1143</v>
       </c>
       <c r="C530" s="3" t="s">
-        <v>1226</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.2">
@@ -10226,10 +10229,10 @@
         <v>2024</v>
       </c>
       <c r="B531" s="3" t="s">
-        <v>1227</v>
+        <v>1155</v>
       </c>
       <c r="C531" s="3" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.2">
@@ -10237,10 +10240,10 @@
         <v>2024</v>
       </c>
       <c r="B532" s="3" t="s">
-        <v>1152</v>
+        <v>1225</v>
       </c>
       <c r="C532" s="3" t="s">
-        <v>1151</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.2">
@@ -10248,10 +10251,10 @@
         <v>2024</v>
       </c>
       <c r="B533" s="3" t="s">
-        <v>1161</v>
+        <v>1227</v>
       </c>
       <c r="C533" s="3" t="s">
-        <v>1114</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.2">
@@ -10259,10 +10262,10 @@
         <v>2024</v>
       </c>
       <c r="B534" s="3" t="s">
-        <v>1123</v>
+        <v>1152</v>
       </c>
       <c r="C534" s="3" t="s">
-        <v>1124</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.2">
@@ -10270,10 +10273,10 @@
         <v>2024</v>
       </c>
       <c r="B535" s="3" t="s">
-        <v>1126</v>
+        <v>1161</v>
       </c>
       <c r="C535" s="3" t="s">
-        <v>1125</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.2">
@@ -10281,10 +10284,10 @@
         <v>2024</v>
       </c>
       <c r="B536" s="3" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="C536" s="3" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.2">
@@ -10292,10 +10295,10 @@
         <v>2024</v>
       </c>
       <c r="B537" s="3" t="s">
-        <v>1132</v>
+        <v>1126</v>
       </c>
       <c r="C537" s="3" t="s">
-        <v>1121</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.2">
@@ -10303,10 +10306,10 @@
         <v>2024</v>
       </c>
       <c r="B538" s="3" t="s">
-        <v>1142</v>
+        <v>1122</v>
       </c>
       <c r="C538" s="3" t="s">
-        <v>1141</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.2">
@@ -10314,10 +10317,10 @@
         <v>2024</v>
       </c>
       <c r="B539" s="3" t="s">
-        <v>1251</v>
+        <v>1279</v>
       </c>
       <c r="C539" s="3" t="s">
-        <v>1246</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.2">
@@ -10325,10 +10328,10 @@
         <v>2024</v>
       </c>
       <c r="B540" s="3" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="C540" s="3" t="s">
-        <v>1130</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.2">
@@ -10336,10 +10339,10 @@
         <v>2024</v>
       </c>
       <c r="B541" s="3" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="C541" s="3" t="s">
-        <v>1133</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.2">
@@ -10347,10 +10350,10 @@
         <v>2024</v>
       </c>
       <c r="B542" s="3" t="s">
-        <v>1267</v>
+        <v>1250</v>
       </c>
       <c r="C542" s="3" t="s">
-        <v>1268</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.2">
@@ -10358,10 +10361,10 @@
         <v>2024</v>
       </c>
       <c r="B543" s="3" t="s">
-        <v>1113</v>
+        <v>1131</v>
       </c>
       <c r="C543" s="3" t="s">
-        <v>1110</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.2">
@@ -10369,10 +10372,10 @@
         <v>2024</v>
       </c>
       <c r="B544" s="3" t="s">
-        <v>1253</v>
+        <v>1140</v>
       </c>
       <c r="C544" s="3" t="s">
-        <v>1252</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.2">
@@ -10380,10 +10383,10 @@
         <v>2024</v>
       </c>
       <c r="B545" s="3" t="s">
-        <v>1230</v>
+        <v>1266</v>
       </c>
       <c r="C545" s="3" t="s">
-        <v>1231</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.2">
@@ -10391,10 +10394,10 @@
         <v>2024</v>
       </c>
       <c r="B546" s="3" t="s">
-        <v>1247</v>
+        <v>1113</v>
       </c>
       <c r="C546" s="3" t="s">
-        <v>1248</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.2">
@@ -10402,21 +10405,21 @@
         <v>2024</v>
       </c>
       <c r="B547" s="3" t="s">
-        <v>1232</v>
+        <v>1252</v>
       </c>
       <c r="C547" s="3" t="s">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A548" s="15">
         <v>2024</v>
       </c>
       <c r="B548" s="3" t="s">
-        <v>1150</v>
-      </c>
-      <c r="C548" s="3" t="s">
-        <v>1149</v>
+        <v>1282</v>
+      </c>
+      <c r="C548" s="18" t="s">
+        <v>1281</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.2">
@@ -10424,10 +10427,10 @@
         <v>2024</v>
       </c>
       <c r="B549" s="3" t="s">
-        <v>1135</v>
+        <v>1230</v>
       </c>
       <c r="C549" s="3" t="s">
-        <v>1136</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.2">
@@ -10435,10 +10438,10 @@
         <v>2024</v>
       </c>
       <c r="B550" s="3" t="s">
-        <v>1148</v>
+        <v>1247</v>
       </c>
       <c r="C550" s="3" t="s">
-        <v>1147</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.2">
@@ -10446,78 +10449,81 @@
         <v>2024</v>
       </c>
       <c r="B551" s="3" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C551" s="3" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A552" s="15">
+        <v>2024</v>
+      </c>
+      <c r="B552" s="3" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C552" s="3" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A553" s="15">
+        <v>2024</v>
+      </c>
+      <c r="B553" s="3" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C553" s="3" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A554" s="15">
+        <v>2024</v>
+      </c>
+      <c r="B554" s="3" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C554" s="3" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A555" s="15">
+        <v>2024</v>
+      </c>
+      <c r="B555" s="3" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C555" s="3" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A556" s="15">
+        <v>2024</v>
+      </c>
+      <c r="B556" s="3" t="s">
         <v>1145</v>
       </c>
-      <c r="C551" s="3" t="s">
+      <c r="C556" s="3" t="s">
         <v>1144</v>
-      </c>
-    </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A552" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C552" s="3" t="s">
-        <v>1273</v>
-      </c>
-    </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A553" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C553" s="3" t="s">
-        <v>1237</v>
-      </c>
-    </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A554" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B554" s="3" t="s">
-        <v>1118</v>
-      </c>
-      <c r="C554" s="3" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A555" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C555" s="3" t="s">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A556" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B556" s="3" t="s">
-        <v>1073</v>
-      </c>
-      <c r="C556" s="3" t="s">
-        <v>1068</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A557" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B557" s="3" t="s">
-        <v>1264</v>
-      </c>
       <c r="C557" s="3" t="s">
-        <v>1159</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A558" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B558" s="3" t="s">
-        <v>1137</v>
-      </c>
       <c r="C558" s="3" t="s">
-        <v>1138</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.2">
@@ -10525,10 +10531,10 @@
         <v>0</v>
       </c>
       <c r="B559" s="3" t="s">
-        <v>1153</v>
+        <v>1118</v>
       </c>
       <c r="C559" s="3" t="s">
-        <v>1154</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.2">
@@ -10536,10 +10542,10 @@
         <v>0</v>
       </c>
       <c r="B560" s="3" t="s">
-        <v>1272</v>
+        <v>1073</v>
       </c>
       <c r="C560" s="3" t="s">
-        <v>1271</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.2">
@@ -10547,10 +10553,10 @@
         <v>0</v>
       </c>
       <c r="B561" s="3" t="s">
-        <v>1278</v>
+        <v>1263</v>
       </c>
       <c r="C561" s="3" t="s">
-        <v>1277</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.2">
@@ -10558,24 +10564,35 @@
         <v>0</v>
       </c>
       <c r="B562" s="3" t="s">
-        <v>1280</v>
+        <v>1153</v>
       </c>
       <c r="C562" s="3" t="s">
-        <v>1279</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A563" s="15">
-        <v>2024</v>
+      <c r="A563" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B563" s="3" t="s">
+        <v>1271</v>
       </c>
       <c r="C563" s="3" t="s">
-        <v>1281</v>
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A564" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C564" s="3" t="s">
+        <v>1283</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C560">
-    <sortCondition ref="A2:A560"/>
-    <sortCondition ref="C2:C560"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C563">
+    <sortCondition ref="A2:A563"/>
+    <sortCondition ref="C2:C563"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="Submetido">
@@ -10961,10 +10978,10 @@
         <v>2024</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -10972,7 +10989,7 @@
         <v>2024</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -10980,10 +10997,10 @@
         <v>2024</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
   </sheetData>

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (arthur_sf)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50309F89-17A6-5044-A948-1681071A523D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B184A719-BE55-FB44-B2AA-9576D16A8CCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="500" windowWidth="24920" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="1284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="1285">
   <si>
     <t>Aceito</t>
   </si>
@@ -3898,6 +3898,9 @@
   </si>
   <si>
     <t>Evaluation of the measurement properties of the Parental Perceptions of Children's Exposure to Tobacco Smoke Instrument and translated to the Brazilian context</t>
+  </si>
+  <si>
+    <t>Functional capacity incorporating dynamic ventilation in systemic sclerosis: Agreement analysis between performance on the 6-minute walk test and Glittre–ADL test</t>
   </si>
 </sst>
 </file>
@@ -4391,13 +4394,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I564"/>
+  <dimension ref="A1:I565"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B540" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A564" sqref="A564"/>
+      <selection pane="bottomRight" activeCell="A565" sqref="A565"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10587,6 +10590,14 @@
       </c>
       <c r="C564" s="3" t="s">
         <v>1283</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A565" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C565" s="3" t="s">
+        <v>1284</v>
       </c>
     </row>
   </sheetData>

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B184A719-BE55-FB44-B2AA-9576D16A8CCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A1E2B9-CB88-E145-8FBE-A3FF4F1F41C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="500" windowWidth="24920" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="1285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="1285">
   <si>
     <t>Aceito</t>
   </si>
@@ -4397,7 +4397,7 @@
   <dimension ref="A1:I565"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B540" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B534" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A565" sqref="A565"/>
@@ -10287,10 +10287,10 @@
         <v>2024</v>
       </c>
       <c r="B536" s="3" t="s">
-        <v>1123</v>
+        <v>1073</v>
       </c>
       <c r="C536" s="3" t="s">
-        <v>1124</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.2">
@@ -10298,10 +10298,10 @@
         <v>2024</v>
       </c>
       <c r="B537" s="3" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="C537" s="3" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.2">
@@ -10309,10 +10309,10 @@
         <v>2024</v>
       </c>
       <c r="B538" s="3" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
       <c r="C538" s="3" t="s">
-        <v>1120</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.2">
@@ -10320,10 +10320,10 @@
         <v>2024</v>
       </c>
       <c r="B539" s="3" t="s">
-        <v>1279</v>
+        <v>1122</v>
       </c>
       <c r="C539" s="3" t="s">
-        <v>1278</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.2">
@@ -10331,10 +10331,10 @@
         <v>2024</v>
       </c>
       <c r="B540" s="3" t="s">
-        <v>1132</v>
+        <v>1279</v>
       </c>
       <c r="C540" s="3" t="s">
-        <v>1121</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.2">
@@ -10342,10 +10342,10 @@
         <v>2024</v>
       </c>
       <c r="B541" s="3" t="s">
-        <v>1142</v>
+        <v>1132</v>
       </c>
       <c r="C541" s="3" t="s">
-        <v>1141</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.2">
@@ -10353,10 +10353,10 @@
         <v>2024</v>
       </c>
       <c r="B542" s="3" t="s">
-        <v>1250</v>
+        <v>1142</v>
       </c>
       <c r="C542" s="3" t="s">
-        <v>1246</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.2">
@@ -10364,10 +10364,10 @@
         <v>2024</v>
       </c>
       <c r="B543" s="3" t="s">
-        <v>1131</v>
+        <v>1250</v>
       </c>
       <c r="C543" s="3" t="s">
-        <v>1130</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.2">
@@ -10375,10 +10375,10 @@
         <v>2024</v>
       </c>
       <c r="B544" s="3" t="s">
-        <v>1140</v>
+        <v>1131</v>
       </c>
       <c r="C544" s="3" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.2">
@@ -10386,10 +10386,10 @@
         <v>2024</v>
       </c>
       <c r="B545" s="3" t="s">
-        <v>1266</v>
+        <v>1140</v>
       </c>
       <c r="C545" s="3" t="s">
-        <v>1267</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.2">
@@ -10397,10 +10397,10 @@
         <v>2024</v>
       </c>
       <c r="B546" s="3" t="s">
-        <v>1113</v>
+        <v>1266</v>
       </c>
       <c r="C546" s="3" t="s">
-        <v>1110</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.2">
@@ -10408,32 +10408,32 @@
         <v>2024</v>
       </c>
       <c r="B547" s="3" t="s">
-        <v>1252</v>
+        <v>1113</v>
       </c>
       <c r="C547" s="3" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="548" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A548" s="15">
         <v>2024</v>
       </c>
       <c r="B548" s="3" t="s">
-        <v>1282</v>
-      </c>
-      <c r="C548" s="18" t="s">
-        <v>1281</v>
-      </c>
-    </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1252</v>
+      </c>
+      <c r="C548" s="3" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A549" s="15">
         <v>2024</v>
       </c>
       <c r="B549" s="3" t="s">
-        <v>1230</v>
-      </c>
-      <c r="C549" s="3" t="s">
-        <v>1231</v>
+        <v>1282</v>
+      </c>
+      <c r="C549" s="18" t="s">
+        <v>1281</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.2">
@@ -10441,10 +10441,10 @@
         <v>2024</v>
       </c>
       <c r="B550" s="3" t="s">
-        <v>1247</v>
+        <v>1230</v>
       </c>
       <c r="C550" s="3" t="s">
-        <v>1248</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.2">
@@ -10452,10 +10452,10 @@
         <v>2024</v>
       </c>
       <c r="B551" s="3" t="s">
-        <v>1232</v>
+        <v>1247</v>
       </c>
       <c r="C551" s="3" t="s">
-        <v>1233</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.2">
@@ -10463,10 +10463,10 @@
         <v>2024</v>
       </c>
       <c r="B552" s="3" t="s">
-        <v>1150</v>
+        <v>1232</v>
       </c>
       <c r="C552" s="3" t="s">
-        <v>1149</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.2">
@@ -10474,10 +10474,10 @@
         <v>2024</v>
       </c>
       <c r="B553" s="3" t="s">
-        <v>1135</v>
+        <v>1150</v>
       </c>
       <c r="C553" s="3" t="s">
-        <v>1136</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.2">
@@ -10485,10 +10485,10 @@
         <v>2024</v>
       </c>
       <c r="B554" s="3" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="C554" s="3" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.2">
@@ -10496,10 +10496,10 @@
         <v>2024</v>
       </c>
       <c r="B555" s="3" t="s">
-        <v>1148</v>
+        <v>1137</v>
       </c>
       <c r="C555" s="3" t="s">
-        <v>1147</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.2">
@@ -10507,18 +10507,21 @@
         <v>2024</v>
       </c>
       <c r="B556" s="3" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C556" s="3" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A557" s="15">
+        <v>2024</v>
+      </c>
+      <c r="B557" s="3" t="s">
         <v>1145</v>
       </c>
-      <c r="C556" s="3" t="s">
+      <c r="C557" s="3" t="s">
         <v>1144</v>
-      </c>
-    </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A557" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C557" s="3" t="s">
-        <v>1272</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.2">
@@ -10526,18 +10529,15 @@
         <v>0</v>
       </c>
       <c r="C558" s="3" t="s">
-        <v>1237</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A559" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B559" s="3" t="s">
-        <v>1118</v>
-      </c>
       <c r="C559" s="3" t="s">
-        <v>1115</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.2">
@@ -10545,32 +10545,26 @@
         <v>0</v>
       </c>
       <c r="B560" s="3" t="s">
-        <v>1073</v>
+        <v>1118</v>
       </c>
       <c r="C560" s="3" t="s">
-        <v>1068</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A561" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B561" s="3" t="s">
-        <v>1263</v>
-      </c>
       <c r="C561" s="3" t="s">
-        <v>1159</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A562" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B562" s="3" t="s">
-        <v>1153</v>
-      </c>
       <c r="C562" s="3" t="s">
-        <v>1154</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.2">
@@ -10578,32 +10572,38 @@
         <v>0</v>
       </c>
       <c r="B563" s="3" t="s">
-        <v>1271</v>
+        <v>1263</v>
       </c>
       <c r="C563" s="3" t="s">
-        <v>1270</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A564" s="15" t="s">
         <v>0</v>
       </c>
+      <c r="B564" s="3" t="s">
+        <v>1153</v>
+      </c>
       <c r="C564" s="3" t="s">
-        <v>1283</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A565" s="15" t="s">
         <v>0</v>
       </c>
+      <c r="B565" s="3" t="s">
+        <v>1271</v>
+      </c>
       <c r="C565" s="3" t="s">
-        <v>1284</v>
+        <v>1270</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C563">
-    <sortCondition ref="A2:A563"/>
-    <sortCondition ref="C2:C563"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C565">
+    <sortCondition ref="A2:A565"/>
+    <sortCondition ref="C2:C565"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="Submetido">

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A1E2B9-CB88-E145-8FBE-A3FF4F1F41C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F5ABB3-FC87-B64C-922A-A5E76FEE1790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="500" windowWidth="24920" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="1285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1325" uniqueCount="1292">
   <si>
     <t>Aceito</t>
   </si>
@@ -3901,6 +3901,27 @@
   </si>
   <si>
     <t>Functional capacity incorporating dynamic ventilation in systemic sclerosis: Agreement analysis between performance on the 6-minute walk test and Glittre–ADL test</t>
+  </si>
+  <si>
+    <t>Controle postural na posição sentada quieta em atletas de rúgbi em cadeiras de rodas</t>
+  </si>
+  <si>
+    <t>Deficits in postural balance predict functional decline in non-hospitalized post-COVID-19 individuals depending on the assessment tool: A cross-sectional study</t>
+  </si>
+  <si>
+    <t>Neural mobilisation effects in nerve function and nerve structure of patients with peripheral neuropathic pain: a systematic review with meta-analysis</t>
+  </si>
+  <si>
+    <t>10.9771/cmbio.v23i2.57359</t>
+  </si>
+  <si>
+    <t>Body composition does not interfere with urinary incontinence in adult women with grade III obesity</t>
+  </si>
+  <si>
+    <t>10.1016/j.jbmt.2024.10.012</t>
+  </si>
+  <si>
+    <t>Functional Performance Profile of Under-20 Soccer Athletes from a Brazilian First Division Team During the COVID-19 Pandemic: A Descriptive Study</t>
   </si>
 </sst>
 </file>
@@ -4394,13 +4415,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I565"/>
+  <dimension ref="A1:I570"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B534" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B540" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A565" sqref="A565"/>
+      <selection pane="bottomRight" activeCell="A570" sqref="A570"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9576,11 +9597,8 @@
       <c r="A471" s="15">
         <v>2023</v>
       </c>
-      <c r="B471" s="3" t="s">
-        <v>1009</v>
-      </c>
       <c r="C471" s="3" t="s">
-        <v>1008</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.2">
@@ -9588,10 +9606,10 @@
         <v>2023</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>1096</v>
+        <v>1009</v>
       </c>
       <c r="C472" s="3" t="s">
-        <v>1086</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.2">
@@ -9599,10 +9617,10 @@
         <v>2023</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>1072</v>
+        <v>1096</v>
       </c>
       <c r="C473" s="3" t="s">
-        <v>1060</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.2">
@@ -9610,10 +9628,10 @@
         <v>2023</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>1092</v>
+        <v>1072</v>
       </c>
       <c r="C474" s="3" t="s">
-        <v>1093</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.2">
@@ -9621,30 +9639,30 @@
         <v>2023</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>988</v>
+        <v>1092</v>
       </c>
       <c r="C475" s="3" t="s">
-        <v>987</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A476" s="15">
         <v>2023</v>
       </c>
-      <c r="B476" s="4"/>
-      <c r="C476" s="4" t="s">
-        <v>983</v>
+      <c r="B476" s="3" t="s">
+        <v>988</v>
+      </c>
+      <c r="C476" s="3" t="s">
+        <v>987</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A477" s="15">
         <v>2023</v>
       </c>
-      <c r="B477" s="3" t="s">
-        <v>1048</v>
-      </c>
-      <c r="C477" s="3" t="s">
-        <v>1049</v>
+      <c r="B477" s="4"/>
+      <c r="C477" s="4" t="s">
+        <v>983</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.2">
@@ -9652,10 +9670,10 @@
         <v>2023</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>1014</v>
+        <v>1048</v>
       </c>
       <c r="C478" s="3" t="s">
-        <v>1003</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.2">
@@ -9663,10 +9681,10 @@
         <v>2023</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>1098</v>
+        <v>1014</v>
       </c>
       <c r="C479" s="3" t="s">
-        <v>1097</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.2">
@@ -9674,10 +9692,10 @@
         <v>2023</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>1094</v>
+        <v>1098</v>
       </c>
       <c r="C480" s="3" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.2">
@@ -9685,10 +9703,10 @@
         <v>2023</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>1059</v>
+        <v>1094</v>
       </c>
       <c r="C481" s="3" t="s">
-        <v>1058</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.2">
@@ -9696,43 +9714,43 @@
         <v>2023</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="C482" s="3" t="s">
-        <v>1011</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A483" s="15">
         <v>2023</v>
       </c>
-      <c r="B483" s="4" t="s">
+      <c r="B483" s="3" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C483" s="3" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A484" s="15">
+        <v>2023</v>
+      </c>
+      <c r="B484" s="4" t="s">
         <v>866</v>
       </c>
-      <c r="C483" s="4" t="s">
+      <c r="C484" s="4" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A484" s="17">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A485" s="17">
         <v>2023</v>
       </c>
-      <c r="B484" s="3" t="s">
+      <c r="B485" s="3" t="s">
         <v>962</v>
       </c>
-      <c r="C484" s="3" t="s">
+      <c r="C485" s="3" t="s">
         <v>865</v>
-      </c>
-    </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A485" s="15">
-        <v>2023</v>
-      </c>
-      <c r="B485" s="3" t="s">
-        <v>1099</v>
-      </c>
-      <c r="C485" s="3" t="s">
-        <v>1100</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.2">
@@ -9740,32 +9758,32 @@
         <v>2023</v>
       </c>
       <c r="B486" s="3" t="s">
-        <v>989</v>
+        <v>1099</v>
       </c>
       <c r="C486" s="3" t="s">
-        <v>986</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A487" s="15">
         <v>2023</v>
       </c>
-      <c r="B487" s="4" t="s">
-        <v>868</v>
-      </c>
-      <c r="C487" s="4" t="s">
-        <v>869</v>
+      <c r="B487" s="3" t="s">
+        <v>989</v>
+      </c>
+      <c r="C487" s="3" t="s">
+        <v>986</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A488" s="15">
         <v>2023</v>
       </c>
-      <c r="B488" s="3" t="s">
-        <v>1228</v>
-      </c>
-      <c r="C488" s="3" t="s">
-        <v>1229</v>
+      <c r="B488" s="4" t="s">
+        <v>868</v>
+      </c>
+      <c r="C488" s="4" t="s">
+        <v>869</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.2">
@@ -9773,10 +9791,10 @@
         <v>2023</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>1081</v>
+        <v>1228</v>
       </c>
       <c r="C489" s="3" t="s">
-        <v>1103</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.2">
@@ -9784,10 +9802,10 @@
         <v>2023</v>
       </c>
       <c r="B490" s="3" t="s">
-        <v>969</v>
+        <v>1081</v>
       </c>
       <c r="C490" s="3" t="s">
-        <v>965</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.2">
@@ -9795,10 +9813,10 @@
         <v>2023</v>
       </c>
       <c r="B491" s="3" t="s">
-        <v>1063</v>
+        <v>969</v>
       </c>
       <c r="C491" s="3" t="s">
-        <v>1064</v>
+        <v>965</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.2">
@@ -9806,10 +9824,10 @@
         <v>2023</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>1079</v>
+        <v>1063</v>
       </c>
       <c r="C492" s="3" t="s">
-        <v>1080</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.2">
@@ -9817,10 +9835,10 @@
         <v>2023</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>1031</v>
+        <v>1079</v>
       </c>
       <c r="C493" s="3" t="s">
-        <v>1032</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.2">
@@ -9828,10 +9846,10 @@
         <v>2023</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>1074</v>
+        <v>1031</v>
       </c>
       <c r="C494" s="3" t="s">
-        <v>1075</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.2">
@@ -9839,10 +9857,10 @@
         <v>2023</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>1104</v>
+        <v>1074</v>
       </c>
       <c r="C495" s="3" t="s">
-        <v>1105</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.2">
@@ -9850,10 +9868,10 @@
         <v>2023</v>
       </c>
       <c r="B496" s="3" t="s">
-        <v>985</v>
+        <v>1104</v>
       </c>
       <c r="C496" s="3" t="s">
-        <v>984</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.2">
@@ -9861,10 +9879,10 @@
         <v>2023</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>1083</v>
+        <v>985</v>
       </c>
       <c r="C497" s="3" t="s">
-        <v>1082</v>
+        <v>984</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.2">
@@ -9872,10 +9890,10 @@
         <v>2023</v>
       </c>
       <c r="B498" s="3" t="s">
-        <v>1006</v>
+        <v>1083</v>
       </c>
       <c r="C498" s="3" t="s">
-        <v>1007</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.2">
@@ -9883,10 +9901,10 @@
         <v>2023</v>
       </c>
       <c r="B499" s="3" t="s">
-        <v>968</v>
+        <v>1006</v>
       </c>
       <c r="C499" s="3" t="s">
-        <v>963</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.2">
@@ -9894,10 +9912,10 @@
         <v>2023</v>
       </c>
       <c r="B500" s="3" t="s">
-        <v>1037</v>
+        <v>968</v>
       </c>
       <c r="C500" s="3" t="s">
-        <v>1036</v>
+        <v>963</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.2">
@@ -9905,10 +9923,10 @@
         <v>2023</v>
       </c>
       <c r="B501" s="3" t="s">
-        <v>1004</v>
+        <v>1037</v>
       </c>
       <c r="C501" s="3" t="s">
-        <v>1005</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.2">
@@ -9916,10 +9934,10 @@
         <v>2023</v>
       </c>
       <c r="B502" s="3" t="s">
-        <v>1054</v>
+        <v>1004</v>
       </c>
       <c r="C502" s="3" t="s">
-        <v>1055</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.2">
@@ -9927,10 +9945,10 @@
         <v>2023</v>
       </c>
       <c r="B503" s="3" t="s">
-        <v>1085</v>
+        <v>1054</v>
       </c>
       <c r="C503" s="3" t="s">
-        <v>1084</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.2">
@@ -9938,10 +9956,10 @@
         <v>2023</v>
       </c>
       <c r="B504" s="3" t="s">
-        <v>1029</v>
+        <v>1085</v>
       </c>
       <c r="C504" s="3" t="s">
-        <v>1030</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.2">
@@ -9949,32 +9967,32 @@
         <v>2023</v>
       </c>
       <c r="B505" s="3" t="s">
-        <v>1039</v>
+        <v>1029</v>
       </c>
       <c r="C505" s="3" t="s">
-        <v>1038</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A506" s="15">
         <v>2023</v>
       </c>
-      <c r="B506" s="4" t="s">
-        <v>861</v>
-      </c>
-      <c r="C506" s="4" t="s">
-        <v>862</v>
+      <c r="B506" s="3" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C506" s="3" t="s">
+        <v>1038</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A507" s="15">
         <v>2023</v>
       </c>
-      <c r="B507" s="3" t="s">
-        <v>1042</v>
-      </c>
-      <c r="C507" s="3" t="s">
-        <v>1043</v>
+      <c r="B507" s="4" t="s">
+        <v>861</v>
+      </c>
+      <c r="C507" s="4" t="s">
+        <v>862</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.2">
@@ -9982,10 +10000,10 @@
         <v>2023</v>
       </c>
       <c r="B508" s="3" t="s">
-        <v>1101</v>
+        <v>1042</v>
       </c>
       <c r="C508" s="3" t="s">
-        <v>1102</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.2">
@@ -9993,10 +10011,10 @@
         <v>2023</v>
       </c>
       <c r="B509" s="3" t="s">
-        <v>993</v>
+        <v>1101</v>
       </c>
       <c r="C509" s="3" t="s">
-        <v>994</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.2">
@@ -10004,10 +10022,10 @@
         <v>2023</v>
       </c>
       <c r="B510" s="3" t="s">
-        <v>1116</v>
+        <v>993</v>
       </c>
       <c r="C510" s="3" t="s">
-        <v>1117</v>
+        <v>994</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.2">
@@ -10015,10 +10033,10 @@
         <v>2023</v>
       </c>
       <c r="B511" s="3" t="s">
-        <v>1061</v>
+        <v>1116</v>
       </c>
       <c r="C511" s="3" t="s">
-        <v>1056</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.2">
@@ -10026,21 +10044,21 @@
         <v>2023</v>
       </c>
       <c r="B512" s="3" t="s">
-        <v>1053</v>
+        <v>1061</v>
       </c>
       <c r="C512" s="3" t="s">
-        <v>1052</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A513" s="15">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B513" s="3" t="s">
-        <v>1274</v>
+        <v>1053</v>
       </c>
       <c r="C513" s="3" t="s">
-        <v>1273</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.2">
@@ -10048,10 +10066,10 @@
         <v>2024</v>
       </c>
       <c r="B514" s="3" t="s">
-        <v>1259</v>
+        <v>1274</v>
       </c>
       <c r="C514" s="3" t="s">
-        <v>1258</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.2">
@@ -10059,10 +10077,10 @@
         <v>2024</v>
       </c>
       <c r="B515" s="3" t="s">
-        <v>1146</v>
+        <v>1259</v>
       </c>
       <c r="C515" s="3" t="s">
-        <v>1119</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.2">
@@ -10070,10 +10088,10 @@
         <v>2024</v>
       </c>
       <c r="B516" s="3" t="s">
-        <v>1268</v>
+        <v>1146</v>
       </c>
       <c r="C516" s="3" t="s">
-        <v>1269</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.2">
@@ -10081,29 +10099,29 @@
         <v>2024</v>
       </c>
       <c r="B517" s="3" t="s">
-        <v>1262</v>
+        <v>1268</v>
       </c>
       <c r="C517" s="3" t="s">
-        <v>1261</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A518" s="15">
         <v>2024</v>
       </c>
+      <c r="B518" s="3" t="s">
+        <v>1262</v>
+      </c>
       <c r="C518" s="3" t="s">
-        <v>1280</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A519" s="15">
         <v>2024</v>
       </c>
-      <c r="B519" s="3" t="s">
-        <v>1157</v>
-      </c>
       <c r="C519" s="3" t="s">
-        <v>1158</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.2">
@@ -10111,10 +10129,10 @@
         <v>2024</v>
       </c>
       <c r="B520" s="3" t="s">
-        <v>1223</v>
+        <v>1157</v>
       </c>
       <c r="C520" s="3" t="s">
-        <v>1224</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.2">
@@ -10122,10 +10140,10 @@
         <v>2024</v>
       </c>
       <c r="B521" s="3" t="s">
-        <v>1111</v>
+        <v>1288</v>
       </c>
       <c r="C521" s="3" t="s">
-        <v>1112</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.2">
@@ -10133,10 +10151,10 @@
         <v>2024</v>
       </c>
       <c r="B522" s="3" t="s">
-        <v>1240</v>
+        <v>1223</v>
       </c>
       <c r="C522" s="3" t="s">
-        <v>1241</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.2">
@@ -10144,10 +10162,10 @@
         <v>2024</v>
       </c>
       <c r="B523" s="3" t="s">
-        <v>1265</v>
+        <v>1111</v>
       </c>
       <c r="C523" s="3" t="s">
-        <v>1260</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.2">
@@ -10155,10 +10173,10 @@
         <v>2024</v>
       </c>
       <c r="B524" s="3" t="s">
-        <v>1277</v>
+        <v>1240</v>
       </c>
       <c r="C524" s="3" t="s">
-        <v>1276</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.2">
@@ -10166,10 +10184,10 @@
         <v>2024</v>
       </c>
       <c r="B525" s="3" t="s">
-        <v>1139</v>
+        <v>1265</v>
       </c>
       <c r="C525" s="3" t="s">
-        <v>1134</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.2">
@@ -10177,10 +10195,10 @@
         <v>2024</v>
       </c>
       <c r="B526" s="3" t="s">
-        <v>1239</v>
+        <v>1277</v>
       </c>
       <c r="C526" s="3" t="s">
-        <v>1238</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.2">
@@ -10188,10 +10206,10 @@
         <v>2024</v>
       </c>
       <c r="B527" s="3" t="s">
-        <v>1254</v>
+        <v>1139</v>
       </c>
       <c r="C527" s="3" t="s">
-        <v>1253</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.2">
@@ -10199,10 +10217,10 @@
         <v>2024</v>
       </c>
       <c r="B528" s="3" t="s">
-        <v>1234</v>
+        <v>1239</v>
       </c>
       <c r="C528" s="3" t="s">
-        <v>1249</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.2">
@@ -10210,10 +10228,10 @@
         <v>2024</v>
       </c>
       <c r="B529" s="3" t="s">
-        <v>1078</v>
+        <v>1254</v>
       </c>
       <c r="C529" s="3" t="s">
-        <v>1077</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.2">
@@ -10221,10 +10239,10 @@
         <v>2024</v>
       </c>
       <c r="B530" s="3" t="s">
-        <v>1143</v>
+        <v>1234</v>
       </c>
       <c r="C530" s="3" t="s">
-        <v>1127</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.2">
@@ -10232,10 +10250,10 @@
         <v>2024</v>
       </c>
       <c r="B531" s="3" t="s">
-        <v>1155</v>
+        <v>1078</v>
       </c>
       <c r="C531" s="3" t="s">
-        <v>1156</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.2">
@@ -10243,10 +10261,10 @@
         <v>2024</v>
       </c>
       <c r="B532" s="3" t="s">
-        <v>1225</v>
+        <v>1143</v>
       </c>
       <c r="C532" s="3" t="s">
-        <v>1226</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.2">
@@ -10254,10 +10272,10 @@
         <v>2024</v>
       </c>
       <c r="B533" s="3" t="s">
-        <v>1227</v>
+        <v>1155</v>
       </c>
       <c r="C533" s="3" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.2">
@@ -10265,10 +10283,10 @@
         <v>2024</v>
       </c>
       <c r="B534" s="3" t="s">
-        <v>1152</v>
+        <v>1225</v>
       </c>
       <c r="C534" s="3" t="s">
-        <v>1151</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.2">
@@ -10276,10 +10294,10 @@
         <v>2024</v>
       </c>
       <c r="B535" s="3" t="s">
-        <v>1161</v>
+        <v>1227</v>
       </c>
       <c r="C535" s="3" t="s">
-        <v>1114</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.2">
@@ -10287,10 +10305,10 @@
         <v>2024</v>
       </c>
       <c r="B536" s="3" t="s">
-        <v>1073</v>
+        <v>1152</v>
       </c>
       <c r="C536" s="3" t="s">
-        <v>1068</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.2">
@@ -10298,10 +10316,10 @@
         <v>2024</v>
       </c>
       <c r="B537" s="3" t="s">
-        <v>1123</v>
+        <v>1161</v>
       </c>
       <c r="C537" s="3" t="s">
-        <v>1124</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.2">
@@ -10309,10 +10327,10 @@
         <v>2024</v>
       </c>
       <c r="B538" s="3" t="s">
-        <v>1126</v>
+        <v>1073</v>
       </c>
       <c r="C538" s="3" t="s">
-        <v>1125</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.2">
@@ -10320,10 +10338,10 @@
         <v>2024</v>
       </c>
       <c r="B539" s="3" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="C539" s="3" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.2">
@@ -10331,10 +10349,10 @@
         <v>2024</v>
       </c>
       <c r="B540" s="3" t="s">
-        <v>1279</v>
+        <v>1126</v>
       </c>
       <c r="C540" s="3" t="s">
-        <v>1278</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.2">
@@ -10342,10 +10360,10 @@
         <v>2024</v>
       </c>
       <c r="B541" s="3" t="s">
-        <v>1132</v>
+        <v>1122</v>
       </c>
       <c r="C541" s="3" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.2">
@@ -10353,10 +10371,10 @@
         <v>2024</v>
       </c>
       <c r="B542" s="3" t="s">
-        <v>1142</v>
+        <v>1279</v>
       </c>
       <c r="C542" s="3" t="s">
-        <v>1141</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.2">
@@ -10364,10 +10382,10 @@
         <v>2024</v>
       </c>
       <c r="B543" s="3" t="s">
-        <v>1250</v>
+        <v>1132</v>
       </c>
       <c r="C543" s="3" t="s">
-        <v>1246</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.2">
@@ -10375,10 +10393,10 @@
         <v>2024</v>
       </c>
       <c r="B544" s="3" t="s">
-        <v>1131</v>
+        <v>1142</v>
       </c>
       <c r="C544" s="3" t="s">
-        <v>1130</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.2">
@@ -10386,10 +10404,10 @@
         <v>2024</v>
       </c>
       <c r="B545" s="3" t="s">
-        <v>1140</v>
+        <v>1250</v>
       </c>
       <c r="C545" s="3" t="s">
-        <v>1133</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.2">
@@ -10397,10 +10415,10 @@
         <v>2024</v>
       </c>
       <c r="B546" s="3" t="s">
-        <v>1266</v>
+        <v>1131</v>
       </c>
       <c r="C546" s="3" t="s">
-        <v>1267</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.2">
@@ -10408,10 +10426,10 @@
         <v>2024</v>
       </c>
       <c r="B547" s="3" t="s">
-        <v>1113</v>
+        <v>1140</v>
       </c>
       <c r="C547" s="3" t="s">
-        <v>1110</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.2">
@@ -10419,21 +10437,21 @@
         <v>2024</v>
       </c>
       <c r="B548" s="3" t="s">
-        <v>1252</v>
+        <v>1266</v>
       </c>
       <c r="C548" s="3" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="549" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A549" s="15">
         <v>2024</v>
       </c>
       <c r="B549" s="3" t="s">
-        <v>1282</v>
-      </c>
-      <c r="C549" s="18" t="s">
-        <v>1281</v>
+        <v>1113</v>
+      </c>
+      <c r="C549" s="3" t="s">
+        <v>1110</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.2">
@@ -10441,21 +10459,21 @@
         <v>2024</v>
       </c>
       <c r="B550" s="3" t="s">
-        <v>1230</v>
+        <v>1252</v>
       </c>
       <c r="C550" s="3" t="s">
-        <v>1231</v>
-      </c>
-    </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A551" s="15">
         <v>2024</v>
       </c>
       <c r="B551" s="3" t="s">
-        <v>1247</v>
-      </c>
-      <c r="C551" s="3" t="s">
-        <v>1248</v>
+        <v>1282</v>
+      </c>
+      <c r="C551" s="18" t="s">
+        <v>1281</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.2">
@@ -10463,10 +10481,10 @@
         <v>2024</v>
       </c>
       <c r="B552" s="3" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="C552" s="3" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.2">
@@ -10474,10 +10492,10 @@
         <v>2024</v>
       </c>
       <c r="B553" s="3" t="s">
-        <v>1150</v>
+        <v>1247</v>
       </c>
       <c r="C553" s="3" t="s">
-        <v>1149</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.2">
@@ -10485,10 +10503,10 @@
         <v>2024</v>
       </c>
       <c r="B554" s="3" t="s">
-        <v>1135</v>
+        <v>1232</v>
       </c>
       <c r="C554" s="3" t="s">
-        <v>1136</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.2">
@@ -10496,10 +10514,10 @@
         <v>2024</v>
       </c>
       <c r="B555" s="3" t="s">
-        <v>1137</v>
+        <v>1150</v>
       </c>
       <c r="C555" s="3" t="s">
-        <v>1138</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.2">
@@ -10507,10 +10525,10 @@
         <v>2024</v>
       </c>
       <c r="B556" s="3" t="s">
-        <v>1148</v>
+        <v>1135</v>
       </c>
       <c r="C556" s="3" t="s">
-        <v>1147</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.2">
@@ -10518,37 +10536,40 @@
         <v>2024</v>
       </c>
       <c r="B557" s="3" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C557" s="3" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A558" s="15">
+        <v>2024</v>
+      </c>
+      <c r="B558" s="3" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C558" s="3" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A559" s="15">
+        <v>2024</v>
+      </c>
+      <c r="B559" s="3" t="s">
         <v>1145</v>
       </c>
-      <c r="C557" s="3" t="s">
+      <c r="C559" s="3" t="s">
         <v>1144</v>
-      </c>
-    </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A558" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C558" s="3" t="s">
-        <v>1272</v>
-      </c>
-    </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A559" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C559" s="3" t="s">
-        <v>1237</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A560" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B560" s="3" t="s">
-        <v>1118</v>
-      </c>
       <c r="C560" s="3" t="s">
-        <v>1115</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.2">
@@ -10556,7 +10577,7 @@
         <v>0</v>
       </c>
       <c r="C561" s="3" t="s">
-        <v>1283</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.2">
@@ -10564,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="C562" s="3" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.2">
@@ -10572,38 +10593,84 @@
         <v>0</v>
       </c>
       <c r="B563" s="3" t="s">
-        <v>1263</v>
+        <v>1118</v>
       </c>
       <c r="C563" s="3" t="s">
-        <v>1159</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A564" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B564" s="3" t="s">
-        <v>1153</v>
-      </c>
       <c r="C564" s="3" t="s">
-        <v>1154</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A565" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B565" s="3" t="s">
+      <c r="C565" s="3" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A566" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B566" s="3" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C566" s="3" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A567" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C567" s="3" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A568" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B568" s="3" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C568" s="3" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A569" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B569" s="3" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C569" s="3" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A570" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B570" s="3" t="s">
         <v>1271</v>
       </c>
-      <c r="C565" s="3" t="s">
+      <c r="C570" s="3" t="s">
         <v>1270</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C565">
-    <sortCondition ref="A2:A565"/>
-    <sortCondition ref="C2:C565"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C570">
+    <sortCondition ref="A2:A570"/>
+    <sortCondition ref="C2:C570"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="Submetido">

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F5ABB3-FC87-B64C-922A-A5E76FEE1790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6784CEAE-428F-4543-BF90-C2EB7DD8CB04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="500" windowWidth="24920" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1325" uniqueCount="1292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="1294">
   <si>
     <t>Aceito</t>
   </si>
@@ -3922,6 +3922,12 @@
   </si>
   <si>
     <t>Functional Performance Profile of Under-20 Soccer Athletes from a Brazilian First Division Team During the COVID-19 Pandemic: A Descriptive Study</t>
+  </si>
+  <si>
+    <t>10.1155/2024/9951560</t>
+  </si>
+  <si>
+    <t>The COVID-19 Pandemic and Changes in Nursing Care Interventions in 2020 and 2021 in the Brazilian Amazon</t>
   </si>
 </sst>
 </file>
@@ -4415,13 +4421,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I570"/>
+  <dimension ref="A1:I571"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B540" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A570" sqref="A570"/>
+      <selection pane="bottomRight" activeCell="A571" sqref="A571"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10525,10 +10531,10 @@
         <v>2024</v>
       </c>
       <c r="B556" s="3" t="s">
-        <v>1135</v>
+        <v>1292</v>
       </c>
       <c r="C556" s="3" t="s">
-        <v>1136</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.2">
@@ -10536,10 +10542,10 @@
         <v>2024</v>
       </c>
       <c r="B557" s="3" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="C557" s="3" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.2">
@@ -10547,10 +10553,10 @@
         <v>2024</v>
       </c>
       <c r="B558" s="3" t="s">
-        <v>1148</v>
+        <v>1137</v>
       </c>
       <c r="C558" s="3" t="s">
-        <v>1147</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.2">
@@ -10558,18 +10564,21 @@
         <v>2024</v>
       </c>
       <c r="B559" s="3" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C559" s="3" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A560" s="15">
+        <v>2024</v>
+      </c>
+      <c r="B560" s="3" t="s">
         <v>1145</v>
       </c>
-      <c r="C559" s="3" t="s">
+      <c r="C560" s="3" t="s">
         <v>1144</v>
-      </c>
-    </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A560" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C560" s="3" t="s">
-        <v>1272</v>
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.2">
@@ -10577,7 +10586,7 @@
         <v>0</v>
       </c>
       <c r="C561" s="3" t="s">
-        <v>1237</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.2">
@@ -10585,26 +10594,26 @@
         <v>0</v>
       </c>
       <c r="C562" s="3" t="s">
-        <v>1286</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A563" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B563" s="3" t="s">
-        <v>1118</v>
-      </c>
       <c r="C563" s="3" t="s">
-        <v>1115</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A564" s="15" t="s">
         <v>0</v>
       </c>
+      <c r="B564" s="3" t="s">
+        <v>1118</v>
+      </c>
       <c r="C564" s="3" t="s">
-        <v>1283</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.2">
@@ -10612,37 +10621,34 @@
         <v>0</v>
       </c>
       <c r="C565" s="3" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A566" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B566" s="3" t="s">
-        <v>1290</v>
-      </c>
       <c r="C566" s="3" t="s">
-        <v>1291</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A567" s="15" t="s">
         <v>0</v>
       </c>
+      <c r="B567" s="3" t="s">
+        <v>1290</v>
+      </c>
       <c r="C567" s="3" t="s">
-        <v>1287</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A568" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B568" s="3" t="s">
-        <v>1263</v>
-      </c>
       <c r="C568" s="3" t="s">
-        <v>1159</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.2">
@@ -10650,10 +10656,10 @@
         <v>0</v>
       </c>
       <c r="B569" s="3" t="s">
-        <v>1153</v>
+        <v>1263</v>
       </c>
       <c r="C569" s="3" t="s">
-        <v>1154</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.2">
@@ -10661,16 +10667,27 @@
         <v>0</v>
       </c>
       <c r="B570" s="3" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C570" s="3" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A571" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B571" s="3" t="s">
         <v>1271</v>
       </c>
-      <c r="C570" s="3" t="s">
+      <c r="C571" s="3" t="s">
         <v>1270</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C570">
-    <sortCondition ref="A2:A570"/>
-    <sortCondition ref="C2:C570"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C571">
+    <sortCondition ref="A2:A571"/>
+    <sortCondition ref="C2:C571"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="Submetido">

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6784CEAE-428F-4543-BF90-C2EB7DD8CB04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48DD17C3-6262-6844-BAB1-EB291A63A08A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="500" windowWidth="24920" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="1294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="1295">
   <si>
     <t>Aceito</t>
   </si>
@@ -3928,6 +3928,9 @@
   </si>
   <si>
     <t>The COVID-19 Pandemic and Changes in Nursing Care Interventions in 2020 and 2021 in the Brazilian Amazon</t>
+  </si>
+  <si>
+    <t>10.1097/MD.0000000000040147</t>
   </si>
 </sst>
 </file>
@@ -10311,10 +10314,10 @@
         <v>2024</v>
       </c>
       <c r="B536" s="3" t="s">
-        <v>1152</v>
+        <v>1294</v>
       </c>
       <c r="C536" s="3" t="s">
-        <v>1151</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.2">
@@ -10322,10 +10325,10 @@
         <v>2024</v>
       </c>
       <c r="B537" s="3" t="s">
-        <v>1161</v>
+        <v>1152</v>
       </c>
       <c r="C537" s="3" t="s">
-        <v>1114</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.2">
@@ -10333,10 +10336,10 @@
         <v>2024</v>
       </c>
       <c r="B538" s="3" t="s">
-        <v>1073</v>
+        <v>1161</v>
       </c>
       <c r="C538" s="3" t="s">
-        <v>1068</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.2">
@@ -10344,10 +10347,10 @@
         <v>2024</v>
       </c>
       <c r="B539" s="3" t="s">
-        <v>1123</v>
+        <v>1073</v>
       </c>
       <c r="C539" s="3" t="s">
-        <v>1124</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.2">
@@ -10355,10 +10358,10 @@
         <v>2024</v>
       </c>
       <c r="B540" s="3" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="C540" s="3" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.2">
@@ -10366,10 +10369,10 @@
         <v>2024</v>
       </c>
       <c r="B541" s="3" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
       <c r="C541" s="3" t="s">
-        <v>1120</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.2">
@@ -10377,10 +10380,10 @@
         <v>2024</v>
       </c>
       <c r="B542" s="3" t="s">
-        <v>1279</v>
+        <v>1122</v>
       </c>
       <c r="C542" s="3" t="s">
-        <v>1278</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.2">
@@ -10388,10 +10391,10 @@
         <v>2024</v>
       </c>
       <c r="B543" s="3" t="s">
-        <v>1132</v>
+        <v>1279</v>
       </c>
       <c r="C543" s="3" t="s">
-        <v>1121</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.2">
@@ -10399,10 +10402,10 @@
         <v>2024</v>
       </c>
       <c r="B544" s="3" t="s">
-        <v>1142</v>
+        <v>1132</v>
       </c>
       <c r="C544" s="3" t="s">
-        <v>1141</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.2">
@@ -10410,10 +10413,10 @@
         <v>2024</v>
       </c>
       <c r="B545" s="3" t="s">
-        <v>1250</v>
+        <v>1142</v>
       </c>
       <c r="C545" s="3" t="s">
-        <v>1246</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.2">
@@ -10421,10 +10424,10 @@
         <v>2024</v>
       </c>
       <c r="B546" s="3" t="s">
-        <v>1131</v>
+        <v>1250</v>
       </c>
       <c r="C546" s="3" t="s">
-        <v>1130</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.2">
@@ -10432,10 +10435,10 @@
         <v>2024</v>
       </c>
       <c r="B547" s="3" t="s">
-        <v>1140</v>
+        <v>1131</v>
       </c>
       <c r="C547" s="3" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.2">
@@ -10443,10 +10446,10 @@
         <v>2024</v>
       </c>
       <c r="B548" s="3" t="s">
-        <v>1266</v>
+        <v>1140</v>
       </c>
       <c r="C548" s="3" t="s">
-        <v>1267</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.2">
@@ -10454,10 +10457,10 @@
         <v>2024</v>
       </c>
       <c r="B549" s="3" t="s">
-        <v>1113</v>
+        <v>1266</v>
       </c>
       <c r="C549" s="3" t="s">
-        <v>1110</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.2">
@@ -10465,32 +10468,32 @@
         <v>2024</v>
       </c>
       <c r="B550" s="3" t="s">
-        <v>1252</v>
+        <v>1113</v>
       </c>
       <c r="C550" s="3" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="551" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A551" s="15">
         <v>2024</v>
       </c>
       <c r="B551" s="3" t="s">
-        <v>1282</v>
-      </c>
-      <c r="C551" s="18" t="s">
-        <v>1281</v>
-      </c>
-    </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1252</v>
+      </c>
+      <c r="C551" s="3" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A552" s="15">
         <v>2024</v>
       </c>
       <c r="B552" s="3" t="s">
-        <v>1230</v>
-      </c>
-      <c r="C552" s="3" t="s">
-        <v>1231</v>
+        <v>1282</v>
+      </c>
+      <c r="C552" s="18" t="s">
+        <v>1281</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.2">
@@ -10498,10 +10501,10 @@
         <v>2024</v>
       </c>
       <c r="B553" s="3" t="s">
-        <v>1247</v>
+        <v>1230</v>
       </c>
       <c r="C553" s="3" t="s">
-        <v>1248</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.2">
@@ -10509,10 +10512,10 @@
         <v>2024</v>
       </c>
       <c r="B554" s="3" t="s">
-        <v>1232</v>
+        <v>1247</v>
       </c>
       <c r="C554" s="3" t="s">
-        <v>1233</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.2">
@@ -10520,10 +10523,10 @@
         <v>2024</v>
       </c>
       <c r="B555" s="3" t="s">
-        <v>1150</v>
+        <v>1232</v>
       </c>
       <c r="C555" s="3" t="s">
-        <v>1149</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.2">
@@ -10531,10 +10534,10 @@
         <v>2024</v>
       </c>
       <c r="B556" s="3" t="s">
-        <v>1292</v>
+        <v>1150</v>
       </c>
       <c r="C556" s="3" t="s">
-        <v>1293</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.2">
@@ -10542,10 +10545,10 @@
         <v>2024</v>
       </c>
       <c r="B557" s="3" t="s">
-        <v>1135</v>
+        <v>1292</v>
       </c>
       <c r="C557" s="3" t="s">
-        <v>1136</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.2">
@@ -10553,10 +10556,10 @@
         <v>2024</v>
       </c>
       <c r="B558" s="3" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="C558" s="3" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.2">
@@ -10564,10 +10567,10 @@
         <v>2024</v>
       </c>
       <c r="B559" s="3" t="s">
-        <v>1148</v>
+        <v>1137</v>
       </c>
       <c r="C559" s="3" t="s">
-        <v>1147</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.2">
@@ -10575,18 +10578,21 @@
         <v>2024</v>
       </c>
       <c r="B560" s="3" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C560" s="3" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A561" s="15">
+        <v>2024</v>
+      </c>
+      <c r="B561" s="3" t="s">
         <v>1145</v>
       </c>
-      <c r="C560" s="3" t="s">
+      <c r="C561" s="3" t="s">
         <v>1144</v>
-      </c>
-    </row>
-    <row r="561" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A561" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C561" s="3" t="s">
-        <v>1272</v>
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.2">
@@ -10594,7 +10600,7 @@
         <v>0</v>
       </c>
       <c r="C562" s="3" t="s">
-        <v>1237</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.2">
@@ -10602,26 +10608,26 @@
         <v>0</v>
       </c>
       <c r="C563" s="3" t="s">
-        <v>1286</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A564" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B564" s="3" t="s">
-        <v>1118</v>
-      </c>
       <c r="C564" s="3" t="s">
-        <v>1115</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A565" s="15" t="s">
         <v>0</v>
       </c>
+      <c r="B565" s="3" t="s">
+        <v>1118</v>
+      </c>
       <c r="C565" s="3" t="s">
-        <v>1283</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.2">

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48DD17C3-6262-6844-BAB1-EB291A63A08A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4564E87-821C-994C-AE3F-C45998D6E8FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="500" windowWidth="24920" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="1295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="1296">
   <si>
     <t>Aceito</t>
   </si>
@@ -3906,9 +3906,6 @@
     <t>Controle postural na posição sentada quieta em atletas de rúgbi em cadeiras de rodas</t>
   </si>
   <si>
-    <t>Deficits in postural balance predict functional decline in non-hospitalized post-COVID-19 individuals depending on the assessment tool: A cross-sectional study</t>
-  </si>
-  <si>
     <t>Neural mobilisation effects in nerve function and nerve structure of patients with peripheral neuropathic pain: a systematic review with meta-analysis</t>
   </si>
   <si>
@@ -3931,6 +3928,12 @@
   </si>
   <si>
     <t>10.1097/MD.0000000000040147</t>
+  </si>
+  <si>
+    <t>10.3390/jcm13216626</t>
+  </si>
+  <si>
+    <t>The Tinetti Balance Test Is an Effective Predictor of Functional Decline in Non-Hospitalized Post-COVID-19 Individuals: A Cross-Sectional Study</t>
   </si>
 </sst>
 </file>
@@ -4427,7 +4430,7 @@
   <dimension ref="A1:I571"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B540" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B546" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A571" sqref="A571"/>
@@ -10149,10 +10152,10 @@
         <v>2024</v>
       </c>
       <c r="B521" s="3" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C521" s="3" t="s">
         <v>1288</v>
-      </c>
-      <c r="C521" s="3" t="s">
-        <v>1289</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.2">
@@ -10314,7 +10317,7 @@
         <v>2024</v>
       </c>
       <c r="B536" s="3" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="C536" s="3" t="s">
         <v>1283</v>
@@ -10545,10 +10548,10 @@
         <v>2024</v>
       </c>
       <c r="B557" s="3" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C557" s="3" t="s">
         <v>1292</v>
-      </c>
-      <c r="C557" s="3" t="s">
-        <v>1293</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.2">
@@ -10578,10 +10581,10 @@
         <v>2024</v>
       </c>
       <c r="B560" s="3" t="s">
-        <v>1148</v>
+        <v>1294</v>
       </c>
       <c r="C560" s="3" t="s">
-        <v>1147</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.2">
@@ -10589,18 +10592,21 @@
         <v>2024</v>
       </c>
       <c r="B561" s="3" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C561" s="3" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A562" s="15">
+        <v>2024</v>
+      </c>
+      <c r="B562" s="3" t="s">
         <v>1145</v>
       </c>
-      <c r="C561" s="3" t="s">
+      <c r="C562" s="3" t="s">
         <v>1144</v>
-      </c>
-    </row>
-    <row r="562" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A562" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C562" s="3" t="s">
-        <v>1272</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.2">
@@ -10608,7 +10614,7 @@
         <v>0</v>
       </c>
       <c r="C563" s="3" t="s">
-        <v>1237</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.2">
@@ -10616,7 +10622,7 @@
         <v>0</v>
       </c>
       <c r="C564" s="3" t="s">
-        <v>1286</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.2">
@@ -10643,10 +10649,10 @@
         <v>0</v>
       </c>
       <c r="B567" s="3" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C567" s="3" t="s">
         <v>1290</v>
-      </c>
-      <c r="C567" s="3" t="s">
-        <v>1291</v>
       </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.2">
@@ -10654,7 +10660,7 @@
         <v>0</v>
       </c>
       <c r="C568" s="3" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.2">

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4564E87-821C-994C-AE3F-C45998D6E8FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E5D525B-EF11-BF40-B5BA-D1F7E9629EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="500" windowWidth="24920" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="1296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1329" uniqueCount="1299">
   <si>
     <t>Aceito</t>
   </si>
@@ -3934,6 +3934,15 @@
   </si>
   <si>
     <t>The Tinetti Balance Test Is an Effective Predictor of Functional Decline in Non-Hospitalized Post-COVID-19 Individuals: A Cross-Sectional Study</t>
+  </si>
+  <si>
+    <t>10.1016/j.hrtlng.2024.10.009</t>
+  </si>
+  <si>
+    <t>Heart failure associated with chronic Chagas cardiomyopathy increases the risk of impaired lung function and reduced submaximal functional capacity</t>
+  </si>
+  <si>
+    <t>10.1371/journal.pone.0313025</t>
   </si>
 </sst>
 </file>
@@ -4427,13 +4436,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I571"/>
+  <dimension ref="A1:I572"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B546" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B544" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A571" sqref="A571"/>
+      <selection pane="bottomRight" activeCell="A572" sqref="A572"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10416,10 +10425,10 @@
         <v>2024</v>
       </c>
       <c r="B545" s="3" t="s">
-        <v>1142</v>
+        <v>1298</v>
       </c>
       <c r="C545" s="3" t="s">
-        <v>1141</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.2">
@@ -10427,10 +10436,10 @@
         <v>2024</v>
       </c>
       <c r="B546" s="3" t="s">
-        <v>1250</v>
+        <v>1142</v>
       </c>
       <c r="C546" s="3" t="s">
-        <v>1246</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.2">
@@ -10438,10 +10447,10 @@
         <v>2024</v>
       </c>
       <c r="B547" s="3" t="s">
-        <v>1131</v>
+        <v>1250</v>
       </c>
       <c r="C547" s="3" t="s">
-        <v>1130</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.2">
@@ -10449,10 +10458,10 @@
         <v>2024</v>
       </c>
       <c r="B548" s="3" t="s">
-        <v>1140</v>
+        <v>1131</v>
       </c>
       <c r="C548" s="3" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.2">
@@ -10460,10 +10469,10 @@
         <v>2024</v>
       </c>
       <c r="B549" s="3" t="s">
-        <v>1266</v>
+        <v>1140</v>
       </c>
       <c r="C549" s="3" t="s">
-        <v>1267</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.2">
@@ -10471,10 +10480,10 @@
         <v>2024</v>
       </c>
       <c r="B550" s="3" t="s">
-        <v>1113</v>
+        <v>1266</v>
       </c>
       <c r="C550" s="3" t="s">
-        <v>1110</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.2">
@@ -10482,32 +10491,32 @@
         <v>2024</v>
       </c>
       <c r="B551" s="3" t="s">
-        <v>1252</v>
+        <v>1113</v>
       </c>
       <c r="C551" s="3" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="552" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A552" s="15">
         <v>2024</v>
       </c>
       <c r="B552" s="3" t="s">
-        <v>1282</v>
-      </c>
-      <c r="C552" s="18" t="s">
-        <v>1281</v>
-      </c>
-    </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1252</v>
+      </c>
+      <c r="C552" s="3" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A553" s="15">
         <v>2024</v>
       </c>
       <c r="B553" s="3" t="s">
-        <v>1230</v>
-      </c>
-      <c r="C553" s="3" t="s">
-        <v>1231</v>
+        <v>1282</v>
+      </c>
+      <c r="C553" s="18" t="s">
+        <v>1281</v>
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.2">
@@ -10515,10 +10524,10 @@
         <v>2024</v>
       </c>
       <c r="B554" s="3" t="s">
-        <v>1247</v>
+        <v>1230</v>
       </c>
       <c r="C554" s="3" t="s">
-        <v>1248</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.2">
@@ -10526,10 +10535,10 @@
         <v>2024</v>
       </c>
       <c r="B555" s="3" t="s">
-        <v>1232</v>
+        <v>1247</v>
       </c>
       <c r="C555" s="3" t="s">
-        <v>1233</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.2">
@@ -10537,10 +10546,10 @@
         <v>2024</v>
       </c>
       <c r="B556" s="3" t="s">
-        <v>1150</v>
+        <v>1232</v>
       </c>
       <c r="C556" s="3" t="s">
-        <v>1149</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.2">
@@ -10548,10 +10557,10 @@
         <v>2024</v>
       </c>
       <c r="B557" s="3" t="s">
-        <v>1291</v>
+        <v>1150</v>
       </c>
       <c r="C557" s="3" t="s">
-        <v>1292</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.2">
@@ -10559,10 +10568,10 @@
         <v>2024</v>
       </c>
       <c r="B558" s="3" t="s">
-        <v>1135</v>
+        <v>1291</v>
       </c>
       <c r="C558" s="3" t="s">
-        <v>1136</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.2">
@@ -10570,10 +10579,10 @@
         <v>2024</v>
       </c>
       <c r="B559" s="3" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="C559" s="3" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.2">
@@ -10581,10 +10590,10 @@
         <v>2024</v>
       </c>
       <c r="B560" s="3" t="s">
-        <v>1294</v>
+        <v>1137</v>
       </c>
       <c r="C560" s="3" t="s">
-        <v>1295</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.2">
@@ -10592,10 +10601,10 @@
         <v>2024</v>
       </c>
       <c r="B561" s="3" t="s">
-        <v>1148</v>
+        <v>1294</v>
       </c>
       <c r="C561" s="3" t="s">
-        <v>1147</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.2">
@@ -10603,37 +10612,40 @@
         <v>2024</v>
       </c>
       <c r="B562" s="3" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C562" s="3" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A563" s="15">
+        <v>2024</v>
+      </c>
+      <c r="B563" s="3" t="s">
         <v>1145</v>
       </c>
-      <c r="C562" s="3" t="s">
+      <c r="C563" s="3" t="s">
         <v>1144</v>
       </c>
     </row>
-    <row r="563" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A563" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C563" s="3" t="s">
-        <v>1272</v>
-      </c>
-    </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A564" s="15" t="s">
-        <v>0</v>
+      <c r="A564" s="15">
+        <v>2025</v>
+      </c>
+      <c r="B564" s="3" t="s">
+        <v>1296</v>
       </c>
       <c r="C564" s="3" t="s">
-        <v>1237</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A565" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B565" s="3" t="s">
-        <v>1118</v>
-      </c>
       <c r="C565" s="3" t="s">
-        <v>1115</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.2">
@@ -10641,7 +10653,7 @@
         <v>0</v>
       </c>
       <c r="C566" s="3" t="s">
-        <v>1284</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.2">
@@ -10649,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="B567" s="3" t="s">
-        <v>1289</v>
+        <v>1118</v>
       </c>
       <c r="C567" s="3" t="s">
-        <v>1290</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.2">
@@ -10660,7 +10672,7 @@
         <v>0</v>
       </c>
       <c r="C568" s="3" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.2">
@@ -10668,10 +10680,10 @@
         <v>0</v>
       </c>
       <c r="B569" s="3" t="s">
-        <v>1263</v>
+        <v>1289</v>
       </c>
       <c r="C569" s="3" t="s">
-        <v>1159</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.2">
@@ -10679,10 +10691,10 @@
         <v>0</v>
       </c>
       <c r="B570" s="3" t="s">
-        <v>1153</v>
+        <v>1263</v>
       </c>
       <c r="C570" s="3" t="s">
-        <v>1154</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.2">
@@ -10690,16 +10702,27 @@
         <v>0</v>
       </c>
       <c r="B571" s="3" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C571" s="3" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A572" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B572" s="3" t="s">
         <v>1271</v>
       </c>
-      <c r="C571" s="3" t="s">
+      <c r="C572" s="3" t="s">
         <v>1270</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C571">
-    <sortCondition ref="A2:A571"/>
-    <sortCondition ref="C2:C571"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C572">
+    <sortCondition ref="A2:A572"/>
+    <sortCondition ref="C2:C572"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="Submetido">

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E5D525B-EF11-BF40-B5BA-D1F7E9629EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAFFCE7C-0EED-F74B-AF28-1C1826A97D7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="500" windowWidth="24920" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1329" uniqueCount="1299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="1301">
   <si>
     <t>Aceito</t>
   </si>
@@ -3943,6 +3943,12 @@
   </si>
   <si>
     <t>10.1371/journal.pone.0313025</t>
+  </si>
+  <si>
+    <t>Changes in the Glittre-ADL test in patients with non-small cell lung cancer: pre- and postoperative analysis after home-based rehabilitation: A preliminary study</t>
+  </si>
+  <si>
+    <t>10.1016/j.heliyon.2024.e40646</t>
   </si>
 </sst>
 </file>
@@ -4436,13 +4442,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I572"/>
+  <dimension ref="A1:I573"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B544" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B542" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A572" sqref="A572"/>
+      <selection pane="bottomRight" activeCell="A573" sqref="A573"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10183,10 +10189,10 @@
         <v>2024</v>
       </c>
       <c r="B523" s="3" t="s">
-        <v>1111</v>
+        <v>1300</v>
       </c>
       <c r="C523" s="3" t="s">
-        <v>1112</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.2">
@@ -10194,10 +10200,10 @@
         <v>2024</v>
       </c>
       <c r="B524" s="3" t="s">
-        <v>1240</v>
+        <v>1111</v>
       </c>
       <c r="C524" s="3" t="s">
-        <v>1241</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.2">
@@ -10205,10 +10211,10 @@
         <v>2024</v>
       </c>
       <c r="B525" s="3" t="s">
-        <v>1265</v>
+        <v>1240</v>
       </c>
       <c r="C525" s="3" t="s">
-        <v>1260</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.2">
@@ -10216,10 +10222,10 @@
         <v>2024</v>
       </c>
       <c r="B526" s="3" t="s">
-        <v>1277</v>
+        <v>1265</v>
       </c>
       <c r="C526" s="3" t="s">
-        <v>1276</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.2">
@@ -10227,10 +10233,10 @@
         <v>2024</v>
       </c>
       <c r="B527" s="3" t="s">
-        <v>1139</v>
+        <v>1277</v>
       </c>
       <c r="C527" s="3" t="s">
-        <v>1134</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.2">
@@ -10238,10 +10244,10 @@
         <v>2024</v>
       </c>
       <c r="B528" s="3" t="s">
-        <v>1239</v>
+        <v>1139</v>
       </c>
       <c r="C528" s="3" t="s">
-        <v>1238</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.2">
@@ -10249,10 +10255,10 @@
         <v>2024</v>
       </c>
       <c r="B529" s="3" t="s">
-        <v>1254</v>
+        <v>1239</v>
       </c>
       <c r="C529" s="3" t="s">
-        <v>1253</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.2">
@@ -10260,10 +10266,10 @@
         <v>2024</v>
       </c>
       <c r="B530" s="3" t="s">
-        <v>1234</v>
+        <v>1254</v>
       </c>
       <c r="C530" s="3" t="s">
-        <v>1249</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.2">
@@ -10271,10 +10277,10 @@
         <v>2024</v>
       </c>
       <c r="B531" s="3" t="s">
-        <v>1078</v>
+        <v>1234</v>
       </c>
       <c r="C531" s="3" t="s">
-        <v>1077</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.2">
@@ -10282,10 +10288,10 @@
         <v>2024</v>
       </c>
       <c r="B532" s="3" t="s">
-        <v>1143</v>
+        <v>1078</v>
       </c>
       <c r="C532" s="3" t="s">
-        <v>1127</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.2">
@@ -10293,10 +10299,10 @@
         <v>2024</v>
       </c>
       <c r="B533" s="3" t="s">
-        <v>1155</v>
+        <v>1143</v>
       </c>
       <c r="C533" s="3" t="s">
-        <v>1156</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.2">
@@ -10304,10 +10310,10 @@
         <v>2024</v>
       </c>
       <c r="B534" s="3" t="s">
-        <v>1225</v>
+        <v>1155</v>
       </c>
       <c r="C534" s="3" t="s">
-        <v>1226</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.2">
@@ -10315,10 +10321,10 @@
         <v>2024</v>
       </c>
       <c r="B535" s="3" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="C535" s="3" t="s">
-        <v>1160</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.2">
@@ -10326,10 +10332,10 @@
         <v>2024</v>
       </c>
       <c r="B536" s="3" t="s">
-        <v>1293</v>
+        <v>1227</v>
       </c>
       <c r="C536" s="3" t="s">
-        <v>1283</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.2">
@@ -10337,10 +10343,10 @@
         <v>2024</v>
       </c>
       <c r="B537" s="3" t="s">
-        <v>1152</v>
+        <v>1293</v>
       </c>
       <c r="C537" s="3" t="s">
-        <v>1151</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.2">
@@ -10348,10 +10354,10 @@
         <v>2024</v>
       </c>
       <c r="B538" s="3" t="s">
-        <v>1161</v>
+        <v>1152</v>
       </c>
       <c r="C538" s="3" t="s">
-        <v>1114</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.2">
@@ -10359,10 +10365,10 @@
         <v>2024</v>
       </c>
       <c r="B539" s="3" t="s">
-        <v>1073</v>
+        <v>1161</v>
       </c>
       <c r="C539" s="3" t="s">
-        <v>1068</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.2">
@@ -10370,10 +10376,10 @@
         <v>2024</v>
       </c>
       <c r="B540" s="3" t="s">
-        <v>1123</v>
+        <v>1073</v>
       </c>
       <c r="C540" s="3" t="s">
-        <v>1124</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.2">
@@ -10381,10 +10387,10 @@
         <v>2024</v>
       </c>
       <c r="B541" s="3" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="C541" s="3" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.2">
@@ -10392,10 +10398,10 @@
         <v>2024</v>
       </c>
       <c r="B542" s="3" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
       <c r="C542" s="3" t="s">
-        <v>1120</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.2">
@@ -10403,10 +10409,10 @@
         <v>2024</v>
       </c>
       <c r="B543" s="3" t="s">
-        <v>1279</v>
+        <v>1122</v>
       </c>
       <c r="C543" s="3" t="s">
-        <v>1278</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.2">
@@ -10414,10 +10420,10 @@
         <v>2024</v>
       </c>
       <c r="B544" s="3" t="s">
-        <v>1132</v>
+        <v>1279</v>
       </c>
       <c r="C544" s="3" t="s">
-        <v>1121</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.2">
@@ -10425,10 +10431,10 @@
         <v>2024</v>
       </c>
       <c r="B545" s="3" t="s">
-        <v>1298</v>
+        <v>1132</v>
       </c>
       <c r="C545" s="3" t="s">
-        <v>1286</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.2">
@@ -10436,10 +10442,10 @@
         <v>2024</v>
       </c>
       <c r="B546" s="3" t="s">
-        <v>1142</v>
+        <v>1298</v>
       </c>
       <c r="C546" s="3" t="s">
-        <v>1141</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.2">
@@ -10447,10 +10453,10 @@
         <v>2024</v>
       </c>
       <c r="B547" s="3" t="s">
-        <v>1250</v>
+        <v>1142</v>
       </c>
       <c r="C547" s="3" t="s">
-        <v>1246</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.2">
@@ -10458,10 +10464,10 @@
         <v>2024</v>
       </c>
       <c r="B548" s="3" t="s">
-        <v>1131</v>
+        <v>1250</v>
       </c>
       <c r="C548" s="3" t="s">
-        <v>1130</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.2">
@@ -10469,10 +10475,10 @@
         <v>2024</v>
       </c>
       <c r="B549" s="3" t="s">
-        <v>1140</v>
+        <v>1131</v>
       </c>
       <c r="C549" s="3" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.2">
@@ -10480,10 +10486,10 @@
         <v>2024</v>
       </c>
       <c r="B550" s="3" t="s">
-        <v>1266</v>
+        <v>1140</v>
       </c>
       <c r="C550" s="3" t="s">
-        <v>1267</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.2">
@@ -10491,10 +10497,10 @@
         <v>2024</v>
       </c>
       <c r="B551" s="3" t="s">
-        <v>1113</v>
+        <v>1266</v>
       </c>
       <c r="C551" s="3" t="s">
-        <v>1110</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.2">
@@ -10502,32 +10508,32 @@
         <v>2024</v>
       </c>
       <c r="B552" s="3" t="s">
-        <v>1252</v>
+        <v>1113</v>
       </c>
       <c r="C552" s="3" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="553" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A553" s="15">
         <v>2024</v>
       </c>
       <c r="B553" s="3" t="s">
-        <v>1282</v>
-      </c>
-      <c r="C553" s="18" t="s">
-        <v>1281</v>
-      </c>
-    </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1252</v>
+      </c>
+      <c r="C553" s="3" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A554" s="15">
         <v>2024</v>
       </c>
       <c r="B554" s="3" t="s">
-        <v>1230</v>
-      </c>
-      <c r="C554" s="3" t="s">
-        <v>1231</v>
+        <v>1282</v>
+      </c>
+      <c r="C554" s="18" t="s">
+        <v>1281</v>
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.2">
@@ -10535,10 +10541,10 @@
         <v>2024</v>
       </c>
       <c r="B555" s="3" t="s">
-        <v>1247</v>
+        <v>1230</v>
       </c>
       <c r="C555" s="3" t="s">
-        <v>1248</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.2">
@@ -10546,10 +10552,10 @@
         <v>2024</v>
       </c>
       <c r="B556" s="3" t="s">
-        <v>1232</v>
+        <v>1247</v>
       </c>
       <c r="C556" s="3" t="s">
-        <v>1233</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.2">
@@ -10557,10 +10563,10 @@
         <v>2024</v>
       </c>
       <c r="B557" s="3" t="s">
-        <v>1150</v>
+        <v>1232</v>
       </c>
       <c r="C557" s="3" t="s">
-        <v>1149</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.2">
@@ -10568,10 +10574,10 @@
         <v>2024</v>
       </c>
       <c r="B558" s="3" t="s">
-        <v>1291</v>
+        <v>1150</v>
       </c>
       <c r="C558" s="3" t="s">
-        <v>1292</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.2">
@@ -10579,10 +10585,10 @@
         <v>2024</v>
       </c>
       <c r="B559" s="3" t="s">
-        <v>1135</v>
+        <v>1291</v>
       </c>
       <c r="C559" s="3" t="s">
-        <v>1136</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.2">
@@ -10590,10 +10596,10 @@
         <v>2024</v>
       </c>
       <c r="B560" s="3" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="C560" s="3" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.2">
@@ -10601,10 +10607,10 @@
         <v>2024</v>
       </c>
       <c r="B561" s="3" t="s">
-        <v>1294</v>
+        <v>1137</v>
       </c>
       <c r="C561" s="3" t="s">
-        <v>1295</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.2">
@@ -10612,10 +10618,10 @@
         <v>2024</v>
       </c>
       <c r="B562" s="3" t="s">
-        <v>1148</v>
+        <v>1294</v>
       </c>
       <c r="C562" s="3" t="s">
-        <v>1147</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.2">
@@ -10623,29 +10629,32 @@
         <v>2024</v>
       </c>
       <c r="B563" s="3" t="s">
-        <v>1145</v>
+        <v>1148</v>
       </c>
       <c r="C563" s="3" t="s">
-        <v>1144</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A564" s="15">
+        <v>2024</v>
+      </c>
+      <c r="B564" s="3" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C564" s="3" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A565" s="15">
         <v>2025</v>
       </c>
-      <c r="B564" s="3" t="s">
+      <c r="B565" s="3" t="s">
         <v>1296</v>
       </c>
-      <c r="C564" s="3" t="s">
+      <c r="C565" s="3" t="s">
         <v>1297</v>
-      </c>
-    </row>
-    <row r="565" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A565" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C565" s="3" t="s">
-        <v>1272</v>
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.2">
@@ -10653,37 +10662,34 @@
         <v>0</v>
       </c>
       <c r="C566" s="3" t="s">
-        <v>1237</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A567" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B567" s="3" t="s">
-        <v>1118</v>
-      </c>
       <c r="C567" s="3" t="s">
-        <v>1115</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A568" s="15" t="s">
         <v>0</v>
       </c>
+      <c r="B568" s="3" t="s">
+        <v>1118</v>
+      </c>
       <c r="C568" s="3" t="s">
-        <v>1284</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A569" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B569" s="3" t="s">
-        <v>1289</v>
-      </c>
       <c r="C569" s="3" t="s">
-        <v>1290</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.2">
@@ -10691,10 +10697,10 @@
         <v>0</v>
       </c>
       <c r="B570" s="3" t="s">
-        <v>1263</v>
+        <v>1289</v>
       </c>
       <c r="C570" s="3" t="s">
-        <v>1159</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.2">
@@ -10702,10 +10708,10 @@
         <v>0</v>
       </c>
       <c r="B571" s="3" t="s">
-        <v>1153</v>
+        <v>1263</v>
       </c>
       <c r="C571" s="3" t="s">
-        <v>1154</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.2">
@@ -10713,16 +10719,27 @@
         <v>0</v>
       </c>
       <c r="B572" s="3" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C572" s="3" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A573" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B573" s="3" t="s">
         <v>1271</v>
       </c>
-      <c r="C572" s="3" t="s">
+      <c r="C573" s="3" t="s">
         <v>1270</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C572">
-    <sortCondition ref="A2:A572"/>
-    <sortCondition ref="C2:C572"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C573">
+    <sortCondition ref="A2:A573"/>
+    <sortCondition ref="C2:C573"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="Submetido">

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAFFCE7C-0EED-F74B-AF28-1C1826A97D7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDBEAAFC-3D08-824A-B788-5E6BEEE2A52E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="500" windowWidth="24920" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="1301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="1304">
   <si>
     <t>Aceito</t>
   </si>
@@ -3949,6 +3949,15 @@
   </si>
   <si>
     <t>10.1016/j.heliyon.2024.e40646</t>
+  </si>
+  <si>
+    <t>Posture and Pain: Beliefs and Attitudes of Patients With Chronic Low Back Pain</t>
+  </si>
+  <si>
+    <t>10.1002/msc.70016</t>
+  </si>
+  <si>
+    <t>10.1016/j.apunsm.2024.100460</t>
   </si>
 </sst>
 </file>
@@ -4442,13 +4451,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I573"/>
+  <dimension ref="A1:I574"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B542" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B543" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A573" sqref="A573"/>
+      <selection pane="bottomRight" activeCell="A574" sqref="A574"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10126,10 +10135,10 @@
         <v>2024</v>
       </c>
       <c r="B517" s="3" t="s">
-        <v>1268</v>
+        <v>1303</v>
       </c>
       <c r="C517" s="3" t="s">
-        <v>1269</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.2">
@@ -10137,29 +10146,29 @@
         <v>2024</v>
       </c>
       <c r="B518" s="3" t="s">
-        <v>1262</v>
+        <v>1268</v>
       </c>
       <c r="C518" s="3" t="s">
-        <v>1261</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A519" s="15">
         <v>2024</v>
       </c>
+      <c r="B519" s="3" t="s">
+        <v>1262</v>
+      </c>
       <c r="C519" s="3" t="s">
-        <v>1280</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A520" s="15">
         <v>2024</v>
       </c>
-      <c r="B520" s="3" t="s">
-        <v>1157</v>
-      </c>
       <c r="C520" s="3" t="s">
-        <v>1158</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.2">
@@ -10167,10 +10176,10 @@
         <v>2024</v>
       </c>
       <c r="B521" s="3" t="s">
-        <v>1287</v>
+        <v>1157</v>
       </c>
       <c r="C521" s="3" t="s">
-        <v>1288</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.2">
@@ -10178,10 +10187,10 @@
         <v>2024</v>
       </c>
       <c r="B522" s="3" t="s">
-        <v>1223</v>
+        <v>1287</v>
       </c>
       <c r="C522" s="3" t="s">
-        <v>1224</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.2">
@@ -10189,10 +10198,10 @@
         <v>2024</v>
       </c>
       <c r="B523" s="3" t="s">
-        <v>1300</v>
+        <v>1223</v>
       </c>
       <c r="C523" s="3" t="s">
-        <v>1299</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.2">
@@ -10200,10 +10209,10 @@
         <v>2024</v>
       </c>
       <c r="B524" s="3" t="s">
-        <v>1111</v>
+        <v>1300</v>
       </c>
       <c r="C524" s="3" t="s">
-        <v>1112</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.2">
@@ -10211,10 +10220,10 @@
         <v>2024</v>
       </c>
       <c r="B525" s="3" t="s">
-        <v>1240</v>
+        <v>1111</v>
       </c>
       <c r="C525" s="3" t="s">
-        <v>1241</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.2">
@@ -10222,10 +10231,10 @@
         <v>2024</v>
       </c>
       <c r="B526" s="3" t="s">
-        <v>1265</v>
+        <v>1240</v>
       </c>
       <c r="C526" s="3" t="s">
-        <v>1260</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.2">
@@ -10233,10 +10242,10 @@
         <v>2024</v>
       </c>
       <c r="B527" s="3" t="s">
-        <v>1277</v>
+        <v>1265</v>
       </c>
       <c r="C527" s="3" t="s">
-        <v>1276</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.2">
@@ -10244,10 +10253,10 @@
         <v>2024</v>
       </c>
       <c r="B528" s="3" t="s">
-        <v>1139</v>
+        <v>1277</v>
       </c>
       <c r="C528" s="3" t="s">
-        <v>1134</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.2">
@@ -10255,10 +10264,10 @@
         <v>2024</v>
       </c>
       <c r="B529" s="3" t="s">
-        <v>1239</v>
+        <v>1139</v>
       </c>
       <c r="C529" s="3" t="s">
-        <v>1238</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.2">
@@ -10266,10 +10275,10 @@
         <v>2024</v>
       </c>
       <c r="B530" s="3" t="s">
-        <v>1254</v>
+        <v>1239</v>
       </c>
       <c r="C530" s="3" t="s">
-        <v>1253</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.2">
@@ -10277,10 +10286,10 @@
         <v>2024</v>
       </c>
       <c r="B531" s="3" t="s">
-        <v>1234</v>
+        <v>1254</v>
       </c>
       <c r="C531" s="3" t="s">
-        <v>1249</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.2">
@@ -10288,10 +10297,10 @@
         <v>2024</v>
       </c>
       <c r="B532" s="3" t="s">
-        <v>1078</v>
+        <v>1234</v>
       </c>
       <c r="C532" s="3" t="s">
-        <v>1077</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.2">
@@ -10299,10 +10308,10 @@
         <v>2024</v>
       </c>
       <c r="B533" s="3" t="s">
-        <v>1143</v>
+        <v>1078</v>
       </c>
       <c r="C533" s="3" t="s">
-        <v>1127</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.2">
@@ -10310,10 +10319,10 @@
         <v>2024</v>
       </c>
       <c r="B534" s="3" t="s">
-        <v>1155</v>
+        <v>1143</v>
       </c>
       <c r="C534" s="3" t="s">
-        <v>1156</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.2">
@@ -10321,10 +10330,10 @@
         <v>2024</v>
       </c>
       <c r="B535" s="3" t="s">
-        <v>1225</v>
+        <v>1155</v>
       </c>
       <c r="C535" s="3" t="s">
-        <v>1226</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.2">
@@ -10332,10 +10341,10 @@
         <v>2024</v>
       </c>
       <c r="B536" s="3" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="C536" s="3" t="s">
-        <v>1160</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.2">
@@ -10343,10 +10352,10 @@
         <v>2024</v>
       </c>
       <c r="B537" s="3" t="s">
-        <v>1293</v>
+        <v>1227</v>
       </c>
       <c r="C537" s="3" t="s">
-        <v>1283</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.2">
@@ -10354,10 +10363,10 @@
         <v>2024</v>
       </c>
       <c r="B538" s="3" t="s">
-        <v>1152</v>
+        <v>1293</v>
       </c>
       <c r="C538" s="3" t="s">
-        <v>1151</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.2">
@@ -10365,10 +10374,10 @@
         <v>2024</v>
       </c>
       <c r="B539" s="3" t="s">
-        <v>1161</v>
+        <v>1152</v>
       </c>
       <c r="C539" s="3" t="s">
-        <v>1114</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.2">
@@ -10376,10 +10385,10 @@
         <v>2024</v>
       </c>
       <c r="B540" s="3" t="s">
-        <v>1073</v>
+        <v>1161</v>
       </c>
       <c r="C540" s="3" t="s">
-        <v>1068</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.2">
@@ -10387,10 +10396,10 @@
         <v>2024</v>
       </c>
       <c r="B541" s="3" t="s">
-        <v>1123</v>
+        <v>1073</v>
       </c>
       <c r="C541" s="3" t="s">
-        <v>1124</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.2">
@@ -10398,10 +10407,10 @@
         <v>2024</v>
       </c>
       <c r="B542" s="3" t="s">
-        <v>1126</v>
+        <v>1289</v>
       </c>
       <c r="C542" s="3" t="s">
-        <v>1125</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.2">
@@ -10409,10 +10418,10 @@
         <v>2024</v>
       </c>
       <c r="B543" s="3" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="C543" s="3" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.2">
@@ -10420,10 +10429,10 @@
         <v>2024</v>
       </c>
       <c r="B544" s="3" t="s">
-        <v>1279</v>
+        <v>1126</v>
       </c>
       <c r="C544" s="3" t="s">
-        <v>1278</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.2">
@@ -10431,10 +10440,10 @@
         <v>2024</v>
       </c>
       <c r="B545" s="3" t="s">
-        <v>1132</v>
+        <v>1122</v>
       </c>
       <c r="C545" s="3" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.2">
@@ -10442,10 +10451,10 @@
         <v>2024</v>
       </c>
       <c r="B546" s="3" t="s">
-        <v>1298</v>
+        <v>1279</v>
       </c>
       <c r="C546" s="3" t="s">
-        <v>1286</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.2">
@@ -10453,10 +10462,10 @@
         <v>2024</v>
       </c>
       <c r="B547" s="3" t="s">
-        <v>1142</v>
+        <v>1132</v>
       </c>
       <c r="C547" s="3" t="s">
-        <v>1141</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.2">
@@ -10464,10 +10473,10 @@
         <v>2024</v>
       </c>
       <c r="B548" s="3" t="s">
-        <v>1250</v>
+        <v>1298</v>
       </c>
       <c r="C548" s="3" t="s">
-        <v>1246</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.2">
@@ -10475,10 +10484,10 @@
         <v>2024</v>
       </c>
       <c r="B549" s="3" t="s">
-        <v>1131</v>
+        <v>1142</v>
       </c>
       <c r="C549" s="3" t="s">
-        <v>1130</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.2">
@@ -10486,10 +10495,10 @@
         <v>2024</v>
       </c>
       <c r="B550" s="3" t="s">
-        <v>1140</v>
+        <v>1250</v>
       </c>
       <c r="C550" s="3" t="s">
-        <v>1133</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.2">
@@ -10497,10 +10506,10 @@
         <v>2024</v>
       </c>
       <c r="B551" s="3" t="s">
-        <v>1266</v>
+        <v>1131</v>
       </c>
       <c r="C551" s="3" t="s">
-        <v>1267</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.2">
@@ -10508,10 +10517,10 @@
         <v>2024</v>
       </c>
       <c r="B552" s="3" t="s">
-        <v>1113</v>
+        <v>1140</v>
       </c>
       <c r="C552" s="3" t="s">
-        <v>1110</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.2">
@@ -10519,21 +10528,21 @@
         <v>2024</v>
       </c>
       <c r="B553" s="3" t="s">
-        <v>1252</v>
+        <v>1266</v>
       </c>
       <c r="C553" s="3" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="554" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A554" s="15">
         <v>2024</v>
       </c>
       <c r="B554" s="3" t="s">
-        <v>1282</v>
-      </c>
-      <c r="C554" s="18" t="s">
-        <v>1281</v>
+        <v>1113</v>
+      </c>
+      <c r="C554" s="3" t="s">
+        <v>1110</v>
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.2">
@@ -10541,21 +10550,21 @@
         <v>2024</v>
       </c>
       <c r="B555" s="3" t="s">
-        <v>1230</v>
+        <v>1252</v>
       </c>
       <c r="C555" s="3" t="s">
-        <v>1231</v>
-      </c>
-    </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A556" s="15">
         <v>2024</v>
       </c>
       <c r="B556" s="3" t="s">
-        <v>1247</v>
-      </c>
-      <c r="C556" s="3" t="s">
-        <v>1248</v>
+        <v>1282</v>
+      </c>
+      <c r="C556" s="18" t="s">
+        <v>1281</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.2">
@@ -10563,10 +10572,10 @@
         <v>2024</v>
       </c>
       <c r="B557" s="3" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="C557" s="3" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.2">
@@ -10574,10 +10583,10 @@
         <v>2024</v>
       </c>
       <c r="B558" s="3" t="s">
-        <v>1150</v>
+        <v>1247</v>
       </c>
       <c r="C558" s="3" t="s">
-        <v>1149</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.2">
@@ -10585,10 +10594,10 @@
         <v>2024</v>
       </c>
       <c r="B559" s="3" t="s">
-        <v>1291</v>
+        <v>1232</v>
       </c>
       <c r="C559" s="3" t="s">
-        <v>1292</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.2">
@@ -10596,10 +10605,10 @@
         <v>2024</v>
       </c>
       <c r="B560" s="3" t="s">
-        <v>1135</v>
+        <v>1150</v>
       </c>
       <c r="C560" s="3" t="s">
-        <v>1136</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.2">
@@ -10607,10 +10616,10 @@
         <v>2024</v>
       </c>
       <c r="B561" s="3" t="s">
-        <v>1137</v>
+        <v>1291</v>
       </c>
       <c r="C561" s="3" t="s">
-        <v>1138</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.2">
@@ -10618,10 +10627,10 @@
         <v>2024</v>
       </c>
       <c r="B562" s="3" t="s">
-        <v>1294</v>
+        <v>1135</v>
       </c>
       <c r="C562" s="3" t="s">
-        <v>1295</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.2">
@@ -10629,10 +10638,10 @@
         <v>2024</v>
       </c>
       <c r="B563" s="3" t="s">
-        <v>1148</v>
+        <v>1137</v>
       </c>
       <c r="C563" s="3" t="s">
-        <v>1147</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.2">
@@ -10640,48 +10649,54 @@
         <v>2024</v>
       </c>
       <c r="B564" s="3" t="s">
-        <v>1145</v>
+        <v>1294</v>
       </c>
       <c r="C564" s="3" t="s">
-        <v>1144</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A565" s="15">
+        <v>2024</v>
+      </c>
+      <c r="B565" s="3" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C565" s="3" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A566" s="15">
+        <v>2024</v>
+      </c>
+      <c r="B566" s="3" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C566" s="3" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A567" s="15">
         <v>2025</v>
       </c>
-      <c r="B565" s="3" t="s">
+      <c r="B567" s="3" t="s">
         <v>1296</v>
       </c>
-      <c r="C565" s="3" t="s">
+      <c r="C567" s="3" t="s">
         <v>1297</v>
       </c>
     </row>
-    <row r="566" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A566" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C566" s="3" t="s">
-        <v>1272</v>
-      </c>
-    </row>
-    <row r="567" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A567" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C567" s="3" t="s">
-        <v>1237</v>
-      </c>
-    </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A568" s="15" t="s">
-        <v>0</v>
+      <c r="A568" s="15">
+        <v>2025</v>
       </c>
       <c r="B568" s="3" t="s">
-        <v>1118</v>
+        <v>1302</v>
       </c>
       <c r="C568" s="3" t="s">
-        <v>1115</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.2">
@@ -10689,7 +10704,7 @@
         <v>0</v>
       </c>
       <c r="C569" s="3" t="s">
-        <v>1284</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.2">
@@ -10697,21 +10712,18 @@
         <v>0</v>
       </c>
       <c r="B570" s="3" t="s">
-        <v>1289</v>
+        <v>1118</v>
       </c>
       <c r="C570" s="3" t="s">
-        <v>1290</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A571" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B571" s="3" t="s">
-        <v>1263</v>
-      </c>
       <c r="C571" s="3" t="s">
-        <v>1159</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.2">
@@ -10719,10 +10731,10 @@
         <v>0</v>
       </c>
       <c r="B572" s="3" t="s">
-        <v>1153</v>
+        <v>1263</v>
       </c>
       <c r="C572" s="3" t="s">
-        <v>1154</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.2">
@@ -10730,16 +10742,27 @@
         <v>0</v>
       </c>
       <c r="B573" s="3" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C573" s="3" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A574" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B574" s="3" t="s">
         <v>1271</v>
       </c>
-      <c r="C573" s="3" t="s">
+      <c r="C574" s="3" t="s">
         <v>1270</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C573">
-    <sortCondition ref="A2:A573"/>
-    <sortCondition ref="C2:C573"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C574">
+    <sortCondition ref="A2:A574"/>
+    <sortCondition ref="C2:C574"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="Submetido">

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDBEAAFC-3D08-824A-B788-5E6BEEE2A52E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30817FCC-F2D9-8245-A03E-53516B7E71EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="500" windowWidth="24920" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="1304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="1309">
   <si>
     <t>Aceito</t>
   </si>
@@ -3958,6 +3958,21 @@
   </si>
   <si>
     <t>10.1016/j.apunsm.2024.100460</t>
+  </si>
+  <si>
+    <t>[BJoP (Igor, Gustavo, Ney)</t>
+  </si>
+  <si>
+    <t>Neck pain and text neck using Hill's criteria of causation: Scoping review</t>
+  </si>
+  <si>
+    <t>10.1016/j.jbmt.2024.12.016</t>
+  </si>
+  <si>
+    <t>10.23925/1984-1840.2024v26a31</t>
+  </si>
+  <si>
+    <t>Factors associated with extubation success in premature infants submitted to the spontaneous breathing trial</t>
   </si>
 </sst>
 </file>
@@ -4451,13 +4466,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I574"/>
+  <dimension ref="A1:I577"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B543" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B546" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A574" sqref="A574"/>
+      <selection pane="bottomRight" activeCell="A577" sqref="A577"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10385,10 +10400,10 @@
         <v>2024</v>
       </c>
       <c r="B540" s="3" t="s">
-        <v>1161</v>
+        <v>1307</v>
       </c>
       <c r="C540" s="3" t="s">
-        <v>1114</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.2">
@@ -10396,10 +10411,10 @@
         <v>2024</v>
       </c>
       <c r="B541" s="3" t="s">
-        <v>1073</v>
+        <v>1161</v>
       </c>
       <c r="C541" s="3" t="s">
-        <v>1068</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.2">
@@ -10407,10 +10422,10 @@
         <v>2024</v>
       </c>
       <c r="B542" s="3" t="s">
-        <v>1289</v>
+        <v>1073</v>
       </c>
       <c r="C542" s="3" t="s">
-        <v>1290</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.2">
@@ -10418,10 +10433,10 @@
         <v>2024</v>
       </c>
       <c r="B543" s="3" t="s">
-        <v>1123</v>
+        <v>1289</v>
       </c>
       <c r="C543" s="3" t="s">
-        <v>1124</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.2">
@@ -10429,10 +10444,10 @@
         <v>2024</v>
       </c>
       <c r="B544" s="3" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="C544" s="3" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.2">
@@ -10440,10 +10455,10 @@
         <v>2024</v>
       </c>
       <c r="B545" s="3" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
       <c r="C545" s="3" t="s">
-        <v>1120</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.2">
@@ -10451,10 +10466,10 @@
         <v>2024</v>
       </c>
       <c r="B546" s="3" t="s">
-        <v>1279</v>
+        <v>1122</v>
       </c>
       <c r="C546" s="3" t="s">
-        <v>1278</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.2">
@@ -10462,10 +10477,10 @@
         <v>2024</v>
       </c>
       <c r="B547" s="3" t="s">
-        <v>1132</v>
+        <v>1279</v>
       </c>
       <c r="C547" s="3" t="s">
-        <v>1121</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.2">
@@ -10473,10 +10488,10 @@
         <v>2024</v>
       </c>
       <c r="B548" s="3" t="s">
-        <v>1298</v>
+        <v>1132</v>
       </c>
       <c r="C548" s="3" t="s">
-        <v>1286</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.2">
@@ -10484,10 +10499,10 @@
         <v>2024</v>
       </c>
       <c r="B549" s="3" t="s">
-        <v>1142</v>
+        <v>1298</v>
       </c>
       <c r="C549" s="3" t="s">
-        <v>1141</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.2">
@@ -10495,10 +10510,10 @@
         <v>2024</v>
       </c>
       <c r="B550" s="3" t="s">
-        <v>1250</v>
+        <v>1142</v>
       </c>
       <c r="C550" s="3" t="s">
-        <v>1246</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.2">
@@ -10506,10 +10521,10 @@
         <v>2024</v>
       </c>
       <c r="B551" s="3" t="s">
-        <v>1131</v>
+        <v>1250</v>
       </c>
       <c r="C551" s="3" t="s">
-        <v>1130</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.2">
@@ -10517,10 +10532,10 @@
         <v>2024</v>
       </c>
       <c r="B552" s="3" t="s">
-        <v>1140</v>
+        <v>1131</v>
       </c>
       <c r="C552" s="3" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.2">
@@ -10528,10 +10543,10 @@
         <v>2024</v>
       </c>
       <c r="B553" s="3" t="s">
-        <v>1266</v>
+        <v>1140</v>
       </c>
       <c r="C553" s="3" t="s">
-        <v>1267</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.2">
@@ -10539,10 +10554,10 @@
         <v>2024</v>
       </c>
       <c r="B554" s="3" t="s">
-        <v>1113</v>
+        <v>1266</v>
       </c>
       <c r="C554" s="3" t="s">
-        <v>1110</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.2">
@@ -10550,32 +10565,32 @@
         <v>2024</v>
       </c>
       <c r="B555" s="3" t="s">
-        <v>1252</v>
+        <v>1113</v>
       </c>
       <c r="C555" s="3" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="556" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A556" s="15">
         <v>2024</v>
       </c>
       <c r="B556" s="3" t="s">
-        <v>1282</v>
-      </c>
-      <c r="C556" s="18" t="s">
-        <v>1281</v>
-      </c>
-    </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1252</v>
+      </c>
+      <c r="C556" s="3" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A557" s="15">
         <v>2024</v>
       </c>
       <c r="B557" s="3" t="s">
-        <v>1230</v>
-      </c>
-      <c r="C557" s="3" t="s">
-        <v>1231</v>
+        <v>1282</v>
+      </c>
+      <c r="C557" s="18" t="s">
+        <v>1281</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.2">
@@ -10583,10 +10598,10 @@
         <v>2024</v>
       </c>
       <c r="B558" s="3" t="s">
-        <v>1247</v>
+        <v>1230</v>
       </c>
       <c r="C558" s="3" t="s">
-        <v>1248</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.2">
@@ -10594,10 +10609,10 @@
         <v>2024</v>
       </c>
       <c r="B559" s="3" t="s">
-        <v>1232</v>
+        <v>1247</v>
       </c>
       <c r="C559" s="3" t="s">
-        <v>1233</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.2">
@@ -10605,10 +10620,10 @@
         <v>2024</v>
       </c>
       <c r="B560" s="3" t="s">
-        <v>1150</v>
+        <v>1232</v>
       </c>
       <c r="C560" s="3" t="s">
-        <v>1149</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.2">
@@ -10616,10 +10631,10 @@
         <v>2024</v>
       </c>
       <c r="B561" s="3" t="s">
-        <v>1291</v>
+        <v>1150</v>
       </c>
       <c r="C561" s="3" t="s">
-        <v>1292</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.2">
@@ -10627,10 +10642,10 @@
         <v>2024</v>
       </c>
       <c r="B562" s="3" t="s">
-        <v>1135</v>
+        <v>1291</v>
       </c>
       <c r="C562" s="3" t="s">
-        <v>1136</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.2">
@@ -10638,10 +10653,10 @@
         <v>2024</v>
       </c>
       <c r="B563" s="3" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="C563" s="3" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.2">
@@ -10649,10 +10664,10 @@
         <v>2024</v>
       </c>
       <c r="B564" s="3" t="s">
-        <v>1294</v>
+        <v>1137</v>
       </c>
       <c r="C564" s="3" t="s">
-        <v>1295</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.2">
@@ -10660,10 +10675,10 @@
         <v>2024</v>
       </c>
       <c r="B565" s="3" t="s">
-        <v>1148</v>
+        <v>1294</v>
       </c>
       <c r="C565" s="3" t="s">
-        <v>1147</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.2">
@@ -10671,21 +10686,21 @@
         <v>2024</v>
       </c>
       <c r="B566" s="3" t="s">
-        <v>1145</v>
+        <v>1148</v>
       </c>
       <c r="C566" s="3" t="s">
-        <v>1144</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A567" s="15">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B567" s="3" t="s">
-        <v>1296</v>
+        <v>1145</v>
       </c>
       <c r="C567" s="3" t="s">
-        <v>1297</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.2">
@@ -10693,29 +10708,29 @@
         <v>2025</v>
       </c>
       <c r="B568" s="3" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C568" s="3" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A569" s="15">
+        <v>2025</v>
+      </c>
+      <c r="B569" s="3" t="s">
         <v>1302</v>
       </c>
-      <c r="C568" s="3" t="s">
+      <c r="C569" s="3" t="s">
         <v>1301</v>
-      </c>
-    </row>
-    <row r="569" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A569" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C569" s="3" t="s">
-        <v>1237</v>
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A570" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B570" s="3" t="s">
-        <v>1118</v>
-      </c>
       <c r="C570" s="3" t="s">
-        <v>1115</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.2">
@@ -10723,7 +10738,7 @@
         <v>0</v>
       </c>
       <c r="C571" s="3" t="s">
-        <v>1284</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.2">
@@ -10731,21 +10746,18 @@
         <v>0</v>
       </c>
       <c r="B572" s="3" t="s">
-        <v>1263</v>
+        <v>1118</v>
       </c>
       <c r="C572" s="3" t="s">
-        <v>1159</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A573" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B573" s="3" t="s">
-        <v>1153</v>
-      </c>
       <c r="C573" s="3" t="s">
-        <v>1154</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.2">
@@ -10753,16 +10765,49 @@
         <v>0</v>
       </c>
       <c r="B574" s="3" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C574" s="3" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A575" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B575" s="3" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C575" s="3" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A576" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B576" s="3" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C576" s="3" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A577" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B577" s="3" t="s">
         <v>1271</v>
       </c>
-      <c r="C574" s="3" t="s">
+      <c r="C577" s="3" t="s">
         <v>1270</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C574">
-    <sortCondition ref="A2:A574"/>
-    <sortCondition ref="C2:C574"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C577">
+    <sortCondition ref="A2:A577"/>
+    <sortCondition ref="C2:C577"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="Submetido">

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30817FCC-F2D9-8245-A03E-53516B7E71EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{610F5DB1-81FC-3C45-8507-1217FF7A8EC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="500" windowWidth="24920" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="1309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1338" uniqueCount="1309">
   <si>
     <t>Aceito</t>
   </si>
@@ -10719,18 +10719,21 @@
         <v>2025</v>
       </c>
       <c r="B569" s="3" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C569" s="3" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A570" s="15">
+        <v>2025</v>
+      </c>
+      <c r="B570" s="3" t="s">
         <v>1302</v>
       </c>
-      <c r="C569" s="3" t="s">
+      <c r="C570" s="3" t="s">
         <v>1301</v>
-      </c>
-    </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A570" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C570" s="3" t="s">
-        <v>1304</v>
       </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.2">
@@ -10738,37 +10741,34 @@
         <v>0</v>
       </c>
       <c r="C571" s="3" t="s">
-        <v>1237</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A572" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B572" s="3" t="s">
-        <v>1118</v>
-      </c>
       <c r="C572" s="3" t="s">
-        <v>1115</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A573" s="15" t="s">
         <v>0</v>
       </c>
+      <c r="B573" s="3" t="s">
+        <v>1118</v>
+      </c>
       <c r="C573" s="3" t="s">
-        <v>1284</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A574" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B574" s="3" t="s">
-        <v>1306</v>
-      </c>
       <c r="C574" s="3" t="s">
-        <v>1305</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.2">

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{610F5DB1-81FC-3C45-8507-1217FF7A8EC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EADFF81-F8A1-6648-A5CB-B55466C02436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="500" windowWidth="24920" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1338" uniqueCount="1309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="1314">
   <si>
     <t>Aceito</t>
   </si>
@@ -3973,6 +3973,21 @@
   </si>
   <si>
     <t>Factors associated with extubation success in premature infants submitted to the spontaneous breathing trial</t>
+  </si>
+  <si>
+    <t>Complaints and Pain Predominance in Running-Related Injuries: a Bayesian inference analyses</t>
+  </si>
+  <si>
+    <t>Muscular performance and blood pressure after different pre-strength training in recreationally strength-trained women: Cross-over trial</t>
+  </si>
+  <si>
+    <t>10.1016/j.jbmt.2024.12.035</t>
+  </si>
+  <si>
+    <t>"Despite the pain, I keep moving forward": A qualitative study on Brazilian older adults' experience with chronic low back pain</t>
+  </si>
+  <si>
+    <t>Association between functional impairments at hosptal discharge and shorte term barriers to cardiac rehabilitation in acute coronary syndrome: A longitudinal study</t>
   </si>
 </sst>
 </file>
@@ -4466,13 +4481,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I577"/>
+  <dimension ref="A1:I581"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B546" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B555" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A577" sqref="A577"/>
+      <selection pane="bottomRight" activeCell="A581" sqref="A581"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10802,6 +10817,41 @@
       </c>
       <c r="C577" s="3" t="s">
         <v>1270</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A578" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B578" s="3" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C578" s="3" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A579" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C579" s="3" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A580" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C580" s="3" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A581" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C581" s="3" t="s">
+        <v>1312</v>
       </c>
     </row>
   </sheetData>

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EADFF81-F8A1-6648-A5CB-B55466C02436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A50C19C7-3FEB-1048-805C-45E85F567AC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="500" windowWidth="24920" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="1314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="1330">
   <si>
     <t>Aceito</t>
   </si>
@@ -3988,6 +3988,54 @@
   </si>
   <si>
     <t>Association between functional impairments at hosptal discharge and shorte term barriers to cardiac rehabilitation in acute coronary syndrome: A longitudinal study</t>
+  </si>
+  <si>
+    <t>10.1177/10538127241298551</t>
+  </si>
+  <si>
+    <t>Pain intensity and lower limb dynamic balance were related to the laterality judgment test of patients with patellofemoral pain</t>
+  </si>
+  <si>
+    <t>Rethinking Methodologies in Nocturnal Blood Pressure Dipping Research: Insights from Lopez et al. Acta Cardiologica</t>
+  </si>
+  <si>
+    <t>10.1016/j.msksp.2025.103259</t>
+  </si>
+  <si>
+    <t>10.1080/00015385.2025.2453799</t>
+  </si>
+  <si>
+    <t>10.32635/2176-9745.RBC.2025v71n1.4884</t>
+  </si>
+  <si>
+    <t>Is Smoking in an Open Area Enough to Protect Children?</t>
+  </si>
+  <si>
+    <t>Pulmonary function tests: an integrated approach to interpreting results in the search for treatable traits</t>
+  </si>
+  <si>
+    <t>10.1002/msc.70050</t>
+  </si>
+  <si>
+    <t>10.1080/17476348.2025.2458607</t>
+  </si>
+  <si>
+    <t>10.3390/jcdd12010007</t>
+  </si>
+  <si>
+    <t>Structural and dynamic characteristics in sonographic evaluation of the sciatic nerve in patients with probable neuropathic pain - a cross-sectional study</t>
+  </si>
+  <si>
+    <t>10.47197/retos.v52.98050</t>
+  </si>
+  <si>
+    <t>Acute effect of stretching performed before a resistance exercise session using different intervals on maximum repetitions performance in recreationally trained adults</t>
+  </si>
+  <si>
+    <t>Author Response to Kumar et al</t>
+  </si>
+  <si>
+    <t>10.1093/ptj/pzae162</t>
   </si>
 </sst>
 </file>
@@ -4481,13 +4529,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I581"/>
+  <dimension ref="A1:I585"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B555" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B554" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A581" sqref="A581"/>
+      <selection pane="bottomRight" activeCell="A585" sqref="A585"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10154,10 +10202,10 @@
         <v>2024</v>
       </c>
       <c r="B516" s="3" t="s">
-        <v>1146</v>
+        <v>1326</v>
       </c>
       <c r="C516" s="3" t="s">
-        <v>1119</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.2">
@@ -10165,10 +10213,10 @@
         <v>2024</v>
       </c>
       <c r="B517" s="3" t="s">
-        <v>1303</v>
+        <v>1146</v>
       </c>
       <c r="C517" s="3" t="s">
-        <v>1272</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.2">
@@ -10176,10 +10224,10 @@
         <v>2024</v>
       </c>
       <c r="B518" s="3" t="s">
-        <v>1268</v>
+        <v>1303</v>
       </c>
       <c r="C518" s="3" t="s">
-        <v>1269</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.2">
@@ -10187,29 +10235,29 @@
         <v>2024</v>
       </c>
       <c r="B519" s="3" t="s">
-        <v>1262</v>
+        <v>1268</v>
       </c>
       <c r="C519" s="3" t="s">
-        <v>1261</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A520" s="15">
         <v>2024</v>
       </c>
+      <c r="B520" s="3" t="s">
+        <v>1262</v>
+      </c>
       <c r="C520" s="3" t="s">
-        <v>1280</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A521" s="15">
         <v>2024</v>
       </c>
-      <c r="B521" s="3" t="s">
-        <v>1157</v>
-      </c>
       <c r="C521" s="3" t="s">
-        <v>1158</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.2">
@@ -10217,10 +10265,10 @@
         <v>2024</v>
       </c>
       <c r="B522" s="3" t="s">
-        <v>1287</v>
+        <v>1157</v>
       </c>
       <c r="C522" s="3" t="s">
-        <v>1288</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.2">
@@ -10228,10 +10276,10 @@
         <v>2024</v>
       </c>
       <c r="B523" s="3" t="s">
-        <v>1223</v>
+        <v>1287</v>
       </c>
       <c r="C523" s="3" t="s">
-        <v>1224</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.2">
@@ -10239,10 +10287,10 @@
         <v>2024</v>
       </c>
       <c r="B524" s="3" t="s">
-        <v>1300</v>
+        <v>1223</v>
       </c>
       <c r="C524" s="3" t="s">
-        <v>1299</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.2">
@@ -10250,10 +10298,10 @@
         <v>2024</v>
       </c>
       <c r="B525" s="3" t="s">
-        <v>1111</v>
+        <v>1300</v>
       </c>
       <c r="C525" s="3" t="s">
-        <v>1112</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.2">
@@ -10261,10 +10309,10 @@
         <v>2024</v>
       </c>
       <c r="B526" s="3" t="s">
-        <v>1240</v>
+        <v>1111</v>
       </c>
       <c r="C526" s="3" t="s">
-        <v>1241</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.2">
@@ -10272,10 +10320,10 @@
         <v>2024</v>
       </c>
       <c r="B527" s="3" t="s">
-        <v>1265</v>
+        <v>1240</v>
       </c>
       <c r="C527" s="3" t="s">
-        <v>1260</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.2">
@@ -10283,10 +10331,10 @@
         <v>2024</v>
       </c>
       <c r="B528" s="3" t="s">
-        <v>1277</v>
+        <v>1265</v>
       </c>
       <c r="C528" s="3" t="s">
-        <v>1276</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.2">
@@ -10294,10 +10342,10 @@
         <v>2024</v>
       </c>
       <c r="B529" s="3" t="s">
-        <v>1139</v>
+        <v>1277</v>
       </c>
       <c r="C529" s="3" t="s">
-        <v>1134</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.2">
@@ -10305,10 +10353,10 @@
         <v>2024</v>
       </c>
       <c r="B530" s="3" t="s">
-        <v>1239</v>
+        <v>1139</v>
       </c>
       <c r="C530" s="3" t="s">
-        <v>1238</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.2">
@@ -10316,10 +10364,10 @@
         <v>2024</v>
       </c>
       <c r="B531" s="3" t="s">
-        <v>1254</v>
+        <v>1239</v>
       </c>
       <c r="C531" s="3" t="s">
-        <v>1253</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.2">
@@ -10327,10 +10375,10 @@
         <v>2024</v>
       </c>
       <c r="B532" s="3" t="s">
-        <v>1234</v>
+        <v>1254</v>
       </c>
       <c r="C532" s="3" t="s">
-        <v>1249</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.2">
@@ -10338,10 +10386,10 @@
         <v>2024</v>
       </c>
       <c r="B533" s="3" t="s">
-        <v>1078</v>
+        <v>1234</v>
       </c>
       <c r="C533" s="3" t="s">
-        <v>1077</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.2">
@@ -10349,10 +10397,10 @@
         <v>2024</v>
       </c>
       <c r="B534" s="3" t="s">
-        <v>1143</v>
+        <v>1078</v>
       </c>
       <c r="C534" s="3" t="s">
-        <v>1127</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.2">
@@ -10360,10 +10408,10 @@
         <v>2024</v>
       </c>
       <c r="B535" s="3" t="s">
-        <v>1155</v>
+        <v>1143</v>
       </c>
       <c r="C535" s="3" t="s">
-        <v>1156</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.2">
@@ -10371,10 +10419,10 @@
         <v>2024</v>
       </c>
       <c r="B536" s="3" t="s">
-        <v>1225</v>
+        <v>1118</v>
       </c>
       <c r="C536" s="3" t="s">
-        <v>1226</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.2">
@@ -10382,10 +10430,10 @@
         <v>2024</v>
       </c>
       <c r="B537" s="3" t="s">
-        <v>1227</v>
+        <v>1155</v>
       </c>
       <c r="C537" s="3" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.2">
@@ -10393,10 +10441,10 @@
         <v>2024</v>
       </c>
       <c r="B538" s="3" t="s">
-        <v>1293</v>
+        <v>1225</v>
       </c>
       <c r="C538" s="3" t="s">
-        <v>1283</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.2">
@@ -10404,10 +10452,10 @@
         <v>2024</v>
       </c>
       <c r="B539" s="3" t="s">
-        <v>1152</v>
+        <v>1227</v>
       </c>
       <c r="C539" s="3" t="s">
-        <v>1151</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.2">
@@ -10415,10 +10463,10 @@
         <v>2024</v>
       </c>
       <c r="B540" s="3" t="s">
-        <v>1307</v>
+        <v>1293</v>
       </c>
       <c r="C540" s="3" t="s">
-        <v>1308</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.2">
@@ -10426,10 +10474,10 @@
         <v>2024</v>
       </c>
       <c r="B541" s="3" t="s">
-        <v>1161</v>
+        <v>1152</v>
       </c>
       <c r="C541" s="3" t="s">
-        <v>1114</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.2">
@@ -10437,10 +10485,10 @@
         <v>2024</v>
       </c>
       <c r="B542" s="3" t="s">
-        <v>1073</v>
+        <v>1307</v>
       </c>
       <c r="C542" s="3" t="s">
-        <v>1068</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.2">
@@ -10448,10 +10496,10 @@
         <v>2024</v>
       </c>
       <c r="B543" s="3" t="s">
-        <v>1289</v>
+        <v>1161</v>
       </c>
       <c r="C543" s="3" t="s">
-        <v>1290</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.2">
@@ -10459,10 +10507,10 @@
         <v>2024</v>
       </c>
       <c r="B544" s="3" t="s">
-        <v>1123</v>
+        <v>1073</v>
       </c>
       <c r="C544" s="3" t="s">
-        <v>1124</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.2">
@@ -10470,10 +10518,10 @@
         <v>2024</v>
       </c>
       <c r="B545" s="3" t="s">
-        <v>1126</v>
+        <v>1289</v>
       </c>
       <c r="C545" s="3" t="s">
-        <v>1125</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.2">
@@ -10481,10 +10529,10 @@
         <v>2024</v>
       </c>
       <c r="B546" s="3" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="C546" s="3" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.2">
@@ -10492,10 +10540,10 @@
         <v>2024</v>
       </c>
       <c r="B547" s="3" t="s">
-        <v>1279</v>
+        <v>1126</v>
       </c>
       <c r="C547" s="3" t="s">
-        <v>1278</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.2">
@@ -10503,10 +10551,10 @@
         <v>2024</v>
       </c>
       <c r="B548" s="3" t="s">
-        <v>1132</v>
+        <v>1122</v>
       </c>
       <c r="C548" s="3" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.2">
@@ -10514,10 +10562,10 @@
         <v>2024</v>
       </c>
       <c r="B549" s="3" t="s">
-        <v>1298</v>
+        <v>1279</v>
       </c>
       <c r="C549" s="3" t="s">
-        <v>1286</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.2">
@@ -10525,10 +10573,10 @@
         <v>2024</v>
       </c>
       <c r="B550" s="3" t="s">
-        <v>1142</v>
+        <v>1132</v>
       </c>
       <c r="C550" s="3" t="s">
-        <v>1141</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.2">
@@ -10536,10 +10584,10 @@
         <v>2024</v>
       </c>
       <c r="B551" s="3" t="s">
-        <v>1250</v>
+        <v>1298</v>
       </c>
       <c r="C551" s="3" t="s">
-        <v>1246</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.2">
@@ -10547,10 +10595,10 @@
         <v>2024</v>
       </c>
       <c r="B552" s="3" t="s">
-        <v>1131</v>
+        <v>1142</v>
       </c>
       <c r="C552" s="3" t="s">
-        <v>1130</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.2">
@@ -10558,10 +10606,10 @@
         <v>2024</v>
       </c>
       <c r="B553" s="3" t="s">
-        <v>1140</v>
+        <v>1250</v>
       </c>
       <c r="C553" s="3" t="s">
-        <v>1133</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.2">
@@ -10569,10 +10617,10 @@
         <v>2024</v>
       </c>
       <c r="B554" s="3" t="s">
-        <v>1266</v>
+        <v>1131</v>
       </c>
       <c r="C554" s="3" t="s">
-        <v>1267</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.2">
@@ -10580,10 +10628,10 @@
         <v>2024</v>
       </c>
       <c r="B555" s="3" t="s">
-        <v>1113</v>
+        <v>1140</v>
       </c>
       <c r="C555" s="3" t="s">
-        <v>1110</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.2">
@@ -10591,21 +10639,21 @@
         <v>2024</v>
       </c>
       <c r="B556" s="3" t="s">
-        <v>1252</v>
+        <v>1266</v>
       </c>
       <c r="C556" s="3" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="557" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A557" s="15">
         <v>2024</v>
       </c>
       <c r="B557" s="3" t="s">
-        <v>1282</v>
-      </c>
-      <c r="C557" s="18" t="s">
-        <v>1281</v>
+        <v>1113</v>
+      </c>
+      <c r="C557" s="3" t="s">
+        <v>1110</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.2">
@@ -10613,10 +10661,10 @@
         <v>2024</v>
       </c>
       <c r="B558" s="3" t="s">
-        <v>1230</v>
+        <v>1263</v>
       </c>
       <c r="C558" s="3" t="s">
-        <v>1231</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.2">
@@ -10624,21 +10672,21 @@
         <v>2024</v>
       </c>
       <c r="B559" s="3" t="s">
-        <v>1247</v>
+        <v>1252</v>
       </c>
       <c r="C559" s="3" t="s">
-        <v>1248</v>
-      </c>
-    </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A560" s="15">
         <v>2024</v>
       </c>
       <c r="B560" s="3" t="s">
-        <v>1232</v>
-      </c>
-      <c r="C560" s="3" t="s">
-        <v>1233</v>
+        <v>1282</v>
+      </c>
+      <c r="C560" s="18" t="s">
+        <v>1281</v>
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.2">
@@ -10646,10 +10694,10 @@
         <v>2024</v>
       </c>
       <c r="B561" s="3" t="s">
-        <v>1150</v>
+        <v>1230</v>
       </c>
       <c r="C561" s="3" t="s">
-        <v>1149</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.2">
@@ -10657,10 +10705,10 @@
         <v>2024</v>
       </c>
       <c r="B562" s="3" t="s">
-        <v>1291</v>
+        <v>1247</v>
       </c>
       <c r="C562" s="3" t="s">
-        <v>1292</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.2">
@@ -10668,10 +10716,10 @@
         <v>2024</v>
       </c>
       <c r="B563" s="3" t="s">
-        <v>1135</v>
+        <v>1232</v>
       </c>
       <c r="C563" s="3" t="s">
-        <v>1136</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.2">
@@ -10679,10 +10727,10 @@
         <v>2024</v>
       </c>
       <c r="B564" s="3" t="s">
-        <v>1137</v>
+        <v>1150</v>
       </c>
       <c r="C564" s="3" t="s">
-        <v>1138</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.2">
@@ -10690,10 +10738,10 @@
         <v>2024</v>
       </c>
       <c r="B565" s="3" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
       <c r="C565" s="3" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.2">
@@ -10701,10 +10749,10 @@
         <v>2024</v>
       </c>
       <c r="B566" s="3" t="s">
-        <v>1148</v>
+        <v>1135</v>
       </c>
       <c r="C566" s="3" t="s">
-        <v>1147</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.2">
@@ -10712,130 +10760,142 @@
         <v>2024</v>
       </c>
       <c r="B567" s="3" t="s">
-        <v>1145</v>
+        <v>1137</v>
       </c>
       <c r="C567" s="3" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A568" s="15">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B568" s="3" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="C568" s="3" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A569" s="15">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B569" s="3" t="s">
-        <v>1306</v>
+        <v>1153</v>
       </c>
       <c r="C569" s="3" t="s">
-        <v>1305</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A570" s="15">
+        <v>2024</v>
+      </c>
+      <c r="B570" s="3" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C570" s="3" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A571" s="15">
+        <v>2024</v>
+      </c>
+      <c r="B571" s="3" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C571" s="3" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A572" s="15">
+        <v>2024</v>
+      </c>
+      <c r="B572" s="3" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C572" s="3" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A573" s="15">
         <v>2025</v>
       </c>
-      <c r="B570" s="3" t="s">
+      <c r="B573" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C573" s="3" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A574" s="15">
+        <v>2025</v>
+      </c>
+      <c r="B574" s="3" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C574" s="3" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A575" s="15">
+        <v>2025</v>
+      </c>
+      <c r="B575" s="3" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C575" s="3" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A576" s="15">
+        <v>2025</v>
+      </c>
+      <c r="B576" s="3" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C576" s="3" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A577" s="15">
+        <v>2025</v>
+      </c>
+      <c r="B577" s="3" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C577" s="3" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A578" s="15">
+        <v>2025</v>
+      </c>
+      <c r="B578" s="3" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C578" s="3" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A579" s="15">
+        <v>2025</v>
+      </c>
+      <c r="B579" s="3" t="s">
         <v>1302</v>
       </c>
-      <c r="C570" s="3" t="s">
+      <c r="C579" s="3" t="s">
         <v>1301</v>
-      </c>
-    </row>
-    <row r="571" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A571" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C571" s="3" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="572" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A572" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C572" s="3" t="s">
-        <v>1237</v>
-      </c>
-    </row>
-    <row r="573" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A573" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B573" s="3" t="s">
-        <v>1118</v>
-      </c>
-      <c r="C573" s="3" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="574" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A574" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C574" s="3" t="s">
-        <v>1284</v>
-      </c>
-    </row>
-    <row r="575" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A575" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B575" s="3" t="s">
-        <v>1263</v>
-      </c>
-      <c r="C575" s="3" t="s">
-        <v>1159</v>
-      </c>
-    </row>
-    <row r="576" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A576" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B576" s="3" t="s">
-        <v>1153</v>
-      </c>
-      <c r="C576" s="3" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="577" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A577" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B577" s="3" t="s">
-        <v>1271</v>
-      </c>
-      <c r="C577" s="3" t="s">
-        <v>1270</v>
-      </c>
-    </row>
-    <row r="578" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A578" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B578" s="3" t="s">
-        <v>1311</v>
-      </c>
-      <c r="C578" s="3" t="s">
-        <v>1309</v>
-      </c>
-    </row>
-    <row r="579" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A579" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C579" s="3" t="s">
-        <v>1310</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.2">
@@ -10843,21 +10903,60 @@
         <v>0</v>
       </c>
       <c r="C580" s="3" t="s">
-        <v>1313</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A581" s="15" t="s">
         <v>0</v>
       </c>
+      <c r="B581" s="5"/>
       <c r="C581" s="3" t="s">
-        <v>1312</v>
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A582" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C582" s="3" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A583" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B583" s="3" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C583" s="3" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A584" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B584" s="3" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C584" s="3" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A585" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C585" s="3" t="s">
+        <v>1325</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C577">
-    <sortCondition ref="A2:A577"/>
-    <sortCondition ref="C2:C577"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C585">
+    <sortCondition ref="A2:A585"/>
+    <sortCondition ref="C2:C585"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="Submetido">
@@ -10891,13 +10990,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A33" sqref="A33"/>
+      <selection pane="bottomRight" activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11253,25 +11352,58 @@
       <c r="A32" s="3">
         <v>2024</v>
       </c>
+      <c r="B32" s="3" t="s">
+        <v>1275</v>
+      </c>
       <c r="C32" s="3" t="s">
-        <v>1255</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>2024</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>1275</v>
-      </c>
       <c r="C33" s="3" t="s">
-        <v>1264</v>
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>1328</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C32">
-    <sortCondition ref="A2:A32"/>
-    <sortCondition ref="C2:C32"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C35">
+    <sortCondition ref="A2:A35"/>
+    <sortCondition ref="C2:C35"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="containsText" dxfId="7" priority="10" operator="containsText" text="Aceito">

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A50C19C7-3FEB-1048-805C-45E85F567AC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C89D3C3-A82E-2148-A6F6-5803545CC7B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="500" windowWidth="24920" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="1330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="1333">
   <si>
     <t>Aceito</t>
   </si>
@@ -4036,6 +4036,15 @@
   </si>
   <si>
     <t>10.1093/ptj/pzae162</t>
+  </si>
+  <si>
+    <t>10.1016/j.msksp.2025.103272</t>
+  </si>
+  <si>
+    <t>10.1007/s41105-025-00574-z</t>
+  </si>
+  <si>
+    <t>Chronic back pain patients with poor sleep quality had higher pain intensity, functional limitation, and psychosocial factors than their counterparts</t>
   </si>
 </sst>
 </file>
@@ -4132,7 +4141,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -4187,6 +4196,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4529,13 +4541,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I585"/>
+  <dimension ref="A1:I586"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B554" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B555" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A585" sqref="A585"/>
+      <selection pane="bottomRight" activeCell="A586" sqref="A586"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10837,10 +10849,10 @@
         <v>2025</v>
       </c>
       <c r="B574" s="3" t="s">
-        <v>1311</v>
+        <v>1331</v>
       </c>
       <c r="C574" s="3" t="s">
-        <v>1309</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.2">
@@ -10848,10 +10860,10 @@
         <v>2025</v>
       </c>
       <c r="B575" s="3" t="s">
-        <v>1296</v>
+        <v>1311</v>
       </c>
       <c r="C575" s="3" t="s">
-        <v>1297</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.2">
@@ -10859,10 +10871,10 @@
         <v>2025</v>
       </c>
       <c r="B576" s="3" t="s">
-        <v>1324</v>
+        <v>1296</v>
       </c>
       <c r="C576" s="3" t="s">
-        <v>1310</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.2">
@@ -10870,10 +10882,10 @@
         <v>2025</v>
       </c>
       <c r="B577" s="3" t="s">
-        <v>1306</v>
+        <v>1324</v>
       </c>
       <c r="C577" s="3" t="s">
-        <v>1305</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.2">
@@ -10881,10 +10893,10 @@
         <v>2025</v>
       </c>
       <c r="B578" s="3" t="s">
-        <v>1317</v>
+        <v>1306</v>
       </c>
       <c r="C578" s="3" t="s">
-        <v>1315</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.2">
@@ -10892,27 +10904,32 @@
         <v>2025</v>
       </c>
       <c r="B579" s="3" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C579" s="3" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A580" s="15">
+        <v>2025</v>
+      </c>
+      <c r="B580" s="3" t="s">
         <v>1302</v>
       </c>
-      <c r="C579" s="3" t="s">
+      <c r="C580" s="3" t="s">
         <v>1301</v>
       </c>
     </row>
-    <row r="580" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A580" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C580" s="3" t="s">
-        <v>1304</v>
-      </c>
-    </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A581" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B581" s="5"/>
+      <c r="A581" s="15">
+        <v>2025</v>
+      </c>
+      <c r="B581" s="5" t="s">
+        <v>1330</v>
+      </c>
       <c r="C581" s="3" t="s">
-        <v>1313</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.2">
@@ -10920,43 +10937,52 @@
         <v>0</v>
       </c>
       <c r="C582" s="3" t="s">
-        <v>1237</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A583" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B583" s="3" t="s">
-        <v>1314</v>
-      </c>
+      <c r="B583" s="19"/>
       <c r="C583" s="3" t="s">
-        <v>1284</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A584" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B584" s="3" t="s">
-        <v>1323</v>
-      </c>
       <c r="C584" s="3" t="s">
-        <v>1321</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A585" s="15" t="s">
         <v>0</v>
       </c>
+      <c r="B585" s="3" t="s">
+        <v>1314</v>
+      </c>
       <c r="C585" s="3" t="s">
-        <v>1325</v>
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A586" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B586" s="3" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C586" s="3" t="s">
+        <v>1321</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C585">
-    <sortCondition ref="A2:A585"/>
-    <sortCondition ref="C2:C585"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C586">
+    <sortCondition ref="A2:A586"/>
+    <sortCondition ref="C2:C586"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="Submetido">

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C89D3C3-A82E-2148-A6F6-5803545CC7B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA0DD82-5AB9-5842-B6EA-1781C81DE082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="500" windowWidth="24920" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="1333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="1335">
   <si>
     <t>Aceito</t>
   </si>
@@ -4045,6 +4045,12 @@
   </si>
   <si>
     <t>Chronic back pain patients with poor sleep quality had higher pain intensity, functional limitation, and psychosocial factors than their counterparts</t>
+  </si>
+  <si>
+    <t>Cognitive Functional Therapy versus therapeutic exercises for the treatment of individuals with chronic shoulder pain: A protocol for a randomized controlled trial</t>
+  </si>
+  <si>
+    <t>Mapping the Choosing Wisely Initiatives in Physiotherapy: Are we missing an opportunity to reduce low-value care?</t>
   </si>
 </sst>
 </file>
@@ -4141,7 +4147,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -4196,9 +4202,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4541,13 +4544,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I586"/>
+  <dimension ref="A1:I588"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B555" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B560" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A586" sqref="A586"/>
+      <selection pane="bottomRight" activeCell="A588" sqref="A588"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10944,7 +10947,6 @@
       <c r="A583" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B583" s="19"/>
       <c r="C583" s="3" t="s">
         <v>1313</v>
       </c>
@@ -10977,6 +10979,22 @@
       </c>
       <c r="C586" s="3" t="s">
         <v>1321</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A587" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C587" s="3" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A588" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C588" s="3" t="s">
+        <v>1334</v>
       </c>
     </row>
   </sheetData>

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48DD17C3-6262-6844-BAB1-EB291A63A08A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B231BF3D-9BF8-4B41-867E-FF20BE35DB69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="500" windowWidth="24920" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="1295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1366" uniqueCount="1336">
   <si>
     <t>Aceito</t>
   </si>
@@ -3906,9 +3906,6 @@
     <t>Controle postural na posição sentada quieta em atletas de rúgbi em cadeiras de rodas</t>
   </si>
   <si>
-    <t>Deficits in postural balance predict functional decline in non-hospitalized post-COVID-19 individuals depending on the assessment tool: A cross-sectional study</t>
-  </si>
-  <si>
     <t>Neural mobilisation effects in nerve function and nerve structure of patients with peripheral neuropathic pain: a systematic review with meta-analysis</t>
   </si>
   <si>
@@ -3931,6 +3928,132 @@
   </si>
   <si>
     <t>10.1097/MD.0000000000040147</t>
+  </si>
+  <si>
+    <t>10.3390/jcm13216626</t>
+  </si>
+  <si>
+    <t>The Tinetti Balance Test Is an Effective Predictor of Functional Decline in Non-Hospitalized Post-COVID-19 Individuals: A Cross-Sectional Study</t>
+  </si>
+  <si>
+    <t>10.1016/j.hrtlng.2024.10.009</t>
+  </si>
+  <si>
+    <t>Heart failure associated with chronic Chagas cardiomyopathy increases the risk of impaired lung function and reduced submaximal functional capacity</t>
+  </si>
+  <si>
+    <t>10.1371/journal.pone.0313025</t>
+  </si>
+  <si>
+    <t>Changes in the Glittre-ADL test in patients with non-small cell lung cancer: pre- and postoperative analysis after home-based rehabilitation: A preliminary study</t>
+  </si>
+  <si>
+    <t>10.1016/j.heliyon.2024.e40646</t>
+  </si>
+  <si>
+    <t>Posture and Pain: Beliefs and Attitudes of Patients With Chronic Low Back Pain</t>
+  </si>
+  <si>
+    <t>10.1002/msc.70016</t>
+  </si>
+  <si>
+    <t>10.1016/j.apunsm.2024.100460</t>
+  </si>
+  <si>
+    <t>[BJoP (Igor, Gustavo, Ney)</t>
+  </si>
+  <si>
+    <t>Neck pain and text neck using Hill's criteria of causation: Scoping review</t>
+  </si>
+  <si>
+    <t>10.1016/j.jbmt.2024.12.016</t>
+  </si>
+  <si>
+    <t>10.23925/1984-1840.2024v26a31</t>
+  </si>
+  <si>
+    <t>Factors associated with extubation success in premature infants submitted to the spontaneous breathing trial</t>
+  </si>
+  <si>
+    <t>Complaints and Pain Predominance in Running-Related Injuries: a Bayesian inference analyses</t>
+  </si>
+  <si>
+    <t>Muscular performance and blood pressure after different pre-strength training in recreationally strength-trained women: Cross-over trial</t>
+  </si>
+  <si>
+    <t>10.1016/j.jbmt.2024.12.035</t>
+  </si>
+  <si>
+    <t>"Despite the pain, I keep moving forward": A qualitative study on Brazilian older adults' experience with chronic low back pain</t>
+  </si>
+  <si>
+    <t>Association between functional impairments at hosptal discharge and shorte term barriers to cardiac rehabilitation in acute coronary syndrome: A longitudinal study</t>
+  </si>
+  <si>
+    <t>10.1177/10538127241298551</t>
+  </si>
+  <si>
+    <t>Pain intensity and lower limb dynamic balance were related to the laterality judgment test of patients with patellofemoral pain</t>
+  </si>
+  <si>
+    <t>Rethinking Methodologies in Nocturnal Blood Pressure Dipping Research: Insights from Lopez et al. Acta Cardiologica</t>
+  </si>
+  <si>
+    <t>10.1016/j.msksp.2025.103259</t>
+  </si>
+  <si>
+    <t>10.1080/00015385.2025.2453799</t>
+  </si>
+  <si>
+    <t>10.32635/2176-9745.RBC.2025v71n1.4884</t>
+  </si>
+  <si>
+    <t>Is Smoking in an Open Area Enough to Protect Children?</t>
+  </si>
+  <si>
+    <t>Pulmonary function tests: an integrated approach to interpreting results in the search for treatable traits</t>
+  </si>
+  <si>
+    <t>10.1002/msc.70050</t>
+  </si>
+  <si>
+    <t>10.1080/17476348.2025.2458607</t>
+  </si>
+  <si>
+    <t>10.3390/jcdd12010007</t>
+  </si>
+  <si>
+    <t>Structural and dynamic characteristics in sonographic evaluation of the sciatic nerve in patients with probable neuropathic pain - a cross-sectional study</t>
+  </si>
+  <si>
+    <t>10.47197/retos.v52.98050</t>
+  </si>
+  <si>
+    <t>Acute effect of stretching performed before a resistance exercise session using different intervals on maximum repetitions performance in recreationally trained adults</t>
+  </si>
+  <si>
+    <t>Author Response to Kumar et al</t>
+  </si>
+  <si>
+    <t>10.1093/ptj/pzae162</t>
+  </si>
+  <si>
+    <t>10.1016/j.msksp.2025.103272</t>
+  </si>
+  <si>
+    <t>10.1007/s41105-025-00574-z</t>
+  </si>
+  <si>
+    <t>Chronic back pain patients with poor sleep quality had higher pain intensity, functional limitation, and psychosocial factors than their counterparts</t>
+  </si>
+  <si>
+    <t>Cognitive Functional Therapy versus therapeutic exercises for the treatment of individuals with chronic shoulder pain: A protocol for a randomized controlled trial</t>
+  </si>
+  <si>
+    <t>Mapping the Choosing Wisely Initiatives in Physiotherapy: Are we missing an opportunity to reduce low-value care?</t>
+  </si>
+  <si>
+    <t>Adaptação transcultural da forma curta da ferramenta Healing Encounters and Atitudes Lists (HEAL) para o contexto brasileiro</t>
   </si>
 </sst>
 </file>
@@ -4424,13 +4547,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I571"/>
+  <dimension ref="A1:I589"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B540" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B560" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A571" sqref="A571"/>
+      <selection pane="bottomRight" activeCell="A589" sqref="A589"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10097,10 +10220,10 @@
         <v>2024</v>
       </c>
       <c r="B516" s="3" t="s">
-        <v>1146</v>
+        <v>1326</v>
       </c>
       <c r="C516" s="3" t="s">
-        <v>1119</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.2">
@@ -10108,10 +10231,10 @@
         <v>2024</v>
       </c>
       <c r="B517" s="3" t="s">
-        <v>1268</v>
+        <v>1146</v>
       </c>
       <c r="C517" s="3" t="s">
-        <v>1269</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.2">
@@ -10119,18 +10242,21 @@
         <v>2024</v>
       </c>
       <c r="B518" s="3" t="s">
-        <v>1262</v>
+        <v>1303</v>
       </c>
       <c r="C518" s="3" t="s">
-        <v>1261</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A519" s="15">
         <v>2024</v>
       </c>
+      <c r="B519" s="3" t="s">
+        <v>1268</v>
+      </c>
       <c r="C519" s="3" t="s">
-        <v>1280</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.2">
@@ -10138,21 +10264,18 @@
         <v>2024</v>
       </c>
       <c r="B520" s="3" t="s">
-        <v>1157</v>
+        <v>1262</v>
       </c>
       <c r="C520" s="3" t="s">
-        <v>1158</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A521" s="15">
         <v>2024</v>
       </c>
-      <c r="B521" s="3" t="s">
-        <v>1288</v>
-      </c>
       <c r="C521" s="3" t="s">
-        <v>1289</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.2">
@@ -10160,10 +10283,10 @@
         <v>2024</v>
       </c>
       <c r="B522" s="3" t="s">
-        <v>1223</v>
+        <v>1157</v>
       </c>
       <c r="C522" s="3" t="s">
-        <v>1224</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.2">
@@ -10171,10 +10294,10 @@
         <v>2024</v>
       </c>
       <c r="B523" s="3" t="s">
-        <v>1111</v>
+        <v>1287</v>
       </c>
       <c r="C523" s="3" t="s">
-        <v>1112</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.2">
@@ -10182,10 +10305,10 @@
         <v>2024</v>
       </c>
       <c r="B524" s="3" t="s">
-        <v>1240</v>
+        <v>1223</v>
       </c>
       <c r="C524" s="3" t="s">
-        <v>1241</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.2">
@@ -10193,10 +10316,10 @@
         <v>2024</v>
       </c>
       <c r="B525" s="3" t="s">
-        <v>1265</v>
+        <v>1300</v>
       </c>
       <c r="C525" s="3" t="s">
-        <v>1260</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.2">
@@ -10204,10 +10327,10 @@
         <v>2024</v>
       </c>
       <c r="B526" s="3" t="s">
-        <v>1277</v>
+        <v>1111</v>
       </c>
       <c r="C526" s="3" t="s">
-        <v>1276</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.2">
@@ -10215,10 +10338,10 @@
         <v>2024</v>
       </c>
       <c r="B527" s="3" t="s">
-        <v>1139</v>
+        <v>1240</v>
       </c>
       <c r="C527" s="3" t="s">
-        <v>1134</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.2">
@@ -10226,10 +10349,10 @@
         <v>2024</v>
       </c>
       <c r="B528" s="3" t="s">
-        <v>1239</v>
+        <v>1265</v>
       </c>
       <c r="C528" s="3" t="s">
-        <v>1238</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.2">
@@ -10237,10 +10360,10 @@
         <v>2024</v>
       </c>
       <c r="B529" s="3" t="s">
-        <v>1254</v>
+        <v>1277</v>
       </c>
       <c r="C529" s="3" t="s">
-        <v>1253</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.2">
@@ -10248,10 +10371,10 @@
         <v>2024</v>
       </c>
       <c r="B530" s="3" t="s">
-        <v>1234</v>
+        <v>1139</v>
       </c>
       <c r="C530" s="3" t="s">
-        <v>1249</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.2">
@@ -10259,10 +10382,10 @@
         <v>2024</v>
       </c>
       <c r="B531" s="3" t="s">
-        <v>1078</v>
+        <v>1239</v>
       </c>
       <c r="C531" s="3" t="s">
-        <v>1077</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.2">
@@ -10270,10 +10393,10 @@
         <v>2024</v>
       </c>
       <c r="B532" s="3" t="s">
-        <v>1143</v>
+        <v>1254</v>
       </c>
       <c r="C532" s="3" t="s">
-        <v>1127</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.2">
@@ -10281,10 +10404,10 @@
         <v>2024</v>
       </c>
       <c r="B533" s="3" t="s">
-        <v>1155</v>
+        <v>1234</v>
       </c>
       <c r="C533" s="3" t="s">
-        <v>1156</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.2">
@@ -10292,10 +10415,10 @@
         <v>2024</v>
       </c>
       <c r="B534" s="3" t="s">
-        <v>1225</v>
+        <v>1078</v>
       </c>
       <c r="C534" s="3" t="s">
-        <v>1226</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.2">
@@ -10303,10 +10426,10 @@
         <v>2024</v>
       </c>
       <c r="B535" s="3" t="s">
-        <v>1227</v>
+        <v>1143</v>
       </c>
       <c r="C535" s="3" t="s">
-        <v>1160</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.2">
@@ -10314,10 +10437,10 @@
         <v>2024</v>
       </c>
       <c r="B536" s="3" t="s">
-        <v>1294</v>
+        <v>1118</v>
       </c>
       <c r="C536" s="3" t="s">
-        <v>1283</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.2">
@@ -10325,10 +10448,10 @@
         <v>2024</v>
       </c>
       <c r="B537" s="3" t="s">
-        <v>1152</v>
+        <v>1155</v>
       </c>
       <c r="C537" s="3" t="s">
-        <v>1151</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.2">
@@ -10336,10 +10459,10 @@
         <v>2024</v>
       </c>
       <c r="B538" s="3" t="s">
-        <v>1161</v>
+        <v>1225</v>
       </c>
       <c r="C538" s="3" t="s">
-        <v>1114</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.2">
@@ -10347,10 +10470,10 @@
         <v>2024</v>
       </c>
       <c r="B539" s="3" t="s">
-        <v>1073</v>
+        <v>1227</v>
       </c>
       <c r="C539" s="3" t="s">
-        <v>1068</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.2">
@@ -10358,10 +10481,10 @@
         <v>2024</v>
       </c>
       <c r="B540" s="3" t="s">
-        <v>1123</v>
+        <v>1293</v>
       </c>
       <c r="C540" s="3" t="s">
-        <v>1124</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.2">
@@ -10369,10 +10492,10 @@
         <v>2024</v>
       </c>
       <c r="B541" s="3" t="s">
-        <v>1126</v>
+        <v>1152</v>
       </c>
       <c r="C541" s="3" t="s">
-        <v>1125</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.2">
@@ -10380,10 +10503,10 @@
         <v>2024</v>
       </c>
       <c r="B542" s="3" t="s">
-        <v>1122</v>
+        <v>1307</v>
       </c>
       <c r="C542" s="3" t="s">
-        <v>1120</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.2">
@@ -10391,10 +10514,10 @@
         <v>2024</v>
       </c>
       <c r="B543" s="3" t="s">
-        <v>1279</v>
+        <v>1161</v>
       </c>
       <c r="C543" s="3" t="s">
-        <v>1278</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.2">
@@ -10402,10 +10525,10 @@
         <v>2024</v>
       </c>
       <c r="B544" s="3" t="s">
-        <v>1132</v>
+        <v>1073</v>
       </c>
       <c r="C544" s="3" t="s">
-        <v>1121</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.2">
@@ -10413,10 +10536,10 @@
         <v>2024</v>
       </c>
       <c r="B545" s="3" t="s">
-        <v>1142</v>
+        <v>1289</v>
       </c>
       <c r="C545" s="3" t="s">
-        <v>1141</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.2">
@@ -10424,10 +10547,10 @@
         <v>2024</v>
       </c>
       <c r="B546" s="3" t="s">
-        <v>1250</v>
+        <v>1123</v>
       </c>
       <c r="C546" s="3" t="s">
-        <v>1246</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.2">
@@ -10435,10 +10558,10 @@
         <v>2024</v>
       </c>
       <c r="B547" s="3" t="s">
-        <v>1131</v>
+        <v>1126</v>
       </c>
       <c r="C547" s="3" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.2">
@@ -10446,10 +10569,10 @@
         <v>2024</v>
       </c>
       <c r="B548" s="3" t="s">
-        <v>1140</v>
+        <v>1122</v>
       </c>
       <c r="C548" s="3" t="s">
-        <v>1133</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.2">
@@ -10457,10 +10580,10 @@
         <v>2024</v>
       </c>
       <c r="B549" s="3" t="s">
-        <v>1266</v>
+        <v>1279</v>
       </c>
       <c r="C549" s="3" t="s">
-        <v>1267</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.2">
@@ -10468,10 +10591,10 @@
         <v>2024</v>
       </c>
       <c r="B550" s="3" t="s">
-        <v>1113</v>
+        <v>1132</v>
       </c>
       <c r="C550" s="3" t="s">
-        <v>1110</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.2">
@@ -10479,21 +10602,21 @@
         <v>2024</v>
       </c>
       <c r="B551" s="3" t="s">
-        <v>1252</v>
+        <v>1298</v>
       </c>
       <c r="C551" s="3" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="552" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A552" s="15">
         <v>2024</v>
       </c>
       <c r="B552" s="3" t="s">
-        <v>1282</v>
-      </c>
-      <c r="C552" s="18" t="s">
-        <v>1281</v>
+        <v>1142</v>
+      </c>
+      <c r="C552" s="3" t="s">
+        <v>1141</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.2">
@@ -10501,10 +10624,10 @@
         <v>2024</v>
       </c>
       <c r="B553" s="3" t="s">
-        <v>1230</v>
+        <v>1250</v>
       </c>
       <c r="C553" s="3" t="s">
-        <v>1231</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.2">
@@ -10512,10 +10635,10 @@
         <v>2024</v>
       </c>
       <c r="B554" s="3" t="s">
-        <v>1247</v>
+        <v>1131</v>
       </c>
       <c r="C554" s="3" t="s">
-        <v>1248</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.2">
@@ -10523,10 +10646,10 @@
         <v>2024</v>
       </c>
       <c r="B555" s="3" t="s">
-        <v>1232</v>
+        <v>1140</v>
       </c>
       <c r="C555" s="3" t="s">
-        <v>1233</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.2">
@@ -10534,10 +10657,10 @@
         <v>2024</v>
       </c>
       <c r="B556" s="3" t="s">
-        <v>1150</v>
+        <v>1266</v>
       </c>
       <c r="C556" s="3" t="s">
-        <v>1149</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.2">
@@ -10545,10 +10668,10 @@
         <v>2024</v>
       </c>
       <c r="B557" s="3" t="s">
-        <v>1292</v>
+        <v>1113</v>
       </c>
       <c r="C557" s="3" t="s">
-        <v>1293</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.2">
@@ -10556,10 +10679,10 @@
         <v>2024</v>
       </c>
       <c r="B558" s="3" t="s">
-        <v>1135</v>
+        <v>1263</v>
       </c>
       <c r="C558" s="3" t="s">
-        <v>1136</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.2">
@@ -10567,21 +10690,21 @@
         <v>2024</v>
       </c>
       <c r="B559" s="3" t="s">
-        <v>1137</v>
+        <v>1252</v>
       </c>
       <c r="C559" s="3" t="s">
-        <v>1138</v>
-      </c>
-    </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A560" s="15">
         <v>2024</v>
       </c>
       <c r="B560" s="3" t="s">
-        <v>1148</v>
-      </c>
-      <c r="C560" s="3" t="s">
-        <v>1147</v>
+        <v>1282</v>
+      </c>
+      <c r="C560" s="18" t="s">
+        <v>1281</v>
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.2">
@@ -10589,99 +10712,114 @@
         <v>2024</v>
       </c>
       <c r="B561" s="3" t="s">
-        <v>1145</v>
+        <v>1230</v>
       </c>
       <c r="C561" s="3" t="s">
-        <v>1144</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A562" s="15" t="s">
-        <v>0</v>
+      <c r="A562" s="15">
+        <v>2024</v>
+      </c>
+      <c r="B562" s="3" t="s">
+        <v>1247</v>
       </c>
       <c r="C562" s="3" t="s">
-        <v>1272</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A563" s="15" t="s">
-        <v>0</v>
+      <c r="A563" s="15">
+        <v>2024</v>
+      </c>
+      <c r="B563" s="3" t="s">
+        <v>1232</v>
       </c>
       <c r="C563" s="3" t="s">
-        <v>1237</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A564" s="15" t="s">
-        <v>0</v>
+      <c r="A564" s="15">
+        <v>2024</v>
+      </c>
+      <c r="B564" s="3" t="s">
+        <v>1150</v>
       </c>
       <c r="C564" s="3" t="s">
-        <v>1286</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A565" s="15" t="s">
-        <v>0</v>
+      <c r="A565" s="15">
+        <v>2024</v>
       </c>
       <c r="B565" s="3" t="s">
-        <v>1118</v>
+        <v>1291</v>
       </c>
       <c r="C565" s="3" t="s">
-        <v>1115</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A566" s="15" t="s">
-        <v>0</v>
+      <c r="A566" s="15">
+        <v>2024</v>
+      </c>
+      <c r="B566" s="3" t="s">
+        <v>1135</v>
       </c>
       <c r="C566" s="3" t="s">
-        <v>1284</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A567" s="15" t="s">
-        <v>0</v>
+      <c r="A567" s="15">
+        <v>2024</v>
       </c>
       <c r="B567" s="3" t="s">
-        <v>1290</v>
+        <v>1137</v>
       </c>
       <c r="C567" s="3" t="s">
-        <v>1291</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A568" s="15" t="s">
-        <v>0</v>
+      <c r="A568" s="15">
+        <v>2024</v>
+      </c>
+      <c r="B568" s="3" t="s">
+        <v>1294</v>
       </c>
       <c r="C568" s="3" t="s">
-        <v>1287</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A569" s="15" t="s">
-        <v>0</v>
+      <c r="A569" s="15">
+        <v>2024</v>
       </c>
       <c r="B569" s="3" t="s">
-        <v>1263</v>
+        <v>1153</v>
       </c>
       <c r="C569" s="3" t="s">
-        <v>1159</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A570" s="15" t="s">
-        <v>0</v>
+      <c r="A570" s="15">
+        <v>2024</v>
       </c>
       <c r="B570" s="3" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="C570" s="3" t="s">
-        <v>1154</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A571" s="15" t="s">
-        <v>0</v>
+      <c r="A571" s="15">
+        <v>2024</v>
       </c>
       <c r="B571" s="3" t="s">
         <v>1271</v>
@@ -10690,10 +10828,190 @@
         <v>1270</v>
       </c>
     </row>
+    <row r="572" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A572" s="15">
+        <v>2024</v>
+      </c>
+      <c r="B572" s="3" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C572" s="3" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A573" s="15">
+        <v>2025</v>
+      </c>
+      <c r="B573" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C573" s="3" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A574" s="15">
+        <v>2025</v>
+      </c>
+      <c r="B574" s="3" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C574" s="3" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A575" s="15">
+        <v>2025</v>
+      </c>
+      <c r="B575" s="3" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C575" s="3" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A576" s="15">
+        <v>2025</v>
+      </c>
+      <c r="B576" s="3" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C576" s="3" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A577" s="15">
+        <v>2025</v>
+      </c>
+      <c r="B577" s="3" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C577" s="3" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A578" s="15">
+        <v>2025</v>
+      </c>
+      <c r="B578" s="3" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C578" s="3" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A579" s="15">
+        <v>2025</v>
+      </c>
+      <c r="B579" s="3" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C579" s="3" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A580" s="15">
+        <v>2025</v>
+      </c>
+      <c r="B580" s="3" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C580" s="3" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A581" s="15">
+        <v>2025</v>
+      </c>
+      <c r="B581" s="5" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C581" s="3" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A582" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C582" s="3" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A583" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C583" s="3" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A584" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C584" s="3" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A585" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B585" s="3" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C585" s="3" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A586" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B586" s="3" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C586" s="3" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A587" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C587" s="3" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A588" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C588" s="3" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A589" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C589" s="3" t="s">
+        <v>1335</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C571">
-    <sortCondition ref="A2:A571"/>
-    <sortCondition ref="C2:C571"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C586">
+    <sortCondition ref="A2:A586"/>
+    <sortCondition ref="C2:C586"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="Submetido">
@@ -10727,13 +11045,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A33" sqref="A33"/>
+      <selection pane="bottomRight" activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11089,25 +11407,58 @@
       <c r="A32" s="3">
         <v>2024</v>
       </c>
+      <c r="B32" s="3" t="s">
+        <v>1275</v>
+      </c>
       <c r="C32" s="3" t="s">
-        <v>1255</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>2024</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>1275</v>
-      </c>
       <c r="C33" s="3" t="s">
-        <v>1264</v>
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>1328</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C32">
-    <sortCondition ref="A2:A32"/>
-    <sortCondition ref="C2:C32"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C35">
+    <sortCondition ref="A2:A35"/>
+    <sortCondition ref="C2:C35"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="containsText" dxfId="7" priority="10" operator="containsText" text="Aceito">

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B231BF3D-9BF8-4B41-867E-FF20BE35DB69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE62200-D18B-9149-A115-1DC977B7C52A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="500" windowWidth="24920" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1366" uniqueCount="1336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="1338">
   <si>
     <t>Aceito</t>
   </si>
@@ -4054,6 +4054,12 @@
   </si>
   <si>
     <t>Adaptação transcultural da forma curta da ferramenta Healing Encounters and Atitudes Lists (HEAL) para o contexto brasileiro</t>
+  </si>
+  <si>
+    <t>Efficacy of Cognitive Functional Therapy for pain intensity and disability in patients with non-specific chronic low back pain: a randomised sham-controlled trial</t>
+  </si>
+  <si>
+    <t>Adaptations of the Autonomic Nervous System and Body Composition After 8 Weeks of Specific Training and Nutritional Re-education in Amateur Muay Thai Fighters: A Clinical Trial</t>
   </si>
 </sst>
 </file>
@@ -4547,13 +4553,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I589"/>
+  <dimension ref="A1:I591"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B560" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B561" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A589" sqref="A589"/>
+      <selection pane="bottomRight" activeCell="A591" sqref="A591"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11006,6 +11012,22 @@
       </c>
       <c r="C589" s="3" t="s">
         <v>1335</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A590" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C590" s="3" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A591" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C591" s="3" t="s">
+        <v>1337</v>
       </c>
     </row>
   </sheetData>

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE62200-D18B-9149-A115-1DC977B7C52A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB5D2B8-9E7F-B44E-89C8-E659BAC6DFBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="500" windowWidth="24920" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="1338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="1343">
   <si>
     <t>Aceito</t>
   </si>
@@ -4060,6 +4060,21 @@
   </si>
   <si>
     <t>Adaptations of the Autonomic Nervous System and Body Composition After 8 Weeks of Specific Training and Nutritional Re-education in Amateur Muay Thai Fighters: A Clinical Trial</t>
+  </si>
+  <si>
+    <t>Pulmonary function, body posture and balance in young adults with asthma: A cross-sectional study</t>
+  </si>
+  <si>
+    <t>10.1371/journal.pone.0316663</t>
+  </si>
+  <si>
+    <t>10.1016/j.bjpt.2025.101192</t>
+  </si>
+  <si>
+    <t>10.3390/sports13030072</t>
+  </si>
+  <si>
+    <t>10.1136/bjsports-2024-109012</t>
   </si>
 </sst>
 </file>
@@ -4553,13 +4568,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I591"/>
+  <dimension ref="A1:I592"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B561" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A591" sqref="A591"/>
+      <selection pane="bottomRight" activeCell="A592" sqref="A592"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10861,10 +10876,10 @@
         <v>2025</v>
       </c>
       <c r="B574" s="3" t="s">
-        <v>1331</v>
+        <v>1341</v>
       </c>
       <c r="C574" s="3" t="s">
-        <v>1332</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.2">
@@ -10872,10 +10887,10 @@
         <v>2025</v>
       </c>
       <c r="B575" s="3" t="s">
-        <v>1311</v>
+        <v>1331</v>
       </c>
       <c r="C575" s="3" t="s">
-        <v>1309</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.2">
@@ -10883,10 +10898,10 @@
         <v>2025</v>
       </c>
       <c r="B576" s="3" t="s">
-        <v>1296</v>
+        <v>1311</v>
       </c>
       <c r="C576" s="3" t="s">
-        <v>1297</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.2">
@@ -10894,10 +10909,10 @@
         <v>2025</v>
       </c>
       <c r="B577" s="3" t="s">
-        <v>1324</v>
+        <v>1296</v>
       </c>
       <c r="C577" s="3" t="s">
-        <v>1310</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.2">
@@ -10905,10 +10920,10 @@
         <v>2025</v>
       </c>
       <c r="B578" s="3" t="s">
-        <v>1306</v>
+        <v>1340</v>
       </c>
       <c r="C578" s="3" t="s">
-        <v>1305</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.2">
@@ -10916,10 +10931,10 @@
         <v>2025</v>
       </c>
       <c r="B579" s="3" t="s">
-        <v>1317</v>
+        <v>1324</v>
       </c>
       <c r="C579" s="3" t="s">
-        <v>1315</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.2">
@@ -10927,10 +10942,10 @@
         <v>2025</v>
       </c>
       <c r="B580" s="3" t="s">
-        <v>1302</v>
+        <v>1306</v>
       </c>
       <c r="C580" s="3" t="s">
-        <v>1301</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.2">
@@ -10938,56 +10953,62 @@
         <v>2025</v>
       </c>
       <c r="B581" s="5" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C581" s="3" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A582" s="15">
+        <v>2025</v>
+      </c>
+      <c r="B582" s="3" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C582" s="3" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A583" s="15">
+        <v>2025</v>
+      </c>
+      <c r="B583" s="3" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C583" s="3" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A584" s="15">
+        <v>2025</v>
+      </c>
+      <c r="B584" s="3" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C584" s="3" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A585" s="15">
+        <v>2025</v>
+      </c>
+      <c r="B585" s="3" t="s">
         <v>1330</v>
       </c>
-      <c r="C581" s="3" t="s">
+      <c r="C585" s="3" t="s">
         <v>1325</v>
-      </c>
-    </row>
-    <row r="582" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A582" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C582" s="3" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="583" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A583" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C583" s="3" t="s">
-        <v>1313</v>
-      </c>
-    </row>
-    <row r="584" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A584" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C584" s="3" t="s">
-        <v>1237</v>
-      </c>
-    </row>
-    <row r="585" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A585" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B585" s="3" t="s">
-        <v>1314</v>
-      </c>
-      <c r="C585" s="3" t="s">
-        <v>1284</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A586" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B586" s="3" t="s">
-        <v>1323</v>
-      </c>
       <c r="C586" s="3" t="s">
-        <v>1321</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.2">
@@ -10995,7 +11016,7 @@
         <v>0</v>
       </c>
       <c r="C587" s="3" t="s">
-        <v>1333</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.2">
@@ -11003,7 +11024,7 @@
         <v>0</v>
       </c>
       <c r="C588" s="3" t="s">
-        <v>1334</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.2">
@@ -11011,7 +11032,7 @@
         <v>0</v>
       </c>
       <c r="C589" s="3" t="s">
-        <v>1335</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.2">
@@ -11019,21 +11040,35 @@
         <v>0</v>
       </c>
       <c r="C590" s="3" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A591" s="15" t="s">
         <v>0</v>
       </c>
+      <c r="B591" s="3" t="s">
+        <v>1342</v>
+      </c>
       <c r="C591" s="3" t="s">
-        <v>1337</v>
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A592" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B592" s="3" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C592" s="3" t="s">
+        <v>1284</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C586">
-    <sortCondition ref="A2:A586"/>
-    <sortCondition ref="C2:C586"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C592">
+    <sortCondition ref="A2:A592"/>
+    <sortCondition ref="C2:C592"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="Submetido">

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB5D2B8-9E7F-B44E-89C8-E659BAC6DFBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646C7E3B-A786-7B40-B1DE-EED6BE260FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="500" windowWidth="24920" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="1343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="1345">
   <si>
     <t>Aceito</t>
   </si>
@@ -4075,6 +4075,12 @@
   </si>
   <si>
     <t>10.1136/bjsports-2024-109012</t>
+  </si>
+  <si>
+    <t>Wearing compression socks during running does not change physiological, running performance and perceptual outcomes: A systematic review with meta-analysis</t>
+  </si>
+  <si>
+    <t>Effect of cervical manipulation on blood pressure and heart rate variability responses in adults: A scoping review</t>
   </si>
 </sst>
 </file>
@@ -4568,13 +4574,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I592"/>
+  <dimension ref="A1:I594"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B561" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B564" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A592" sqref="A592"/>
+      <selection pane="bottomRight" activeCell="A594" sqref="A594"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11063,6 +11069,22 @@
       </c>
       <c r="C592" s="3" t="s">
         <v>1284</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A593" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C593" s="3" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A594" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C594" s="3" t="s">
+        <v>1344</v>
       </c>
     </row>
   </sheetData>

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646C7E3B-A786-7B40-B1DE-EED6BE260FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB4383C-E84C-6449-B47A-FF27006E6748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="500" windowWidth="24920" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="1345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1375" uniqueCount="1345">
   <si>
     <t>Aceito</t>
   </si>
@@ -4177,7 +4177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -4232,6 +4232,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4577,7 +4580,7 @@
   <dimension ref="A1:I594"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B564" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B563" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A594" sqref="A594"/>
@@ -10915,10 +10918,10 @@
         <v>2025</v>
       </c>
       <c r="B577" s="3" t="s">
-        <v>1296</v>
+        <v>1314</v>
       </c>
       <c r="C577" s="3" t="s">
-        <v>1297</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.2">
@@ -10926,10 +10929,10 @@
         <v>2025</v>
       </c>
       <c r="B578" s="3" t="s">
-        <v>1340</v>
+        <v>1296</v>
       </c>
       <c r="C578" s="3" t="s">
-        <v>1334</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.2">
@@ -10937,10 +10940,10 @@
         <v>2025</v>
       </c>
       <c r="B579" s="3" t="s">
-        <v>1324</v>
+        <v>1340</v>
       </c>
       <c r="C579" s="3" t="s">
-        <v>1310</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.2">
@@ -10948,10 +10951,10 @@
         <v>2025</v>
       </c>
       <c r="B580" s="3" t="s">
-        <v>1306</v>
+        <v>1324</v>
       </c>
       <c r="C580" s="3" t="s">
-        <v>1305</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.2">
@@ -10959,21 +10962,21 @@
         <v>2025</v>
       </c>
       <c r="B581" s="5" t="s">
-        <v>1317</v>
+        <v>1306</v>
       </c>
       <c r="C581" s="3" t="s">
-        <v>1315</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A582" s="15">
         <v>2025</v>
       </c>
-      <c r="B582" s="3" t="s">
-        <v>1302</v>
+      <c r="B582" s="19" t="s">
+        <v>1317</v>
       </c>
       <c r="C582" s="3" t="s">
-        <v>1301</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.2">
@@ -10981,10 +10984,10 @@
         <v>2025</v>
       </c>
       <c r="B583" s="3" t="s">
-        <v>1323</v>
+        <v>1302</v>
       </c>
       <c r="C583" s="3" t="s">
-        <v>1321</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.2">
@@ -10992,10 +10995,10 @@
         <v>2025</v>
       </c>
       <c r="B584" s="3" t="s">
-        <v>1339</v>
+        <v>1323</v>
       </c>
       <c r="C584" s="3" t="s">
-        <v>1338</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.2">
@@ -11003,18 +11006,21 @@
         <v>2025</v>
       </c>
       <c r="B585" s="3" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C585" s="3" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A586" s="15">
+        <v>2025</v>
+      </c>
+      <c r="B586" s="3" t="s">
         <v>1330</v>
       </c>
-      <c r="C585" s="3" t="s">
+      <c r="C586" s="3" t="s">
         <v>1325</v>
-      </c>
-    </row>
-    <row r="586" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A586" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C586" s="3" t="s">
-        <v>1304</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.2">
@@ -11022,7 +11028,7 @@
         <v>0</v>
       </c>
       <c r="C587" s="3" t="s">
-        <v>1335</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.2">
@@ -11030,7 +11036,7 @@
         <v>0</v>
       </c>
       <c r="C588" s="3" t="s">
-        <v>1313</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.2">
@@ -11038,7 +11044,7 @@
         <v>0</v>
       </c>
       <c r="C589" s="3" t="s">
-        <v>1237</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.2">
@@ -11046,37 +11052,34 @@
         <v>0</v>
       </c>
       <c r="C590" s="3" t="s">
-        <v>1333</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A591" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B591" s="3" t="s">
-        <v>1342</v>
-      </c>
       <c r="C591" s="3" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A592" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B592" s="3" t="s">
-        <v>1314</v>
-      </c>
       <c r="C592" s="3" t="s">
-        <v>1284</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A593" s="15" t="s">
         <v>0</v>
       </c>
+      <c r="B593" s="3" t="s">
+        <v>1342</v>
+      </c>
       <c r="C593" s="3" t="s">
-        <v>1343</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.2">
@@ -11084,13 +11087,13 @@
         <v>0</v>
       </c>
       <c r="C594" s="3" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C592">
-    <sortCondition ref="A2:A592"/>
-    <sortCondition ref="C2:C592"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C594">
+    <sortCondition ref="A2:A594"/>
+    <sortCondition ref="C2:C594"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="Submetido">

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB4383C-E84C-6449-B47A-FF27006E6748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273942E1-FFFA-6145-8568-7BDCCF4E8DA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="500" windowWidth="24920" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1375" uniqueCount="1345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1377" uniqueCount="1348">
   <si>
     <t>Aceito</t>
   </si>
@@ -3987,9 +3987,6 @@
     <t>"Despite the pain, I keep moving forward": A qualitative study on Brazilian older adults' experience with chronic low back pain</t>
   </si>
   <si>
-    <t>Association between functional impairments at hosptal discharge and shorte term barriers to cardiac rehabilitation in acute coronary syndrome: A longitudinal study</t>
-  </si>
-  <si>
     <t>10.1177/10538127241298551</t>
   </si>
   <si>
@@ -4081,6 +4078,18 @@
   </si>
   <si>
     <t>Effect of cervical manipulation on blood pressure and heart rate variability responses in adults: A scoping review</t>
+  </si>
+  <si>
+    <t>Association between functional impairments at hospital discharge and short-term barriers to cardiac rehabilitation in acute coronary syndrome: a longitudinal study</t>
+  </si>
+  <si>
+    <t>10.47066/2966-4837.2024.0008en</t>
+  </si>
+  <si>
+    <t>10.1152/advan.00034.2024</t>
+  </si>
+  <si>
+    <t>Collaborative online international learning in physiology: a case study</t>
   </si>
 </sst>
 </file>
@@ -4577,13 +4586,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I594"/>
+  <dimension ref="A1:I595"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B563" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B564" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A594" sqref="A594"/>
+      <selection pane="bottomRight" activeCell="A595" sqref="A595"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10250,10 +10259,10 @@
         <v>2024</v>
       </c>
       <c r="B516" s="3" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C516" s="3" t="s">
         <v>1326</v>
-      </c>
-      <c r="C516" s="3" t="s">
-        <v>1327</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.2">
@@ -10313,10 +10322,10 @@
         <v>2024</v>
       </c>
       <c r="B522" s="3" t="s">
-        <v>1157</v>
+        <v>1345</v>
       </c>
       <c r="C522" s="3" t="s">
-        <v>1158</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.2">
@@ -10324,10 +10333,10 @@
         <v>2024</v>
       </c>
       <c r="B523" s="3" t="s">
-        <v>1287</v>
+        <v>1157</v>
       </c>
       <c r="C523" s="3" t="s">
-        <v>1288</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.2">
@@ -10335,10 +10344,10 @@
         <v>2024</v>
       </c>
       <c r="B524" s="3" t="s">
-        <v>1223</v>
+        <v>1287</v>
       </c>
       <c r="C524" s="3" t="s">
-        <v>1224</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.2">
@@ -10346,10 +10355,10 @@
         <v>2024</v>
       </c>
       <c r="B525" s="3" t="s">
-        <v>1300</v>
+        <v>1223</v>
       </c>
       <c r="C525" s="3" t="s">
-        <v>1299</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.2">
@@ -10357,10 +10366,10 @@
         <v>2024</v>
       </c>
       <c r="B526" s="3" t="s">
-        <v>1111</v>
+        <v>1300</v>
       </c>
       <c r="C526" s="3" t="s">
-        <v>1112</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.2">
@@ -10368,10 +10377,10 @@
         <v>2024</v>
       </c>
       <c r="B527" s="3" t="s">
-        <v>1240</v>
+        <v>1111</v>
       </c>
       <c r="C527" s="3" t="s">
-        <v>1241</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.2">
@@ -10379,10 +10388,10 @@
         <v>2024</v>
       </c>
       <c r="B528" s="3" t="s">
-        <v>1265</v>
+        <v>1346</v>
       </c>
       <c r="C528" s="3" t="s">
-        <v>1260</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.2">
@@ -10390,10 +10399,10 @@
         <v>2024</v>
       </c>
       <c r="B529" s="3" t="s">
-        <v>1277</v>
+        <v>1240</v>
       </c>
       <c r="C529" s="3" t="s">
-        <v>1276</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.2">
@@ -10401,10 +10410,10 @@
         <v>2024</v>
       </c>
       <c r="B530" s="3" t="s">
-        <v>1139</v>
+        <v>1265</v>
       </c>
       <c r="C530" s="3" t="s">
-        <v>1134</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.2">
@@ -10412,10 +10421,10 @@
         <v>2024</v>
       </c>
       <c r="B531" s="3" t="s">
-        <v>1239</v>
+        <v>1277</v>
       </c>
       <c r="C531" s="3" t="s">
-        <v>1238</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.2">
@@ -10423,10 +10432,10 @@
         <v>2024</v>
       </c>
       <c r="B532" s="3" t="s">
-        <v>1254</v>
+        <v>1139</v>
       </c>
       <c r="C532" s="3" t="s">
-        <v>1253</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.2">
@@ -10434,10 +10443,10 @@
         <v>2024</v>
       </c>
       <c r="B533" s="3" t="s">
-        <v>1234</v>
+        <v>1239</v>
       </c>
       <c r="C533" s="3" t="s">
-        <v>1249</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.2">
@@ -10445,10 +10454,10 @@
         <v>2024</v>
       </c>
       <c r="B534" s="3" t="s">
-        <v>1078</v>
+        <v>1254</v>
       </c>
       <c r="C534" s="3" t="s">
-        <v>1077</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.2">
@@ -10456,10 +10465,10 @@
         <v>2024</v>
       </c>
       <c r="B535" s="3" t="s">
-        <v>1143</v>
+        <v>1234</v>
       </c>
       <c r="C535" s="3" t="s">
-        <v>1127</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.2">
@@ -10467,10 +10476,10 @@
         <v>2024</v>
       </c>
       <c r="B536" s="3" t="s">
-        <v>1118</v>
+        <v>1078</v>
       </c>
       <c r="C536" s="3" t="s">
-        <v>1115</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.2">
@@ -10478,10 +10487,10 @@
         <v>2024</v>
       </c>
       <c r="B537" s="3" t="s">
-        <v>1155</v>
+        <v>1143</v>
       </c>
       <c r="C537" s="3" t="s">
-        <v>1156</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.2">
@@ -10489,10 +10498,10 @@
         <v>2024</v>
       </c>
       <c r="B538" s="3" t="s">
-        <v>1225</v>
+        <v>1118</v>
       </c>
       <c r="C538" s="3" t="s">
-        <v>1226</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.2">
@@ -10500,10 +10509,10 @@
         <v>2024</v>
       </c>
       <c r="B539" s="3" t="s">
-        <v>1227</v>
+        <v>1155</v>
       </c>
       <c r="C539" s="3" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.2">
@@ -10511,10 +10520,10 @@
         <v>2024</v>
       </c>
       <c r="B540" s="3" t="s">
-        <v>1293</v>
+        <v>1225</v>
       </c>
       <c r="C540" s="3" t="s">
-        <v>1283</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.2">
@@ -10522,10 +10531,10 @@
         <v>2024</v>
       </c>
       <c r="B541" s="3" t="s">
-        <v>1152</v>
+        <v>1227</v>
       </c>
       <c r="C541" s="3" t="s">
-        <v>1151</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.2">
@@ -10533,10 +10542,10 @@
         <v>2024</v>
       </c>
       <c r="B542" s="3" t="s">
-        <v>1307</v>
+        <v>1293</v>
       </c>
       <c r="C542" s="3" t="s">
-        <v>1308</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.2">
@@ -10544,10 +10553,10 @@
         <v>2024</v>
       </c>
       <c r="B543" s="3" t="s">
-        <v>1161</v>
+        <v>1152</v>
       </c>
       <c r="C543" s="3" t="s">
-        <v>1114</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.2">
@@ -10555,10 +10564,10 @@
         <v>2024</v>
       </c>
       <c r="B544" s="3" t="s">
-        <v>1073</v>
+        <v>1307</v>
       </c>
       <c r="C544" s="3" t="s">
-        <v>1068</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.2">
@@ -10566,10 +10575,10 @@
         <v>2024</v>
       </c>
       <c r="B545" s="3" t="s">
-        <v>1289</v>
+        <v>1161</v>
       </c>
       <c r="C545" s="3" t="s">
-        <v>1290</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.2">
@@ -10577,10 +10586,10 @@
         <v>2024</v>
       </c>
       <c r="B546" s="3" t="s">
-        <v>1123</v>
+        <v>1073</v>
       </c>
       <c r="C546" s="3" t="s">
-        <v>1124</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.2">
@@ -10588,10 +10597,10 @@
         <v>2024</v>
       </c>
       <c r="B547" s="3" t="s">
-        <v>1126</v>
+        <v>1289</v>
       </c>
       <c r="C547" s="3" t="s">
-        <v>1125</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.2">
@@ -10599,10 +10608,10 @@
         <v>2024</v>
       </c>
       <c r="B548" s="3" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="C548" s="3" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.2">
@@ -10610,10 +10619,10 @@
         <v>2024</v>
       </c>
       <c r="B549" s="3" t="s">
-        <v>1279</v>
+        <v>1126</v>
       </c>
       <c r="C549" s="3" t="s">
-        <v>1278</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.2">
@@ -10621,10 +10630,10 @@
         <v>2024</v>
       </c>
       <c r="B550" s="3" t="s">
-        <v>1132</v>
+        <v>1122</v>
       </c>
       <c r="C550" s="3" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.2">
@@ -10632,10 +10641,10 @@
         <v>2024</v>
       </c>
       <c r="B551" s="3" t="s">
-        <v>1298</v>
+        <v>1279</v>
       </c>
       <c r="C551" s="3" t="s">
-        <v>1286</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.2">
@@ -10643,10 +10652,10 @@
         <v>2024</v>
       </c>
       <c r="B552" s="3" t="s">
-        <v>1142</v>
+        <v>1132</v>
       </c>
       <c r="C552" s="3" t="s">
-        <v>1141</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.2">
@@ -10654,10 +10663,10 @@
         <v>2024</v>
       </c>
       <c r="B553" s="3" t="s">
-        <v>1250</v>
+        <v>1298</v>
       </c>
       <c r="C553" s="3" t="s">
-        <v>1246</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.2">
@@ -10665,10 +10674,10 @@
         <v>2024</v>
       </c>
       <c r="B554" s="3" t="s">
-        <v>1131</v>
+        <v>1142</v>
       </c>
       <c r="C554" s="3" t="s">
-        <v>1130</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.2">
@@ -10676,10 +10685,10 @@
         <v>2024</v>
       </c>
       <c r="B555" s="3" t="s">
-        <v>1140</v>
+        <v>1250</v>
       </c>
       <c r="C555" s="3" t="s">
-        <v>1133</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.2">
@@ -10687,10 +10696,10 @@
         <v>2024</v>
       </c>
       <c r="B556" s="3" t="s">
-        <v>1266</v>
+        <v>1131</v>
       </c>
       <c r="C556" s="3" t="s">
-        <v>1267</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.2">
@@ -10698,10 +10707,10 @@
         <v>2024</v>
       </c>
       <c r="B557" s="3" t="s">
-        <v>1113</v>
+        <v>1140</v>
       </c>
       <c r="C557" s="3" t="s">
-        <v>1110</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.2">
@@ -10709,10 +10718,10 @@
         <v>2024</v>
       </c>
       <c r="B558" s="3" t="s">
-        <v>1263</v>
+        <v>1266</v>
       </c>
       <c r="C558" s="3" t="s">
-        <v>1159</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.2">
@@ -10720,21 +10729,21 @@
         <v>2024</v>
       </c>
       <c r="B559" s="3" t="s">
-        <v>1252</v>
+        <v>1113</v>
       </c>
       <c r="C559" s="3" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="560" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A560" s="15">
         <v>2024</v>
       </c>
       <c r="B560" s="3" t="s">
-        <v>1282</v>
-      </c>
-      <c r="C560" s="18" t="s">
-        <v>1281</v>
+        <v>1263</v>
+      </c>
+      <c r="C560" s="3" t="s">
+        <v>1159</v>
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.2">
@@ -10742,21 +10751,21 @@
         <v>2024</v>
       </c>
       <c r="B561" s="3" t="s">
-        <v>1230</v>
+        <v>1252</v>
       </c>
       <c r="C561" s="3" t="s">
-        <v>1231</v>
-      </c>
-    </row>
-    <row r="562" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A562" s="15">
         <v>2024</v>
       </c>
       <c r="B562" s="3" t="s">
-        <v>1247</v>
-      </c>
-      <c r="C562" s="3" t="s">
-        <v>1248</v>
+        <v>1282</v>
+      </c>
+      <c r="C562" s="18" t="s">
+        <v>1281</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.2">
@@ -10764,10 +10773,10 @@
         <v>2024</v>
       </c>
       <c r="B563" s="3" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="C563" s="3" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.2">
@@ -10775,10 +10784,10 @@
         <v>2024</v>
       </c>
       <c r="B564" s="3" t="s">
-        <v>1150</v>
+        <v>1247</v>
       </c>
       <c r="C564" s="3" t="s">
-        <v>1149</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.2">
@@ -10786,10 +10795,10 @@
         <v>2024</v>
       </c>
       <c r="B565" s="3" t="s">
-        <v>1291</v>
+        <v>1232</v>
       </c>
       <c r="C565" s="3" t="s">
-        <v>1292</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.2">
@@ -10797,10 +10806,10 @@
         <v>2024</v>
       </c>
       <c r="B566" s="3" t="s">
-        <v>1135</v>
+        <v>1150</v>
       </c>
       <c r="C566" s="3" t="s">
-        <v>1136</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.2">
@@ -10808,10 +10817,10 @@
         <v>2024</v>
       </c>
       <c r="B567" s="3" t="s">
-        <v>1137</v>
+        <v>1291</v>
       </c>
       <c r="C567" s="3" t="s">
-        <v>1138</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.2">
@@ -10819,10 +10828,10 @@
         <v>2024</v>
       </c>
       <c r="B568" s="3" t="s">
-        <v>1294</v>
+        <v>1135</v>
       </c>
       <c r="C568" s="3" t="s">
-        <v>1295</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.2">
@@ -10830,10 +10839,10 @@
         <v>2024</v>
       </c>
       <c r="B569" s="3" t="s">
-        <v>1153</v>
+        <v>1137</v>
       </c>
       <c r="C569" s="3" t="s">
-        <v>1154</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.2">
@@ -10841,10 +10850,10 @@
         <v>2024</v>
       </c>
       <c r="B570" s="3" t="s">
-        <v>1148</v>
+        <v>1294</v>
       </c>
       <c r="C570" s="3" t="s">
-        <v>1147</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.2">
@@ -10852,10 +10861,10 @@
         <v>2024</v>
       </c>
       <c r="B571" s="3" t="s">
-        <v>1271</v>
+        <v>1153</v>
       </c>
       <c r="C571" s="3" t="s">
-        <v>1270</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.2">
@@ -10863,43 +10872,43 @@
         <v>2024</v>
       </c>
       <c r="B572" s="3" t="s">
-        <v>1145</v>
+        <v>1148</v>
       </c>
       <c r="C572" s="3" t="s">
-        <v>1144</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A573" s="15">
-        <v>2025</v>
-      </c>
-      <c r="B573" t="s">
-        <v>1322</v>
+        <v>2024</v>
+      </c>
+      <c r="B573" s="3" t="s">
+        <v>1271</v>
       </c>
       <c r="C573" s="3" t="s">
-        <v>1312</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A574" s="15">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B574" s="3" t="s">
-        <v>1341</v>
+        <v>1145</v>
       </c>
       <c r="C574" s="3" t="s">
-        <v>1337</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A575" s="15">
         <v>2025</v>
       </c>
-      <c r="B575" s="3" t="s">
-        <v>1331</v>
+      <c r="B575" t="s">
+        <v>1321</v>
       </c>
       <c r="C575" s="3" t="s">
-        <v>1332</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.2">
@@ -10907,10 +10916,10 @@
         <v>2025</v>
       </c>
       <c r="B576" s="3" t="s">
-        <v>1311</v>
+        <v>1340</v>
       </c>
       <c r="C576" s="3" t="s">
-        <v>1309</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.2">
@@ -10918,10 +10927,10 @@
         <v>2025</v>
       </c>
       <c r="B577" s="3" t="s">
-        <v>1314</v>
+        <v>1330</v>
       </c>
       <c r="C577" s="3" t="s">
-        <v>1284</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.2">
@@ -10929,10 +10938,10 @@
         <v>2025</v>
       </c>
       <c r="B578" s="3" t="s">
-        <v>1296</v>
+        <v>1311</v>
       </c>
       <c r="C578" s="3" t="s">
-        <v>1297</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.2">
@@ -10940,10 +10949,10 @@
         <v>2025</v>
       </c>
       <c r="B579" s="3" t="s">
-        <v>1340</v>
+        <v>1313</v>
       </c>
       <c r="C579" s="3" t="s">
-        <v>1334</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.2">
@@ -10951,10 +10960,10 @@
         <v>2025</v>
       </c>
       <c r="B580" s="3" t="s">
-        <v>1324</v>
+        <v>1296</v>
       </c>
       <c r="C580" s="3" t="s">
-        <v>1310</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.2">
@@ -10962,10 +10971,10 @@
         <v>2025</v>
       </c>
       <c r="B581" s="5" t="s">
-        <v>1306</v>
+        <v>1339</v>
       </c>
       <c r="C581" s="3" t="s">
-        <v>1305</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.2">
@@ -10973,10 +10982,10 @@
         <v>2025</v>
       </c>
       <c r="B582" s="19" t="s">
-        <v>1317</v>
+        <v>1323</v>
       </c>
       <c r="C582" s="3" t="s">
-        <v>1315</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.2">
@@ -10984,10 +10993,10 @@
         <v>2025</v>
       </c>
       <c r="B583" s="3" t="s">
-        <v>1302</v>
+        <v>1306</v>
       </c>
       <c r="C583" s="3" t="s">
-        <v>1301</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.2">
@@ -10995,10 +11004,10 @@
         <v>2025</v>
       </c>
       <c r="B584" s="3" t="s">
-        <v>1323</v>
+        <v>1316</v>
       </c>
       <c r="C584" s="3" t="s">
-        <v>1321</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.2">
@@ -11006,10 +11015,10 @@
         <v>2025</v>
       </c>
       <c r="B585" s="3" t="s">
-        <v>1339</v>
+        <v>1302</v>
       </c>
       <c r="C585" s="3" t="s">
-        <v>1338</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.2">
@@ -11017,26 +11026,32 @@
         <v>2025</v>
       </c>
       <c r="B586" s="3" t="s">
-        <v>1330</v>
+        <v>1322</v>
       </c>
       <c r="C586" s="3" t="s">
-        <v>1325</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A587" s="15" t="s">
-        <v>0</v>
+      <c r="A587" s="15">
+        <v>2025</v>
+      </c>
+      <c r="B587" s="3" t="s">
+        <v>1338</v>
       </c>
       <c r="C587" s="3" t="s">
-        <v>1304</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A588" s="15" t="s">
-        <v>0</v>
+      <c r="A588" s="15">
+        <v>2025</v>
+      </c>
+      <c r="B588" s="3" t="s">
+        <v>1329</v>
       </c>
       <c r="C588" s="3" t="s">
-        <v>1335</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.2">
@@ -11044,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="C589" s="3" t="s">
-        <v>1313</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.2">
@@ -11052,7 +11067,7 @@
         <v>0</v>
       </c>
       <c r="C590" s="3" t="s">
-        <v>1237</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.2">
@@ -11060,7 +11075,7 @@
         <v>0</v>
       </c>
       <c r="C591" s="3" t="s">
-        <v>1333</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.2">
@@ -11068,32 +11083,40 @@
         <v>0</v>
       </c>
       <c r="C592" s="3" t="s">
-        <v>1344</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A593" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B593" s="3" t="s">
-        <v>1342</v>
-      </c>
       <c r="C593" s="3" t="s">
-        <v>1336</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A594" s="15" t="s">
         <v>0</v>
       </c>
+      <c r="B594" s="3" t="s">
+        <v>1341</v>
+      </c>
       <c r="C594" s="3" t="s">
-        <v>1343</v>
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A595" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C595" s="3" t="s">
+        <v>1342</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C594">
-    <sortCondition ref="A2:A594"/>
-    <sortCondition ref="C2:C594"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C595">
+    <sortCondition ref="A2:A595"/>
+    <sortCondition ref="C2:C595"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="Submetido">
@@ -11509,10 +11532,10 @@
         <v>2025</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>1319</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>1320</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -11520,10 +11543,10 @@
         <v>2025</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -11531,10 +11554,10 @@
         <v>2025</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
   </sheetData>

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273942E1-FFFA-6145-8568-7BDCCF4E8DA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E1389A9-4B48-F64D-A27D-0FC79D18CA86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="500" windowWidth="24920" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1377" uniqueCount="1348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1381" uniqueCount="1353">
   <si>
     <t>Aceito</t>
   </si>
@@ -4090,6 +4090,21 @@
   </si>
   <si>
     <t>Collaborative online international learning in physiology: a case study</t>
+  </si>
+  <si>
+    <t>10.3344/kjp.24332</t>
+  </si>
+  <si>
+    <t>Effectiveness of intramuscular electrical stimulation using conventional and inverse electrode placement methods on pressure pain threshold and electromyographic activity of the upper trapezius muscle with myofascial trigger points: a randomized clinical trial</t>
+  </si>
+  <si>
+    <t>Influence of kinesiophobia on lumbar position sense in patients with chronic low back pain—a case-control study</t>
+  </si>
+  <si>
+    <t>10.1177/10538127251326152</t>
+  </si>
+  <si>
+    <t>10.1016/j.jbmt.2025.03.023</t>
   </si>
 </sst>
 </file>
@@ -4186,7 +4201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -4241,9 +4256,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4586,13 +4598,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I595"/>
+  <dimension ref="A1:I597"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B564" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B566" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A595" sqref="A595"/>
+      <selection pane="bottomRight" activeCell="A597" sqref="A597"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10949,10 +10961,10 @@
         <v>2025</v>
       </c>
       <c r="B579" s="3" t="s">
-        <v>1313</v>
+        <v>1352</v>
       </c>
       <c r="C579" s="3" t="s">
-        <v>1284</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.2">
@@ -10960,10 +10972,10 @@
         <v>2025</v>
       </c>
       <c r="B580" s="3" t="s">
-        <v>1296</v>
+        <v>1348</v>
       </c>
       <c r="C580" s="3" t="s">
-        <v>1297</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.2">
@@ -10971,21 +10983,21 @@
         <v>2025</v>
       </c>
       <c r="B581" s="5" t="s">
-        <v>1339</v>
+        <v>1313</v>
       </c>
       <c r="C581" s="3" t="s">
-        <v>1333</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A582" s="15">
         <v>2025</v>
       </c>
-      <c r="B582" s="19" t="s">
-        <v>1323</v>
+      <c r="B582" s="3" t="s">
+        <v>1296</v>
       </c>
       <c r="C582" s="3" t="s">
-        <v>1310</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.2">
@@ -10993,10 +11005,10 @@
         <v>2025</v>
       </c>
       <c r="B583" s="3" t="s">
-        <v>1306</v>
+        <v>1351</v>
       </c>
       <c r="C583" s="3" t="s">
-        <v>1305</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.2">
@@ -11004,10 +11016,10 @@
         <v>2025</v>
       </c>
       <c r="B584" s="3" t="s">
-        <v>1316</v>
+        <v>1339</v>
       </c>
       <c r="C584" s="3" t="s">
-        <v>1314</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.2">
@@ -11015,10 +11027,10 @@
         <v>2025</v>
       </c>
       <c r="B585" s="3" t="s">
-        <v>1302</v>
+        <v>1323</v>
       </c>
       <c r="C585" s="3" t="s">
-        <v>1301</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.2">
@@ -11026,10 +11038,10 @@
         <v>2025</v>
       </c>
       <c r="B586" s="3" t="s">
-        <v>1322</v>
+        <v>1306</v>
       </c>
       <c r="C586" s="3" t="s">
-        <v>1320</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.2">
@@ -11037,10 +11049,10 @@
         <v>2025</v>
       </c>
       <c r="B587" s="3" t="s">
-        <v>1338</v>
+        <v>1316</v>
       </c>
       <c r="C587" s="3" t="s">
-        <v>1337</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.2">
@@ -11048,34 +11060,43 @@
         <v>2025</v>
       </c>
       <c r="B588" s="3" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C588" s="3" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A589" s="15">
+        <v>2025</v>
+      </c>
+      <c r="B589" s="3" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C589" s="3" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A590" s="15">
+        <v>2025</v>
+      </c>
+      <c r="B590" s="3" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C590" s="3" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A591" s="15">
+        <v>2025</v>
+      </c>
+      <c r="B591" s="3" t="s">
         <v>1329</v>
       </c>
-      <c r="C588" s="3" t="s">
+      <c r="C591" s="3" t="s">
         <v>1324</v>
-      </c>
-    </row>
-    <row r="589" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A589" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C589" s="3" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="590" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A590" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C590" s="3" t="s">
-        <v>1334</v>
-      </c>
-    </row>
-    <row r="591" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A591" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C591" s="3" t="s">
-        <v>1237</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.2">
@@ -11083,7 +11104,7 @@
         <v>0</v>
       </c>
       <c r="C592" s="3" t="s">
-        <v>1332</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.2">
@@ -11091,18 +11112,15 @@
         <v>0</v>
       </c>
       <c r="C593" s="3" t="s">
-        <v>1343</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A594" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B594" s="3" t="s">
-        <v>1341</v>
-      </c>
       <c r="C594" s="3" t="s">
-        <v>1335</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.2">
@@ -11110,13 +11128,32 @@
         <v>0</v>
       </c>
       <c r="C595" s="3" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A596" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B596" s="3" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C596" s="3" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A597" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C597" s="3" t="s">
         <v>1342</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C595">
-    <sortCondition ref="A2:A595"/>
-    <sortCondition ref="C2:C595"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C597">
+    <sortCondition ref="A2:A597"/>
+    <sortCondition ref="C2:C597"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="Submetido">
@@ -11153,7 +11190,7 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="A36" sqref="A36"/>

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (arthur_sf)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E1389A9-4B48-F64D-A27D-0FC79D18CA86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E752EE0D-56DB-9E43-8BBB-C7A72D680FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="500" windowWidth="24920" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1381" uniqueCount="1353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1381" uniqueCount="1354">
   <si>
     <t>Aceito</t>
   </si>
@@ -3960,9 +3960,6 @@
     <t>10.1016/j.apunsm.2024.100460</t>
   </si>
   <si>
-    <t>[BJoP (Igor, Gustavo, Ney)</t>
-  </si>
-  <si>
     <t>Neck pain and text neck using Hill's criteria of causation: Scoping review</t>
   </si>
   <si>
@@ -4105,6 +4102,12 @@
   </si>
   <si>
     <t>10.1016/j.jbmt.2025.03.023</t>
+  </si>
+  <si>
+    <t>10.63231/2595-0118.20250003-en</t>
+  </si>
+  <si>
+    <t>Prevalence of musculoskeletal pain and associated factors in footvolley players in Brazil</t>
   </si>
 </sst>
 </file>
@@ -10271,10 +10274,10 @@
         <v>2024</v>
       </c>
       <c r="B516" s="3" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C516" s="3" t="s">
         <v>1325</v>
-      </c>
-      <c r="C516" s="3" t="s">
-        <v>1326</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.2">
@@ -10334,10 +10337,10 @@
         <v>2024</v>
       </c>
       <c r="B522" s="3" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="C522" s="3" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.2">
@@ -10400,10 +10403,10 @@
         <v>2024</v>
       </c>
       <c r="B528" s="3" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C528" s="3" t="s">
         <v>1346</v>
-      </c>
-      <c r="C528" s="3" t="s">
-        <v>1347</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.2">
@@ -10576,10 +10579,10 @@
         <v>2024</v>
       </c>
       <c r="B544" s="3" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C544" s="3" t="s">
         <v>1307</v>
-      </c>
-      <c r="C544" s="3" t="s">
-        <v>1308</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.2">
@@ -10917,10 +10920,10 @@
         <v>2025</v>
       </c>
       <c r="B575" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="C575" s="3" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.2">
@@ -10928,10 +10931,10 @@
         <v>2025</v>
       </c>
       <c r="B576" s="3" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="C576" s="3" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.2">
@@ -10939,10 +10942,10 @@
         <v>2025</v>
       </c>
       <c r="B577" s="3" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C577" s="3" t="s">
         <v>1330</v>
-      </c>
-      <c r="C577" s="3" t="s">
-        <v>1331</v>
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.2">
@@ -10950,10 +10953,10 @@
         <v>2025</v>
       </c>
       <c r="B578" s="3" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="C578" s="3" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.2">
@@ -10961,10 +10964,10 @@
         <v>2025</v>
       </c>
       <c r="B579" s="3" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="C579" s="3" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.2">
@@ -10972,10 +10975,10 @@
         <v>2025</v>
       </c>
       <c r="B580" s="3" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C580" s="3" t="s">
         <v>1348</v>
-      </c>
-      <c r="C580" s="3" t="s">
-        <v>1349</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.2">
@@ -10983,7 +10986,7 @@
         <v>2025</v>
       </c>
       <c r="B581" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="C581" s="3" t="s">
         <v>1284</v>
@@ -11005,10 +11008,10 @@
         <v>2025</v>
       </c>
       <c r="B583" s="3" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="C583" s="3" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.2">
@@ -11016,10 +11019,10 @@
         <v>2025</v>
       </c>
       <c r="B584" s="3" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="C584" s="3" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.2">
@@ -11027,10 +11030,10 @@
         <v>2025</v>
       </c>
       <c r="B585" s="3" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="C585" s="3" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.2">
@@ -11038,10 +11041,10 @@
         <v>2025</v>
       </c>
       <c r="B586" s="3" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="C586" s="3" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.2">
@@ -11049,10 +11052,10 @@
         <v>2025</v>
       </c>
       <c r="B587" s="3" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="C587" s="3" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.2">
@@ -11071,10 +11074,10 @@
         <v>2025</v>
       </c>
       <c r="B589" s="3" t="s">
-        <v>1322</v>
+        <v>1352</v>
       </c>
       <c r="C589" s="3" t="s">
-        <v>1320</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.2">
@@ -11082,10 +11085,10 @@
         <v>2025</v>
       </c>
       <c r="B590" s="3" t="s">
-        <v>1338</v>
+        <v>1321</v>
       </c>
       <c r="C590" s="3" t="s">
-        <v>1337</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.2">
@@ -11093,18 +11096,21 @@
         <v>2025</v>
       </c>
       <c r="B591" s="3" t="s">
-        <v>1329</v>
+        <v>1337</v>
       </c>
       <c r="C591" s="3" t="s">
-        <v>1324</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A592" s="15" t="s">
-        <v>0</v>
+      <c r="A592" s="15">
+        <v>2025</v>
+      </c>
+      <c r="B592" s="3" t="s">
+        <v>1328</v>
       </c>
       <c r="C592" s="3" t="s">
-        <v>1304</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.2">
@@ -11112,7 +11118,7 @@
         <v>0</v>
       </c>
       <c r="C593" s="3" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.2">
@@ -11128,7 +11134,7 @@
         <v>0</v>
       </c>
       <c r="C595" s="3" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.2">
@@ -11136,10 +11142,10 @@
         <v>0</v>
       </c>
       <c r="B596" s="3" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="C596" s="3" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.2">
@@ -11147,7 +11153,7 @@
         <v>0</v>
       </c>
       <c r="C597" s="3" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
   </sheetData>
@@ -11569,10 +11575,10 @@
         <v>2025</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>1318</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>1319</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -11580,10 +11586,10 @@
         <v>2025</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -11591,10 +11597,10 @@
         <v>2025</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
   </sheetData>

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (arthur_sf)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E752EE0D-56DB-9E43-8BBB-C7A72D680FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C1E7CC9-AA9C-DB4B-BA1B-842D07781F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="500" windowWidth="24920" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1381" uniqueCount="1354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="1355">
   <si>
     <t>Aceito</t>
   </si>
@@ -4108,6 +4108,9 @@
   </si>
   <si>
     <t>Prevalence of musculoskeletal pain and associated factors in footvolley players in Brazil</t>
+  </si>
+  <si>
+    <t>Imagen corporal, insatisfacción y trastorno dsmórfico: Análisys contextual entre estudiantes universitarios a partir de uma revisióm narrativa</t>
   </si>
 </sst>
 </file>
@@ -4601,13 +4604,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I597"/>
+  <dimension ref="A1:I598"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B566" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B569" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A597" sqref="A597"/>
+      <selection pane="bottomRight" activeCell="A598" sqref="A598"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11154,6 +11157,14 @@
       </c>
       <c r="C597" s="3" t="s">
         <v>1341</v>
+      </c>
+    </row>
+    <row r="598" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A598" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C598" s="3" t="s">
+        <v>1354</v>
       </c>
     </row>
   </sheetData>

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C1E7CC9-AA9C-DB4B-BA1B-842D07781F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F45CE5-D5AF-294F-820A-4A5B7D3CBED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="500" windowWidth="24920" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="artigos-completos" sheetId="4" r:id="rId1"/>
-    <sheet name="editorias" sheetId="5" r:id="rId2"/>
+    <sheet name="editoração" sheetId="5" r:id="rId2"/>
     <sheet name="livros" sheetId="6" r:id="rId3"/>
     <sheet name="trabalhos-anais" sheetId="8" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'artigos-completos'!$A$1:$C$556</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">editorias!$A$1:$C$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">editoração!$A$1:$C$29</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'trabalhos-anais'!$A$1:$C$38</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="1355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="1357">
   <si>
     <t>Aceito</t>
   </si>
@@ -4111,6 +4111,12 @@
   </si>
   <si>
     <t>Imagen corporal, insatisfacción y trastorno dsmórfico: Análisys contextual entre estudiantes universitarios a partir de uma revisióm narrativa</t>
+  </si>
+  <si>
+    <t>Equilíbrio, Velocidade da Marcha e Força Funcional em Indivíduos comAtaxia Espinocerebelar e Controles Saudáveis: um Estudo Transversal sobre a Gravidade da Doença</t>
+  </si>
+  <si>
+    <t>The effectiveness of progressions of difficulty during an exercise program to improve balance and gait in elderly people: a randomized clinical trial</t>
   </si>
 </sst>
 </file>
@@ -4604,13 +4610,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I598"/>
+  <dimension ref="A1:I600"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B569" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B570" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A598" sqref="A598"/>
+      <selection pane="bottomRight" activeCell="A600" sqref="A600"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11165,6 +11171,22 @@
       </c>
       <c r="C598" s="3" t="s">
         <v>1354</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A599" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C599" s="3" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A600" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C600" s="3" t="s">
+        <v>1356</v>
       </c>
     </row>
   </sheetData>

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F45CE5-D5AF-294F-820A-4A5B7D3CBED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D7915E-F993-2B42-ACB7-3AFD130A6550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="500" windowWidth="24920" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="1357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="1358">
   <si>
     <t>Aceito</t>
   </si>
@@ -4117,6 +4117,9 @@
   </si>
   <si>
     <t>The effectiveness of progressions of difficulty during an exercise program to improve balance and gait in elderly people: a randomized clinical trial</t>
+  </si>
+  <si>
+    <t>10.46642/efd.v30i323.8016</t>
   </si>
 </sst>
 </file>
@@ -4613,7 +4616,7 @@
   <dimension ref="A1:I600"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B570" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B569" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A600" sqref="A600"/>
@@ -11017,10 +11020,10 @@
         <v>2025</v>
       </c>
       <c r="B583" s="3" t="s">
-        <v>1350</v>
+        <v>1357</v>
       </c>
       <c r="C583" s="3" t="s">
-        <v>1349</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.2">
@@ -11028,10 +11031,10 @@
         <v>2025</v>
       </c>
       <c r="B584" s="3" t="s">
-        <v>1338</v>
+        <v>1350</v>
       </c>
       <c r="C584" s="3" t="s">
-        <v>1332</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.2">
@@ -11039,10 +11042,10 @@
         <v>2025</v>
       </c>
       <c r="B585" s="3" t="s">
-        <v>1322</v>
+        <v>1338</v>
       </c>
       <c r="C585" s="3" t="s">
-        <v>1309</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.2">
@@ -11050,10 +11053,10 @@
         <v>2025</v>
       </c>
       <c r="B586" s="3" t="s">
-        <v>1305</v>
+        <v>1322</v>
       </c>
       <c r="C586" s="3" t="s">
-        <v>1304</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.2">
@@ -11061,10 +11064,10 @@
         <v>2025</v>
       </c>
       <c r="B587" s="3" t="s">
-        <v>1315</v>
+        <v>1305</v>
       </c>
       <c r="C587" s="3" t="s">
-        <v>1313</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.2">
@@ -11072,10 +11075,10 @@
         <v>2025</v>
       </c>
       <c r="B588" s="3" t="s">
-        <v>1302</v>
+        <v>1315</v>
       </c>
       <c r="C588" s="3" t="s">
-        <v>1301</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.2">
@@ -11083,10 +11086,10 @@
         <v>2025</v>
       </c>
       <c r="B589" s="3" t="s">
-        <v>1352</v>
+        <v>1302</v>
       </c>
       <c r="C589" s="3" t="s">
-        <v>1353</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.2">
@@ -11094,10 +11097,10 @@
         <v>2025</v>
       </c>
       <c r="B590" s="3" t="s">
-        <v>1321</v>
+        <v>1352</v>
       </c>
       <c r="C590" s="3" t="s">
-        <v>1319</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.2">
@@ -11105,10 +11108,10 @@
         <v>2025</v>
       </c>
       <c r="B591" s="3" t="s">
-        <v>1337</v>
+        <v>1321</v>
       </c>
       <c r="C591" s="3" t="s">
-        <v>1336</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.2">
@@ -11116,18 +11119,21 @@
         <v>2025</v>
       </c>
       <c r="B592" s="3" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C592" s="3" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A593" s="15">
+        <v>2025</v>
+      </c>
+      <c r="B593" s="3" t="s">
         <v>1328</v>
       </c>
-      <c r="C592" s="3" t="s">
+      <c r="C593" s="3" t="s">
         <v>1323</v>
-      </c>
-    </row>
-    <row r="593" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A593" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C593" s="3" t="s">
-        <v>1333</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.2">
@@ -11135,7 +11141,7 @@
         <v>0</v>
       </c>
       <c r="C594" s="3" t="s">
-        <v>1237</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.2">
@@ -11143,26 +11149,26 @@
         <v>0</v>
       </c>
       <c r="C595" s="3" t="s">
-        <v>1331</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A596" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B596" s="3" t="s">
-        <v>1340</v>
-      </c>
       <c r="C596" s="3" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A597" s="15" t="s">
         <v>0</v>
       </c>
+      <c r="B597" s="3" t="s">
+        <v>1340</v>
+      </c>
       <c r="C597" s="3" t="s">
-        <v>1341</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.2">
@@ -11170,7 +11176,7 @@
         <v>0</v>
       </c>
       <c r="C598" s="3" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.2">
@@ -11178,7 +11184,7 @@
         <v>0</v>
       </c>
       <c r="C599" s="3" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.2">
@@ -11186,13 +11192,13 @@
         <v>0</v>
       </c>
       <c r="C600" s="3" t="s">
-        <v>1356</v>
+        <v>1341</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C597">
-    <sortCondition ref="A2:A597"/>
-    <sortCondition ref="C2:C597"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C600">
+    <sortCondition ref="A2:A600"/>
+    <sortCondition ref="C2:C600"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="Submetido">

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D7915E-F993-2B42-ACB7-3AFD130A6550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6FA70BC-280F-9D45-8BEB-7422B76CA42B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="500" windowWidth="24920" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="1358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="1359">
   <si>
     <t>Aceito</t>
   </si>
@@ -4120,6 +4120,9 @@
   </si>
   <si>
     <t>10.46642/efd.v30i323.8016</t>
+  </si>
+  <si>
+    <t>10.1123/jsr.2024-0410</t>
   </si>
 </sst>
 </file>
@@ -4616,7 +4619,7 @@
   <dimension ref="A1:I600"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B569" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B570" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A600" sqref="A600"/>
@@ -11190,6 +11193,9 @@
     <row r="600" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A600" s="15" t="s">
         <v>0</v>
+      </c>
+      <c r="B600" s="3" t="s">
+        <v>1358</v>
       </c>
       <c r="C600" s="3" t="s">
         <v>1341</v>

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6FA70BC-280F-9D45-8BEB-7422B76CA42B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD689612-C5DE-8D45-8EBC-62C056AF2C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="500" windowWidth="24920" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="1359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="1360">
   <si>
     <t>Aceito</t>
   </si>
@@ -4123,6 +4123,9 @@
   </si>
   <si>
     <t>10.1123/jsr.2024-0410</t>
+  </si>
+  <si>
+    <t>Relationships between performance in the frequency kick speed test, heart rate variability, and body composition in amateur Muay Thai fighters</t>
   </si>
 </sst>
 </file>
@@ -4616,13 +4619,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I600"/>
+  <dimension ref="A1:I601"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B570" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B572" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A600" sqref="A600"/>
+      <selection pane="bottomRight" activeCell="A601" sqref="A601"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11199,6 +11202,14 @@
       </c>
       <c r="C600" s="3" t="s">
         <v>1341</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A601" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C601" s="3" t="s">
+        <v>1359</v>
       </c>
     </row>
   </sheetData>

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD689612-C5DE-8D45-8EBC-62C056AF2C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3769D6F-D3C2-F444-8191-680A79EB2736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="500" windowWidth="24920" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="1360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="1362">
   <si>
     <t>Aceito</t>
   </si>
@@ -4126,13 +4126,19 @@
   </si>
   <si>
     <t>Relationships between performance in the frequency kick speed test, heart rate variability, and body composition in amateur Muay Thai fighters</t>
+  </si>
+  <si>
+    <t>Cross-cultural adaptation of the short form of the Healing Encounters and Attitudes Lists tool for the Brazilian context: pilot study</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.63231/2595-0118.20250016-em</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4162,6 +4168,14 @@
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -4219,10 +4233,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -4278,8 +4293,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
@@ -4619,13 +4641,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I601"/>
+  <dimension ref="A1:I602"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B572" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B571" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A601" sqref="A601"/>
+      <selection pane="bottomRight" activeCell="A602" sqref="A602"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10981,11 +11003,11 @@
       <c r="A579" s="15">
         <v>2025</v>
       </c>
-      <c r="B579" s="3" t="s">
-        <v>1351</v>
+      <c r="B579" s="19" t="s">
+        <v>1361</v>
       </c>
       <c r="C579" s="3" t="s">
-        <v>1342</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.2">
@@ -10993,10 +11015,10 @@
         <v>2025</v>
       </c>
       <c r="B580" s="3" t="s">
-        <v>1347</v>
+        <v>1351</v>
       </c>
       <c r="C580" s="3" t="s">
-        <v>1348</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.2">
@@ -11004,21 +11026,21 @@
         <v>2025</v>
       </c>
       <c r="B581" s="5" t="s">
-        <v>1312</v>
+        <v>1347</v>
       </c>
       <c r="C581" s="3" t="s">
-        <v>1284</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A582" s="15">
         <v>2025</v>
       </c>
-      <c r="B582" s="3" t="s">
-        <v>1296</v>
+      <c r="B582" s="20" t="s">
+        <v>1312</v>
       </c>
       <c r="C582" s="3" t="s">
-        <v>1297</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.2">
@@ -11026,10 +11048,10 @@
         <v>2025</v>
       </c>
       <c r="B583" s="3" t="s">
-        <v>1357</v>
+        <v>1296</v>
       </c>
       <c r="C583" s="3" t="s">
-        <v>1354</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.2">
@@ -11037,10 +11059,10 @@
         <v>2025</v>
       </c>
       <c r="B584" s="3" t="s">
-        <v>1350</v>
+        <v>1357</v>
       </c>
       <c r="C584" s="3" t="s">
-        <v>1349</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.2">
@@ -11048,10 +11070,10 @@
         <v>2025</v>
       </c>
       <c r="B585" s="3" t="s">
-        <v>1338</v>
+        <v>1350</v>
       </c>
       <c r="C585" s="3" t="s">
-        <v>1332</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.2">
@@ -11059,10 +11081,10 @@
         <v>2025</v>
       </c>
       <c r="B586" s="3" t="s">
-        <v>1322</v>
+        <v>1338</v>
       </c>
       <c r="C586" s="3" t="s">
-        <v>1309</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.2">
@@ -11070,10 +11092,10 @@
         <v>2025</v>
       </c>
       <c r="B587" s="3" t="s">
-        <v>1305</v>
+        <v>1322</v>
       </c>
       <c r="C587" s="3" t="s">
-        <v>1304</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.2">
@@ -11081,10 +11103,10 @@
         <v>2025</v>
       </c>
       <c r="B588" s="3" t="s">
-        <v>1315</v>
+        <v>1305</v>
       </c>
       <c r="C588" s="3" t="s">
-        <v>1313</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.2">
@@ -11092,10 +11114,10 @@
         <v>2025</v>
       </c>
       <c r="B589" s="3" t="s">
-        <v>1302</v>
+        <v>1315</v>
       </c>
       <c r="C589" s="3" t="s">
-        <v>1301</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.2">
@@ -11103,10 +11125,10 @@
         <v>2025</v>
       </c>
       <c r="B590" s="3" t="s">
-        <v>1352</v>
+        <v>1302</v>
       </c>
       <c r="C590" s="3" t="s">
-        <v>1353</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.2">
@@ -11114,10 +11136,10 @@
         <v>2025</v>
       </c>
       <c r="B591" s="3" t="s">
-        <v>1321</v>
+        <v>1352</v>
       </c>
       <c r="C591" s="3" t="s">
-        <v>1319</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.2">
@@ -11125,10 +11147,10 @@
         <v>2025</v>
       </c>
       <c r="B592" s="3" t="s">
-        <v>1337</v>
+        <v>1321</v>
       </c>
       <c r="C592" s="3" t="s">
-        <v>1336</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.2">
@@ -11136,18 +11158,21 @@
         <v>2025</v>
       </c>
       <c r="B593" s="3" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C593" s="3" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A594" s="15">
+        <v>2025</v>
+      </c>
+      <c r="B594" s="3" t="s">
         <v>1328</v>
       </c>
-      <c r="C593" s="3" t="s">
+      <c r="C594" s="3" t="s">
         <v>1323</v>
-      </c>
-    </row>
-    <row r="594" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A594" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C594" s="3" t="s">
-        <v>1333</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.2">
@@ -11155,7 +11180,7 @@
         <v>0</v>
       </c>
       <c r="C595" s="3" t="s">
-        <v>1237</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.2">
@@ -11163,26 +11188,26 @@
         <v>0</v>
       </c>
       <c r="C596" s="3" t="s">
-        <v>1331</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A597" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B597" s="3" t="s">
-        <v>1340</v>
-      </c>
       <c r="C597" s="3" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A598" s="15" t="s">
         <v>0</v>
       </c>
+      <c r="B598" s="3" t="s">
+        <v>1340</v>
+      </c>
       <c r="C598" s="3" t="s">
-        <v>1355</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.2">
@@ -11190,18 +11215,15 @@
         <v>0</v>
       </c>
       <c r="C599" s="3" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A600" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B600" s="3" t="s">
-        <v>1358</v>
-      </c>
       <c r="C600" s="3" t="s">
-        <v>1341</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.2">
@@ -11209,13 +11231,24 @@
         <v>0</v>
       </c>
       <c r="C601" s="3" t="s">
-        <v>1359</v>
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="602" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A602" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B602" s="3" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C602" s="3" t="s">
+        <v>1341</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C600">
-    <sortCondition ref="A2:A600"/>
-    <sortCondition ref="C2:C600"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C602">
+    <sortCondition ref="A2:A602"/>
+    <sortCondition ref="C2:C602"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="Submetido">
@@ -11241,6 +11274,7 @@
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="B449" r:id="rId1" xr:uid="{9BCE4324-8A77-884E-80ED-4C3988C2A1D3}"/>
+    <hyperlink ref="B579" r:id="rId2" xr:uid="{71D2DE81-84B4-E94C-AB67-C52CD70CA320}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape"/>

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3769D6F-D3C2-F444-8191-680A79EB2736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C53E4F-CFE9-C647-B326-C0933F43C410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="500" windowWidth="24920" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="1362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="1363">
   <si>
     <t>Aceito</t>
   </si>
@@ -4132,6 +4132,9 @@
   </si>
   <si>
     <t>https://doi.org/10.63231/2595-0118.20250016-em</t>
+  </si>
+  <si>
+    <t>10.1016/j.bjpt.2025.101207</t>
   </si>
 </sst>
 </file>
@@ -4237,7 +4240,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -4294,9 +4297,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -11036,7 +11036,7 @@
       <c r="A582" s="15">
         <v>2025</v>
       </c>
-      <c r="B582" s="20" t="s">
+      <c r="B582" s="3" t="s">
         <v>1312</v>
       </c>
       <c r="C582" s="3" t="s">
@@ -11176,11 +11176,14 @@
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A595" s="15" t="s">
-        <v>0</v>
+      <c r="A595" s="15">
+        <v>2025</v>
+      </c>
+      <c r="B595" s="3" t="s">
+        <v>1362</v>
       </c>
       <c r="C595" s="3" t="s">
-        <v>1333</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.2">
@@ -11188,7 +11191,7 @@
         <v>0</v>
       </c>
       <c r="C596" s="3" t="s">
-        <v>1237</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.2">
@@ -11196,26 +11199,26 @@
         <v>0</v>
       </c>
       <c r="C597" s="3" t="s">
-        <v>1331</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A598" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B598" s="3" t="s">
-        <v>1340</v>
-      </c>
       <c r="C598" s="3" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A599" s="15" t="s">
         <v>0</v>
       </c>
+      <c r="B599" s="3" t="s">
+        <v>1340</v>
+      </c>
       <c r="C599" s="3" t="s">
-        <v>1355</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.2">
@@ -11223,7 +11226,7 @@
         <v>0</v>
       </c>
       <c r="C600" s="3" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.2">
@@ -11231,7 +11234,7 @@
         <v>0</v>
       </c>
       <c r="C601" s="3" t="s">
-        <v>1356</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.2">

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C53E4F-CFE9-C647-B326-C0933F43C410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D9D233-501A-D847-8D1C-FB780C9E83E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="500" windowWidth="24920" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="1363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="1368">
   <si>
     <t>Aceito</t>
   </si>
@@ -4047,9 +4047,6 @@
     <t>Mapping the Choosing Wisely Initiatives in Physiotherapy: Are we missing an opportunity to reduce low-value care?</t>
   </si>
   <si>
-    <t>Adaptação transcultural da forma curta da ferramenta Healing Encounters and Atitudes Lists (HEAL) para o contexto brasileiro</t>
-  </si>
-  <si>
     <t>Efficacy of Cognitive Functional Therapy for pain intensity and disability in patients with non-specific chronic low back pain: a randomised sham-controlled trial</t>
   </si>
   <si>
@@ -4131,17 +4128,35 @@
     <t>Cross-cultural adaptation of the short form of the Healing Encounters and Attitudes Lists tool for the Brazilian context: pilot study</t>
   </si>
   <si>
-    <t>https://doi.org/10.63231/2595-0118.20250016-em</t>
-  </si>
-  <si>
     <t>10.1016/j.bjpt.2025.101207</t>
+  </si>
+  <si>
+    <t>10.63231/2595-0118.20250016-en</t>
+  </si>
+  <si>
+    <t>10.1371/ journal.pone.0320025</t>
+  </si>
+  <si>
+    <t>10.70252/PPGL4101</t>
+  </si>
+  <si>
+    <t>Fatores associados à dor crônica musculoesquelética em indivíduos com covid-longa após alta hospitalar: um estudo transversal</t>
+  </si>
+  <si>
+    <t>Mapping Global Research on Artificial Intelligence in Physical Therapy: A Bibliometric Analysis from 1990–2023</t>
+  </si>
+  <si>
+    <t>10.1080/21679169.2025.2497780</t>
+  </si>
+  <si>
+    <t>Hand function capacity in women with systemic sclerosis using the Glitter-ADL-Shelf test: relationship with demographics, body composition, digital dextery, muscle strength and lung function</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4171,14 +4186,6 @@
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -4236,11 +4243,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -4296,12 +4302,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
@@ -4641,13 +4643,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I602"/>
+  <dimension ref="A1:I604"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B571" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B574" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A602" sqref="A602"/>
+      <selection pane="bottomRight" activeCell="A604" sqref="A604"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10377,10 +10379,10 @@
         <v>2024</v>
       </c>
       <c r="B522" s="3" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="C522" s="3" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.2">
@@ -10443,10 +10445,10 @@
         <v>2024</v>
       </c>
       <c r="B528" s="3" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C528" s="3" t="s">
         <v>1345</v>
-      </c>
-      <c r="C528" s="3" t="s">
-        <v>1346</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.2">
@@ -10971,10 +10973,10 @@
         <v>2025</v>
       </c>
       <c r="B576" s="3" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="C576" s="3" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.2">
@@ -10993,21 +10995,21 @@
         <v>2025</v>
       </c>
       <c r="B578" s="3" t="s">
-        <v>1310</v>
+        <v>1362</v>
       </c>
       <c r="C578" s="3" t="s">
-        <v>1308</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A579" s="15">
         <v>2025</v>
       </c>
-      <c r="B579" s="19" t="s">
-        <v>1361</v>
+      <c r="B579" s="3" t="s">
+        <v>1310</v>
       </c>
       <c r="C579" s="3" t="s">
-        <v>1360</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.2">
@@ -11015,10 +11017,10 @@
         <v>2025</v>
       </c>
       <c r="B580" s="3" t="s">
-        <v>1351</v>
+        <v>1361</v>
       </c>
       <c r="C580" s="3" t="s">
-        <v>1342</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.2">
@@ -11026,10 +11028,10 @@
         <v>2025</v>
       </c>
       <c r="B581" s="5" t="s">
-        <v>1347</v>
+        <v>1350</v>
       </c>
       <c r="C581" s="3" t="s">
-        <v>1348</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.2">
@@ -11037,10 +11039,10 @@
         <v>2025</v>
       </c>
       <c r="B582" s="3" t="s">
-        <v>1312</v>
+        <v>1346</v>
       </c>
       <c r="C582" s="3" t="s">
-        <v>1284</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.2">
@@ -11048,10 +11050,10 @@
         <v>2025</v>
       </c>
       <c r="B583" s="3" t="s">
-        <v>1296</v>
+        <v>1312</v>
       </c>
       <c r="C583" s="3" t="s">
-        <v>1297</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.2">
@@ -11059,10 +11061,10 @@
         <v>2025</v>
       </c>
       <c r="B584" s="3" t="s">
-        <v>1357</v>
+        <v>1296</v>
       </c>
       <c r="C584" s="3" t="s">
-        <v>1354</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.2">
@@ -11070,10 +11072,10 @@
         <v>2025</v>
       </c>
       <c r="B585" s="3" t="s">
-        <v>1350</v>
+        <v>1356</v>
       </c>
       <c r="C585" s="3" t="s">
-        <v>1349</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.2">
@@ -11081,10 +11083,10 @@
         <v>2025</v>
       </c>
       <c r="B586" s="3" t="s">
-        <v>1338</v>
+        <v>1349</v>
       </c>
       <c r="C586" s="3" t="s">
-        <v>1332</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.2">
@@ -11092,10 +11094,10 @@
         <v>2025</v>
       </c>
       <c r="B587" s="3" t="s">
-        <v>1322</v>
+        <v>1337</v>
       </c>
       <c r="C587" s="3" t="s">
-        <v>1309</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.2">
@@ -11103,10 +11105,10 @@
         <v>2025</v>
       </c>
       <c r="B588" s="3" t="s">
-        <v>1305</v>
+        <v>1322</v>
       </c>
       <c r="C588" s="3" t="s">
-        <v>1304</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.2">
@@ -11114,10 +11116,10 @@
         <v>2025</v>
       </c>
       <c r="B589" s="3" t="s">
-        <v>1315</v>
+        <v>1305</v>
       </c>
       <c r="C589" s="3" t="s">
-        <v>1313</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.2">
@@ -11125,10 +11127,10 @@
         <v>2025</v>
       </c>
       <c r="B590" s="3" t="s">
-        <v>1302</v>
+        <v>1315</v>
       </c>
       <c r="C590" s="3" t="s">
-        <v>1301</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.2">
@@ -11136,10 +11138,10 @@
         <v>2025</v>
       </c>
       <c r="B591" s="3" t="s">
-        <v>1352</v>
+        <v>1302</v>
       </c>
       <c r="C591" s="3" t="s">
-        <v>1353</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.2">
@@ -11147,10 +11149,10 @@
         <v>2025</v>
       </c>
       <c r="B592" s="3" t="s">
-        <v>1321</v>
+        <v>1351</v>
       </c>
       <c r="C592" s="3" t="s">
-        <v>1319</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.2">
@@ -11158,10 +11160,10 @@
         <v>2025</v>
       </c>
       <c r="B593" s="3" t="s">
-        <v>1337</v>
+        <v>1321</v>
       </c>
       <c r="C593" s="3" t="s">
-        <v>1336</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.2">
@@ -11169,10 +11171,10 @@
         <v>2025</v>
       </c>
       <c r="B594" s="3" t="s">
-        <v>1328</v>
+        <v>1336</v>
       </c>
       <c r="C594" s="3" t="s">
-        <v>1323</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.2">
@@ -11180,26 +11182,32 @@
         <v>2025</v>
       </c>
       <c r="B595" s="3" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="C595" s="3" t="s">
-        <v>1356</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A596" s="15" t="s">
-        <v>0</v>
+      <c r="A596" s="15">
+        <v>2025</v>
+      </c>
+      <c r="B596" s="3" t="s">
+        <v>1328</v>
       </c>
       <c r="C596" s="3" t="s">
-        <v>1333</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A597" s="15" t="s">
-        <v>0</v>
+      <c r="A597" s="15">
+        <v>2025</v>
+      </c>
+      <c r="B597" s="3" t="s">
+        <v>1360</v>
       </c>
       <c r="C597" s="3" t="s">
-        <v>1237</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.2">
@@ -11207,7 +11215,7 @@
         <v>0</v>
       </c>
       <c r="C598" s="3" t="s">
-        <v>1331</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.2">
@@ -11215,10 +11223,10 @@
         <v>0</v>
       </c>
       <c r="B599" s="3" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="C599" s="3" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.2">
@@ -11226,32 +11234,51 @@
         <v>0</v>
       </c>
       <c r="C600" s="3" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A601" s="15" t="s">
         <v>0</v>
       </c>
+      <c r="B601" s="3" t="s">
+        <v>1357</v>
+      </c>
       <c r="C601" s="3" t="s">
-        <v>1359</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A602" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B602" s="3" t="s">
-        <v>1358</v>
-      </c>
       <c r="C602" s="3" t="s">
-        <v>1341</v>
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="603" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A603" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B603" s="3" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C603" s="3" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="604" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A604" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C604" s="3" t="s">
+        <v>1367</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C602">
-    <sortCondition ref="A2:A602"/>
-    <sortCondition ref="C2:C602"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C601">
+    <sortCondition ref="A2:A601"/>
+    <sortCondition ref="C2:C601"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="Submetido">
@@ -11277,7 +11304,7 @@
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="B449" r:id="rId1" xr:uid="{9BCE4324-8A77-884E-80ED-4C3988C2A1D3}"/>
-    <hyperlink ref="B579" r:id="rId2" xr:uid="{71D2DE81-84B4-E94C-AB67-C52CD70CA320}"/>
+    <hyperlink ref="B580" r:id="rId2" display="https://doi.org/10.63231/2595-0118.20250016-em" xr:uid="{71D2DE81-84B4-E94C-AB67-C52CD70CA320}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape"/>

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D9D233-501A-D847-8D1C-FB780C9E83E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D47499F4-40BE-AE4F-93EB-DAC9F131E643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="500" windowWidth="24920" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="1368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1402" uniqueCount="1371">
   <si>
     <t>Aceito</t>
   </si>
@@ -4150,6 +4150,15 @@
   </si>
   <si>
     <t>Hand function capacity in women with systemic sclerosis using the Glitter-ADL-Shelf test: relationship with demographics, body composition, digital dextery, muscle strength and lung function</t>
+  </si>
+  <si>
+    <t>Correlations between exercise oxygen consumption, lung function, image findings, and quality of life in adults with post-tuberculosis lung disease</t>
+  </si>
+  <si>
+    <t>10.1177/23971983251341515</t>
+  </si>
+  <si>
+    <t>Contribution of small airway disease to dynamic hyperinflation in patients with COPD</t>
   </si>
 </sst>
 </file>
@@ -4643,13 +4652,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I604"/>
+  <dimension ref="A1:I606"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B574" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B577" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A604" sqref="A604"/>
+      <selection pane="bottomRight" activeCell="A606" sqref="A606"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11271,8 +11280,27 @@
       <c r="A604" s="15" t="s">
         <v>0</v>
       </c>
+      <c r="B604" s="3" t="s">
+        <v>1369</v>
+      </c>
       <c r="C604" s="3" t="s">
         <v>1367</v>
+      </c>
+    </row>
+    <row r="605" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A605" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C605" s="3" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="606" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A606" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C606" s="3" t="s">
+        <v>1370</v>
       </c>
     </row>
   </sheetData>

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D47499F4-40BE-AE4F-93EB-DAC9F131E643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D4C3F4-7FAE-1C4A-AD23-9AEBA9F682C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="500" windowWidth="24920" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1402" uniqueCount="1371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="1376">
   <si>
     <t>Aceito</t>
   </si>
@@ -4149,9 +4149,6 @@
     <t>10.1080/21679169.2025.2497780</t>
   </si>
   <si>
-    <t>Hand function capacity in women with systemic sclerosis using the Glitter-ADL-Shelf test: relationship with demographics, body composition, digital dextery, muscle strength and lung function</t>
-  </si>
-  <si>
     <t>Correlations between exercise oxygen consumption, lung function, image findings, and quality of life in adults with post-tuberculosis lung disease</t>
   </si>
   <si>
@@ -4159,6 +4156,24 @@
   </si>
   <si>
     <t>Contribution of small airway disease to dynamic hyperinflation in patients with COPD</t>
+  </si>
+  <si>
+    <t>10.1177/14799731251345492</t>
+  </si>
+  <si>
+    <t>Changes in Lung Ultrasound in Systemic Sclerosis Before and After Rehabilitation: A Comparative Study Between People with and Without Interstitial Lung Disease</t>
+  </si>
+  <si>
+    <t>10.3390/arm93030009</t>
+  </si>
+  <si>
+    <t>Hand functional capacity in women with systemic sclerosis using the Glittre-ADL- Shelf test: Relationship with demographics, body composition, hand function, physical function, digital dexterity, muscle strength and lung function</t>
+  </si>
+  <si>
+    <t>10.1016/j.physio.2025.101803</t>
+  </si>
+  <si>
+    <t>Are beliefs about low back pain associated with central sensitization inventory in patients with low back pain? A cross-sectional study</t>
   </si>
 </sst>
 </file>
@@ -4652,13 +4667,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I606"/>
+  <dimension ref="A1:I608"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B577" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B578" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A606" sqref="A606"/>
+      <selection pane="bottomRight" activeCell="A608" sqref="A608"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10993,10 +11008,10 @@
         <v>2025</v>
       </c>
       <c r="B577" s="3" t="s">
-        <v>1329</v>
+        <v>1372</v>
       </c>
       <c r="C577" s="3" t="s">
-        <v>1330</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.2">
@@ -11004,10 +11019,10 @@
         <v>2025</v>
       </c>
       <c r="B578" s="3" t="s">
-        <v>1362</v>
+        <v>1329</v>
       </c>
       <c r="C578" s="3" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.2">
@@ -11015,10 +11030,10 @@
         <v>2025</v>
       </c>
       <c r="B579" s="3" t="s">
-        <v>1310</v>
+        <v>1362</v>
       </c>
       <c r="C579" s="3" t="s">
-        <v>1308</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.2">
@@ -11026,10 +11041,10 @@
         <v>2025</v>
       </c>
       <c r="B580" s="3" t="s">
-        <v>1361</v>
+        <v>1310</v>
       </c>
       <c r="C580" s="3" t="s">
-        <v>1359</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.2">
@@ -11037,10 +11052,10 @@
         <v>2025</v>
       </c>
       <c r="B581" s="5" t="s">
-        <v>1350</v>
+        <v>1370</v>
       </c>
       <c r="C581" s="3" t="s">
-        <v>1341</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.2">
@@ -11048,10 +11063,10 @@
         <v>2025</v>
       </c>
       <c r="B582" s="3" t="s">
-        <v>1346</v>
+        <v>1361</v>
       </c>
       <c r="C582" s="3" t="s">
-        <v>1347</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.2">
@@ -11059,10 +11074,10 @@
         <v>2025</v>
       </c>
       <c r="B583" s="3" t="s">
-        <v>1312</v>
+        <v>1350</v>
       </c>
       <c r="C583" s="3" t="s">
-        <v>1284</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.2">
@@ -11070,10 +11085,10 @@
         <v>2025</v>
       </c>
       <c r="B584" s="3" t="s">
-        <v>1296</v>
+        <v>1346</v>
       </c>
       <c r="C584" s="3" t="s">
-        <v>1297</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.2">
@@ -11081,10 +11096,10 @@
         <v>2025</v>
       </c>
       <c r="B585" s="3" t="s">
-        <v>1356</v>
+        <v>1312</v>
       </c>
       <c r="C585" s="3" t="s">
-        <v>1353</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.2">
@@ -11092,10 +11107,10 @@
         <v>2025</v>
       </c>
       <c r="B586" s="3" t="s">
-        <v>1349</v>
+        <v>1368</v>
       </c>
       <c r="C586" s="3" t="s">
-        <v>1348</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.2">
@@ -11103,10 +11118,10 @@
         <v>2025</v>
       </c>
       <c r="B587" s="3" t="s">
-        <v>1337</v>
+        <v>1296</v>
       </c>
       <c r="C587" s="3" t="s">
-        <v>1332</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.2">
@@ -11114,10 +11129,10 @@
         <v>2025</v>
       </c>
       <c r="B588" s="3" t="s">
-        <v>1322</v>
+        <v>1356</v>
       </c>
       <c r="C588" s="3" t="s">
-        <v>1309</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.2">
@@ -11125,10 +11140,10 @@
         <v>2025</v>
       </c>
       <c r="B589" s="3" t="s">
-        <v>1305</v>
+        <v>1349</v>
       </c>
       <c r="C589" s="3" t="s">
-        <v>1304</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.2">
@@ -11136,10 +11151,10 @@
         <v>2025</v>
       </c>
       <c r="B590" s="3" t="s">
-        <v>1315</v>
+        <v>1337</v>
       </c>
       <c r="C590" s="3" t="s">
-        <v>1313</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.2">
@@ -11147,10 +11162,10 @@
         <v>2025</v>
       </c>
       <c r="B591" s="3" t="s">
-        <v>1302</v>
+        <v>1322</v>
       </c>
       <c r="C591" s="3" t="s">
-        <v>1301</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.2">
@@ -11158,10 +11173,10 @@
         <v>2025</v>
       </c>
       <c r="B592" s="3" t="s">
-        <v>1351</v>
+        <v>1305</v>
       </c>
       <c r="C592" s="3" t="s">
-        <v>1352</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.2">
@@ -11169,10 +11184,10 @@
         <v>2025</v>
       </c>
       <c r="B593" s="3" t="s">
-        <v>1321</v>
+        <v>1315</v>
       </c>
       <c r="C593" s="3" t="s">
-        <v>1319</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.2">
@@ -11180,10 +11195,10 @@
         <v>2025</v>
       </c>
       <c r="B594" s="3" t="s">
-        <v>1336</v>
+        <v>1302</v>
       </c>
       <c r="C594" s="3" t="s">
-        <v>1335</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.2">
@@ -11191,10 +11206,10 @@
         <v>2025</v>
       </c>
       <c r="B595" s="3" t="s">
-        <v>1363</v>
+        <v>1351</v>
       </c>
       <c r="C595" s="3" t="s">
-        <v>1358</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.2">
@@ -11202,10 +11217,10 @@
         <v>2025</v>
       </c>
       <c r="B596" s="3" t="s">
-        <v>1328</v>
+        <v>1321</v>
       </c>
       <c r="C596" s="3" t="s">
-        <v>1323</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.2">
@@ -11213,48 +11228,51 @@
         <v>2025</v>
       </c>
       <c r="B597" s="3" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C597" s="3" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="598" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A598" s="15">
+        <v>2025</v>
+      </c>
+      <c r="B598" s="3" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C598" s="3" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A599" s="15">
+        <v>2025</v>
+      </c>
+      <c r="B599" s="3" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C599" s="3" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A600" s="15">
+        <v>2025</v>
+      </c>
+      <c r="B600" s="3" t="s">
         <v>1360</v>
       </c>
-      <c r="C597" s="3" t="s">
+      <c r="C600" s="3" t="s">
         <v>1355</v>
-      </c>
-    </row>
-    <row r="598" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A598" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C598" s="3" t="s">
-        <v>1237</v>
-      </c>
-    </row>
-    <row r="599" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A599" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B599" s="3" t="s">
-        <v>1339</v>
-      </c>
-      <c r="C599" s="3" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="600" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A600" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C600" s="3" t="s">
-        <v>1354</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A601" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B601" s="3" t="s">
-        <v>1357</v>
-      </c>
       <c r="C601" s="3" t="s">
-        <v>1340</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.2">
@@ -11262,7 +11280,7 @@
         <v>0</v>
       </c>
       <c r="C602" s="3" t="s">
-        <v>1364</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.2">
@@ -11270,21 +11288,18 @@
         <v>0</v>
       </c>
       <c r="B603" s="3" t="s">
-        <v>1366</v>
+        <v>1339</v>
       </c>
       <c r="C603" s="3" t="s">
-        <v>1365</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A604" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B604" s="3" t="s">
-        <v>1369</v>
-      </c>
       <c r="C604" s="3" t="s">
-        <v>1367</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.2">
@@ -11292,21 +11307,46 @@
         <v>0</v>
       </c>
       <c r="C605" s="3" t="s">
-        <v>1368</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A606" s="15" t="s">
         <v>0</v>
       </c>
+      <c r="B606" s="3" t="s">
+        <v>1366</v>
+      </c>
       <c r="C606" s="3" t="s">
-        <v>1370</v>
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="607" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A607" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B607" s="3" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C607" s="3" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="608" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A608" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B608" s="3" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C608" s="3" t="s">
+        <v>1375</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C601">
-    <sortCondition ref="A2:A601"/>
-    <sortCondition ref="C2:C601"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C607">
+    <sortCondition ref="A2:A607"/>
+    <sortCondition ref="C2:C607"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="Submetido">
@@ -11332,7 +11372,7 @@
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="B449" r:id="rId1" xr:uid="{9BCE4324-8A77-884E-80ED-4C3988C2A1D3}"/>
-    <hyperlink ref="B580" r:id="rId2" display="https://doi.org/10.63231/2595-0118.20250016-em" xr:uid="{71D2DE81-84B4-E94C-AB67-C52CD70CA320}"/>
+    <hyperlink ref="B582" r:id="rId2" display="https://doi.org/10.63231/2595-0118.20250016-em" xr:uid="{71D2DE81-84B4-E94C-AB67-C52CD70CA320}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape"/>

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D4C3F4-7FAE-1C4A-AD23-9AEBA9F682C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D6DDEA-EBC8-DE47-A05C-63283FCE56F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="500" windowWidth="24920" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="1376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="1379">
   <si>
     <t>Aceito</t>
   </si>
@@ -4174,6 +4174,15 @@
   </si>
   <si>
     <t>Are beliefs about low back pain associated with central sensitization inventory in patients with low back pain? A cross-sectional study</t>
+  </si>
+  <si>
+    <t>10.4081/monaldi.2025.3402</t>
+  </si>
+  <si>
+    <t>Longitudinal Symptom Analysis of COVID-19 Survivors and Post-COVID Syndrome Patients</t>
+  </si>
+  <si>
+    <t>10.3390/biomedicines13061334</t>
   </si>
 </sst>
 </file>
@@ -4667,13 +4676,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I608"/>
+  <dimension ref="A1:I609"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B578" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A608" sqref="A608"/>
+      <selection pane="bottomRight" activeCell="A609" sqref="A609"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11151,10 +11160,10 @@
         <v>2025</v>
       </c>
       <c r="B590" s="3" t="s">
-        <v>1337</v>
+        <v>1378</v>
       </c>
       <c r="C590" s="3" t="s">
-        <v>1332</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.2">
@@ -11162,10 +11171,10 @@
         <v>2025</v>
       </c>
       <c r="B591" s="3" t="s">
-        <v>1322</v>
+        <v>1337</v>
       </c>
       <c r="C591" s="3" t="s">
-        <v>1309</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.2">
@@ -11173,10 +11182,10 @@
         <v>2025</v>
       </c>
       <c r="B592" s="3" t="s">
-        <v>1305</v>
+        <v>1322</v>
       </c>
       <c r="C592" s="3" t="s">
-        <v>1304</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.2">
@@ -11184,10 +11193,10 @@
         <v>2025</v>
       </c>
       <c r="B593" s="3" t="s">
-        <v>1315</v>
+        <v>1305</v>
       </c>
       <c r="C593" s="3" t="s">
-        <v>1313</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.2">
@@ -11195,10 +11204,10 @@
         <v>2025</v>
       </c>
       <c r="B594" s="3" t="s">
-        <v>1302</v>
+        <v>1315</v>
       </c>
       <c r="C594" s="3" t="s">
-        <v>1301</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.2">
@@ -11206,10 +11215,10 @@
         <v>2025</v>
       </c>
       <c r="B595" s="3" t="s">
-        <v>1351</v>
+        <v>1302</v>
       </c>
       <c r="C595" s="3" t="s">
-        <v>1352</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.2">
@@ -11217,10 +11226,10 @@
         <v>2025</v>
       </c>
       <c r="B596" s="3" t="s">
-        <v>1321</v>
+        <v>1351</v>
       </c>
       <c r="C596" s="3" t="s">
-        <v>1319</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.2">
@@ -11228,10 +11237,10 @@
         <v>2025</v>
       </c>
       <c r="B597" s="3" t="s">
-        <v>1336</v>
+        <v>1321</v>
       </c>
       <c r="C597" s="3" t="s">
-        <v>1335</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.2">
@@ -11239,10 +11248,10 @@
         <v>2025</v>
       </c>
       <c r="B598" s="3" t="s">
-        <v>1363</v>
+        <v>1336</v>
       </c>
       <c r="C598" s="3" t="s">
-        <v>1358</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.2">
@@ -11250,10 +11259,10 @@
         <v>2025</v>
       </c>
       <c r="B599" s="3" t="s">
-        <v>1328</v>
+        <v>1363</v>
       </c>
       <c r="C599" s="3" t="s">
-        <v>1323</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.2">
@@ -11261,75 +11270,78 @@
         <v>2025</v>
       </c>
       <c r="B600" s="3" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C600" s="3" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A601" s="15">
+        <v>2025</v>
+      </c>
+      <c r="B601" s="3" t="s">
         <v>1360</v>
       </c>
-      <c r="C600" s="3" t="s">
+      <c r="C601" s="3" t="s">
         <v>1355</v>
-      </c>
-    </row>
-    <row r="601" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A601" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C601" s="3" t="s">
-        <v>1237</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A602" s="15" t="s">
         <v>0</v>
       </c>
+      <c r="B602" s="3" t="s">
+        <v>1374</v>
+      </c>
       <c r="C602" s="3" t="s">
-        <v>1369</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A603" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B603" s="3" t="s">
-        <v>1339</v>
-      </c>
       <c r="C603" s="3" t="s">
-        <v>1333</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A604" s="15" t="s">
         <v>0</v>
       </c>
+      <c r="B604" s="3" t="s">
+        <v>1376</v>
+      </c>
       <c r="C604" s="3" t="s">
-        <v>1354</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A605" s="15" t="s">
         <v>0</v>
       </c>
+      <c r="B605" s="3" t="s">
+        <v>1339</v>
+      </c>
       <c r="C605" s="3" t="s">
-        <v>1364</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A606" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B606" s="3" t="s">
-        <v>1366</v>
-      </c>
       <c r="C606" s="3" t="s">
-        <v>1365</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A607" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B607" s="3" t="s">
-        <v>1357</v>
-      </c>
       <c r="C607" s="3" t="s">
-        <v>1340</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.2">
@@ -11337,16 +11349,27 @@
         <v>0</v>
       </c>
       <c r="B608" s="3" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="C608" s="3" t="s">
-        <v>1375</v>
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="609" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A609" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B609" s="3" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C609" s="3" t="s">
+        <v>1340</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C607">
-    <sortCondition ref="A2:A607"/>
-    <sortCondition ref="C2:C607"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C609">
+    <sortCondition ref="A2:A609"/>
+    <sortCondition ref="C2:C609"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="Submetido">

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D6DDEA-EBC8-DE47-A05C-63283FCE56F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C0953B0-4CC2-7E4B-8361-113454447389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="500" windowWidth="24920" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="1379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1411" uniqueCount="1381">
   <si>
     <t>Aceito</t>
   </si>
@@ -4183,6 +4183,12 @@
   </si>
   <si>
     <t>10.3390/biomedicines13061334</t>
+  </si>
+  <si>
+    <t>10.3390/healthcare13121371</t>
+  </si>
+  <si>
+    <t>Effect of Manual Massage, Foam Rolling, and Strength Training on Hemodynamic and Autonomic Responses in Adults: A Scoping Review</t>
   </si>
 </sst>
 </file>
@@ -4676,13 +4682,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I609"/>
+  <dimension ref="A1:I610"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B578" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B579" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A609" sqref="A609"/>
+      <selection pane="bottomRight" activeCell="A610" sqref="A610"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11089,15 +11095,15 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="584" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A584" s="15">
         <v>2025</v>
       </c>
       <c r="B584" s="3" t="s">
-        <v>1346</v>
-      </c>
-      <c r="C584" s="3" t="s">
-        <v>1347</v>
+        <v>1379</v>
+      </c>
+      <c r="C584" s="18" t="s">
+        <v>1380</v>
       </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.2">
@@ -11105,10 +11111,10 @@
         <v>2025</v>
       </c>
       <c r="B585" s="3" t="s">
-        <v>1312</v>
+        <v>1346</v>
       </c>
       <c r="C585" s="3" t="s">
-        <v>1284</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.2">
@@ -11116,10 +11122,10 @@
         <v>2025</v>
       </c>
       <c r="B586" s="3" t="s">
-        <v>1368</v>
+        <v>1312</v>
       </c>
       <c r="C586" s="3" t="s">
-        <v>1373</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.2">
@@ -11127,10 +11133,10 @@
         <v>2025</v>
       </c>
       <c r="B587" s="3" t="s">
-        <v>1296</v>
+        <v>1368</v>
       </c>
       <c r="C587" s="3" t="s">
-        <v>1297</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.2">
@@ -11138,10 +11144,10 @@
         <v>2025</v>
       </c>
       <c r="B588" s="3" t="s">
-        <v>1356</v>
+        <v>1296</v>
       </c>
       <c r="C588" s="3" t="s">
-        <v>1353</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.2">
@@ -11149,10 +11155,10 @@
         <v>2025</v>
       </c>
       <c r="B589" s="3" t="s">
-        <v>1349</v>
+        <v>1356</v>
       </c>
       <c r="C589" s="3" t="s">
-        <v>1348</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.2">
@@ -11160,10 +11166,10 @@
         <v>2025</v>
       </c>
       <c r="B590" s="3" t="s">
-        <v>1378</v>
+        <v>1349</v>
       </c>
       <c r="C590" s="3" t="s">
-        <v>1377</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.2">
@@ -11171,10 +11177,10 @@
         <v>2025</v>
       </c>
       <c r="B591" s="3" t="s">
-        <v>1337</v>
+        <v>1378</v>
       </c>
       <c r="C591" s="3" t="s">
-        <v>1332</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.2">
@@ -11182,10 +11188,10 @@
         <v>2025</v>
       </c>
       <c r="B592" s="3" t="s">
-        <v>1322</v>
+        <v>1337</v>
       </c>
       <c r="C592" s="3" t="s">
-        <v>1309</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.2">
@@ -11193,10 +11199,10 @@
         <v>2025</v>
       </c>
       <c r="B593" s="3" t="s">
-        <v>1305</v>
+        <v>1322</v>
       </c>
       <c r="C593" s="3" t="s">
-        <v>1304</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.2">
@@ -11204,10 +11210,10 @@
         <v>2025</v>
       </c>
       <c r="B594" s="3" t="s">
-        <v>1315</v>
+        <v>1305</v>
       </c>
       <c r="C594" s="3" t="s">
-        <v>1313</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.2">
@@ -11215,10 +11221,10 @@
         <v>2025</v>
       </c>
       <c r="B595" s="3" t="s">
-        <v>1302</v>
+        <v>1315</v>
       </c>
       <c r="C595" s="3" t="s">
-        <v>1301</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.2">
@@ -11226,10 +11232,10 @@
         <v>2025</v>
       </c>
       <c r="B596" s="3" t="s">
-        <v>1351</v>
+        <v>1302</v>
       </c>
       <c r="C596" s="3" t="s">
-        <v>1352</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.2">
@@ -11237,10 +11243,10 @@
         <v>2025</v>
       </c>
       <c r="B597" s="3" t="s">
-        <v>1321</v>
+        <v>1351</v>
       </c>
       <c r="C597" s="3" t="s">
-        <v>1319</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.2">
@@ -11248,10 +11254,10 @@
         <v>2025</v>
       </c>
       <c r="B598" s="3" t="s">
-        <v>1336</v>
+        <v>1321</v>
       </c>
       <c r="C598" s="3" t="s">
-        <v>1335</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.2">
@@ -11259,10 +11265,10 @@
         <v>2025</v>
       </c>
       <c r="B599" s="3" t="s">
-        <v>1363</v>
+        <v>1336</v>
       </c>
       <c r="C599" s="3" t="s">
-        <v>1358</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.2">
@@ -11270,10 +11276,10 @@
         <v>2025</v>
       </c>
       <c r="B600" s="3" t="s">
-        <v>1328</v>
+        <v>1363</v>
       </c>
       <c r="C600" s="3" t="s">
-        <v>1323</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.2">
@@ -11281,40 +11287,40 @@
         <v>2025</v>
       </c>
       <c r="B601" s="3" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C601" s="3" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="602" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A602" s="15">
+        <v>2025</v>
+      </c>
+      <c r="B602" s="3" t="s">
         <v>1360</v>
       </c>
-      <c r="C601" s="3" t="s">
+      <c r="C602" s="3" t="s">
         <v>1355</v>
-      </c>
-    </row>
-    <row r="602" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A602" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B602" s="3" t="s">
-        <v>1374</v>
-      </c>
-      <c r="C602" s="3" t="s">
-        <v>1375</v>
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A603" s="15" t="s">
         <v>0</v>
       </c>
+      <c r="B603" s="3" t="s">
+        <v>1374</v>
+      </c>
       <c r="C603" s="3" t="s">
-        <v>1237</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A604" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B604" s="3" t="s">
-        <v>1376</v>
-      </c>
       <c r="C604" s="3" t="s">
-        <v>1369</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.2">
@@ -11322,18 +11328,21 @@
         <v>0</v>
       </c>
       <c r="B605" s="3" t="s">
-        <v>1339</v>
+        <v>1376</v>
       </c>
       <c r="C605" s="3" t="s">
-        <v>1333</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A606" s="15" t="s">
         <v>0</v>
       </c>
+      <c r="B606" s="3" t="s">
+        <v>1339</v>
+      </c>
       <c r="C606" s="3" t="s">
-        <v>1354</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.2">
@@ -11341,18 +11350,15 @@
         <v>0</v>
       </c>
       <c r="C607" s="3" t="s">
-        <v>1364</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A608" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B608" s="3" t="s">
-        <v>1366</v>
-      </c>
       <c r="C608" s="3" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.2">
@@ -11360,16 +11366,27 @@
         <v>0</v>
       </c>
       <c r="B609" s="3" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C609" s="3" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="610" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A610" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B610" s="3" t="s">
         <v>1357</v>
       </c>
-      <c r="C609" s="3" t="s">
+      <c r="C610" s="3" t="s">
         <v>1340</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C609">
-    <sortCondition ref="A2:A609"/>
-    <sortCondition ref="C2:C609"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C610">
+    <sortCondition ref="A2:A610"/>
+    <sortCondition ref="C2:C610"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="Submetido">

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C0953B0-4CC2-7E4B-8361-113454447389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E8D3A57-473B-9546-9F8D-CCD5679E606E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="500" windowWidth="24920" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1411" uniqueCount="1381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="1383">
   <si>
     <t>Aceito</t>
   </si>
@@ -4189,6 +4189,12 @@
   </si>
   <si>
     <t>Effect of Manual Massage, Foam Rolling, and Strength Training on Hemodynamic and Autonomic Responses in Adults: A Scoping Review</t>
+  </si>
+  <si>
+    <t>Effect of home-based pulmonary rehabilitation on ventilation dynamics and small airway dysfunction in people with post-tuberculosis lung disease</t>
+  </si>
+  <si>
+    <t>10.1016/j.jctube.2025.100542</t>
   </si>
 </sst>
 </file>
@@ -4682,13 +4688,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I610"/>
+  <dimension ref="A1:I611"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B579" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B580" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A610" sqref="A610"/>
+      <selection pane="bottomRight" activeCell="A611" sqref="A611"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11095,26 +11101,26 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="584" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A584" s="15">
         <v>2025</v>
       </c>
       <c r="B584" s="3" t="s">
-        <v>1379</v>
-      </c>
-      <c r="C584" s="18" t="s">
-        <v>1380</v>
-      </c>
-    </row>
-    <row r="585" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1382</v>
+      </c>
+      <c r="C584" s="3" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A585" s="15">
         <v>2025</v>
       </c>
       <c r="B585" s="3" t="s">
-        <v>1346</v>
-      </c>
-      <c r="C585" s="3" t="s">
-        <v>1347</v>
+        <v>1379</v>
+      </c>
+      <c r="C585" s="18" t="s">
+        <v>1380</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.2">
@@ -11122,10 +11128,10 @@
         <v>2025</v>
       </c>
       <c r="B586" s="3" t="s">
-        <v>1312</v>
+        <v>1346</v>
       </c>
       <c r="C586" s="3" t="s">
-        <v>1284</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.2">
@@ -11133,10 +11139,10 @@
         <v>2025</v>
       </c>
       <c r="B587" s="3" t="s">
-        <v>1368</v>
+        <v>1312</v>
       </c>
       <c r="C587" s="3" t="s">
-        <v>1373</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.2">
@@ -11144,10 +11150,10 @@
         <v>2025</v>
       </c>
       <c r="B588" s="3" t="s">
-        <v>1296</v>
+        <v>1368</v>
       </c>
       <c r="C588" s="3" t="s">
-        <v>1297</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.2">
@@ -11155,10 +11161,10 @@
         <v>2025</v>
       </c>
       <c r="B589" s="3" t="s">
-        <v>1356</v>
+        <v>1296</v>
       </c>
       <c r="C589" s="3" t="s">
-        <v>1353</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.2">
@@ -11166,10 +11172,10 @@
         <v>2025</v>
       </c>
       <c r="B590" s="3" t="s">
-        <v>1349</v>
+        <v>1356</v>
       </c>
       <c r="C590" s="3" t="s">
-        <v>1348</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.2">
@@ -11177,10 +11183,10 @@
         <v>2025</v>
       </c>
       <c r="B591" s="3" t="s">
-        <v>1378</v>
+        <v>1349</v>
       </c>
       <c r="C591" s="3" t="s">
-        <v>1377</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.2">
@@ -11188,10 +11194,10 @@
         <v>2025</v>
       </c>
       <c r="B592" s="3" t="s">
-        <v>1337</v>
+        <v>1378</v>
       </c>
       <c r="C592" s="3" t="s">
-        <v>1332</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.2">
@@ -11199,10 +11205,10 @@
         <v>2025</v>
       </c>
       <c r="B593" s="3" t="s">
-        <v>1322</v>
+        <v>1337</v>
       </c>
       <c r="C593" s="3" t="s">
-        <v>1309</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.2">
@@ -11210,10 +11216,10 @@
         <v>2025</v>
       </c>
       <c r="B594" s="3" t="s">
-        <v>1305</v>
+        <v>1322</v>
       </c>
       <c r="C594" s="3" t="s">
-        <v>1304</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.2">
@@ -11221,10 +11227,10 @@
         <v>2025</v>
       </c>
       <c r="B595" s="3" t="s">
-        <v>1315</v>
+        <v>1305</v>
       </c>
       <c r="C595" s="3" t="s">
-        <v>1313</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.2">
@@ -11232,10 +11238,10 @@
         <v>2025</v>
       </c>
       <c r="B596" s="3" t="s">
-        <v>1302</v>
+        <v>1315</v>
       </c>
       <c r="C596" s="3" t="s">
-        <v>1301</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.2">
@@ -11243,10 +11249,10 @@
         <v>2025</v>
       </c>
       <c r="B597" s="3" t="s">
-        <v>1351</v>
+        <v>1302</v>
       </c>
       <c r="C597" s="3" t="s">
-        <v>1352</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.2">
@@ -11254,10 +11260,10 @@
         <v>2025</v>
       </c>
       <c r="B598" s="3" t="s">
-        <v>1321</v>
+        <v>1351</v>
       </c>
       <c r="C598" s="3" t="s">
-        <v>1319</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.2">
@@ -11265,10 +11271,10 @@
         <v>2025</v>
       </c>
       <c r="B599" s="3" t="s">
-        <v>1336</v>
+        <v>1321</v>
       </c>
       <c r="C599" s="3" t="s">
-        <v>1335</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.2">
@@ -11276,10 +11282,10 @@
         <v>2025</v>
       </c>
       <c r="B600" s="3" t="s">
-        <v>1363</v>
+        <v>1336</v>
       </c>
       <c r="C600" s="3" t="s">
-        <v>1358</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.2">
@@ -11287,10 +11293,10 @@
         <v>2025</v>
       </c>
       <c r="B601" s="3" t="s">
-        <v>1328</v>
+        <v>1363</v>
       </c>
       <c r="C601" s="3" t="s">
-        <v>1323</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.2">
@@ -11298,40 +11304,40 @@
         <v>2025</v>
       </c>
       <c r="B602" s="3" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C602" s="3" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="603" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A603" s="15">
+        <v>2025</v>
+      </c>
+      <c r="B603" s="3" t="s">
         <v>1360</v>
       </c>
-      <c r="C602" s="3" t="s">
+      <c r="C603" s="3" t="s">
         <v>1355</v>
-      </c>
-    </row>
-    <row r="603" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A603" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B603" s="3" t="s">
-        <v>1374</v>
-      </c>
-      <c r="C603" s="3" t="s">
-        <v>1375</v>
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A604" s="15" t="s">
         <v>0</v>
       </c>
+      <c r="B604" s="3" t="s">
+        <v>1374</v>
+      </c>
       <c r="C604" s="3" t="s">
-        <v>1237</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A605" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B605" s="3" t="s">
-        <v>1376</v>
-      </c>
       <c r="C605" s="3" t="s">
-        <v>1369</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.2">
@@ -11339,18 +11345,21 @@
         <v>0</v>
       </c>
       <c r="B606" s="3" t="s">
-        <v>1339</v>
+        <v>1376</v>
       </c>
       <c r="C606" s="3" t="s">
-        <v>1333</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A607" s="15" t="s">
         <v>0</v>
       </c>
+      <c r="B607" s="3" t="s">
+        <v>1339</v>
+      </c>
       <c r="C607" s="3" t="s">
-        <v>1354</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.2">
@@ -11358,18 +11367,15 @@
         <v>0</v>
       </c>
       <c r="C608" s="3" t="s">
-        <v>1364</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A609" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B609" s="3" t="s">
-        <v>1366</v>
-      </c>
       <c r="C609" s="3" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.2">
@@ -11377,16 +11383,27 @@
         <v>0</v>
       </c>
       <c r="B610" s="3" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C610" s="3" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="611" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A611" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B611" s="3" t="s">
         <v>1357</v>
       </c>
-      <c r="C610" s="3" t="s">
+      <c r="C611" s="3" t="s">
         <v>1340</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C610">
-    <sortCondition ref="A2:A610"/>
-    <sortCondition ref="C2:C610"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C611">
+    <sortCondition ref="A2:A611"/>
+    <sortCondition ref="C2:C611"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="Submetido">

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (arthur_sf)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E8D3A57-473B-9546-9F8D-CCD5679E606E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE2F891-E607-6241-BB9D-BAFDAE01D783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="500" windowWidth="24920" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1060" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="artigos-completos" sheetId="4" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="1383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1414" uniqueCount="1385">
   <si>
     <t>Aceito</t>
   </si>
@@ -4195,6 +4195,12 @@
   </si>
   <si>
     <t>10.1016/j.jctube.2025.100542</t>
+  </si>
+  <si>
+    <t>Impacts of Traditional Warm-Up and Post-Activation Potentiation on Muscle Endurance During the Back Squat: Response of Blood Lactate, Perceived Effort, and Time Under Tension</t>
+  </si>
+  <si>
+    <t>10.3390/jfmk10020188</t>
   </si>
 </sst>
 </file>
@@ -4688,13 +4694,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I611"/>
+  <dimension ref="A1:I612"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B580" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B575" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A611" sqref="A611"/>
+      <selection pane="bottomRight" activeCell="A612" sqref="A612"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11139,10 +11145,10 @@
         <v>2025</v>
       </c>
       <c r="B587" s="3" t="s">
-        <v>1312</v>
+        <v>1339</v>
       </c>
       <c r="C587" s="3" t="s">
-        <v>1284</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.2">
@@ -11150,10 +11156,10 @@
         <v>2025</v>
       </c>
       <c r="B588" s="3" t="s">
-        <v>1368</v>
+        <v>1312</v>
       </c>
       <c r="C588" s="3" t="s">
-        <v>1373</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.2">
@@ -11161,10 +11167,10 @@
         <v>2025</v>
       </c>
       <c r="B589" s="3" t="s">
-        <v>1296</v>
+        <v>1368</v>
       </c>
       <c r="C589" s="3" t="s">
-        <v>1297</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.2">
@@ -11172,10 +11178,10 @@
         <v>2025</v>
       </c>
       <c r="B590" s="3" t="s">
-        <v>1356</v>
+        <v>1296</v>
       </c>
       <c r="C590" s="3" t="s">
-        <v>1353</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.2">
@@ -11183,10 +11189,10 @@
         <v>2025</v>
       </c>
       <c r="B591" s="3" t="s">
-        <v>1349</v>
+        <v>1356</v>
       </c>
       <c r="C591" s="3" t="s">
-        <v>1348</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.2">
@@ -11194,10 +11200,10 @@
         <v>2025</v>
       </c>
       <c r="B592" s="3" t="s">
-        <v>1378</v>
+        <v>1384</v>
       </c>
       <c r="C592" s="3" t="s">
-        <v>1377</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.2">
@@ -11205,10 +11211,10 @@
         <v>2025</v>
       </c>
       <c r="B593" s="3" t="s">
-        <v>1337</v>
+        <v>1349</v>
       </c>
       <c r="C593" s="3" t="s">
-        <v>1332</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.2">
@@ -11216,10 +11222,10 @@
         <v>2025</v>
       </c>
       <c r="B594" s="3" t="s">
-        <v>1322</v>
+        <v>1378</v>
       </c>
       <c r="C594" s="3" t="s">
-        <v>1309</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.2">
@@ -11227,10 +11233,10 @@
         <v>2025</v>
       </c>
       <c r="B595" s="3" t="s">
-        <v>1305</v>
+        <v>1337</v>
       </c>
       <c r="C595" s="3" t="s">
-        <v>1304</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.2">
@@ -11238,10 +11244,10 @@
         <v>2025</v>
       </c>
       <c r="B596" s="3" t="s">
-        <v>1315</v>
+        <v>1322</v>
       </c>
       <c r="C596" s="3" t="s">
-        <v>1313</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.2">
@@ -11249,10 +11255,10 @@
         <v>2025</v>
       </c>
       <c r="B597" s="3" t="s">
-        <v>1302</v>
+        <v>1305</v>
       </c>
       <c r="C597" s="3" t="s">
-        <v>1301</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.2">
@@ -11260,10 +11266,10 @@
         <v>2025</v>
       </c>
       <c r="B598" s="3" t="s">
-        <v>1351</v>
+        <v>1315</v>
       </c>
       <c r="C598" s="3" t="s">
-        <v>1352</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.2">
@@ -11271,10 +11277,10 @@
         <v>2025</v>
       </c>
       <c r="B599" s="3" t="s">
-        <v>1321</v>
+        <v>1302</v>
       </c>
       <c r="C599" s="3" t="s">
-        <v>1319</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.2">
@@ -11282,10 +11288,10 @@
         <v>2025</v>
       </c>
       <c r="B600" s="3" t="s">
-        <v>1336</v>
+        <v>1351</v>
       </c>
       <c r="C600" s="3" t="s">
-        <v>1335</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.2">
@@ -11293,10 +11299,10 @@
         <v>2025</v>
       </c>
       <c r="B601" s="3" t="s">
-        <v>1363</v>
+        <v>1321</v>
       </c>
       <c r="C601" s="3" t="s">
-        <v>1358</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.2">
@@ -11304,10 +11310,10 @@
         <v>2025</v>
       </c>
       <c r="B602" s="3" t="s">
-        <v>1328</v>
+        <v>1336</v>
       </c>
       <c r="C602" s="3" t="s">
-        <v>1323</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.2">
@@ -11315,29 +11321,32 @@
         <v>2025</v>
       </c>
       <c r="B603" s="3" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C603" s="3" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="604" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A604" s="15">
+        <v>2025</v>
+      </c>
+      <c r="B604" s="3" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C604" s="3" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="605" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A605" s="15">
+        <v>2025</v>
+      </c>
+      <c r="B605" s="3" t="s">
         <v>1360</v>
       </c>
-      <c r="C603" s="3" t="s">
+      <c r="C605" s="3" t="s">
         <v>1355</v>
-      </c>
-    </row>
-    <row r="604" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A604" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B604" s="3" t="s">
-        <v>1374</v>
-      </c>
-      <c r="C604" s="3" t="s">
-        <v>1375</v>
-      </c>
-    </row>
-    <row r="605" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A605" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C605" s="3" t="s">
-        <v>1237</v>
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.2">
@@ -11345,29 +11354,29 @@
         <v>0</v>
       </c>
       <c r="B606" s="3" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="C606" s="3" t="s">
-        <v>1369</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A607" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B607" s="3" t="s">
-        <v>1339</v>
-      </c>
       <c r="C607" s="3" t="s">
-        <v>1333</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A608" s="15" t="s">
         <v>0</v>
       </c>
+      <c r="B608" s="3" t="s">
+        <v>1376</v>
+      </c>
       <c r="C608" s="3" t="s">
-        <v>1354</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.2">
@@ -11375,18 +11384,15 @@
         <v>0</v>
       </c>
       <c r="C609" s="3" t="s">
-        <v>1364</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A610" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B610" s="3" t="s">
-        <v>1366</v>
-      </c>
       <c r="C610" s="3" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.2">
@@ -11394,16 +11400,27 @@
         <v>0</v>
       </c>
       <c r="B611" s="3" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C611" s="3" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="612" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A612" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B612" s="3" t="s">
         <v>1357</v>
       </c>
-      <c r="C611" s="3" t="s">
+      <c r="C612" s="3" t="s">
         <v>1340</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C611">
-    <sortCondition ref="A2:A611"/>
-    <sortCondition ref="C2:C611"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C612">
+    <sortCondition ref="A2:A612"/>
+    <sortCondition ref="C2:C612"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="Submetido">
@@ -11441,7 +11458,7 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="A36" sqref="A36"/>

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (arthur_sf)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE2F891-E607-6241-BB9D-BAFDAE01D783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0703683B-84D5-4A49-BBE7-E3E64FC4DE3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="artigos-completos" sheetId="4" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1414" uniqueCount="1385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="1387">
   <si>
     <t>Aceito</t>
   </si>
@@ -4201,6 +4201,12 @@
   </si>
   <si>
     <t>10.3390/jfmk10020188</t>
+  </si>
+  <si>
+    <t>Heart Rate Variability Responses to Instrument-Assisted Atlas (C1) Chiropractic Manipulation in Young Adults with Musculoskeletal Pain: A Randomized Placebo- Controlled Trial</t>
+  </si>
+  <si>
+    <t>10.1016/j.jbmt.2025.06.027</t>
   </si>
 </sst>
 </file>
@@ -4694,13 +4700,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I612"/>
+  <dimension ref="A1:I613"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B575" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B579" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A612" sqref="A612"/>
+      <selection pane="bottomRight" activeCell="A613" sqref="A613"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11415,6 +11421,17 @@
       </c>
       <c r="C612" s="3" t="s">
         <v>1340</v>
+      </c>
+    </row>
+    <row r="613" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A613" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B613" s="3" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C613" s="3" t="s">
+        <v>1385</v>
       </c>
     </row>
   </sheetData>

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurferreira/Google Drive - arthur_sf/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0703683B-84D5-4A49-BBE7-E3E64FC4DE3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C790CD7-4FE3-154E-B87B-A3949CDD39AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="940" yWindow="680" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="artigos-completos" sheetId="4" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="trabalhos-anais" sheetId="8" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'artigos-completos'!$A$1:$C$556</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'artigos-completos'!$A$1:$C$614</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">editoração!$A$1:$C$29</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'trabalhos-anais'!$A$1:$C$38</definedName>
   </definedNames>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="1387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1429" uniqueCount="1397">
   <si>
     <t>Aceito</t>
   </si>
@@ -3828,9 +3828,6 @@
     <t>10.56984/8ZG5608SR5</t>
   </si>
   <si>
-    <t>Comparison betweeren the risk of developing sleep disorders with lung mechanics and thoracic ultrasound signals in adults with obesity</t>
-  </si>
-  <si>
     <t>Associação de variáveis antropométricas e cardiorrespiratórias com consumo de oxigênio de pico segundo características da lesão medular: um estudo seccional preliminar</t>
   </si>
   <si>
@@ -4207,6 +4204,39 @@
   </si>
   <si>
     <t>10.1016/j.jbmt.2025.06.027</t>
+  </si>
+  <si>
+    <t>Comparison between the Risk of Developing Sleep Disorders with Lung Mechanics and Thoracic Ultrasound Signals in Adults with Obesity</t>
+  </si>
+  <si>
+    <t>Insatisfação com a imagem corporal entre universitários brasileiros. Uma análise dos níveis e critérios metodológicos a partir de dados secundários</t>
+  </si>
+  <si>
+    <t>10.46642/efd.v30i326.8168</t>
+  </si>
+  <si>
+    <t>Cervical flexion posture during smartphone use was not a risk factor for neck pain, but low sleep quality and insufficient levels of physical activity were</t>
+  </si>
+  <si>
+    <t>Identifying Treatable Trait of Dynamic Hyperinflation in Adults Living With Asthma Using the Glittre-ADL Test</t>
+  </si>
+  <si>
+    <t>Patient-targeted Smartphone Applications for Pain Management: A Review of Brazilian Apps</t>
+  </si>
+  <si>
+    <t>10.1002/pri.70094</t>
+  </si>
+  <si>
+    <t>10.1177/23971983251360912</t>
+  </si>
+  <si>
+    <t>Effects of a 12-week physiotherapist-supervised home-based rehabilitation program on the functional exercise capacity in people with systemic sclerosis</t>
+  </si>
+  <si>
+    <t>Balance, Gait Speed, and Functional Strength in Individuals with Spinocerebellar Ataxia and Healthy Controls: a Cross-Sectional Study on Disease Severity</t>
+  </si>
+  <si>
+    <t>10.46979/rbn.v61i2.66860</t>
   </si>
 </sst>
 </file>
@@ -4303,7 +4333,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -4358,6 +4388,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4700,13 +4739,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I613"/>
+  <dimension ref="A1:I619"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B579" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B582" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A613" sqref="A613"/>
+      <selection pane="bottomRight" activeCell="A619" sqref="A619"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5061,7 +5100,7 @@
       <c r="A32" s="15">
         <v>2012</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="20" t="s">
         <v>53</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -6189,7 +6228,7 @@
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A133" s="15">
+      <c r="A133" s="19">
         <v>2016</v>
       </c>
       <c r="B133" s="4" t="s">
@@ -6200,7 +6239,7 @@
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A134" s="15">
+      <c r="A134" s="19">
         <v>2016</v>
       </c>
       <c r="B134" s="4" t="s">
@@ -6233,7 +6272,7 @@
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A137" s="15">
+      <c r="A137" s="19">
         <v>2016</v>
       </c>
       <c r="B137" s="9" t="s">
@@ -6859,10 +6898,10 @@
       <c r="A194" s="15">
         <v>2017</v>
       </c>
-      <c r="B194" s="3" t="s">
+      <c r="B194" s="21" t="s">
         <v>325</v>
       </c>
-      <c r="C194" s="3" t="s">
+      <c r="C194" s="21" t="s">
         <v>326</v>
       </c>
     </row>
@@ -7032,7 +7071,7 @@
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A210" s="15">
+      <c r="A210" s="19">
         <v>2017</v>
       </c>
       <c r="B210" s="3" t="s">
@@ -7107,7 +7146,7 @@
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A217" s="15">
+      <c r="A217" s="19">
         <v>2017</v>
       </c>
       <c r="B217" s="3" t="s">
@@ -8264,10 +8303,10 @@
       <c r="A323" s="15">
         <v>2020</v>
       </c>
-      <c r="B323" s="4" t="s">
+      <c r="B323" s="20" t="s">
         <v>638</v>
       </c>
-      <c r="C323" s="4" t="s">
+      <c r="C323" s="20" t="s">
         <v>639</v>
       </c>
     </row>
@@ -9092,10 +9131,10 @@
       <c r="A399" s="15">
         <v>2021</v>
       </c>
-      <c r="B399" s="4" t="s">
+      <c r="B399" s="20" t="s">
         <v>764</v>
       </c>
-      <c r="C399" s="4" t="s">
+      <c r="C399" s="20" t="s">
         <v>765</v>
       </c>
     </row>
@@ -9728,10 +9767,10 @@
       <c r="A457" s="15">
         <v>2022</v>
       </c>
-      <c r="B457" s="4" t="s">
+      <c r="B457" s="20" t="s">
         <v>851</v>
       </c>
-      <c r="C457" s="4" t="s">
+      <c r="C457" s="20" t="s">
         <v>852</v>
       </c>
     </row>
@@ -9883,7 +9922,7 @@
         <v>2023</v>
       </c>
       <c r="C471" s="3" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.2">
@@ -10351,10 +10390,10 @@
         <v>2024</v>
       </c>
       <c r="B514" s="3" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C514" s="3" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.2">
@@ -10373,10 +10412,10 @@
         <v>2024</v>
       </c>
       <c r="B516" s="3" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C516" s="3" t="s">
         <v>1324</v>
-      </c>
-      <c r="C516" s="3" t="s">
-        <v>1325</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.2">
@@ -10395,10 +10434,10 @@
         <v>2024</v>
       </c>
       <c r="B518" s="3" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="C518" s="3" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.2">
@@ -10406,10 +10445,10 @@
         <v>2024</v>
       </c>
       <c r="B519" s="3" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C519" s="3" t="s">
         <v>1268</v>
-      </c>
-      <c r="C519" s="3" t="s">
-        <v>1269</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.2">
@@ -10417,10 +10456,10 @@
         <v>2024</v>
       </c>
       <c r="B520" s="3" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="C520" s="3" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.2">
@@ -10428,7 +10467,7 @@
         <v>2024</v>
       </c>
       <c r="C521" s="3" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.2">
@@ -10436,10 +10475,10 @@
         <v>2024</v>
       </c>
       <c r="B522" s="3" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="C522" s="3" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.2">
@@ -10458,10 +10497,10 @@
         <v>2024</v>
       </c>
       <c r="B524" s="3" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C524" s="3" t="s">
         <v>1287</v>
-      </c>
-      <c r="C524" s="3" t="s">
-        <v>1288</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.2">
@@ -10480,10 +10519,10 @@
         <v>2024</v>
       </c>
       <c r="B526" s="3" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="C526" s="3" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.2">
@@ -10502,10 +10541,10 @@
         <v>2024</v>
       </c>
       <c r="B528" s="3" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C528" s="3" t="s">
         <v>1344</v>
-      </c>
-      <c r="C528" s="3" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.2">
@@ -10524,10 +10563,10 @@
         <v>2024</v>
       </c>
       <c r="B530" s="3" t="s">
-        <v>1265</v>
+        <v>1276</v>
       </c>
       <c r="C530" s="3" t="s">
-        <v>1260</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.2">
@@ -10535,10 +10574,10 @@
         <v>2024</v>
       </c>
       <c r="B531" s="3" t="s">
-        <v>1277</v>
+        <v>1139</v>
       </c>
       <c r="C531" s="3" t="s">
-        <v>1276</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.2">
@@ -10546,10 +10585,10 @@
         <v>2024</v>
       </c>
       <c r="B532" s="3" t="s">
-        <v>1139</v>
+        <v>1239</v>
       </c>
       <c r="C532" s="3" t="s">
-        <v>1134</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.2">
@@ -10557,10 +10596,10 @@
         <v>2024</v>
       </c>
       <c r="B533" s="3" t="s">
-        <v>1239</v>
+        <v>1254</v>
       </c>
       <c r="C533" s="3" t="s">
-        <v>1238</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.2">
@@ -10568,10 +10607,10 @@
         <v>2024</v>
       </c>
       <c r="B534" s="3" t="s">
-        <v>1254</v>
+        <v>1234</v>
       </c>
       <c r="C534" s="3" t="s">
-        <v>1253</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.2">
@@ -10579,10 +10618,10 @@
         <v>2024</v>
       </c>
       <c r="B535" s="3" t="s">
-        <v>1234</v>
+        <v>1078</v>
       </c>
       <c r="C535" s="3" t="s">
-        <v>1249</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.2">
@@ -10590,10 +10629,10 @@
         <v>2024</v>
       </c>
       <c r="B536" s="3" t="s">
-        <v>1078</v>
+        <v>1143</v>
       </c>
       <c r="C536" s="3" t="s">
-        <v>1077</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.2">
@@ -10601,10 +10640,10 @@
         <v>2024</v>
       </c>
       <c r="B537" s="3" t="s">
-        <v>1143</v>
+        <v>1118</v>
       </c>
       <c r="C537" s="3" t="s">
-        <v>1127</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.2">
@@ -10612,10 +10651,10 @@
         <v>2024</v>
       </c>
       <c r="B538" s="3" t="s">
-        <v>1118</v>
+        <v>1155</v>
       </c>
       <c r="C538" s="3" t="s">
-        <v>1115</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.2">
@@ -10623,10 +10662,10 @@
         <v>2024</v>
       </c>
       <c r="B539" s="3" t="s">
-        <v>1155</v>
+        <v>1225</v>
       </c>
       <c r="C539" s="3" t="s">
-        <v>1156</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.2">
@@ -10634,10 +10673,10 @@
         <v>2024</v>
       </c>
       <c r="B540" s="3" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
       <c r="C540" s="3" t="s">
-        <v>1226</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.2">
@@ -10645,10 +10684,10 @@
         <v>2024</v>
       </c>
       <c r="B541" s="3" t="s">
-        <v>1227</v>
+        <v>1292</v>
       </c>
       <c r="C541" s="3" t="s">
-        <v>1160</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.2">
@@ -10656,21 +10695,21 @@
         <v>2024</v>
       </c>
       <c r="B542" s="3" t="s">
-        <v>1293</v>
+        <v>1152</v>
       </c>
       <c r="C542" s="3" t="s">
-        <v>1283</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A543" s="15">
         <v>2024</v>
       </c>
-      <c r="B543" s="3" t="s">
-        <v>1152</v>
-      </c>
-      <c r="C543" s="3" t="s">
-        <v>1151</v>
+      <c r="B543" s="21" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C543" s="21" t="s">
+        <v>1306</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.2">
@@ -10678,10 +10717,10 @@
         <v>2024</v>
       </c>
       <c r="B544" s="3" t="s">
-        <v>1306</v>
+        <v>1161</v>
       </c>
       <c r="C544" s="3" t="s">
-        <v>1307</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.2">
@@ -10689,10 +10728,10 @@
         <v>2024</v>
       </c>
       <c r="B545" s="3" t="s">
-        <v>1161</v>
+        <v>1073</v>
       </c>
       <c r="C545" s="3" t="s">
-        <v>1114</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.2">
@@ -10700,10 +10739,10 @@
         <v>2024</v>
       </c>
       <c r="B546" s="3" t="s">
-        <v>1073</v>
+        <v>1288</v>
       </c>
       <c r="C546" s="3" t="s">
-        <v>1068</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.2">
@@ -10711,10 +10750,10 @@
         <v>2024</v>
       </c>
       <c r="B547" s="3" t="s">
-        <v>1289</v>
+        <v>1123</v>
       </c>
       <c r="C547" s="3" t="s">
-        <v>1290</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.2">
@@ -10722,10 +10761,10 @@
         <v>2024</v>
       </c>
       <c r="B548" s="3" t="s">
-        <v>1123</v>
+        <v>1126</v>
       </c>
       <c r="C548" s="3" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.2">
@@ -10733,10 +10772,10 @@
         <v>2024</v>
       </c>
       <c r="B549" s="3" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="C549" s="3" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.2">
@@ -10744,10 +10783,10 @@
         <v>2024</v>
       </c>
       <c r="B550" s="3" t="s">
-        <v>1122</v>
+        <v>1278</v>
       </c>
       <c r="C550" s="3" t="s">
-        <v>1120</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.2">
@@ -10755,10 +10794,10 @@
         <v>2024</v>
       </c>
       <c r="B551" s="3" t="s">
-        <v>1279</v>
+        <v>1132</v>
       </c>
       <c r="C551" s="3" t="s">
-        <v>1278</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.2">
@@ -10766,10 +10805,10 @@
         <v>2024</v>
       </c>
       <c r="B552" s="3" t="s">
-        <v>1132</v>
+        <v>1297</v>
       </c>
       <c r="C552" s="3" t="s">
-        <v>1121</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.2">
@@ -10777,10 +10816,10 @@
         <v>2024</v>
       </c>
       <c r="B553" s="3" t="s">
-        <v>1298</v>
+        <v>1142</v>
       </c>
       <c r="C553" s="3" t="s">
-        <v>1286</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.2">
@@ -10788,10 +10827,10 @@
         <v>2024</v>
       </c>
       <c r="B554" s="3" t="s">
-        <v>1142</v>
+        <v>1250</v>
       </c>
       <c r="C554" s="3" t="s">
-        <v>1141</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.2">
@@ -10799,10 +10838,10 @@
         <v>2024</v>
       </c>
       <c r="B555" s="3" t="s">
-        <v>1250</v>
+        <v>1131</v>
       </c>
       <c r="C555" s="3" t="s">
-        <v>1246</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.2">
@@ -10810,10 +10849,10 @@
         <v>2024</v>
       </c>
       <c r="B556" s="3" t="s">
-        <v>1131</v>
+        <v>1140</v>
       </c>
       <c r="C556" s="3" t="s">
-        <v>1130</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.2">
@@ -10821,10 +10860,10 @@
         <v>2024</v>
       </c>
       <c r="B557" s="3" t="s">
-        <v>1140</v>
+        <v>1265</v>
       </c>
       <c r="C557" s="3" t="s">
-        <v>1133</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.2">
@@ -10832,10 +10871,10 @@
         <v>2024</v>
       </c>
       <c r="B558" s="3" t="s">
-        <v>1266</v>
+        <v>1113</v>
       </c>
       <c r="C558" s="3" t="s">
-        <v>1267</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.2">
@@ -10843,10 +10882,10 @@
         <v>2024</v>
       </c>
       <c r="B559" s="3" t="s">
-        <v>1113</v>
+        <v>1262</v>
       </c>
       <c r="C559" s="3" t="s">
-        <v>1110</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.2">
@@ -10854,32 +10893,32 @@
         <v>2024</v>
       </c>
       <c r="B560" s="3" t="s">
-        <v>1263</v>
+        <v>1252</v>
       </c>
       <c r="C560" s="3" t="s">
-        <v>1159</v>
-      </c>
-    </row>
-    <row r="561" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A561" s="15">
         <v>2024</v>
       </c>
       <c r="B561" s="3" t="s">
-        <v>1252</v>
-      </c>
-      <c r="C561" s="3" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="562" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>1281</v>
+      </c>
+      <c r="C561" s="18" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A562" s="15">
         <v>2024</v>
       </c>
       <c r="B562" s="3" t="s">
-        <v>1282</v>
-      </c>
-      <c r="C562" s="18" t="s">
-        <v>1281</v>
+        <v>1230</v>
+      </c>
+      <c r="C562" s="3" t="s">
+        <v>1231</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.2">
@@ -10887,10 +10926,10 @@
         <v>2024</v>
       </c>
       <c r="B563" s="3" t="s">
-        <v>1230</v>
+        <v>1247</v>
       </c>
       <c r="C563" s="3" t="s">
-        <v>1231</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.2">
@@ -10898,10 +10937,10 @@
         <v>2024</v>
       </c>
       <c r="B564" s="3" t="s">
-        <v>1247</v>
+        <v>1232</v>
       </c>
       <c r="C564" s="3" t="s">
-        <v>1248</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.2">
@@ -10909,10 +10948,10 @@
         <v>2024</v>
       </c>
       <c r="B565" s="3" t="s">
-        <v>1232</v>
+        <v>1150</v>
       </c>
       <c r="C565" s="3" t="s">
-        <v>1233</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.2">
@@ -10920,10 +10959,10 @@
         <v>2024</v>
       </c>
       <c r="B566" s="3" t="s">
-        <v>1150</v>
+        <v>1290</v>
       </c>
       <c r="C566" s="3" t="s">
-        <v>1149</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.2">
@@ -10931,10 +10970,10 @@
         <v>2024</v>
       </c>
       <c r="B567" s="3" t="s">
-        <v>1291</v>
+        <v>1135</v>
       </c>
       <c r="C567" s="3" t="s">
-        <v>1292</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.2">
@@ -10942,10 +10981,10 @@
         <v>2024</v>
       </c>
       <c r="B568" s="3" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="C568" s="3" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.2">
@@ -10953,10 +10992,10 @@
         <v>2024</v>
       </c>
       <c r="B569" s="3" t="s">
-        <v>1137</v>
+        <v>1293</v>
       </c>
       <c r="C569" s="3" t="s">
-        <v>1138</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.2">
@@ -10964,10 +11003,10 @@
         <v>2024</v>
       </c>
       <c r="B570" s="3" t="s">
-        <v>1294</v>
+        <v>1153</v>
       </c>
       <c r="C570" s="3" t="s">
-        <v>1295</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.2">
@@ -10975,10 +11014,10 @@
         <v>2024</v>
       </c>
       <c r="B571" s="3" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="C571" s="3" t="s">
-        <v>1154</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.2">
@@ -10986,10 +11025,10 @@
         <v>2024</v>
       </c>
       <c r="B572" s="3" t="s">
-        <v>1148</v>
+        <v>1270</v>
       </c>
       <c r="C572" s="3" t="s">
-        <v>1147</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.2">
@@ -10997,32 +11036,32 @@
         <v>2024</v>
       </c>
       <c r="B573" s="3" t="s">
-        <v>1271</v>
+        <v>1145</v>
       </c>
       <c r="C573" s="3" t="s">
-        <v>1270</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A574" s="15">
-        <v>2024</v>
-      </c>
-      <c r="B574" s="3" t="s">
-        <v>1145</v>
+        <v>2025</v>
+      </c>
+      <c r="B574" t="s">
+        <v>1319</v>
       </c>
       <c r="C574" s="3" t="s">
-        <v>1144</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A575" s="15">
         <v>2025</v>
       </c>
-      <c r="B575" t="s">
-        <v>1320</v>
+      <c r="B575" s="3" t="s">
+        <v>1337</v>
       </c>
       <c r="C575" s="3" t="s">
-        <v>1311</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.2">
@@ -11030,10 +11069,10 @@
         <v>2025</v>
       </c>
       <c r="B576" s="3" t="s">
-        <v>1338</v>
+        <v>1396</v>
       </c>
       <c r="C576" s="3" t="s">
-        <v>1334</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.2">
@@ -11041,21 +11080,21 @@
         <v>2025</v>
       </c>
       <c r="B577" s="3" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="C577" s="3" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A578" s="15">
         <v>2025</v>
       </c>
-      <c r="B578" s="3" t="s">
+      <c r="B578" s="21" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C578" s="21" t="s">
         <v>1329</v>
-      </c>
-      <c r="C578" s="3" t="s">
-        <v>1330</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.2">
@@ -11063,32 +11102,32 @@
         <v>2025</v>
       </c>
       <c r="B579" s="3" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="C579" s="3" t="s">
-        <v>1331</v>
-      </c>
-    </row>
-    <row r="580" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A580" s="15">
         <v>2025</v>
       </c>
-      <c r="B580" s="3" t="s">
-        <v>1310</v>
-      </c>
-      <c r="C580" s="3" t="s">
-        <v>1308</v>
+      <c r="B580" s="5" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C580" s="18" t="s">
+        <v>1386</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A581" s="15">
         <v>2025</v>
       </c>
-      <c r="B581" s="5" t="s">
-        <v>1370</v>
+      <c r="B581" s="3" t="s">
+        <v>1309</v>
       </c>
       <c r="C581" s="3" t="s">
-        <v>1367</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.2">
@@ -11096,10 +11135,10 @@
         <v>2025</v>
       </c>
       <c r="B582" s="3" t="s">
-        <v>1361</v>
+        <v>1369</v>
       </c>
       <c r="C582" s="3" t="s">
-        <v>1359</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.2">
@@ -11107,10 +11146,10 @@
         <v>2025</v>
       </c>
       <c r="B583" s="3" t="s">
-        <v>1350</v>
+        <v>1360</v>
       </c>
       <c r="C583" s="3" t="s">
-        <v>1341</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.2">
@@ -11118,32 +11157,32 @@
         <v>2025</v>
       </c>
       <c r="B584" s="3" t="s">
-        <v>1382</v>
+        <v>1349</v>
       </c>
       <c r="C584" s="3" t="s">
-        <v>1381</v>
-      </c>
-    </row>
-    <row r="585" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A585" s="15">
         <v>2025</v>
       </c>
       <c r="B585" s="3" t="s">
-        <v>1379</v>
-      </c>
-      <c r="C585" s="18" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C585" s="3" t="s">
         <v>1380</v>
       </c>
     </row>
-    <row r="586" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A586" s="15">
         <v>2025</v>
       </c>
       <c r="B586" s="3" t="s">
-        <v>1346</v>
-      </c>
-      <c r="C586" s="3" t="s">
-        <v>1347</v>
+        <v>1378</v>
+      </c>
+      <c r="C586" s="18" t="s">
+        <v>1379</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.2">
@@ -11151,10 +11190,10 @@
         <v>2025</v>
       </c>
       <c r="B587" s="3" t="s">
-        <v>1339</v>
+        <v>1345</v>
       </c>
       <c r="C587" s="3" t="s">
-        <v>1333</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.2">
@@ -11162,10 +11201,10 @@
         <v>2025</v>
       </c>
       <c r="B588" s="3" t="s">
-        <v>1312</v>
+        <v>1338</v>
       </c>
       <c r="C588" s="3" t="s">
-        <v>1284</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.2">
@@ -11173,10 +11212,10 @@
         <v>2025</v>
       </c>
       <c r="B589" s="3" t="s">
-        <v>1368</v>
+        <v>1311</v>
       </c>
       <c r="C589" s="3" t="s">
-        <v>1373</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.2">
@@ -11184,10 +11223,10 @@
         <v>2025</v>
       </c>
       <c r="B590" s="3" t="s">
-        <v>1296</v>
+        <v>1367</v>
       </c>
       <c r="C590" s="3" t="s">
-        <v>1297</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.2">
@@ -11195,10 +11234,10 @@
         <v>2025</v>
       </c>
       <c r="B591" s="3" t="s">
-        <v>1356</v>
+        <v>1295</v>
       </c>
       <c r="C591" s="3" t="s">
-        <v>1353</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.2">
@@ -11206,10 +11245,10 @@
         <v>2025</v>
       </c>
       <c r="B592" s="3" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C592" s="3" t="s">
         <v>1384</v>
-      </c>
-      <c r="C592" s="3" t="s">
-        <v>1383</v>
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.2">
@@ -11217,10 +11256,10 @@
         <v>2025</v>
       </c>
       <c r="B593" s="3" t="s">
-        <v>1349</v>
+        <v>1392</v>
       </c>
       <c r="C593" s="3" t="s">
-        <v>1348</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.2">
@@ -11228,10 +11267,10 @@
         <v>2025</v>
       </c>
       <c r="B594" s="3" t="s">
-        <v>1378</v>
+        <v>1355</v>
       </c>
       <c r="C594" s="3" t="s">
-        <v>1377</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.2">
@@ -11239,10 +11278,10 @@
         <v>2025</v>
       </c>
       <c r="B595" s="3" t="s">
-        <v>1337</v>
+        <v>1383</v>
       </c>
       <c r="C595" s="3" t="s">
-        <v>1332</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.2">
@@ -11250,10 +11289,10 @@
         <v>2025</v>
       </c>
       <c r="B596" s="3" t="s">
-        <v>1322</v>
+        <v>1348</v>
       </c>
       <c r="C596" s="3" t="s">
-        <v>1309</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.2">
@@ -11261,10 +11300,10 @@
         <v>2025</v>
       </c>
       <c r="B597" s="3" t="s">
-        <v>1305</v>
+        <v>1388</v>
       </c>
       <c r="C597" s="3" t="s">
-        <v>1304</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.2">
@@ -11272,10 +11311,10 @@
         <v>2025</v>
       </c>
       <c r="B598" s="3" t="s">
-        <v>1315</v>
+        <v>1377</v>
       </c>
       <c r="C598" s="3" t="s">
-        <v>1313</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.2">
@@ -11283,10 +11322,10 @@
         <v>2025</v>
       </c>
       <c r="B599" s="3" t="s">
-        <v>1302</v>
+        <v>1336</v>
       </c>
       <c r="C599" s="3" t="s">
-        <v>1301</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.2">
@@ -11294,10 +11333,10 @@
         <v>2025</v>
       </c>
       <c r="B600" s="3" t="s">
-        <v>1351</v>
+        <v>1321</v>
       </c>
       <c r="C600" s="3" t="s">
-        <v>1352</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.2">
@@ -11305,10 +11344,10 @@
         <v>2025</v>
       </c>
       <c r="B601" s="3" t="s">
-        <v>1321</v>
+        <v>1304</v>
       </c>
       <c r="C601" s="3" t="s">
-        <v>1319</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.2">
@@ -11316,10 +11355,10 @@
         <v>2025</v>
       </c>
       <c r="B602" s="3" t="s">
-        <v>1336</v>
+        <v>1314</v>
       </c>
       <c r="C602" s="3" t="s">
-        <v>1335</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.2">
@@ -11327,10 +11366,10 @@
         <v>2025</v>
       </c>
       <c r="B603" s="3" t="s">
-        <v>1363</v>
+        <v>1301</v>
       </c>
       <c r="C603" s="3" t="s">
-        <v>1358</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.2">
@@ -11338,10 +11377,10 @@
         <v>2025</v>
       </c>
       <c r="B604" s="3" t="s">
-        <v>1328</v>
+        <v>1350</v>
       </c>
       <c r="C604" s="3" t="s">
-        <v>1323</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.2">
@@ -11349,45 +11388,51 @@
         <v>2025</v>
       </c>
       <c r="B605" s="3" t="s">
-        <v>1360</v>
+        <v>1320</v>
       </c>
       <c r="C605" s="3" t="s">
-        <v>1355</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A606" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B606" s="3" t="s">
-        <v>1374</v>
-      </c>
-      <c r="C606" s="3" t="s">
-        <v>1375</v>
+      <c r="A606" s="15">
+        <v>2025</v>
+      </c>
+      <c r="B606" s="21" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C606" s="21" t="s">
+        <v>1334</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A607" s="15" t="s">
-        <v>0</v>
+      <c r="A607" s="15">
+        <v>2025</v>
+      </c>
+      <c r="B607" s="3" t="s">
+        <v>1362</v>
       </c>
       <c r="C607" s="3" t="s">
-        <v>1237</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A608" s="15" t="s">
-        <v>0</v>
+      <c r="A608" s="15">
+        <v>2025</v>
       </c>
       <c r="B608" s="3" t="s">
-        <v>1376</v>
+        <v>1327</v>
       </c>
       <c r="C608" s="3" t="s">
-        <v>1369</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A609" s="15" t="s">
-        <v>0</v>
+      <c r="A609" s="15">
+        <v>2025</v>
+      </c>
+      <c r="B609" s="3" t="s">
+        <v>1359</v>
       </c>
       <c r="C609" s="3" t="s">
         <v>1354</v>
@@ -11397,30 +11442,27 @@
       <c r="A610" s="15" t="s">
         <v>0</v>
       </c>
+      <c r="B610" s="3" t="s">
+        <v>1373</v>
+      </c>
       <c r="C610" s="3" t="s">
-        <v>1364</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A611" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B611" s="3" t="s">
-        <v>1366</v>
-      </c>
       <c r="C611" s="3" t="s">
-        <v>1365</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A612" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B612" s="3" t="s">
-        <v>1357</v>
-      </c>
       <c r="C612" s="3" t="s">
-        <v>1340</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.2">
@@ -11428,16 +11470,73 @@
         <v>0</v>
       </c>
       <c r="B613" s="3" t="s">
-        <v>1386</v>
+        <v>1375</v>
       </c>
       <c r="C613" s="3" t="s">
-        <v>1385</v>
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="614" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A614" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B614" s="3" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C614" s="3" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="615" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A615" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C615" s="3" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="616" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A616" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C616" s="3" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="617" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A617" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B617" s="3" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C617" s="3" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="618" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A618" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C618" s="3" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="619" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A619" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B619" s="3" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C619" s="3" t="s">
+        <v>1339</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C612">
-    <sortCondition ref="A2:A612"/>
-    <sortCondition ref="C2:C612"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C619">
+    <sortCondition ref="A2:A619"/>
+    <sortCondition ref="C2:C619"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="Submetido">
@@ -11463,7 +11562,7 @@
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="B449" r:id="rId1" xr:uid="{9BCE4324-8A77-884E-80ED-4C3988C2A1D3}"/>
-    <hyperlink ref="B582" r:id="rId2" display="https://doi.org/10.63231/2595-0118.20250016-em" xr:uid="{71D2DE81-84B4-E94C-AB67-C52CD70CA320}"/>
+    <hyperlink ref="B583" r:id="rId2" display="https://doi.org/10.63231/2595-0118.20250016-em" xr:uid="{71D2DE81-84B4-E94C-AB67-C52CD70CA320}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape"/>
@@ -11835,10 +11934,10 @@
         <v>2024</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -11854,10 +11953,10 @@
         <v>2025</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>1317</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>1318</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -11865,10 +11964,10 @@
         <v>2025</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -11876,10 +11975,10 @@
         <v>2025</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
   </sheetData>

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurferreira/Google Drive - arthur_sf/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C790CD7-4FE3-154E-B87B-A3949CDD39AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2ABC9F-E2E8-5F45-A210-F42CBC2AB7A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="680" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1429" uniqueCount="1397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="1404">
   <si>
     <t>Aceito</t>
   </si>
@@ -4237,6 +4237,27 @@
   </si>
   <si>
     <t>10.46979/rbn.v61i2.66860</t>
+  </si>
+  <si>
+    <t>Beyond a Diagnosis: A Qualitative Study of Women’s Experiences of Painful Sexual Intercourse</t>
+  </si>
+  <si>
+    <t>10.1097/AJP.0000000000001316</t>
+  </si>
+  <si>
+    <t>10.1016/j.bjpt.2025.101258</t>
+  </si>
+  <si>
+    <t>10.3389/fstro.2025.1682445</t>
+  </si>
+  <si>
+    <t>Editorial: Evaluation of Fitness in Stroke Survivors</t>
+  </si>
+  <si>
+    <t>Effects of pneumatic compression and manual massage on recovery and perfornance in Elite Brazilian Under-20 Soccer Players: A crossover trial</t>
+  </si>
+  <si>
+    <t>10.3390/sports13090304</t>
   </si>
 </sst>
 </file>
@@ -4333,7 +4354,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -4388,15 +4409,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4739,13 +4751,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I619"/>
+  <dimension ref="A1:I621"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B582" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B584" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A619" sqref="A619"/>
+      <selection pane="bottomRight" activeCell="A621" sqref="A621"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5100,7 +5112,7 @@
       <c r="A32" s="15">
         <v>2012</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="4" t="s">
         <v>53</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -6228,7 +6240,7 @@
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A133" s="19">
+      <c r="A133" s="15">
         <v>2016</v>
       </c>
       <c r="B133" s="4" t="s">
@@ -6239,7 +6251,7 @@
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A134" s="19">
+      <c r="A134" s="15">
         <v>2016</v>
       </c>
       <c r="B134" s="4" t="s">
@@ -6272,7 +6284,7 @@
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A137" s="19">
+      <c r="A137" s="15">
         <v>2016</v>
       </c>
       <c r="B137" s="9" t="s">
@@ -6898,10 +6910,10 @@
       <c r="A194" s="15">
         <v>2017</v>
       </c>
-      <c r="B194" s="21" t="s">
+      <c r="B194" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="C194" s="21" t="s">
+      <c r="C194" s="3" t="s">
         <v>326</v>
       </c>
     </row>
@@ -7071,7 +7083,7 @@
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A210" s="19">
+      <c r="A210" s="15">
         <v>2017</v>
       </c>
       <c r="B210" s="3" t="s">
@@ -7146,7 +7158,7 @@
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A217" s="19">
+      <c r="A217" s="15">
         <v>2017</v>
       </c>
       <c r="B217" s="3" t="s">
@@ -8303,10 +8315,10 @@
       <c r="A323" s="15">
         <v>2020</v>
       </c>
-      <c r="B323" s="20" t="s">
+      <c r="B323" s="4" t="s">
         <v>638</v>
       </c>
-      <c r="C323" s="20" t="s">
+      <c r="C323" s="4" t="s">
         <v>639</v>
       </c>
     </row>
@@ -9131,10 +9143,10 @@
       <c r="A399" s="15">
         <v>2021</v>
       </c>
-      <c r="B399" s="20" t="s">
+      <c r="B399" s="4" t="s">
         <v>764</v>
       </c>
-      <c r="C399" s="20" t="s">
+      <c r="C399" s="4" t="s">
         <v>765</v>
       </c>
     </row>
@@ -9767,10 +9779,10 @@
       <c r="A457" s="15">
         <v>2022</v>
       </c>
-      <c r="B457" s="20" t="s">
+      <c r="B457" s="4" t="s">
         <v>851</v>
       </c>
-      <c r="C457" s="20" t="s">
+      <c r="C457" s="4" t="s">
         <v>852</v>
       </c>
     </row>
@@ -10705,10 +10717,10 @@
       <c r="A543" s="15">
         <v>2024</v>
       </c>
-      <c r="B543" s="21" t="s">
+      <c r="B543" s="3" t="s">
         <v>1305</v>
       </c>
-      <c r="C543" s="21" t="s">
+      <c r="C543" s="3" t="s">
         <v>1306</v>
       </c>
     </row>
@@ -11080,21 +11092,21 @@
         <v>2025</v>
       </c>
       <c r="B577" s="3" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="C577" s="3" t="s">
-        <v>1370</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A578" s="15">
         <v>2025</v>
       </c>
-      <c r="B578" s="21" t="s">
-        <v>1328</v>
-      </c>
-      <c r="C578" s="21" t="s">
-        <v>1329</v>
+      <c r="B578" s="3" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C578" s="3" t="s">
+        <v>1370</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.2">
@@ -11102,32 +11114,32 @@
         <v>2025</v>
       </c>
       <c r="B579" s="3" t="s">
-        <v>1361</v>
+        <v>1328</v>
       </c>
       <c r="C579" s="3" t="s">
-        <v>1330</v>
-      </c>
-    </row>
-    <row r="580" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A580" s="15">
         <v>2025</v>
       </c>
       <c r="B580" s="5" t="s">
-        <v>1264</v>
-      </c>
-      <c r="C580" s="18" t="s">
-        <v>1386</v>
-      </c>
-    </row>
-    <row r="581" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1361</v>
+      </c>
+      <c r="C580" s="3" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A581" s="15">
         <v>2025</v>
       </c>
       <c r="B581" s="3" t="s">
-        <v>1309</v>
-      </c>
-      <c r="C581" s="3" t="s">
-        <v>1307</v>
+        <v>1264</v>
+      </c>
+      <c r="C581" s="18" t="s">
+        <v>1386</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.2">
@@ -11135,10 +11147,10 @@
         <v>2025</v>
       </c>
       <c r="B582" s="3" t="s">
-        <v>1369</v>
+        <v>1309</v>
       </c>
       <c r="C582" s="3" t="s">
-        <v>1366</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.2">
@@ -11146,10 +11158,10 @@
         <v>2025</v>
       </c>
       <c r="B583" s="3" t="s">
-        <v>1360</v>
+        <v>1369</v>
       </c>
       <c r="C583" s="3" t="s">
-        <v>1358</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.2">
@@ -11157,10 +11169,10 @@
         <v>2025</v>
       </c>
       <c r="B584" s="3" t="s">
-        <v>1349</v>
+        <v>1360</v>
       </c>
       <c r="C584" s="3" t="s">
-        <v>1340</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.2">
@@ -11168,32 +11180,32 @@
         <v>2025</v>
       </c>
       <c r="B585" s="3" t="s">
-        <v>1381</v>
+        <v>1349</v>
       </c>
       <c r="C585" s="3" t="s">
-        <v>1380</v>
-      </c>
-    </row>
-    <row r="586" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A586" s="15">
         <v>2025</v>
       </c>
       <c r="B586" s="3" t="s">
-        <v>1378</v>
-      </c>
-      <c r="C586" s="18" t="s">
-        <v>1379</v>
-      </c>
-    </row>
-    <row r="587" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1381</v>
+      </c>
+      <c r="C586" s="3" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A587" s="15">
         <v>2025</v>
       </c>
       <c r="B587" s="3" t="s">
-        <v>1345</v>
-      </c>
-      <c r="C587" s="3" t="s">
-        <v>1346</v>
+        <v>1378</v>
+      </c>
+      <c r="C587" s="18" t="s">
+        <v>1379</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.2">
@@ -11201,10 +11213,10 @@
         <v>2025</v>
       </c>
       <c r="B588" s="3" t="s">
-        <v>1338</v>
+        <v>1345</v>
       </c>
       <c r="C588" s="3" t="s">
-        <v>1332</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.2">
@@ -11212,10 +11224,10 @@
         <v>2025</v>
       </c>
       <c r="B589" s="3" t="s">
-        <v>1311</v>
+        <v>1403</v>
       </c>
       <c r="C589" s="3" t="s">
-        <v>1283</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.2">
@@ -11223,10 +11235,10 @@
         <v>2025</v>
       </c>
       <c r="B590" s="3" t="s">
-        <v>1367</v>
+        <v>1338</v>
       </c>
       <c r="C590" s="3" t="s">
-        <v>1372</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.2">
@@ -11234,10 +11246,10 @@
         <v>2025</v>
       </c>
       <c r="B591" s="3" t="s">
-        <v>1295</v>
+        <v>1311</v>
       </c>
       <c r="C591" s="3" t="s">
-        <v>1296</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.2">
@@ -11245,10 +11257,10 @@
         <v>2025</v>
       </c>
       <c r="B592" s="3" t="s">
-        <v>1385</v>
+        <v>1367</v>
       </c>
       <c r="C592" s="3" t="s">
-        <v>1384</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.2">
@@ -11256,10 +11268,10 @@
         <v>2025</v>
       </c>
       <c r="B593" s="3" t="s">
-        <v>1392</v>
+        <v>1295</v>
       </c>
       <c r="C593" s="3" t="s">
-        <v>1390</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.2">
@@ -11267,10 +11279,10 @@
         <v>2025</v>
       </c>
       <c r="B594" s="3" t="s">
-        <v>1355</v>
+        <v>1385</v>
       </c>
       <c r="C594" s="3" t="s">
-        <v>1352</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.2">
@@ -11278,10 +11290,10 @@
         <v>2025</v>
       </c>
       <c r="B595" s="3" t="s">
-        <v>1383</v>
+        <v>1392</v>
       </c>
       <c r="C595" s="3" t="s">
-        <v>1382</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.2">
@@ -11289,10 +11301,10 @@
         <v>2025</v>
       </c>
       <c r="B596" s="3" t="s">
-        <v>1348</v>
+        <v>1355</v>
       </c>
       <c r="C596" s="3" t="s">
-        <v>1347</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.2">
@@ -11300,10 +11312,10 @@
         <v>2025</v>
       </c>
       <c r="B597" s="3" t="s">
-        <v>1388</v>
+        <v>1383</v>
       </c>
       <c r="C597" s="3" t="s">
-        <v>1387</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.2">
@@ -11311,10 +11323,10 @@
         <v>2025</v>
       </c>
       <c r="B598" s="3" t="s">
-        <v>1377</v>
+        <v>1348</v>
       </c>
       <c r="C598" s="3" t="s">
-        <v>1376</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.2">
@@ -11322,10 +11334,10 @@
         <v>2025</v>
       </c>
       <c r="B599" s="3" t="s">
-        <v>1336</v>
+        <v>1388</v>
       </c>
       <c r="C599" s="3" t="s">
-        <v>1331</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.2">
@@ -11333,10 +11345,10 @@
         <v>2025</v>
       </c>
       <c r="B600" s="3" t="s">
-        <v>1321</v>
+        <v>1377</v>
       </c>
       <c r="C600" s="3" t="s">
-        <v>1308</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.2">
@@ -11344,10 +11356,10 @@
         <v>2025</v>
       </c>
       <c r="B601" s="3" t="s">
-        <v>1304</v>
+        <v>1336</v>
       </c>
       <c r="C601" s="3" t="s">
-        <v>1303</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.2">
@@ -11355,10 +11367,10 @@
         <v>2025</v>
       </c>
       <c r="B602" s="3" t="s">
-        <v>1314</v>
+        <v>1321</v>
       </c>
       <c r="C602" s="3" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.2">
@@ -11366,10 +11378,10 @@
         <v>2025</v>
       </c>
       <c r="B603" s="3" t="s">
-        <v>1301</v>
+        <v>1304</v>
       </c>
       <c r="C603" s="3" t="s">
-        <v>1300</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.2">
@@ -11377,10 +11389,10 @@
         <v>2025</v>
       </c>
       <c r="B604" s="3" t="s">
-        <v>1350</v>
+        <v>1314</v>
       </c>
       <c r="C604" s="3" t="s">
-        <v>1351</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.2">
@@ -11388,21 +11400,21 @@
         <v>2025</v>
       </c>
       <c r="B605" s="3" t="s">
-        <v>1320</v>
+        <v>1301</v>
       </c>
       <c r="C605" s="3" t="s">
-        <v>1318</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A606" s="15">
         <v>2025</v>
       </c>
-      <c r="B606" s="21" t="s">
-        <v>1335</v>
-      </c>
-      <c r="C606" s="21" t="s">
-        <v>1334</v>
+      <c r="B606" s="3" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C606" s="3" t="s">
+        <v>1351</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.2">
@@ -11410,10 +11422,10 @@
         <v>2025</v>
       </c>
       <c r="B607" s="3" t="s">
-        <v>1362</v>
+        <v>1320</v>
       </c>
       <c r="C607" s="3" t="s">
-        <v>1357</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.2">
@@ -11421,10 +11433,10 @@
         <v>2025</v>
       </c>
       <c r="B608" s="3" t="s">
-        <v>1327</v>
+        <v>1335</v>
       </c>
       <c r="C608" s="3" t="s">
-        <v>1322</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.2">
@@ -11432,37 +11444,43 @@
         <v>2025</v>
       </c>
       <c r="B609" s="3" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C609" s="3" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="610" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A610" s="15">
+        <v>2025</v>
+      </c>
+      <c r="B610" s="3" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C610" s="3" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="611" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A611" s="15">
+        <v>2025</v>
+      </c>
+      <c r="B611" s="3" t="s">
         <v>1359</v>
       </c>
-      <c r="C609" s="3" t="s">
+      <c r="C611" s="3" t="s">
         <v>1354</v>
-      </c>
-    </row>
-    <row r="610" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A610" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B610" s="3" t="s">
-        <v>1373</v>
-      </c>
-      <c r="C610" s="3" t="s">
-        <v>1374</v>
-      </c>
-    </row>
-    <row r="611" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A611" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C611" s="3" t="s">
-        <v>1389</v>
       </c>
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A612" s="15" t="s">
         <v>0</v>
       </c>
+      <c r="B612" s="3" t="s">
+        <v>1373</v>
+      </c>
       <c r="C612" s="3" t="s">
-        <v>1237</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.2">
@@ -11470,48 +11488,48 @@
         <v>0</v>
       </c>
       <c r="B613" s="3" t="s">
-        <v>1375</v>
+        <v>1398</v>
       </c>
       <c r="C613" s="3" t="s">
-        <v>1368</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A614" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B614" s="3" t="s">
-        <v>1393</v>
-      </c>
       <c r="C614" s="3" t="s">
-        <v>1394</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A615" s="15" t="s">
         <v>0</v>
       </c>
+      <c r="B615" s="3" t="s">
+        <v>1375</v>
+      </c>
       <c r="C615" s="3" t="s">
-        <v>1353</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A616" s="15" t="s">
         <v>0</v>
       </c>
+      <c r="B616" s="3" t="s">
+        <v>1393</v>
+      </c>
       <c r="C616" s="3" t="s">
-        <v>1363</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A617" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B617" s="3" t="s">
-        <v>1365</v>
-      </c>
       <c r="C617" s="3" t="s">
-        <v>1364</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.2">
@@ -11519,7 +11537,7 @@
         <v>0</v>
       </c>
       <c r="C618" s="3" t="s">
-        <v>1391</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.2">
@@ -11527,16 +11545,35 @@
         <v>0</v>
       </c>
       <c r="B619" s="3" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C619" s="3" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="620" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A620" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C620" s="3" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="621" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A621" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B621" s="3" t="s">
         <v>1356</v>
       </c>
-      <c r="C619" s="3" t="s">
+      <c r="C621" s="3" t="s">
         <v>1339</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C619">
-    <sortCondition ref="A2:A619"/>
-    <sortCondition ref="C2:C619"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C621">
+    <sortCondition ref="A2:A621"/>
+    <sortCondition ref="C2:C621"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="Submetido">
@@ -11562,7 +11599,7 @@
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="B449" r:id="rId1" xr:uid="{9BCE4324-8A77-884E-80ED-4C3988C2A1D3}"/>
-    <hyperlink ref="B583" r:id="rId2" display="https://doi.org/10.63231/2595-0118.20250016-em" xr:uid="{71D2DE81-84B4-E94C-AB67-C52CD70CA320}"/>
+    <hyperlink ref="B584" r:id="rId2" display="https://doi.org/10.63231/2595-0118.20250016-em" xr:uid="{71D2DE81-84B4-E94C-AB67-C52CD70CA320}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape"/>
@@ -11571,13 +11608,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A36" sqref="A36"/>
+      <selection pane="bottomRight" activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11979,6 +12016,17 @@
       </c>
       <c r="C36" s="3" t="s">
         <v>1325</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>1401</v>
       </c>
     </row>
   </sheetData>

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurferreira/Google Drive - arthur_sf/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2ABC9F-E2E8-5F45-A210-F42CBC2AB7A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C370EA0E-13C6-404C-9B85-AFA57EB10B5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="680" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="1404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="1408">
   <si>
     <t>Aceito</t>
   </si>
@@ -4258,6 +4258,18 @@
   </si>
   <si>
     <t>10.3390/sports13090304</t>
+  </si>
+  <si>
+    <t>10.54033/cadpedv22n11-235</t>
+  </si>
+  <si>
+    <t>Movement patterns assessment in female health sciences students at a private university in Rio de Janeiro – Brazil: a pilot study</t>
+  </si>
+  <si>
+    <t>Relationship Between Musculoskeletal Pain, Psychosocial Aspects and Quality of Work Life in Violinists and Violists: A Cross-Sectional Study in Rio de Janeiro, Brazil</t>
+  </si>
+  <si>
+    <t>"Peripheral Muscle Strength and Pulmonary Function Negatively Impact Functional Capacity in Patients With Post-Tuberculosis Lung Disease: A Cross-Sectional Study</t>
   </si>
 </sst>
 </file>
@@ -4751,13 +4763,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I621"/>
+  <dimension ref="A1:I624"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B584" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C593" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A621" sqref="A621"/>
+      <selection pane="bottomRight" activeCell="C624" sqref="C624"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11081,10 +11093,10 @@
         <v>2025</v>
       </c>
       <c r="B576" s="3" t="s">
-        <v>1396</v>
+        <v>1373</v>
       </c>
       <c r="C576" s="3" t="s">
-        <v>1395</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.2">
@@ -11092,10 +11104,10 @@
         <v>2025</v>
       </c>
       <c r="B577" s="3" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="C577" s="3" t="s">
-        <v>1389</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.2">
@@ -11103,10 +11115,10 @@
         <v>2025</v>
       </c>
       <c r="B578" s="3" t="s">
-        <v>1371</v>
+        <v>1399</v>
       </c>
       <c r="C578" s="3" t="s">
-        <v>1370</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.2">
@@ -11114,10 +11126,10 @@
         <v>2025</v>
       </c>
       <c r="B579" s="3" t="s">
-        <v>1328</v>
+        <v>1371</v>
       </c>
       <c r="C579" s="3" t="s">
-        <v>1329</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.2">
@@ -11125,32 +11137,32 @@
         <v>2025</v>
       </c>
       <c r="B580" s="5" t="s">
-        <v>1361</v>
+        <v>1328</v>
       </c>
       <c r="C580" s="3" t="s">
-        <v>1330</v>
-      </c>
-    </row>
-    <row r="581" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A581" s="15">
         <v>2025</v>
       </c>
       <c r="B581" s="3" t="s">
-        <v>1264</v>
-      </c>
-      <c r="C581" s="18" t="s">
-        <v>1386</v>
-      </c>
-    </row>
-    <row r="582" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1361</v>
+      </c>
+      <c r="C581" s="3" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A582" s="15">
         <v>2025</v>
       </c>
       <c r="B582" s="3" t="s">
-        <v>1309</v>
-      </c>
-      <c r="C582" s="3" t="s">
-        <v>1307</v>
+        <v>1264</v>
+      </c>
+      <c r="C582" s="18" t="s">
+        <v>1386</v>
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.2">
@@ -11158,10 +11170,10 @@
         <v>2025</v>
       </c>
       <c r="B583" s="3" t="s">
-        <v>1369</v>
+        <v>1309</v>
       </c>
       <c r="C583" s="3" t="s">
-        <v>1366</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.2">
@@ -11169,10 +11181,10 @@
         <v>2025</v>
       </c>
       <c r="B584" s="3" t="s">
-        <v>1360</v>
+        <v>1369</v>
       </c>
       <c r="C584" s="3" t="s">
-        <v>1358</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.2">
@@ -11180,10 +11192,10 @@
         <v>2025</v>
       </c>
       <c r="B585" s="3" t="s">
-        <v>1349</v>
+        <v>1360</v>
       </c>
       <c r="C585" s="3" t="s">
-        <v>1340</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.2">
@@ -11191,32 +11203,32 @@
         <v>2025</v>
       </c>
       <c r="B586" s="3" t="s">
-        <v>1381</v>
+        <v>1349</v>
       </c>
       <c r="C586" s="3" t="s">
-        <v>1380</v>
-      </c>
-    </row>
-    <row r="587" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A587" s="15">
         <v>2025</v>
       </c>
       <c r="B587" s="3" t="s">
-        <v>1378</v>
-      </c>
-      <c r="C587" s="18" t="s">
-        <v>1379</v>
-      </c>
-    </row>
-    <row r="588" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1381</v>
+      </c>
+      <c r="C587" s="3" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A588" s="15">
         <v>2025</v>
       </c>
       <c r="B588" s="3" t="s">
-        <v>1345</v>
-      </c>
-      <c r="C588" s="3" t="s">
-        <v>1346</v>
+        <v>1378</v>
+      </c>
+      <c r="C588" s="18" t="s">
+        <v>1379</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.2">
@@ -11224,10 +11236,10 @@
         <v>2025</v>
       </c>
       <c r="B589" s="3" t="s">
-        <v>1403</v>
+        <v>1345</v>
       </c>
       <c r="C589" s="3" t="s">
-        <v>1402</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.2">
@@ -11235,10 +11247,10 @@
         <v>2025</v>
       </c>
       <c r="B590" s="3" t="s">
-        <v>1338</v>
+        <v>1403</v>
       </c>
       <c r="C590" s="3" t="s">
-        <v>1332</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.2">
@@ -11246,10 +11258,10 @@
         <v>2025</v>
       </c>
       <c r="B591" s="3" t="s">
-        <v>1311</v>
+        <v>1338</v>
       </c>
       <c r="C591" s="3" t="s">
-        <v>1283</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.2">
@@ -11257,10 +11269,10 @@
         <v>2025</v>
       </c>
       <c r="B592" s="3" t="s">
-        <v>1367</v>
+        <v>1311</v>
       </c>
       <c r="C592" s="3" t="s">
-        <v>1372</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.2">
@@ -11268,10 +11280,10 @@
         <v>2025</v>
       </c>
       <c r="B593" s="3" t="s">
-        <v>1295</v>
+        <v>1367</v>
       </c>
       <c r="C593" s="3" t="s">
-        <v>1296</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.2">
@@ -11279,10 +11291,10 @@
         <v>2025</v>
       </c>
       <c r="B594" s="3" t="s">
-        <v>1385</v>
+        <v>1295</v>
       </c>
       <c r="C594" s="3" t="s">
-        <v>1384</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.2">
@@ -11290,10 +11302,10 @@
         <v>2025</v>
       </c>
       <c r="B595" s="3" t="s">
-        <v>1392</v>
+        <v>1385</v>
       </c>
       <c r="C595" s="3" t="s">
-        <v>1390</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.2">
@@ -11301,10 +11313,10 @@
         <v>2025</v>
       </c>
       <c r="B596" s="3" t="s">
-        <v>1355</v>
+        <v>1392</v>
       </c>
       <c r="C596" s="3" t="s">
-        <v>1352</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.2">
@@ -11312,10 +11324,10 @@
         <v>2025</v>
       </c>
       <c r="B597" s="3" t="s">
-        <v>1383</v>
+        <v>1355</v>
       </c>
       <c r="C597" s="3" t="s">
-        <v>1382</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.2">
@@ -11323,10 +11335,10 @@
         <v>2025</v>
       </c>
       <c r="B598" s="3" t="s">
-        <v>1348</v>
+        <v>1383</v>
       </c>
       <c r="C598" s="3" t="s">
-        <v>1347</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.2">
@@ -11334,10 +11346,10 @@
         <v>2025</v>
       </c>
       <c r="B599" s="3" t="s">
-        <v>1388</v>
+        <v>1348</v>
       </c>
       <c r="C599" s="3" t="s">
-        <v>1387</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.2">
@@ -11345,10 +11357,10 @@
         <v>2025</v>
       </c>
       <c r="B600" s="3" t="s">
-        <v>1377</v>
+        <v>1388</v>
       </c>
       <c r="C600" s="3" t="s">
-        <v>1376</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.2">
@@ -11356,10 +11368,10 @@
         <v>2025</v>
       </c>
       <c r="B601" s="3" t="s">
-        <v>1336</v>
+        <v>1377</v>
       </c>
       <c r="C601" s="3" t="s">
-        <v>1331</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.2">
@@ -11367,10 +11379,10 @@
         <v>2025</v>
       </c>
       <c r="B602" s="3" t="s">
-        <v>1321</v>
+        <v>1336</v>
       </c>
       <c r="C602" s="3" t="s">
-        <v>1308</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.2">
@@ -11378,10 +11390,10 @@
         <v>2025</v>
       </c>
       <c r="B603" s="3" t="s">
-        <v>1304</v>
+        <v>1404</v>
       </c>
       <c r="C603" s="3" t="s">
-        <v>1303</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.2">
@@ -11389,10 +11401,10 @@
         <v>2025</v>
       </c>
       <c r="B604" s="3" t="s">
-        <v>1314</v>
+        <v>1321</v>
       </c>
       <c r="C604" s="3" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.2">
@@ -11400,10 +11412,10 @@
         <v>2025</v>
       </c>
       <c r="B605" s="3" t="s">
-        <v>1301</v>
+        <v>1304</v>
       </c>
       <c r="C605" s="3" t="s">
-        <v>1300</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.2">
@@ -11411,10 +11423,10 @@
         <v>2025</v>
       </c>
       <c r="B606" s="3" t="s">
-        <v>1350</v>
+        <v>1314</v>
       </c>
       <c r="C606" s="3" t="s">
-        <v>1351</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.2">
@@ -11422,10 +11434,10 @@
         <v>2025</v>
       </c>
       <c r="B607" s="3" t="s">
-        <v>1320</v>
+        <v>1301</v>
       </c>
       <c r="C607" s="3" t="s">
-        <v>1318</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.2">
@@ -11433,10 +11445,10 @@
         <v>2025</v>
       </c>
       <c r="B608" s="3" t="s">
-        <v>1335</v>
+        <v>1350</v>
       </c>
       <c r="C608" s="3" t="s">
-        <v>1334</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.2">
@@ -11444,10 +11456,10 @@
         <v>2025</v>
       </c>
       <c r="B609" s="3" t="s">
-        <v>1362</v>
+        <v>1320</v>
       </c>
       <c r="C609" s="3" t="s">
-        <v>1357</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.2">
@@ -11455,10 +11467,10 @@
         <v>2025</v>
       </c>
       <c r="B610" s="3" t="s">
-        <v>1327</v>
+        <v>1335</v>
       </c>
       <c r="C610" s="3" t="s">
-        <v>1322</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.2">
@@ -11466,51 +11478,51 @@
         <v>2025</v>
       </c>
       <c r="B611" s="3" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C611" s="3" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="612" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A612" s="15">
+        <v>2025</v>
+      </c>
+      <c r="B612" s="3" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C612" s="3" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="613" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A613" s="15">
+        <v>2025</v>
+      </c>
+      <c r="B613" s="3" t="s">
         <v>1359</v>
       </c>
-      <c r="C611" s="3" t="s">
+      <c r="C613" s="3" t="s">
         <v>1354</v>
-      </c>
-    </row>
-    <row r="612" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A612" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B612" s="3" t="s">
-        <v>1373</v>
-      </c>
-      <c r="C612" s="3" t="s">
-        <v>1374</v>
-      </c>
-    </row>
-    <row r="613" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A613" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B613" s="3" t="s">
-        <v>1398</v>
-      </c>
-      <c r="C613" s="3" t="s">
-        <v>1397</v>
       </c>
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A614" s="15" t="s">
         <v>0</v>
       </c>
+      <c r="B614" s="3" t="s">
+        <v>1398</v>
+      </c>
       <c r="C614" s="3" t="s">
-        <v>1237</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A615" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B615" s="3" t="s">
-        <v>1375</v>
-      </c>
       <c r="C615" s="3" t="s">
-        <v>1368</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.2">
@@ -11518,18 +11530,21 @@
         <v>0</v>
       </c>
       <c r="B616" s="3" t="s">
-        <v>1393</v>
+        <v>1375</v>
       </c>
       <c r="C616" s="3" t="s">
-        <v>1394</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A617" s="15" t="s">
         <v>0</v>
       </c>
+      <c r="B617" s="3" t="s">
+        <v>1393</v>
+      </c>
       <c r="C617" s="3" t="s">
-        <v>1353</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.2">
@@ -11537,43 +11552,67 @@
         <v>0</v>
       </c>
       <c r="C618" s="3" t="s">
-        <v>1363</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A619" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B619" s="3" t="s">
-        <v>1365</v>
-      </c>
       <c r="C619" s="3" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A620" s="15" t="s">
         <v>0</v>
       </c>
+      <c r="B620" s="3" t="s">
+        <v>1365</v>
+      </c>
       <c r="C620" s="3" t="s">
-        <v>1391</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A621" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B621" s="3" t="s">
+      <c r="C621" s="3" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="622" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A622" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B622" s="3" t="s">
         <v>1356</v>
       </c>
-      <c r="C621" s="3" t="s">
+      <c r="C622" s="3" t="s">
         <v>1339</v>
       </c>
     </row>
+    <row r="623" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A623" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C623" s="3" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="624" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A624" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C624" s="3" t="s">
+        <v>1407</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C621">
-    <sortCondition ref="A2:A621"/>
-    <sortCondition ref="C2:C621"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C622">
+    <sortCondition ref="A2:A622"/>
+    <sortCondition ref="C2:C622"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="Submetido">
@@ -11599,7 +11638,7 @@
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="B449" r:id="rId1" xr:uid="{9BCE4324-8A77-884E-80ED-4C3988C2A1D3}"/>
-    <hyperlink ref="B584" r:id="rId2" display="https://doi.org/10.63231/2595-0118.20250016-em" xr:uid="{71D2DE81-84B4-E94C-AB67-C52CD70CA320}"/>
+    <hyperlink ref="B585" r:id="rId2" display="https://doi.org/10.63231/2595-0118.20250016-em" xr:uid="{71D2DE81-84B4-E94C-AB67-C52CD70CA320}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape"/>

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurferreira/Google Drive - arthur_sf/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C370EA0E-13C6-404C-9B85-AFA57EB10B5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF53548B-0A04-3F48-8A94-B82F4E83E59F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="680" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="1408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="1413">
   <si>
     <t>Aceito</t>
   </si>
@@ -4269,7 +4269,22 @@
     <t>Relationship Between Musculoskeletal Pain, Psychosocial Aspects and Quality of Work Life in Violinists and Violists: A Cross-Sectional Study in Rio de Janeiro, Brazil</t>
   </si>
   <si>
-    <t>"Peripheral Muscle Strength and Pulmonary Function Negatively Impact Functional Capacity in Patients With Post-Tuberculosis Lung Disease: A Cross-Sectional Study</t>
+    <t>High-Intensity Interval and Circuit Training Increases Excess Post-Exercise Oxygen Consumption and Lipid Oxidation Compared to Moderate Intensity Continuous Training</t>
+  </si>
+  <si>
+    <t>Peripheral Muscle Strength and Pulmonary Function Negatively Impact Functional Capacity in Patients With Post-Tuberculosis Lung Disease: A Cross-Sectional Study</t>
+  </si>
+  <si>
+    <t>10.1002/pri.70115</t>
+  </si>
+  <si>
+    <t>Immediate Effects of Manual Therapy Techniques on Ankle Dorsiflexion: A Randomized Clinical Trial</t>
+  </si>
+  <si>
+    <t>10.1016/j.jmpt.2025.09.002</t>
+  </si>
+  <si>
+    <t>Posturographic assessment of shoulder complex stability in swimmers during Upper-Quarter Y Balance Test: cross-sectional study in young athletes, regarding handedness</t>
   </si>
 </sst>
 </file>
@@ -4763,13 +4778,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I624"/>
+  <dimension ref="A1:I627"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C593" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B593" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C624" sqref="C624"/>
+      <selection pane="bottomRight" activeCell="A627" sqref="A627"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11602,11 +11617,41 @@
       </c>
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A624" s="15" t="s">
+      <c r="A624" s="15">
+        <v>2025</v>
+      </c>
+      <c r="B624" s="3" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C624" s="3" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="625" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A625" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C624" s="3" t="s">
+      <c r="C625" s="3" t="s">
         <v>1407</v>
+      </c>
+    </row>
+    <row r="626" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A626" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B626" s="3" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C626" s="3" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="627" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A627" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C627" s="3" t="s">
+        <v>1412</v>
       </c>
     </row>
   </sheetData>

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurferreira/Google Drive - arthur_sf/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF53548B-0A04-3F48-8A94-B82F4E83E59F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4411213D-5929-C94A-BA83-542276A5AC3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="680" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="1413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1451" uniqueCount="1415">
   <si>
     <t>Aceito</t>
   </si>
@@ -4285,6 +4285,12 @@
   </si>
   <si>
     <t>Posturographic assessment of shoulder complex stability in swimmers during Upper-Quarter Y Balance Test: cross-sectional study in young athletes, regarding handedness</t>
+  </si>
+  <si>
+    <t>10.1080/13607863.2025.2564716</t>
+  </si>
+  <si>
+    <t>Social context and frequent pain among older adults: findings from a nationally representative Brazilian sample</t>
   </si>
 </sst>
 </file>
@@ -4778,13 +4784,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I627"/>
+  <dimension ref="A1:I628"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B593" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A627" sqref="A627"/>
+      <selection pane="bottomRight" activeCell="A628" sqref="A628"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11652,6 +11658,17 @@
       </c>
       <c r="C627" s="3" t="s">
         <v>1412</v>
+      </c>
+    </row>
+    <row r="628" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A628" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B628" s="3" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C628" s="3" t="s">
+        <v>1414</v>
       </c>
     </row>
   </sheetData>

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurferreira/Google Drive - arthur_sf/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4411213D-5929-C94A-BA83-542276A5AC3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E2CFF4-2446-FC44-AA26-958711EDA1EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="680" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1451" uniqueCount="1415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1462" uniqueCount="1423">
   <si>
     <t>Aceito</t>
   </si>
@@ -4291,6 +4291,30 @@
   </si>
   <si>
     <t>Social context and frequent pain among older adults: findings from a nationally representative Brazilian sample</t>
+  </si>
+  <si>
+    <t>10.1016/j.spinee.2025.10.003</t>
+  </si>
+  <si>
+    <t>Development of an internationally agreed national minimum dataset for low back pain: a modified Delphi study</t>
+  </si>
+  <si>
+    <t>10.1080/00015385.2025.2576437</t>
+  </si>
+  <si>
+    <t>Functional Determinants and Perceived Barriers to Cardiac Rehabilitation as Predictors of Short-Term Hospital Readmission in Acute Coronary Syndrome: An Observational Longitudinal Cohort Study</t>
+  </si>
+  <si>
+    <t>Association of self-reported posture habits and vision problems with chronic neck pain: A case-control study</t>
+  </si>
+  <si>
+    <t>10.1016/j.jbmt.2025.10.023</t>
+  </si>
+  <si>
+    <t>10.22278/2318-2660.2024.v48.n4.a4177</t>
+  </si>
+  <si>
+    <t>DOR MUSCULOESQUELÉTICA EM MEMBROS INFERIORES E EQUILÍBRIO DINÂMICO EM CORREDORES DE RUA: UM ESTUDO TRANSVERSAL</t>
   </si>
 </sst>
 </file>
@@ -4784,13 +4808,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I628"/>
+  <dimension ref="A1:I632"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B593" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B595" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A628" sqref="A628"/>
+      <selection pane="bottomRight" activeCell="A632" sqref="A632"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11224,10 +11248,10 @@
         <v>2025</v>
       </c>
       <c r="B586" s="3" t="s">
-        <v>1349</v>
+        <v>1421</v>
       </c>
       <c r="C586" s="3" t="s">
-        <v>1340</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.2">
@@ -11235,32 +11259,32 @@
         <v>2025</v>
       </c>
       <c r="B587" s="3" t="s">
-        <v>1381</v>
+        <v>1349</v>
       </c>
       <c r="C587" s="3" t="s">
-        <v>1380</v>
-      </c>
-    </row>
-    <row r="588" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A588" s="15">
         <v>2025</v>
       </c>
       <c r="B588" s="3" t="s">
-        <v>1378</v>
-      </c>
-      <c r="C588" s="18" t="s">
-        <v>1379</v>
-      </c>
-    </row>
-    <row r="589" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1381</v>
+      </c>
+      <c r="C588" s="3" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A589" s="15">
         <v>2025</v>
       </c>
       <c r="B589" s="3" t="s">
-        <v>1345</v>
-      </c>
-      <c r="C589" s="3" t="s">
-        <v>1346</v>
+        <v>1378</v>
+      </c>
+      <c r="C589" s="18" t="s">
+        <v>1379</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.2">
@@ -11268,10 +11292,10 @@
         <v>2025</v>
       </c>
       <c r="B590" s="3" t="s">
-        <v>1403</v>
+        <v>1345</v>
       </c>
       <c r="C590" s="3" t="s">
-        <v>1402</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.2">
@@ -11279,10 +11303,10 @@
         <v>2025</v>
       </c>
       <c r="B591" s="3" t="s">
-        <v>1338</v>
+        <v>1403</v>
       </c>
       <c r="C591" s="3" t="s">
-        <v>1332</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.2">
@@ -11290,10 +11314,10 @@
         <v>2025</v>
       </c>
       <c r="B592" s="3" t="s">
-        <v>1311</v>
+        <v>1338</v>
       </c>
       <c r="C592" s="3" t="s">
-        <v>1283</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.2">
@@ -11301,10 +11325,10 @@
         <v>2025</v>
       </c>
       <c r="B593" s="3" t="s">
-        <v>1367</v>
+        <v>1311</v>
       </c>
       <c r="C593" s="3" t="s">
-        <v>1372</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.2">
@@ -11312,10 +11336,10 @@
         <v>2025</v>
       </c>
       <c r="B594" s="3" t="s">
-        <v>1295</v>
+        <v>1367</v>
       </c>
       <c r="C594" s="3" t="s">
-        <v>1296</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.2">
@@ -11323,10 +11347,10 @@
         <v>2025</v>
       </c>
       <c r="B595" s="3" t="s">
-        <v>1385</v>
+        <v>1295</v>
       </c>
       <c r="C595" s="3" t="s">
-        <v>1384</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.2">
@@ -11334,10 +11358,10 @@
         <v>2025</v>
       </c>
       <c r="B596" s="3" t="s">
-        <v>1392</v>
+        <v>1385</v>
       </c>
       <c r="C596" s="3" t="s">
-        <v>1390</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.2">
@@ -11345,10 +11369,10 @@
         <v>2025</v>
       </c>
       <c r="B597" s="3" t="s">
-        <v>1355</v>
+        <v>1392</v>
       </c>
       <c r="C597" s="3" t="s">
-        <v>1352</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.2">
@@ -11356,10 +11380,10 @@
         <v>2025</v>
       </c>
       <c r="B598" s="3" t="s">
-        <v>1383</v>
+        <v>1355</v>
       </c>
       <c r="C598" s="3" t="s">
-        <v>1382</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.2">
@@ -11367,10 +11391,10 @@
         <v>2025</v>
       </c>
       <c r="B599" s="3" t="s">
-        <v>1348</v>
+        <v>1383</v>
       </c>
       <c r="C599" s="3" t="s">
-        <v>1347</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.2">
@@ -11378,10 +11402,10 @@
         <v>2025</v>
       </c>
       <c r="B600" s="3" t="s">
-        <v>1388</v>
+        <v>1348</v>
       </c>
       <c r="C600" s="3" t="s">
-        <v>1387</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.2">
@@ -11389,10 +11413,10 @@
         <v>2025</v>
       </c>
       <c r="B601" s="3" t="s">
-        <v>1377</v>
+        <v>1388</v>
       </c>
       <c r="C601" s="3" t="s">
-        <v>1376</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.2">
@@ -11400,10 +11424,10 @@
         <v>2025</v>
       </c>
       <c r="B602" s="3" t="s">
-        <v>1336</v>
+        <v>1377</v>
       </c>
       <c r="C602" s="3" t="s">
-        <v>1331</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.2">
@@ -11411,10 +11435,10 @@
         <v>2025</v>
       </c>
       <c r="B603" s="3" t="s">
-        <v>1404</v>
+        <v>1336</v>
       </c>
       <c r="C603" s="3" t="s">
-        <v>1405</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.2">
@@ -11422,10 +11446,10 @@
         <v>2025</v>
       </c>
       <c r="B604" s="3" t="s">
-        <v>1321</v>
+        <v>1404</v>
       </c>
       <c r="C604" s="3" t="s">
-        <v>1308</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.2">
@@ -11433,10 +11457,10 @@
         <v>2025</v>
       </c>
       <c r="B605" s="3" t="s">
-        <v>1304</v>
+        <v>1321</v>
       </c>
       <c r="C605" s="3" t="s">
-        <v>1303</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.2">
@@ -11444,10 +11468,10 @@
         <v>2025</v>
       </c>
       <c r="B606" s="3" t="s">
-        <v>1314</v>
+        <v>1304</v>
       </c>
       <c r="C606" s="3" t="s">
-        <v>1312</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.2">
@@ -11455,10 +11479,10 @@
         <v>2025</v>
       </c>
       <c r="B607" s="3" t="s">
-        <v>1301</v>
+        <v>1314</v>
       </c>
       <c r="C607" s="3" t="s">
-        <v>1300</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.2">
@@ -11466,10 +11490,10 @@
         <v>2025</v>
       </c>
       <c r="B608" s="3" t="s">
-        <v>1350</v>
+        <v>1409</v>
       </c>
       <c r="C608" s="3" t="s">
-        <v>1351</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.2">
@@ -11477,10 +11501,10 @@
         <v>2025</v>
       </c>
       <c r="B609" s="3" t="s">
-        <v>1320</v>
+        <v>1301</v>
       </c>
       <c r="C609" s="3" t="s">
-        <v>1318</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.2">
@@ -11488,10 +11512,10 @@
         <v>2025</v>
       </c>
       <c r="B610" s="3" t="s">
-        <v>1335</v>
+        <v>1350</v>
       </c>
       <c r="C610" s="3" t="s">
-        <v>1334</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.2">
@@ -11499,10 +11523,10 @@
         <v>2025</v>
       </c>
       <c r="B611" s="3" t="s">
-        <v>1362</v>
+        <v>1320</v>
       </c>
       <c r="C611" s="3" t="s">
-        <v>1357</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.2">
@@ -11510,10 +11534,10 @@
         <v>2025</v>
       </c>
       <c r="B612" s="3" t="s">
-        <v>1327</v>
+        <v>1335</v>
       </c>
       <c r="C612" s="3" t="s">
-        <v>1322</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.2">
@@ -11521,29 +11545,32 @@
         <v>2025</v>
       </c>
       <c r="B613" s="3" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C613" s="3" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="614" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A614" s="15">
+        <v>2025</v>
+      </c>
+      <c r="B614" s="3" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C614" s="3" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="615" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A615" s="15">
+        <v>2025</v>
+      </c>
+      <c r="B615" s="3" t="s">
         <v>1359</v>
       </c>
-      <c r="C613" s="3" t="s">
+      <c r="C615" s="3" t="s">
         <v>1354</v>
-      </c>
-    </row>
-    <row r="614" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A614" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B614" s="3" t="s">
-        <v>1398</v>
-      </c>
-      <c r="C614" s="3" t="s">
-        <v>1397</v>
-      </c>
-    </row>
-    <row r="615" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A615" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C615" s="3" t="s">
-        <v>1237</v>
       </c>
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.2">
@@ -11551,10 +11578,10 @@
         <v>0</v>
       </c>
       <c r="B616" s="3" t="s">
-        <v>1375</v>
+        <v>1420</v>
       </c>
       <c r="C616" s="3" t="s">
-        <v>1368</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.2">
@@ -11562,10 +11589,10 @@
         <v>0</v>
       </c>
       <c r="B617" s="3" t="s">
-        <v>1393</v>
+        <v>1398</v>
       </c>
       <c r="C617" s="3" t="s">
-        <v>1394</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.2">
@@ -11573,15 +11600,18 @@
         <v>0</v>
       </c>
       <c r="C618" s="3" t="s">
-        <v>1353</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A619" s="15" t="s">
         <v>0</v>
       </c>
+      <c r="B619" s="3" t="s">
+        <v>1375</v>
+      </c>
       <c r="C619" s="3" t="s">
-        <v>1363</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.2">
@@ -11589,29 +11619,29 @@
         <v>0</v>
       </c>
       <c r="B620" s="3" t="s">
-        <v>1365</v>
+        <v>1415</v>
       </c>
       <c r="C620" s="3" t="s">
-        <v>1364</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A621" s="15" t="s">
         <v>0</v>
       </c>
+      <c r="B621" s="3" t="s">
+        <v>1393</v>
+      </c>
       <c r="C621" s="3" t="s">
-        <v>1391</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A622" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B622" s="3" t="s">
-        <v>1356</v>
-      </c>
       <c r="C622" s="3" t="s">
-        <v>1339</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.2">
@@ -11619,18 +11649,18 @@
         <v>0</v>
       </c>
       <c r="C623" s="3" t="s">
-        <v>1406</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A624" s="15">
-        <v>2025</v>
+      <c r="A624" s="15" t="s">
+        <v>0</v>
       </c>
       <c r="B624" s="3" t="s">
-        <v>1409</v>
+        <v>1417</v>
       </c>
       <c r="C624" s="3" t="s">
-        <v>1408</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.2">
@@ -11656,25 +11686,63 @@
       <c r="A627" s="15" t="s">
         <v>0</v>
       </c>
+      <c r="B627" s="3" t="s">
+        <v>1365</v>
+      </c>
       <c r="C627" s="3" t="s">
-        <v>1412</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A628" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B628" s="3" t="s">
+      <c r="C628" s="3" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="629" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A629" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C629" s="3" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="630" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A630" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C630" s="3" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="631" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A631" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B631" s="3" t="s">
         <v>1413</v>
       </c>
-      <c r="C628" s="3" t="s">
+      <c r="C631" s="3" t="s">
         <v>1414</v>
       </c>
     </row>
+    <row r="632" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A632" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B632" s="3" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C632" s="3" t="s">
+        <v>1339</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C622">
-    <sortCondition ref="A2:A622"/>
-    <sortCondition ref="C2:C622"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C632">
+    <sortCondition ref="A2:A632"/>
+    <sortCondition ref="C2:C632"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="Submetido">

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurferreira/Google Drive - arthur_sf/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E2CFF4-2446-FC44-AA26-958711EDA1EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16CD4161-7771-3E44-A473-87EB345EBA35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="680" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="920" yWindow="680" windowWidth="29340" windowHeight="18960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="artigos-completos" sheetId="4" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1462" uniqueCount="1423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="1428">
   <si>
     <t>Aceito</t>
   </si>
@@ -4107,9 +4107,6 @@
     <t>Imagen corporal, insatisfacción y trastorno dsmórfico: Análisys contextual entre estudiantes universitarios a partir de uma revisióm narrativa</t>
   </si>
   <si>
-    <t>Equilíbrio, Velocidade da Marcha e Força Funcional em Indivíduos comAtaxia Espinocerebelar e Controles Saudáveis: um Estudo Transversal sobre a Gravidade da Doença</t>
-  </si>
-  <si>
     <t>The effectiveness of progressions of difficulty during an exercise program to improve balance and gait in elderly people: a randomized clinical trial</t>
   </si>
   <si>
@@ -4221,9 +4218,6 @@
     <t>Identifying Treatable Trait of Dynamic Hyperinflation in Adults Living With Asthma Using the Glittre-ADL Test</t>
   </si>
   <si>
-    <t>Patient-targeted Smartphone Applications for Pain Management: A Review of Brazilian Apps</t>
-  </si>
-  <si>
     <t>10.1002/pri.70094</t>
   </si>
   <si>
@@ -4315,13 +4309,34 @@
   </si>
   <si>
     <t>DOR MUSCULOESQUELÉTICA EM MEMBROS INFERIORES E EQUILÍBRIO DINÂMICO EM CORREDORES DE RUA: UM ESTUDO TRANSVERSAL</t>
+  </si>
+  <si>
+    <t>Patient-targeted smartphone applications for pain management: A review of brazilian app markets</t>
+  </si>
+  <si>
+    <t>10.1016/j.bjpt.2025.101262</t>
+  </si>
+  <si>
+    <t>Predictors of the six-minute walking distance in patients with post-tuberculosis lung disease</t>
+  </si>
+  <si>
+    <t>10.36416/1806-3756/e20240312</t>
+  </si>
+  <si>
+    <t>Reference equation for measurement of the maximal dynamic inspiratory muscle pressure index (S-Index) in healthy Brazilian adults</t>
+  </si>
+  <si>
+    <t>Upper Cervical Manipulation and Manual Massage Do Not Modulate Sympatho-Vagal Balance or Blood Pressure in Women: A Randomized, Placebo-Controlled Clinical Trial</t>
+  </si>
+  <si>
+    <t>10.3390/healthcare13202554</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4350,6 +4365,12 @@
     <font>
       <sz val="12"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -4411,7 +4432,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -4466,6 +4487,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4808,13 +4833,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I632"/>
+  <dimension ref="A1:I634"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B595" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B593" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A632" sqref="A632"/>
+      <selection pane="bottomRight" activeCell="A634" sqref="A634"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11138,10 +11163,10 @@
         <v>2025</v>
       </c>
       <c r="B576" s="3" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C576" s="3" t="s">
         <v>1373</v>
-      </c>
-      <c r="C576" s="3" t="s">
-        <v>1374</v>
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.2">
@@ -11149,10 +11174,10 @@
         <v>2025</v>
       </c>
       <c r="B577" s="3" t="s">
-        <v>1396</v>
+        <v>1418</v>
       </c>
       <c r="C577" s="3" t="s">
-        <v>1395</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.2">
@@ -11160,10 +11185,10 @@
         <v>2025</v>
       </c>
       <c r="B578" s="3" t="s">
-        <v>1399</v>
+        <v>1394</v>
       </c>
       <c r="C578" s="3" t="s">
-        <v>1389</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.2">
@@ -11171,10 +11196,10 @@
         <v>2025</v>
       </c>
       <c r="B579" s="3" t="s">
-        <v>1371</v>
+        <v>1397</v>
       </c>
       <c r="C579" s="3" t="s">
-        <v>1370</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.2">
@@ -11182,43 +11207,43 @@
         <v>2025</v>
       </c>
       <c r="B580" s="5" t="s">
-        <v>1328</v>
+        <v>1370</v>
       </c>
       <c r="C580" s="3" t="s">
-        <v>1329</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A581" s="15">
         <v>2025</v>
       </c>
-      <c r="B581" s="3" t="s">
-        <v>1361</v>
+      <c r="B581" s="20" t="s">
+        <v>1328</v>
       </c>
       <c r="C581" s="3" t="s">
-        <v>1330</v>
-      </c>
-    </row>
-    <row r="582" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A582" s="15">
         <v>2025</v>
       </c>
       <c r="B582" s="3" t="s">
-        <v>1264</v>
-      </c>
-      <c r="C582" s="18" t="s">
-        <v>1386</v>
-      </c>
-    </row>
-    <row r="583" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1360</v>
+      </c>
+      <c r="C582" s="3" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A583" s="15">
         <v>2025</v>
       </c>
       <c r="B583" s="3" t="s">
-        <v>1309</v>
-      </c>
-      <c r="C583" s="3" t="s">
-        <v>1307</v>
+        <v>1264</v>
+      </c>
+      <c r="C583" s="18" t="s">
+        <v>1385</v>
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.2">
@@ -11226,10 +11251,10 @@
         <v>2025</v>
       </c>
       <c r="B584" s="3" t="s">
-        <v>1369</v>
+        <v>1309</v>
       </c>
       <c r="C584" s="3" t="s">
-        <v>1366</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.2">
@@ -11237,10 +11262,10 @@
         <v>2025</v>
       </c>
       <c r="B585" s="3" t="s">
-        <v>1360</v>
+        <v>1368</v>
       </c>
       <c r="C585" s="3" t="s">
-        <v>1358</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.2">
@@ -11248,10 +11273,10 @@
         <v>2025</v>
       </c>
       <c r="B586" s="3" t="s">
-        <v>1421</v>
+        <v>1359</v>
       </c>
       <c r="C586" s="3" t="s">
-        <v>1422</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.2">
@@ -11259,10 +11284,10 @@
         <v>2025</v>
       </c>
       <c r="B587" s="3" t="s">
-        <v>1349</v>
+        <v>1419</v>
       </c>
       <c r="C587" s="3" t="s">
-        <v>1340</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.2">
@@ -11270,32 +11295,32 @@
         <v>2025</v>
       </c>
       <c r="B588" s="3" t="s">
-        <v>1381</v>
+        <v>1349</v>
       </c>
       <c r="C588" s="3" t="s">
-        <v>1380</v>
-      </c>
-    </row>
-    <row r="589" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A589" s="15">
         <v>2025</v>
       </c>
       <c r="B589" s="3" t="s">
-        <v>1378</v>
-      </c>
-      <c r="C589" s="18" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C589" s="3" t="s">
         <v>1379</v>
       </c>
     </row>
-    <row r="590" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A590" s="15">
         <v>2025</v>
       </c>
       <c r="B590" s="3" t="s">
-        <v>1345</v>
-      </c>
-      <c r="C590" s="3" t="s">
-        <v>1346</v>
+        <v>1377</v>
+      </c>
+      <c r="C590" s="18" t="s">
+        <v>1378</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.2">
@@ -11303,10 +11328,10 @@
         <v>2025</v>
       </c>
       <c r="B591" s="3" t="s">
-        <v>1403</v>
+        <v>1345</v>
       </c>
       <c r="C591" s="3" t="s">
-        <v>1402</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.2">
@@ -11314,10 +11339,10 @@
         <v>2025</v>
       </c>
       <c r="B592" s="3" t="s">
-        <v>1338</v>
+        <v>1401</v>
       </c>
       <c r="C592" s="3" t="s">
-        <v>1332</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.2">
@@ -11325,10 +11350,10 @@
         <v>2025</v>
       </c>
       <c r="B593" s="3" t="s">
-        <v>1311</v>
+        <v>1338</v>
       </c>
       <c r="C593" s="3" t="s">
-        <v>1283</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.2">
@@ -11336,10 +11361,10 @@
         <v>2025</v>
       </c>
       <c r="B594" s="3" t="s">
-        <v>1367</v>
+        <v>1311</v>
       </c>
       <c r="C594" s="3" t="s">
-        <v>1372</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.2">
@@ -11347,10 +11372,10 @@
         <v>2025</v>
       </c>
       <c r="B595" s="3" t="s">
-        <v>1295</v>
+        <v>1366</v>
       </c>
       <c r="C595" s="3" t="s">
-        <v>1296</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.2">
@@ -11358,10 +11383,10 @@
         <v>2025</v>
       </c>
       <c r="B596" s="3" t="s">
-        <v>1385</v>
+        <v>1295</v>
       </c>
       <c r="C596" s="3" t="s">
-        <v>1384</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.2">
@@ -11369,10 +11394,10 @@
         <v>2025</v>
       </c>
       <c r="B597" s="3" t="s">
-        <v>1392</v>
+        <v>1384</v>
       </c>
       <c r="C597" s="3" t="s">
-        <v>1390</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.2">
@@ -11380,10 +11405,10 @@
         <v>2025</v>
       </c>
       <c r="B598" s="3" t="s">
-        <v>1355</v>
+        <v>1390</v>
       </c>
       <c r="C598" s="3" t="s">
-        <v>1352</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.2">
@@ -11391,10 +11416,10 @@
         <v>2025</v>
       </c>
       <c r="B599" s="3" t="s">
-        <v>1383</v>
+        <v>1354</v>
       </c>
       <c r="C599" s="3" t="s">
-        <v>1382</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.2">
@@ -11402,10 +11427,10 @@
         <v>2025</v>
       </c>
       <c r="B600" s="3" t="s">
-        <v>1348</v>
+        <v>1382</v>
       </c>
       <c r="C600" s="3" t="s">
-        <v>1347</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.2">
@@ -11413,10 +11438,10 @@
         <v>2025</v>
       </c>
       <c r="B601" s="3" t="s">
-        <v>1388</v>
+        <v>1348</v>
       </c>
       <c r="C601" s="3" t="s">
-        <v>1387</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.2">
@@ -11424,10 +11449,10 @@
         <v>2025</v>
       </c>
       <c r="B602" s="3" t="s">
-        <v>1377</v>
+        <v>1387</v>
       </c>
       <c r="C602" s="3" t="s">
-        <v>1376</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.2">
@@ -11435,10 +11460,10 @@
         <v>2025</v>
       </c>
       <c r="B603" s="3" t="s">
-        <v>1336</v>
+        <v>1376</v>
       </c>
       <c r="C603" s="3" t="s">
-        <v>1331</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.2">
@@ -11446,10 +11471,10 @@
         <v>2025</v>
       </c>
       <c r="B604" s="3" t="s">
-        <v>1404</v>
+        <v>1336</v>
       </c>
       <c r="C604" s="3" t="s">
-        <v>1405</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.2">
@@ -11457,10 +11482,10 @@
         <v>2025</v>
       </c>
       <c r="B605" s="3" t="s">
-        <v>1321</v>
+        <v>1402</v>
       </c>
       <c r="C605" s="3" t="s">
-        <v>1308</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.2">
@@ -11468,10 +11493,10 @@
         <v>2025</v>
       </c>
       <c r="B606" s="3" t="s">
-        <v>1304</v>
+        <v>1321</v>
       </c>
       <c r="C606" s="3" t="s">
-        <v>1303</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.2">
@@ -11479,10 +11504,10 @@
         <v>2025</v>
       </c>
       <c r="B607" s="3" t="s">
-        <v>1314</v>
+        <v>1304</v>
       </c>
       <c r="C607" s="3" t="s">
-        <v>1312</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.2">
@@ -11490,10 +11515,10 @@
         <v>2025</v>
       </c>
       <c r="B608" s="3" t="s">
-        <v>1409</v>
+        <v>1314</v>
       </c>
       <c r="C608" s="3" t="s">
-        <v>1408</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.2">
@@ -11501,10 +11526,10 @@
         <v>2025</v>
       </c>
       <c r="B609" s="3" t="s">
-        <v>1301</v>
+        <v>1407</v>
       </c>
       <c r="C609" s="3" t="s">
-        <v>1300</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.2">
@@ -11512,10 +11537,10 @@
         <v>2025</v>
       </c>
       <c r="B610" s="3" t="s">
-        <v>1350</v>
+        <v>1301</v>
       </c>
       <c r="C610" s="3" t="s">
-        <v>1351</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.2">
@@ -11523,10 +11548,10 @@
         <v>2025</v>
       </c>
       <c r="B611" s="3" t="s">
-        <v>1320</v>
+        <v>1350</v>
       </c>
       <c r="C611" s="3" t="s">
-        <v>1318</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.2">
@@ -11534,10 +11559,10 @@
         <v>2025</v>
       </c>
       <c r="B612" s="3" t="s">
-        <v>1335</v>
+        <v>1320</v>
       </c>
       <c r="C612" s="3" t="s">
-        <v>1334</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.2">
@@ -11545,10 +11570,10 @@
         <v>2025</v>
       </c>
       <c r="B613" s="3" t="s">
-        <v>1362</v>
+        <v>1335</v>
       </c>
       <c r="C613" s="3" t="s">
-        <v>1357</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.2">
@@ -11556,10 +11581,10 @@
         <v>2025</v>
       </c>
       <c r="B614" s="3" t="s">
-        <v>1327</v>
+        <v>1424</v>
       </c>
       <c r="C614" s="3" t="s">
-        <v>1322</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.2">
@@ -11567,62 +11592,65 @@
         <v>2025</v>
       </c>
       <c r="B615" s="3" t="s">
-        <v>1359</v>
+        <v>1361</v>
       </c>
       <c r="C615" s="3" t="s">
-        <v>1354</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A616" s="15" t="s">
-        <v>0</v>
+      <c r="A616" s="15">
+        <v>2025</v>
       </c>
       <c r="B616" s="3" t="s">
-        <v>1420</v>
+        <v>1327</v>
       </c>
       <c r="C616" s="3" t="s">
-        <v>1419</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A617" s="15" t="s">
-        <v>0</v>
+      <c r="A617" s="15">
+        <v>2025</v>
       </c>
       <c r="B617" s="3" t="s">
-        <v>1398</v>
+        <v>1358</v>
       </c>
       <c r="C617" s="3" t="s">
-        <v>1397</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A618" s="15" t="s">
-        <v>0</v>
+      <c r="A618" s="15">
+        <v>2025</v>
+      </c>
+      <c r="B618" s="3" t="s">
+        <v>1427</v>
       </c>
       <c r="C618" s="3" t="s">
-        <v>1237</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A619" s="15" t="s">
-        <v>0</v>
+      <c r="A619" s="15">
+        <v>2025</v>
       </c>
       <c r="B619" s="3" t="s">
-        <v>1375</v>
+        <v>1355</v>
       </c>
       <c r="C619" s="3" t="s">
-        <v>1368</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A620" s="15" t="s">
-        <v>0</v>
+      <c r="A620" s="15">
+        <v>2026</v>
       </c>
       <c r="B620" s="3" t="s">
-        <v>1415</v>
+        <v>1422</v>
       </c>
       <c r="C620" s="3" t="s">
-        <v>1416</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.2">
@@ -11630,10 +11658,10 @@
         <v>0</v>
       </c>
       <c r="B621" s="3" t="s">
-        <v>1393</v>
+        <v>1396</v>
       </c>
       <c r="C621" s="3" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.2">
@@ -11641,15 +11669,18 @@
         <v>0</v>
       </c>
       <c r="C622" s="3" t="s">
-        <v>1353</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A623" s="15" t="s">
         <v>0</v>
       </c>
+      <c r="B623" s="3" t="s">
+        <v>1374</v>
+      </c>
       <c r="C623" s="3" t="s">
-        <v>1363</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.2">
@@ -11657,29 +11688,29 @@
         <v>0</v>
       </c>
       <c r="B624" s="3" t="s">
-        <v>1417</v>
+        <v>1413</v>
       </c>
       <c r="C624" s="3" t="s">
-        <v>1418</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A625" s="15" t="s">
         <v>0</v>
       </c>
+      <c r="B625" s="3" t="s">
+        <v>1391</v>
+      </c>
       <c r="C625" s="3" t="s">
-        <v>1407</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A626" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B626" s="3" t="s">
-        <v>1411</v>
-      </c>
       <c r="C626" s="3" t="s">
-        <v>1410</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.2">
@@ -11687,10 +11718,10 @@
         <v>0</v>
       </c>
       <c r="B627" s="3" t="s">
-        <v>1365</v>
+        <v>1415</v>
       </c>
       <c r="C627" s="3" t="s">
-        <v>1364</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.2">
@@ -11698,51 +11729,70 @@
         <v>0</v>
       </c>
       <c r="C628" s="3" t="s">
-        <v>1391</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A629" s="15" t="s">
         <v>0</v>
       </c>
+      <c r="B629" s="3" t="s">
+        <v>1409</v>
+      </c>
       <c r="C629" s="3" t="s">
-        <v>1412</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A630" s="15" t="s">
         <v>0</v>
       </c>
+      <c r="B630" s="3" t="s">
+        <v>1364</v>
+      </c>
       <c r="C630" s="3" t="s">
-        <v>1406</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A631" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B631" s="3" t="s">
-        <v>1413</v>
-      </c>
       <c r="C631" s="3" t="s">
-        <v>1414</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A632" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B632" s="3" t="s">
-        <v>1356</v>
-      </c>
-      <c r="C632" s="3" t="s">
-        <v>1339</v>
+      <c r="C632" s="19" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="633" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A633" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C633" s="3" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="634" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A634" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B634" s="3" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C634" s="3" t="s">
+        <v>1412</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C632">
-    <sortCondition ref="A2:A632"/>
-    <sortCondition ref="C2:C632"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C634">
+    <sortCondition ref="A2:A634"/>
+    <sortCondition ref="C2:C634"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="Submetido">
@@ -11760,15 +11810,15 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B1048576">
+  <conditionalFormatting sqref="B633:B1048576 B1:B630 C631">
     <cfRule type="duplicateValues" dxfId="9" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C1048576">
+  <conditionalFormatting sqref="C633:C1048576 C1:C630">
     <cfRule type="duplicateValues" dxfId="8" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="B449" r:id="rId1" xr:uid="{9BCE4324-8A77-884E-80ED-4C3988C2A1D3}"/>
-    <hyperlink ref="B585" r:id="rId2" display="https://doi.org/10.63231/2595-0118.20250016-em" xr:uid="{71D2DE81-84B4-E94C-AB67-C52CD70CA320}"/>
+    <hyperlink ref="B586" r:id="rId2" display="https://doi.org/10.63231/2595-0118.20250016-em" xr:uid="{71D2DE81-84B4-E94C-AB67-C52CD70CA320}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape"/>
@@ -12192,10 +12242,10 @@
         <v>2025</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
     </row>
   </sheetData>

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurferreira/Google Drive - arthur_sf/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16CD4161-7771-3E44-A473-87EB345EBA35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B40C5A3-C676-9243-8E4A-BA8FCEB56669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="680" windowWidth="29340" windowHeight="18960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="900" yWindow="680" windowWidth="29340" windowHeight="18960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="artigos-completos" sheetId="4" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="1428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="1474">
   <si>
     <t>Aceito</t>
   </si>
@@ -4330,6 +4330,144 @@
   </si>
   <si>
     <t>10.3390/healthcare13202554</t>
+  </si>
+  <si>
+    <t>Type of health locus of control predicting pain, function, and global perceived effect in low back pain patients receiving physiotherapy and chiropractic: an observational study</t>
+  </si>
+  <si>
+    <t>Weaning from Mechanical Ventilation: A State-of-the-Art Approach</t>
+  </si>
+  <si>
+    <t>10.1007/978-3-032-01145-9</t>
+  </si>
+  <si>
+    <t>Pragmatic feasibility study combining cerebello-spinal neuromodulation and exercise in spinocerebellar ataxia type 3: A 20-session single-arm protocol</t>
+  </si>
+  <si>
+    <t>EVALUATION OF PREDICTIVE METHODS FOR RESPONSE TO POSITIVE END-EXPIRATORY PRESSURE (PEEP) IN INDIVIDUALS WITH ACUTE RESPIRATORY DISTRESS SYNDROME (ARDS)</t>
+  </si>
+  <si>
+    <t>10.1016/j.bjpt.2025.101299</t>
+  </si>
+  <si>
+    <t>10.1016/j.bjpt.2025.101438</t>
+  </si>
+  <si>
+    <t>MOST: A TEST TO EVALUATE MOBILITY OVER STABILITY IN INDIVIDUALS WITH SPINOCEREBELLAR ATAXIA</t>
+  </si>
+  <si>
+    <t>10.1016/j.bjpt.2025.101449</t>
+  </si>
+  <si>
+    <t>EXPLORING PERCEPTIONS AND EXPERIENCES OF INTERVENTION FOR BALANCE AND GAIT CONCOMITANT TO TDCS IN SPINOCEREBELLAR ATAXIA: A QUALITATIVE STUDY</t>
+  </si>
+  <si>
+    <t>FUNCTIONALITY, WORK ABILITY, AND REHABILITATION BARRIERS IN YOUNG ADULTS POST-STROKE: A CROSS-SECTIONAL ANALYSIS</t>
+  </si>
+  <si>
+    <t>10.1016/j.bjpt.2025.101434</t>
+  </si>
+  <si>
+    <t>10.1016/j.bjpt.2025.101441</t>
+  </si>
+  <si>
+    <t>EVALUATING BALANCE, GAIT VELOCITY, AND FUNCTIONAL STRENGTH IN INDIVIDUALS WITH SPINOCEREBELLAR ATAXIA VERSUS HEALTHY ONES: EXAMINING DISEASE SEVERITY</t>
+  </si>
+  <si>
+    <t>BICEPS BRACHII ACTIVATION DURING MOTOR IRRADIATION: A CROSS-SECTIONAL STUDY IN HEALTHY INDIVIDUALS</t>
+  </si>
+  <si>
+    <t>10.1016/j.bjpt.2025.101445</t>
+  </si>
+  <si>
+    <t>10.1016/j.bjpt.2025.101444</t>
+  </si>
+  <si>
+    <t>ASSOCIATION BETWEEN ABDOMINAL PERFORMANCE AND BICEPS BRACHII ACTIVATION RANGE DURING FOUR IRRADIATION MANEUVERS: A CROSS-SECTIONAL STUDY</t>
+  </si>
+  <si>
+    <t>10.1016/j.bjpt.2025.101457</t>
+  </si>
+  <si>
+    <t>RELATIONSHIP BETWEEN HAND FUNCTIONAL CAPACITY AND DIGITAL DEXTERITY IN WOMEN WITH SYSTEMIC SCLEROSIS</t>
+  </si>
+  <si>
+    <t>COMPARISON BETWEEN CONVENTIONAL REHABILITATION AND CONVENTIONAL REHABILITATION ADDED TO DANCE IN PATIENTS WITH CHRONIC OBSTRUCTIVE PULMONARY DISEASE</t>
+  </si>
+  <si>
+    <t>10.1016/j.bjpt.2025.101270</t>
+  </si>
+  <si>
+    <t>ASSOCIATIONS BETWEEN PERFORMANCE IN THE FREQUENCY SPEED KICK TEST, HEART RATE VARIABILITY, AND BODY COMPOSITION IN AMATEUR MUAY THAI FIGHTERS</t>
+  </si>
+  <si>
+    <t>10.1016/j.bjpt.2025.101352</t>
+  </si>
+  <si>
+    <t>10.1016/j.bjpt.2025.101269</t>
+  </si>
+  <si>
+    <t>POST-TUBERCULOSIS LUNG DISEASE: ASSOCIATIONS BETWEEN EXERCISE OXYGEN CONSUMPTION, LUNG FUNCTION AND IMAGE FINDINGS</t>
+  </si>
+  <si>
+    <t>COMPARISON OF THE SCIATIC AND MEDIAN NERVES NEURODYNAMIC IN ASYMPTOMATIC OLDER ADULTS AND YOUNGER ADULTS: OBSERVATIONAL CASE-CONTROL STUDY</t>
+  </si>
+  <si>
+    <t>10.1016/j.bjpt.2025.101494</t>
+  </si>
+  <si>
+    <t>10.1016/j.bjpt.2025.101491</t>
+  </si>
+  <si>
+    <t>AGE AND ANXIETY WERE ASSOCIATED WITH INEFFICIENT PAIN MODULATION IN PATIENTS WITH MUSCULOSKELETAL PAIN</t>
+  </si>
+  <si>
+    <t>THE COMPARISON OF THE IMMEDIATE EFFECT OF NEURODYNAMIC TENSION VERSUS MUSCLE STRETCHING ON STRAIGHT LEG RAISE IN ASYMPTOMATIC INDIVIDUALS</t>
+  </si>
+  <si>
+    <t>10.1016/j.bjpt.2025.101472</t>
+  </si>
+  <si>
+    <t>10.1016/j.bjpt.2025.101316</t>
+  </si>
+  <si>
+    <t>THE INFLUENCE OF VISUAL CONTRIBUTION ON MUSCLE ACTIVITY DURING VISUAL FEEDBACK TASKS WHILE STANDING</t>
+  </si>
+  <si>
+    <t>EVALUATION OF THE OPTIMIZATION OF POSTURAL BALANCE CONTROL DURING THE USE OF VISUAL BIOFEEDBACK</t>
+  </si>
+  <si>
+    <t>10.1016/j.bjpt.2025.101304</t>
+  </si>
+  <si>
+    <t>10.1016/j.bjpt.2025.101522</t>
+  </si>
+  <si>
+    <t>THE EFFECT OF DIFFERENT BIOFEEDBACK TECHNIQUES ON THE LEVEL OF MUSCLE ACTIVATION AND POSTURAL BALANCE IN YOUNG ADULTS</t>
+  </si>
+  <si>
+    <t>DEPRESSION IS ASSOCIATED WITH POSTURAL BALANCE IN INDIVIDUALS WITH LONG COVID: A CROSS-SECTIONAL STUDY</t>
+  </si>
+  <si>
+    <t>10.1016/j.bjpt.2025.101525</t>
+  </si>
+  <si>
+    <t>10.3390/sports13100355</t>
+  </si>
+  <si>
+    <t>Comparative Effects of Combined Aerobic and Resistance Training Versus High-Intensity Interval Training on Insulin Resistance, Glycaemic Control, Body Composition and Quality of Life in Type 2 Diabetes: A 12-Week Randomised Controlled Trial</t>
+  </si>
+  <si>
+    <t>CROSS-CULTURAL ADAPTATION OF THE JOB SATISFACTION SCALE - VERSION FOR TEACHERS (ESL-VP): INTERNAL CONSISTENCY ANALYSIS</t>
+  </si>
+  <si>
+    <t>10.1016/j.bjpt.2025.101423</t>
+  </si>
+  <si>
+    <t>10.46979/rbn.v61i3.67794</t>
+  </si>
+  <si>
+    <t>Electromyographic activation during motor irradiation of proprioceptive neuromuscular facilitation: a scoping review</t>
   </si>
 </sst>
 </file>
@@ -4432,7 +4570,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -4489,9 +4627,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4833,13 +4968,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I634"/>
+  <dimension ref="A1:I638"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B593" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B626" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A634" sqref="A634"/>
+      <selection pane="bottomRight" activeCell="A638" sqref="A638"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11217,7 +11352,7 @@
       <c r="A581" s="15">
         <v>2025</v>
       </c>
-      <c r="B581" s="20" t="s">
+      <c r="B581" s="3" t="s">
         <v>1328</v>
       </c>
       <c r="C581" s="3" t="s">
@@ -11339,10 +11474,10 @@
         <v>2025</v>
       </c>
       <c r="B592" s="3" t="s">
-        <v>1401</v>
+        <v>1391</v>
       </c>
       <c r="C592" s="3" t="s">
-        <v>1400</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.2">
@@ -11350,10 +11485,10 @@
         <v>2025</v>
       </c>
       <c r="B593" s="3" t="s">
-        <v>1338</v>
+        <v>1401</v>
       </c>
       <c r="C593" s="3" t="s">
-        <v>1332</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.2">
@@ -11361,10 +11496,10 @@
         <v>2025</v>
       </c>
       <c r="B594" s="3" t="s">
-        <v>1311</v>
+        <v>1338</v>
       </c>
       <c r="C594" s="3" t="s">
-        <v>1283</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.2">
@@ -11372,10 +11507,10 @@
         <v>2025</v>
       </c>
       <c r="B595" s="3" t="s">
-        <v>1366</v>
+        <v>1472</v>
       </c>
       <c r="C595" s="3" t="s">
-        <v>1371</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.2">
@@ -11383,10 +11518,10 @@
         <v>2025</v>
       </c>
       <c r="B596" s="3" t="s">
-        <v>1295</v>
+        <v>1311</v>
       </c>
       <c r="C596" s="3" t="s">
-        <v>1296</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.2">
@@ -11394,10 +11529,10 @@
         <v>2025</v>
       </c>
       <c r="B597" s="3" t="s">
-        <v>1384</v>
+        <v>1366</v>
       </c>
       <c r="C597" s="3" t="s">
-        <v>1383</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.2">
@@ -11405,10 +11540,10 @@
         <v>2025</v>
       </c>
       <c r="B598" s="3" t="s">
-        <v>1390</v>
+        <v>1295</v>
       </c>
       <c r="C598" s="3" t="s">
-        <v>1389</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.2">
@@ -11416,10 +11551,10 @@
         <v>2025</v>
       </c>
       <c r="B599" s="3" t="s">
-        <v>1354</v>
+        <v>1384</v>
       </c>
       <c r="C599" s="3" t="s">
-        <v>1352</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.2">
@@ -11427,10 +11562,10 @@
         <v>2025</v>
       </c>
       <c r="B600" s="3" t="s">
-        <v>1382</v>
+        <v>1468</v>
       </c>
       <c r="C600" s="3" t="s">
-        <v>1381</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.2">
@@ -11438,10 +11573,10 @@
         <v>2025</v>
       </c>
       <c r="B601" s="3" t="s">
-        <v>1348</v>
+        <v>1390</v>
       </c>
       <c r="C601" s="3" t="s">
-        <v>1347</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.2">
@@ -11449,10 +11584,10 @@
         <v>2025</v>
       </c>
       <c r="B602" s="3" t="s">
-        <v>1387</v>
+        <v>1354</v>
       </c>
       <c r="C602" s="3" t="s">
-        <v>1386</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.2">
@@ -11460,10 +11595,10 @@
         <v>2025</v>
       </c>
       <c r="B603" s="3" t="s">
-        <v>1376</v>
+        <v>1382</v>
       </c>
       <c r="C603" s="3" t="s">
-        <v>1375</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.2">
@@ -11471,10 +11606,10 @@
         <v>2025</v>
       </c>
       <c r="B604" s="3" t="s">
-        <v>1336</v>
+        <v>1348</v>
       </c>
       <c r="C604" s="3" t="s">
-        <v>1331</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.2">
@@ -11482,10 +11617,10 @@
         <v>2025</v>
       </c>
       <c r="B605" s="3" t="s">
-        <v>1402</v>
+        <v>1387</v>
       </c>
       <c r="C605" s="3" t="s">
-        <v>1403</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.2">
@@ -11493,10 +11628,10 @@
         <v>2025</v>
       </c>
       <c r="B606" s="3" t="s">
-        <v>1321</v>
+        <v>1376</v>
       </c>
       <c r="C606" s="3" t="s">
-        <v>1308</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.2">
@@ -11504,10 +11639,10 @@
         <v>2025</v>
       </c>
       <c r="B607" s="3" t="s">
-        <v>1304</v>
+        <v>1336</v>
       </c>
       <c r="C607" s="3" t="s">
-        <v>1303</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.2">
@@ -11515,10 +11650,10 @@
         <v>2025</v>
       </c>
       <c r="B608" s="3" t="s">
-        <v>1314</v>
+        <v>1402</v>
       </c>
       <c r="C608" s="3" t="s">
-        <v>1312</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.2">
@@ -11526,10 +11661,10 @@
         <v>2025</v>
       </c>
       <c r="B609" s="3" t="s">
-        <v>1407</v>
+        <v>1321</v>
       </c>
       <c r="C609" s="3" t="s">
-        <v>1406</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.2">
@@ -11537,10 +11672,10 @@
         <v>2025</v>
       </c>
       <c r="B610" s="3" t="s">
-        <v>1301</v>
+        <v>1304</v>
       </c>
       <c r="C610" s="3" t="s">
-        <v>1300</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.2">
@@ -11548,10 +11683,10 @@
         <v>2025</v>
       </c>
       <c r="B611" s="3" t="s">
-        <v>1350</v>
+        <v>1314</v>
       </c>
       <c r="C611" s="3" t="s">
-        <v>1351</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.2">
@@ -11559,10 +11694,10 @@
         <v>2025</v>
       </c>
       <c r="B612" s="3" t="s">
-        <v>1320</v>
+        <v>1407</v>
       </c>
       <c r="C612" s="3" t="s">
-        <v>1318</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.2">
@@ -11570,10 +11705,10 @@
         <v>2025</v>
       </c>
       <c r="B613" s="3" t="s">
-        <v>1335</v>
+        <v>1301</v>
       </c>
       <c r="C613" s="3" t="s">
-        <v>1334</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.2">
@@ -11581,10 +11716,10 @@
         <v>2025</v>
       </c>
       <c r="B614" s="3" t="s">
-        <v>1424</v>
+        <v>1350</v>
       </c>
       <c r="C614" s="3" t="s">
-        <v>1425</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.2">
@@ -11592,10 +11727,10 @@
         <v>2025</v>
       </c>
       <c r="B615" s="3" t="s">
-        <v>1361</v>
+        <v>1320</v>
       </c>
       <c r="C615" s="3" t="s">
-        <v>1356</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.2">
@@ -11603,10 +11738,10 @@
         <v>2025</v>
       </c>
       <c r="B616" s="3" t="s">
-        <v>1327</v>
+        <v>1335</v>
       </c>
       <c r="C616" s="3" t="s">
-        <v>1322</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.2">
@@ -11614,10 +11749,10 @@
         <v>2025</v>
       </c>
       <c r="B617" s="3" t="s">
-        <v>1358</v>
+        <v>1424</v>
       </c>
       <c r="C617" s="3" t="s">
-        <v>1353</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.2">
@@ -11625,10 +11760,10 @@
         <v>2025</v>
       </c>
       <c r="B618" s="3" t="s">
-        <v>1427</v>
+        <v>1361</v>
       </c>
       <c r="C618" s="3" t="s">
-        <v>1426</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.2">
@@ -11636,51 +11771,54 @@
         <v>2025</v>
       </c>
       <c r="B619" s="3" t="s">
-        <v>1355</v>
+        <v>1327</v>
       </c>
       <c r="C619" s="3" t="s">
-        <v>1339</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A620" s="15">
+        <v>2025</v>
+      </c>
+      <c r="B620" s="3" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C620" s="3" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="621" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A621" s="15">
+        <v>2025</v>
+      </c>
+      <c r="B621" s="3" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C621" s="3" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="622" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A622" s="15">
+        <v>2025</v>
+      </c>
+      <c r="B622" s="3" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C622" s="3" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="623" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A623" s="15">
         <v>2026</v>
       </c>
-      <c r="B620" s="3" t="s">
+      <c r="B623" s="3" t="s">
         <v>1422</v>
       </c>
-      <c r="C620" s="3" t="s">
+      <c r="C623" s="3" t="s">
         <v>1421</v>
-      </c>
-    </row>
-    <row r="621" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A621" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B621" s="3" t="s">
-        <v>1396</v>
-      </c>
-      <c r="C621" s="3" t="s">
-        <v>1395</v>
-      </c>
-    </row>
-    <row r="622" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A622" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C622" s="3" t="s">
-        <v>1237</v>
-      </c>
-    </row>
-    <row r="623" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A623" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B623" s="3" t="s">
-        <v>1374</v>
-      </c>
-      <c r="C623" s="3" t="s">
-        <v>1367</v>
       </c>
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.2">
@@ -11688,21 +11826,18 @@
         <v>0</v>
       </c>
       <c r="B624" s="3" t="s">
-        <v>1413</v>
+        <v>1396</v>
       </c>
       <c r="C624" s="3" t="s">
-        <v>1414</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A625" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B625" s="3" t="s">
-        <v>1391</v>
-      </c>
       <c r="C625" s="3" t="s">
-        <v>1392</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.2">
@@ -11710,7 +11845,7 @@
         <v>0</v>
       </c>
       <c r="C626" s="3" t="s">
-        <v>1362</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.2">
@@ -11718,29 +11853,29 @@
         <v>0</v>
       </c>
       <c r="B627" s="3" t="s">
-        <v>1415</v>
+        <v>1374</v>
       </c>
       <c r="C627" s="3" t="s">
-        <v>1416</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A628" s="15" t="s">
         <v>0</v>
       </c>
+      <c r="B628" s="3" t="s">
+        <v>1413</v>
+      </c>
       <c r="C628" s="3" t="s">
-        <v>1405</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A629" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B629" s="3" t="s">
-        <v>1409</v>
-      </c>
       <c r="C629" s="3" t="s">
-        <v>1408</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.2">
@@ -11748,26 +11883,32 @@
         <v>0</v>
       </c>
       <c r="B630" s="3" t="s">
-        <v>1364</v>
+        <v>1415</v>
       </c>
       <c r="C630" s="3" t="s">
-        <v>1363</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A631" s="15" t="s">
         <v>0</v>
       </c>
+      <c r="B631" s="3" t="s">
+        <v>1409</v>
+      </c>
       <c r="C631" s="3" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A632" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C632" s="19" t="s">
-        <v>1423</v>
+      <c r="B632" s="3" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C632" s="3" t="s">
+        <v>1363</v>
       </c>
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.2">
@@ -11775,24 +11916,56 @@
         <v>0</v>
       </c>
       <c r="C633" s="3" t="s">
-        <v>1404</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A634" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B634" s="3" t="s">
+      <c r="C634" s="3" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="635" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A635" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C635" s="19" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="636" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A636" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C636" s="3" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="637" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A637" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B637" s="3" t="s">
         <v>1411</v>
       </c>
-      <c r="C634" s="3" t="s">
+      <c r="C637" s="3" t="s">
         <v>1412</v>
       </c>
     </row>
+    <row r="638" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A638" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C638" s="3" t="s">
+        <v>1428</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C634">
-    <sortCondition ref="A2:A634"/>
-    <sortCondition ref="C2:C634"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C638">
+    <sortCondition ref="A2:A638"/>
+    <sortCondition ref="C2:C638"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="Submetido">
@@ -12285,7 +12458,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12351,7 +12524,15 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="4"/>
+      <c r="A5" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>1429</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B6" s="4"/>
@@ -13019,13 +13200,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:C83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A64" sqref="A64"/>
+      <selection pane="bottomRight" activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13739,6 +13920,215 @@
       </c>
       <c r="C64" s="3" t="s">
         <v>1244</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>1451</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>1452</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>1456</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>1470</v>
       </c>
     </row>
   </sheetData>

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11122"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurferreira/Google Drive - arthur_sf/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B40C5A3-C676-9243-8E4A-BA8FCEB56669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D50F02E-DC74-4147-BD62-C7EF238D1515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="680" windowWidth="29340" windowHeight="18960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="1474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="1479">
   <si>
     <t>Aceito</t>
   </si>
@@ -4468,6 +4468,21 @@
   </si>
   <si>
     <t>Electromyographic activation during motor irradiation of proprioceptive neuromuscular facilitation: a scoping review</t>
+  </si>
+  <si>
+    <t>10.1007/s12311-025-01927-7</t>
+  </si>
+  <si>
+    <t>Fear of COVID-19, physical activity practice and chronic pain symptoms in the postvaccination period</t>
+  </si>
+  <si>
+    <t>10.1016/j.jbmt.2025.05.003</t>
+  </si>
+  <si>
+    <t>Using the Glittre-ADL test to identify treatable trait of dynamic hyperinflation in adults living with asthma</t>
+  </si>
+  <si>
+    <t>10.1183/13993003.congress-2025.PA1482</t>
   </si>
 </sst>
 </file>
@@ -4968,13 +4983,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I638"/>
+  <dimension ref="A1:I639"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B626" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B617" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A638" sqref="A638"/>
+      <selection pane="bottomRight" activeCell="A639" sqref="A639"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11920,8 +11935,11 @@
       </c>
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A634" s="15" t="s">
-        <v>0</v>
+      <c r="A634" s="15">
+        <v>2025</v>
+      </c>
+      <c r="B634" s="3" t="s">
+        <v>1474</v>
       </c>
       <c r="C634" s="3" t="s">
         <v>1431</v>
@@ -11960,6 +11978,17 @@
       </c>
       <c r="C638" s="3" t="s">
         <v>1428</v>
+      </c>
+    </row>
+    <row r="639" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A639" s="15">
+        <v>2025</v>
+      </c>
+      <c r="B639" s="3" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C639" s="3" t="s">
+        <v>1475</v>
       </c>
     </row>
   </sheetData>
@@ -13200,13 +13229,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:C83"/>
+  <dimension ref="A1:C84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A83" sqref="A83"/>
+      <selection pane="bottomRight" activeCell="A84" sqref="A84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14129,6 +14158,17 @@
       </c>
       <c r="C83" s="3" t="s">
         <v>1470</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>1477</v>
       </c>
     </row>
   </sheetData>

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurferreira/Google Drive - arthur_sf/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D50F02E-DC74-4147-BD62-C7EF238D1515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B057EDBB-DD40-C841-8A17-EEDF5DCA92A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="680" windowWidth="29340" windowHeight="18960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="1479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1517" uniqueCount="1481">
   <si>
     <t>Aceito</t>
   </si>
@@ -4483,6 +4483,12 @@
   </si>
   <si>
     <t>10.1183/13993003.congress-2025.PA1482</t>
+  </si>
+  <si>
+    <t>10.1007/978-3-032-06243-7_12</t>
+  </si>
+  <si>
+    <t>Musculoskeletal Pain and Music Performance Anxiety Among Brazilian Wind Instrumental Musicians: A Cross-­ Sectional Study</t>
   </si>
 </sst>
 </file>
@@ -12487,7 +12493,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12564,7 +12570,15 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="4"/>
+      <c r="A6" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>1479</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>1480</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" s="4"/>

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurferreira/Google Drive - arthur_sf/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B057EDBB-DD40-C841-8A17-EEDF5DCA92A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A8E6E2-37C7-E44A-A2D8-0D9BF3A87D2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="680" windowWidth="29340" windowHeight="18960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="900" yWindow="680" windowWidth="29340" windowHeight="18960" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="artigos-completos" sheetId="4" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1517" uniqueCount="1481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1519" uniqueCount="1484">
   <si>
     <t>Aceito</t>
   </si>
@@ -4489,6 +4489,15 @@
   </si>
   <si>
     <t>Musculoskeletal Pain and Music Performance Anxiety Among Brazilian Wind Instrumental Musicians: A Cross-­ Sectional Study</t>
+  </si>
+  <si>
+    <t>10.21091/mppa.2025.04014</t>
+  </si>
+  <si>
+    <t>Impact of small airways disease on reduced oxygen consumption during exercise in adults with post-tuberculosis lung disease</t>
+  </si>
+  <si>
+    <t>10.1183/13993003.congress-2025.PA4996</t>
   </si>
 </sst>
 </file>
@@ -4991,7 +5000,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I639"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B617" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -11960,8 +11969,11 @@
       </c>
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A636" s="15" t="s">
-        <v>0</v>
+      <c r="A636" s="15">
+        <v>2025</v>
+      </c>
+      <c r="B636" s="3" t="s">
+        <v>1481</v>
       </c>
       <c r="C636" s="3" t="s">
         <v>1404</v>
@@ -13243,13 +13255,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:C84"/>
+  <dimension ref="A1:C85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A84" sqref="A84"/>
+      <selection pane="bottomRight" activeCell="A85" sqref="A85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14183,6 +14195,17 @@
       </c>
       <c r="C84" s="3" t="s">
         <v>1477</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>1482</v>
       </c>
     </row>
   </sheetData>

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11122"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurferreira/Google Drive - arthur_sf/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A8E6E2-37C7-E44A-A2D8-0D9BF3A87D2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39640660-DF0C-6545-A155-5FB7802BB7F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="680" windowWidth="29340" windowHeight="18960" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="900" yWindow="680" windowWidth="29340" windowHeight="18960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="artigos-completos" sheetId="4" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1519" uniqueCount="1484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="1492">
   <si>
     <t>Aceito</t>
   </si>
@@ -4498,6 +4498,30 @@
   </si>
   <si>
     <t>10.1183/13993003.congress-2025.PA4996</t>
+  </si>
+  <si>
+    <t>Correlations Between Oxygen Consumption, Ventilatory Mechanics, and Lung Ultrasound in Individuals with Post-Covid Syndrome</t>
+  </si>
+  <si>
+    <t>10.3390/ijerph22121839</t>
+  </si>
+  <si>
+    <t>Assessment of Body Composition, Quality of Life, and Depression in Women with PCOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1371/journal.pone.0336898 </t>
+  </si>
+  <si>
+    <t>Engaging citizen science: Exploring popular participation in scientific projects in rehabilitation</t>
+  </si>
+  <si>
+    <t>Explainable Machine Learning Reveals Key Predictors of ICU Mortality in COVID-19: Functional Outcomes and Physiotherapy Interventions in Cardiovascular Patients</t>
+  </si>
+  <si>
+    <t>‘Seeing pain differently’: the impact of physiotherapists’ attitudes and treatment beliefs on postural assessment in neck pain – an eye-tracking study</t>
+  </si>
+  <si>
+    <t>10.1016/j.bjpt.2025.101560</t>
   </si>
 </sst>
 </file>
@@ -4998,13 +5022,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I639"/>
+  <dimension ref="A1:I644"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B617" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B606" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A639" sqref="A639"/>
+      <selection pane="bottomRight" activeCell="A644" sqref="A644"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11361,10 +11385,10 @@
         <v>2025</v>
       </c>
       <c r="B579" s="3" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="C579" s="3" t="s">
-        <v>1388</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.2">
@@ -11372,10 +11396,10 @@
         <v>2025</v>
       </c>
       <c r="B580" s="5" t="s">
-        <v>1370</v>
+        <v>1397</v>
       </c>
       <c r="C580" s="3" t="s">
-        <v>1369</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.2">
@@ -11383,10 +11407,10 @@
         <v>2025</v>
       </c>
       <c r="B581" s="3" t="s">
-        <v>1328</v>
+        <v>1370</v>
       </c>
       <c r="C581" s="3" t="s">
-        <v>1329</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.2">
@@ -11394,21 +11418,21 @@
         <v>2025</v>
       </c>
       <c r="B582" s="3" t="s">
-        <v>1360</v>
+        <v>1328</v>
       </c>
       <c r="C582" s="3" t="s">
-        <v>1330</v>
-      </c>
-    </row>
-    <row r="583" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A583" s="15">
         <v>2025</v>
       </c>
       <c r="B583" s="3" t="s">
-        <v>1264</v>
-      </c>
-      <c r="C583" s="18" t="s">
-        <v>1385</v>
+        <v>1360</v>
+      </c>
+      <c r="C583" s="3" t="s">
+        <v>1330</v>
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.2">
@@ -11416,21 +11440,21 @@
         <v>2025</v>
       </c>
       <c r="B584" s="3" t="s">
-        <v>1309</v>
+        <v>1487</v>
       </c>
       <c r="C584" s="3" t="s">
-        <v>1307</v>
-      </c>
-    </row>
-    <row r="585" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A585" s="15">
         <v>2025</v>
       </c>
       <c r="B585" s="3" t="s">
-        <v>1368</v>
-      </c>
-      <c r="C585" s="3" t="s">
-        <v>1365</v>
+        <v>1264</v>
+      </c>
+      <c r="C585" s="18" t="s">
+        <v>1385</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.2">
@@ -11438,10 +11462,10 @@
         <v>2025</v>
       </c>
       <c r="B586" s="3" t="s">
-        <v>1359</v>
+        <v>1309</v>
       </c>
       <c r="C586" s="3" t="s">
-        <v>1357</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.2">
@@ -11449,10 +11473,10 @@
         <v>2025</v>
       </c>
       <c r="B587" s="3" t="s">
-        <v>1419</v>
+        <v>1368</v>
       </c>
       <c r="C587" s="3" t="s">
-        <v>1420</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.2">
@@ -11460,10 +11484,10 @@
         <v>2025</v>
       </c>
       <c r="B588" s="3" t="s">
-        <v>1349</v>
+        <v>1485</v>
       </c>
       <c r="C588" s="3" t="s">
-        <v>1340</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.2">
@@ -11471,21 +11495,21 @@
         <v>2025</v>
       </c>
       <c r="B589" s="3" t="s">
-        <v>1380</v>
+        <v>1359</v>
       </c>
       <c r="C589" s="3" t="s">
-        <v>1379</v>
-      </c>
-    </row>
-    <row r="590" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A590" s="15">
         <v>2025</v>
       </c>
       <c r="B590" s="3" t="s">
-        <v>1377</v>
-      </c>
-      <c r="C590" s="18" t="s">
-        <v>1378</v>
+        <v>1419</v>
+      </c>
+      <c r="C590" s="3" t="s">
+        <v>1420</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.2">
@@ -11493,10 +11517,10 @@
         <v>2025</v>
       </c>
       <c r="B591" s="3" t="s">
-        <v>1345</v>
+        <v>1349</v>
       </c>
       <c r="C591" s="3" t="s">
-        <v>1346</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.2">
@@ -11504,21 +11528,21 @@
         <v>2025</v>
       </c>
       <c r="B592" s="3" t="s">
-        <v>1391</v>
+        <v>1380</v>
       </c>
       <c r="C592" s="3" t="s">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="593" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A593" s="15">
         <v>2025</v>
       </c>
       <c r="B593" s="3" t="s">
-        <v>1401</v>
-      </c>
-      <c r="C593" s="3" t="s">
-        <v>1400</v>
+        <v>1377</v>
+      </c>
+      <c r="C593" s="18" t="s">
+        <v>1378</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.2">
@@ -11526,10 +11550,10 @@
         <v>2025</v>
       </c>
       <c r="B594" s="3" t="s">
-        <v>1338</v>
+        <v>1345</v>
       </c>
       <c r="C594" s="3" t="s">
-        <v>1332</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.2">
@@ -11537,10 +11561,10 @@
         <v>2025</v>
       </c>
       <c r="B595" s="3" t="s">
-        <v>1472</v>
+        <v>1391</v>
       </c>
       <c r="C595" s="3" t="s">
-        <v>1473</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.2">
@@ -11548,10 +11572,10 @@
         <v>2025</v>
       </c>
       <c r="B596" s="3" t="s">
-        <v>1311</v>
+        <v>1401</v>
       </c>
       <c r="C596" s="3" t="s">
-        <v>1283</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.2">
@@ -11559,10 +11583,10 @@
         <v>2025</v>
       </c>
       <c r="B597" s="3" t="s">
-        <v>1366</v>
+        <v>1338</v>
       </c>
       <c r="C597" s="3" t="s">
-        <v>1371</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.2">
@@ -11570,10 +11594,10 @@
         <v>2025</v>
       </c>
       <c r="B598" s="3" t="s">
-        <v>1295</v>
+        <v>1472</v>
       </c>
       <c r="C598" s="3" t="s">
-        <v>1296</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.2">
@@ -11581,10 +11605,10 @@
         <v>2025</v>
       </c>
       <c r="B599" s="3" t="s">
-        <v>1384</v>
+        <v>1476</v>
       </c>
       <c r="C599" s="3" t="s">
-        <v>1383</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.2">
@@ -11592,10 +11616,10 @@
         <v>2025</v>
       </c>
       <c r="B600" s="3" t="s">
-        <v>1468</v>
+        <v>1311</v>
       </c>
       <c r="C600" s="3" t="s">
-        <v>1405</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.2">
@@ -11603,10 +11627,10 @@
         <v>2025</v>
       </c>
       <c r="B601" s="3" t="s">
-        <v>1390</v>
+        <v>1415</v>
       </c>
       <c r="C601" s="3" t="s">
-        <v>1389</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.2">
@@ -11614,10 +11638,10 @@
         <v>2025</v>
       </c>
       <c r="B602" s="3" t="s">
-        <v>1354</v>
+        <v>1366</v>
       </c>
       <c r="C602" s="3" t="s">
-        <v>1352</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.2">
@@ -11625,10 +11649,10 @@
         <v>2025</v>
       </c>
       <c r="B603" s="3" t="s">
-        <v>1382</v>
+        <v>1295</v>
       </c>
       <c r="C603" s="3" t="s">
-        <v>1381</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.2">
@@ -11636,10 +11660,10 @@
         <v>2025</v>
       </c>
       <c r="B604" s="3" t="s">
-        <v>1348</v>
+        <v>1384</v>
       </c>
       <c r="C604" s="3" t="s">
-        <v>1347</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.2">
@@ -11647,10 +11671,10 @@
         <v>2025</v>
       </c>
       <c r="B605" s="3" t="s">
-        <v>1387</v>
+        <v>1468</v>
       </c>
       <c r="C605" s="3" t="s">
-        <v>1386</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.2">
@@ -11658,10 +11682,10 @@
         <v>2025</v>
       </c>
       <c r="B606" s="3" t="s">
-        <v>1376</v>
+        <v>1390</v>
       </c>
       <c r="C606" s="3" t="s">
-        <v>1375</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.2">
@@ -11669,10 +11693,10 @@
         <v>2025</v>
       </c>
       <c r="B607" s="3" t="s">
-        <v>1336</v>
+        <v>1354</v>
       </c>
       <c r="C607" s="3" t="s">
-        <v>1331</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.2">
@@ -11680,10 +11704,10 @@
         <v>2025</v>
       </c>
       <c r="B608" s="3" t="s">
-        <v>1402</v>
+        <v>1409</v>
       </c>
       <c r="C608" s="3" t="s">
-        <v>1403</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.2">
@@ -11691,10 +11715,10 @@
         <v>2025</v>
       </c>
       <c r="B609" s="3" t="s">
-        <v>1321</v>
+        <v>1382</v>
       </c>
       <c r="C609" s="3" t="s">
-        <v>1308</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.2">
@@ -11702,10 +11726,10 @@
         <v>2025</v>
       </c>
       <c r="B610" s="3" t="s">
-        <v>1304</v>
+        <v>1348</v>
       </c>
       <c r="C610" s="3" t="s">
-        <v>1303</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.2">
@@ -11713,10 +11737,10 @@
         <v>2025</v>
       </c>
       <c r="B611" s="3" t="s">
-        <v>1314</v>
+        <v>1387</v>
       </c>
       <c r="C611" s="3" t="s">
-        <v>1312</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.2">
@@ -11724,10 +11748,10 @@
         <v>2025</v>
       </c>
       <c r="B612" s="3" t="s">
-        <v>1407</v>
+        <v>1376</v>
       </c>
       <c r="C612" s="3" t="s">
-        <v>1406</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.2">
@@ -11735,10 +11759,10 @@
         <v>2025</v>
       </c>
       <c r="B613" s="3" t="s">
-        <v>1301</v>
+        <v>1336</v>
       </c>
       <c r="C613" s="3" t="s">
-        <v>1300</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.2">
@@ -11746,10 +11770,10 @@
         <v>2025</v>
       </c>
       <c r="B614" s="3" t="s">
-        <v>1350</v>
+        <v>1402</v>
       </c>
       <c r="C614" s="3" t="s">
-        <v>1351</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.2">
@@ -11757,10 +11781,10 @@
         <v>2025</v>
       </c>
       <c r="B615" s="3" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="C615" s="3" t="s">
-        <v>1318</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.2">
@@ -11768,10 +11792,10 @@
         <v>2025</v>
       </c>
       <c r="B616" s="3" t="s">
-        <v>1335</v>
+        <v>1304</v>
       </c>
       <c r="C616" s="3" t="s">
-        <v>1334</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.2">
@@ -11779,10 +11803,10 @@
         <v>2025</v>
       </c>
       <c r="B617" s="3" t="s">
-        <v>1424</v>
+        <v>1314</v>
       </c>
       <c r="C617" s="3" t="s">
-        <v>1425</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.2">
@@ -11790,10 +11814,10 @@
         <v>2025</v>
       </c>
       <c r="B618" s="3" t="s">
-        <v>1361</v>
+        <v>1407</v>
       </c>
       <c r="C618" s="3" t="s">
-        <v>1356</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.2">
@@ -11801,10 +11825,10 @@
         <v>2025</v>
       </c>
       <c r="B619" s="3" t="s">
-        <v>1327</v>
+        <v>1301</v>
       </c>
       <c r="C619" s="3" t="s">
-        <v>1322</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.2">
@@ -11812,10 +11836,10 @@
         <v>2025</v>
       </c>
       <c r="B620" s="3" t="s">
-        <v>1358</v>
+        <v>1474</v>
       </c>
       <c r="C620" s="3" t="s">
-        <v>1353</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.2">
@@ -11823,10 +11847,10 @@
         <v>2025</v>
       </c>
       <c r="B621" s="3" t="s">
-        <v>1427</v>
+        <v>1350</v>
       </c>
       <c r="C621" s="3" t="s">
-        <v>1426</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.2">
@@ -11834,111 +11858,117 @@
         <v>2025</v>
       </c>
       <c r="B622" s="3" t="s">
-        <v>1355</v>
+        <v>1320</v>
       </c>
       <c r="C622" s="3" t="s">
-        <v>1339</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A623" s="15">
+        <v>2025</v>
+      </c>
+      <c r="B623" s="3" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C623" s="3" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="624" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A624" s="15">
+        <v>2025</v>
+      </c>
+      <c r="B624" s="3" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C624" s="3" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="625" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A625" s="15">
+        <v>2025</v>
+      </c>
+      <c r="B625" s="3" t="s">
+        <v>1481</v>
+      </c>
+      <c r="C625" s="3" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="626" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A626" s="15">
+        <v>2025</v>
+      </c>
+      <c r="B626" s="3" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C626" s="3" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="627" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A627" s="15">
+        <v>2025</v>
+      </c>
+      <c r="B627" s="3" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C627" s="3" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="628" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A628" s="15">
+        <v>2025</v>
+      </c>
+      <c r="B628" s="3" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C628" s="3" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="629" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A629" s="15">
+        <v>2025</v>
+      </c>
+      <c r="B629" s="3" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C629" s="3" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="630" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A630" s="15">
+        <v>2025</v>
+      </c>
+      <c r="B630" s="3" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C630" s="3" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="631" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A631" s="15">
         <v>2026</v>
       </c>
-      <c r="B623" s="3" t="s">
+      <c r="B631" s="3" t="s">
         <v>1422</v>
       </c>
-      <c r="C623" s="3" t="s">
+      <c r="C631" s="3" t="s">
         <v>1421</v>
-      </c>
-    </row>
-    <row r="624" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A624" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B624" s="3" t="s">
-        <v>1396</v>
-      </c>
-      <c r="C624" s="3" t="s">
-        <v>1395</v>
-      </c>
-    </row>
-    <row r="625" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A625" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C625" s="3" t="s">
-        <v>1237</v>
-      </c>
-    </row>
-    <row r="626" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A626" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C626" s="3" t="s">
-        <v>1469</v>
-      </c>
-    </row>
-    <row r="627" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A627" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B627" s="3" t="s">
-        <v>1374</v>
-      </c>
-      <c r="C627" s="3" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="628" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A628" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B628" s="3" t="s">
-        <v>1413</v>
-      </c>
-      <c r="C628" s="3" t="s">
-        <v>1414</v>
-      </c>
-    </row>
-    <row r="629" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A629" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C629" s="3" t="s">
-        <v>1362</v>
-      </c>
-    </row>
-    <row r="630" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A630" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B630" s="3" t="s">
-        <v>1415</v>
-      </c>
-      <c r="C630" s="3" t="s">
-        <v>1416</v>
-      </c>
-    </row>
-    <row r="631" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A631" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B631" s="3" t="s">
-        <v>1409</v>
-      </c>
-      <c r="C631" s="3" t="s">
-        <v>1408</v>
       </c>
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A632" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B632" s="3" t="s">
-        <v>1364</v>
-      </c>
       <c r="C632" s="3" t="s">
-        <v>1363</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.2">
@@ -11946,48 +11976,45 @@
         <v>0</v>
       </c>
       <c r="C633" s="3" t="s">
-        <v>1410</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A634" s="15">
-        <v>2025</v>
-      </c>
-      <c r="B634" s="3" t="s">
-        <v>1474</v>
+      <c r="A634" s="15" t="s">
+        <v>0</v>
       </c>
       <c r="C634" s="3" t="s">
-        <v>1431</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A635" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C635" s="19" t="s">
-        <v>1423</v>
+      <c r="B635" s="3" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C635" s="3" t="s">
+        <v>1367</v>
       </c>
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A636" s="15">
-        <v>2025</v>
+      <c r="A636" s="15" t="s">
+        <v>0</v>
       </c>
       <c r="B636" s="3" t="s">
-        <v>1481</v>
+        <v>1413</v>
       </c>
       <c r="C636" s="3" t="s">
-        <v>1404</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A637" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B637" s="3" t="s">
-        <v>1411</v>
-      </c>
       <c r="C637" s="3" t="s">
-        <v>1412</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.2">
@@ -11995,24 +12022,70 @@
         <v>0</v>
       </c>
       <c r="C638" s="3" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="639" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A639" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C639" s="3" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="640" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A640" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B640" s="3" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C640" s="3" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="641" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A641" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C641" s="3" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="642" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A642" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C642" s="19" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="643" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A643" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B643" s="3" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C643" s="3" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="644" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A644" s="15">
+        <v>2026</v>
+      </c>
+      <c r="B644" s="3" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C644" s="3" t="s">
         <v>1428</v>
       </c>
     </row>
-    <row r="639" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A639" s="15">
-        <v>2025</v>
-      </c>
-      <c r="B639" s="3" t="s">
-        <v>1476</v>
-      </c>
-      <c r="C639" s="3" t="s">
-        <v>1475</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C638">
-    <sortCondition ref="A2:A638"/>
-    <sortCondition ref="C2:C638"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C644">
+    <sortCondition ref="A2:A644"/>
+    <sortCondition ref="C2:C644"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="Submetido">
@@ -12038,7 +12111,7 @@
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="B449" r:id="rId1" xr:uid="{9BCE4324-8A77-884E-80ED-4C3988C2A1D3}"/>
-    <hyperlink ref="B586" r:id="rId2" display="https://doi.org/10.63231/2595-0118.20250016-em" xr:uid="{71D2DE81-84B4-E94C-AB67-C52CD70CA320}"/>
+    <hyperlink ref="B589" r:id="rId2" display="https://doi.org/10.63231/2595-0118.20250016-em" xr:uid="{71D2DE81-84B4-E94C-AB67-C52CD70CA320}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape"/>
@@ -13257,11 +13330,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A85" sqref="A85"/>
+      <selection pane="bottomRight" activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurferreira/Google Drive - arthur_sf/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39640660-DF0C-6545-A155-5FB7802BB7F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D5D7C4D-B0FA-414A-BBF6-8F94599D5E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="680" windowWidth="29340" windowHeight="18960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="1492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1530" uniqueCount="1496">
   <si>
     <t>Aceito</t>
   </si>
@@ -4149,9 +4149,6 @@
     <t>10.1177/23971983251341515</t>
   </si>
   <si>
-    <t>Contribution of small airway disease to dynamic hyperinflation in patients with COPD</t>
-  </si>
-  <si>
     <t>10.1177/14799731251345492</t>
   </si>
   <si>
@@ -4522,6 +4519,21 @@
   </si>
   <si>
     <t>10.1016/j.bjpt.2025.101560</t>
+  </si>
+  <si>
+    <t>10.21727/rm.v16i3.5226</t>
+  </si>
+  <si>
+    <t>Relação entre aspectos emocionais, hábitos de vida e conquista de medalhas em atletas paralímpicos brasileiros após o adiamento dos jogos de Tóquio 2020</t>
+  </si>
+  <si>
+    <t>Contribution of small airway disease to dynamic hyperinflation in patients with chronic obstructive pulmonary disease</t>
+  </si>
+  <si>
+    <t>10.4103/AMAH.AMH-2024-07-068</t>
+  </si>
+  <si>
+    <t>10.47066/2966-4837.e00072025en</t>
   </si>
 </sst>
 </file>
@@ -5022,13 +5034,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I644"/>
+  <dimension ref="A1:I645"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B606" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B612" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A644" sqref="A644"/>
+      <selection pane="bottomRight" activeCell="A645" sqref="A645"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11352,10 +11364,10 @@
         <v>2025</v>
       </c>
       <c r="B576" s="3" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C576" s="3" t="s">
         <v>1372</v>
-      </c>
-      <c r="C576" s="3" t="s">
-        <v>1373</v>
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.2">
@@ -11363,10 +11375,10 @@
         <v>2025</v>
       </c>
       <c r="B577" s="3" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="C577" s="3" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.2">
@@ -11374,10 +11386,10 @@
         <v>2025</v>
       </c>
       <c r="B578" s="3" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="C578" s="3" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.2">
@@ -11385,10 +11397,10 @@
         <v>2025</v>
       </c>
       <c r="B579" s="3" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="C579" s="3" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.2">
@@ -11396,10 +11408,10 @@
         <v>2025</v>
       </c>
       <c r="B580" s="5" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="C580" s="3" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.2">
@@ -11407,10 +11419,10 @@
         <v>2025</v>
       </c>
       <c r="B581" s="3" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="C581" s="3" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.2">
@@ -11440,10 +11452,10 @@
         <v>2025</v>
       </c>
       <c r="B584" s="3" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="C584" s="3" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="585" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -11454,7 +11466,7 @@
         <v>1264</v>
       </c>
       <c r="C585" s="18" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.2">
@@ -11473,7 +11485,7 @@
         <v>2025</v>
       </c>
       <c r="B587" s="3" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="C587" s="3" t="s">
         <v>1365</v>
@@ -11484,10 +11496,10 @@
         <v>2025</v>
       </c>
       <c r="B588" s="3" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="C588" s="3" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.2">
@@ -11506,10 +11518,10 @@
         <v>2025</v>
       </c>
       <c r="B590" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C590" s="3" t="s">
         <v>1419</v>
-      </c>
-      <c r="C590" s="3" t="s">
-        <v>1420</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.2">
@@ -11528,10 +11540,10 @@
         <v>2025</v>
       </c>
       <c r="B592" s="3" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="C592" s="3" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="593" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -11539,10 +11551,10 @@
         <v>2025</v>
       </c>
       <c r="B593" s="3" t="s">
+        <v>1376</v>
+      </c>
+      <c r="C593" s="18" t="s">
         <v>1377</v>
-      </c>
-      <c r="C593" s="18" t="s">
-        <v>1378</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.2">
@@ -11561,10 +11573,10 @@
         <v>2025</v>
       </c>
       <c r="B595" s="3" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C595" s="3" t="s">
         <v>1391</v>
-      </c>
-      <c r="C595" s="3" t="s">
-        <v>1392</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.2">
@@ -11572,10 +11584,10 @@
         <v>2025</v>
       </c>
       <c r="B596" s="3" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="C596" s="3" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.2">
@@ -11594,10 +11606,10 @@
         <v>2025</v>
       </c>
       <c r="B598" s="3" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C598" s="3" t="s">
         <v>1472</v>
-      </c>
-      <c r="C598" s="3" t="s">
-        <v>1473</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.2">
@@ -11605,10 +11617,10 @@
         <v>2025</v>
       </c>
       <c r="B599" s="3" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="C599" s="3" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.2">
@@ -11627,10 +11639,10 @@
         <v>2025</v>
       </c>
       <c r="B601" s="3" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C601" s="3" t="s">
         <v>1415</v>
-      </c>
-      <c r="C601" s="3" t="s">
-        <v>1416</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.2">
@@ -11641,7 +11653,7 @@
         <v>1366</v>
       </c>
       <c r="C602" s="3" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.2">
@@ -11660,10 +11672,10 @@
         <v>2025</v>
       </c>
       <c r="B604" s="3" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="C604" s="3" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.2">
@@ -11671,10 +11683,10 @@
         <v>2025</v>
       </c>
       <c r="B605" s="3" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="C605" s="3" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.2">
@@ -11682,10 +11694,10 @@
         <v>2025</v>
       </c>
       <c r="B606" s="3" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="C606" s="3" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.2">
@@ -11704,10 +11716,10 @@
         <v>2025</v>
       </c>
       <c r="B608" s="3" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="C608" s="3" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.2">
@@ -11715,10 +11727,10 @@
         <v>2025</v>
       </c>
       <c r="B609" s="3" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="C609" s="3" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.2">
@@ -11737,10 +11749,10 @@
         <v>2025</v>
       </c>
       <c r="B611" s="3" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="C611" s="3" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.2">
@@ -11748,10 +11760,10 @@
         <v>2025</v>
       </c>
       <c r="B612" s="3" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="C612" s="3" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.2">
@@ -11770,10 +11782,10 @@
         <v>2025</v>
       </c>
       <c r="B614" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C614" s="3" t="s">
         <v>1402</v>
-      </c>
-      <c r="C614" s="3" t="s">
-        <v>1403</v>
       </c>
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.2">
@@ -11814,10 +11826,10 @@
         <v>2025</v>
       </c>
       <c r="B618" s="3" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="C618" s="3" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.2">
@@ -11836,10 +11848,10 @@
         <v>2025</v>
       </c>
       <c r="B620" s="3" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="C620" s="3" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.2">
@@ -11880,10 +11892,10 @@
         <v>2025</v>
       </c>
       <c r="B624" s="3" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C624" s="3" t="s">
         <v>1424</v>
-      </c>
-      <c r="C624" s="3" t="s">
-        <v>1425</v>
       </c>
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.2">
@@ -11891,10 +11903,10 @@
         <v>2025</v>
       </c>
       <c r="B625" s="3" t="s">
-        <v>1481</v>
+        <v>1491</v>
       </c>
       <c r="C625" s="3" t="s">
-        <v>1404</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.2">
@@ -11902,10 +11914,10 @@
         <v>2025</v>
       </c>
       <c r="B626" s="3" t="s">
-        <v>1361</v>
+        <v>1480</v>
       </c>
       <c r="C626" s="3" t="s">
-        <v>1356</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.2">
@@ -11913,10 +11925,10 @@
         <v>2025</v>
       </c>
       <c r="B627" s="3" t="s">
-        <v>1327</v>
+        <v>1361</v>
       </c>
       <c r="C627" s="3" t="s">
-        <v>1322</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.2">
@@ -11924,10 +11936,10 @@
         <v>2025</v>
       </c>
       <c r="B628" s="3" t="s">
-        <v>1358</v>
+        <v>1327</v>
       </c>
       <c r="C628" s="3" t="s">
-        <v>1353</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.2">
@@ -11935,10 +11947,10 @@
         <v>2025</v>
       </c>
       <c r="B629" s="3" t="s">
-        <v>1427</v>
+        <v>1358</v>
       </c>
       <c r="C629" s="3" t="s">
-        <v>1426</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.2">
@@ -11946,37 +11958,43 @@
         <v>2025</v>
       </c>
       <c r="B630" s="3" t="s">
-        <v>1355</v>
+        <v>1426</v>
       </c>
       <c r="C630" s="3" t="s">
-        <v>1339</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A631" s="15">
+        <v>2025</v>
+      </c>
+      <c r="B631" s="3" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C631" s="3" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="632" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A632" s="15">
         <v>2026</v>
       </c>
-      <c r="B631" s="3" t="s">
-        <v>1422</v>
-      </c>
-      <c r="C631" s="3" t="s">
+      <c r="B632" s="3" t="s">
         <v>1421</v>
       </c>
-    </row>
-    <row r="632" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A632" s="15" t="s">
-        <v>0</v>
-      </c>
       <c r="C632" s="3" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="633" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A633" s="15">
+        <v>2026</v>
+      </c>
+      <c r="B633" s="3" t="s">
         <v>1490</v>
       </c>
-    </row>
-    <row r="633" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A633" s="15" t="s">
-        <v>0</v>
-      </c>
       <c r="C633" s="3" t="s">
-        <v>1486</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.2">
@@ -11984,53 +12002,56 @@
         <v>0</v>
       </c>
       <c r="C634" s="3" t="s">
-        <v>1237</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A635" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B635" s="3" t="s">
-        <v>1374</v>
-      </c>
       <c r="C635" s="3" t="s">
-        <v>1367</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A636" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B636" s="3" t="s">
-        <v>1413</v>
-      </c>
       <c r="C636" s="3" t="s">
-        <v>1414</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A637" s="15" t="s">
         <v>0</v>
       </c>
+      <c r="B637" s="3" t="s">
+        <v>1373</v>
+      </c>
       <c r="C637" s="3" t="s">
-        <v>1488</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A638" s="15" t="s">
         <v>0</v>
       </c>
+      <c r="B638" s="3" t="s">
+        <v>1412</v>
+      </c>
       <c r="C638" s="3" t="s">
-        <v>1489</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A639" s="15" t="s">
         <v>0</v>
       </c>
+      <c r="B639" s="3" t="s">
+        <v>1494</v>
+      </c>
       <c r="C639" s="3" t="s">
-        <v>1362</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.2">
@@ -12038,10 +12059,10 @@
         <v>0</v>
       </c>
       <c r="B640" s="3" t="s">
-        <v>1364</v>
+        <v>1495</v>
       </c>
       <c r="C640" s="3" t="s">
-        <v>1363</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.2">
@@ -12049,43 +12070,51 @@
         <v>0</v>
       </c>
       <c r="C641" s="3" t="s">
-        <v>1410</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A642" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C642" s="19" t="s">
-        <v>1423</v>
+      <c r="B642" s="3" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C642" s="3" t="s">
+        <v>1363</v>
       </c>
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A643" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B643" s="3" t="s">
+      <c r="C643" s="3" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="644" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A644" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C644" s="19" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="645" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A645" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B645" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C645" s="3" t="s">
         <v>1411</v>
       </c>
-      <c r="C643" s="3" t="s">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="644" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A644" s="15">
-        <v>2026</v>
-      </c>
-      <c r="B644" s="3" t="s">
-        <v>1491</v>
-      </c>
-      <c r="C644" s="3" t="s">
-        <v>1428</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C644">
-    <sortCondition ref="A2:A644"/>
-    <sortCondition ref="C2:C644"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C645">
+    <sortCondition ref="A2:A645"/>
+    <sortCondition ref="C2:C645"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="Submetido">
@@ -12535,10 +12564,10 @@
         <v>2025</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>1398</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>1399</v>
       </c>
     </row>
   </sheetData>
@@ -12648,10 +12677,10 @@
         <v>2025</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -12659,10 +12688,10 @@
         <v>2025</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>1479</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>1480</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -14055,10 +14084,10 @@
         <v>2025</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
@@ -14066,10 +14095,10 @@
         <v>2025</v>
       </c>
       <c r="B66" s="3" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>1434</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>1435</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -14077,10 +14106,10 @@
         <v>2025</v>
       </c>
       <c r="B67" s="3" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>1436</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>1437</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
@@ -14088,10 +14117,10 @@
         <v>2025</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
@@ -14099,10 +14128,10 @@
         <v>2025</v>
       </c>
       <c r="B69" s="3" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C69" s="3" t="s">
         <v>1440</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>1441</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
@@ -14110,10 +14139,10 @@
         <v>2025</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
@@ -14121,10 +14150,10 @@
         <v>2025</v>
       </c>
       <c r="B71" s="3" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>1444</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>1445</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
@@ -14132,10 +14161,10 @@
         <v>2025</v>
       </c>
       <c r="B72" s="3" t="s">
+        <v>1445</v>
+      </c>
+      <c r="C72" s="3" t="s">
         <v>1446</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>1447</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
@@ -14143,10 +14172,10 @@
         <v>2025</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
@@ -14154,10 +14183,10 @@
         <v>2025</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
@@ -14165,10 +14194,10 @@
         <v>2025</v>
       </c>
       <c r="B75" s="3" t="s">
+        <v>1451</v>
+      </c>
+      <c r="C75" s="3" t="s">
         <v>1452</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>1453</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
@@ -14176,10 +14205,10 @@
         <v>2025</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
@@ -14187,10 +14216,10 @@
         <v>2025</v>
       </c>
       <c r="B77" s="3" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C77" s="3" t="s">
         <v>1456</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>1457</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
@@ -14198,10 +14227,10 @@
         <v>2025</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
@@ -14209,10 +14238,10 @@
         <v>2025</v>
       </c>
       <c r="B79" s="3" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C79" s="3" t="s">
         <v>1460</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>1461</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
@@ -14220,10 +14249,10 @@
         <v>2025</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
@@ -14231,10 +14260,10 @@
         <v>2025</v>
       </c>
       <c r="B81" s="3" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C81" s="3" t="s">
         <v>1464</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>1465</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
@@ -14242,10 +14271,10 @@
         <v>2025</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
@@ -14253,10 +14282,10 @@
         <v>2025</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
@@ -14264,10 +14293,10 @@
         <v>2025</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
@@ -14275,10 +14304,10 @@
         <v>2025</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
     </row>
   </sheetData>

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurferreira/Google Drive - arthur_sf/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D5D7C4D-B0FA-414A-BBF6-8F94599D5E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA5F6D42-632E-6B49-B74C-1B957D9C0292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="680" windowWidth="29340" windowHeight="18960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1530" uniqueCount="1496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1532" uniqueCount="1497">
   <si>
     <t>Aceito</t>
   </si>
@@ -4534,6 +4534,9 @@
   </si>
   <si>
     <t>10.47066/2966-4837.e00072025en</t>
+  </si>
+  <si>
+    <t>Expert Recommendations for Setting and Adjusting Airway Pressure Release Ventilation (APRV) Based on Clinical Experience and Basic Science Evidence</t>
   </si>
 </sst>
 </file>
@@ -5034,13 +5037,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I645"/>
+  <dimension ref="A1:I646"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B612" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A645" sqref="A645"/>
+      <selection pane="bottomRight" activeCell="A646" sqref="A646"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12109,6 +12112,14 @@
       </c>
       <c r="C645" s="3" t="s">
         <v>1411</v>
+      </c>
+    </row>
+    <row r="646" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A646" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C646" s="3" t="s">
+        <v>1496</v>
       </c>
     </row>
   </sheetData>

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10201"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurferreira/Google Drive - arthur_sf/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA5F6D42-632E-6B49-B74C-1B957D9C0292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B89B350-8CC2-A54F-A4E9-6C0BB41799FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="680" windowWidth="29340" windowHeight="18960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1532" uniqueCount="1497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1541" uniqueCount="1508">
   <si>
     <t>Aceito</t>
   </si>
@@ -4134,9 +4134,6 @@
     <t>10.70252/PPGL4101</t>
   </si>
   <si>
-    <t>Fatores associados à dor crônica musculoesquelética em indivíduos com covid-longa após alta hospitalar: um estudo transversal</t>
-  </si>
-  <si>
     <t>Mapping Global Research on Artificial Intelligence in Physical Therapy: A Bibliometric Analysis from 1990–2023</t>
   </si>
   <si>
@@ -4537,6 +4534,42 @@
   </si>
   <si>
     <t>Expert Recommendations for Setting and Adjusting Airway Pressure Release Ventilation (APRV) Based on Clinical Experience and Basic Science Evidence</t>
+  </si>
+  <si>
+    <t>10.1016/j.bbr.2026.116049</t>
+  </si>
+  <si>
+    <t>Postural and cardiorespiratory responses to emotionally-laden whole-body expressions</t>
+  </si>
+  <si>
+    <t>Insatisfação corporal em estudantes de Educação Física: análise de fatores associados</t>
+  </si>
+  <si>
+    <t>10.46642/efd.v30i332.8579</t>
+  </si>
+  <si>
+    <t>Applying Symmetry to Motor Control in Sports and Rehabilitation</t>
+  </si>
+  <si>
+    <t>10.3390/sym18010166</t>
+  </si>
+  <si>
+    <t>Factors associated with chronic musculoskeletal pain in individuals with long-COVID after hospital discharge: cross-sectional study</t>
+  </si>
+  <si>
+    <t>10.63231/2595-0118.202558-en link</t>
+  </si>
+  <si>
+    <t>10.1186/s43019-026-00305-9</t>
+  </si>
+  <si>
+    <t>Quadriceps muscle force magnitude and control in the knee scheduled for arthroplasty versus the contralateral knee: A cross‑sectional study in patients with end‑stage osteoarthritis</t>
+  </si>
+  <si>
+    <t>Insights from Ungureanu et al.: Interpreting AI-Clinician Disagreement in ECG Diagnostics</t>
+  </si>
+  <si>
+    <t>10.3389/fmed.2026.1741129</t>
   </si>
 </sst>
 </file>
@@ -5037,13 +5070,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I646"/>
+  <dimension ref="A1:I649"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B612" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B607" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A646" sqref="A646"/>
+      <selection pane="bottomRight" activeCell="A649" sqref="A649"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11367,10 +11400,10 @@
         <v>2025</v>
       </c>
       <c r="B576" s="3" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C576" s="3" t="s">
         <v>1371</v>
-      </c>
-      <c r="C576" s="3" t="s">
-        <v>1372</v>
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.2">
@@ -11378,10 +11411,10 @@
         <v>2025</v>
       </c>
       <c r="B577" s="3" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="C577" s="3" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.2">
@@ -11389,10 +11422,10 @@
         <v>2025</v>
       </c>
       <c r="B578" s="3" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="C578" s="3" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.2">
@@ -11400,10 +11433,10 @@
         <v>2025</v>
       </c>
       <c r="B579" s="3" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="C579" s="3" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.2">
@@ -11411,10 +11444,10 @@
         <v>2025</v>
       </c>
       <c r="B580" s="5" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="C580" s="3" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.2">
@@ -11422,10 +11455,10 @@
         <v>2025</v>
       </c>
       <c r="B581" s="3" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="C581" s="3" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.2">
@@ -11455,10 +11488,10 @@
         <v>2025</v>
       </c>
       <c r="B584" s="3" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="C584" s="3" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="585" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -11469,7 +11502,7 @@
         <v>1264</v>
       </c>
       <c r="C585" s="18" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.2">
@@ -11488,10 +11521,10 @@
         <v>2025</v>
       </c>
       <c r="B587" s="3" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="C587" s="3" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.2">
@@ -11499,10 +11532,10 @@
         <v>2025</v>
       </c>
       <c r="B588" s="3" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="C588" s="3" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.2">
@@ -11521,10 +11554,10 @@
         <v>2025</v>
       </c>
       <c r="B590" s="3" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C590" s="3" t="s">
         <v>1418</v>
-      </c>
-      <c r="C590" s="3" t="s">
-        <v>1419</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.2">
@@ -11543,10 +11576,10 @@
         <v>2025</v>
       </c>
       <c r="B592" s="3" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="C592" s="3" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="593" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -11554,10 +11587,10 @@
         <v>2025</v>
       </c>
       <c r="B593" s="3" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C593" s="18" t="s">
         <v>1376</v>
-      </c>
-      <c r="C593" s="18" t="s">
-        <v>1377</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.2">
@@ -11576,10 +11609,10 @@
         <v>2025</v>
       </c>
       <c r="B595" s="3" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C595" s="3" t="s">
         <v>1390</v>
-      </c>
-      <c r="C595" s="3" t="s">
-        <v>1391</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.2">
@@ -11587,10 +11620,10 @@
         <v>2025</v>
       </c>
       <c r="B596" s="3" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="C596" s="3" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.2">
@@ -11609,10 +11642,10 @@
         <v>2025</v>
       </c>
       <c r="B598" s="3" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C598" s="3" t="s">
         <v>1471</v>
-      </c>
-      <c r="C598" s="3" t="s">
-        <v>1472</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.2">
@@ -11620,10 +11653,10 @@
         <v>2025</v>
       </c>
       <c r="B599" s="3" t="s">
-        <v>1475</v>
+        <v>1494</v>
       </c>
       <c r="C599" s="3" t="s">
-        <v>1474</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.2">
@@ -11631,10 +11664,10 @@
         <v>2025</v>
       </c>
       <c r="B600" s="3" t="s">
-        <v>1311</v>
+        <v>1503</v>
       </c>
       <c r="C600" s="3" t="s">
-        <v>1283</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.2">
@@ -11642,10 +11675,10 @@
         <v>2025</v>
       </c>
       <c r="B601" s="3" t="s">
-        <v>1414</v>
+        <v>1474</v>
       </c>
       <c r="C601" s="3" t="s">
-        <v>1415</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.2">
@@ -11653,10 +11686,10 @@
         <v>2025</v>
       </c>
       <c r="B602" s="3" t="s">
-        <v>1366</v>
+        <v>1311</v>
       </c>
       <c r="C602" s="3" t="s">
-        <v>1370</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.2">
@@ -11664,10 +11697,10 @@
         <v>2025</v>
       </c>
       <c r="B603" s="3" t="s">
-        <v>1295</v>
+        <v>1413</v>
       </c>
       <c r="C603" s="3" t="s">
-        <v>1296</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.2">
@@ -11675,10 +11708,10 @@
         <v>2025</v>
       </c>
       <c r="B604" s="3" t="s">
-        <v>1383</v>
+        <v>1365</v>
       </c>
       <c r="C604" s="3" t="s">
-        <v>1382</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.2">
@@ -11686,10 +11719,10 @@
         <v>2025</v>
       </c>
       <c r="B605" s="3" t="s">
-        <v>1467</v>
+        <v>1295</v>
       </c>
       <c r="C605" s="3" t="s">
-        <v>1404</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.2">
@@ -11697,10 +11730,10 @@
         <v>2025</v>
       </c>
       <c r="B606" s="3" t="s">
-        <v>1389</v>
+        <v>1382</v>
       </c>
       <c r="C606" s="3" t="s">
-        <v>1388</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.2">
@@ -11708,10 +11741,10 @@
         <v>2025</v>
       </c>
       <c r="B607" s="3" t="s">
-        <v>1354</v>
+        <v>1466</v>
       </c>
       <c r="C607" s="3" t="s">
-        <v>1352</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.2">
@@ -11719,10 +11752,10 @@
         <v>2025</v>
       </c>
       <c r="B608" s="3" t="s">
-        <v>1408</v>
+        <v>1388</v>
       </c>
       <c r="C608" s="3" t="s">
-        <v>1407</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.2">
@@ -11730,10 +11763,10 @@
         <v>2025</v>
       </c>
       <c r="B609" s="3" t="s">
-        <v>1381</v>
+        <v>1354</v>
       </c>
       <c r="C609" s="3" t="s">
-        <v>1380</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.2">
@@ -11741,10 +11774,10 @@
         <v>2025</v>
       </c>
       <c r="B610" s="3" t="s">
-        <v>1348</v>
+        <v>1407</v>
       </c>
       <c r="C610" s="3" t="s">
-        <v>1347</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.2">
@@ -11752,10 +11785,10 @@
         <v>2025</v>
       </c>
       <c r="B611" s="3" t="s">
-        <v>1386</v>
+        <v>1380</v>
       </c>
       <c r="C611" s="3" t="s">
-        <v>1385</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.2">
@@ -11763,10 +11796,10 @@
         <v>2025</v>
       </c>
       <c r="B612" s="3" t="s">
-        <v>1375</v>
+        <v>1348</v>
       </c>
       <c r="C612" s="3" t="s">
-        <v>1374</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.2">
@@ -11774,10 +11807,10 @@
         <v>2025</v>
       </c>
       <c r="B613" s="3" t="s">
-        <v>1336</v>
+        <v>1385</v>
       </c>
       <c r="C613" s="3" t="s">
-        <v>1331</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.2">
@@ -11785,10 +11818,10 @@
         <v>2025</v>
       </c>
       <c r="B614" s="3" t="s">
-        <v>1401</v>
+        <v>1374</v>
       </c>
       <c r="C614" s="3" t="s">
-        <v>1402</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.2">
@@ -11796,10 +11829,10 @@
         <v>2025</v>
       </c>
       <c r="B615" s="3" t="s">
-        <v>1321</v>
+        <v>1336</v>
       </c>
       <c r="C615" s="3" t="s">
-        <v>1308</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.2">
@@ -11807,10 +11840,10 @@
         <v>2025</v>
       </c>
       <c r="B616" s="3" t="s">
-        <v>1304</v>
+        <v>1400</v>
       </c>
       <c r="C616" s="3" t="s">
-        <v>1303</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.2">
@@ -11818,10 +11851,10 @@
         <v>2025</v>
       </c>
       <c r="B617" s="3" t="s">
-        <v>1314</v>
+        <v>1321</v>
       </c>
       <c r="C617" s="3" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.2">
@@ -11829,10 +11862,10 @@
         <v>2025</v>
       </c>
       <c r="B618" s="3" t="s">
-        <v>1406</v>
+        <v>1304</v>
       </c>
       <c r="C618" s="3" t="s">
-        <v>1405</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.2">
@@ -11840,10 +11873,10 @@
         <v>2025</v>
       </c>
       <c r="B619" s="3" t="s">
-        <v>1301</v>
+        <v>1314</v>
       </c>
       <c r="C619" s="3" t="s">
-        <v>1300</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.2">
@@ -11851,10 +11884,10 @@
         <v>2025</v>
       </c>
       <c r="B620" s="3" t="s">
-        <v>1473</v>
+        <v>1405</v>
       </c>
       <c r="C620" s="3" t="s">
-        <v>1430</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.2">
@@ -11862,10 +11895,10 @@
         <v>2025</v>
       </c>
       <c r="B621" s="3" t="s">
-        <v>1350</v>
+        <v>1301</v>
       </c>
       <c r="C621" s="3" t="s">
-        <v>1351</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.2">
@@ -11873,10 +11906,10 @@
         <v>2025</v>
       </c>
       <c r="B622" s="3" t="s">
-        <v>1320</v>
+        <v>1472</v>
       </c>
       <c r="C622" s="3" t="s">
-        <v>1318</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.2">
@@ -11884,10 +11917,10 @@
         <v>2025</v>
       </c>
       <c r="B623" s="3" t="s">
-        <v>1335</v>
+        <v>1350</v>
       </c>
       <c r="C623" s="3" t="s">
-        <v>1334</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.2">
@@ -11895,10 +11928,10 @@
         <v>2025</v>
       </c>
       <c r="B624" s="3" t="s">
-        <v>1423</v>
+        <v>1320</v>
       </c>
       <c r="C624" s="3" t="s">
-        <v>1424</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.2">
@@ -11906,10 +11939,10 @@
         <v>2025</v>
       </c>
       <c r="B625" s="3" t="s">
-        <v>1491</v>
+        <v>1335</v>
       </c>
       <c r="C625" s="3" t="s">
-        <v>1492</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.2">
@@ -11917,10 +11950,10 @@
         <v>2025</v>
       </c>
       <c r="B626" s="3" t="s">
-        <v>1480</v>
+        <v>1422</v>
       </c>
       <c r="C626" s="3" t="s">
-        <v>1403</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.2">
@@ -11928,10 +11961,10 @@
         <v>2025</v>
       </c>
       <c r="B627" s="3" t="s">
-        <v>1361</v>
+        <v>1490</v>
       </c>
       <c r="C627" s="3" t="s">
-        <v>1356</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.2">
@@ -11939,10 +11972,10 @@
         <v>2025</v>
       </c>
       <c r="B628" s="3" t="s">
-        <v>1327</v>
+        <v>1479</v>
       </c>
       <c r="C628" s="3" t="s">
-        <v>1322</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.2">
@@ -11950,10 +11983,10 @@
         <v>2025</v>
       </c>
       <c r="B629" s="3" t="s">
-        <v>1358</v>
+        <v>1361</v>
       </c>
       <c r="C629" s="3" t="s">
-        <v>1353</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.2">
@@ -11961,10 +11994,10 @@
         <v>2025</v>
       </c>
       <c r="B630" s="3" t="s">
-        <v>1426</v>
+        <v>1327</v>
       </c>
       <c r="C630" s="3" t="s">
-        <v>1425</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.2">
@@ -11972,98 +12005,104 @@
         <v>2025</v>
       </c>
       <c r="B631" s="3" t="s">
-        <v>1355</v>
+        <v>1358</v>
       </c>
       <c r="C631" s="3" t="s">
-        <v>1339</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A632" s="15">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="B632" s="3" t="s">
-        <v>1421</v>
+        <v>1425</v>
       </c>
       <c r="C632" s="3" t="s">
-        <v>1420</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A633" s="15">
+        <v>2025</v>
+      </c>
+      <c r="B633" s="3" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C633" s="3" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="634" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A634" s="15">
         <v>2026</v>
       </c>
-      <c r="B633" s="3" t="s">
-        <v>1490</v>
-      </c>
-      <c r="C633" s="3" t="s">
-        <v>1427</v>
-      </c>
-    </row>
-    <row r="634" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A634" s="15" t="s">
-        <v>0</v>
+      <c r="B634" s="3" t="s">
+        <v>1507</v>
       </c>
       <c r="C634" s="3" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="635" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A635" s="15">
+        <v>2026</v>
+      </c>
+      <c r="B635" s="3" t="s">
+        <v>1499</v>
+      </c>
+      <c r="C635" s="3" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="636" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A636" s="15">
+        <v>2026</v>
+      </c>
+      <c r="B636" s="3" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C636" s="3" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="637" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A637" s="15">
+        <v>2026</v>
+      </c>
+      <c r="B637" s="3" t="s">
+        <v>1496</v>
+      </c>
+      <c r="C637" s="3" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="638" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A638" s="15">
+        <v>2026</v>
+      </c>
+      <c r="B638" s="3" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C638" s="3" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="639" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A639" s="15">
+        <v>2026</v>
+      </c>
+      <c r="B639" s="3" t="s">
         <v>1489</v>
       </c>
-    </row>
-    <row r="635" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A635" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C635" s="3" t="s">
-        <v>1485</v>
-      </c>
-    </row>
-    <row r="636" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A636" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C636" s="3" t="s">
-        <v>1237</v>
-      </c>
-    </row>
-    <row r="637" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A637" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B637" s="3" t="s">
-        <v>1373</v>
-      </c>
-      <c r="C637" s="3" t="s">
-        <v>1493</v>
-      </c>
-    </row>
-    <row r="638" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A638" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B638" s="3" t="s">
-        <v>1412</v>
-      </c>
-      <c r="C638" s="3" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="639" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A639" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B639" s="3" t="s">
-        <v>1494</v>
-      </c>
       <c r="C639" s="3" t="s">
-        <v>1487</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A640" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B640" s="3" t="s">
-        <v>1495</v>
-      </c>
       <c r="C640" s="3" t="s">
         <v>1488</v>
       </c>
@@ -12073,34 +12112,37 @@
         <v>0</v>
       </c>
       <c r="C641" s="3" t="s">
-        <v>1362</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A642" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B642" s="3" t="s">
-        <v>1364</v>
-      </c>
       <c r="C642" s="3" t="s">
-        <v>1363</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A643" s="15" t="s">
         <v>0</v>
       </c>
+      <c r="B643" s="3" t="s">
+        <v>1372</v>
+      </c>
       <c r="C643" s="3" t="s">
-        <v>1409</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A644" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C644" s="19" t="s">
-        <v>1422</v>
+      <c r="B644" s="3" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C644" s="3" t="s">
+        <v>1412</v>
       </c>
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.2">
@@ -12108,24 +12150,54 @@
         <v>0</v>
       </c>
       <c r="B645" s="3" t="s">
-        <v>1410</v>
+        <v>1493</v>
       </c>
       <c r="C645" s="3" t="s">
-        <v>1411</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="646" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A646" s="15" t="s">
         <v>0</v>
       </c>
+      <c r="B646" s="3" t="s">
+        <v>1363</v>
+      </c>
       <c r="C646" s="3" t="s">
-        <v>1496</v>
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="647" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A647" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C647" s="3" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="648" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A648" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C648" s="19" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="649" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A649" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B649" s="3" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C649" s="3" t="s">
+        <v>1410</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C645">
-    <sortCondition ref="A2:A645"/>
-    <sortCondition ref="C2:C645"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C649">
+    <sortCondition ref="A2:A649"/>
+    <sortCondition ref="C2:C649"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="Submetido">
@@ -12160,13 +12232,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A37" sqref="A37"/>
+      <selection pane="bottomRight" activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12575,10 +12647,29 @@
         <v>2025</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>1397</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>1398</v>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
+        <v>2026</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>1506</v>
       </c>
     </row>
   </sheetData>
@@ -12688,10 +12779,10 @@
         <v>2025</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -12699,10 +12790,10 @@
         <v>2025</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>1477</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>1478</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>1479</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -14095,10 +14186,10 @@
         <v>2025</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
@@ -14106,10 +14197,10 @@
         <v>2025</v>
       </c>
       <c r="B66" s="3" t="s">
+        <v>1432</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>1433</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>1434</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -14117,10 +14208,10 @@
         <v>2025</v>
       </c>
       <c r="B67" s="3" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>1435</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>1436</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
@@ -14128,10 +14219,10 @@
         <v>2025</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
@@ -14139,10 +14230,10 @@
         <v>2025</v>
       </c>
       <c r="B69" s="3" t="s">
+        <v>1438</v>
+      </c>
+      <c r="C69" s="3" t="s">
         <v>1439</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>1440</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
@@ -14150,10 +14241,10 @@
         <v>2025</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
@@ -14161,10 +14252,10 @@
         <v>2025</v>
       </c>
       <c r="B71" s="3" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>1443</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>1444</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
@@ -14172,10 +14263,10 @@
         <v>2025</v>
       </c>
       <c r="B72" s="3" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C72" s="3" t="s">
         <v>1445</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>1446</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
@@ -14183,10 +14274,10 @@
         <v>2025</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
@@ -14194,10 +14285,10 @@
         <v>2025</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
@@ -14205,10 +14296,10 @@
         <v>2025</v>
       </c>
       <c r="B75" s="3" t="s">
+        <v>1450</v>
+      </c>
+      <c r="C75" s="3" t="s">
         <v>1451</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>1452</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
@@ -14216,10 +14307,10 @@
         <v>2025</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
@@ -14227,10 +14318,10 @@
         <v>2025</v>
       </c>
       <c r="B77" s="3" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C77" s="3" t="s">
         <v>1455</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>1456</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
@@ -14238,10 +14329,10 @@
         <v>2025</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
@@ -14249,10 +14340,10 @@
         <v>2025</v>
       </c>
       <c r="B79" s="3" t="s">
+        <v>1458</v>
+      </c>
+      <c r="C79" s="3" t="s">
         <v>1459</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>1460</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
@@ -14260,10 +14351,10 @@
         <v>2025</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
@@ -14271,10 +14362,10 @@
         <v>2025</v>
       </c>
       <c r="B81" s="3" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C81" s="3" t="s">
         <v>1463</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>1464</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
@@ -14282,10 +14373,10 @@
         <v>2025</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
@@ -14293,10 +14384,10 @@
         <v>2025</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
@@ -14304,10 +14395,10 @@
         <v>2025</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
@@ -14315,10 +14406,10 @@
         <v>2025</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
     </row>
   </sheetData>

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurferreira/Google Drive - arthur_sf/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B89B350-8CC2-A54F-A4E9-6C0BB41799FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{436380C0-C766-CA49-A52D-21E06D4F147D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="680" windowWidth="29340" windowHeight="18960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1541" uniqueCount="1508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1547" uniqueCount="1512">
   <si>
     <t>Aceito</t>
   </si>
@@ -4570,6 +4570,18 @@
   </si>
   <si>
     <t>10.3389/fmed.2026.1741129</t>
+  </si>
+  <si>
+    <t>Lócus de controle da saúde e sua associação com cinesiofobia, incapacidade e prognóstico na dor lombar crônica</t>
+  </si>
+  <si>
+    <t>Segurança do exercício físico em pacientes com insuficiência cardíaca submetidos à infusão de inotrópicos - um estudo de coorte retrospectivo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.12865/CHSJ.51.04.10 </t>
+  </si>
+  <si>
+    <t>Comparison between Pulmonary Rehabilitation and Dance in Patients with Chronic Obstructive Pulmonary Disease: A Randomized Controlled Clinical Trial</t>
   </si>
 </sst>
 </file>
@@ -5070,13 +5082,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I649"/>
+  <dimension ref="A1:I652"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B607" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B610" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A649" sqref="A649"/>
+      <selection pane="bottomRight" activeCell="A652" sqref="A652"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11494,26 +11506,26 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="585" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A585" s="15">
         <v>2025</v>
       </c>
       <c r="B585" s="3" t="s">
-        <v>1264</v>
-      </c>
-      <c r="C585" s="18" t="s">
-        <v>1383</v>
-      </c>
-    </row>
-    <row r="586" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1510</v>
+      </c>
+      <c r="C585" s="3" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A586" s="15">
         <v>2025</v>
       </c>
       <c r="B586" s="3" t="s">
-        <v>1309</v>
-      </c>
-      <c r="C586" s="3" t="s">
-        <v>1307</v>
+        <v>1264</v>
+      </c>
+      <c r="C586" s="18" t="s">
+        <v>1383</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.2">
@@ -11521,10 +11533,10 @@
         <v>2025</v>
       </c>
       <c r="B587" s="3" t="s">
-        <v>1366</v>
+        <v>1309</v>
       </c>
       <c r="C587" s="3" t="s">
-        <v>1364</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.2">
@@ -11532,10 +11544,10 @@
         <v>2025</v>
       </c>
       <c r="B588" s="3" t="s">
-        <v>1483</v>
+        <v>1366</v>
       </c>
       <c r="C588" s="3" t="s">
-        <v>1482</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.2">
@@ -11543,10 +11555,10 @@
         <v>2025</v>
       </c>
       <c r="B589" s="3" t="s">
-        <v>1359</v>
+        <v>1483</v>
       </c>
       <c r="C589" s="3" t="s">
-        <v>1357</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.2">
@@ -11554,10 +11566,10 @@
         <v>2025</v>
       </c>
       <c r="B590" s="3" t="s">
-        <v>1417</v>
+        <v>1359</v>
       </c>
       <c r="C590" s="3" t="s">
-        <v>1418</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.2">
@@ -11565,10 +11577,10 @@
         <v>2025</v>
       </c>
       <c r="B591" s="3" t="s">
-        <v>1349</v>
+        <v>1417</v>
       </c>
       <c r="C591" s="3" t="s">
-        <v>1340</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.2">
@@ -11576,32 +11588,32 @@
         <v>2025</v>
       </c>
       <c r="B592" s="3" t="s">
-        <v>1378</v>
+        <v>1349</v>
       </c>
       <c r="C592" s="3" t="s">
-        <v>1377</v>
-      </c>
-    </row>
-    <row r="593" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A593" s="15">
         <v>2025</v>
       </c>
       <c r="B593" s="3" t="s">
-        <v>1375</v>
-      </c>
-      <c r="C593" s="18" t="s">
-        <v>1376</v>
-      </c>
-    </row>
-    <row r="594" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1378</v>
+      </c>
+      <c r="C593" s="3" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A594" s="15">
         <v>2025</v>
       </c>
       <c r="B594" s="3" t="s">
-        <v>1345</v>
-      </c>
-      <c r="C594" s="3" t="s">
-        <v>1346</v>
+        <v>1375</v>
+      </c>
+      <c r="C594" s="18" t="s">
+        <v>1376</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.2">
@@ -11609,10 +11621,10 @@
         <v>2025</v>
       </c>
       <c r="B595" s="3" t="s">
-        <v>1389</v>
+        <v>1345</v>
       </c>
       <c r="C595" s="3" t="s">
-        <v>1390</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.2">
@@ -11620,10 +11632,10 @@
         <v>2025</v>
       </c>
       <c r="B596" s="3" t="s">
-        <v>1399</v>
+        <v>1389</v>
       </c>
       <c r="C596" s="3" t="s">
-        <v>1398</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.2">
@@ -11631,10 +11643,10 @@
         <v>2025</v>
       </c>
       <c r="B597" s="3" t="s">
-        <v>1338</v>
+        <v>1399</v>
       </c>
       <c r="C597" s="3" t="s">
-        <v>1332</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.2">
@@ -11642,10 +11654,10 @@
         <v>2025</v>
       </c>
       <c r="B598" s="3" t="s">
-        <v>1470</v>
+        <v>1338</v>
       </c>
       <c r="C598" s="3" t="s">
-        <v>1471</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.2">
@@ -11653,10 +11665,10 @@
         <v>2025</v>
       </c>
       <c r="B599" s="3" t="s">
-        <v>1494</v>
+        <v>1470</v>
       </c>
       <c r="C599" s="3" t="s">
-        <v>1487</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.2">
@@ -11664,10 +11676,10 @@
         <v>2025</v>
       </c>
       <c r="B600" s="3" t="s">
-        <v>1503</v>
+        <v>1494</v>
       </c>
       <c r="C600" s="3" t="s">
-        <v>1502</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.2">
@@ -11675,10 +11687,10 @@
         <v>2025</v>
       </c>
       <c r="B601" s="3" t="s">
-        <v>1474</v>
+        <v>1503</v>
       </c>
       <c r="C601" s="3" t="s">
-        <v>1473</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.2">
@@ -11686,10 +11698,10 @@
         <v>2025</v>
       </c>
       <c r="B602" s="3" t="s">
-        <v>1311</v>
+        <v>1474</v>
       </c>
       <c r="C602" s="3" t="s">
-        <v>1283</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.2">
@@ -11697,10 +11709,10 @@
         <v>2025</v>
       </c>
       <c r="B603" s="3" t="s">
-        <v>1413</v>
+        <v>1311</v>
       </c>
       <c r="C603" s="3" t="s">
-        <v>1414</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.2">
@@ -11708,10 +11720,10 @@
         <v>2025</v>
       </c>
       <c r="B604" s="3" t="s">
-        <v>1365</v>
+        <v>1413</v>
       </c>
       <c r="C604" s="3" t="s">
-        <v>1369</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.2">
@@ -11719,10 +11731,10 @@
         <v>2025</v>
       </c>
       <c r="B605" s="3" t="s">
-        <v>1295</v>
+        <v>1365</v>
       </c>
       <c r="C605" s="3" t="s">
-        <v>1296</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.2">
@@ -11730,10 +11742,10 @@
         <v>2025</v>
       </c>
       <c r="B606" s="3" t="s">
-        <v>1382</v>
+        <v>1295</v>
       </c>
       <c r="C606" s="3" t="s">
-        <v>1381</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.2">
@@ -11741,10 +11753,10 @@
         <v>2025</v>
       </c>
       <c r="B607" s="3" t="s">
-        <v>1466</v>
+        <v>1382</v>
       </c>
       <c r="C607" s="3" t="s">
-        <v>1403</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.2">
@@ -11752,10 +11764,10 @@
         <v>2025</v>
       </c>
       <c r="B608" s="3" t="s">
-        <v>1388</v>
+        <v>1466</v>
       </c>
       <c r="C608" s="3" t="s">
-        <v>1387</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.2">
@@ -11763,10 +11775,10 @@
         <v>2025</v>
       </c>
       <c r="B609" s="3" t="s">
-        <v>1354</v>
+        <v>1388</v>
       </c>
       <c r="C609" s="3" t="s">
-        <v>1352</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.2">
@@ -11774,10 +11786,10 @@
         <v>2025</v>
       </c>
       <c r="B610" s="3" t="s">
-        <v>1407</v>
+        <v>1354</v>
       </c>
       <c r="C610" s="3" t="s">
-        <v>1406</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.2">
@@ -11785,10 +11797,10 @@
         <v>2025</v>
       </c>
       <c r="B611" s="3" t="s">
-        <v>1380</v>
+        <v>1407</v>
       </c>
       <c r="C611" s="3" t="s">
-        <v>1379</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.2">
@@ -11796,10 +11808,10 @@
         <v>2025</v>
       </c>
       <c r="B612" s="3" t="s">
-        <v>1348</v>
+        <v>1380</v>
       </c>
       <c r="C612" s="3" t="s">
-        <v>1347</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.2">
@@ -11807,10 +11819,10 @@
         <v>2025</v>
       </c>
       <c r="B613" s="3" t="s">
-        <v>1385</v>
+        <v>1348</v>
       </c>
       <c r="C613" s="3" t="s">
-        <v>1384</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.2">
@@ -11818,10 +11830,10 @@
         <v>2025</v>
       </c>
       <c r="B614" s="3" t="s">
-        <v>1374</v>
+        <v>1385</v>
       </c>
       <c r="C614" s="3" t="s">
-        <v>1373</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.2">
@@ -11829,10 +11841,10 @@
         <v>2025</v>
       </c>
       <c r="B615" s="3" t="s">
-        <v>1336</v>
+        <v>1374</v>
       </c>
       <c r="C615" s="3" t="s">
-        <v>1331</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.2">
@@ -11840,10 +11852,10 @@
         <v>2025</v>
       </c>
       <c r="B616" s="3" t="s">
-        <v>1400</v>
+        <v>1336</v>
       </c>
       <c r="C616" s="3" t="s">
-        <v>1401</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.2">
@@ -11851,10 +11863,10 @@
         <v>2025</v>
       </c>
       <c r="B617" s="3" t="s">
-        <v>1321</v>
+        <v>1400</v>
       </c>
       <c r="C617" s="3" t="s">
-        <v>1308</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.2">
@@ -11862,10 +11874,10 @@
         <v>2025</v>
       </c>
       <c r="B618" s="3" t="s">
-        <v>1304</v>
+        <v>1321</v>
       </c>
       <c r="C618" s="3" t="s">
-        <v>1303</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.2">
@@ -11873,10 +11885,10 @@
         <v>2025</v>
       </c>
       <c r="B619" s="3" t="s">
-        <v>1314</v>
+        <v>1304</v>
       </c>
       <c r="C619" s="3" t="s">
-        <v>1312</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.2">
@@ -11884,10 +11896,10 @@
         <v>2025</v>
       </c>
       <c r="B620" s="3" t="s">
-        <v>1405</v>
+        <v>1314</v>
       </c>
       <c r="C620" s="3" t="s">
-        <v>1404</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.2">
@@ -11895,10 +11907,10 @@
         <v>2025</v>
       </c>
       <c r="B621" s="3" t="s">
-        <v>1301</v>
+        <v>1405</v>
       </c>
       <c r="C621" s="3" t="s">
-        <v>1300</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.2">
@@ -11906,10 +11918,10 @@
         <v>2025</v>
       </c>
       <c r="B622" s="3" t="s">
-        <v>1472</v>
+        <v>1301</v>
       </c>
       <c r="C622" s="3" t="s">
-        <v>1429</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.2">
@@ -11917,10 +11929,10 @@
         <v>2025</v>
       </c>
       <c r="B623" s="3" t="s">
-        <v>1350</v>
+        <v>1472</v>
       </c>
       <c r="C623" s="3" t="s">
-        <v>1351</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.2">
@@ -11928,10 +11940,10 @@
         <v>2025</v>
       </c>
       <c r="B624" s="3" t="s">
-        <v>1320</v>
+        <v>1350</v>
       </c>
       <c r="C624" s="3" t="s">
-        <v>1318</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.2">
@@ -11939,10 +11951,10 @@
         <v>2025</v>
       </c>
       <c r="B625" s="3" t="s">
-        <v>1335</v>
+        <v>1320</v>
       </c>
       <c r="C625" s="3" t="s">
-        <v>1334</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.2">
@@ -11950,10 +11962,10 @@
         <v>2025</v>
       </c>
       <c r="B626" s="3" t="s">
-        <v>1422</v>
+        <v>1335</v>
       </c>
       <c r="C626" s="3" t="s">
-        <v>1423</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.2">
@@ -11961,10 +11973,10 @@
         <v>2025</v>
       </c>
       <c r="B627" s="3" t="s">
-        <v>1490</v>
+        <v>1422</v>
       </c>
       <c r="C627" s="3" t="s">
-        <v>1491</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.2">
@@ -11972,10 +11984,10 @@
         <v>2025</v>
       </c>
       <c r="B628" s="3" t="s">
-        <v>1479</v>
+        <v>1490</v>
       </c>
       <c r="C628" s="3" t="s">
-        <v>1402</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.2">
@@ -11983,10 +11995,10 @@
         <v>2025</v>
       </c>
       <c r="B629" s="3" t="s">
-        <v>1361</v>
+        <v>1479</v>
       </c>
       <c r="C629" s="3" t="s">
-        <v>1356</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.2">
@@ -11994,10 +12006,10 @@
         <v>2025</v>
       </c>
       <c r="B630" s="3" t="s">
-        <v>1327</v>
+        <v>1361</v>
       </c>
       <c r="C630" s="3" t="s">
-        <v>1322</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.2">
@@ -12005,10 +12017,10 @@
         <v>2025</v>
       </c>
       <c r="B631" s="3" t="s">
-        <v>1358</v>
+        <v>1327</v>
       </c>
       <c r="C631" s="3" t="s">
-        <v>1353</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.2">
@@ -12016,10 +12028,10 @@
         <v>2025</v>
       </c>
       <c r="B632" s="3" t="s">
-        <v>1425</v>
+        <v>1358</v>
       </c>
       <c r="C632" s="3" t="s">
-        <v>1424</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.2">
@@ -12027,21 +12039,21 @@
         <v>2025</v>
       </c>
       <c r="B633" s="3" t="s">
-        <v>1355</v>
+        <v>1425</v>
       </c>
       <c r="C633" s="3" t="s">
-        <v>1339</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A634" s="15">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="B634" s="3" t="s">
-        <v>1507</v>
+        <v>1355</v>
       </c>
       <c r="C634" s="3" t="s">
-        <v>1495</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.2">
@@ -12049,10 +12061,10 @@
         <v>2026</v>
       </c>
       <c r="B635" s="3" t="s">
-        <v>1499</v>
+        <v>1507</v>
       </c>
       <c r="C635" s="3" t="s">
-        <v>1498</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.2">
@@ -12060,10 +12072,10 @@
         <v>2026</v>
       </c>
       <c r="B636" s="3" t="s">
-        <v>1420</v>
+        <v>1499</v>
       </c>
       <c r="C636" s="3" t="s">
-        <v>1419</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.2">
@@ -12071,10 +12083,10 @@
         <v>2026</v>
       </c>
       <c r="B637" s="3" t="s">
-        <v>1496</v>
+        <v>1420</v>
       </c>
       <c r="C637" s="3" t="s">
-        <v>1497</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.2">
@@ -12082,10 +12094,10 @@
         <v>2026</v>
       </c>
       <c r="B638" s="3" t="s">
-        <v>1504</v>
+        <v>1496</v>
       </c>
       <c r="C638" s="3" t="s">
-        <v>1505</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.2">
@@ -12093,18 +12105,21 @@
         <v>2026</v>
       </c>
       <c r="B639" s="3" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C639" s="3" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="640" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A640" s="15">
+        <v>2026</v>
+      </c>
+      <c r="B640" s="3" t="s">
         <v>1489</v>
       </c>
-      <c r="C639" s="3" t="s">
+      <c r="C640" s="3" t="s">
         <v>1426</v>
-      </c>
-    </row>
-    <row r="640" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A640" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C640" s="3" t="s">
-        <v>1488</v>
       </c>
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.2">
@@ -12112,7 +12127,7 @@
         <v>0</v>
       </c>
       <c r="C641" s="3" t="s">
-        <v>1484</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.2">
@@ -12120,18 +12135,15 @@
         <v>0</v>
       </c>
       <c r="C642" s="3" t="s">
-        <v>1237</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A643" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B643" s="3" t="s">
-        <v>1372</v>
-      </c>
       <c r="C643" s="3" t="s">
-        <v>1492</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.2">
@@ -12139,10 +12151,10 @@
         <v>0</v>
       </c>
       <c r="B644" s="3" t="s">
-        <v>1411</v>
+        <v>1372</v>
       </c>
       <c r="C644" s="3" t="s">
-        <v>1412</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.2">
@@ -12150,10 +12162,10 @@
         <v>0</v>
       </c>
       <c r="B645" s="3" t="s">
-        <v>1493</v>
+        <v>1411</v>
       </c>
       <c r="C645" s="3" t="s">
-        <v>1486</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="646" spans="1:3" x14ac:dyDescent="0.2">
@@ -12161,10 +12173,10 @@
         <v>0</v>
       </c>
       <c r="B646" s="3" t="s">
-        <v>1363</v>
+        <v>1493</v>
       </c>
       <c r="C646" s="3" t="s">
-        <v>1362</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.2">
@@ -12172,32 +12184,59 @@
         <v>0</v>
       </c>
       <c r="C647" s="3" t="s">
-        <v>1408</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A648" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C648" s="19" t="s">
-        <v>1421</v>
+      <c r="B648" s="3" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C648" s="3" t="s">
+        <v>1362</v>
       </c>
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A649" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B649" s="3" t="s">
+      <c r="C649" s="3" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="650" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A650" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C650" s="19" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="651" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A651" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C651" s="3" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="652" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A652" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B652" s="3" t="s">
         <v>1409</v>
       </c>
-      <c r="C649" s="3" t="s">
+      <c r="C652" s="3" t="s">
         <v>1410</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C649">
-    <sortCondition ref="A2:A649"/>
-    <sortCondition ref="C2:C649"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C652">
+    <sortCondition ref="A2:A652"/>
+    <sortCondition ref="C2:C652"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="Submetido">
@@ -12223,7 +12262,7 @@
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="B449" r:id="rId1" xr:uid="{9BCE4324-8A77-884E-80ED-4C3988C2A1D3}"/>
-    <hyperlink ref="B589" r:id="rId2" display="https://doi.org/10.63231/2595-0118.20250016-em" xr:uid="{71D2DE81-84B4-E94C-AB67-C52CD70CA320}"/>
+    <hyperlink ref="B590" r:id="rId2" display="https://doi.org/10.63231/2595-0118.20250016-em" xr:uid="{71D2DE81-84B4-E94C-AB67-C52CD70CA320}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape"/>

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10208"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurferreira/Google Drive - arthur_sf/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{436380C0-C766-CA49-A52D-21E06D4F147D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15FCD25D-AD31-DF46-B7CD-6572D5893EE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="680" windowWidth="29340" windowHeight="18960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1547" uniqueCount="1512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1550" uniqueCount="1515">
   <si>
     <t>Aceito</t>
   </si>
@@ -4582,6 +4582,15 @@
   </si>
   <si>
     <t>Comparison between Pulmonary Rehabilitation and Dance in Patients with Chronic Obstructive Pulmonary Disease: A Randomized Controlled Clinical Trial</t>
+  </si>
+  <si>
+    <t>10.1080/00015385.2026.2630134</t>
+  </si>
+  <si>
+    <t>Função pulmonar e asma grave: o que sabemos?</t>
+  </si>
+  <si>
+    <t>10.63483/rp.v34i1.298</t>
   </si>
 </sst>
 </file>
@@ -5085,10 +5094,10 @@
   <dimension ref="A1:I652"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B610" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B615" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A652" sqref="A652"/>
+      <selection pane="bottomRight" activeCell="A641" sqref="A641"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12271,13 +12280,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A39" sqref="A39"/>
+      <selection pane="bottomRight" activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12707,8 +12716,22 @@
       <c r="A39" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="B39" s="3" t="s">
+        <v>1512</v>
+      </c>
       <c r="C39" s="3" t="s">
         <v>1506</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="3">
+        <v>2026</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>1513</v>
       </c>
     </row>
   </sheetData>

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurferreira/Google Drive - arthur_sf/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15FCD25D-AD31-DF46-B7CD-6572D5893EE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DAA1AAC-EC63-5D43-9A69-CBE93219FE5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="680" windowWidth="29340" windowHeight="18960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1550" uniqueCount="1515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1552" uniqueCount="1518">
   <si>
     <t>Aceito</t>
   </si>
@@ -4591,6 +4591,15 @@
   </si>
   <si>
     <t>10.63483/rp.v34i1.298</t>
+  </si>
+  <si>
+    <t>Functional status and barriers to cardiac rehabilitation as predictors of 1-year mortality in acute coronary syndrome: a longitudinal study</t>
+  </si>
+  <si>
+    <t>Functional status and barriers to cardiac rehabilitation as predictors of hospital readmission in acute coronary syndrome: a longitudinal study</t>
+  </si>
+  <si>
+    <t>INCIDÊNCIA E PREVALÊNCIA DE DOR EM PACIENTES VENTILADOS MECANICAMENTE: RESULTADOS PRELIMINARES DE UMA COORTE MULTICÊNTRICA</t>
   </si>
 </sst>
 </file>
@@ -5097,7 +5106,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B615" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A641" sqref="A641"/>
+      <selection pane="bottomRight" activeCell="A652" sqref="A652"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12178,8 +12187,8 @@
       </c>
     </row>
     <row r="646" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A646" s="15" t="s">
-        <v>0</v>
+      <c r="A646" s="15">
+        <v>2026</v>
       </c>
       <c r="B646" s="3" t="s">
         <v>1493</v>
@@ -12286,7 +12295,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A40" sqref="A40"/>
+      <selection pane="bottomRight" activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13521,13 +13530,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:C85"/>
+  <dimension ref="A1:C88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A86" sqref="A86"/>
+      <selection pane="bottomRight" activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14472,6 +14481,30 @@
       </c>
       <c r="C85" s="3" t="s">
         <v>1480</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" s="3">
+        <v>2025</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" s="3">
+        <v>2025</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" s="3">
+        <v>2025</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>1517</v>
       </c>
     </row>
   </sheetData>

--- a/PPG/Produção.xlsx
+++ b/PPG/Produção.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurferreira/Google Drive - arthur_sf/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DAA1AAC-EC63-5D43-9A69-CBE93219FE5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D9C548-70C1-554A-A816-EB442377D4CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="680" windowWidth="29340" windowHeight="18960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1552" uniqueCount="1518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1551" uniqueCount="1518">
   <si>
     <t>Aceito</t>
   </si>
@@ -5103,7 +5103,7 @@
   <dimension ref="A1:I652"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B615" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B616" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A652" sqref="A652"/>
@@ -12079,10 +12079,10 @@
         <v>2026</v>
       </c>
       <c r="B635" s="3" t="s">
-        <v>1507</v>
+        <v>1493</v>
       </c>
       <c r="C635" s="3" t="s">
-        <v>1495</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.2">
@@ -12090,10 +12090,10 @@
         <v>2026</v>
       </c>
       <c r="B636" s="3" t="s">
-        <v>1499</v>
+        <v>1507</v>
       </c>
       <c r="C636" s="3" t="s">
-        <v>1498</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.2">
@@ -12101,10 +12101,10 @@
         <v>2026</v>
       </c>
       <c r="B637" s="3" t="s">
-        <v>1420</v>
+        <v>1499</v>
       </c>
       <c r="C637" s="3" t="s">
-        <v>1419</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.2">
@@ -12112,10 +12112,10 @@
         <v>2026</v>
       </c>
       <c r="B638" s="3" t="s">
-        <v>1496</v>
+        <v>1420</v>
       </c>
       <c r="C638" s="3" t="s">
-        <v>1497</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.2">
@@ -12123,10 +12123,10 @@
         <v>2026</v>
       </c>
       <c r="B639" s="3" t="s">
-        <v>1504</v>
+        <v>1496</v>
       </c>
       <c r="C639" s="3" t="s">
-        <v>1505</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.2">
@@ -12134,26 +12134,32 @@
         <v>2026</v>
       </c>
       <c r="B640" s="3" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C640" s="3" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="641" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A641" s="15">
+        <v>2026</v>
+      </c>
+      <c r="B641" s="3" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C641" s="3" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="642" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A642" s="15">
+        <v>2026</v>
+      </c>
+      <c r="B642" s="3" t="s">
         <v>1489</v>
       </c>
-      <c r="C640" s="3" t="s">
+      <c r="C642" s="3" t="s">
         <v>1426</v>
-      </c>
-    </row>
-    <row r="641" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A641" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C641" s="3" t="s">
-        <v>1488</v>
-      </c>
-    </row>
-    <row r="642" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A642" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C642" s="3" t="s">
-        <v>1484</v>
       </c>
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.2">
@@ -12161,94 +12167,88 @@
         <v>0</v>
       </c>
       <c r="C643" s="3" t="s">
-        <v>1237</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A644" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B644" s="3" t="s">
-        <v>1372</v>
-      </c>
       <c r="C644" s="3" t="s">
-        <v>1492</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A645" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B645" s="3" t="s">
-        <v>1411</v>
-      </c>
       <c r="C645" s="3" t="s">
-        <v>1412</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="646" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A646" s="15">
-        <v>2026</v>
+      <c r="A646" s="15" t="s">
+        <v>0</v>
       </c>
       <c r="B646" s="3" t="s">
-        <v>1493</v>
+        <v>1372</v>
       </c>
       <c r="C646" s="3" t="s">
-        <v>1486</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A647" s="15" t="s">
         <v>0</v>
       </c>
+      <c r="B647" s="3" t="s">
+        <v>1411</v>
+      </c>
       <c r="C647" s="3" t="s">
-        <v>1508</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A648" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B648" s="3" t="s">
-        <v>1363</v>
-      </c>
       <c r="C648" s="3" t="s">
-        <v>1362</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A649" s="15" t="s">
         <v>0</v>
       </c>
+      <c r="B649" s="3" t="s">
+        <v>1363</v>
+      </c>
       <c r="C649" s="3" t="s">
-        <v>1408</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="650" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A650" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C650" s="19" t="s">
-        <v>1421</v>
+      <c r="C650" s="3" t="s">
+        <v>1408</v>
       </c>
     </row>
     <row r="651" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A651" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C651" s="3" t="s">
-        <v>1509</v>
+      <c r="C651" s="19" t="s">
+        <v>1421</v>
       </c>
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A652" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B652" s="3" t="s">
-        <v>1409</v>
-      </c>
       <c r="C652" s="3" t="s">
-        <v>1410</v>
+        <v>1509</v>
       </c>
     </row>
   </sheetData>
